--- a/メニュー/メニュー.xlsx
+++ b/メニュー/メニュー.xlsx
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2618" uniqueCount="929">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2618" uniqueCount="928">
   <si>
     <t>大カテゴリー</t>
   </si>
@@ -1706,9 +1706,6 @@
   </si>
   <si>
     <t>public-facility-navy</t>
-  </si>
-  <si>
-    <t>市の窓口1</t>
   </si>
   <si>
     <t>Free Wi-Fiスポット</t>
@@ -9462,21 +9459,21 @@
     </row>
     <row r="199" ht="13.5" customHeight="1">
       <c r="A199" s="12" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="B199" s="30"/>
       <c r="C199" s="30" t="s">
+        <v>544</v>
+      </c>
+      <c r="D199" s="29" t="s">
         <v>545</v>
-      </c>
-      <c r="D199" s="29" t="s">
-        <v>546</v>
       </c>
       <c r="E199" s="10"/>
       <c r="F199" s="8"/>
       <c r="G199" s="8"/>
       <c r="H199" s="10"/>
       <c r="I199" s="8" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="J199" s="8"/>
       <c r="K199" s="10"/>
@@ -18242,13 +18239,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="74" t="s">
+        <v>547</v>
+      </c>
+      <c r="F1" s="75" t="s">
         <v>548</v>
       </c>
-      <c r="F1" s="75" t="s">
+      <c r="G1" s="76" t="s">
         <v>549</v>
-      </c>
-      <c r="G1" s="76" t="s">
-        <v>550</v>
       </c>
       <c r="H1" s="77" t="s">
         <v>4</v>
@@ -18282,26 +18279,26 @@
     </row>
     <row r="2" ht="13.5" customHeight="1">
       <c r="A2" s="65" t="s">
+        <v>550</v>
+      </c>
+      <c r="B2" s="79" t="s">
         <v>551</v>
       </c>
-      <c r="B2" s="79" t="s">
+      <c r="C2" s="60" t="s">
         <v>552</v>
       </c>
-      <c r="C2" s="60" t="s">
+      <c r="D2" s="80" t="s">
         <v>553</v>
       </c>
-      <c r="D2" s="80" t="s">
+      <c r="E2" s="60" t="s">
+        <v>553</v>
+      </c>
+      <c r="F2" s="65" t="s">
         <v>554</v>
-      </c>
-      <c r="E2" s="60" t="s">
-        <v>554</v>
-      </c>
-      <c r="F2" s="65" t="s">
-        <v>555</v>
       </c>
       <c r="G2" s="80"/>
       <c r="H2" s="81" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="I2" s="82"/>
       <c r="J2" s="82"/>
@@ -18316,26 +18313,26 @@
     </row>
     <row r="3" ht="13.5" customHeight="1">
       <c r="A3" s="65" t="s">
+        <v>550</v>
+      </c>
+      <c r="B3" s="79" t="s">
         <v>551</v>
       </c>
-      <c r="B3" s="79" t="s">
-        <v>552</v>
-      </c>
       <c r="C3" s="60" t="s">
+        <v>556</v>
+      </c>
+      <c r="D3" s="80" t="s">
         <v>557</v>
       </c>
-      <c r="D3" s="80" t="s">
-        <v>558</v>
-      </c>
       <c r="E3" s="60" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="F3" s="65" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="G3" s="80"/>
       <c r="H3" s="81" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="I3" s="68"/>
       <c r="J3" s="68"/>
@@ -18350,26 +18347,26 @@
     </row>
     <row r="4" ht="13.5" customHeight="1">
       <c r="A4" s="65" t="s">
+        <v>550</v>
+      </c>
+      <c r="B4" s="79" t="s">
         <v>551</v>
       </c>
-      <c r="B4" s="79" t="s">
-        <v>552</v>
-      </c>
       <c r="C4" s="60" t="s">
+        <v>558</v>
+      </c>
+      <c r="D4" s="80" t="s">
         <v>559</v>
       </c>
-      <c r="D4" s="80" t="s">
-        <v>560</v>
-      </c>
       <c r="E4" s="60" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F4" s="65" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="G4" s="80"/>
       <c r="H4" s="81" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="I4" s="68"/>
       <c r="J4" s="68"/>
@@ -18384,26 +18381,26 @@
     </row>
     <row r="5" ht="13.5" customHeight="1">
       <c r="A5" s="65" t="s">
+        <v>550</v>
+      </c>
+      <c r="B5" s="79" t="s">
         <v>551</v>
       </c>
-      <c r="B5" s="79" t="s">
-        <v>552</v>
-      </c>
       <c r="C5" s="60" t="s">
+        <v>560</v>
+      </c>
+      <c r="D5" s="80" t="s">
         <v>561</v>
       </c>
-      <c r="D5" s="80" t="s">
-        <v>562</v>
-      </c>
       <c r="E5" s="60" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="F5" s="65" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="G5" s="80"/>
       <c r="H5" s="81" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="I5" s="68"/>
       <c r="J5" s="68"/>
@@ -18418,26 +18415,26 @@
     </row>
     <row r="6" ht="13.5" customHeight="1">
       <c r="A6" s="65" t="s">
+        <v>550</v>
+      </c>
+      <c r="B6" s="79" t="s">
         <v>551</v>
       </c>
-      <c r="B6" s="79" t="s">
-        <v>552</v>
-      </c>
       <c r="C6" s="60" t="s">
+        <v>562</v>
+      </c>
+      <c r="D6" s="80" t="s">
         <v>563</v>
       </c>
-      <c r="D6" s="80" t="s">
-        <v>564</v>
-      </c>
       <c r="E6" s="60" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F6" s="65" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="G6" s="80"/>
       <c r="H6" s="81" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="I6" s="68"/>
       <c r="J6" s="68"/>
@@ -18452,26 +18449,26 @@
     </row>
     <row r="7" ht="13.5" customHeight="1">
       <c r="A7" s="65" t="s">
+        <v>550</v>
+      </c>
+      <c r="B7" s="79" t="s">
         <v>551</v>
       </c>
-      <c r="B7" s="79" t="s">
-        <v>552</v>
-      </c>
       <c r="C7" s="60" t="s">
+        <v>564</v>
+      </c>
+      <c r="D7" s="80" t="s">
         <v>565</v>
       </c>
-      <c r="D7" s="80" t="s">
-        <v>566</v>
-      </c>
       <c r="E7" s="60" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="F7" s="65" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="G7" s="80"/>
       <c r="H7" s="81" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="I7" s="68"/>
       <c r="J7" s="68"/>
@@ -18486,24 +18483,24 @@
     </row>
     <row r="8" ht="13.5" customHeight="1">
       <c r="A8" s="65" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B8" s="79"/>
       <c r="C8" s="81" t="s">
+        <v>566</v>
+      </c>
+      <c r="D8" s="80" t="s">
         <v>567</v>
       </c>
-      <c r="D8" s="80" t="s">
-        <v>568</v>
-      </c>
       <c r="E8" s="60" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="F8" s="65" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="G8" s="80"/>
       <c r="H8" s="81" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="I8" s="68"/>
       <c r="J8" s="68"/>
@@ -18518,26 +18515,26 @@
     </row>
     <row r="9" ht="13.5" customHeight="1">
       <c r="A9" s="65" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B9" s="79" t="s">
+        <v>569</v>
+      </c>
+      <c r="C9" s="81" t="s">
         <v>570</v>
       </c>
-      <c r="C9" s="81" t="s">
+      <c r="D9" s="80" t="s">
         <v>571</v>
       </c>
-      <c r="D9" s="80" t="s">
-        <v>572</v>
-      </c>
       <c r="E9" s="60" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="F9" s="65" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="G9" s="80"/>
       <c r="H9" s="81" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="I9" s="68"/>
       <c r="J9" s="68"/>
@@ -18552,26 +18549,26 @@
     </row>
     <row r="10" ht="13.5" customHeight="1">
       <c r="A10" s="65" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B10" s="79" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C10" s="81" t="s">
+        <v>573</v>
+      </c>
+      <c r="D10" s="80" t="s">
         <v>574</v>
       </c>
-      <c r="D10" s="80" t="s">
-        <v>575</v>
-      </c>
       <c r="E10" s="60" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F10" s="65" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="G10" s="80"/>
       <c r="H10" s="81" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="I10" s="68"/>
       <c r="J10" s="68"/>
@@ -18586,26 +18583,26 @@
     </row>
     <row r="11" ht="13.5" customHeight="1">
       <c r="A11" s="65" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B11" s="84" t="s">
+        <v>575</v>
+      </c>
+      <c r="C11" s="81" t="s">
         <v>576</v>
       </c>
-      <c r="C11" s="81" t="s">
+      <c r="D11" s="80" t="s">
         <v>577</v>
       </c>
-      <c r="D11" s="80" t="s">
-        <v>578</v>
-      </c>
       <c r="E11" s="60" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="F11" s="65" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="G11" s="80"/>
       <c r="H11" s="81" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="I11" s="68"/>
       <c r="J11" s="68"/>
@@ -18620,26 +18617,26 @@
     </row>
     <row r="12" ht="13.5" customHeight="1">
       <c r="A12" s="65" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B12" s="84" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C12" s="81" t="s">
+        <v>578</v>
+      </c>
+      <c r="D12" s="80" t="s">
         <v>579</v>
       </c>
-      <c r="D12" s="80" t="s">
-        <v>580</v>
-      </c>
       <c r="E12" s="60" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="F12" s="65" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="G12" s="80"/>
       <c r="H12" s="81" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="I12" s="68"/>
       <c r="J12" s="68"/>
@@ -18654,32 +18651,32 @@
     </row>
     <row r="13" ht="13.5" customHeight="1">
       <c r="A13" s="65" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B13" s="84" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C13" s="60" t="s">
+        <v>580</v>
+      </c>
+      <c r="D13" s="80" t="s">
         <v>581</v>
       </c>
-      <c r="D13" s="80" t="s">
-        <v>582</v>
-      </c>
       <c r="E13" s="60" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="F13" s="65" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="G13" s="80"/>
       <c r="H13" s="81" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="I13" s="82"/>
       <c r="J13" s="82"/>
       <c r="K13" s="82"/>
       <c r="L13" s="82" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="M13" s="82"/>
       <c r="N13" s="67"/>
@@ -18690,22 +18687,22 @@
     </row>
     <row r="14" ht="13.5" customHeight="1">
       <c r="A14" s="65" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B14" s="84" t="s">
+        <v>583</v>
+      </c>
+      <c r="C14" s="60" t="s">
         <v>584</v>
       </c>
-      <c r="C14" s="60" t="s">
+      <c r="D14" s="80" t="s">
         <v>585</v>
       </c>
-      <c r="D14" s="80" t="s">
-        <v>586</v>
-      </c>
       <c r="E14" s="60" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="F14" s="65" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="G14" s="80"/>
       <c r="H14" s="60" t="s">
@@ -18724,26 +18721,26 @@
     </row>
     <row r="15" ht="13.5" customHeight="1">
       <c r="A15" s="65" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B15" s="84" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C15" s="60" t="s">
+        <v>586</v>
+      </c>
+      <c r="D15" s="80" t="s">
         <v>587</v>
       </c>
-      <c r="D15" s="80" t="s">
-        <v>588</v>
-      </c>
       <c r="E15" s="60" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="F15" s="65" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="G15" s="80"/>
       <c r="H15" s="81" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="I15" s="68"/>
       <c r="J15" s="68"/>
@@ -18760,16 +18757,16 @@
       <c r="A16" s="65"/>
       <c r="B16" s="84"/>
       <c r="C16" s="60" t="s">
+        <v>588</v>
+      </c>
+      <c r="D16" s="80" t="s">
         <v>589</v>
       </c>
-      <c r="D16" s="80" t="s">
-        <v>590</v>
-      </c>
       <c r="E16" s="60" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="F16" s="65" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="G16" s="80"/>
       <c r="H16" s="81"/>
@@ -18791,13 +18788,13 @@
         <v>13</v>
       </c>
       <c r="D17" s="85" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E17" s="65" t="s">
         <v>13</v>
       </c>
       <c r="F17" s="84" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G17" s="66"/>
       <c r="H17" s="81" t="s">
@@ -18829,13 +18826,13 @@
         <v>18</v>
       </c>
       <c r="D18" s="87" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="E18" s="60" t="s">
         <v>18</v>
       </c>
       <c r="F18" s="60" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G18" s="88"/>
       <c r="H18" s="81"/>
@@ -18863,13 +18860,13 @@
         <v>21</v>
       </c>
       <c r="D19" s="91" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="E19" s="81" t="s">
         <v>21</v>
       </c>
       <c r="F19" s="60" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G19" s="88"/>
       <c r="H19" s="81"/>
@@ -18897,13 +18894,13 @@
         <v>24</v>
       </c>
       <c r="D20" s="93" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E20" s="92" t="s">
         <v>24</v>
       </c>
       <c r="F20" s="60" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G20" s="94"/>
       <c r="H20" s="81"/>
@@ -18931,13 +18928,13 @@
         <v>27</v>
       </c>
       <c r="D21" s="93" t="s">
+        <v>595</v>
+      </c>
+      <c r="E21" s="95" t="s">
         <v>596</v>
       </c>
-      <c r="E21" s="95" t="s">
-        <v>597</v>
-      </c>
       <c r="F21" s="60" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G21" s="94"/>
       <c r="H21" s="96"/>
@@ -18965,13 +18962,13 @@
         <v>30</v>
       </c>
       <c r="D22" s="93" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E22" s="92" t="s">
         <v>30</v>
       </c>
       <c r="F22" s="60" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G22" s="94"/>
       <c r="H22" s="81"/>
@@ -18999,13 +18996,13 @@
         <v>33</v>
       </c>
       <c r="D23" s="98" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E23" s="92" t="s">
         <v>33</v>
       </c>
       <c r="F23" s="60" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G23" s="99"/>
       <c r="H23" s="81"/>
@@ -19033,13 +19030,13 @@
         <v>36</v>
       </c>
       <c r="D24" s="93" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E24" s="92" t="s">
         <v>36</v>
       </c>
       <c r="F24" s="60" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G24" s="94"/>
       <c r="H24" s="81"/>
@@ -19067,13 +19064,13 @@
         <v>39</v>
       </c>
       <c r="D25" s="93" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E25" s="92" t="s">
         <v>39</v>
       </c>
       <c r="F25" s="60" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G25" s="94"/>
       <c r="H25" s="81"/>
@@ -19101,13 +19098,13 @@
         <v>42</v>
       </c>
       <c r="D26" s="100" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E26" s="81" t="s">
         <v>42</v>
       </c>
       <c r="F26" s="60" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G26" s="80"/>
       <c r="H26" s="81"/>
@@ -19135,13 +19132,13 @@
         <v>45</v>
       </c>
       <c r="D27" s="100" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E27" s="81" t="s">
         <v>45</v>
       </c>
       <c r="F27" s="60" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G27" s="80"/>
       <c r="H27" s="81"/>
@@ -19169,13 +19166,13 @@
         <v>48</v>
       </c>
       <c r="D28" s="87" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="E28" s="81" t="s">
         <v>48</v>
       </c>
       <c r="F28" s="60" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G28" s="88"/>
       <c r="H28" s="81"/>
@@ -19203,13 +19200,13 @@
         <v>51</v>
       </c>
       <c r="D29" s="87" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E29" s="81" t="s">
         <v>51</v>
       </c>
       <c r="F29" s="60" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G29" s="88"/>
       <c r="H29" s="81"/>
@@ -19237,13 +19234,13 @@
         <v>55</v>
       </c>
       <c r="D30" s="27" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E30" s="101" t="s">
         <v>55</v>
       </c>
       <c r="F30" s="65" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G30" s="102"/>
       <c r="H30" s="65"/>
@@ -19271,13 +19268,13 @@
         <v>58</v>
       </c>
       <c r="D31" s="27" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E31" s="101" t="s">
         <v>58</v>
       </c>
       <c r="F31" s="65" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G31" s="102"/>
       <c r="H31" s="67"/>
@@ -19305,13 +19302,13 @@
         <v>61</v>
       </c>
       <c r="D32" s="27" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E32" s="101" t="s">
         <v>61</v>
       </c>
       <c r="F32" s="65" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G32" s="102"/>
       <c r="H32" s="67"/>
@@ -19339,13 +19336,13 @@
         <v>65</v>
       </c>
       <c r="D33" s="27" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E33" s="101" t="s">
         <v>65</v>
       </c>
       <c r="F33" s="65" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G33" s="102"/>
       <c r="H33" s="67"/>
@@ -19373,13 +19370,13 @@
         <v>68</v>
       </c>
       <c r="D34" s="27" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="E34" s="101" t="s">
         <v>68</v>
       </c>
       <c r="F34" s="65" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G34" s="102"/>
       <c r="H34" s="65"/>
@@ -19405,13 +19402,13 @@
         <v>71</v>
       </c>
       <c r="D35" s="27" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="E35" s="101" t="s">
         <v>71</v>
       </c>
       <c r="F35" s="65" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G35" s="102"/>
       <c r="H35" s="65" t="s">
@@ -19443,16 +19440,16 @@
         <v>76</v>
       </c>
       <c r="D36" s="27" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E36" s="104" t="s">
         <v>76</v>
       </c>
       <c r="F36" s="84" t="s">
+        <v>612</v>
+      </c>
+      <c r="G36" s="102" t="s">
         <v>613</v>
-      </c>
-      <c r="G36" s="102" t="s">
-        <v>614</v>
       </c>
       <c r="H36" s="81"/>
       <c r="I36" s="68"/>
@@ -19477,16 +19474,16 @@
         <v>78</v>
       </c>
       <c r="D37" s="27" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E37" s="105" t="s">
         <v>78</v>
       </c>
       <c r="F37" s="84" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="G37" s="102" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H37" s="81"/>
       <c r="I37" s="68"/>
@@ -19511,16 +19508,16 @@
         <v>81</v>
       </c>
       <c r="D38" s="106" t="s">
+        <v>616</v>
+      </c>
+      <c r="E38" s="84" t="s">
         <v>617</v>
       </c>
-      <c r="E38" s="84" t="s">
+      <c r="F38" s="84" t="s">
+        <v>612</v>
+      </c>
+      <c r="G38" s="106" t="s">
         <v>618</v>
-      </c>
-      <c r="F38" s="84" t="s">
-        <v>613</v>
-      </c>
-      <c r="G38" s="106" t="s">
-        <v>619</v>
       </c>
       <c r="H38" s="65"/>
       <c r="I38" s="68"/>
@@ -19545,13 +19542,13 @@
         <v>84</v>
       </c>
       <c r="D39" s="108" t="s">
+        <v>619</v>
+      </c>
+      <c r="E39" s="107" t="s">
         <v>620</v>
       </c>
-      <c r="E39" s="107" t="s">
-        <v>621</v>
-      </c>
       <c r="F39" s="84" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G39" s="66"/>
       <c r="H39" s="65" t="s">
@@ -19581,13 +19578,13 @@
         <v>87</v>
       </c>
       <c r="D40" s="108" t="s">
+        <v>621</v>
+      </c>
+      <c r="E40" s="107" t="s">
         <v>622</v>
       </c>
-      <c r="E40" s="107" t="s">
-        <v>623</v>
-      </c>
       <c r="F40" s="84" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G40" s="66"/>
       <c r="H40" s="65" t="s">
@@ -19617,13 +19614,13 @@
         <v>90</v>
       </c>
       <c r="D41" s="108" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E41" s="107" t="s">
         <v>90</v>
       </c>
       <c r="F41" s="84" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G41" s="66"/>
       <c r="H41" s="65" t="s">
@@ -19653,13 +19650,13 @@
         <v>93</v>
       </c>
       <c r="D42" s="109" t="s">
+        <v>624</v>
+      </c>
+      <c r="E42" s="107" t="s">
         <v>625</v>
       </c>
-      <c r="E42" s="107" t="s">
-        <v>626</v>
-      </c>
       <c r="F42" s="84" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G42" s="85"/>
       <c r="H42" s="65" t="s">
@@ -19689,13 +19686,13 @@
         <v>96</v>
       </c>
       <c r="D43" s="108" t="s">
+        <v>626</v>
+      </c>
+      <c r="E43" s="107" t="s">
         <v>627</v>
       </c>
-      <c r="E43" s="107" t="s">
-        <v>628</v>
-      </c>
       <c r="F43" s="84" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G43" s="66"/>
       <c r="H43" s="65" t="s">
@@ -19725,16 +19722,16 @@
         <v>100</v>
       </c>
       <c r="D44" s="110" t="s">
+        <v>628</v>
+      </c>
+      <c r="E44" s="111" t="s">
         <v>629</v>
       </c>
-      <c r="E44" s="111" t="s">
+      <c r="F44" s="84" t="s">
+        <v>612</v>
+      </c>
+      <c r="G44" s="112" t="s">
         <v>630</v>
-      </c>
-      <c r="F44" s="84" t="s">
-        <v>613</v>
-      </c>
-      <c r="G44" s="112" t="s">
-        <v>631</v>
       </c>
       <c r="H44" s="65"/>
       <c r="I44" s="68"/>
@@ -19762,13 +19759,13 @@
         <v>103</v>
       </c>
       <c r="E45" s="84" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="F45" s="84" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="G45" s="112" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H45" s="65"/>
       <c r="I45" s="82"/>
@@ -19796,13 +19793,13 @@
         <v>105</v>
       </c>
       <c r="E46" s="84" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="F46" s="84" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="G46" s="112" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H46" s="65"/>
       <c r="I46" s="82"/>
@@ -19830,13 +19827,13 @@
         <v>107</v>
       </c>
       <c r="E47" s="84" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="F47" s="84" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="G47" s="112" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H47" s="67"/>
       <c r="I47" s="82"/>
@@ -19864,13 +19861,13 @@
         <v>109</v>
       </c>
       <c r="E48" s="84" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="F48" s="84" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="G48" s="112" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H48" s="65"/>
       <c r="I48" s="82"/>
@@ -19898,13 +19895,13 @@
         <v>111</v>
       </c>
       <c r="E49" s="84" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="F49" s="84" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="G49" s="112" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H49" s="65"/>
       <c r="I49" s="82"/>
@@ -19932,13 +19929,13 @@
         <v>113</v>
       </c>
       <c r="E50" s="84" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="F50" s="84" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="G50" s="112" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H50" s="67"/>
       <c r="I50" s="82"/>
@@ -19966,13 +19963,13 @@
         <v>115</v>
       </c>
       <c r="E51" s="84" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="F51" s="84" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="G51" s="112" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H51" s="65"/>
       <c r="I51" s="82"/>
@@ -20000,13 +19997,13 @@
         <v>117</v>
       </c>
       <c r="E52" s="84" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="F52" s="84" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="G52" s="112" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H52" s="65"/>
       <c r="I52" s="82"/>
@@ -20034,13 +20031,13 @@
         <v>119</v>
       </c>
       <c r="E53" s="84" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="F53" s="84" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="G53" s="112" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H53" s="65"/>
       <c r="I53" s="82"/>
@@ -20068,13 +20065,13 @@
         <v>121</v>
       </c>
       <c r="E54" s="84" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="F54" s="84" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="G54" s="112" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H54" s="65"/>
       <c r="I54" s="82"/>
@@ -20102,13 +20099,13 @@
         <v>123</v>
       </c>
       <c r="E55" s="84" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="F55" s="84" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="G55" s="112" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H55" s="65"/>
       <c r="I55" s="82"/>
@@ -20136,13 +20133,13 @@
         <v>125</v>
       </c>
       <c r="E56" s="84" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="F56" s="84" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="G56" s="112" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H56" s="65"/>
       <c r="I56" s="82"/>
@@ -20170,13 +20167,13 @@
         <v>127</v>
       </c>
       <c r="E57" s="84" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="F57" s="84" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="G57" s="112" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H57" s="67"/>
       <c r="I57" s="82"/>
@@ -20204,13 +20201,13 @@
         <v>129</v>
       </c>
       <c r="E58" s="84" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="F58" s="84" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="G58" s="112" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H58" s="65"/>
       <c r="I58" s="82"/>
@@ -20238,13 +20235,13 @@
         <v>131</v>
       </c>
       <c r="E59" s="84" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="F59" s="84" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="G59" s="112" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H59" s="65"/>
       <c r="I59" s="82"/>
@@ -20272,13 +20269,13 @@
         <v>133</v>
       </c>
       <c r="E60" s="84" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="F60" s="84" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="G60" s="112" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H60" s="65"/>
       <c r="I60" s="82"/>
@@ -20306,13 +20303,13 @@
         <v>135</v>
       </c>
       <c r="E61" s="111" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="F61" s="84" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="G61" s="112" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H61" s="65"/>
       <c r="I61" s="68"/>
@@ -20340,13 +20337,13 @@
         <v>136</v>
       </c>
       <c r="E62" s="111" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="F62" s="84" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="G62" s="112" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H62" s="65"/>
       <c r="I62" s="68"/>
@@ -20374,13 +20371,13 @@
         <v>137</v>
       </c>
       <c r="E63" s="84" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="F63" s="84" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="G63" s="112" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H63" s="65"/>
       <c r="I63" s="68"/>
@@ -20408,13 +20405,13 @@
         <v>138</v>
       </c>
       <c r="E64" s="84" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="F64" s="84" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="G64" s="112" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H64" s="65"/>
       <c r="I64" s="68"/>
@@ -20442,13 +20439,13 @@
         <v>139</v>
       </c>
       <c r="E65" s="111" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="F65" s="84" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="G65" s="112" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H65" s="65"/>
       <c r="I65" s="68"/>
@@ -20476,13 +20473,13 @@
         <v>140</v>
       </c>
       <c r="E66" s="84" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="F66" s="84" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="G66" s="112" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H66" s="65"/>
       <c r="I66" s="68"/>
@@ -20510,13 +20507,13 @@
         <v>141</v>
       </c>
       <c r="E67" s="84" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F67" s="84" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="G67" s="112" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H67" s="67"/>
       <c r="I67" s="68"/>
@@ -20541,16 +20538,16 @@
         <v>100</v>
       </c>
       <c r="D68" s="106" t="s">
+        <v>654</v>
+      </c>
+      <c r="E68" s="84" t="s">
         <v>655</v>
       </c>
-      <c r="E68" s="84" t="s">
+      <c r="F68" s="84" t="s">
+        <v>612</v>
+      </c>
+      <c r="G68" s="106" t="s">
         <v>656</v>
-      </c>
-      <c r="F68" s="84" t="s">
-        <v>613</v>
-      </c>
-      <c r="G68" s="106" t="s">
-        <v>657</v>
       </c>
       <c r="H68" s="116"/>
       <c r="I68" s="68"/>
@@ -20578,13 +20575,13 @@
         <v>144</v>
       </c>
       <c r="E69" s="116" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="F69" s="84" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="G69" s="106" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="H69" s="67"/>
       <c r="I69" s="68"/>
@@ -20612,13 +20609,13 @@
         <v>145</v>
       </c>
       <c r="E70" s="84" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F70" s="84" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="G70" s="106" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="H70" s="67"/>
       <c r="I70" s="68"/>
@@ -20646,13 +20643,13 @@
         <v>146</v>
       </c>
       <c r="E71" s="84" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F71" s="84" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="G71" s="106" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="H71" s="67"/>
       <c r="I71" s="68"/>
@@ -20680,13 +20677,13 @@
         <v>147</v>
       </c>
       <c r="E72" s="84" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="F72" s="84" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="G72" s="106" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="H72" s="116"/>
       <c r="I72" s="68"/>
@@ -20714,13 +20711,13 @@
         <v>148</v>
       </c>
       <c r="E73" s="116" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="F73" s="84" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="G73" s="106" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="H73" s="67"/>
       <c r="I73" s="68"/>
@@ -20748,13 +20745,13 @@
         <v>149</v>
       </c>
       <c r="E74" s="84" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="F74" s="84" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="G74" s="106" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="H74" s="67"/>
       <c r="I74" s="68"/>
@@ -20782,13 +20779,13 @@
         <v>150</v>
       </c>
       <c r="E75" s="84" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="F75" s="84" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="G75" s="106" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="H75" s="67"/>
       <c r="I75" s="68"/>
@@ -20816,13 +20813,13 @@
         <v>151</v>
       </c>
       <c r="E76" s="84" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="F76" s="84" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="G76" s="106" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="H76" s="67"/>
       <c r="I76" s="68"/>
@@ -20847,13 +20844,13 @@
         <v>102</v>
       </c>
       <c r="D77" s="108" t="s">
+        <v>665</v>
+      </c>
+      <c r="E77" s="65" t="s">
         <v>666</v>
       </c>
-      <c r="E77" s="65" t="s">
-        <v>667</v>
-      </c>
       <c r="F77" s="84" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G77" s="66"/>
       <c r="H77" s="65" t="s">
@@ -20883,13 +20880,13 @@
         <v>102</v>
       </c>
       <c r="D78" s="108" t="s">
+        <v>667</v>
+      </c>
+      <c r="E78" s="65" t="s">
         <v>668</v>
       </c>
-      <c r="E78" s="65" t="s">
-        <v>669</v>
-      </c>
       <c r="F78" s="84" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G78" s="66"/>
       <c r="H78" s="65" t="s">
@@ -20919,13 +20916,13 @@
         <v>108</v>
       </c>
       <c r="D79" s="108" t="s">
+        <v>669</v>
+      </c>
+      <c r="E79" s="65" t="s">
         <v>670</v>
       </c>
-      <c r="E79" s="65" t="s">
-        <v>671</v>
-      </c>
       <c r="F79" s="84" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G79" s="66"/>
       <c r="H79" s="65" t="s">
@@ -20955,13 +20952,13 @@
         <v>110</v>
       </c>
       <c r="D80" s="108" t="s">
+        <v>671</v>
+      </c>
+      <c r="E80" s="65" t="s">
         <v>672</v>
       </c>
-      <c r="E80" s="65" t="s">
-        <v>673</v>
-      </c>
       <c r="F80" s="84" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G80" s="66"/>
       <c r="H80" s="65" t="s">
@@ -20991,13 +20988,13 @@
         <v>114</v>
       </c>
       <c r="D81" s="108" t="s">
+        <v>673</v>
+      </c>
+      <c r="E81" s="65" t="s">
         <v>674</v>
       </c>
-      <c r="E81" s="65" t="s">
-        <v>675</v>
-      </c>
       <c r="F81" s="84" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G81" s="66"/>
       <c r="H81" s="65" t="s">
@@ -21027,13 +21024,13 @@
         <v>122</v>
       </c>
       <c r="D82" s="108" t="s">
+        <v>675</v>
+      </c>
+      <c r="E82" s="65" t="s">
         <v>676</v>
       </c>
-      <c r="E82" s="65" t="s">
-        <v>677</v>
-      </c>
       <c r="F82" s="84" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G82" s="66"/>
       <c r="H82" s="65" t="s">
@@ -21063,13 +21060,13 @@
         <v>124</v>
       </c>
       <c r="D83" s="117" t="s">
+        <v>677</v>
+      </c>
+      <c r="E83" s="65" t="s">
         <v>678</v>
       </c>
-      <c r="E83" s="65" t="s">
-        <v>679</v>
-      </c>
       <c r="F83" s="84" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G83" s="115"/>
       <c r="H83" s="65" t="s">
@@ -21099,13 +21096,13 @@
         <v>128</v>
       </c>
       <c r="D84" s="108" t="s">
+        <v>679</v>
+      </c>
+      <c r="E84" s="65" t="s">
         <v>680</v>
       </c>
-      <c r="E84" s="65" t="s">
-        <v>681</v>
-      </c>
       <c r="F84" s="84" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G84" s="66"/>
       <c r="H84" s="65" t="s">
@@ -21135,13 +21132,13 @@
         <v>132</v>
       </c>
       <c r="D85" s="117" t="s">
+        <v>681</v>
+      </c>
+      <c r="E85" s="65" t="s">
         <v>682</v>
       </c>
-      <c r="E85" s="65" t="s">
-        <v>683</v>
-      </c>
       <c r="F85" s="84" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G85" s="115"/>
       <c r="H85" s="65" t="s">
@@ -21169,13 +21166,13 @@
         <v>166</v>
       </c>
       <c r="D86" s="110" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E86" s="84" t="s">
         <v>166</v>
       </c>
       <c r="F86" s="84" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G86" s="112"/>
       <c r="H86" s="65"/>
@@ -21203,13 +21200,13 @@
         <v>169</v>
       </c>
       <c r="D87" s="110" t="s">
+        <v>684</v>
+      </c>
+      <c r="E87" s="65" t="s">
         <v>685</v>
       </c>
-      <c r="E87" s="65" t="s">
-        <v>686</v>
-      </c>
       <c r="F87" s="84" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G87" s="112"/>
       <c r="H87" s="86" t="s">
@@ -21239,13 +21236,13 @@
         <v>171</v>
       </c>
       <c r="D88" s="118" t="s">
+        <v>686</v>
+      </c>
+      <c r="E88" s="84" t="s">
         <v>687</v>
       </c>
-      <c r="E88" s="84" t="s">
-        <v>688</v>
-      </c>
       <c r="F88" s="84" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G88" s="119"/>
       <c r="H88" s="86" t="s">
@@ -21275,13 +21272,13 @@
         <v>173</v>
       </c>
       <c r="D89" s="110" t="s">
+        <v>688</v>
+      </c>
+      <c r="E89" s="84" t="s">
         <v>689</v>
       </c>
-      <c r="E89" s="84" t="s">
-        <v>690</v>
-      </c>
       <c r="F89" s="84" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G89" s="112"/>
       <c r="H89" s="86" t="s">
@@ -21311,13 +21308,13 @@
         <v>175</v>
       </c>
       <c r="D90" s="110" t="s">
+        <v>690</v>
+      </c>
+      <c r="E90" s="84" t="s">
         <v>691</v>
       </c>
-      <c r="E90" s="84" t="s">
-        <v>692</v>
-      </c>
       <c r="F90" s="84" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G90" s="112"/>
       <c r="H90" s="86" t="s">
@@ -21347,13 +21344,13 @@
         <v>177</v>
       </c>
       <c r="D91" s="110" t="s">
+        <v>692</v>
+      </c>
+      <c r="E91" s="84" t="s">
         <v>693</v>
       </c>
-      <c r="E91" s="84" t="s">
-        <v>694</v>
-      </c>
       <c r="F91" s="84" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G91" s="112"/>
       <c r="H91" s="86" t="s">
@@ -21383,13 +21380,13 @@
         <v>179</v>
       </c>
       <c r="D92" s="110" t="s">
+        <v>694</v>
+      </c>
+      <c r="E92" s="84" t="s">
         <v>695</v>
       </c>
-      <c r="E92" s="84" t="s">
-        <v>696</v>
-      </c>
       <c r="F92" s="84" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G92" s="112"/>
       <c r="H92" s="86" t="s">
@@ -21419,13 +21416,13 @@
         <v>181</v>
       </c>
       <c r="D93" s="118" t="s">
+        <v>696</v>
+      </c>
+      <c r="E93" s="84" t="s">
         <v>697</v>
       </c>
-      <c r="E93" s="84" t="s">
-        <v>698</v>
-      </c>
       <c r="F93" s="84" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G93" s="119"/>
       <c r="H93" s="86" t="s">
@@ -21455,13 +21452,13 @@
         <v>183</v>
       </c>
       <c r="D94" s="110" t="s">
+        <v>698</v>
+      </c>
+      <c r="E94" s="84" t="s">
         <v>699</v>
       </c>
-      <c r="E94" s="84" t="s">
-        <v>700</v>
-      </c>
       <c r="F94" s="84" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G94" s="112"/>
       <c r="H94" s="86" t="s">
@@ -21491,13 +21488,13 @@
         <v>185</v>
       </c>
       <c r="D95" s="110" t="s">
+        <v>700</v>
+      </c>
+      <c r="E95" s="84" t="s">
         <v>701</v>
       </c>
-      <c r="E95" s="84" t="s">
-        <v>702</v>
-      </c>
       <c r="F95" s="84" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G95" s="112"/>
       <c r="H95" s="86" t="s">
@@ -21527,13 +21524,13 @@
         <v>187</v>
       </c>
       <c r="D96" s="110" t="s">
+        <v>702</v>
+      </c>
+      <c r="E96" s="84" t="s">
         <v>703</v>
       </c>
-      <c r="E96" s="84" t="s">
-        <v>704</v>
-      </c>
       <c r="F96" s="84" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G96" s="112"/>
       <c r="H96" s="86" t="s">
@@ -21563,13 +21560,13 @@
         <v>189</v>
       </c>
       <c r="D97" s="118" t="s">
+        <v>704</v>
+      </c>
+      <c r="E97" s="84" t="s">
         <v>705</v>
       </c>
-      <c r="E97" s="84" t="s">
-        <v>706</v>
-      </c>
       <c r="F97" s="84" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G97" s="119"/>
       <c r="H97" s="86" t="s">
@@ -21599,13 +21596,13 @@
         <v>191</v>
       </c>
       <c r="D98" s="110" t="s">
+        <v>706</v>
+      </c>
+      <c r="E98" s="84" t="s">
         <v>707</v>
       </c>
-      <c r="E98" s="84" t="s">
-        <v>708</v>
-      </c>
       <c r="F98" s="84" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G98" s="112"/>
       <c r="H98" s="86" t="s">
@@ -21635,13 +21632,13 @@
         <v>193</v>
       </c>
       <c r="D99" s="110" t="s">
+        <v>708</v>
+      </c>
+      <c r="E99" s="84" t="s">
         <v>709</v>
       </c>
-      <c r="E99" s="84" t="s">
-        <v>710</v>
-      </c>
       <c r="F99" s="84" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G99" s="112"/>
       <c r="H99" s="86" t="s">
@@ -21671,13 +21668,13 @@
         <v>195</v>
       </c>
       <c r="D100" s="110" t="s">
+        <v>710</v>
+      </c>
+      <c r="E100" s="84" t="s">
         <v>711</v>
       </c>
-      <c r="E100" s="84" t="s">
-        <v>712</v>
-      </c>
       <c r="F100" s="84" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G100" s="112"/>
       <c r="H100" s="86" t="s">
@@ -21707,13 +21704,13 @@
         <v>197</v>
       </c>
       <c r="D101" s="110" t="s">
+        <v>712</v>
+      </c>
+      <c r="E101" s="84" t="s">
         <v>713</v>
       </c>
-      <c r="E101" s="84" t="s">
-        <v>714</v>
-      </c>
       <c r="F101" s="84" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G101" s="112"/>
       <c r="H101" s="86" t="s">
@@ -21743,13 +21740,13 @@
         <v>199</v>
       </c>
       <c r="D102" s="110" t="s">
+        <v>714</v>
+      </c>
+      <c r="E102" s="84" t="s">
         <v>715</v>
       </c>
-      <c r="E102" s="84" t="s">
-        <v>716</v>
-      </c>
       <c r="F102" s="84" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G102" s="112"/>
       <c r="H102" s="86" t="s">
@@ -21779,13 +21776,13 @@
         <v>201</v>
       </c>
       <c r="D103" s="110" t="s">
+        <v>716</v>
+      </c>
+      <c r="E103" s="84" t="s">
         <v>717</v>
       </c>
-      <c r="E103" s="84" t="s">
-        <v>718</v>
-      </c>
       <c r="F103" s="84" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G103" s="112"/>
       <c r="H103" s="86" t="s">
@@ -21815,13 +21812,13 @@
         <v>203</v>
       </c>
       <c r="D104" s="110" t="s">
+        <v>718</v>
+      </c>
+      <c r="E104" s="84" t="s">
         <v>719</v>
       </c>
-      <c r="E104" s="84" t="s">
-        <v>720</v>
-      </c>
       <c r="F104" s="84" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G104" s="112"/>
       <c r="H104" s="86" t="s">
@@ -21851,13 +21848,13 @@
         <v>205</v>
       </c>
       <c r="D105" s="110" t="s">
+        <v>720</v>
+      </c>
+      <c r="E105" s="84" t="s">
         <v>721</v>
       </c>
-      <c r="E105" s="84" t="s">
-        <v>722</v>
-      </c>
       <c r="F105" s="84" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G105" s="112"/>
       <c r="H105" s="86" t="s">
@@ -21887,13 +21884,13 @@
         <v>207</v>
       </c>
       <c r="D106" s="110" t="s">
+        <v>722</v>
+      </c>
+      <c r="E106" s="84" t="s">
         <v>723</v>
       </c>
-      <c r="E106" s="84" t="s">
-        <v>724</v>
-      </c>
       <c r="F106" s="84" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G106" s="112"/>
       <c r="H106" s="86" t="s">
@@ -21923,13 +21920,13 @@
         <v>209</v>
       </c>
       <c r="D107" s="110" t="s">
+        <v>724</v>
+      </c>
+      <c r="E107" s="84" t="s">
         <v>725</v>
       </c>
-      <c r="E107" s="84" t="s">
-        <v>726</v>
-      </c>
       <c r="F107" s="84" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G107" s="112"/>
       <c r="H107" s="86" t="s">
@@ -21957,13 +21954,13 @@
         <v>212</v>
       </c>
       <c r="D108" s="87" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="E108" s="60" t="s">
         <v>212</v>
       </c>
       <c r="F108" s="60" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G108" s="88"/>
       <c r="H108" s="81"/>
@@ -21991,13 +21988,13 @@
         <v>216</v>
       </c>
       <c r="D109" s="87" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="E109" s="60" t="s">
         <v>216</v>
       </c>
       <c r="F109" s="60" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G109" s="88"/>
       <c r="H109" s="81"/>
@@ -22025,13 +22022,13 @@
         <v>219</v>
       </c>
       <c r="D110" s="87" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="E110" s="81" t="s">
         <v>219</v>
       </c>
       <c r="F110" s="60" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G110" s="88"/>
       <c r="H110" s="81"/>
@@ -22057,13 +22054,13 @@
         <v>222</v>
       </c>
       <c r="D111" s="87" t="s">
+        <v>729</v>
+      </c>
+      <c r="E111" s="60" t="s">
         <v>730</v>
       </c>
-      <c r="E111" s="60" t="s">
-        <v>731</v>
-      </c>
       <c r="F111" s="60" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G111" s="88"/>
       <c r="H111" s="81"/>
@@ -22089,13 +22086,13 @@
         <v>225</v>
       </c>
       <c r="D112" s="87" t="s">
+        <v>731</v>
+      </c>
+      <c r="E112" s="60" t="s">
         <v>732</v>
       </c>
-      <c r="E112" s="60" t="s">
-        <v>733</v>
-      </c>
       <c r="F112" s="60" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G112" s="88"/>
       <c r="H112" s="81"/>
@@ -22121,13 +22118,13 @@
         <v>228</v>
       </c>
       <c r="D113" s="87" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E113" s="60" t="s">
         <v>228</v>
       </c>
       <c r="F113" s="60" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G113" s="88"/>
       <c r="H113" s="81"/>
@@ -22155,13 +22152,13 @@
         <v>232</v>
       </c>
       <c r="D114" s="87" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="E114" s="79" t="s">
         <v>232</v>
       </c>
       <c r="F114" s="60" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G114" s="88"/>
       <c r="H114" s="81"/>
@@ -22189,13 +22186,13 @@
         <v>235</v>
       </c>
       <c r="D115" s="87" t="s">
+        <v>735</v>
+      </c>
+      <c r="E115" s="79" t="s">
         <v>736</v>
       </c>
-      <c r="E115" s="79" t="s">
-        <v>737</v>
-      </c>
       <c r="F115" s="60" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G115" s="88"/>
       <c r="H115" s="81"/>
@@ -22221,13 +22218,13 @@
         <v>238</v>
       </c>
       <c r="D116" s="87" t="s">
+        <v>737</v>
+      </c>
+      <c r="E116" s="79" t="s">
         <v>738</v>
       </c>
-      <c r="E116" s="79" t="s">
-        <v>739</v>
-      </c>
       <c r="F116" s="60" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G116" s="88"/>
       <c r="H116" s="81"/>
@@ -22253,13 +22250,13 @@
         <v>241</v>
       </c>
       <c r="D117" s="87" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E117" s="79" t="s">
         <v>241</v>
       </c>
       <c r="F117" s="60" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G117" s="88"/>
       <c r="H117" s="81"/>
@@ -22285,13 +22282,13 @@
         <v>244</v>
       </c>
       <c r="D118" s="27" t="s">
+        <v>740</v>
+      </c>
+      <c r="E118" s="79" t="s">
         <v>741</v>
       </c>
-      <c r="E118" s="79" t="s">
-        <v>742</v>
-      </c>
       <c r="F118" s="65" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G118" s="102"/>
       <c r="H118" s="67"/>
@@ -22321,13 +22318,13 @@
         <v>247</v>
       </c>
       <c r="D119" s="27" t="s">
+        <v>742</v>
+      </c>
+      <c r="E119" s="79" t="s">
         <v>743</v>
       </c>
-      <c r="E119" s="79" t="s">
-        <v>744</v>
-      </c>
       <c r="F119" s="65" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G119" s="102"/>
       <c r="H119" s="67"/>
@@ -22357,13 +22354,13 @@
         <v>250</v>
       </c>
       <c r="D120" s="27" t="s">
+        <v>744</v>
+      </c>
+      <c r="E120" s="79" t="s">
         <v>745</v>
       </c>
-      <c r="E120" s="79" t="s">
-        <v>746</v>
-      </c>
       <c r="F120" s="65" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G120" s="102"/>
       <c r="H120" s="67"/>
@@ -22393,13 +22390,13 @@
         <v>253</v>
       </c>
       <c r="D121" s="27" t="s">
+        <v>746</v>
+      </c>
+      <c r="E121" s="79" t="s">
         <v>747</v>
       </c>
-      <c r="E121" s="79" t="s">
-        <v>748</v>
-      </c>
       <c r="F121" s="65" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G121" s="102"/>
       <c r="H121" s="67"/>
@@ -22429,13 +22426,13 @@
         <v>256</v>
       </c>
       <c r="D122" s="27" t="s">
+        <v>748</v>
+      </c>
+      <c r="E122" s="79" t="s">
         <v>749</v>
       </c>
-      <c r="E122" s="79" t="s">
-        <v>750</v>
-      </c>
       <c r="F122" s="65" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G122" s="102"/>
       <c r="H122" s="67"/>
@@ -22465,13 +22462,13 @@
         <v>259</v>
       </c>
       <c r="D123" s="27" t="s">
+        <v>750</v>
+      </c>
+      <c r="E123" s="79" t="s">
         <v>751</v>
       </c>
-      <c r="E123" s="79" t="s">
-        <v>752</v>
-      </c>
       <c r="F123" s="65" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G123" s="102"/>
       <c r="H123" s="67"/>
@@ -22501,13 +22498,13 @@
         <v>262</v>
       </c>
       <c r="D124" s="27" t="s">
+        <v>752</v>
+      </c>
+      <c r="E124" s="79" t="s">
         <v>753</v>
       </c>
-      <c r="E124" s="79" t="s">
-        <v>754</v>
-      </c>
       <c r="F124" s="65" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G124" s="102"/>
       <c r="H124" s="67"/>
@@ -22537,13 +22534,13 @@
         <v>265</v>
       </c>
       <c r="D125" s="27" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E125" s="131" t="s">
         <v>265</v>
       </c>
       <c r="F125" s="65" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G125" s="102"/>
       <c r="H125" s="65"/>
@@ -22571,13 +22568,13 @@
         <v>268</v>
       </c>
       <c r="D126" s="110" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E126" s="101" t="s">
         <v>268</v>
       </c>
       <c r="F126" s="65" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G126" s="106"/>
       <c r="H126" s="65"/>
@@ -22605,13 +22602,13 @@
         <v>271</v>
       </c>
       <c r="D127" s="110" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="E127" s="132" t="s">
         <v>271</v>
       </c>
       <c r="F127" s="65" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G127" s="106"/>
       <c r="H127" s="65"/>
@@ -22647,7 +22644,7 @@
         <v>276</v>
       </c>
       <c r="F128" s="84" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="G128" s="106"/>
       <c r="H128" s="65"/>
@@ -22673,13 +22670,13 @@
         <v>279</v>
       </c>
       <c r="D129" s="134" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="E129" s="65" t="s">
         <v>279</v>
       </c>
       <c r="F129" s="84" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G129" s="66"/>
       <c r="H129" s="81" t="s">
@@ -22707,13 +22704,13 @@
         <v>282</v>
       </c>
       <c r="D130" s="134" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="E130" s="65" t="s">
         <v>282</v>
       </c>
       <c r="F130" s="84" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G130" s="66"/>
       <c r="H130" s="81" t="s">
@@ -22741,13 +22738,13 @@
         <v>285</v>
       </c>
       <c r="D131" s="134" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E131" s="65" t="s">
         <v>285</v>
       </c>
       <c r="F131" s="84" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G131" s="66"/>
       <c r="H131" s="81" t="s">
@@ -22775,13 +22772,13 @@
         <v>288</v>
       </c>
       <c r="D132" s="134" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="E132" s="65" t="s">
         <v>288</v>
       </c>
       <c r="F132" s="84" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G132" s="66"/>
       <c r="H132" s="81" t="s">
@@ -22811,13 +22808,13 @@
         <v>291</v>
       </c>
       <c r="D133" s="134" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="E133" s="84" t="s">
         <v>291</v>
       </c>
       <c r="F133" s="84" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G133" s="66"/>
       <c r="H133" s="65" t="s">
@@ -22845,13 +22842,13 @@
         <v>294</v>
       </c>
       <c r="D134" s="134" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="E134" s="132" t="s">
         <v>294</v>
       </c>
       <c r="F134" s="84" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G134" s="66"/>
       <c r="H134" s="86" t="s">
@@ -22879,13 +22876,13 @@
         <v>297</v>
       </c>
       <c r="D135" s="134" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="E135" s="65" t="s">
         <v>297</v>
       </c>
       <c r="F135" s="84" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G135" s="66"/>
       <c r="H135" s="96" t="s">
@@ -22913,13 +22910,13 @@
         <v>300</v>
       </c>
       <c r="D136" s="85" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="E136" s="65" t="s">
         <v>300</v>
       </c>
       <c r="F136" s="84" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G136" s="66"/>
       <c r="H136" s="81" t="s">
@@ -22947,13 +22944,13 @@
         <v>303</v>
       </c>
       <c r="D137" s="66" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="E137" s="84" t="s">
         <v>303</v>
       </c>
       <c r="F137" s="84" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G137" s="66"/>
       <c r="H137" s="67" t="s">
@@ -22981,13 +22978,13 @@
         <v>306</v>
       </c>
       <c r="D138" s="66" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="E138" s="84" t="s">
         <v>306</v>
       </c>
       <c r="F138" s="84" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G138" s="66"/>
       <c r="H138" s="67" t="s">
@@ -23015,13 +23012,13 @@
         <v>308</v>
       </c>
       <c r="D139" s="66" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="E139" s="84" t="s">
         <v>308</v>
       </c>
       <c r="F139" s="84" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G139" s="66"/>
       <c r="H139" s="67" t="s">
@@ -23049,13 +23046,13 @@
         <v>311</v>
       </c>
       <c r="D140" s="66" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="E140" s="84" t="s">
         <v>311</v>
       </c>
       <c r="F140" s="84" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G140" s="66"/>
       <c r="H140" s="67" t="s">
@@ -23083,13 +23080,13 @@
         <v>314</v>
       </c>
       <c r="D141" s="108" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="E141" s="84" t="s">
         <v>314</v>
       </c>
       <c r="F141" s="84" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G141" s="66"/>
       <c r="H141" s="65" t="s">
@@ -23121,13 +23118,13 @@
         <v>318</v>
       </c>
       <c r="D142" s="108" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="E142" s="84" t="s">
         <v>318</v>
       </c>
       <c r="F142" s="84" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G142" s="66"/>
       <c r="H142" s="65" t="s">
@@ -23159,13 +23156,13 @@
         <v>321</v>
       </c>
       <c r="D143" s="108" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E143" s="84" t="s">
         <v>321</v>
       </c>
       <c r="F143" s="84" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G143" s="66"/>
       <c r="H143" s="65" t="s">
@@ -23197,13 +23194,13 @@
         <v>324</v>
       </c>
       <c r="D144" s="108" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E144" s="84" t="s">
         <v>324</v>
       </c>
       <c r="F144" s="84" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G144" s="66"/>
       <c r="H144" s="65" t="s">
@@ -23235,13 +23232,13 @@
         <v>327</v>
       </c>
       <c r="D145" s="108" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="E145" s="84" t="s">
         <v>327</v>
       </c>
       <c r="F145" s="84" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G145" s="66"/>
       <c r="H145" s="65" t="s">
@@ -23273,13 +23270,13 @@
         <v>330</v>
       </c>
       <c r="D146" s="108" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="E146" s="84" t="s">
         <v>330</v>
       </c>
       <c r="F146" s="84" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G146" s="66"/>
       <c r="H146" s="65" t="s">
@@ -23311,13 +23308,13 @@
         <v>333</v>
       </c>
       <c r="D147" s="108" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="E147" s="84" t="s">
         <v>333</v>
       </c>
       <c r="F147" s="84" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G147" s="66"/>
       <c r="H147" s="65" t="s">
@@ -23349,13 +23346,13 @@
         <v>337</v>
       </c>
       <c r="D148" s="110" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="E148" s="84" t="s">
         <v>337</v>
       </c>
       <c r="F148" s="84" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G148" s="112"/>
       <c r="H148" s="60" t="s">
@@ -23387,13 +23384,13 @@
         <v>340</v>
       </c>
       <c r="D149" s="108" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="E149" s="84" t="s">
         <v>340</v>
       </c>
       <c r="F149" s="84" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G149" s="66"/>
       <c r="H149" s="65" t="s">
@@ -23425,13 +23422,13 @@
         <v>343</v>
       </c>
       <c r="D150" s="108" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="E150" s="84" t="s">
         <v>343</v>
       </c>
       <c r="F150" s="84" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G150" s="66"/>
       <c r="H150" s="65" t="s">
@@ -23463,13 +23460,13 @@
         <v>346</v>
       </c>
       <c r="D151" s="108" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="E151" s="84" t="s">
         <v>346</v>
       </c>
       <c r="F151" s="84" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G151" s="66"/>
       <c r="H151" s="65" t="s">
@@ -23501,13 +23498,13 @@
         <v>349</v>
       </c>
       <c r="D152" s="108" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="E152" s="135" t="s">
         <v>349</v>
       </c>
       <c r="F152" s="84" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G152" s="66"/>
       <c r="H152" s="65" t="s">
@@ -23541,13 +23538,13 @@
         <v>353</v>
       </c>
       <c r="D153" s="108" t="s">
+        <v>782</v>
+      </c>
+      <c r="E153" s="65" t="s">
         <v>783</v>
       </c>
-      <c r="E153" s="65" t="s">
-        <v>784</v>
-      </c>
       <c r="F153" s="65" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G153" s="66"/>
       <c r="H153" s="67"/>
@@ -23573,13 +23570,13 @@
         <v>355</v>
       </c>
       <c r="D154" s="108" t="s">
+        <v>784</v>
+      </c>
+      <c r="E154" s="65" t="s">
         <v>785</v>
       </c>
-      <c r="E154" s="65" t="s">
-        <v>786</v>
-      </c>
       <c r="F154" s="65" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G154" s="66"/>
       <c r="H154" s="67"/>
@@ -23603,13 +23600,13 @@
         <v>357</v>
       </c>
       <c r="D155" s="108" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="E155" s="65" t="s">
         <v>357</v>
       </c>
       <c r="F155" s="65" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G155" s="66"/>
       <c r="H155" s="67"/>
@@ -23635,13 +23632,13 @@
         <v>359</v>
       </c>
       <c r="D156" s="108" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="E156" s="65" t="s">
         <v>359</v>
       </c>
       <c r="F156" s="65" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G156" s="66"/>
       <c r="H156" s="67"/>
@@ -23667,13 +23664,13 @@
         <v>362</v>
       </c>
       <c r="D157" s="27" t="s">
+        <v>788</v>
+      </c>
+      <c r="E157" s="65" t="s">
         <v>789</v>
       </c>
-      <c r="E157" s="65" t="s">
-        <v>790</v>
-      </c>
       <c r="F157" s="104" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G157" s="102"/>
       <c r="H157" s="65" t="s">
@@ -23701,13 +23698,13 @@
         <v>366</v>
       </c>
       <c r="D158" s="140" t="s">
+        <v>790</v>
+      </c>
+      <c r="E158" s="65" t="s">
         <v>791</v>
       </c>
-      <c r="E158" s="65" t="s">
+      <c r="F158" s="104" t="s">
         <v>792</v>
-      </c>
-      <c r="F158" s="104" t="s">
-        <v>793</v>
       </c>
       <c r="G158" s="102"/>
       <c r="H158" s="65" t="s">
@@ -23735,13 +23732,13 @@
         <v>369</v>
       </c>
       <c r="D159" s="27" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="E159" s="104" t="s">
         <v>369</v>
       </c>
       <c r="F159" s="65" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G159" s="102"/>
       <c r="H159" s="65" t="s">
@@ -23769,13 +23766,13 @@
         <v>372</v>
       </c>
       <c r="D160" s="27" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="E160" s="79" t="s">
         <v>372</v>
       </c>
       <c r="F160" s="65" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G160" s="102"/>
       <c r="H160" s="65" t="s">
@@ -23805,13 +23802,13 @@
         <v>377</v>
       </c>
       <c r="D161" s="27" t="s">
+        <v>795</v>
+      </c>
+      <c r="E161" s="65" t="s">
         <v>796</v>
       </c>
-      <c r="E161" s="65" t="s">
-        <v>797</v>
-      </c>
       <c r="F161" s="104" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G161" s="102"/>
       <c r="H161" s="65" t="s">
@@ -23839,13 +23836,13 @@
         <v>380</v>
       </c>
       <c r="D162" s="93" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="E162" s="60" t="s">
         <v>380</v>
       </c>
       <c r="F162" s="95" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="G162" s="141"/>
       <c r="H162" s="60" t="s">
@@ -23881,13 +23878,13 @@
         <v>385</v>
       </c>
       <c r="D163" s="27" t="s">
+        <v>798</v>
+      </c>
+      <c r="E163" s="65" t="s">
         <v>799</v>
       </c>
-      <c r="E163" s="65" t="s">
-        <v>800</v>
-      </c>
       <c r="F163" s="104" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G163" s="102"/>
       <c r="H163" s="67"/>
@@ -23915,13 +23912,13 @@
         <v>388</v>
       </c>
       <c r="D164" s="27" t="s">
+        <v>800</v>
+      </c>
+      <c r="E164" s="65" t="s">
         <v>801</v>
       </c>
-      <c r="E164" s="65" t="s">
-        <v>802</v>
-      </c>
       <c r="F164" s="104" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G164" s="102"/>
       <c r="H164" s="67"/>
@@ -23949,13 +23946,13 @@
         <v>391</v>
       </c>
       <c r="D165" s="102" t="s">
+        <v>802</v>
+      </c>
+      <c r="E165" s="65" t="s">
         <v>803</v>
       </c>
-      <c r="E165" s="65" t="s">
-        <v>804</v>
-      </c>
       <c r="F165" s="104" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G165" s="102"/>
       <c r="H165" s="67"/>
@@ -23983,13 +23980,13 @@
         <v>394</v>
       </c>
       <c r="D166" s="102" t="s">
+        <v>804</v>
+      </c>
+      <c r="E166" s="65" t="s">
         <v>805</v>
       </c>
-      <c r="E166" s="65" t="s">
-        <v>806</v>
-      </c>
       <c r="F166" s="104" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G166" s="102"/>
       <c r="H166" s="65" t="s">
@@ -24021,13 +24018,13 @@
         <v>397</v>
       </c>
       <c r="D167" s="27" t="s">
+        <v>806</v>
+      </c>
+      <c r="E167" s="65" t="s">
         <v>807</v>
       </c>
-      <c r="E167" s="65" t="s">
-        <v>808</v>
-      </c>
       <c r="F167" s="104" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G167" s="102"/>
       <c r="H167" s="67"/>
@@ -24055,13 +24052,13 @@
         <v>399</v>
       </c>
       <c r="D168" s="102" t="s">
+        <v>808</v>
+      </c>
+      <c r="E168" s="65" t="s">
         <v>809</v>
       </c>
-      <c r="E168" s="65" t="s">
-        <v>810</v>
-      </c>
       <c r="F168" s="104" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G168" s="102"/>
       <c r="H168" s="67"/>
@@ -24089,13 +24086,13 @@
         <v>402</v>
       </c>
       <c r="D169" s="27" t="s">
+        <v>810</v>
+      </c>
+      <c r="E169" s="65" t="s">
         <v>811</v>
       </c>
-      <c r="E169" s="65" t="s">
-        <v>812</v>
-      </c>
       <c r="F169" s="104" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G169" s="102"/>
       <c r="H169" s="67"/>
@@ -24123,13 +24120,13 @@
         <v>404</v>
       </c>
       <c r="D170" s="102" t="s">
+        <v>812</v>
+      </c>
+      <c r="E170" s="65" t="s">
         <v>813</v>
       </c>
-      <c r="E170" s="65" t="s">
-        <v>814</v>
-      </c>
       <c r="F170" s="104" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G170" s="102"/>
       <c r="H170" s="67"/>
@@ -24157,13 +24154,13 @@
         <v>407</v>
       </c>
       <c r="D171" s="102" t="s">
+        <v>814</v>
+      </c>
+      <c r="E171" s="65" t="s">
         <v>815</v>
       </c>
-      <c r="E171" s="65" t="s">
-        <v>816</v>
-      </c>
       <c r="F171" s="104" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G171" s="102"/>
       <c r="H171" s="65" t="s">
@@ -24195,13 +24192,13 @@
         <v>411</v>
       </c>
       <c r="D172" s="108" t="s">
+        <v>816</v>
+      </c>
+      <c r="E172" s="65" t="s">
         <v>817</v>
       </c>
-      <c r="E172" s="65" t="s">
-        <v>818</v>
-      </c>
       <c r="F172" s="104" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G172" s="66"/>
       <c r="H172" s="65" t="s">
@@ -24231,13 +24228,13 @@
         <v>414</v>
       </c>
       <c r="D173" s="108" t="s">
+        <v>818</v>
+      </c>
+      <c r="E173" s="65" t="s">
         <v>819</v>
       </c>
-      <c r="E173" s="65" t="s">
-        <v>820</v>
-      </c>
       <c r="F173" s="104" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G173" s="66"/>
       <c r="H173" s="65" t="s">
@@ -24267,13 +24264,13 @@
         <v>417</v>
       </c>
       <c r="D174" s="108" t="s">
+        <v>820</v>
+      </c>
+      <c r="E174" s="65" t="s">
         <v>821</v>
       </c>
-      <c r="E174" s="65" t="s">
-        <v>822</v>
-      </c>
       <c r="F174" s="104" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G174" s="66"/>
       <c r="H174" s="65" t="s">
@@ -24303,13 +24300,13 @@
         <v>420</v>
       </c>
       <c r="D175" s="108" t="s">
+        <v>822</v>
+      </c>
+      <c r="E175" s="65" t="s">
         <v>823</v>
       </c>
-      <c r="E175" s="65" t="s">
-        <v>824</v>
-      </c>
       <c r="F175" s="104" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G175" s="66"/>
       <c r="H175" s="65" t="s">
@@ -24337,13 +24334,13 @@
         <v>424</v>
       </c>
       <c r="D176" s="27" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="E176" s="65" t="s">
         <v>424</v>
       </c>
       <c r="F176" s="104" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G176" s="102"/>
       <c r="H176" s="65" t="s">
@@ -24373,13 +24370,13 @@
         <v>428</v>
       </c>
       <c r="D177" s="27" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="E177" s="65" t="s">
         <v>428</v>
       </c>
       <c r="F177" s="104" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G177" s="102"/>
       <c r="H177" s="65" t="s">
@@ -24409,13 +24406,13 @@
         <v>431</v>
       </c>
       <c r="D178" s="27" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="E178" s="65" t="s">
         <v>431</v>
       </c>
       <c r="F178" s="104" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G178" s="102"/>
       <c r="H178" s="65" t="s">
@@ -24445,13 +24442,13 @@
         <v>434</v>
       </c>
       <c r="D179" s="102" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="E179" s="65" t="s">
         <v>434</v>
       </c>
       <c r="F179" s="104" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G179" s="102"/>
       <c r="H179" s="67"/>
@@ -24481,13 +24478,13 @@
         <v>438</v>
       </c>
       <c r="D180" s="102" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="E180" s="65" t="s">
         <v>438</v>
       </c>
       <c r="F180" s="104" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G180" s="102"/>
       <c r="H180" s="65" t="s">
@@ -24519,13 +24516,13 @@
         <v>441</v>
       </c>
       <c r="D181" s="102" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E181" s="65" t="s">
         <v>441</v>
       </c>
       <c r="F181" s="104" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G181" s="102"/>
       <c r="H181" s="65" t="s">
@@ -24555,13 +24552,13 @@
         <v>443</v>
       </c>
       <c r="D182" s="27" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="E182" s="65" t="s">
         <v>443</v>
       </c>
       <c r="F182" s="104" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G182" s="102"/>
       <c r="H182" s="67"/>
@@ -24589,13 +24586,13 @@
         <v>448</v>
       </c>
       <c r="D183" s="27" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="E183" s="101" t="s">
         <v>448</v>
       </c>
       <c r="F183" s="143" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G183" s="102"/>
       <c r="H183" s="67"/>
@@ -24623,13 +24620,13 @@
         <v>451</v>
       </c>
       <c r="D184" s="27" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="E184" s="101" t="s">
         <v>451</v>
       </c>
       <c r="F184" s="65" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G184" s="102"/>
       <c r="H184" s="65" t="s">
@@ -24659,13 +24656,13 @@
         <v>454</v>
       </c>
       <c r="D185" s="27" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="E185" s="101" t="s">
         <v>454</v>
       </c>
       <c r="F185" s="143" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G185" s="102"/>
       <c r="L185" s="86" t="s">
@@ -24689,13 +24686,13 @@
         <v>457</v>
       </c>
       <c r="D186" s="27" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="E186" s="101" t="s">
         <v>457</v>
       </c>
       <c r="F186" s="65" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G186" s="102"/>
       <c r="H186" s="65" t="s">
@@ -24725,13 +24722,13 @@
         <v>461</v>
       </c>
       <c r="D187" s="27" t="s">
+        <v>835</v>
+      </c>
+      <c r="E187" s="101" t="s">
         <v>836</v>
       </c>
-      <c r="E187" s="101" t="s">
-        <v>837</v>
-      </c>
       <c r="F187" s="65" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G187" s="102"/>
       <c r="H187" s="65"/>
@@ -24759,13 +24756,13 @@
         <v>464</v>
       </c>
       <c r="D188" s="27" t="s">
+        <v>837</v>
+      </c>
+      <c r="E188" s="101" t="s">
         <v>838</v>
       </c>
-      <c r="E188" s="101" t="s">
-        <v>839</v>
-      </c>
       <c r="F188" s="65" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G188" s="102"/>
       <c r="H188" s="65"/>
@@ -24793,13 +24790,13 @@
         <v>467</v>
       </c>
       <c r="D189" s="27" t="s">
+        <v>839</v>
+      </c>
+      <c r="E189" s="101" t="s">
         <v>840</v>
       </c>
-      <c r="E189" s="101" t="s">
-        <v>841</v>
-      </c>
       <c r="F189" s="65" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G189" s="102"/>
       <c r="H189" s="65"/>
@@ -24827,13 +24824,13 @@
         <v>470</v>
       </c>
       <c r="D190" s="27" t="s">
+        <v>841</v>
+      </c>
+      <c r="E190" s="101" t="s">
         <v>842</v>
       </c>
-      <c r="E190" s="101" t="s">
-        <v>843</v>
-      </c>
       <c r="F190" s="65" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G190" s="102"/>
       <c r="H190" s="65"/>
@@ -24861,13 +24858,13 @@
         <v>473</v>
       </c>
       <c r="D191" s="27" t="s">
+        <v>843</v>
+      </c>
+      <c r="E191" s="101" t="s">
         <v>844</v>
       </c>
-      <c r="E191" s="101" t="s">
-        <v>845</v>
-      </c>
       <c r="F191" s="65" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G191" s="102"/>
       <c r="H191" s="65"/>
@@ -24895,13 +24892,13 @@
         <v>476</v>
       </c>
       <c r="D192" s="27" t="s">
+        <v>845</v>
+      </c>
+      <c r="E192" s="101" t="s">
         <v>846</v>
       </c>
-      <c r="E192" s="101" t="s">
-        <v>847</v>
-      </c>
       <c r="F192" s="65" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G192" s="102"/>
       <c r="H192" s="65"/>
@@ -24929,13 +24926,13 @@
         <v>479</v>
       </c>
       <c r="D193" s="27" t="s">
+        <v>847</v>
+      </c>
+      <c r="E193" s="101" t="s">
         <v>848</v>
       </c>
-      <c r="E193" s="101" t="s">
-        <v>849</v>
-      </c>
       <c r="F193" s="65" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G193" s="102"/>
       <c r="H193" s="65"/>
@@ -24963,13 +24960,13 @@
         <v>482</v>
       </c>
       <c r="D194" s="27" t="s">
+        <v>849</v>
+      </c>
+      <c r="E194" s="101" t="s">
         <v>850</v>
       </c>
-      <c r="E194" s="101" t="s">
-        <v>851</v>
-      </c>
       <c r="F194" s="65" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G194" s="102"/>
       <c r="H194" s="65"/>
@@ -24997,13 +24994,13 @@
         <v>485</v>
       </c>
       <c r="D195" s="27" t="s">
+        <v>851</v>
+      </c>
+      <c r="E195" s="101" t="s">
         <v>852</v>
       </c>
-      <c r="E195" s="101" t="s">
-        <v>853</v>
-      </c>
       <c r="F195" s="65" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G195" s="102"/>
       <c r="H195" s="65"/>
@@ -25031,13 +25028,13 @@
         <v>488</v>
       </c>
       <c r="D196" s="27" t="s">
+        <v>853</v>
+      </c>
+      <c r="E196" s="101" t="s">
         <v>854</v>
       </c>
-      <c r="E196" s="101" t="s">
-        <v>855</v>
-      </c>
       <c r="F196" s="65" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G196" s="102"/>
       <c r="H196" s="65"/>
@@ -25065,13 +25062,13 @@
         <v>491</v>
       </c>
       <c r="D197" s="27" t="s">
+        <v>855</v>
+      </c>
+      <c r="E197" s="101" t="s">
         <v>856</v>
       </c>
-      <c r="E197" s="101" t="s">
-        <v>857</v>
-      </c>
       <c r="F197" s="65" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G197" s="102"/>
       <c r="H197" s="65"/>
@@ -25099,13 +25096,13 @@
         <v>494</v>
       </c>
       <c r="D198" s="27" t="s">
+        <v>857</v>
+      </c>
+      <c r="E198" s="101" t="s">
         <v>858</v>
       </c>
-      <c r="E198" s="101" t="s">
-        <v>859</v>
-      </c>
       <c r="F198" s="65" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G198" s="102"/>
       <c r="H198" s="65"/>
@@ -25133,13 +25130,13 @@
         <v>497</v>
       </c>
       <c r="D199" s="27" t="s">
+        <v>859</v>
+      </c>
+      <c r="E199" s="101" t="s">
         <v>860</v>
       </c>
-      <c r="E199" s="101" t="s">
-        <v>861</v>
-      </c>
       <c r="F199" s="65" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G199" s="102"/>
       <c r="H199" s="65"/>
@@ -25167,13 +25164,13 @@
         <v>501</v>
       </c>
       <c r="D200" s="27" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E200" s="79" t="s">
         <v>501</v>
       </c>
       <c r="F200" s="143" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G200" s="102"/>
       <c r="H200" s="67"/>
@@ -25199,13 +25196,13 @@
         <v>504</v>
       </c>
       <c r="D201" s="27" t="s">
+        <v>862</v>
+      </c>
+      <c r="E201" s="79" t="s">
         <v>863</v>
       </c>
-      <c r="E201" s="79" t="s">
-        <v>864</v>
-      </c>
       <c r="F201" s="143" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G201" s="102"/>
       <c r="H201" s="67"/>
@@ -25231,13 +25228,13 @@
         <v>506</v>
       </c>
       <c r="D202" s="27" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="E202" s="79" t="s">
         <v>506</v>
       </c>
       <c r="F202" s="65" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G202" s="102"/>
       <c r="H202" s="67"/>
@@ -25263,13 +25260,13 @@
         <v>508</v>
       </c>
       <c r="D203" s="27" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="E203" s="79" t="s">
         <v>508</v>
       </c>
       <c r="F203" s="65" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G203" s="102"/>
       <c r="H203" s="67"/>
@@ -25295,13 +25292,13 @@
         <v>512</v>
       </c>
       <c r="D204" s="27" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="E204" s="79" t="s">
         <v>512</v>
       </c>
       <c r="F204" s="65" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G204" s="102"/>
       <c r="H204" s="67"/>
@@ -25327,13 +25324,13 @@
         <v>515</v>
       </c>
       <c r="D205" s="27" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E205" s="79" t="s">
         <v>515</v>
       </c>
       <c r="F205" s="65" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G205" s="102"/>
       <c r="H205" s="67"/>
@@ -25357,13 +25354,13 @@
         <v>518</v>
       </c>
       <c r="D206" s="27" t="s">
+        <v>868</v>
+      </c>
+      <c r="E206" s="65" t="s">
         <v>869</v>
       </c>
-      <c r="E206" s="65" t="s">
-        <v>870</v>
-      </c>
       <c r="F206" s="104" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G206" s="102"/>
       <c r="H206" s="67"/>
@@ -25389,13 +25386,13 @@
         <v>521</v>
       </c>
       <c r="D207" s="27" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="E207" s="79" t="s">
         <v>521</v>
       </c>
       <c r="F207" s="104" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G207" s="102"/>
       <c r="H207" s="67"/>
@@ -25421,13 +25418,13 @@
         <v>524</v>
       </c>
       <c r="D208" s="27" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="E208" s="79" t="s">
         <v>524</v>
       </c>
       <c r="F208" s="104" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G208" s="102"/>
       <c r="H208" s="67"/>
@@ -25453,13 +25450,13 @@
         <v>527</v>
       </c>
       <c r="D209" s="27" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="E209" s="65" t="s">
         <v>527</v>
       </c>
       <c r="F209" s="104" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G209" s="102"/>
       <c r="H209" s="67"/>
@@ -25485,13 +25482,13 @@
         <v>530</v>
       </c>
       <c r="D210" s="27" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="E210" s="65" t="s">
         <v>530</v>
       </c>
       <c r="F210" s="104" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G210" s="102"/>
       <c r="H210" s="65" t="s">
@@ -25517,13 +25514,13 @@
         <v>534</v>
       </c>
       <c r="D211" s="87" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="E211" s="60" t="s">
         <v>534</v>
       </c>
       <c r="F211" s="60" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G211" s="88"/>
       <c r="H211" s="81"/>
@@ -25549,13 +25546,13 @@
         <v>537</v>
       </c>
       <c r="D212" s="87" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="E212" s="81" t="s">
         <v>537</v>
       </c>
       <c r="F212" s="60" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G212" s="88"/>
       <c r="H212" s="81"/>
@@ -25581,13 +25578,13 @@
         <v>541</v>
       </c>
       <c r="D213" s="148" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="E213" s="132" t="s">
         <v>541</v>
       </c>
       <c r="F213" s="104" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G213" s="102"/>
       <c r="H213" s="67"/>
@@ -25610,16 +25607,16 @@
       </c>
       <c r="B214" s="84"/>
       <c r="C214" s="84" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D214" s="148" t="s">
+        <v>877</v>
+      </c>
+      <c r="E214" s="65" t="s">
         <v>878</v>
       </c>
-      <c r="E214" s="65" t="s">
-        <v>879</v>
-      </c>
       <c r="F214" s="104" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G214" s="102"/>
       <c r="H214" s="67"/>
@@ -25627,7 +25624,7 @@
       <c r="J214" s="82"/>
       <c r="K214" s="67"/>
       <c r="L214" s="82" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="M214" s="82"/>
       <c r="N214" s="67"/>
@@ -37206,77 +37203,77 @@
         <v>2</v>
       </c>
       <c r="D1" s="152" t="s">
+        <v>547</v>
+      </c>
+      <c r="E1" s="153" t="s">
         <v>548</v>
-      </c>
-      <c r="E1" s="153" t="s">
-        <v>549</v>
       </c>
       <c r="F1" s="153" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="154" t="s">
+        <v>879</v>
+      </c>
+      <c r="H1" s="153" t="s">
         <v>880</v>
-      </c>
-      <c r="H1" s="153" t="s">
-        <v>881</v>
       </c>
     </row>
     <row r="2" ht="13.5" customHeight="1">
       <c r="A2" s="155"/>
       <c r="B2" s="156"/>
       <c r="C2" s="157" t="s">
+        <v>881</v>
+      </c>
+      <c r="D2" s="157" t="s">
+        <v>881</v>
+      </c>
+      <c r="E2" s="155" t="s">
         <v>882</v>
       </c>
-      <c r="D2" s="157" t="s">
-        <v>882</v>
-      </c>
-      <c r="E2" s="155" t="s">
+      <c r="F2" s="158" t="s">
         <v>883</v>
-      </c>
-      <c r="F2" s="158" t="s">
-        <v>884</v>
       </c>
       <c r="G2" s="147"/>
       <c r="H2" s="67"/>
     </row>
     <row r="3" ht="13.5" customHeight="1">
       <c r="A3" s="159" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="B3" s="79"/>
       <c r="C3" s="160" t="s">
+        <v>885</v>
+      </c>
+      <c r="D3" s="160" t="s">
+        <v>885</v>
+      </c>
+      <c r="E3" s="159" t="s">
+        <v>882</v>
+      </c>
+      <c r="F3" s="161" t="s">
         <v>886</v>
-      </c>
-      <c r="D3" s="160" t="s">
-        <v>886</v>
-      </c>
-      <c r="E3" s="159" t="s">
-        <v>883</v>
-      </c>
-      <c r="F3" s="161" t="s">
-        <v>887</v>
       </c>
       <c r="G3" s="147"/>
       <c r="H3" s="67"/>
     </row>
     <row r="4" ht="13.5" customHeight="1">
       <c r="A4" s="159" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="B4" s="79" t="s">
+        <v>887</v>
+      </c>
+      <c r="C4" s="160" t="s">
         <v>888</v>
       </c>
-      <c r="C4" s="160" t="s">
+      <c r="D4" s="160" t="s">
+        <v>888</v>
+      </c>
+      <c r="E4" s="159" t="s">
+        <v>882</v>
+      </c>
+      <c r="F4" s="159" t="s">
         <v>889</v>
-      </c>
-      <c r="D4" s="160" t="s">
-        <v>889</v>
-      </c>
-      <c r="E4" s="159" t="s">
-        <v>883</v>
-      </c>
-      <c r="F4" s="159" t="s">
-        <v>890</v>
       </c>
       <c r="G4" s="147"/>
       <c r="H4" s="67"/>
@@ -37353,7 +37350,7 @@
     </row>
     <row r="12" ht="66.75" customHeight="1">
       <c r="A12" s="171" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="B12" s="145"/>
       <c r="C12" s="170"/>
@@ -37724,7 +37721,7 @@
     </row>
     <row r="49">
       <c r="A49" s="181" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="F49" s="182"/>
       <c r="G49" s="183"/>
@@ -37736,13 +37733,13 @@
     </row>
     <row r="50">
       <c r="A50" s="186" t="s">
+        <v>892</v>
+      </c>
+      <c r="B50" s="187" t="s">
         <v>893</v>
       </c>
-      <c r="B50" s="187" t="s">
+      <c r="C50" s="188" t="s">
         <v>894</v>
-      </c>
-      <c r="C50" s="188" t="s">
-        <v>895</v>
       </c>
       <c r="D50" s="189"/>
       <c r="E50" s="190"/>
@@ -37756,13 +37753,13 @@
     </row>
     <row r="51">
       <c r="A51" s="191" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B51" s="192" t="s">
+        <v>895</v>
+      </c>
+      <c r="C51" s="193" t="s">
         <v>896</v>
-      </c>
-      <c r="C51" s="193" t="s">
-        <v>897</v>
       </c>
       <c r="D51" s="194"/>
       <c r="E51" s="195"/>
@@ -37790,7 +37787,7 @@
     </row>
     <row r="53">
       <c r="A53" s="200" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="F53" s="201"/>
       <c r="G53" s="183"/>
@@ -37802,16 +37799,16 @@
     </row>
     <row r="54">
       <c r="A54" s="202" t="s">
+        <v>898</v>
+      </c>
+      <c r="B54" s="203" t="s">
         <v>899</v>
       </c>
-      <c r="B54" s="203" t="s">
+      <c r="C54" s="203" t="s">
         <v>900</v>
       </c>
-      <c r="C54" s="203" t="s">
+      <c r="D54" s="204" t="s">
         <v>901</v>
-      </c>
-      <c r="D54" s="204" t="s">
-        <v>902</v>
       </c>
       <c r="E54" s="185"/>
       <c r="F54" s="182"/>
@@ -37827,13 +37824,13 @@
         <v>4</v>
       </c>
       <c r="B55" s="206" t="s">
+        <v>902</v>
+      </c>
+      <c r="C55" s="206" t="s">
         <v>903</v>
       </c>
-      <c r="C55" s="206" t="s">
+      <c r="D55" s="207" t="s">
         <v>904</v>
-      </c>
-      <c r="D55" s="207" t="s">
-        <v>905</v>
       </c>
       <c r="E55" s="185"/>
       <c r="F55" s="182"/>
@@ -37849,13 +37846,13 @@
         <v>5</v>
       </c>
       <c r="B56" s="206" t="s">
+        <v>905</v>
+      </c>
+      <c r="C56" s="206" t="s">
         <v>906</v>
       </c>
-      <c r="C56" s="206" t="s">
+      <c r="D56" s="207" t="s">
         <v>907</v>
-      </c>
-      <c r="D56" s="207" t="s">
-        <v>908</v>
       </c>
       <c r="E56" s="185"/>
       <c r="F56" s="182"/>
@@ -37871,10 +37868,10 @@
         <v>6</v>
       </c>
       <c r="B57" s="206" t="s">
+        <v>908</v>
+      </c>
+      <c r="C57" s="206" t="s">
         <v>909</v>
-      </c>
-      <c r="C57" s="206" t="s">
-        <v>910</v>
       </c>
       <c r="D57" s="207">
         <v>1.0</v>
@@ -37893,13 +37890,13 @@
         <v>7</v>
       </c>
       <c r="B58" s="206" t="s">
+        <v>910</v>
+      </c>
+      <c r="C58" s="206" t="s">
         <v>911</v>
       </c>
-      <c r="C58" s="206" t="s">
+      <c r="D58" s="207" t="s">
         <v>912</v>
-      </c>
-      <c r="D58" s="207" t="s">
-        <v>913</v>
       </c>
       <c r="E58" s="185"/>
       <c r="F58" s="201"/>
@@ -37915,13 +37912,13 @@
         <v>8</v>
       </c>
       <c r="B59" s="206" t="s">
+        <v>913</v>
+      </c>
+      <c r="C59" s="206" t="s">
         <v>914</v>
       </c>
-      <c r="C59" s="206" t="s">
+      <c r="D59" s="207" t="s">
         <v>915</v>
-      </c>
-      <c r="D59" s="207" t="s">
-        <v>916</v>
       </c>
       <c r="E59" s="185"/>
       <c r="F59" s="182"/>
@@ -37934,12 +37931,12 @@
     </row>
     <row r="60">
       <c r="A60" s="205" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B60" s="208"/>
       <c r="C60" s="208"/>
       <c r="D60" s="207" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="E60" s="185"/>
       <c r="F60" s="182"/>
@@ -37952,16 +37949,16 @@
     </row>
     <row r="61">
       <c r="A61" s="205" t="s">
+        <v>918</v>
+      </c>
+      <c r="B61" s="206" t="s">
         <v>919</v>
       </c>
-      <c r="B61" s="206" t="s">
+      <c r="C61" s="206" t="s">
         <v>920</v>
       </c>
-      <c r="C61" s="206" t="s">
+      <c r="D61" s="207" t="s">
         <v>921</v>
-      </c>
-      <c r="D61" s="207" t="s">
-        <v>922</v>
       </c>
       <c r="E61" s="185"/>
       <c r="F61" s="201"/>
@@ -37977,13 +37974,13 @@
         <v>10</v>
       </c>
       <c r="B62" s="206" t="s">
+        <v>922</v>
+      </c>
+      <c r="C62" s="206" t="s">
         <v>923</v>
       </c>
-      <c r="C62" s="206" t="s">
+      <c r="D62" s="207" t="s">
         <v>924</v>
-      </c>
-      <c r="D62" s="207" t="s">
-        <v>925</v>
       </c>
       <c r="E62" s="185"/>
       <c r="F62" s="201"/>
@@ -37999,13 +37996,13 @@
         <v>11</v>
       </c>
       <c r="B63" s="210" t="s">
+        <v>925</v>
+      </c>
+      <c r="C63" s="210" t="s">
         <v>926</v>
       </c>
-      <c r="C63" s="210" t="s">
+      <c r="D63" s="211" t="s">
         <v>927</v>
-      </c>
-      <c r="D63" s="211" t="s">
-        <v>928</v>
       </c>
       <c r="E63" s="185"/>
       <c r="F63" s="201"/>

--- a/メニュー/メニュー.xlsx
+++ b/メニュー/メニュー.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="556">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="559">
   <si>
     <t>大カテゴリー</t>
   </si>
@@ -59,7 +59,7 @@
       <rPr>
         <u val="single"/>
         <sz val="10"/>
-        <color indexed="11"/>
+        <color indexed="12"/>
         <rFont val="Arial"/>
       </rPr>
       <t>https://yaizu-smartcity.jp/tiles/行政区域界/tiles.json</t>
@@ -82,7 +82,7 @@
       <rPr>
         <u val="single"/>
         <sz val="10"/>
-        <color indexed="12"/>
+        <color indexed="13"/>
         <rFont val="Arial"/>
       </rPr>
       <t>https://yaizu-smartcity.jp/tiles/%E9%81%BF%E9%9B%A3%E6%89%80%E4%B8%80%E8%A6%A7/tiles.json</t>
@@ -99,7 +99,7 @@
       <rPr>
         <u val="single"/>
         <sz val="10"/>
-        <color indexed="12"/>
+        <color indexed="13"/>
         <rFont val="Arial"/>
       </rPr>
       <t>https://yaizu-smartcity.jp/tiles/%E6%8C%87%E5%AE%9A%E7%B7%8A%E6%80%A5%E9%81%BF%E9%9B%A3%E5%A0%B4%E6%89%80%E4%B8%80%E8%A6%A7/tiles.json</t>
@@ -116,7 +116,7 @@
       <rPr>
         <u val="single"/>
         <sz val="10"/>
-        <color indexed="12"/>
+        <color indexed="13"/>
         <rFont val="Arial"/>
       </rPr>
       <t>https://yaizu-smartcity.jp/tiles/%E6%8C%87%E5%AE%9A%E6%B4%A5%E6%B3%A2%E9%81%BF%E9%9B%A3%E3%83%93%E3%83%AB%E4%B8%80%E8%A6%A7/tiles.json</t>
@@ -133,7 +133,7 @@
       <rPr>
         <u val="single"/>
         <sz val="10"/>
-        <color indexed="12"/>
+        <color indexed="13"/>
         <rFont val="Arial"/>
       </rPr>
       <t>https://yaizu-smartcity.jp/tiles/%E6%B6%88%E9%98%B2%E6%B0%B4%E5%88%A9%E6%96%BD%E8%A8%AD%E4%B8%80%E8%A6%A7/tiles.json</t>
@@ -150,7 +150,7 @@
       <rPr>
         <u val="single"/>
         <sz val="10"/>
-        <color indexed="12"/>
+        <color indexed="13"/>
         <rFont val="Arial"/>
       </rPr>
       <t>https://yaizu-smartcity.jp/tiles/%E9%98%B2%E7%81%BD%E5%80%89%E5%BA%AB%E4%B8%80%E8%A6%A7/tiles.json</t>
@@ -167,7 +167,7 @@
       <rPr>
         <u val="single"/>
         <sz val="10"/>
-        <color indexed="12"/>
+        <color indexed="13"/>
         <rFont val="Arial"/>
       </rPr>
       <t>https://yaizu-smartcity.jp/tiles/%E6%B0%B4%E9%98%B2%E5%80%89%E5%BA%AB%E4%B8%80%E8%A6%A7/tiles.json</t>
@@ -184,7 +184,7 @@
       <rPr>
         <u val="single"/>
         <sz val="10"/>
-        <color indexed="12"/>
+        <color indexed="13"/>
         <rFont val="Arial"/>
       </rPr>
       <t>https://yaizu-smartcity.jp/tiles/%E6%95%91%E8%AD%B7%E7%97%85%E9%99%A2%E4%B8%80%E8%A6%A7/tiles.json</t>
@@ -201,7 +201,7 @@
       <rPr>
         <u val="single"/>
         <sz val="10"/>
-        <color indexed="12"/>
+        <color indexed="13"/>
         <rFont val="Arial"/>
       </rPr>
       <t>https://yaizu-smartcity.jp/tiles/%E6%95%91%E8%AD%B7%E6%89%80%E4%B8%80%E8%A6%A7/tiles.json</t>
@@ -218,7 +218,7 @@
       <rPr>
         <u val="single"/>
         <sz val="10"/>
-        <color indexed="12"/>
+        <color indexed="13"/>
         <rFont val="Arial"/>
       </rPr>
       <t>https://yaizu-smartcity.jp/tiles/%E9%98%B2%E7%81%BD%E7%94%A8%E3%83%98%E3%83%AA%E3%83%9D%E3%83%BC%E3%83%88%E4%B8%80%E8%A6%A7/tiles.json</t>
@@ -235,7 +235,7 @@
       <rPr>
         <u val="single"/>
         <sz val="10"/>
-        <color indexed="12"/>
+        <color indexed="13"/>
         <rFont val="Arial"/>
       </rPr>
       <t>https://yaizu-smartcity.jp/tiles/%E5%90%8C%E5%A0%B1%E7%84%A1%E7%B7%9A%E5%AD%90%E5%B1%80%E4%B8%80%E8%A6%A7/tiles.json</t>
@@ -252,7 +252,7 @@
       <rPr>
         <u val="single"/>
         <sz val="10"/>
-        <color indexed="12"/>
+        <color indexed="13"/>
         <rFont val="Arial"/>
       </rPr>
       <t>https://yaizu-smartcity.jp/tiles/%E9%A3%B2%E6%96%99%E6%B0%B4%E7%94%A8%E8%B2%AF%E6%B0%B4%E6%A7%BD%E4%B8%80%E8%A6%A7/tiles.json</t>
@@ -269,7 +269,7 @@
       <rPr>
         <u val="single"/>
         <sz val="10"/>
-        <color indexed="12"/>
+        <color indexed="13"/>
         <rFont val="Arial"/>
       </rPr>
       <t>https://yaizu-smartcity.jp/tiles/%E5%9C%9F%E3%81%AE%E3%81%86%E3%82%B9%E3%83%86%E3%83%BC%E3%82%B7%E3%83%A7%E3%83%B3/tiles.json</t>
@@ -289,7 +289,7 @@
       <rPr>
         <u val="single"/>
         <sz val="10"/>
-        <color indexed="12"/>
+        <color indexed="13"/>
         <rFont val="Arial"/>
       </rPr>
       <t>https://yaizu-smartcity.jp/tiles/%E7%B7%8A%E6%80%A5%E8%BC%B8%E9%80%81%E8%B7%AF_%E4%B8%80%E6%AC%A1%E7%B7%8A%E6%80%A5%E8%BC%B8%E9%80%81%E8%B7%AF/tiles.json</t>
@@ -306,7 +306,7 @@
       <rPr>
         <u val="single"/>
         <sz val="10"/>
-        <color indexed="12"/>
+        <color indexed="13"/>
         <rFont val="Arial"/>
       </rPr>
       <t>https://yaizu-smartcity.jp/tiles/%E7%B7%8A%E6%80%A5%E8%BC%B8%E9%80%81%E8%B7%AF_%E4%BA%8C%E6%AC%A1%E7%B7%8A%E6%80%A5%E8%BC%B8%E9%80%81%E8%B7%AF/tiles.json</t>
@@ -323,7 +323,7 @@
       <rPr>
         <u val="single"/>
         <sz val="10"/>
-        <color indexed="12"/>
+        <color indexed="13"/>
         <rFont val="Arial"/>
       </rPr>
       <t>https://yaizu-smartcity.jp/tiles/%E7%B7%8A%E6%80%A5%E8%BC%B8%E9%80%81%E8%B7%AF_%E4%B8%89%E6%AC%A1%E8%BC%B8%E9%80%81%E8%B7%AF/tiles.json</t>
@@ -343,7 +343,7 @@
       <rPr>
         <u val="single"/>
         <sz val="10"/>
-        <color indexed="12"/>
+        <color indexed="13"/>
         <rFont val="Arial"/>
       </rPr>
       <t>https://yaizu-smartcity.jp/tiles/%E9%98%B2%E7%81%BD%E9%96%A2%E9%80%A3%E6%96%BD%E8%A8%AD_%E8%AD%A6%E5%AF%9F%E7%BD%B2_%E4%BA%A4%E7%95%AA/tiles.json</t>
@@ -360,7 +360,7 @@
       <rPr>
         <u val="single"/>
         <sz val="10"/>
-        <color indexed="12"/>
+        <color indexed="13"/>
         <rFont val="Arial"/>
       </rPr>
       <t>https://yaizu-smartcity.jp/tiles/%E9%98%B2%E7%81%BD%E9%96%A2%E9%80%A3%E6%96%BD%E8%A8%AD_%E6%B6%88%E9%98%B2%E6%96%BD%E8%A8%AD/tiles.json</t>
@@ -377,7 +377,7 @@
       <rPr>
         <u val="single"/>
         <sz val="10"/>
-        <color indexed="12"/>
+        <color indexed="13"/>
         <rFont val="Arial"/>
       </rPr>
       <t>https://yaizu-smartcity.jp/tiles/%E8%87%AA%E4%B8%BB%E9%98%B2%E7%81%BD%E4%BC%9A%E5%A2%83%E7%95%8C/tiles.json</t>
@@ -400,7 +400,7 @@
       <rPr>
         <u val="single"/>
         <sz val="10"/>
-        <color indexed="12"/>
+        <color indexed="13"/>
         <rFont val="Arial"/>
       </rPr>
       <t>https://tileserver.geolonia.com/yaizu-smartmap-shindobunpu/tiles/{z}/{x}/{y}.png?v=eWFpenUtc21hcnRtYXAtc2hpbmRvYnVucHV8YWRtaW4tdXBsb2Fkcy95YWl6dS1zbWFydG1hcC1zaGluZG9idW5wdS0wMUpGWTlGRzE1VDdCSlhRUTJQU1k4TlYzTiP8BmltEvFgZ7AbtdKg7djJVPCvEaVsVGPshOWpe6gKgg&amp;key=bb4125ebc1ba442da48d3556f1fe13f5</t>
@@ -414,7 +414,7 @@
       <rPr>
         <u val="single"/>
         <sz val="10"/>
-        <color indexed="12"/>
+        <color indexed="13"/>
         <rFont val="Arial"/>
       </rPr>
       <t>https://tileserver.geolonia.com/yaizu-smartmap-ekijyouka/tiles/{z}/{x}/{y}.png?v=eWFpenUtc21hcnRtYXAtZWtpanlvdWthfGFkbWluLXVwbG9hZHMveWFpenUtc21hcnRtYXAtZWtpanlvdWthLTAxSkcwNTZOWFhRQk1UTkpGQUhUOFhNWkVaI3kGu2YpRPXXVDMk0_MykR8ek8rKaS9gxzJwC5M4jj0c&amp;key=bb4125ebc1ba442da48d3556f1fe13f5</t>
@@ -431,7 +431,7 @@
       <rPr>
         <u val="single"/>
         <sz val="10"/>
-        <color indexed="12"/>
+        <color indexed="13"/>
         <rFont val="Arial"/>
       </rPr>
       <t>https://tileserver.geolonia.com/yaizu-smartmap-4th-tsunami-shinsui/tiles/{z}/{x}/{y}.png?v=eWFpenUtc21hcnRtYXAtNHRoLXRzdW5hbWktc2hpbnN1aXxhZG1pbi11cGxvYWRzL3lhaXp1LXNtYXJ0bWFwLTR0aC10c3VuYW1pLXNoaW5zdWktMDFKRzFRRjFTQ1hLNUhaRzJZWkRGSk1XM1gjLfrbRh2tvRwxB46BnVq1eJAP4L5jhCAiR9miZwWJ3hk&amp;key=bb4125ebc1ba442da48d3556f1fe13f5</t>
@@ -448,7 +448,7 @@
       <rPr>
         <u val="single"/>
         <sz val="10"/>
-        <color indexed="12"/>
+        <color indexed="13"/>
         <rFont val="Arial"/>
       </rPr>
       <t>https://yaizu-smartcity.jp/tiles/土石流_警戒区域/tiles.json</t>
@@ -465,7 +465,7 @@
       <rPr>
         <u val="single"/>
         <sz val="10"/>
-        <color indexed="12"/>
+        <color indexed="13"/>
         <rFont val="Arial"/>
       </rPr>
       <t>https://yaizu-smartcity.jp/tiles/土石流_特別警戒区域/tiles.json</t>
@@ -482,7 +482,7 @@
       <rPr>
         <u val="single"/>
         <sz val="10"/>
-        <color indexed="12"/>
+        <color indexed="13"/>
         <rFont val="Arial"/>
       </rPr>
       <t>https://yaizu-smartcity.jp/tiles/地すべり_警戒区域/tiles.json</t>
@@ -499,7 +499,7 @@
       <rPr>
         <u val="single"/>
         <sz val="10"/>
-        <color indexed="12"/>
+        <color indexed="13"/>
         <rFont val="Arial"/>
       </rPr>
       <t>https://yaizu-smartcity.jp/tiles/がけ崩れ_警戒区域/tiles.json</t>
@@ -516,7 +516,7 @@
       <rPr>
         <u val="single"/>
         <sz val="10"/>
-        <color indexed="12"/>
+        <color indexed="13"/>
         <rFont val="Arial"/>
       </rPr>
       <t>https://yaizu-smartcity.jp/tiles/がけ崩れ_特別警戒区域/tiles.json</t>
@@ -536,7 +536,7 @@
       <rPr>
         <u val="single"/>
         <sz val="10"/>
-        <color indexed="12"/>
+        <color indexed="13"/>
         <rFont val="Arial"/>
       </rPr>
       <t>https://tileserver.geolonia.com/yaizu-smartmap-all_flood-max-20250122/tiles/{z}/{x}/{y}.png?v=eWFpenUtc21hcnRtYXAtYWxsX2Zsb29kLW1heC0yMDI1MDEyMnxhZG1pbi11cGxvYWRzL3lhaXp1LXNtYXJ0bWFwLWFsbF9mbG9vZC1tYXgtMjAyNTAxMjItMDFKSjVNNDZIR1hZR0swUUpNTjNZUDRLNlkjPCK5r3Br4iBJ6gs43vYJ3CP6pHMrS3prdRz8lVj3KiE&amp;key=bb4125ebc1ba442da48d3556f1fe13f5</t>
@@ -550,7 +550,7 @@
       <rPr>
         <u val="single"/>
         <sz val="10"/>
-        <color indexed="12"/>
+        <color indexed="13"/>
         <rFont val="Arial"/>
       </rPr>
       <t>https://tileserver.geolonia.com/yaizu-smartmap-ooigawa_flood-max-20250122/tiles/{z}/{x}/{y}.png?v=eWFpenUtc21hcnRtYXAtb29pZ2F3YV9mbG9vZC1tYXgtMjAyNTAxMjJ8YWRtaW4tdXBsb2Fkcy95YWl6dS1zbWFydG1hcC1vb2lnYXdhX2Zsb29kLW1heC0yMDI1MDEyMi0wMUpKNU05U0dKUVZQNjBTTVE5MzBBNVBTUyN4ZFSCYWcG-VtbFmW8f7esVIHQGyyB-N_-8c-5sjW6lQ&amp;key=bb4125ebc1ba442da48d3556f1fe13f5</t>
@@ -564,7 +564,7 @@
       <rPr>
         <u val="single"/>
         <sz val="10"/>
-        <color indexed="12"/>
+        <color indexed="13"/>
         <rFont val="Arial"/>
       </rPr>
       <t>https://tileserver.geolonia.com/yaizu-smartmap-takakusagawa_flood-max-20250122/tiles/{z}/{x}/{y}.png?v=eWFpenUtc21hcnRtYXAtdGFrYWt1c2FnYXdhX2Zsb29kLW1heC0yMDI1MDEyMnxhZG1pbi11cGxvYWRzL3lhaXp1LXNtYXJ0bWFwLXRha2FrdXNhZ2F3YV9mbG9vZC1tYXgtMjAyNTAxMjItMDFKSjVNQUJIQTdUVjRYWEE5QTkzR0FHWkgjimM1TsDVEkqLCSi4wpFK8q5JcfTnTIY6i3i6r57CX0A&amp;key=bb4125ebc1ba442da48d3556f1fe13f5</t>
@@ -578,7 +578,7 @@
       <rPr>
         <u val="single"/>
         <sz val="10"/>
-        <color indexed="12"/>
+        <color indexed="13"/>
         <rFont val="Arial"/>
       </rPr>
       <t>https://tileserver.geolonia.com/yaizu-smartmap-ishiwakigawa_flood-max-20250122/tiles/{z}/{x}/{y}.png?v=eWFpenUtc21hcnRtYXAtaXNoaXdha2lnYXdhX2Zsb29kLW1heC0yMDI1MDEyMnxhZG1pbi11cGxvYWRzL3lhaXp1LXNtYXJ0bWFwLWlzaGl3YWtpZ2F3YV9mbG9vZC1tYXgtMjAyNTAxMjItMDFKSjVNOTkyRkZLRFoxV0ZZMDVXOUg1RTUjdD9kb3q6n-edazGHScn5Z_BB2dOtDwwBL0WYUslrNz0&amp;key=bb4125ebc1ba442da48d3556f1fe13f5</t>
@@ -592,7 +592,7 @@
       <rPr>
         <u val="single"/>
         <sz val="10"/>
-        <color indexed="12"/>
+        <color indexed="13"/>
         <rFont val="Arial"/>
       </rPr>
       <t>https://tileserver.geolonia.com/yaizu-smartmap-asahinagawa_flood-max-20250122/tiles/{z}/{x}/{y}.png?v=eWFpenUtc21hcnRtYXAtYXNhaGluYWdhd2FfZmxvb2QtbWF4LTIwMjUwMTIyfGFkbWluLXVwbG9hZHMveWFpenUtc21hcnRtYXAtYXNhaGluYWdhd2FfZmxvb2QtbWF4LTIwMjUwMTIyLTAxSko1TTkyN0VEWVA2RzZHWlFENkZHWFdCI5apEATwxiJ5O-u8vrCa_Aq8i588yYu99pyHCD-6cnJD&amp;key=bb4125ebc1ba442da48d3556f1fe13f5</t>
@@ -606,7 +606,7 @@
       <rPr>
         <u val="single"/>
         <sz val="10"/>
-        <color indexed="12"/>
+        <color indexed="13"/>
         <rFont val="Arial"/>
       </rPr>
       <t>https://tileserver.geolonia.com/yaizu-smartmap-hanashigawa_flood-max-20250122/tiles/{z}/{x}/{y}.png?v=eWFpenUtc21hcnRtYXAtaGFuYXNoaWdhd2FfZmxvb2QtbWF4LTIwMjUwMTIyfGFkbWluLXVwbG9hZHMveWFpenUtc21hcnRtYXAtaGFuYXNoaWdhd2FfZmxvb2QtbWF4LTIwMjUwMTIyLTAxSko1TTk1UFdES1ZZUUdFNjg1RkRFWDA5IzJO1Gu9VFWg7akAUXsx62QIvoMMD3bV0B99FamjVRWH&amp;key=bb4125ebc1ba442da48d3556f1fe13f5</t>
@@ -620,7 +620,7 @@
       <rPr>
         <u val="single"/>
         <sz val="10"/>
-        <color indexed="12"/>
+        <color indexed="13"/>
         <rFont val="Arial"/>
       </rPr>
       <t>https://tileserver.geolonia.com/yaizu-smartmap-umedagawa_flood-max-20250122/tiles/{z}/{x}/{y}.png?v=eWFpenUtc21hcnRtYXAtdW1lZGFnYXdhX2Zsb29kLW1heC0yMDI1MDEyMnxhZG1pbi11cGxvYWRzL3lhaXp1LXNtYXJ0bWFwLXVtZWRhZ2F3YV9mbG9vZC1tYXgtMjAyNTAxMjItMDFKSjVNQU4wNUFFQ0c1Q0dXNFE3VE5GVFkjVEgHYpNTdDz0-WFNj93-ZwFbTyu6Z0d2wk2iM9R5u7Q&amp;key=bb4125ebc1ba442da48d3556f1fe13f5</t>
@@ -634,7 +634,7 @@
       <rPr>
         <u val="single"/>
         <sz val="10"/>
-        <color indexed="12"/>
+        <color indexed="13"/>
         <rFont val="Arial"/>
       </rPr>
       <t>https://tileserver.geolonia.com/yaizu-smartmap-setogawa_flood-max-20250122/tiles/{z}/{x}/{y}.png?v=eWFpenUtc21hcnRtYXAtc2V0b2dhd2FfZmxvb2QtbWF4LTIwMjUwMTIyfGFkbWluLXVwbG9hZHMveWFpenUtc21hcnRtYXAtc2V0b2dhd2FfZmxvb2QtbWF4LTIwMjUwMTIyLTAxSko1TUE0RDdKMFZIS0o4Sk1WOTJOTTVBIxuMCm_quVhuckWPNF1obvQO2eCdJtGYUMEVHn3gRKKK&amp;key=bb4125ebc1ba442da48d3556f1fe13f5</t>
@@ -648,7 +648,7 @@
       <rPr>
         <u val="single"/>
         <sz val="10"/>
-        <color indexed="12"/>
+        <color indexed="13"/>
         <rFont val="Arial"/>
       </rPr>
       <t>https://tileserver.geolonia.com/yaizu-smartmap-uchisetotanigawa_flood-max-20250122/tiles/{z}/{x}/{y}.png?v=eWFpenUtc21hcnRtYXAtdWNoaXNldG90YW5pZ2F3YV9mbG9vZC1tYXgtMjAyNTAxMjJ8YWRtaW4tdXBsb2Fkcy95YWl6dS1zbWFydG1hcC11Y2hpc2V0b3RhbmlnYXdhX2Zsb29kLW1heC0yMDI1MDEyMi0wMUpKNU1BSjVRSDkwVEg4OUtHV1NDWUQ1WSMydwZLx6k83TZLytgIgc_DPtLeFNHJTqwf9gZAhWFbfA&amp;key=bb4125ebc1ba442da48d3556f1fe13f5</t>
@@ -662,7 +662,7 @@
       <rPr>
         <u val="single"/>
         <sz val="10"/>
-        <color indexed="12"/>
+        <color indexed="13"/>
         <rFont val="Arial"/>
       </rPr>
       <t>https://tileserver.geolonia.com/yaizu-smartmap-koishigawa_flood-max-20250122/tiles/{z}/{x}/{y}.png?v=eWFpenUtc21hcnRtYXAta29pc2hpZ2F3YV9mbG9vZC1tYXgtMjAyNTAxMjJ8YWRtaW4tdXBsb2Fkcy95YWl6dS1zbWFydG1hcC1rb2lzaGlnYXdhX2Zsb29kLW1heC0yMDI1MDEyMi0wMUpKNU05RjdYWU1ZNkpQM0dKTjg5NkhXNiNYOsA7y7e0r_Iu0xpEQOEsj_X5p1-ruM4dQIoVYOSRVw&amp;key=bb4125ebc1ba442da48d3556f1fe13f5</t>
@@ -676,7 +676,7 @@
       <rPr>
         <u val="single"/>
         <sz val="10"/>
-        <color indexed="12"/>
+        <color indexed="13"/>
         <rFont val="Arial"/>
       </rPr>
       <t>https://tileserver.geolonia.com/yaizu-smartmap-kuroishigawa_flood-max-20250122/tiles/{z}/{x}/{y}.png?v=eWFpenUtc21hcnRtYXAta3Vyb2lzaGlnYXdhX2Zsb29kLW1heC0yMDI1MDEyMnxhZG1pbi11cGxvYWRzL3lhaXp1LXNtYXJ0bWFwLWt1cm9pc2hpZ2F3YV9mbG9vZC1tYXgtMjAyNTAxMjItMDFKSjVNOU5GNjA3OEs0WUFHQkhXNUhQRFYjLsEzoWos3xapWiBFua2VXJUD5vbReBaMpvfpr_TB3Ng&amp;key=bb4125ebc1ba442da48d3556f1fe13f5</t>
@@ -690,7 +690,7 @@
       <rPr>
         <u val="single"/>
         <sz val="10"/>
-        <color indexed="12"/>
+        <color indexed="13"/>
         <rFont val="Arial"/>
       </rPr>
       <t>https://tileserver.geolonia.com/yaizu-smartmap-koyagawa_flood-max-20250122/tiles/{z}/{x}/{y}.png?v=eWFpenUtc21hcnRtYXAta295YWdhd2FfZmxvb2QtbWF4LTIwMjUwMTIyfGFkbWluLXVwbG9hZHMveWFpenUtc21hcnRtYXAta295YWdhd2FfZmxvb2QtbWF4LTIwMjUwMTIyLTAxSko1TTlKNTROUjlCUVM4QlBWWVc3SzEwI3r7R2_FhpUp13cFLSg7diJ2jHwWVzgQWzKSk7nqnxoQ&amp;key=bb4125ebc1ba442da48d3556f1fe13f5</t>
@@ -704,7 +704,7 @@
       <rPr>
         <u val="single"/>
         <sz val="10"/>
-        <color indexed="12"/>
+        <color indexed="13"/>
         <rFont val="Arial"/>
       </rPr>
       <t>https://tileserver.geolonia.com/yaizu-smartmap-tochiyamagawa_flood-max-20250122/tiles/{z}/{x}/{y}.png?v=eWFpenUtc21hcnRtYXAtdG9jaGl5YW1hZ2F3YV9mbG9vZC1tYXgtMjAyNTAxMjJ8YWRtaW4tdXBsb2Fkcy95YWl6dS1zbWFydG1hcC10b2NoaXlhbWFnYXdhX2Zsb29kLW1heC0yMDI1MDEyMi0wMUpKNU1BRTlCVDNEWFAxQkdCSjBLNlI2UCOyAh242YqHr6vhWYEoYxNDPOkyFsQGJOX99vXLPs9jvQ&amp;key=bb4125ebc1ba442da48d3556f1fe13f5</t>
@@ -718,7 +718,7 @@
       <rPr>
         <u val="single"/>
         <sz val="10"/>
-        <color indexed="12"/>
+        <color indexed="13"/>
         <rFont val="Arial"/>
       </rPr>
       <t>https://tileserver.geolonia.com/yaizu-smartmap-seanjigawa_flood-max-20250122/tiles/{z}/{x}/{y}.png?v=eWFpenUtc21hcnRtYXAtc2VhbmppZ2F3YV9mbG9vZC1tYXgtMjAyNTAxMjJ8YWRtaW4tdXBsb2Fkcy95YWl6dS1zbWFydG1hcC1zZWFuamlnYXdhX2Zsb29kLW1heC0yMDI1MDEyMi0wMUpKNU1BMUM5TVJaS0hSVFpTTUJNRU5ITSOLbk41LqC3NJjdsDptQg3a5dUe1-jYrf9Ci_w7me138w&amp;key=bb4125ebc1ba442da48d3556f1fe13f5</t>
@@ -732,7 +732,7 @@
       <rPr>
         <u val="single"/>
         <sz val="10"/>
-        <color indexed="12"/>
+        <color indexed="13"/>
         <rFont val="Arial"/>
       </rPr>
       <t>https://tileserver.geolonia.com/yaizu-smartmap-shidatanakagawa_flood-max-20250122/tiles/{z}/{x}/{y}.png?v=eWFpenUtc21hcnRtYXAtc2hpZGF0YW5ha2FnYXdhX2Zsb29kLW1heC0yMDI1MDEyMnxhZG1pbi11cGxvYWRzL3lhaXp1LXNtYXJ0bWFwLXNoaWRhdGFuYWthZ2F3YV9mbG9vZC1tYXgtMjAyNTAxMjItMDFKSjVNQTg5NjExWUs0M0pKWFhKMzNEQ0sjjXDhElx_Bq-DmgbAZv1rkLWFAJz_mYHzTJ1uT5fEXXE&amp;key=bb4125ebc1ba442da48d3556f1fe13f5</t>
@@ -746,7 +746,7 @@
       <rPr>
         <u val="single"/>
         <sz val="10"/>
-        <color indexed="12"/>
+        <color indexed="13"/>
         <rFont val="Arial"/>
       </rPr>
       <t>https://tileserver.geolonia.com/yaizu-smartmap-izumigawa_flood-max-20250122/tiles/{z}/{x}/{y}.png?v=eWFpenUtc21hcnRtYXAtaXp1bWlnYXdhX2Zsb29kLW1heC0yMDI1MDEyMnxhZG1pbi11cGxvYWRzL3lhaXp1LXNtYXJ0bWFwLWl6dW1pZ2F3YV9mbG9vZC1tYXgtMjAyNTAxMjItMDFKSjVNOUMyNEM3NDIzWlA4M0U5MTFaOTIjiZDvCV2809c0N38igMrrlYkjUOlioRRIzO2VhSPcBEU&amp;key=bb4125ebc1ba442da48d3556f1fe13f5</t>
@@ -760,7 +760,7 @@
       <rPr>
         <u val="single"/>
         <sz val="10"/>
-        <color indexed="12"/>
+        <color indexed="13"/>
         <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">https://tileserver.geolonia.com/yaizu-smartmap-otsutanigawa_flood-max-20250122/tiles/{z}/{x}/{y}.png?v=eWFpenUtc21hcnRtYXAtb3RzdXRhbmlnYXdhX2Zsb29kLW1heC0yMDI1MDEyMnxhZG1pbi11cGxvYWRzL3lhaXp1LXNtYXJ0bWFwLW90c3V0YW5pZ2F3YV9mbG9vZC1tYXgtMjAyNTAxMjItMDFKSjVNOVhUMUJDMEU1OVMwRUhRQzRRRU4juXpVh3i0MnT59rsmSRi1Y-5Yv9Q2ka273F77i7qhk6M&amp;key=bb4125ebc1ba442da48d3556f1fe13f5
@@ -775,11 +775,1566 @@
       <rPr>
         <u val="single"/>
         <sz val="10"/>
+        <color indexed="13"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://tileserver.geolonia.com/yaizu-smartmap-all_flood-planned-20250122/tiles/{z}/{x}/{y}.png?v=eWFpenUtc21hcnRtYXAtYWxsX2Zsb29kLXBsYW5uZWQtMjAyNTAxMjJ8YWRtaW4tdXBsb2Fkcy95YWl6dS1zbWFydG1hcC1hbGxfZmxvb2QtcGxhbm5lZC0yMDI1MDEyMi0wMUpKNVRETjFRNVk2S1E3WTYwV0JSWkVXRiMvFbymz4lH_fdrJRy-jvgwTVw2D13DlzjxNICrb7qY1A&amp;key=bb4125ebc1ba442da48d3556f1fe13f5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="13"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://tileserver.geolonia.com/yaizu-smartmap-ooigawa_flood-planned-20250122/tiles/{z}/{x}/{y}.png?v=eWFpenUtc21hcnRtYXAtb29pZ2F3YV9mbG9vZC1wbGFubmVkLTIwMjUwMTIyfGFkbWluLXVwbG9hZHMveWFpenUtc21hcnRtYXAtb29pZ2F3YV9mbG9vZC1wbGFubmVkLTIwMjUwMTIyLTAxSko1VERWUkdYNjBLNlFBQTFLM1I5UU5SI3K6_rl11h-EuwrNQ4AE7yQiOLb8PCKqFDOJ4FDRsG-g&amp;key=bb4125ebc1ba442da48d3556f1fe13f5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="13"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://tileserver.geolonia.com/yaizu-smartmap-setogawa_flood-planned-20250122/tiles/{z}/{x}/{y}.png?v=eWFpenUtc21hcnRtYXAtc2V0b2dhd2FfZmxvb2QtcGxhbm5lZC0yMDI1MDEyMnxhZG1pbi11cGxvYWRzL3lhaXp1LXNtYXJ0bWFwLXNldG9nYXdhX2Zsb29kLXBsYW5uZWQtMjAyNTAxMjItMDFKSjVURTFZNVRWRTBIVzFWOUFLMzBLRFcji6G-BXNCHGZShICjglWb3w_mWK_NKrvuXH_tI_9nlgQ&amp;key=bb4125ebc1ba442da48d3556f1fe13f5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="13"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://tileserver.geolonia.com/yaizu-smartmap-koyagawa_flood-planned-20250122/tiles/{z}/{x}/{y}.png?v=eWFpenUtc21hcnRtYXAta295YWdhd2FfZmxvb2QtcGxhbm5lZC0yMDI1MDEyMnxhZG1pbi11cGxvYWRzL3lhaXp1LXNtYXJ0bWFwLWtveWFnYXdhX2Zsb29kLXBsYW5uZWQtMjAyNTAxMjItMDFKSjVURFJXSldXSkVXUFdESEMzV0sxNTgjf-2T3_0XdWSFLtX6dSNEbLxxCj2IDXBYnWuWoALGMxI&amp;key=bb4125ebc1ba442da48d3556f1fe13f5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="13"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://tileserver.geolonia.com/yaizu-smartmap-tochiyamagawa_flood-planned-20250122/tiles/{z}/{x}/{y}.png?v=eWFpenUtc21hcnRtYXAtdG9jaGl5YW1hZ2F3YV9mbG9vZC1wbGFubmVkLTIwMjUwMTIyfGFkbWluLXVwbG9hZHMveWFpenUtc21hcnRtYXAtdG9jaGl5YW1hZ2F3YV9mbG9vZC1wbGFubmVkLTIwMjUwMTIyLTAxSko1VEU4NktENUZWU1RGVjE4RDNRVFBUI0UGkE67qVTbtRvaLl2OvOsiZu9Hnd-9AT1ia-ckrXPG&amp;key=bb4125ebc1ba442da48d3556f1fe13f5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="13"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://tileserver.geolonia.com/yaizu-smartmap-shidatanakagawa_flood-planned-20250122/tiles/{z}/{x}/{y}.png?v=eWFpenUtc21hcnRtYXAtc2hpZGF0YW5ha2FnYXdhX2Zsb29kLXBsYW5uZWQtMjAyNTAxMjJ8YWRtaW4tdXBsb2Fkcy95YWl6dS1zbWFydG1hcC1zaGlkYXRhbmFrYWdhd2FfZmxvb2QtcGxhbm5lZC0yMDI1MDEyMi0wMUpKNVRFNTUyV0dRWUVTWVdWVkFHNURDUiM6XrMaFpsN_nu69zOxecuTueNyhch7DBXrxCJmaCBV8w&amp;key=bb4125ebc1ba442da48d3556f1fe13f5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="13"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://tileserver.geolonia.com/yaizu-smartmap-otsutanigawa_flood-planned-20250122/tiles/{z}/{x}/{y}.png?v=eWFpenUtc21hcnRtYXAtb3RzdXRhbmlnYXdhX2Zsb29kLXBsYW5uZWQtMjAyNTAxMjJ8YWRtaW4tdXBsb2Fkcy95YWl6dS1zbWFydG1hcC1vdHN1dGFuaWdhd2FfZmxvb2QtcGxhbm5lZC0yMDI1MDEyMi0wMUpKNVREWkFYQVcyMktRNEdWVkhOTTQ4USPJeHao4Q6wyWn0IEPkPECr5W-lDwzRh1n7dcRP_rd19Q&amp;key=bb4125ebc1ba442da48d3556f1fe13f5</t>
+    </r>
+  </si>
+  <si>
+    <t>洪水浸水想定区域(浸水継続時間)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="13"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://tileserver.geolonia.com/yaizu-smartmap-all_flood-duration/tiles/{z}/{x}/{y}.png?v=eWFpenUtc21hcnRtYXAtYWxsX2Zsb29kLWR1cmF0aW9ufGFkbWluLXVwbG9hZHMveWFpenUtc21hcnRtYXAtYWxsX2Zsb29kLWR1cmF0aW9uLTAxSkZDMjM2TkNFOEE4WlY1RlpXUTFUNjdQI72n4lnDlqr_qS3dvbGif0AlepOAnvK3E1Vx_MjVLXsc&amp;key=bb4125ebc1ba442da48d3556f1fe13f5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="13"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://tileserver.geolonia.com/yaizu-smartmap-ooigawa_flood-duration_modified/tiles/{z}/{x}/{y}.png?v=eWFpenUtc21hcnRtYXAtb29pZ2F3YV9mbG9vZC1kdXJhdGlvbl9tb2RpZmllZHxhZG1pbi11cGxvYWRzL3lhaXp1LXNtYXJ0bWFwLW9vaWdhd2FfZmxvb2QtZHVyYXRpb25fbW9kaWZpZWQtMDFKRkMyM0tRRTBOOE02RlJaWlBYWTdNVEsjb6TUQ42ra-hBJK2eSP06FX90ArT2yTi5_X9jzEWntEw&amp;key=bb4125ebc1ba442da48d3556f1fe13f5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="13"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://tileserver.geolonia.com/yaizu-smartmap-asahinagawa_flood-duration_modified/tiles/{z}/{x}/{y}.png?v=eWFpenUtc21hcnRtYXAtYXNhaGluYWdhd2FfZmxvb2QtZHVyYXRpb25fbW9kaWZpZWR8YWRtaW4tdXBsb2Fkcy95YWl6dS1zbWFydG1hcC1hc2FoaW5hZ2F3YV9mbG9vZC1kdXJhdGlvbl9tb2RpZmllZC0wMUpGQzIzQUtEQkFQUkpXMkNKSE45Q0pWNCOv1qiFcrLRZll0zMjGPpeTcM-NM60iPJiH7OxfIPrruw&amp;key=bb4125ebc1ba442da48d3556f1fe13f5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="13"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://tileserver.geolonia.com/yaizu-smartmap-hanashigawa_flood-duration_modified/tiles/{z}/{x}/{y}.png?v=eWFpenUtc21hcnRtYXAtaGFuYXNoaWdhd2FfZmxvb2QtZHVyYXRpb25fbW9kaWZpZWR8YWRtaW4tdXBsb2Fkcy95YWl6dS1zbWFydG1hcC1oYW5hc2hpZ2F3YV9mbG9vZC1kdXJhdGlvbl9tb2RpZmllZC0wMUpGQzIzRFJBTVYzWFRDUlY0WVJCUUVIUyOyqbE2vnFeS_9BZw94HXS20jBUsE7o_rmOXEyGSp0CYA&amp;key=bb4125ebc1ba442da48d3556f1fe13f5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="13"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://tileserver.geolonia.com/yaizu-smartmap-setogawa_flood-duration_modified/tiles/{z}/{x}/{y}.png?v=eWFpenUtc21hcnRtYXAtc2V0b2dhd2FfZmxvb2QtZHVyYXRpb25fbW9kaWZpZWR8YWRtaW4tdXBsb2Fkcy95YWl6dS1zbWFydG1hcC1zZXRvZ2F3YV9mbG9vZC1kdXJhdGlvbl9tb2RpZmllZC0wMUpGQzIzVDFETjRKNDZSSENUNkc3VlBGMSM4etkawiLQc6u4jK6mqi1X2xklmi7fEC1D6aIWymyDbA&amp;key=bb4125ebc1ba442da48d3556f1fe13f5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="13"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://tileserver.geolonia.com/yaizu-smartmap-koyagawa_flood-duration_modified/tiles/{z}/{x}/{y}.png?v=eWFpenUtc21hcnRtYXAta295YWdhd2FfZmxvb2QtZHVyYXRpb25fbW9kaWZpZWR8YWRtaW4tdXBsb2Fkcy95YWl6dS1zbWFydG1hcC1rb3lhZ2F3YV9mbG9vZC1kdXJhdGlvbl9tb2RpZmllZC0wMUpGQzIzR1ZZWEFDQzg4MUg3QjlLV1lFOCOfdwjLULNhmI_ow4g0dWNl2dx8qQUUG8aFUeQo_0hXDQ&amp;key=bb4125ebc1ba442da48d3556f1fe13f5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="13"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://tileserver.geolonia.com/yaizu-smartmap-tochiyamagawa_flood-duration_modified/tiles/{z}/{x}/{y}.png?v=eWFpenUtc21hcnRtYXAtdG9jaGl5YW1hZ2F3YV9mbG9vZC1kdXJhdGlvbl9tb2RpZmllZHxhZG1pbi11cGxvYWRzL3lhaXp1LXNtYXJ0bWFwLXRvY2hpeWFtYWdhd2FfZmxvb2QtZHVyYXRpb25fbW9kaWZpZWQtMDFKRkMyM1pWWVE3MEowUzdaNTZHWkNKRFojC5eX3JK7qasK2odfocPvh5KVdzgW8GfTWFIWWxO0-OY&amp;key=bb4125ebc1ba442da48d3556f1fe13f5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="13"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://tileserver.geolonia.com/yaizu-smartmap-shidatanakagawa_flood-duration_modified/tiles/{z}/{x}/{y}.png?v=eWFpenUtc21hcnRtYXAtc2hpZGF0YW5ha2FnYXdhX2Zsb29kLWR1cmF0aW9uX21vZGlmaWVkfGFkbWluLXVwbG9hZHMveWFpenUtc21hcnRtYXAtc2hpZGF0YW5ha2FnYXdhX2Zsb29kLWR1cmF0aW9uX21vZGlmaWVkLTAxSkZDMjNYNFlBNDZLMlQxTVdGMVFWODJaI8I_8TmmNT2ZBas2uO_iuv708Hw-rSmd9df6Iy_TRMzO&amp;key=bb4125ebc1ba442da48d3556f1fe13f5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="13"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://tileserver.geolonia.com/yaizu-smartmap-otsutanigawa_flood-duration_modified/tiles/{z}/{x}/{y}.png?v=eWFpenUtc21hcnRtYXAtb3RzdXRhbmlnYXdhX2Zsb29kLWR1cmF0aW9uX21vZGlmaWVkfGFkbWluLXVwbG9hZHMveWFpenUtc21hcnRtYXAtb3RzdXRhbmlnYXdhX2Zsb29kLWR1cmF0aW9uX21vZGlmaWVkLTAxSkZDMjNRNENHRURIR1FLNEtGU1lLMzZBI7KZF6uvKMllQBtCXF86Bop_8GzzniSe6NN1Rp0RaowV&amp;key=bb4125ebc1ba442da48d3556f1fe13f5</t>
+    </r>
+  </si>
+  <si>
+    <t>家屋倒壊等氾濫想定区域（氾濫流）</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="13"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://yaizu-smartcity.jp/tiles/%E5%A4%A7%E4%BA%95%E5%B7%9D_%E5%AE%B6%E5%B1%8B%E5%80%92%E5%A3%8A%E7%AD%89%E6%B0%BE%E6%BF%AB%E6%83%B3%E5%AE%9A%EF%BC%88%E6%B0%BE%E6%BF%AB%E6%B5%81%EF%BC%89/tiles.json</t>
+    </r>
+  </si>
+  <si>
+    <t>#C891FF</t>
+  </si>
+  <si>
+    <t>家屋倒壊等氾濫想定区域（河岸侵食）</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="13"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://yaizu-smartcity.jp/tiles/%E5%A4%A7%E4%BA%95%E5%B7%9D_%E5%AE%B6%E5%B1%8B%E5%80%92%E5%A3%8A%E7%AD%89%E6%B0%BE%E6%BF%AB%E6%83%B3%E5%AE%9A%EF%BC%88%E6%B2%B3%E5%B2%B8%E4%BE%B5%E9%A3%9F%EF%BC%89/tiles.json</t>
+    </r>
+  </si>
+  <si>
+    <t>#CFEEFF</t>
+  </si>
+  <si>
+    <t>#51A2FF</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="13"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://yaizu-smartcity.jp/tiles/%E6%9C%9D%E6%AF%94%E5%A5%88%E5%B7%9D_%E5%AE%B6%E5%B1%8B%E5%80%92%E5%A3%8A%E7%AD%89%E6%B0%BE%E6%BF%AB%E6%83%B3%E5%AE%9A%EF%BC%88%E6%B2%B3%E5%B2%B8%E4%BE%B5%E9%A3%9F%EF%BC%89/tiles.json</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="13"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://yaizu-smartcity.jp/tiles/%E8%91%89%E6%A2%A8%E5%B7%9D_%E5%AE%B6%E5%B1%8B%E5%80%92%E5%A3%8A%E7%AD%89%E6%B0%BE%E6%BF%AB%E6%83%B3%E5%AE%9A%EF%BC%88%E6%B2%B3%E5%B2%B8%E4%BE%B5%E9%A3%9F%EF%BC%89/tiles.json</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="13"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://yaizu-smartcity.jp/tiles/%E7%80%AC%E6%88%B8%E5%B7%9D_%E5%AE%B6%E5%B1%8B%E5%80%92%E5%A3%8A%E7%AD%89%E6%B0%BE%E6%BF%AB%E6%83%B3%E5%AE%9A%EF%BC%88%E6%B2%B3%E5%B2%B8%E4%BE%B5%E9%A3%9F%EF%BC%89/tiles.json</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="13"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://yaizu-smartcity.jp/tiles/%E6%9C%A8%E5%B1%8B%E5%B7%9D_%E5%AE%B6%E5%B1%8B%E5%80%92%E5%A3%8A%E7%AD%89%E6%B0%BE%E6%BF%AB%E6%83%B3%E5%AE%9A%EF%BC%88%E6%B2%B3%E5%B2%B8%E4%BE%B5%E9%A3%9F%EF%BC%89/tiles.json</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="13"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://yaizu-smartcity.jp/tiles/%E6%A0%83%E5%B1%B1%E5%B7%9D_%E5%AE%B6%E5%B1%8B%E5%80%92%E5%A3%8A%E7%AD%89%E6%B0%BE%E6%BF%AB%E6%83%B3%E5%AE%9A%EF%BC%88%E6%B2%B3%E5%B2%B8%E4%BE%B5%E9%A3%9F%EF%BC%89/tiles.json</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="13"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://yaizu-smartcity.jp/tiles/%E5%BF%97%E5%A4%AA%E7%94%B0%E4%B8%AD%E5%B7%9D_%E5%AE%B6%E5%B1%8B%E5%80%92%E5%A3%8A%E7%AD%89%E6%B0%BE%E6%BF%AB%E6%83%B3%E5%AE%9A%EF%BC%88%E6%B2%B3%E5%B2%B8%E4%BE%B5%E9%A3%9F%EF%BC%89/tiles.json</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="13"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://yaizu-smartcity.jp/tiles/%E5%A4%A7%E6%B4%A5%E8%B0%B7%E5%B7%9D_%E5%AE%B6%E5%B1%8B%E5%80%92%E5%A3%8A%E7%AD%89%E6%B0%BE%E6%BF%AB%E6%83%B3%E5%AE%9A%EF%BC%88%E6%B2%B3%E5%B2%B8%E4%BE%B5%E9%A3%9F%EF%BC%89/tiles.json</t>
+    </r>
+  </si>
+  <si>
+    <t>内水浸水想定区域(公共下水道区域内)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="13"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://yaizu-smartcity.jp/tiles/%E5%86%85%E6%B0%B4%E6%B5%B8%E6%B0%B4%E6%83%B3%E5%AE%9A%E5%8C%BA%E5%9F%9F(%E5%85%AC%E5%85%B1%E4%B8%8B%E6%B0%B4%E9%81%93%E5%8C%BA%E5%9F%9F%E5%86%85)/tiles.json</t>
+    </r>
+  </si>
+  <si>
+    <t>浸水履歴（平成9年～令和5年）</t>
+  </si>
+  <si>
+    <t>統合（平成9年～令和5年）</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="13"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://yaizu-smartcity.jp/tiles/%E6%B5%B8%E6%B0%B4%E5%B1%A5%E6%AD%B4_%E7%B5%B1%E5%90%88/tiles.json</t>
+    </r>
+  </si>
+  <si>
+    <t>令和4年</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="13"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://yaizu-smartcity.jp/tiles/%E6%B5%B8%E6%B0%B4%E5%B1%A5%E6%AD%B4_%E4%BB%A4%E5%92%8C4%E5%B9%B4/tiles.json</t>
+    </r>
+  </si>
+  <si>
+    <t>令和元年</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="13"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://yaizu-smartcity.jp/tiles/%E6%B5%B8%E6%B0%B4%E5%B1%A5%E6%AD%B4_%E4%BB%A4%E5%92%8C%E5%85%83%E5%B9%B4/tiles.json</t>
+    </r>
+  </si>
+  <si>
+    <t>平成29年</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="13"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://yaizu-smartcity.jp/tiles/%E6%B5%B8%E6%B0%B4%E5%B1%A5%E6%AD%B4_%E5%B9%B3%E6%88%9029%E5%B9%B4/tiles.json</t>
+    </r>
+  </si>
+  <si>
+    <t>平成26年</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="13"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://yaizu-smartcity.jp/tiles/%E6%B5%B8%E6%B0%B4%E5%B1%A5%E6%AD%B4_%E5%B9%B3%E6%88%9026%E5%B9%B4/tiles.json</t>
+    </r>
+  </si>
+  <si>
+    <t>平成25年</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="13"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://yaizu-smartcity.jp/tiles/%E6%B5%B8%E6%B0%B4%E5%B1%A5%E6%AD%B4_%E5%B9%B3%E6%88%9025%E5%B9%B4/tiles.json</t>
+    </r>
+  </si>
+  <si>
+    <t>平成24年</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="13"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://yaizu-smartcity.jp/tiles/%E6%B5%B8%E6%B0%B4%E5%B1%A5%E6%AD%B4_%E5%B9%B3%E6%88%9024%E5%B9%B4/tiles.json</t>
+    </r>
+  </si>
+  <si>
+    <t>平成23年</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="13"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://yaizu-smartcity.jp/tiles/%E6%B5%B8%E6%B0%B4%E5%B1%A5%E6%AD%B4_%E5%B9%B3%E6%88%9023%E5%B9%B4/tiles.json</t>
+    </r>
+  </si>
+  <si>
+    <t>平成22年</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="13"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://yaizu-smartcity.jp/tiles/%E6%B5%B8%E6%B0%B4%E5%B1%A5%E6%AD%B4_%E5%B9%B3%E6%88%9022%E5%B9%B4/tiles.json</t>
+    </r>
+  </si>
+  <si>
+    <t>平成20年</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="13"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://yaizu-smartcity.jp/tiles/%E6%B5%B8%E6%B0%B4%E5%B1%A5%E6%AD%B4_%E5%B9%B3%E6%88%9020%E5%B9%B4/tiles.json</t>
+    </r>
+  </si>
+  <si>
+    <t>平成19年</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="13"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://yaizu-smartcity.jp/tiles/%E6%B5%B8%E6%B0%B4%E5%B1%A5%E6%AD%B4_%E5%B9%B3%E6%88%9019%E5%B9%B4/tiles.json</t>
+    </r>
+  </si>
+  <si>
+    <t>平成18年</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="13"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://yaizu-smartcity.jp/tiles/%E6%B5%B8%E6%B0%B4%E5%B1%A5%E6%AD%B4_%E5%B9%B3%E6%88%9018%E5%B9%B4/tiles.json</t>
+    </r>
+  </si>
+  <si>
+    <t>平成17年</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="13"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://yaizu-smartcity.jp/tiles/%E6%B5%B8%E6%B0%B4%E5%B1%A5%E6%AD%B4_%E5%B9%B3%E6%88%9017%E5%B9%B4/tiles.json</t>
+    </r>
+  </si>
+  <si>
+    <t>平成16年</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="13"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://yaizu-smartcity.jp/tiles/%E6%B5%B8%E6%B0%B4%E5%B1%A5%E6%AD%B4_%E5%B9%B3%E6%88%9016%E5%B9%B4/tiles.json</t>
+    </r>
+  </si>
+  <si>
+    <t>平成15年</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="13"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://yaizu-smartcity.jp/tiles/%E6%B5%B8%E6%B0%B4%E5%B1%A5%E6%AD%B4_%E5%B9%B3%E6%88%9015%E5%B9%B4/tiles.json</t>
+    </r>
+  </si>
+  <si>
+    <t>平成14年</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="13"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://yaizu-smartcity.jp/tiles/%E6%B5%B8%E6%B0%B4%E5%B1%A5%E6%AD%B4_%E5%B9%B3%E6%88%9014%E5%B9%B4/tiles.json</t>
+    </r>
+  </si>
+  <si>
+    <t>平成13年</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="13"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://yaizu-smartcity.jp/tiles/%E6%B5%B8%E6%B0%B4%E5%B1%A5%E6%AD%B4_%E5%B9%B3%E6%88%9013%E5%B9%B4/tiles.json</t>
+    </r>
+  </si>
+  <si>
+    <t>平成12年</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="13"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://yaizu-smartcity.jp/tiles/%E6%B5%B8%E6%B0%B4%E5%B1%A5%E6%AD%B4_%E5%B9%B3%E6%88%9012%E5%B9%B4/tiles.json</t>
+    </r>
+  </si>
+  <si>
+    <t>平成11年</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="13"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://yaizu-smartcity.jp/tiles/%E6%B5%B8%E6%B0%B4%E5%B1%A5%E6%AD%B4_%E5%B9%B3%E6%88%9011%E5%B9%B4/tiles.json</t>
+    </r>
+  </si>
+  <si>
+    <t>平成10年</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="13"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://yaizu-smartcity.jp/tiles/%E6%B5%B8%E6%B0%B4%E5%B1%A5%E6%AD%B4_%E5%B9%B3%E6%88%9010%E5%B9%B4/tiles.json</t>
+    </r>
+  </si>
+  <si>
+    <t>平成9年</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="13"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://yaizu-smartcity.jp/tiles/%E6%B5%B8%E6%B0%B4%E5%B1%A5%E6%AD%B4_%E5%B9%B3%E6%88%909%E5%B9%B4/tiles.json</t>
+    </r>
+  </si>
+  <si>
+    <t>観光・イベント</t>
+  </si>
+  <si>
+    <t>お食事</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="13"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://yaizu-smartcity.jp/tiles/%E3%81%8A%E9%A3%9F%E4%BA%8B/tiles.json</t>
+    </r>
+  </si>
+  <si>
+    <t>restaurant</t>
+  </si>
+  <si>
+    <t>お買い物</t>
+  </si>
+  <si>
+    <t>ショップ</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="13"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://yaizu-smartcity.jp/tiles/%E3%82%B7%E3%83%A7%E3%83%83%E3%83%97/tiles.json</t>
+    </r>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>工場併設直売所</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="13"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://yaizu-smartcity.jp/tiles/%E5%B7%A5%E5%A0%B4%E4%BD%B5%E8%A8%AD%E7%9B%B4%E5%A3%B2%E6%89%80%E4%B8%80%E8%A6%A7/tiles.json</t>
+    </r>
+  </si>
+  <si>
+    <t>factory-shop</t>
+  </si>
+  <si>
+    <t>体験・見どころ</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="13"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://yaizu-smartcity.jp/tiles/%E4%BD%93%E9%A8%93%E3%83%BB%E8%A6%8B%E3%81%A9%E3%81%93%E3%82%8D/tiles.json</t>
+    </r>
+  </si>
+  <si>
+    <t>tourist-facility</t>
+  </si>
+  <si>
+    <t>日帰り温泉・足湯</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="13"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://yaizu-smartcity.jp/tiles/%E6%97%A5%E5%B8%B0%E3%82%8A%E6%B8%A9%E6%B3%89%E3%83%BB%E8%B6%B3%E6%B9%AF/tiles.json</t>
+    </r>
+  </si>
+  <si>
+    <t>hotspring</t>
+  </si>
+  <si>
+    <t>宿泊</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="13"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://yaizu-smartcity.jp/tiles/%E5%AE%BF%E6%B3%8A/tiles.json</t>
+    </r>
+  </si>
+  <si>
+    <t>hotel</t>
+  </si>
+  <si>
+    <t>移動・その他</t>
+  </si>
+  <si>
+    <t>レンタカー</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="13"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://yaizu-smartcity.jp/tiles/%E3%83%AC%E3%83%B3%E3%82%BF%E3%82%AB%E3%83%BC/tiles.json</t>
+    </r>
+  </si>
+  <si>
+    <t>car-rental</t>
+  </si>
+  <si>
+    <t>その他</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="13"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://yaizu-smartcity.jp/tiles/%E3%81%9D%E3%81%AE%E4%BB%96/tiles.json</t>
+    </r>
+  </si>
+  <si>
+    <t>#66cdaa</t>
+  </si>
+  <si>
+    <t>市営駐車場・駐輪場</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="13"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://yaizu-smartcity.jp/tiles/%E5%B8%82%E5%96%B6%E9%A7%90%E8%BB%8A%E5%A0%B4%E3%83%BB%E9%A7%90%E8%BC%AA%E5%A0%B4/tiles.json</t>
+    </r>
+  </si>
+  <si>
+    <t>parking</t>
+  </si>
+  <si>
+    <t>焼津観光マップ</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="13"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://yaizu-smartcity.jp/tiles/%E7%84%BC%E6%B4%A5%E8%A6%B3%E5%85%89%E3%83%9E%E3%83%83%E3%83%97/tiles.json</t>
+    </r>
+  </si>
+  <si>
+    <t>高草山ハイキングマップ</t>
+  </si>
+  <si>
+    <t>高草山コース　1</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="13"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://yaizu-smartcity.jp/tiles/%E3%83%8F%E3%82%A4%E3%82%AD%E3%83%B3%E3%82%B0%E3%82%B3%E3%83%BC%E3%82%B9_1-1%E8%8A%B1%E6%B2%A2%E3%81%AE%E9%87%8C_%E9%9E%8D%E6%8E%9B%E5%B3%A0_%E9%AB%98%E8%8D%89%E5%B1%B1_%E7%9F%B3%E8%84%87%E3%82%B3%E3%83%BC%E3%82%B9/tiles.json</t>
+    </r>
+  </si>
+  <si>
+    <t>#009f45</t>
+  </si>
+  <si>
+    <t>高草山コース　2</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="13"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://yaizu-smartcity.jp/tiles/%E3%83%8F%E3%82%A4%E3%82%AD%E3%83%B3%E3%82%B0%E3%82%B3%E3%83%BC%E3%82%B9_1-2%E5%9D%82%E6%9C%AC_%E9%AB%98%E8%8D%89%E5%B1%B1%E3%82%B3%E3%83%BC%E3%82%B9/tiles.json</t>
+    </r>
+  </si>
+  <si>
+    <t>#ef8da9</t>
+  </si>
+  <si>
+    <t>高草山コース　3</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="13"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://yaizu-smartcity.jp/tiles/%E3%83%8F%E3%82%A4%E3%82%AD%E3%83%B3%E3%82%B0%E3%82%B3%E3%83%BC%E3%82%B9_1-3%E7%84%BC%E6%B4%A5%E5%B8%82_%E9%96%A2%E6%96%B9_%E9%AB%98%E8%8D%89%E5%B1%B1%E3%82%B3%E3%83%BC%E3%82%B9/tiles.json</t>
+    </r>
+  </si>
+  <si>
+    <t>#179fac</t>
+  </si>
+  <si>
+    <t>高草山コース　4</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="13"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://yaizu-smartcity.jp/tiles/%E3%83%8F%E3%82%A4%E3%82%AD%E3%83%B3%E3%82%B0%E3%82%B3%E3%83%BC%E3%82%B9_1-4%E8%97%A4%E6%9E%9D%E5%B8%82_%E4%B8%89%E8%BC%AA_%E9%AB%98%E8%8D%89%E5%B1%B1%E3%82%B3%E3%83%BC%E3%82%B9/tiles.json</t>
+    </r>
+  </si>
+  <si>
+    <t>#7ac24c</t>
+  </si>
+  <si>
+    <t>満観峰コース</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="13"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://yaizu-smartcity.jp/tiles/%E3%83%8F%E3%82%A4%E3%82%AD%E3%83%B3%E3%82%B0%E3%82%B3%E3%83%BC%E3%82%B9_2%E7%84%BC%E6%B4%A5%E5%B8%82_%E8%8A%B1%E6%B2%A2%E3%81%AE%E9%87%8C_%E6%BA%80%E8%A6%B3%E5%B3%B0%E3%82%B3%E3%83%BC%E3%82%B9/tiles.json</t>
+    </r>
+  </si>
+  <si>
+    <t>#3d73ba</t>
+  </si>
+  <si>
+    <t>花沢山コース　1</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="13"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://yaizu-smartcity.jp/tiles/%E3%83%8F%E3%82%A4%E3%82%AD%E3%83%B3%E3%82%B0%E3%82%B3%E3%83%BC%E3%82%B9_3-1%E5%85%A5%E5%8F%A3_%E8%8A%B1%E6%B2%A2%E5%B1%B1_%E6%97%A5%E6%9C%AC%E5%9D%82%E5%B3%A0_%E8%8A%B1%E6%B2%A2%E3%81%AE%E9%87%8C%E3%82%B3%E3%83%BC%E3%82%B9/tiles.json</t>
+    </r>
+  </si>
+  <si>
+    <t>#b664a6</t>
+  </si>
+  <si>
+    <t>花沢山コース　2</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="13"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://yaizu-smartcity.jp/tiles/%E3%83%8F%E3%82%A4%E3%82%AD%E3%83%B3%E3%82%B0%E3%82%B3%E3%83%BC%E3%82%B9_3-2%E9%9D%99%E5%B2%A1%E5%B8%82_%E5%B0%8F%E5%9D%82_%E6%97%A5%E6%9C%AC%E5%9D%82%E5%B3%A0_%E8%8A%B1%E6%B2%A2%E5%B1%B1_%E7%9F%B3%E9%83%A8%E3%82%B3%E3%83%BC%E3%82%B9/tiles.json</t>
+    </r>
+  </si>
+  <si>
+    <t>#dab06d</t>
+  </si>
+  <si>
+    <t>ハイキングスポット</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="13"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://yaizu-smartcity.jp/tiles/%E3%83%8F%E3%82%A4%E3%82%AD%E3%83%B3%E3%82%B0%E3%82%B3%E3%83%BC%E3%82%B9_%E5%9C%B0%E7%82%B9/tiles.json</t>
+    </r>
+  </si>
+  <si>
+    <t>brown-marker</t>
+  </si>
+  <si>
+    <t>トイレ</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="13"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://yaizu-smartcity.jp/tiles/%E3%83%8F%E3%82%A4%E3%82%AD%E3%83%B3%E3%82%B0%E3%82%B3%E3%83%BC%E3%82%B9_%E5%9C%B0%E7%82%B9_%E3%83%88%E3%82%A4%E3%83%AC/tiles.json</t>
+    </r>
+  </si>
+  <si>
+    <t>public-toilets</t>
+  </si>
+  <si>
+    <t>駐車場・バス停</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="13"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://yaizu-smartcity.jp/tiles/%E3%83%8F%E3%82%A4%E3%82%AD%E3%83%B3%E3%82%B0%E3%82%B3%E3%83%BC%E3%82%B9_%E5%9C%B0%E7%82%B9_%E9%A7%90%E8%BB%8A%E5%A0%B4/tiles.json</t>
+    </r>
+  </si>
+  <si>
+    <t>#ffffff</t>
+  </si>
+  <si>
+    <t>#2F2011</t>
+  </si>
+  <si>
+    <t>まちづくり</t>
+  </si>
+  <si>
+    <t>航空写真（令和5年度）</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="13"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://tileserver.geolonia.com/yaizu-smartmap-airplane-photo-20250107/tiles/{z}/{x}/{y}.png?v=eWFpenUtc21hcnRtYXAtYWlycGxhbmUtcGhvdG8tMjAyNTAxMDd8YWRtaW4tdXBsb2Fkcy95YWl6dS1zbWFydG1hcC1haXJwbGFuZS1waG90by0yMDI1MDEwNy0wMUpHWjZYNFREVkRGWENaUTZLMFI0OTI3SCNrke6hy68odQSAeYKKqMfyyh60LcOUvZIyg0WHjX-LWA&amp;key=bb4125ebc1ba442da48d3556f1fe13f5</t>
+    </r>
+  </si>
+  <si>
+    <t>都市計画図</t>
+  </si>
+  <si>
+    <t>市街化区域界・市街化調整区域界</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="13"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://yaizu-smartcity.jp/tiles/市街化区域界_市街化調整区域界/tiles.json</t>
+    </r>
+  </si>
+  <si>
+    <t>#cd853f</t>
+  </si>
+  <si>
+    <t>高度利用地区</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="13"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://yaizu-smartcity.jp/tiles/高度利用地区/tiles.json</t>
+    </r>
+  </si>
+  <si>
+    <t>#ff6347</t>
+  </si>
+  <si>
+    <t>準防火地域</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="13"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://yaizu-smartcity.jp/tiles/準防火地域/tiles.json</t>
+    </r>
+  </si>
+  <si>
+    <t>#ffb6c1</t>
+  </si>
+  <si>
+    <t>都市計画道路</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="13"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://yaizu-smartcity.jp/tiles/都市計画道路/tiles.json</t>
+    </r>
+  </si>
+  <si>
+    <t>#ff0000</t>
+  </si>
+  <si>
+    <t>駐車場</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="13"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://yaizu-smartcity.jp/tiles/駐車場/tiles.json</t>
+    </r>
+  </si>
+  <si>
+    <t>#000000</t>
+  </si>
+  <si>
+    <t>公園・緑地</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="13"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://yaizu-smartcity.jp/tiles/公園_緑地/tiles.json</t>
+    </r>
+  </si>
+  <si>
+    <t>#228b22</t>
+  </si>
+  <si>
+    <t>ごみ焼却場</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="13"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://yaizu-smartcity.jp/tiles/%E3%81%94%E3%81%BF%E7%84%BC%E5%8D%B4%E5%A0%B4/tiles.json</t>
+    </r>
+  </si>
+  <si>
+    <t>#8b4513</t>
+  </si>
+  <si>
+    <t>し尿処理場</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="13"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://yaizu-smartcity.jp/tiles/し尿処理場/tiles.json</t>
+    </r>
+  </si>
+  <si>
+    <t>#1e90ff</t>
+  </si>
+  <si>
+    <t>地区計画区域</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="13"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://yaizu-smartcity.jp/tiles/地区計画区域/tiles.json</t>
+    </r>
+  </si>
+  <si>
+    <t>#2f4f4f</t>
+  </si>
+  <si>
+    <t>土地区画整理事業区域</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="13"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://yaizu-smartcity.jp/tiles/土地区画整理事業区域/tiles.json</t>
+    </r>
+  </si>
+  <si>
+    <t>住まいるシティ拠点エリア（都市機能誘導区域）</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="13"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://yaizu-smartcity.jp/tiles/住まいるシティ拠点エリア_都市機能誘導区域/tiles.json</t>
+    </r>
+  </si>
+  <si>
+    <t>#00bfff</t>
+  </si>
+  <si>
+    <t>住まいるエリア（居住誘導区域）</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="13"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://yaizu-smartcity.jp/tiles/住まいるエリア_居住誘導区域/tiles.json</t>
+    </r>
+  </si>
+  <si>
+    <t>都市計画図（用途地域）</t>
+  </si>
+  <si>
+    <t>第一種低層住居専用地域</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="13"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://yaizu-smartcity.jp/tiles/%E9%83%BD%E5%B8%82%E8%A8%88%E7%94%BB%E5%9B%B3_%E7%AC%AC%E4%B8%80%E7%A8%AE%E4%BD%8E%E5%B1%A4%E4%BD%8F%E5%B1%85%E5%B0%82%E7%94%A8%E5%9C%B0%E5%9F%9F/tiles.json</t>
+    </r>
+  </si>
+  <si>
+    <t>#A2D7D4</t>
+  </si>
+  <si>
+    <t>rgb(156,84,160)</t>
+  </si>
+  <si>
+    <t>第一種中高層住居専用地域</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="13"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://yaizu-smartcity.jp/tiles/%E9%83%BD%E5%B8%82%E8%A8%88%E7%94%BB%E5%9B%B3_%E7%AC%AC%E4%B8%80%E7%A8%AE%E4%B8%AD%E9%AB%98%E5%B1%A4%E4%BD%8F%E5%B1%85%E5%B0%82%E7%94%A8%E5%9C%B0%E5%9F%9F/tiles.json</t>
+    </r>
+  </si>
+  <si>
+    <t>rgb(198,224,159)</t>
+  </si>
+  <si>
+    <t>第二種中高層住居専用地域</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="13"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://yaizu-smartcity.jp/tiles/%E9%83%BD%E5%B8%82%E8%A8%88%E7%94%BB%E5%9B%B3_%E7%AC%AC%E4%BA%8C%E7%A8%AE%E4%B8%AD%E9%AB%98%E5%B1%A4%E4%BD%8F%E5%B1%85%E5%B0%82%E7%94%A8%E5%9C%B0%E5%9F%9F/tiles.json</t>
+    </r>
+  </si>
+  <si>
+    <t>rgb(234,243,220)</t>
+  </si>
+  <si>
+    <t>第一種住居地域</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="13"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://yaizu-smartcity.jp/tiles/%E9%83%BD%E5%B8%82%E8%A8%88%E7%94%BB%E5%9B%B3_%E7%AC%AC%E4%B8%80%E7%A8%AE%E4%BD%8F%E5%B1%85%E5%9C%B0%E5%9F%9F/tiles.json</t>
+    </r>
+  </si>
+  <si>
+    <t>rgb(255,246,152)</t>
+  </si>
+  <si>
+    <t>第二種住居地域</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="13"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://yaizu-smartcity.jp/tiles/%E9%83%BD%E5%B8%82%E8%A8%88%E7%94%BB%E5%9B%B3_%E7%AC%AC%E4%BA%8C%E7%A8%AE%E4%BD%8F%E5%B1%85%E5%9C%B0%E5%9F%9F/tiles.json</t>
+    </r>
+  </si>
+  <si>
+    <t>rgb(255,253,237)</t>
+  </si>
+  <si>
+    <t>準住居地域</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="13"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://yaizu-smartcity.jp/tiles/%E9%83%BD%E5%B8%82%E8%A8%88%E7%94%BB%E5%9B%B3_%E6%BA%96%E4%BD%8F%E5%B1%85%E5%9C%B0%E5%9F%9F/tiles.json</t>
+    </r>
+  </si>
+  <si>
+    <t>rgb(251,194,144)</t>
+  </si>
+  <si>
+    <t>近隣商業地域</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="13"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://yaizu-smartcity.jp/tiles/%E9%83%BD%E5%B8%82%E8%A8%88%E7%94%BB%E5%9B%B3_%E8%BF%91%E9%9A%A3%E5%95%86%E6%A5%AD%E5%9C%B0%E5%9F%9F/tiles.json</t>
+    </r>
+  </si>
+  <si>
+    <t>#F7C8DD</t>
+  </si>
+  <si>
+    <t>rgb(179,114,173)</t>
+  </si>
+  <si>
+    <t>商業地域</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="13"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://yaizu-smartcity.jp/tiles/%E9%83%BD%E5%B8%82%E8%A8%88%E7%94%BB%E5%9B%B3_%E5%95%86%E6%A5%AD%E5%9C%B0%E5%9F%9F/tiles.json</t>
+    </r>
+  </si>
+  <si>
+    <t>#F29A75</t>
+  </si>
+  <si>
+    <t>準工業地域</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="13"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://yaizu-smartcity.jp/tiles/%E9%83%BD%E5%B8%82%E8%A8%88%E7%94%BB%E5%9B%B3_%E6%BA%96%E5%B7%A5%E6%A5%AD%E5%9C%B0%E5%9F%9F/tiles.json</t>
+    </r>
+  </si>
+  <si>
+    <t>rgb(220,201,225)</t>
+  </si>
+  <si>
+    <t>工業地域</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="13"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://yaizu-smartcity.jp/tiles/%E9%83%BD%E5%B8%82%E8%A8%88%E7%94%BB%E5%9B%B3_%E5%B7%A5%E6%A5%AD%E5%9C%B0%E5%9F%9F/tiles.json</t>
+    </r>
+  </si>
+  <si>
+    <t>rgb(217,235,248)</t>
+  </si>
+  <si>
+    <t>工業専用地域</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="13"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://yaizu-smartcity.jp/tiles/%E9%83%BD%E5%B8%82%E8%A8%88%E7%94%BB%E5%9B%B3_%E5%B7%A5%E6%A5%AD%E5%B0%82%E7%94%A8%E5%9C%B0%E5%9F%9F/tiles.json</t>
+    </r>
+  </si>
+  <si>
+    <t>rgb(145,201,237)</t>
+  </si>
+  <si>
+    <t>敷地面積の最低限度指定区域</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="13"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://yaizu-smartcity.jp/tiles/%E9%83%BD%E5%B8%82%E8%A8%88%E7%94%BB%E5%9B%B3_%E6%95%B7%E5%9C%B0%E9%9D%A2%E7%A9%8D%E3%81%AE%E6%9C%80%E4%BD%8E%E9%99%90%E5%BA%A6%E6%8C%87%E5%AE%9A%E5%8C%BA%E5%9F%9F/tiles.json</t>
+    </r>
+  </si>
+  <si>
+    <t>#E52187</t>
+  </si>
+  <si>
+    <t>区域図</t>
+  </si>
+  <si>
+    <t>令和6年</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="13"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://yaizu-smartcity.jp/tiles/%E5%8C%BA%E7%94%BB%E6%95%B4%E7%90%86%E5%9C%B0%E5%9B%B3/tiles.json</t>
+    </r>
+  </si>
+  <si>
+    <t>大正9年</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="13"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://yaizu-smartcity.jp/tiles/%E6%98%94%E3%81%AE%E7%84%BC%E6%B4%A5%E3%81%A8%E6%AF%94%E3%81%B9%E3%81%A6%E3%81%BF%E3%82%88%E3%81%86/tiles.json</t>
+    </r>
+  </si>
+  <si>
+    <t>公衆トイレ</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="13"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://yaizu-smartcity.jp/tiles/%E5%85%AC%E8%A1%86%E3%83%88%E3%82%A4%E3%83%AC%E4%B8%80%E8%A6%A7/tiles.json</t>
+    </r>
+  </si>
+  <si>
+    <t>公園</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="13"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://yaizu-smartcity.jp/tiles/%E5%85%AC%E5%9C%92%E4%B8%80%E8%A6%A7/tiles.json</t>
+    </r>
+  </si>
+  <si>
+    <t>park</t>
+  </si>
+  <si>
+    <t>さくら並木</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="13"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://yaizu-smartcity.jp/tiles/%E3%81%95%E3%81%8F%E3%82%89%E4%B8%A6%E6%9C%A8%E7%AE%A1%E7%90%86%E8%AA%BF%E6%9B%B8/tiles.json</t>
+    </r>
+  </si>
+  <si>
+    <t>#eb3390</t>
+  </si>
+  <si>
+    <t>住まい</t>
+  </si>
+  <si>
+    <t>固定資産税・路線価図</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="13"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://yaizu-smartcity.jp/tiles/固定資産税_路線価図/tiles.json</t>
+    </r>
+  </si>
+  <si>
+    <t>#1C1C1C</t>
+  </si>
+  <si>
+    <t>標準宅地</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="13"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://yaizu-smartcity.jp/tiles/%E6%A8%99%E6%BA%96%E5%AE%85%E5%9C%B0/tiles.json</t>
+    </r>
+  </si>
+  <si>
+    <t>#262626</t>
+  </si>
+  <si>
+    <t>状況類似地区</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="13"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://yaizu-smartcity.jp/tiles/%E7%8A%B6%E6%B3%81%E9%A1%9E%E4%BC%BC%E5%9C%B0%E5%8C%BA/tiles.json</t>
+    </r>
+  </si>
+  <si>
+    <t>#20202C</t>
+  </si>
+  <si>
+    <t>交通</t>
+  </si>
+  <si>
+    <t>交通安全施設整備</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="13"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://yaizu-smartcity.jp/tiles/%E3%81%82%E3%82%93%E3%81%97%E3%82%93%E6%AD%A9%E8%A1%8C%E3%82%A8%E3%83%AA%E3%82%A2%E6%95%B4%E5%82%99%E5%8F%B0%E5%B8%B3/tiles.json</t>
+    </r>
+  </si>
+  <si>
+    <t>#00cc99</t>
+  </si>
+  <si>
+    <t>路線網図</t>
+  </si>
+  <si>
+    <t>国道・県道</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
         <color indexed="12"/>
         <rFont val="Arial"/>
       </rPr>
-      <t>https://tileserver.geolonia.com/yaizu-smartmap-all_flood-planned-20250122/tiles/{z}/{x}/{y}.png?v=eWFpenUtc21hcnRtYXAtYWxsX2Zsb29kLXBsYW5uZWQtMjAyNTAxMjJ8YWRtaW4tdXBsb2Fkcy95YWl6dS1zbWFydG1hcC1hbGxfZmxvb2QtcGxhbm5lZC0yMDI1MDEyMi0wMUpKNVRETjFRNVk2S1E3WTYwV0JSWkVXRiMvFbymz4lH_fdrJRy-jvgwTVw2D13DlzjxNICrb7qY1A&amp;key=bb4125ebc1ba442da48d3556f1fe13f5</t>
-    </r>
+      <t>https://yaizu-smartcity.jp/tiles/%E8%B7%AF%E7%B7%9A%E7%B6%B2%E5%9B%B3_%E5%9B%BD%E9%81%93%E7%9C%8C%E9%81%93/tiles.json</t>
+    </r>
+  </si>
+  <si>
+    <t>#FDD15B</t>
+  </si>
+  <si>
+    <t>1/2500</t>
+  </si>
+  <si>
+    <t>市道1級</t>
   </si>
   <si>
     <r>
@@ -789,8 +2344,14 @@
         <color indexed="12"/>
         <rFont val="Arial"/>
       </rPr>
-      <t>https://tileserver.geolonia.com/yaizu-smartmap-ooigawa_flood-planned-20250122/tiles/{z}/{x}/{y}.png?v=eWFpenUtc21hcnRtYXAtb29pZ2F3YV9mbG9vZC1wbGFubmVkLTIwMjUwMTIyfGFkbWluLXVwbG9hZHMveWFpenUtc21hcnRtYXAtb29pZ2F3YV9mbG9vZC1wbGFubmVkLTIwMjUwMTIyLTAxSko1VERWUkdYNjBLNlFBQTFLM1I5UU5SI3K6_rl11h-EuwrNQ4AE7yQiOLb8PCKqFDOJ4FDRsG-g&amp;key=bb4125ebc1ba442da48d3556f1fe13f5</t>
-    </r>
+      <t>https://yaizu-smartcity.jp/tiles/%E8%B7%AF%E7%B7%9A%E7%B6%B2%E5%9B%B3_%E5%B8%82%E9%81%93%E4%B8%80%E7%B4%9A%E3%83%AC%E3%82%A4%E3%83%A4%E3%83%BC/tiles.json</t>
+    </r>
+  </si>
+  <si>
+    <t>#5956FF</t>
+  </si>
+  <si>
+    <t>市道2級</t>
   </si>
   <si>
     <r>
@@ -800,8 +2361,14 @@
         <color indexed="12"/>
         <rFont val="Arial"/>
       </rPr>
-      <t>https://tileserver.geolonia.com/yaizu-smartmap-setogawa_flood-planned-20250122/tiles/{z}/{x}/{y}.png?v=eWFpenUtc21hcnRtYXAtc2V0b2dhd2FfZmxvb2QtcGxhbm5lZC0yMDI1MDEyMnxhZG1pbi11cGxvYWRzL3lhaXp1LXNtYXJ0bWFwLXNldG9nYXdhX2Zsb29kLXBsYW5uZWQtMjAyNTAxMjItMDFKSjVURTFZNVRWRTBIVzFWOUFLMzBLRFcji6G-BXNCHGZShICjglWb3w_mWK_NKrvuXH_tI_9nlgQ&amp;key=bb4125ebc1ba442da48d3556f1fe13f5</t>
-    </r>
+      <t>https://yaizu-smartcity.jp/tiles/%E8%B7%AF%E7%B7%9A%E7%B6%B2%E5%9B%B3_%E5%B8%82%E9%81%93%E4%BA%8C%E7%B4%9A%E3%83%AC%E3%82%A4%E3%83%A4%E3%83%BC/tiles.json</t>
+    </r>
+  </si>
+  <si>
+    <t>#28A00F</t>
+  </si>
+  <si>
+    <t>市道その他</t>
   </si>
   <si>
     <r>
@@ -811,8 +2378,848 @@
         <color indexed="12"/>
         <rFont val="Arial"/>
       </rPr>
-      <t>https://tileserver.geolonia.com/yaizu-smartmap-koyagawa_flood-planned-20250122/tiles/{z}/{x}/{y}.png?v=eWFpenUtc21hcnRtYXAta295YWdhd2FfZmxvb2QtcGxhbm5lZC0yMDI1MDEyMnxhZG1pbi11cGxvYWRzL3lhaXp1LXNtYXJ0bWFwLWtveWFnYXdhX2Zsb29kLXBsYW5uZWQtMjAyNTAxMjItMDFKSjVURFJXSldXSkVXUFdESEMzV0sxNTgjf-2T3_0XdWSFLtX6dSNEbLxxCj2IDXBYnWuWoALGMxI&amp;key=bb4125ebc1ba442da48d3556f1fe13f5</t>
-    </r>
+      <t>https://yaizu-smartcity.jp/tiles/%E8%B7%AF%E7%B7%9A%E7%B6%B2%E5%9B%B3_%E5%B8%82%E9%81%93%E3%81%9D%E3%81%AE%E4%BB%96%E3%83%AC%E3%82%A4%E3%83%A4%E3%83%BC/tiles.json</t>
+    </r>
+  </si>
+  <si>
+    <t>#F958FF</t>
+  </si>
+  <si>
+    <t>バス</t>
+  </si>
+  <si>
+    <t>バス停（自主運行）＆時刻表</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="13"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://yaizu-smartcity.jp/tiles/%E7%84%BC%E6%B4%A5%E5%B8%82%E8%87%AA%E4%B8%BB%E9%81%8B%E8%A1%8C%E3%83%90%E3%82%B9%E8%B7%AF%E7%B7%9A%E5%9B%B3_%E5%81%9C%E7%95%99%E6%89%80/tiles.json</t>
+    </r>
+  </si>
+  <si>
+    <t>bus-stop-pink</t>
+  </si>
+  <si>
+    <t>バス路線</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="13"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://yaizu-smartcity.jp/tiles/%E7%84%BC%E6%B4%A5%E5%B8%82%E8%87%AA%E4%B8%BB%E9%81%8B%E8%A1%8C%E3%83%90%E3%82%B9%E8%B7%AF%E7%B7%9A%E5%9B%B3_%E8%B7%AF%E7%B7%9A/tiles.json</t>
+    </r>
+  </si>
+  <si>
+    <t>デマンドタクシー</t>
+  </si>
+  <si>
+    <t>焼津インターチェンジ地区（乗降位置）</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="13"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://yaizu-smartcity.jp/tiles/焼津IC周辺地区_タクシー乗降位置/tiles.json</t>
+    </r>
+  </si>
+  <si>
+    <t>demand-taxi-lightbrown</t>
+  </si>
+  <si>
+    <t>焼津インターチェンジ地区（乗降区域）</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="13"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://yaizu-smartcity.jp/tiles/焼津IC周辺地区_タクシー乗降区域/tiles.json</t>
+    </r>
+  </si>
+  <si>
+    <t>#C79100</t>
+  </si>
+  <si>
+    <t>焼津インターチェンジ地区（指定施設）</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="13"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://yaizu-smartcity.jp/tiles/%E7%84%BC%E6%B4%A5IC%E5%91%A8%E8%BE%BA%E5%9C%B0%E5%8C%BA_%E3%82%BF%E3%82%AF%E3%82%B7%E3%83%BC%E6%8C%87%E5%AE%9A%E6%96%BD%E8%A8%AD/tiles.json</t>
+    </r>
+  </si>
+  <si>
+    <t>大島・三和地区（乗降位置）</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="13"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://yaizu-smartcity.jp/tiles/大島・三和地区_タクシー乗降位置/tiles.json</t>
+    </r>
+  </si>
+  <si>
+    <t>demand-taxi-darkgray</t>
+  </si>
+  <si>
+    <t>大島・三和地区（指定施設）</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="13"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://yaizu-smartcity.jp/tiles/%E5%A4%A7%E5%B3%B6%E3%83%BB%E4%B8%89%E5%92%8C%E5%9C%B0%E5%8C%BA_%E3%82%BF%E3%82%AF%E3%82%B7%E3%83%BC%E6%8C%87%E5%AE%9A%E6%96%BD%E8%A8%AD/tiles.json</t>
+    </r>
+  </si>
+  <si>
+    <t>大井川地区（乗降位置）</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="13"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://yaizu-smartcity.jp/tiles/大井川地区_タクシー乗降位置/tiles.json</t>
+    </r>
+  </si>
+  <si>
+    <t>demand-taxi-lightblue</t>
+  </si>
+  <si>
+    <t>大井川地区（乗降区域）</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="13"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://yaizu-smartcity.jp/tiles/大井川地区_タクシー乗降区域/tiles.json</t>
+    </r>
+  </si>
+  <si>
+    <t>#83C3FF</t>
+  </si>
+  <si>
+    <t>交通事故分析情報</t>
+  </si>
+  <si>
+    <t>2022年</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="13"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://yaizu-smartcity.jp/tiles/%E4%BA%A4%E9%80%9A%E4%BA%8B%E6%95%85_2022/tiles.json</t>
+    </r>
+  </si>
+  <si>
+    <t>#1E6577</t>
+  </si>
+  <si>
+    <t>2021年</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="13"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://yaizu-smartcity.jp/tiles/%E4%BA%A4%E9%80%9A%E4%BA%8B%E6%95%85_2021/tiles.json</t>
+    </r>
+  </si>
+  <si>
+    <t>#2A899D</t>
+  </si>
+  <si>
+    <t>2020年</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="13"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://yaizu-smartcity.jp/tiles/%E4%BA%A4%E9%80%9A%E4%BA%8B%E6%95%85_2020/tiles.json</t>
+    </r>
+  </si>
+  <si>
+    <t>#68C6DA</t>
+  </si>
+  <si>
+    <t>2019年</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="13"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://yaizu-smartcity.jp/tiles/%E4%BA%A4%E9%80%9A%E4%BA%8B%E6%95%85_2019/tiles.json</t>
+    </r>
+  </si>
+  <si>
+    <t>#ABE0EB</t>
+  </si>
+  <si>
+    <t>ごみ・リサイクル</t>
+  </si>
+  <si>
+    <t>リサイクル拠点</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="13"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://yaizu-smartcity.jp/tiles/%E3%83%AA%E3%82%B5%E3%82%A4%E3%82%AF%E3%83%AB%E6%8B%A0%E7%82%B9/tiles.json</t>
+    </r>
+  </si>
+  <si>
+    <t>農業</t>
+  </si>
+  <si>
+    <t>農業地域振興計画</t>
+  </si>
+  <si>
+    <t>農用地区域</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="13"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://yaizu-smartcity.jp/tiles/%E8%BE%B2%E6%A5%AD%E5%9C%B0%E5%9F%9F%E6%8C%AF%E8%88%88%E8%A8%88%E7%94%BB_%E8%BE%B2%E7%94%A8%E5%9C%B0%E5%8C%BA%E5%9F%9F/tiles.json</t>
+    </r>
+  </si>
+  <si>
+    <t>#FDFAC5</t>
+  </si>
+  <si>
+    <t>農業用施設用地</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="13"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://yaizu-smartcity.jp/tiles/%E8%BE%B2%E6%A5%AD%E5%9C%B0%E5%9F%9F%E6%8C%AF%E8%88%88%E8%A8%88%E7%94%BB_%E8%BE%B2%E6%A5%AD%E7%94%A8%E6%96%BD%E8%A8%AD%E7%94%A8%E5%9C%B0/tiles.json</t>
+    </r>
+  </si>
+  <si>
+    <t>#F8E3B2</t>
+  </si>
+  <si>
+    <t>農業用施設図</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="13"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://yaizu-smartcity.jp/tiles/農業用施設図/tiles.json</t>
+    </r>
+  </si>
+  <si>
+    <t>#518A04</t>
+  </si>
+  <si>
+    <t>高草山農道</t>
+  </si>
+  <si>
+    <t>農道</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="13"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://yaizu-smartcity.jp/tiles/農道一般平面図_農道/tiles.json</t>
+    </r>
+  </si>
+  <si>
+    <t>#5A3224</t>
+  </si>
+  <si>
+    <t>林道</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="13"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://yaizu-smartcity.jp/tiles/農道一般平面図_林道/tiles.json</t>
+    </r>
+  </si>
+  <si>
+    <t>ファミリー農園</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="13"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://yaizu-smartcity.jp/tiles/%E3%83%95%E3%82%A1%E3%83%9F%E3%83%AA%E3%83%BC%E8%BE%B2%E5%9C%92/tiles.json</t>
+    </r>
+  </si>
+  <si>
+    <t>family-farm</t>
+  </si>
+  <si>
+    <t>こども・教育</t>
+  </si>
+  <si>
+    <t>小学校・学区</t>
+  </si>
+  <si>
+    <t>小学校</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="13"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://yaizu-smartcity.jp/tiles/%E5%B0%8F%E5%AD%A6%E6%A0%A1/tiles.json</t>
+    </r>
+  </si>
+  <si>
+    <t>preschool-red</t>
+  </si>
+  <si>
+    <t>小学校区</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="13"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://yaizu-smartcity.jp/tiles/%E5%B0%8F%E5%AD%A6%E6%A0%A1%E5%8C%BA/tiles.json</t>
+    </r>
+  </si>
+  <si>
+    <t>中学校・学区</t>
+  </si>
+  <si>
+    <t>中学校</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="13"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://yaizu-smartcity.jp/tiles/%E4%B8%AD%E5%AD%A6%E6%A0%A1/tiles.json</t>
+    </r>
+  </si>
+  <si>
+    <t>preschool</t>
+  </si>
+  <si>
+    <t>中学校区</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="13"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://yaizu-smartcity.jp/tiles/%E4%B8%AD%E5%AD%A6%E6%A0%A1%E5%8C%BA/tiles.json</t>
+    </r>
+  </si>
+  <si>
+    <t>#006AB6</t>
+  </si>
+  <si>
+    <t>通学路</t>
+  </si>
+  <si>
+    <t>和田小学校</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="13"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://yaizu-smartcity.jp/tiles/%E9%80%9A%E5%AD%A6%E8%B7%AF_%E5%92%8C%E7%94%B0%E5%B0%8F%E5%AD%A6%E6%A0%A1/tiles.json</t>
+    </r>
+  </si>
+  <si>
+    <t>#E74C3C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">大井川南小学校 </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="13"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://yaizu-smartcity.jp/tiles/%E9%80%9A%E5%AD%A6%E8%B7%AF_%E5%A4%A7%E4%BA%95%E5%B7%9D%E5%8D%97%E5%B0%8F%E5%AD%A6%E6%A0%A1/tiles.json</t>
+    </r>
+  </si>
+  <si>
+    <t>#F39C12</t>
+  </si>
+  <si>
+    <t>大井川東小学校</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="13"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://yaizu-smartcity.jp/tiles/%E9%80%9A%E5%AD%A6%E8%B7%AF_%E5%A4%A7%E4%BA%95%E5%B7%9D%E6%9D%B1%E5%B0%8F%E5%AD%A6%E6%A0%A1/tiles.json</t>
+    </r>
+  </si>
+  <si>
+    <t>#F1C40F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">大井川西小学校 </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="13"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://yaizu-smartcity.jp/tiles/%E9%80%9A%E5%AD%A6%E8%B7%AF_%E5%A4%A7%E4%BA%95%E5%B7%9D%E8%A5%BF%E5%B0%8F%E5%AD%A6%E6%A0%A1/tiles.json</t>
+    </r>
+  </si>
+  <si>
+    <t>#27AE60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">大富小学校 </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="13"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://yaizu-smartcity.jp/tiles/%E9%80%9A%E5%AD%A6%E8%B7%AF_%E5%A4%A7%E5%AF%8C%E5%B0%8F%E5%AD%A6%E6%A0%A1/tiles.json</t>
+    </r>
+  </si>
+  <si>
+    <t>#2ECC71</t>
+  </si>
+  <si>
+    <t>小川小学校</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="13"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://yaizu-smartcity.jp/tiles/%E9%80%9A%E5%AD%A6%E8%B7%AF_%E5%B0%8F%E5%B7%9D%E5%B0%8F%E5%AD%A6%E6%A0%A1/tiles.json</t>
+    </r>
+  </si>
+  <si>
+    <t>#1ABC9C</t>
+  </si>
+  <si>
+    <t>東益津小学校</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="13"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://yaizu-smartcity.jp/tiles/%E9%80%9A%E5%AD%A6%E8%B7%AF_%E6%9D%B1%E7%9B%8A%E6%B4%A5%E5%B0%8F%E5%AD%A6%E6%A0%A1/tiles.json</t>
+    </r>
+  </si>
+  <si>
+    <t>#3498DB</t>
+  </si>
+  <si>
+    <t>港小学校</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="13"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://yaizu-smartcity.jp/tiles/%E9%80%9A%E5%AD%A6%E8%B7%AF_%E6%B8%AF%E5%B0%8F%E5%AD%A6%E6%A0%A1/tiles.json</t>
+    </r>
+  </si>
+  <si>
+    <t>#9B59B6</t>
+  </si>
+  <si>
+    <t>焼津南小学校</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="13"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://yaizu-smartcity.jp/tiles/%E9%80%9A%E5%AD%A6%E8%B7%AF_%E7%84%BC%E6%B4%A5%E5%8D%97%E5%B0%8F%E5%AD%A6%E6%A0%A1/tiles.json</t>
+    </r>
+  </si>
+  <si>
+    <t>#34495E</t>
+  </si>
+  <si>
+    <t>焼津東小学校</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="13"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://yaizu-smartcity.jp/tiles/%E9%80%9A%E5%AD%A6%E8%B7%AF_%E7%84%BC%E6%B4%A5%E6%9D%B1%E5%B0%8F%E5%AD%A6%E6%A0%A1/tiles.json</t>
+    </r>
+  </si>
+  <si>
+    <t>#D35400</t>
+  </si>
+  <si>
+    <t>焼津西小学校</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="13"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://yaizu-smartcity.jp/tiles/%E9%80%9A%E5%AD%A6%E8%B7%AF_%E7%84%BC%E6%B4%A5%E8%A5%BF%E5%B0%8F%E5%AD%A6%E6%A0%A1/tiles.json</t>
+    </r>
+  </si>
+  <si>
+    <t>#8E44AD</t>
+  </si>
+  <si>
+    <t>豊田小学校</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="13"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://yaizu-smartcity.jp/tiles/%E9%80%9A%E5%AD%A6%E8%B7%AF_%E8%B1%8A%E7%94%B0%E5%B0%8F%E5%AD%A6%E6%A0%A1/tiles.json</t>
+    </r>
+  </si>
+  <si>
+    <t>#16A085</t>
+  </si>
+  <si>
+    <t>黒石小学校</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="13"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://yaizu-smartcity.jp/tiles/%E9%80%9A%E5%AD%A6%E8%B7%AF_%E9%BB%92%E7%9F%B3%E5%B0%8F%E5%AD%A6%E6%A0%A1/tiles.json</t>
+    </r>
+  </si>
+  <si>
+    <t>#2C3E50</t>
+  </si>
+  <si>
+    <t>その他教育</t>
+  </si>
+  <si>
+    <t>放課後等デイサービス</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="13"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://yaizu-smartcity.jp/tiles/%E6%94%BE%E8%AA%B2%E5%BE%8C%E7%AD%89%E3%83%87%E3%82%A4%E3%82%B5%E3%83%BC%E3%83%93%E3%82%B9%E4%B8%80%E8%A6%A7/tiles.json</t>
+    </r>
+  </si>
+  <si>
+    <t>子育て</t>
+  </si>
+  <si>
+    <t>幼稚園・保育所</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="13"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://yaizu-smartcity.jp/tiles/%E5%AD%90%E8%82%B2%E3%81%A6%E6%96%BD%E8%A8%AD%E4%B8%80%E8%A6%A7/tiles.json</t>
+    </r>
+  </si>
+  <si>
+    <t>子育て支援施設</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="13"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://yaizu-smartcity.jp/tiles/%E5%AD%90%E8%82%B2%E3%81%A6%E6%94%AF%E6%8F%B4%E6%96%BD%E8%A8%AD/tiles.json</t>
+    </r>
+  </si>
+  <si>
+    <t>あかちゃんえき</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="13"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://yaizu-smartcity.jp/tiles/%E3%81%82%E3%81%8B%E3%81%A1%E3%82%83%E3%82%93%E3%81%88%E3%81%8D%E4%B8%80%E8%A6%A7/tiles.json</t>
+    </r>
+  </si>
+  <si>
+    <t>baby</t>
+  </si>
+  <si>
+    <t>地域・コミュニティ</t>
+  </si>
+  <si>
+    <t>地域交流センター</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="13"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://yaizu-smartcity.jp/tiles/%E5%9C%B0%E5%9F%9F%E4%BA%A4%E6%B5%81%E3%82%BB%E3%83%B3%E3%82%BF%E3%83%BC/tiles.json</t>
+    </r>
+  </si>
+  <si>
+    <t>daycare</t>
+  </si>
+  <si>
+    <t>自治会区域</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="13"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://yaizu-smartcity.jp/tiles/%E8%87%AA%E6%B2%BB%E4%BC%9A%E5%8C%BA%E5%9F%9F/tiles.json</t>
+    </r>
+  </si>
+  <si>
+    <t>文化・スポーツ</t>
+  </si>
+  <si>
+    <t>文化会館・資料館</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="13"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://yaizu-smartcity.jp/tiles/%E6%96%87%E5%8C%96%E4%BC%9A%E9%A4%A8%E3%83%BB%E8%B3%87%E6%96%99%E9%A4%A8/tiles.json</t>
+    </r>
+  </si>
+  <si>
+    <t>museums</t>
+  </si>
+  <si>
+    <t>図書館</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="13"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://yaizu-smartcity.jp/tiles/%E5%9B%B3%E6%9B%B8%E9%A4%A8/tiles.json</t>
+    </r>
+  </si>
+  <si>
+    <t>library</t>
+  </si>
+  <si>
+    <t>スポーツ施設</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="13"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://yaizu-smartcity.jp/tiles/%E3%82%B9%E3%83%9D%E3%83%BC%E3%83%84%E6%96%BD%E8%A8%AD/tiles.json</t>
+    </r>
+  </si>
+  <si>
+    <t>sports</t>
+  </si>
+  <si>
+    <t>文化財マップ</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="13"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://yaizu-smartcity.jp/tiles/%E6%96%87%E5%8C%96%E8%B2%A1%E3%83%9E%E3%83%83%E3%83%97/tiles.json</t>
+    </r>
+  </si>
+  <si>
+    <t>bunkazai</t>
+  </si>
+  <si>
+    <t>埋蔵文化財</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="13"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://yaizu-smartcity.jp/tiles/%E5%9F%8B%E8%94%B5%E6%96%87%E5%8C%96%E8%B2%A1/tiles.json</t>
+    </r>
+  </si>
+  <si>
+    <t>#ff0302</t>
+  </si>
+  <si>
+    <t>健康・福祉</t>
+  </si>
+  <si>
+    <t>まちなか涼みどころ</t>
   </si>
   <si>
     <r>
@@ -822,2401 +3229,11 @@
         <color indexed="12"/>
         <rFont val="Arial"/>
       </rPr>
-      <t>https://tileserver.geolonia.com/yaizu-smartmap-tochiyamagawa_flood-planned-20250122/tiles/{z}/{x}/{y}.png?v=eWFpenUtc21hcnRtYXAtdG9jaGl5YW1hZ2F3YV9mbG9vZC1wbGFubmVkLTIwMjUwMTIyfGFkbWluLXVwbG9hZHMveWFpenUtc21hcnRtYXAtdG9jaGl5YW1hZ2F3YV9mbG9vZC1wbGFubmVkLTIwMjUwMTIyLTAxSko1VEU4NktENUZWU1RGVjE4RDNRVFBUI0UGkE67qVTbtRvaLl2OvOsiZu9Hnd-9AT1ia-ckrXPG&amp;key=bb4125ebc1ba442da48d3556f1fe13f5</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="12"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>https://tileserver.geolonia.com/yaizu-smartmap-shidatanakagawa_flood-planned-20250122/tiles/{z}/{x}/{y}.png?v=eWFpenUtc21hcnRtYXAtc2hpZGF0YW5ha2FnYXdhX2Zsb29kLXBsYW5uZWQtMjAyNTAxMjJ8YWRtaW4tdXBsb2Fkcy95YWl6dS1zbWFydG1hcC1zaGlkYXRhbmFrYWdhd2FfZmxvb2QtcGxhbm5lZC0yMDI1MDEyMi0wMUpKNVRFNTUyV0dRWUVTWVdWVkFHNURDUiM6XrMaFpsN_nu69zOxecuTueNyhch7DBXrxCJmaCBV8w&amp;key=bb4125ebc1ba442da48d3556f1fe13f5</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="12"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>https://tileserver.geolonia.com/yaizu-smartmap-otsutanigawa_flood-planned-20250122/tiles/{z}/{x}/{y}.png?v=eWFpenUtc21hcnRtYXAtb3RzdXRhbmlnYXdhX2Zsb29kLXBsYW5uZWQtMjAyNTAxMjJ8YWRtaW4tdXBsb2Fkcy95YWl6dS1zbWFydG1hcC1vdHN1dGFuaWdhd2FfZmxvb2QtcGxhbm5lZC0yMDI1MDEyMi0wMUpKNVREWkFYQVcyMktRNEdWVkhOTTQ4USPJeHao4Q6wyWn0IEPkPECr5W-lDwzRh1n7dcRP_rd19Q&amp;key=bb4125ebc1ba442da48d3556f1fe13f5</t>
-    </r>
-  </si>
-  <si>
-    <t>洪水浸水想定区域(浸水継続時間)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="12"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>https://tileserver.geolonia.com/yaizu-smartmap-all_flood-duration/tiles/{z}/{x}/{y}.png?v=eWFpenUtc21hcnRtYXAtYWxsX2Zsb29kLWR1cmF0aW9ufGFkbWluLXVwbG9hZHMveWFpenUtc21hcnRtYXAtYWxsX2Zsb29kLWR1cmF0aW9uLTAxSkZDMjM2TkNFOEE4WlY1RlpXUTFUNjdQI72n4lnDlqr_qS3dvbGif0AlepOAnvK3E1Vx_MjVLXsc&amp;key=bb4125ebc1ba442da48d3556f1fe13f5</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="12"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>https://tileserver.geolonia.com/yaizu-smartmap-ooigawa_flood-duration_modified/tiles/{z}/{x}/{y}.png?v=eWFpenUtc21hcnRtYXAtb29pZ2F3YV9mbG9vZC1kdXJhdGlvbl9tb2RpZmllZHxhZG1pbi11cGxvYWRzL3lhaXp1LXNtYXJ0bWFwLW9vaWdhd2FfZmxvb2QtZHVyYXRpb25fbW9kaWZpZWQtMDFKRkMyM0tRRTBOOE02RlJaWlBYWTdNVEsjb6TUQ42ra-hBJK2eSP06FX90ArT2yTi5_X9jzEWntEw&amp;key=bb4125ebc1ba442da48d3556f1fe13f5</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="12"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>https://tileserver.geolonia.com/yaizu-smartmap-asahinagawa_flood-duration_modified/tiles/{z}/{x}/{y}.png?v=eWFpenUtc21hcnRtYXAtYXNhaGluYWdhd2FfZmxvb2QtZHVyYXRpb25fbW9kaWZpZWR8YWRtaW4tdXBsb2Fkcy95YWl6dS1zbWFydG1hcC1hc2FoaW5hZ2F3YV9mbG9vZC1kdXJhdGlvbl9tb2RpZmllZC0wMUpGQzIzQUtEQkFQUkpXMkNKSE45Q0pWNCOv1qiFcrLRZll0zMjGPpeTcM-NM60iPJiH7OxfIPrruw&amp;key=bb4125ebc1ba442da48d3556f1fe13f5</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="12"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>https://tileserver.geolonia.com/yaizu-smartmap-hanashigawa_flood-duration_modified/tiles/{z}/{x}/{y}.png?v=eWFpenUtc21hcnRtYXAtaGFuYXNoaWdhd2FfZmxvb2QtZHVyYXRpb25fbW9kaWZpZWR8YWRtaW4tdXBsb2Fkcy95YWl6dS1zbWFydG1hcC1oYW5hc2hpZ2F3YV9mbG9vZC1kdXJhdGlvbl9tb2RpZmllZC0wMUpGQzIzRFJBTVYzWFRDUlY0WVJCUUVIUyOyqbE2vnFeS_9BZw94HXS20jBUsE7o_rmOXEyGSp0CYA&amp;key=bb4125ebc1ba442da48d3556f1fe13f5</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="12"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>https://tileserver.geolonia.com/yaizu-smartmap-setogawa_flood-duration_modified/tiles/{z}/{x}/{y}.png?v=eWFpenUtc21hcnRtYXAtc2V0b2dhd2FfZmxvb2QtZHVyYXRpb25fbW9kaWZpZWR8YWRtaW4tdXBsb2Fkcy95YWl6dS1zbWFydG1hcC1zZXRvZ2F3YV9mbG9vZC1kdXJhdGlvbl9tb2RpZmllZC0wMUpGQzIzVDFETjRKNDZSSENUNkc3VlBGMSM4etkawiLQc6u4jK6mqi1X2xklmi7fEC1D6aIWymyDbA&amp;key=bb4125ebc1ba442da48d3556f1fe13f5</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="12"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>https://tileserver.geolonia.com/yaizu-smartmap-koyagawa_flood-duration_modified/tiles/{z}/{x}/{y}.png?v=eWFpenUtc21hcnRtYXAta295YWdhd2FfZmxvb2QtZHVyYXRpb25fbW9kaWZpZWR8YWRtaW4tdXBsb2Fkcy95YWl6dS1zbWFydG1hcC1rb3lhZ2F3YV9mbG9vZC1kdXJhdGlvbl9tb2RpZmllZC0wMUpGQzIzR1ZZWEFDQzg4MUg3QjlLV1lFOCOfdwjLULNhmI_ow4g0dWNl2dx8qQUUG8aFUeQo_0hXDQ&amp;key=bb4125ebc1ba442da48d3556f1fe13f5</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="12"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>https://tileserver.geolonia.com/yaizu-smartmap-tochiyamagawa_flood-duration_modified/tiles/{z}/{x}/{y}.png?v=eWFpenUtc21hcnRtYXAtdG9jaGl5YW1hZ2F3YV9mbG9vZC1kdXJhdGlvbl9tb2RpZmllZHxhZG1pbi11cGxvYWRzL3lhaXp1LXNtYXJ0bWFwLXRvY2hpeWFtYWdhd2FfZmxvb2QtZHVyYXRpb25fbW9kaWZpZWQtMDFKRkMyM1pWWVE3MEowUzdaNTZHWkNKRFojC5eX3JK7qasK2odfocPvh5KVdzgW8GfTWFIWWxO0-OY&amp;key=bb4125ebc1ba442da48d3556f1fe13f5</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="12"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>https://tileserver.geolonia.com/yaizu-smartmap-shidatanakagawa_flood-duration_modified/tiles/{z}/{x}/{y}.png?v=eWFpenUtc21hcnRtYXAtc2hpZGF0YW5ha2FnYXdhX2Zsb29kLWR1cmF0aW9uX21vZGlmaWVkfGFkbWluLXVwbG9hZHMveWFpenUtc21hcnRtYXAtc2hpZGF0YW5ha2FnYXdhX2Zsb29kLWR1cmF0aW9uX21vZGlmaWVkLTAxSkZDMjNYNFlBNDZLMlQxTVdGMVFWODJaI8I_8TmmNT2ZBas2uO_iuv708Hw-rSmd9df6Iy_TRMzO&amp;key=bb4125ebc1ba442da48d3556f1fe13f5</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="12"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>https://tileserver.geolonia.com/yaizu-smartmap-otsutanigawa_flood-duration_modified/tiles/{z}/{x}/{y}.png?v=eWFpenUtc21hcnRtYXAtb3RzdXRhbmlnYXdhX2Zsb29kLWR1cmF0aW9uX21vZGlmaWVkfGFkbWluLXVwbG9hZHMveWFpenUtc21hcnRtYXAtb3RzdXRhbmlnYXdhX2Zsb29kLWR1cmF0aW9uX21vZGlmaWVkLTAxSkZDMjNRNENHRURIR1FLNEtGU1lLMzZBI7KZF6uvKMllQBtCXF86Bop_8GzzniSe6NN1Rp0RaowV&amp;key=bb4125ebc1ba442da48d3556f1fe13f5</t>
-    </r>
-  </si>
-  <si>
-    <t>家屋倒壊等氾濫想定区域（氾濫流）</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="12"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>https://yaizu-smartcity.jp/tiles/%E5%A4%A7%E4%BA%95%E5%B7%9D_%E5%AE%B6%E5%B1%8B%E5%80%92%E5%A3%8A%E7%AD%89%E6%B0%BE%E6%BF%AB%E6%83%B3%E5%AE%9A%EF%BC%88%E6%B0%BE%E6%BF%AB%E6%B5%81%EF%BC%89/tiles.json</t>
-    </r>
-  </si>
-  <si>
-    <t>#C891FF</t>
-  </si>
-  <si>
-    <t>家屋倒壊等氾濫想定区域（河岸侵食）</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="12"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>https://yaizu-smartcity.jp/tiles/%E5%A4%A7%E4%BA%95%E5%B7%9D_%E5%AE%B6%E5%B1%8B%E5%80%92%E5%A3%8A%E7%AD%89%E6%B0%BE%E6%BF%AB%E6%83%B3%E5%AE%9A%EF%BC%88%E6%B2%B3%E5%B2%B8%E4%BE%B5%E9%A3%9F%EF%BC%89/tiles.json</t>
-    </r>
-  </si>
-  <si>
-    <t>#CFEEFF</t>
-  </si>
-  <si>
-    <t>#51A2FF</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="12"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>https://yaizu-smartcity.jp/tiles/%E6%9C%9D%E6%AF%94%E5%A5%88%E5%B7%9D_%E5%AE%B6%E5%B1%8B%E5%80%92%E5%A3%8A%E7%AD%89%E6%B0%BE%E6%BF%AB%E6%83%B3%E5%AE%9A%EF%BC%88%E6%B2%B3%E5%B2%B8%E4%BE%B5%E9%A3%9F%EF%BC%89/tiles.json</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="12"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>https://yaizu-smartcity.jp/tiles/%E8%91%89%E6%A2%A8%E5%B7%9D_%E5%AE%B6%E5%B1%8B%E5%80%92%E5%A3%8A%E7%AD%89%E6%B0%BE%E6%BF%AB%E6%83%B3%E5%AE%9A%EF%BC%88%E6%B2%B3%E5%B2%B8%E4%BE%B5%E9%A3%9F%EF%BC%89/tiles.json</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="12"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>https://yaizu-smartcity.jp/tiles/%E7%80%AC%E6%88%B8%E5%B7%9D_%E5%AE%B6%E5%B1%8B%E5%80%92%E5%A3%8A%E7%AD%89%E6%B0%BE%E6%BF%AB%E6%83%B3%E5%AE%9A%EF%BC%88%E6%B2%B3%E5%B2%B8%E4%BE%B5%E9%A3%9F%EF%BC%89/tiles.json</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="12"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>https://yaizu-smartcity.jp/tiles/%E6%9C%A8%E5%B1%8B%E5%B7%9D_%E5%AE%B6%E5%B1%8B%E5%80%92%E5%A3%8A%E7%AD%89%E6%B0%BE%E6%BF%AB%E6%83%B3%E5%AE%9A%EF%BC%88%E6%B2%B3%E5%B2%B8%E4%BE%B5%E9%A3%9F%EF%BC%89/tiles.json</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="12"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>https://yaizu-smartcity.jp/tiles/%E6%A0%83%E5%B1%B1%E5%B7%9D_%E5%AE%B6%E5%B1%8B%E5%80%92%E5%A3%8A%E7%AD%89%E6%B0%BE%E6%BF%AB%E6%83%B3%E5%AE%9A%EF%BC%88%E6%B2%B3%E5%B2%B8%E4%BE%B5%E9%A3%9F%EF%BC%89/tiles.json</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="12"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>https://yaizu-smartcity.jp/tiles/%E5%BF%97%E5%A4%AA%E7%94%B0%E4%B8%AD%E5%B7%9D_%E5%AE%B6%E5%B1%8B%E5%80%92%E5%A3%8A%E7%AD%89%E6%B0%BE%E6%BF%AB%E6%83%B3%E5%AE%9A%EF%BC%88%E6%B2%B3%E5%B2%B8%E4%BE%B5%E9%A3%9F%EF%BC%89/tiles.json</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="12"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>https://yaizu-smartcity.jp/tiles/%E5%A4%A7%E6%B4%A5%E8%B0%B7%E5%B7%9D_%E5%AE%B6%E5%B1%8B%E5%80%92%E5%A3%8A%E7%AD%89%E6%B0%BE%E6%BF%AB%E6%83%B3%E5%AE%9A%EF%BC%88%E6%B2%B3%E5%B2%B8%E4%BE%B5%E9%A3%9F%EF%BC%89/tiles.json</t>
-    </r>
-  </si>
-  <si>
-    <t>内水浸水想定区域(公共下水道区域内)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="12"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>https://yaizu-smartcity.jp/tiles/%E5%86%85%E6%B0%B4%E6%B5%B8%E6%B0%B4%E6%83%B3%E5%AE%9A%E5%8C%BA%E5%9F%9F(%E5%85%AC%E5%85%B1%E4%B8%8B%E6%B0%B4%E9%81%93%E5%8C%BA%E5%9F%9F%E5%86%85)/tiles.json</t>
-    </r>
-  </si>
-  <si>
-    <t>浸水履歴（平成9年～令和5年）</t>
-  </si>
-  <si>
-    <t>統合（平成9年～令和5年）</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="12"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>https://yaizu-smartcity.jp/tiles/%E6%B5%B8%E6%B0%B4%E5%B1%A5%E6%AD%B4_%E7%B5%B1%E5%90%88/tiles.json</t>
-    </r>
-  </si>
-  <si>
-    <t>令和4年</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="12"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>https://yaizu-smartcity.jp/tiles/%E6%B5%B8%E6%B0%B4%E5%B1%A5%E6%AD%B4_%E4%BB%A4%E5%92%8C4%E5%B9%B4/tiles.json</t>
-    </r>
-  </si>
-  <si>
-    <t>令和元年</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="12"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>https://yaizu-smartcity.jp/tiles/%E6%B5%B8%E6%B0%B4%E5%B1%A5%E6%AD%B4_%E4%BB%A4%E5%92%8C%E5%85%83%E5%B9%B4/tiles.json</t>
-    </r>
-  </si>
-  <si>
-    <t>平成29年</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="12"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>https://yaizu-smartcity.jp/tiles/%E6%B5%B8%E6%B0%B4%E5%B1%A5%E6%AD%B4_%E5%B9%B3%E6%88%9029%E5%B9%B4/tiles.json</t>
-    </r>
-  </si>
-  <si>
-    <t>平成26年</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="12"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>https://yaizu-smartcity.jp/tiles/%E6%B5%B8%E6%B0%B4%E5%B1%A5%E6%AD%B4_%E5%B9%B3%E6%88%9026%E5%B9%B4/tiles.json</t>
-    </r>
-  </si>
-  <si>
-    <t>平成25年</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="12"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>https://yaizu-smartcity.jp/tiles/%E6%B5%B8%E6%B0%B4%E5%B1%A5%E6%AD%B4_%E5%B9%B3%E6%88%9025%E5%B9%B4/tiles.json</t>
-    </r>
-  </si>
-  <si>
-    <t>平成24年</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="12"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>https://yaizu-smartcity.jp/tiles/%E6%B5%B8%E6%B0%B4%E5%B1%A5%E6%AD%B4_%E5%B9%B3%E6%88%9024%E5%B9%B4/tiles.json</t>
-    </r>
-  </si>
-  <si>
-    <t>平成23年</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="12"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>https://yaizu-smartcity.jp/tiles/%E6%B5%B8%E6%B0%B4%E5%B1%A5%E6%AD%B4_%E5%B9%B3%E6%88%9023%E5%B9%B4/tiles.json</t>
-    </r>
-  </si>
-  <si>
-    <t>平成22年</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="12"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>https://yaizu-smartcity.jp/tiles/%E6%B5%B8%E6%B0%B4%E5%B1%A5%E6%AD%B4_%E5%B9%B3%E6%88%9022%E5%B9%B4/tiles.json</t>
-    </r>
-  </si>
-  <si>
-    <t>平成20年</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="12"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>https://yaizu-smartcity.jp/tiles/%E6%B5%B8%E6%B0%B4%E5%B1%A5%E6%AD%B4_%E5%B9%B3%E6%88%9020%E5%B9%B4/tiles.json</t>
-    </r>
-  </si>
-  <si>
-    <t>平成19年</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="12"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>https://yaizu-smartcity.jp/tiles/%E6%B5%B8%E6%B0%B4%E5%B1%A5%E6%AD%B4_%E5%B9%B3%E6%88%9019%E5%B9%B4/tiles.json</t>
-    </r>
-  </si>
-  <si>
-    <t>平成18年</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="12"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>https://yaizu-smartcity.jp/tiles/%E6%B5%B8%E6%B0%B4%E5%B1%A5%E6%AD%B4_%E5%B9%B3%E6%88%9018%E5%B9%B4/tiles.json</t>
-    </r>
-  </si>
-  <si>
-    <t>平成17年</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="12"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>https://yaizu-smartcity.jp/tiles/%E6%B5%B8%E6%B0%B4%E5%B1%A5%E6%AD%B4_%E5%B9%B3%E6%88%9017%E5%B9%B4/tiles.json</t>
-    </r>
-  </si>
-  <si>
-    <t>平成16年</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="12"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>https://yaizu-smartcity.jp/tiles/%E6%B5%B8%E6%B0%B4%E5%B1%A5%E6%AD%B4_%E5%B9%B3%E6%88%9016%E5%B9%B4/tiles.json</t>
-    </r>
-  </si>
-  <si>
-    <t>平成15年</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="12"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>https://yaizu-smartcity.jp/tiles/%E6%B5%B8%E6%B0%B4%E5%B1%A5%E6%AD%B4_%E5%B9%B3%E6%88%9015%E5%B9%B4/tiles.json</t>
-    </r>
-  </si>
-  <si>
-    <t>平成14年</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="12"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>https://yaizu-smartcity.jp/tiles/%E6%B5%B8%E6%B0%B4%E5%B1%A5%E6%AD%B4_%E5%B9%B3%E6%88%9014%E5%B9%B4/tiles.json</t>
-    </r>
-  </si>
-  <si>
-    <t>平成13年</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="12"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>https://yaizu-smartcity.jp/tiles/%E6%B5%B8%E6%B0%B4%E5%B1%A5%E6%AD%B4_%E5%B9%B3%E6%88%9013%E5%B9%B4/tiles.json</t>
-    </r>
-  </si>
-  <si>
-    <t>平成12年</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="12"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>https://yaizu-smartcity.jp/tiles/%E6%B5%B8%E6%B0%B4%E5%B1%A5%E6%AD%B4_%E5%B9%B3%E6%88%9012%E5%B9%B4/tiles.json</t>
-    </r>
-  </si>
-  <si>
-    <t>平成11年</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="12"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>https://yaizu-smartcity.jp/tiles/%E6%B5%B8%E6%B0%B4%E5%B1%A5%E6%AD%B4_%E5%B9%B3%E6%88%9011%E5%B9%B4/tiles.json</t>
-    </r>
-  </si>
-  <si>
-    <t>平成10年</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="12"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>https://yaizu-smartcity.jp/tiles/%E6%B5%B8%E6%B0%B4%E5%B1%A5%E6%AD%B4_%E5%B9%B3%E6%88%9010%E5%B9%B4/tiles.json</t>
-    </r>
-  </si>
-  <si>
-    <t>平成9年</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="12"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>https://yaizu-smartcity.jp/tiles/%E6%B5%B8%E6%B0%B4%E5%B1%A5%E6%AD%B4_%E5%B9%B3%E6%88%909%E5%B9%B4/tiles.json</t>
-    </r>
-  </si>
-  <si>
-    <t>観光・イベント</t>
-  </si>
-  <si>
-    <t>お食事</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="12"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>https://yaizu-smartcity.jp/tiles/%E3%81%8A%E9%A3%9F%E4%BA%8B/tiles.json</t>
-    </r>
-  </si>
-  <si>
-    <t>restaurant</t>
-  </si>
-  <si>
-    <t>お買い物</t>
-  </si>
-  <si>
-    <t>ショップ</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="12"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>https://yaizu-smartcity.jp/tiles/%E3%82%B7%E3%83%A7%E3%83%83%E3%83%97/tiles.json</t>
-    </r>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>工場併設直売所</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="12"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>https://yaizu-smartcity.jp/tiles/%E5%B7%A5%E5%A0%B4%E4%BD%B5%E8%A8%AD%E7%9B%B4%E5%A3%B2%E6%89%80%E4%B8%80%E8%A6%A7/tiles.json</t>
-    </r>
-  </si>
-  <si>
-    <t>factory-shop</t>
-  </si>
-  <si>
-    <t>体験・見どころ</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="12"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>https://yaizu-smartcity.jp/tiles/%E4%BD%93%E9%A8%93%E3%83%BB%E8%A6%8B%E3%81%A9%E3%81%93%E3%82%8D/tiles.json</t>
-    </r>
-  </si>
-  <si>
-    <t>tourist-facility</t>
-  </si>
-  <si>
-    <t>日帰り温泉・足湯</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="12"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>https://yaizu-smartcity.jp/tiles/%E6%97%A5%E5%B8%B0%E3%82%8A%E6%B8%A9%E6%B3%89%E3%83%BB%E8%B6%B3%E6%B9%AF/tiles.json</t>
-    </r>
-  </si>
-  <si>
-    <t>hotspring</t>
-  </si>
-  <si>
-    <t>宿泊</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="12"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>https://yaizu-smartcity.jp/tiles/%E5%AE%BF%E6%B3%8A/tiles.json</t>
-    </r>
-  </si>
-  <si>
-    <t>hotel</t>
-  </si>
-  <si>
-    <t>移動・その他</t>
-  </si>
-  <si>
-    <t>レンタカー</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="12"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>https://yaizu-smartcity.jp/tiles/%E3%83%AC%E3%83%B3%E3%82%BF%E3%82%AB%E3%83%BC/tiles.json</t>
-    </r>
-  </si>
-  <si>
-    <t>car-rental</t>
-  </si>
-  <si>
-    <t>その他</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="12"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>https://yaizu-smartcity.jp/tiles/%E3%81%9D%E3%81%AE%E4%BB%96/tiles.json</t>
-    </r>
-  </si>
-  <si>
-    <t>#66cdaa</t>
-  </si>
-  <si>
-    <t>市営駐車場・駐輪場</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="12"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>https://yaizu-smartcity.jp/tiles/%E5%B8%82%E5%96%B6%E9%A7%90%E8%BB%8A%E5%A0%B4%E3%83%BB%E9%A7%90%E8%BC%AA%E5%A0%B4/tiles.json</t>
-    </r>
-  </si>
-  <si>
-    <t>parking</t>
-  </si>
-  <si>
-    <t>焼津観光マップ</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="12"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>https://yaizu-smartcity.jp/tiles/%E7%84%BC%E6%B4%A5%E8%A6%B3%E5%85%89%E3%83%9E%E3%83%83%E3%83%97/tiles.json</t>
-    </r>
-  </si>
-  <si>
-    <t>高草山ハイキングマップ</t>
-  </si>
-  <si>
-    <t>高草山コース　1</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="12"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>https://yaizu-smartcity.jp/tiles/%E3%83%8F%E3%82%A4%E3%82%AD%E3%83%B3%E3%82%B0%E3%82%B3%E3%83%BC%E3%82%B9_1-1%E8%8A%B1%E6%B2%A2%E3%81%AE%E9%87%8C_%E9%9E%8D%E6%8E%9B%E5%B3%A0_%E9%AB%98%E8%8D%89%E5%B1%B1_%E7%9F%B3%E8%84%87%E3%82%B3%E3%83%BC%E3%82%B9/tiles.json</t>
-    </r>
-  </si>
-  <si>
-    <t>#009f45</t>
-  </si>
-  <si>
-    <t>高草山コース　2</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="12"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>https://yaizu-smartcity.jp/tiles/%E3%83%8F%E3%82%A4%E3%82%AD%E3%83%B3%E3%82%B0%E3%82%B3%E3%83%BC%E3%82%B9_1-2%E5%9D%82%E6%9C%AC_%E9%AB%98%E8%8D%89%E5%B1%B1%E3%82%B3%E3%83%BC%E3%82%B9/tiles.json</t>
-    </r>
-  </si>
-  <si>
-    <t>#ef8da9</t>
-  </si>
-  <si>
-    <t>高草山コース　3</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="12"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>https://yaizu-smartcity.jp/tiles/%E3%83%8F%E3%82%A4%E3%82%AD%E3%83%B3%E3%82%B0%E3%82%B3%E3%83%BC%E3%82%B9_1-3%E7%84%BC%E6%B4%A5%E5%B8%82_%E9%96%A2%E6%96%B9_%E9%AB%98%E8%8D%89%E5%B1%B1%E3%82%B3%E3%83%BC%E3%82%B9/tiles.json</t>
-    </r>
-  </si>
-  <si>
-    <t>#179fac</t>
-  </si>
-  <si>
-    <t>高草山コース　4</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="12"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>https://yaizu-smartcity.jp/tiles/%E3%83%8F%E3%82%A4%E3%82%AD%E3%83%B3%E3%82%B0%E3%82%B3%E3%83%BC%E3%82%B9_1-4%E8%97%A4%E6%9E%9D%E5%B8%82_%E4%B8%89%E8%BC%AA_%E9%AB%98%E8%8D%89%E5%B1%B1%E3%82%B3%E3%83%BC%E3%82%B9/tiles.json</t>
-    </r>
-  </si>
-  <si>
-    <t>#7ac24c</t>
-  </si>
-  <si>
-    <t>満観峰コース</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="12"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>https://yaizu-smartcity.jp/tiles/%E3%83%8F%E3%82%A4%E3%82%AD%E3%83%B3%E3%82%B0%E3%82%B3%E3%83%BC%E3%82%B9_2%E7%84%BC%E6%B4%A5%E5%B8%82_%E8%8A%B1%E6%B2%A2%E3%81%AE%E9%87%8C_%E6%BA%80%E8%A6%B3%E5%B3%B0%E3%82%B3%E3%83%BC%E3%82%B9/tiles.json</t>
-    </r>
-  </si>
-  <si>
-    <t>#3d73ba</t>
-  </si>
-  <si>
-    <t>花沢山コース　1</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="12"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>https://yaizu-smartcity.jp/tiles/%E3%83%8F%E3%82%A4%E3%82%AD%E3%83%B3%E3%82%B0%E3%82%B3%E3%83%BC%E3%82%B9_3-1%E5%85%A5%E5%8F%A3_%E8%8A%B1%E6%B2%A2%E5%B1%B1_%E6%97%A5%E6%9C%AC%E5%9D%82%E5%B3%A0_%E8%8A%B1%E6%B2%A2%E3%81%AE%E9%87%8C%E3%82%B3%E3%83%BC%E3%82%B9/tiles.json</t>
-    </r>
-  </si>
-  <si>
-    <t>#b664a6</t>
-  </si>
-  <si>
-    <t>花沢山コース　2</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="12"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>https://yaizu-smartcity.jp/tiles/%E3%83%8F%E3%82%A4%E3%82%AD%E3%83%B3%E3%82%B0%E3%82%B3%E3%83%BC%E3%82%B9_3-2%E9%9D%99%E5%B2%A1%E5%B8%82_%E5%B0%8F%E5%9D%82_%E6%97%A5%E6%9C%AC%E5%9D%82%E5%B3%A0_%E8%8A%B1%E6%B2%A2%E5%B1%B1_%E7%9F%B3%E9%83%A8%E3%82%B3%E3%83%BC%E3%82%B9/tiles.json</t>
-    </r>
-  </si>
-  <si>
-    <t>#dab06d</t>
-  </si>
-  <si>
-    <t>ハイキングスポット</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="12"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>https://yaizu-smartcity.jp/tiles/%E3%83%8F%E3%82%A4%E3%82%AD%E3%83%B3%E3%82%B0%E3%82%B3%E3%83%BC%E3%82%B9_%E5%9C%B0%E7%82%B9/tiles.json</t>
-    </r>
-  </si>
-  <si>
-    <t>brown-marker</t>
-  </si>
-  <si>
-    <t>トイレ</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="12"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>https://yaizu-smartcity.jp/tiles/%E3%83%8F%E3%82%A4%E3%82%AD%E3%83%B3%E3%82%B0%E3%82%B3%E3%83%BC%E3%82%B9_%E5%9C%B0%E7%82%B9_%E3%83%88%E3%82%A4%E3%83%AC/tiles.json</t>
-    </r>
-  </si>
-  <si>
-    <t>public-toilets</t>
-  </si>
-  <si>
-    <t>駐車場・バス停</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="12"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>https://yaizu-smartcity.jp/tiles/%E3%83%8F%E3%82%A4%E3%82%AD%E3%83%B3%E3%82%B0%E3%82%B3%E3%83%BC%E3%82%B9_%E5%9C%B0%E7%82%B9_%E9%A7%90%E8%BB%8A%E5%A0%B4/tiles.json</t>
-    </r>
-  </si>
-  <si>
-    <t>#ffffff</t>
-  </si>
-  <si>
-    <t>#2F2011</t>
-  </si>
-  <si>
-    <t>まちづくり</t>
-  </si>
-  <si>
-    <t>航空写真（令和5年度）</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="12"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>https://tileserver.geolonia.com/yaizu-smartmap-airplane-photo-20250107/tiles/{z}/{x}/{y}.png?v=eWFpenUtc21hcnRtYXAtYWlycGxhbmUtcGhvdG8tMjAyNTAxMDd8YWRtaW4tdXBsb2Fkcy95YWl6dS1zbWFydG1hcC1haXJwbGFuZS1waG90by0yMDI1MDEwNy0wMUpHWjZYNFREVkRGWENaUTZLMFI0OTI3SCNrke6hy68odQSAeYKKqMfyyh60LcOUvZIyg0WHjX-LWA&amp;key=bb4125ebc1ba442da48d3556f1fe13f5</t>
-    </r>
-  </si>
-  <si>
-    <t>都市計画図</t>
-  </si>
-  <si>
-    <t>市街化区域界・市街化調整区域界</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="12"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>https://yaizu-smartcity.jp/tiles/市街化区域界_市街化調整区域界/tiles.json</t>
-    </r>
-  </si>
-  <si>
-    <t>#cd853f</t>
-  </si>
-  <si>
-    <t>高度利用地区</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="12"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>https://yaizu-smartcity.jp/tiles/高度利用地区/tiles.json</t>
-    </r>
-  </si>
-  <si>
-    <t>#ff6347</t>
-  </si>
-  <si>
-    <t>準防火地域</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="12"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>https://yaizu-smartcity.jp/tiles/準防火地域/tiles.json</t>
-    </r>
-  </si>
-  <si>
-    <t>#ffb6c1</t>
-  </si>
-  <si>
-    <t>都市計画道路</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="12"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>https://yaizu-smartcity.jp/tiles/都市計画道路/tiles.json</t>
-    </r>
-  </si>
-  <si>
-    <t>#ff0000</t>
-  </si>
-  <si>
-    <t>駐車場</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="12"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>https://yaizu-smartcity.jp/tiles/駐車場/tiles.json</t>
-    </r>
-  </si>
-  <si>
-    <t>#000000</t>
-  </si>
-  <si>
-    <t>公園・緑地</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="12"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>https://yaizu-smartcity.jp/tiles/公園_緑地/tiles.json</t>
-    </r>
-  </si>
-  <si>
-    <t>#228b22</t>
-  </si>
-  <si>
-    <t>ごみ焼却場</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="12"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>https://yaizu-smartcity.jp/tiles/%E3%81%94%E3%81%BF%E7%84%BC%E5%8D%B4%E5%A0%B4/tiles.json</t>
-    </r>
-  </si>
-  <si>
-    <t>#8b4513</t>
-  </si>
-  <si>
-    <t>し尿処理場</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="12"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>https://yaizu-smartcity.jp/tiles/し尿処理場/tiles.json</t>
-    </r>
-  </si>
-  <si>
-    <t>#1e90ff</t>
-  </si>
-  <si>
-    <t>地区計画区域</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="12"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>https://yaizu-smartcity.jp/tiles/地区計画区域/tiles.json</t>
-    </r>
-  </si>
-  <si>
-    <t>#2f4f4f</t>
-  </si>
-  <si>
-    <t>土地区画整理事業区域</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="12"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>https://yaizu-smartcity.jp/tiles/土地区画整理事業区域/tiles.json</t>
-    </r>
-  </si>
-  <si>
-    <t>住まいるシティ拠点エリア（都市機能誘導区域）</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="12"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>https://yaizu-smartcity.jp/tiles/住まいるシティ拠点エリア_都市機能誘導区域/tiles.json</t>
-    </r>
-  </si>
-  <si>
-    <t>#00bfff</t>
-  </si>
-  <si>
-    <t>住まいるエリア（居住誘導区域）</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="12"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>https://yaizu-smartcity.jp/tiles/住まいるエリア_居住誘導区域/tiles.json</t>
-    </r>
-  </si>
-  <si>
-    <t>都市計画図（用途地域）</t>
-  </si>
-  <si>
-    <t>第一種低層住居専用地域</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="12"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>https://yaizu-smartcity.jp/tiles/%E9%83%BD%E5%B8%82%E8%A8%88%E7%94%BB%E5%9B%B3_%E7%AC%AC%E4%B8%80%E7%A8%AE%E4%BD%8E%E5%B1%A4%E4%BD%8F%E5%B1%85%E5%B0%82%E7%94%A8%E5%9C%B0%E5%9F%9F/tiles.json</t>
-    </r>
-  </si>
-  <si>
-    <t>#A2D7D4</t>
-  </si>
-  <si>
-    <t>rgb(156,84,160)</t>
-  </si>
-  <si>
-    <t>第一種中高層住居専用地域</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="12"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>https://yaizu-smartcity.jp/tiles/%E9%83%BD%E5%B8%82%E8%A8%88%E7%94%BB%E5%9B%B3_%E7%AC%AC%E4%B8%80%E7%A8%AE%E4%B8%AD%E9%AB%98%E5%B1%A4%E4%BD%8F%E5%B1%85%E5%B0%82%E7%94%A8%E5%9C%B0%E5%9F%9F/tiles.json</t>
-    </r>
-  </si>
-  <si>
-    <t>rgb(198,224,159)</t>
-  </si>
-  <si>
-    <t>第二種中高層住居専用地域</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="12"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>https://yaizu-smartcity.jp/tiles/%E9%83%BD%E5%B8%82%E8%A8%88%E7%94%BB%E5%9B%B3_%E7%AC%AC%E4%BA%8C%E7%A8%AE%E4%B8%AD%E9%AB%98%E5%B1%A4%E4%BD%8F%E5%B1%85%E5%B0%82%E7%94%A8%E5%9C%B0%E5%9F%9F/tiles.json</t>
-    </r>
-  </si>
-  <si>
-    <t>rgb(234,243,220)</t>
-  </si>
-  <si>
-    <t>第一種住居地域</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="12"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>https://yaizu-smartcity.jp/tiles/%E9%83%BD%E5%B8%82%E8%A8%88%E7%94%BB%E5%9B%B3_%E7%AC%AC%E4%B8%80%E7%A8%AE%E4%BD%8F%E5%B1%85%E5%9C%B0%E5%9F%9F/tiles.json</t>
-    </r>
-  </si>
-  <si>
-    <t>rgb(255,246,152)</t>
-  </si>
-  <si>
-    <t>第二種住居地域</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="12"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>https://yaizu-smartcity.jp/tiles/%E9%83%BD%E5%B8%82%E8%A8%88%E7%94%BB%E5%9B%B3_%E7%AC%AC%E4%BA%8C%E7%A8%AE%E4%BD%8F%E5%B1%85%E5%9C%B0%E5%9F%9F/tiles.json</t>
-    </r>
-  </si>
-  <si>
-    <t>rgb(255,253,237)</t>
-  </si>
-  <si>
-    <t>準住居地域</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="12"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>https://yaizu-smartcity.jp/tiles/%E9%83%BD%E5%B8%82%E8%A8%88%E7%94%BB%E5%9B%B3_%E6%BA%96%E4%BD%8F%E5%B1%85%E5%9C%B0%E5%9F%9F/tiles.json</t>
-    </r>
-  </si>
-  <si>
-    <t>rgb(251,194,144)</t>
-  </si>
-  <si>
-    <t>近隣商業地域</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="12"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>https://yaizu-smartcity.jp/tiles/%E9%83%BD%E5%B8%82%E8%A8%88%E7%94%BB%E5%9B%B3_%E8%BF%91%E9%9A%A3%E5%95%86%E6%A5%AD%E5%9C%B0%E5%9F%9F/tiles.json</t>
-    </r>
-  </si>
-  <si>
-    <t>#F7C8DD</t>
-  </si>
-  <si>
-    <t>rgb(179,114,173)</t>
-  </si>
-  <si>
-    <t>商業地域</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="12"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>https://yaizu-smartcity.jp/tiles/%E9%83%BD%E5%B8%82%E8%A8%88%E7%94%BB%E5%9B%B3_%E5%95%86%E6%A5%AD%E5%9C%B0%E5%9F%9F/tiles.json</t>
-    </r>
-  </si>
-  <si>
-    <t>#F29A75</t>
-  </si>
-  <si>
-    <t>準工業地域</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="12"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>https://yaizu-smartcity.jp/tiles/%E9%83%BD%E5%B8%82%E8%A8%88%E7%94%BB%E5%9B%B3_%E6%BA%96%E5%B7%A5%E6%A5%AD%E5%9C%B0%E5%9F%9F/tiles.json</t>
-    </r>
-  </si>
-  <si>
-    <t>rgb(220,201,225)</t>
-  </si>
-  <si>
-    <t>工業地域</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="12"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>https://yaizu-smartcity.jp/tiles/%E9%83%BD%E5%B8%82%E8%A8%88%E7%94%BB%E5%9B%B3_%E5%B7%A5%E6%A5%AD%E5%9C%B0%E5%9F%9F/tiles.json</t>
-    </r>
-  </si>
-  <si>
-    <t>rgb(217,235,248)</t>
-  </si>
-  <si>
-    <t>工業専用地域</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="12"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>https://yaizu-smartcity.jp/tiles/%E9%83%BD%E5%B8%82%E8%A8%88%E7%94%BB%E5%9B%B3_%E5%B7%A5%E6%A5%AD%E5%B0%82%E7%94%A8%E5%9C%B0%E5%9F%9F/tiles.json</t>
-    </r>
-  </si>
-  <si>
-    <t>rgb(145,201,237)</t>
-  </si>
-  <si>
-    <t>敷地面積の最低限度指定区域</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="12"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>https://yaizu-smartcity.jp/tiles/%E9%83%BD%E5%B8%82%E8%A8%88%E7%94%BB%E5%9B%B3_%E6%95%B7%E5%9C%B0%E9%9D%A2%E7%A9%8D%E3%81%AE%E6%9C%80%E4%BD%8E%E9%99%90%E5%BA%A6%E6%8C%87%E5%AE%9A%E5%8C%BA%E5%9F%9F/tiles.json</t>
-    </r>
-  </si>
-  <si>
-    <t>#E52187</t>
-  </si>
-  <si>
-    <t>区域図</t>
-  </si>
-  <si>
-    <t>令和6年</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="12"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>https://yaizu-smartcity.jp/tiles/%E5%8C%BA%E7%94%BB%E6%95%B4%E7%90%86%E5%9C%B0%E5%9B%B3/tiles.json</t>
-    </r>
-  </si>
-  <si>
-    <t>大正9年</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="12"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>https://yaizu-smartcity.jp/tiles/%E6%98%94%E3%81%AE%E7%84%BC%E6%B4%A5%E3%81%A8%E6%AF%94%E3%81%B9%E3%81%A6%E3%81%BF%E3%82%88%E3%81%86/tiles.json</t>
-    </r>
-  </si>
-  <si>
-    <t>公衆トイレ</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="12"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>https://yaizu-smartcity.jp/tiles/%E5%85%AC%E8%A1%86%E3%83%88%E3%82%A4%E3%83%AC%E4%B8%80%E8%A6%A7/tiles.json</t>
-    </r>
-  </si>
-  <si>
-    <t>公園</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="12"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>https://yaizu-smartcity.jp/tiles/%E5%85%AC%E5%9C%92%E4%B8%80%E8%A6%A7/tiles.json</t>
-    </r>
-  </si>
-  <si>
-    <t>park</t>
-  </si>
-  <si>
-    <t>さくら並木</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="12"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>https://yaizu-smartcity.jp/tiles/%E3%81%95%E3%81%8F%E3%82%89%E4%B8%A6%E6%9C%A8%E7%AE%A1%E7%90%86%E8%AA%BF%E6%9B%B8/tiles.json</t>
-    </r>
-  </si>
-  <si>
-    <t>#eb3390</t>
-  </si>
-  <si>
-    <t>住まい</t>
-  </si>
-  <si>
-    <t>固定資産税・路線価図</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="12"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>https://yaizu-smartcity.jp/tiles/固定資産税_路線価図/tiles.json</t>
-    </r>
-  </si>
-  <si>
-    <t>#1C1C1C</t>
-  </si>
-  <si>
-    <t>標準宅地</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="12"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>https://yaizu-smartcity.jp/tiles/%E6%A8%99%E6%BA%96%E5%AE%85%E5%9C%B0/tiles.json</t>
-    </r>
-  </si>
-  <si>
-    <t>#262626</t>
-  </si>
-  <si>
-    <t>状況類似地区</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="12"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>https://yaizu-smartcity.jp/tiles/%E7%8A%B6%E6%B3%81%E9%A1%9E%E4%BC%BC%E5%9C%B0%E5%8C%BA/tiles.json</t>
-    </r>
-  </si>
-  <si>
-    <t>#20202C</t>
-  </si>
-  <si>
-    <t>交通</t>
-  </si>
-  <si>
-    <t>道路</t>
-  </si>
-  <si>
-    <t>交通安全施設整備</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="12"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>https://yaizu-smartcity.jp/tiles/%E3%81%82%E3%82%93%E3%81%97%E3%82%93%E6%AD%A9%E8%A1%8C%E3%82%A8%E3%83%AA%E3%82%A2%E6%95%B4%E5%82%99%E5%8F%B0%E5%B8%B3/tiles.json</t>
-    </r>
-  </si>
-  <si>
-    <t>#00cc99</t>
-  </si>
-  <si>
-    <t>路線網図</t>
-  </si>
-  <si>
-    <t>国道・県道</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="12"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>https://yaizu-smartcity.jp/tiles/%E8%B7%AF%E7%B7%9A%E7%B6%B2%E5%9B%B3_%E5%9B%BD%E9%81%93%E7%9C%8C%E9%81%93/tiles.json</t>
-    </r>
-  </si>
-  <si>
-    <t>#FDD15B</t>
-  </si>
-  <si>
-    <t>1/2500</t>
-  </si>
-  <si>
-    <t>1級</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="12"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>https://yaizu-smartcity.jp/tiles/%E8%B7%AF%E7%B7%9A%E7%B6%B2%E5%9B%B3_%E5%B8%82%E9%81%93%E4%B8%80%E7%B4%9A%E3%83%AC%E3%82%A4%E3%83%A4%E3%83%BC/tiles.json</t>
-    </r>
-  </si>
-  <si>
-    <t>#5956FF</t>
-  </si>
-  <si>
-    <t>2級</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="12"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>https://yaizu-smartcity.jp/tiles/%E8%B7%AF%E7%B7%9A%E7%B6%B2%E5%9B%B3_%E5%B8%82%E9%81%93%E4%BA%8C%E7%B4%9A%E3%83%AC%E3%82%A4%E3%83%A4%E3%83%BC/tiles.json</t>
-    </r>
-  </si>
-  <si>
-    <t>#28A00F</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="12"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>https://yaizu-smartcity.jp/tiles/%E8%B7%AF%E7%B7%9A%E7%B6%B2%E5%9B%B3_%E5%B8%82%E9%81%93%E3%81%9D%E3%81%AE%E4%BB%96%E3%83%AC%E3%82%A4%E3%83%A4%E3%83%BC/tiles.json</t>
-    </r>
-  </si>
-  <si>
-    <t>#F958FF</t>
-  </si>
-  <si>
-    <t>バス</t>
-  </si>
-  <si>
-    <t>バス停（自主運行）＆時刻表</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="12"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>https://yaizu-smartcity.jp/tiles/%E7%84%BC%E6%B4%A5%E5%B8%82%E8%87%AA%E4%B8%BB%E9%81%8B%E8%A1%8C%E3%83%90%E3%82%B9%E8%B7%AF%E7%B7%9A%E5%9B%B3_%E5%81%9C%E7%95%99%E6%89%80/tiles.json</t>
-    </r>
-  </si>
-  <si>
-    <t>bus-stop-pink</t>
-  </si>
-  <si>
-    <t>バス路線</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="12"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>https://yaizu-smartcity.jp/tiles/%E7%84%BC%E6%B4%A5%E5%B8%82%E8%87%AA%E4%B8%BB%E9%81%8B%E8%A1%8C%E3%83%90%E3%82%B9%E8%B7%AF%E7%B7%9A%E5%9B%B3_%E8%B7%AF%E7%B7%9A/tiles.json</t>
-    </r>
-  </si>
-  <si>
-    <t>デマンドタクシー</t>
-  </si>
-  <si>
-    <t>焼津インターチェンジ地区（乗降位置）</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="12"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>https://yaizu-smartcity.jp/tiles/焼津IC周辺地区_タクシー乗降位置/tiles.json</t>
-    </r>
-  </si>
-  <si>
-    <t>demand-taxi-lightbrown</t>
-  </si>
-  <si>
-    <t>焼津インターチェンジ地区（乗降区域）</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="12"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>https://yaizu-smartcity.jp/tiles/焼津IC周辺地区_タクシー乗降区域/tiles.json</t>
-    </r>
-  </si>
-  <si>
-    <t>#C79100</t>
-  </si>
-  <si>
-    <t>焼津インターチェンジ地区（指定施設）</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="12"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>https://yaizu-smartcity.jp/tiles/%E7%84%BC%E6%B4%A5IC%E5%91%A8%E8%BE%BA%E5%9C%B0%E5%8C%BA_%E3%82%BF%E3%82%AF%E3%82%B7%E3%83%BC%E6%8C%87%E5%AE%9A%E6%96%BD%E8%A8%AD/tiles.json</t>
-    </r>
-  </si>
-  <si>
-    <t>大島・三和地区（乗降位置）</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="12"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>https://yaizu-smartcity.jp/tiles/大島・三和地区_タクシー乗降位置/tiles.json</t>
-    </r>
-  </si>
-  <si>
-    <t>demand-taxi-darkgray</t>
-  </si>
-  <si>
-    <t>大島・三和地区（指定施設）</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="12"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>https://yaizu-smartcity.jp/tiles/%E5%A4%A7%E5%B3%B6%E3%83%BB%E4%B8%89%E5%92%8C%E5%9C%B0%E5%8C%BA_%E3%82%BF%E3%82%AF%E3%82%B7%E3%83%BC%E6%8C%87%E5%AE%9A%E6%96%BD%E8%A8%AD/tiles.json</t>
-    </r>
-  </si>
-  <si>
-    <t>大井川地区（乗降位置）</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="12"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>https://yaizu-smartcity.jp/tiles/大井川地区_タクシー乗降位置/tiles.json</t>
-    </r>
-  </si>
-  <si>
-    <t>demand-taxi-lightblue</t>
-  </si>
-  <si>
-    <t>大井川地区（乗降区域）</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="12"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>https://yaizu-smartcity.jp/tiles/大井川地区_タクシー乗降区域/tiles.json</t>
-    </r>
-  </si>
-  <si>
-    <t>#83C3FF</t>
-  </si>
-  <si>
-    <t>交通事故分析情報</t>
-  </si>
-  <si>
-    <t>2022年</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="12"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>https://yaizu-smartcity.jp/tiles/%E4%BA%A4%E9%80%9A%E4%BA%8B%E6%95%85_2022/tiles.json</t>
-    </r>
-  </si>
-  <si>
-    <t>#1E6577</t>
-  </si>
-  <si>
-    <t>2021年</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="12"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>https://yaizu-smartcity.jp/tiles/%E4%BA%A4%E9%80%9A%E4%BA%8B%E6%95%85_2021/tiles.json</t>
-    </r>
-  </si>
-  <si>
-    <t>#2A899D</t>
-  </si>
-  <si>
-    <t>2020年</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="12"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>https://yaizu-smartcity.jp/tiles/%E4%BA%A4%E9%80%9A%E4%BA%8B%E6%95%85_2020/tiles.json</t>
-    </r>
-  </si>
-  <si>
-    <t>#68C6DA</t>
-  </si>
-  <si>
-    <t>2019年</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="12"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>https://yaizu-smartcity.jp/tiles/%E4%BA%A4%E9%80%9A%E4%BA%8B%E6%95%85_2019/tiles.json</t>
-    </r>
-  </si>
-  <si>
-    <t>#ABE0EB</t>
-  </si>
-  <si>
-    <t>ごみ・リサイクル</t>
-  </si>
-  <si>
-    <t>リサイクル拠点</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="12"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>https://yaizu-smartcity.jp/tiles/%E3%83%AA%E3%82%B5%E3%82%A4%E3%82%AF%E3%83%AB%E6%8B%A0%E7%82%B9/tiles.json</t>
-    </r>
-  </si>
-  <si>
-    <t>農業</t>
-  </si>
-  <si>
-    <t>農業地域振興計画</t>
-  </si>
-  <si>
-    <t>農用地区域</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="12"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>https://yaizu-smartcity.jp/tiles/%E8%BE%B2%E6%A5%AD%E5%9C%B0%E5%9F%9F%E6%8C%AF%E8%88%88%E8%A8%88%E7%94%BB_%E8%BE%B2%E7%94%A8%E5%9C%B0%E5%8C%BA%E5%9F%9F/tiles.json</t>
-    </r>
-  </si>
-  <si>
-    <t>#FDFAC5</t>
-  </si>
-  <si>
-    <t>農業用施設用地</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="12"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>https://yaizu-smartcity.jp/tiles/%E8%BE%B2%E6%A5%AD%E5%9C%B0%E5%9F%9F%E6%8C%AF%E8%88%88%E8%A8%88%E7%94%BB_%E8%BE%B2%E6%A5%AD%E7%94%A8%E6%96%BD%E8%A8%AD%E7%94%A8%E5%9C%B0/tiles.json</t>
-    </r>
-  </si>
-  <si>
-    <t>#F8E3B2</t>
-  </si>
-  <si>
-    <t>農業用施設図</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="12"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>https://yaizu-smartcity.jp/tiles/農業用施設図/tiles.json</t>
-    </r>
-  </si>
-  <si>
-    <t>#518A04</t>
-  </si>
-  <si>
-    <t>高草山農道</t>
-  </si>
-  <si>
-    <t>農道</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="12"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>https://yaizu-smartcity.jp/tiles/農道一般平面図_農道/tiles.json</t>
-    </r>
-  </si>
-  <si>
-    <t>#5A3224</t>
-  </si>
-  <si>
-    <t>林道</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="12"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>https://yaizu-smartcity.jp/tiles/農道一般平面図_林道/tiles.json</t>
-    </r>
-  </si>
-  <si>
-    <t>ファミリー農園</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="12"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>https://yaizu-smartcity.jp/tiles/%E3%83%95%E3%82%A1%E3%83%9F%E3%83%AA%E3%83%BC%E8%BE%B2%E5%9C%92/tiles.json</t>
-    </r>
-  </si>
-  <si>
-    <t>family-farm</t>
-  </si>
-  <si>
-    <t>こども・教育</t>
-  </si>
-  <si>
-    <t>小学校・学区</t>
-  </si>
-  <si>
-    <t>小学校</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="12"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>https://yaizu-smartcity.jp/tiles/%E5%B0%8F%E5%AD%A6%E6%A0%A1/tiles.json</t>
-    </r>
-  </si>
-  <si>
-    <t>preschool-red</t>
-  </si>
-  <si>
-    <t>小学校区</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="12"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>https://yaizu-smartcity.jp/tiles/%E5%B0%8F%E5%AD%A6%E6%A0%A1%E5%8C%BA/tiles.json</t>
-    </r>
-  </si>
-  <si>
-    <t>中学校・学区</t>
-  </si>
-  <si>
-    <t>中学校</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="12"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>https://yaizu-smartcity.jp/tiles/%E4%B8%AD%E5%AD%A6%E6%A0%A1/tiles.json</t>
-    </r>
-  </si>
-  <si>
-    <t>preschool</t>
-  </si>
-  <si>
-    <t>中学校区</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="12"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>https://yaizu-smartcity.jp/tiles/%E4%B8%AD%E5%AD%A6%E6%A0%A1%E5%8C%BA/tiles.json</t>
-    </r>
-  </si>
-  <si>
-    <t>#006AB6</t>
-  </si>
-  <si>
-    <t>通学路</t>
-  </si>
-  <si>
-    <t>和田小学校</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="12"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>https://yaizu-smartcity.jp/tiles/%E9%80%9A%E5%AD%A6%E8%B7%AF_%E5%92%8C%E7%94%B0%E5%B0%8F%E5%AD%A6%E6%A0%A1/tiles.json</t>
-    </r>
-  </si>
-  <si>
-    <t>#E74C3C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">大井川南小学校 </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="12"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>https://yaizu-smartcity.jp/tiles/%E9%80%9A%E5%AD%A6%E8%B7%AF_%E5%A4%A7%E4%BA%95%E5%B7%9D%E5%8D%97%E5%B0%8F%E5%AD%A6%E6%A0%A1/tiles.json</t>
-    </r>
-  </si>
-  <si>
-    <t>#F39C12</t>
-  </si>
-  <si>
-    <t>大井川東小学校</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="12"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>https://yaizu-smartcity.jp/tiles/%E9%80%9A%E5%AD%A6%E8%B7%AF_%E5%A4%A7%E4%BA%95%E5%B7%9D%E6%9D%B1%E5%B0%8F%E5%AD%A6%E6%A0%A1/tiles.json</t>
-    </r>
-  </si>
-  <si>
-    <t>#F1C40F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">大井川西小学校 </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="12"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>https://yaizu-smartcity.jp/tiles/%E9%80%9A%E5%AD%A6%E8%B7%AF_%E5%A4%A7%E4%BA%95%E5%B7%9D%E8%A5%BF%E5%B0%8F%E5%AD%A6%E6%A0%A1/tiles.json</t>
-    </r>
-  </si>
-  <si>
-    <t>#27AE60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">大富小学校 </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="12"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>https://yaizu-smartcity.jp/tiles/%E9%80%9A%E5%AD%A6%E8%B7%AF_%E5%A4%A7%E5%AF%8C%E5%B0%8F%E5%AD%A6%E6%A0%A1/tiles.json</t>
-    </r>
-  </si>
-  <si>
-    <t>#2ECC71</t>
-  </si>
-  <si>
-    <t>小川小学校</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="12"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>https://yaizu-smartcity.jp/tiles/%E9%80%9A%E5%AD%A6%E8%B7%AF_%E5%B0%8F%E5%B7%9D%E5%B0%8F%E5%AD%A6%E6%A0%A1/tiles.json</t>
-    </r>
-  </si>
-  <si>
-    <t>#1ABC9C</t>
-  </si>
-  <si>
-    <t>東益津小学校</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="12"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>https://yaizu-smartcity.jp/tiles/%E9%80%9A%E5%AD%A6%E8%B7%AF_%E6%9D%B1%E7%9B%8A%E6%B4%A5%E5%B0%8F%E5%AD%A6%E6%A0%A1/tiles.json</t>
-    </r>
-  </si>
-  <si>
-    <t>#3498DB</t>
-  </si>
-  <si>
-    <t>港小学校</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="12"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>https://yaizu-smartcity.jp/tiles/%E9%80%9A%E5%AD%A6%E8%B7%AF_%E6%B8%AF%E5%B0%8F%E5%AD%A6%E6%A0%A1/tiles.json</t>
-    </r>
-  </si>
-  <si>
-    <t>#9B59B6</t>
-  </si>
-  <si>
-    <t>焼津南小学校</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="12"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>https://yaizu-smartcity.jp/tiles/%E9%80%9A%E5%AD%A6%E8%B7%AF_%E7%84%BC%E6%B4%A5%E5%8D%97%E5%B0%8F%E5%AD%A6%E6%A0%A1/tiles.json</t>
-    </r>
-  </si>
-  <si>
-    <t>#34495E</t>
-  </si>
-  <si>
-    <t>焼津東小学校</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="12"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>https://yaizu-smartcity.jp/tiles/%E9%80%9A%E5%AD%A6%E8%B7%AF_%E7%84%BC%E6%B4%A5%E6%9D%B1%E5%B0%8F%E5%AD%A6%E6%A0%A1/tiles.json</t>
-    </r>
-  </si>
-  <si>
-    <t>#D35400</t>
-  </si>
-  <si>
-    <t>焼津西小学校</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="12"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>https://yaizu-smartcity.jp/tiles/%E9%80%9A%E5%AD%A6%E8%B7%AF_%E7%84%BC%E6%B4%A5%E8%A5%BF%E5%B0%8F%E5%AD%A6%E6%A0%A1/tiles.json</t>
-    </r>
-  </si>
-  <si>
-    <t>#8E44AD</t>
-  </si>
-  <si>
-    <t>豊田小学校</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="12"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>https://yaizu-smartcity.jp/tiles/%E9%80%9A%E5%AD%A6%E8%B7%AF_%E8%B1%8A%E7%94%B0%E5%B0%8F%E5%AD%A6%E6%A0%A1/tiles.json</t>
-    </r>
-  </si>
-  <si>
-    <t>#16A085</t>
-  </si>
-  <si>
-    <t>黒石小学校</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="12"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>https://yaizu-smartcity.jp/tiles/%E9%80%9A%E5%AD%A6%E8%B7%AF_%E9%BB%92%E7%9F%B3%E5%B0%8F%E5%AD%A6%E6%A0%A1/tiles.json</t>
-    </r>
-  </si>
-  <si>
-    <t>#2C3E50</t>
-  </si>
-  <si>
-    <t>その他教育</t>
-  </si>
-  <si>
-    <t>放課後等デイサービス</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="12"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>https://yaizu-smartcity.jp/tiles/%E6%94%BE%E8%AA%B2%E5%BE%8C%E7%AD%89%E3%83%87%E3%82%A4%E3%82%B5%E3%83%BC%E3%83%93%E3%82%B9%E4%B8%80%E8%A6%A7/tiles.json</t>
-    </r>
-  </si>
-  <si>
-    <t>子育て</t>
-  </si>
-  <si>
-    <t>幼稚園・保育所</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="12"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>https://yaizu-smartcity.jp/tiles/%E5%AD%90%E8%82%B2%E3%81%A6%E6%96%BD%E8%A8%AD%E4%B8%80%E8%A6%A7/tiles.json</t>
-    </r>
-  </si>
-  <si>
-    <t>子育て支援施設</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="12"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>https://yaizu-smartcity.jp/tiles/%E5%AD%90%E8%82%B2%E3%81%A6%E6%94%AF%E6%8F%B4%E6%96%BD%E8%A8%AD/tiles.json</t>
-    </r>
-  </si>
-  <si>
-    <t>あかちゃんえき</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="12"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>https://yaizu-smartcity.jp/tiles/%E3%81%82%E3%81%8B%E3%81%A1%E3%82%83%E3%82%93%E3%81%88%E3%81%8D%E4%B8%80%E8%A6%A7/tiles.json</t>
-    </r>
-  </si>
-  <si>
-    <t>baby</t>
-  </si>
-  <si>
-    <t>地域・コミュニティ</t>
-  </si>
-  <si>
-    <t>地域交流センター</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="12"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>https://yaizu-smartcity.jp/tiles/%E5%9C%B0%E5%9F%9F%E4%BA%A4%E6%B5%81%E3%82%BB%E3%83%B3%E3%82%BF%E3%83%BC/tiles.json</t>
-    </r>
-  </si>
-  <si>
-    <t>daycare</t>
-  </si>
-  <si>
-    <t>自治会区域</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="12"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>https://yaizu-smartcity.jp/tiles/%E8%87%AA%E6%B2%BB%E4%BC%9A%E5%8C%BA%E5%9F%9F/tiles.json</t>
-    </r>
-  </si>
-  <si>
-    <t>文化・スポーツ</t>
-  </si>
-  <si>
-    <t>文化会館・資料館</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="12"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>https://yaizu-smartcity.jp/tiles/%E6%96%87%E5%8C%96%E4%BC%9A%E9%A4%A8%E3%83%BB%E8%B3%87%E6%96%99%E9%A4%A8/tiles.json</t>
-    </r>
-  </si>
-  <si>
-    <t>museums</t>
-  </si>
-  <si>
-    <t>図書館</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="12"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>https://yaizu-smartcity.jp/tiles/%E5%9B%B3%E6%9B%B8%E9%A4%A8/tiles.json</t>
-    </r>
-  </si>
-  <si>
-    <t>library</t>
-  </si>
-  <si>
-    <t>スポーツ施設</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="12"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>https://yaizu-smartcity.jp/tiles/%E3%82%B9%E3%83%9D%E3%83%BC%E3%83%84%E6%96%BD%E8%A8%AD/tiles.json</t>
-    </r>
-  </si>
-  <si>
-    <t>sports</t>
-  </si>
-  <si>
-    <t>文化財マップ</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="12"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>https://yaizu-smartcity.jp/tiles/%E6%96%87%E5%8C%96%E8%B2%A1%E3%83%9E%E3%83%83%E3%83%97/tiles.json</t>
-    </r>
-  </si>
-  <si>
-    <t>bunkazai</t>
-  </si>
-  <si>
-    <t>埋蔵文化財</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="12"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>https://yaizu-smartcity.jp/tiles/%E5%9F%8B%E8%94%B5%E6%96%87%E5%8C%96%E8%B2%A1/tiles.json</t>
-    </r>
-  </si>
-  <si>
-    <t>#ff0302</t>
-  </si>
-  <si>
-    <t>健康・福祉</t>
+      <t>https://yaizu-smartcity.jp/tiles/%E3%81%BE%E3%81%A1%E3%81%AA%E3%81%8B%E6%B6%BC%E3%81%BF%E3%81%A9%E3%81%93%E3%82%8D/tiles.json</t>
+    </r>
+  </si>
+  <si>
+    <t>reservoir</t>
   </si>
   <si>
     <t>福祉会館</t>
@@ -3226,7 +3243,7 @@
       <rPr>
         <u val="single"/>
         <sz val="10"/>
-        <color indexed="12"/>
+        <color indexed="13"/>
         <rFont val="Arial"/>
       </rPr>
       <t>https://yaizu-smartcity.jp/tiles/%E7%A6%8F%E7%A5%89%E4%BC%9A%E9%A4%A8/tiles.json</t>
@@ -3243,7 +3260,7 @@
       <rPr>
         <u val="single"/>
         <sz val="10"/>
-        <color indexed="12"/>
+        <color indexed="13"/>
         <rFont val="Arial"/>
       </rPr>
       <t>https://yaizu-smartcity.jp/tiles/AED%E8%A8%AD%E7%BD%AE%E7%AE%87%E6%89%80%E4%B8%80%E8%A6%A7/tiles.json</t>
@@ -3263,7 +3280,7 @@
       <rPr>
         <u val="single"/>
         <sz val="10"/>
-        <color indexed="12"/>
+        <color indexed="13"/>
         <rFont val="Arial"/>
       </rPr>
       <t>https://yaizu-smartcity.jp/tiles/%E5%B8%82%E5%BD%B9%E6%89%80%E3%83%BB%E3%82%BB%E3%83%B3%E3%82%BF%E3%83%BC/tiles.json</t>
@@ -3280,7 +3297,7 @@
       <rPr>
         <u val="single"/>
         <sz val="10"/>
-        <color indexed="12"/>
+        <color indexed="13"/>
         <rFont val="Arial"/>
       </rPr>
       <t>https://yaizu-smartcity.jp/tiles/%E5%85%AC%E8%A1%86%E7%84%A1%E7%B7%9ALAN%E4%B8%80%E8%A6%A7/tiles.json</t>
@@ -3297,7 +3314,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -3322,13 +3339,13 @@
     <font>
       <u val="single"/>
       <sz val="10"/>
-      <color indexed="11"/>
+      <color indexed="12"/>
       <name val="Arial"/>
     </font>
     <font>
       <u val="single"/>
       <sz val="10"/>
-      <color indexed="12"/>
+      <color indexed="13"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -3340,6 +3357,11 @@
       <sz val="10"/>
       <color indexed="15"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="ＭＳ Ｐゴシック"/>
     </font>
   </fonts>
   <fills count="5">
@@ -3363,7 +3385,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="13"/>
+        <fgColor indexed="11"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -3442,7 +3464,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -3455,22 +3477,22 @@
     <xf numFmtId="49" fontId="3" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="5" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -3482,28 +3504,34 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="6" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="5" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="7" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="4" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -3525,9 +3553,9 @@
       <rgbColor rgb="ff000000"/>
       <rgbColor rgb="fff4cccc"/>
       <rgbColor rgb="fff3f3f3"/>
+      <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ff0000ff"/>
       <rgbColor rgb="ff1155cc"/>
-      <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ff222222"/>
       <rgbColor rgb="ffff0000"/>
       <rgbColor rgb="ffaaaaaa"/>
@@ -3729,12 +3757,12 @@
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -3766,10 +3794,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Arial"/>
-            <a:ea typeface="Arial"/>
-            <a:cs typeface="Arial"/>
-            <a:sym typeface="Arial"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -4008,12 +4036,12 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -4317,10 +4345,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Arial"/>
-            <a:ea typeface="Arial"/>
-            <a:cs typeface="Arial"/>
-            <a:sym typeface="Arial"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -4565,7 +4593,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M402"/>
+  <dimension ref="A1:M403"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -8228,17 +8256,15 @@
       <c r="A146" t="s" s="6">
         <v>375</v>
       </c>
-      <c r="B146" t="s" s="6">
+      <c r="B146" s="6"/>
+      <c r="C146" t="s" s="6">
         <v>376</v>
       </c>
-      <c r="C146" t="s" s="6">
+      <c r="D146" t="s" s="11">
         <v>377</v>
       </c>
-      <c r="D146" t="s" s="11">
+      <c r="E146" t="s" s="6">
         <v>378</v>
-      </c>
-      <c r="E146" t="s" s="6">
-        <v>379</v>
       </c>
       <c r="F146" s="5"/>
       <c r="G146" s="5"/>
@@ -8250,121 +8276,125 @@
       <c r="M146" s="6"/>
     </row>
     <row r="147" ht="13.5" customHeight="1">
-      <c r="A147" t="s" s="8">
+      <c r="A147" t="s" s="6">
         <v>375</v>
       </c>
-      <c r="B147" t="s" s="8">
+      <c r="B147" t="s" s="6">
+        <v>379</v>
+      </c>
+      <c r="C147" t="s" s="6">
         <v>380</v>
       </c>
-      <c r="C147" t="s" s="8">
+      <c r="D147" t="s" s="11">
         <v>381</v>
       </c>
-      <c r="D147" t="s" s="9">
+      <c r="E147" t="s" s="6">
         <v>382</v>
       </c>
-      <c r="E147" t="s" s="8">
+      <c r="F147" t="s" s="6">
+        <v>382</v>
+      </c>
+      <c r="G147" s="5"/>
+      <c r="H147" s="5"/>
+      <c r="I147" s="5"/>
+      <c r="J147" s="5"/>
+      <c r="K147" s="5"/>
+      <c r="L147" s="5"/>
+      <c r="M147" t="s" s="6">
         <v>383</v>
       </c>
-      <c r="F147" t="s" s="8">
+    </row>
+    <row r="148" ht="13.5" customHeight="1">
+      <c r="A148" t="s" s="6">
+        <v>375</v>
+      </c>
+      <c r="B148" t="s" s="6">
+        <v>379</v>
+      </c>
+      <c r="C148" t="s" s="6">
+        <v>384</v>
+      </c>
+      <c r="D148" t="s" s="11">
+        <v>385</v>
+      </c>
+      <c r="E148" t="s" s="6">
+        <v>386</v>
+      </c>
+      <c r="F148" t="s" s="6">
+        <v>386</v>
+      </c>
+      <c r="G148" s="5"/>
+      <c r="H148" t="s" s="6">
+        <v>386</v>
+      </c>
+      <c r="I148" s="5"/>
+      <c r="J148" s="5"/>
+      <c r="K148" s="5"/>
+      <c r="L148" s="5"/>
+      <c r="M148" t="s" s="6">
         <v>383</v>
       </c>
-      <c r="G147" s="4"/>
-      <c r="H147" s="4"/>
-      <c r="I147" s="4"/>
-      <c r="J147" s="4"/>
-      <c r="K147" s="4"/>
-      <c r="L147" s="4"/>
-      <c r="M147" t="s" s="8">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="148" ht="13.5" customHeight="1">
-      <c r="A148" t="s" s="8">
+    </row>
+    <row r="149" ht="13.5" customHeight="1">
+      <c r="A149" t="s" s="6">
         <v>375</v>
       </c>
-      <c r="B148" t="s" s="8">
-        <v>380</v>
-      </c>
-      <c r="C148" t="s" s="8">
-        <v>385</v>
-      </c>
-      <c r="D148" t="s" s="9">
-        <v>386</v>
-      </c>
-      <c r="E148" t="s" s="8">
+      <c r="B149" t="s" s="6">
+        <v>379</v>
+      </c>
+      <c r="C149" t="s" s="6">
         <v>387</v>
       </c>
-      <c r="F148" t="s" s="8">
-        <v>387</v>
-      </c>
-      <c r="G148" s="4"/>
-      <c r="H148" t="s" s="8">
-        <v>387</v>
-      </c>
-      <c r="I148" s="4"/>
-      <c r="J148" s="4"/>
-      <c r="K148" s="4"/>
-      <c r="L148" s="4"/>
-      <c r="M148" s="8"/>
-    </row>
-    <row r="149" ht="13.5" customHeight="1">
-      <c r="A149" t="s" s="8">
+      <c r="D149" t="s" s="11">
+        <v>388</v>
+      </c>
+      <c r="E149" t="s" s="6">
+        <v>389</v>
+      </c>
+      <c r="F149" t="s" s="6">
+        <v>389</v>
+      </c>
+      <c r="G149" s="5"/>
+      <c r="H149" t="s" s="6">
+        <v>389</v>
+      </c>
+      <c r="I149" s="5"/>
+      <c r="J149" s="5"/>
+      <c r="K149" s="5"/>
+      <c r="L149" s="5"/>
+      <c r="M149" t="s" s="6">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="150" ht="13.5" customHeight="1">
+      <c r="A150" t="s" s="6">
         <v>375</v>
       </c>
-      <c r="B149" t="s" s="8">
-        <v>380</v>
-      </c>
-      <c r="C149" t="s" s="8">
-        <v>388</v>
-      </c>
-      <c r="D149" t="s" s="9">
-        <v>389</v>
-      </c>
-      <c r="E149" t="s" s="8">
+      <c r="B150" t="s" s="6">
+        <v>379</v>
+      </c>
+      <c r="C150" t="s" s="6">
         <v>390</v>
       </c>
-      <c r="F149" t="s" s="8">
-        <v>390</v>
-      </c>
-      <c r="G149" s="4"/>
-      <c r="H149" t="s" s="8">
-        <v>390</v>
-      </c>
-      <c r="I149" s="4"/>
-      <c r="J149" s="4"/>
-      <c r="K149" s="4"/>
-      <c r="L149" s="4"/>
-      <c r="M149" s="8"/>
-    </row>
-    <row r="150" ht="13.5" customHeight="1">
-      <c r="A150" t="s" s="8">
-        <v>375</v>
-      </c>
-      <c r="B150" t="s" s="8">
-        <v>380</v>
-      </c>
-      <c r="C150" t="s" s="8">
-        <v>235</v>
-      </c>
-      <c r="D150" t="s" s="9">
+      <c r="D150" t="s" s="11">
         <v>391</v>
       </c>
-      <c r="E150" t="s" s="8">
+      <c r="E150" t="s" s="6">
         <v>392</v>
       </c>
-      <c r="F150" t="s" s="8">
+      <c r="F150" t="s" s="6">
         <v>392</v>
       </c>
-      <c r="G150" s="4"/>
-      <c r="H150" t="s" s="8">
+      <c r="G150" s="5"/>
+      <c r="H150" t="s" s="6">
         <v>392</v>
       </c>
-      <c r="I150" s="4"/>
-      <c r="J150" s="4"/>
-      <c r="K150" s="4"/>
-      <c r="L150" s="4"/>
-      <c r="M150" t="s" s="8">
-        <v>384</v>
+      <c r="I150" s="5"/>
+      <c r="J150" s="5"/>
+      <c r="K150" s="5"/>
+      <c r="L150" s="5"/>
+      <c r="M150" t="s" s="6">
+        <v>383</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
@@ -9580,10 +9610,10 @@
         <v>542</v>
       </c>
       <c r="B199" s="4"/>
-      <c r="C199" t="s" s="8">
+      <c r="C199" t="s" s="21">
         <v>543</v>
       </c>
-      <c r="D199" t="s" s="9">
+      <c r="D199" t="s" s="22">
         <v>544</v>
       </c>
       <c r="E199" s="4"/>
@@ -9623,21 +9653,21 @@
     </row>
     <row r="201" ht="13.5" customHeight="1">
       <c r="A201" t="s" s="8">
+        <v>542</v>
+      </c>
+      <c r="B201" s="4"/>
+      <c r="C201" t="s" s="8">
         <v>549</v>
       </c>
-      <c r="B201" s="5"/>
-      <c r="C201" t="s" s="6">
+      <c r="D201" t="s" s="9">
         <v>550</v>
       </c>
-      <c r="D201" t="s" s="11">
-        <v>551</v>
-      </c>
-      <c r="E201" s="5"/>
+      <c r="E201" s="4"/>
       <c r="F201" s="5"/>
       <c r="G201" s="5"/>
-      <c r="H201" s="5"/>
+      <c r="H201" s="4"/>
       <c r="I201" t="s" s="6">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="J201" s="5"/>
       <c r="K201" s="5"/>
@@ -9646,7 +9676,7 @@
     </row>
     <row r="202" ht="13.5" customHeight="1">
       <c r="A202" t="s" s="8">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="B202" s="5"/>
       <c r="C202" t="s" s="6">
@@ -9668,15 +9698,23 @@
       <c r="M202" s="6"/>
     </row>
     <row r="203" ht="13.5" customHeight="1">
-      <c r="A203" s="5"/>
+      <c r="A203" t="s" s="8">
+        <v>552</v>
+      </c>
       <c r="B203" s="5"/>
-      <c r="C203" s="5"/>
-      <c r="D203" s="5"/>
+      <c r="C203" t="s" s="6">
+        <v>556</v>
+      </c>
+      <c r="D203" t="s" s="11">
+        <v>557</v>
+      </c>
       <c r="E203" s="5"/>
       <c r="F203" s="5"/>
       <c r="G203" s="5"/>
       <c r="H203" s="5"/>
-      <c r="I203" s="5"/>
+      <c r="I203" t="s" s="6">
+        <v>558</v>
+      </c>
       <c r="J203" s="5"/>
       <c r="K203" s="5"/>
       <c r="L203" s="5"/>
@@ -12666,6 +12704,21 @@
       <c r="K402" s="5"/>
       <c r="L402" s="5"/>
       <c r="M402" s="6"/>
+    </row>
+    <row r="403" ht="13.5" customHeight="1">
+      <c r="A403" s="5"/>
+      <c r="B403" s="5"/>
+      <c r="C403" s="5"/>
+      <c r="D403" s="5"/>
+      <c r="E403" s="5"/>
+      <c r="F403" s="5"/>
+      <c r="G403" s="5"/>
+      <c r="H403" s="5"/>
+      <c r="I403" s="5"/>
+      <c r="J403" s="5"/>
+      <c r="K403" s="5"/>
+      <c r="L403" s="5"/>
+      <c r="M403" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -12866,10 +12919,11 @@
     <hyperlink ref="D196" r:id="rId195" location="" tooltip="" display="https://yaizu-smartcity.jp/tiles/%E3%82%B9%E3%83%9D%E3%83%BC%E3%83%84%E6%96%BD%E8%A8%AD/tiles.json"/>
     <hyperlink ref="D197" r:id="rId196" location="" tooltip="" display="https://yaizu-smartcity.jp/tiles/%E6%96%87%E5%8C%96%E8%B2%A1%E3%83%9E%E3%83%83%E3%83%97/tiles.json"/>
     <hyperlink ref="D198" r:id="rId197" location="" tooltip="" display="https://yaizu-smartcity.jp/tiles/%E5%9F%8B%E8%94%B5%E6%96%87%E5%8C%96%E8%B2%A1/tiles.json"/>
-    <hyperlink ref="D199" r:id="rId198" location="" tooltip="" display="https://yaizu-smartcity.jp/tiles/%E7%A6%8F%E7%A5%89%E4%BC%9A%E9%A4%A8/tiles.json"/>
-    <hyperlink ref="D200" r:id="rId199" location="" tooltip="" display="https://yaizu-smartcity.jp/tiles/AED%E8%A8%AD%E7%BD%AE%E7%AE%87%E6%89%80%E4%B8%80%E8%A6%A7/tiles.json"/>
-    <hyperlink ref="D201" r:id="rId200" location="" tooltip="" display="https://yaizu-smartcity.jp/tiles/%E5%B8%82%E5%BD%B9%E6%89%80%E3%83%BB%E3%82%BB%E3%83%B3%E3%82%BF%E3%83%BC/tiles.json"/>
-    <hyperlink ref="D202" r:id="rId201" location="" tooltip="" display="https://yaizu-smartcity.jp/tiles/%E5%85%AC%E8%A1%86%E7%84%A1%E7%B7%9ALAN%E4%B8%80%E8%A6%A7/tiles.json"/>
+    <hyperlink ref="D199" r:id="rId198" location="" tooltip="" display="https://yaizu-smartcity.jp/tiles/%E3%81%BE%E3%81%A1%E3%81%AA%E3%81%8B%E6%B6%BC%E3%81%BF%E3%81%A9%E3%81%93%E3%82%8D/tiles.json"/>
+    <hyperlink ref="D200" r:id="rId199" location="" tooltip="" display="https://yaizu-smartcity.jp/tiles/%E7%A6%8F%E7%A5%89%E4%BC%9A%E9%A4%A8/tiles.json"/>
+    <hyperlink ref="D201" r:id="rId200" location="" tooltip="" display="https://yaizu-smartcity.jp/tiles/AED%E8%A8%AD%E7%BD%AE%E7%AE%87%E6%89%80%E4%B8%80%E8%A6%A7/tiles.json"/>
+    <hyperlink ref="D202" r:id="rId201" location="" tooltip="" display="https://yaizu-smartcity.jp/tiles/%E5%B8%82%E5%BD%B9%E6%89%80%E3%83%BB%E3%82%BB%E3%83%B3%E3%82%BF%E3%83%BC/tiles.json"/>
+    <hyperlink ref="D203" r:id="rId202" location="" tooltip="" display="https://yaizu-smartcity.jp/tiles/%E5%85%AC%E8%A1%86%E7%84%A1%E7%B7%9ALAN%E4%B8%80%E8%A6%A7/tiles.json"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>

--- a/メニュー/メニュー.xlsx
+++ b/メニュー/メニュー.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dx-user\Desktop\Github用\LINEクーポン\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DFB0B4F-22DC-4E00-81E7-E3314BFEB359}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A973713D-D849-4BF1-B32E-761C1A36D61B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3804,8 +3804,8 @@
   <dimension ref="A1:Z1001"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C88" sqref="C88"/>
+      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E99" sqref="E99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>

--- a/メニュー/メニュー.xlsx
+++ b/メニュー/メニュー.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dx-user\Desktop\Github用\LINEクーポン\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A973713D-D849-4BF1-B32E-761C1A36D61B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{202ECD62-762A-4540-A5A2-351662E7DED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2856" yWindow="2856" windowWidth="17280" windowHeight="9048" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="メニュー構造" sheetId="1" r:id="rId1"/>
@@ -3803,9 +3803,9 @@
   </sheetPr>
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E99" sqref="E99"/>
+      <selection pane="bottomLeft" activeCell="D94" sqref="D94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -18018,7 +18018,7 @@
     <hyperlink ref="D202" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
     <hyperlink ref="D203" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
     <hyperlink ref="D204" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
-    <hyperlink ref="D93" r:id="rId198" xr:uid="{68ABEF0F-F890-4D7D-825F-84CD553E502C}"/>
+    <hyperlink ref="D93" r:id="rId198" xr:uid="{034F19D9-44B1-4863-B854-984F3778DEC2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>

--- a/メニュー/メニュー.xlsx
+++ b/メニュー/メニュー.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dx-user\Desktop\Github用\LINEクーポン\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dx-user\Desktop\Github用\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{202ECD62-762A-4540-A5A2-351662E7DED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C876E571-4E7D-4329-AE70-7F4F880FCFC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2856" yWindow="2856" windowWidth="17280" windowHeight="9048" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="メニュー構造" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1044" uniqueCount="569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="566">
   <si>
     <t>大カテゴリー</t>
   </si>
@@ -3295,31 +3295,13 @@
   </si>
   <si>
     <t>wifi-access-point</t>
-  </si>
-  <si>
-    <t>デジタルクーポン対象店舗</t>
-    <rPh sb="8" eb="10">
-      <t>タイショウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>テンポ</t>
-    </rPh>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
-    <t>shopping</t>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
-    <t>https://yaizu-smartcity.jp/tiles/%E7%84%BC%E6%B4%A5%E5%B8%82%E3%83%87%E3%82%B8%E3%82%BF%E3%83%AB%E3%82%AF%E3%83%BC%E3%83%9D%E3%83%B3%E5%AF%BE%E8%B1%A1%E5%BA%97%E8%88%97/tiles.json</t>
-    <phoneticPr fontId="14"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17">
+  <fonts count="14">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -3397,31 +3379,11 @@
       <name val="Arial"/>
     </font>
     <font>
-      <u/>
-      <sz val="10"/>
-      <color theme="10"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="6"/>
       <name val="Arial"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -3519,11 +3481,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3573,18 +3534,8 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="11" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="12" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="15" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3801,11 +3752,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Z1001"/>
+  <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D94" sqref="D94"/>
+      <selection pane="bottomLeft" activeCell="A93" sqref="A93:XFD93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -7331,19 +7282,19 @@
       <c r="A93" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="B93" s="6"/>
-      <c r="C93" s="23" t="s">
-        <v>566</v>
-      </c>
-      <c r="D93" s="25" t="s">
-        <v>568</v>
-      </c>
-      <c r="E93" s="8"/>
-      <c r="F93" s="5"/>
-      <c r="G93" s="5"/>
-      <c r="H93" s="8"/>
-      <c r="I93" s="24" t="s">
-        <v>567</v>
+      <c r="B93" s="5"/>
+      <c r="C93" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="D93" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="E93" s="4"/>
+      <c r="F93" s="16"/>
+      <c r="G93" s="16"/>
+      <c r="H93" s="4"/>
+      <c r="I93" s="6" t="s">
+        <v>214</v>
       </c>
       <c r="J93" s="5"/>
       <c r="K93" s="5"/>
@@ -7367,19 +7318,21 @@
       <c r="A94" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="B94" s="5"/>
-      <c r="C94" s="6" t="s">
-        <v>212</v>
+      <c r="B94" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="C94" s="8" t="s">
+        <v>216</v>
       </c>
       <c r="D94" s="9" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="E94" s="4"/>
       <c r="F94" s="16"/>
       <c r="G94" s="16"/>
       <c r="H94" s="4"/>
       <c r="I94" s="6" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="J94" s="5"/>
       <c r="K94" s="5"/>
@@ -7407,17 +7360,17 @@
         <v>215</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="D95" s="9" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="E95" s="4"/>
-      <c r="F95" s="16"/>
+      <c r="F95" s="5"/>
       <c r="G95" s="16"/>
       <c r="H95" s="4"/>
       <c r="I95" s="6" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="J95" s="5"/>
       <c r="K95" s="5"/>
@@ -7441,21 +7394,19 @@
       <c r="A96" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="B96" s="6" t="s">
-        <v>215</v>
-      </c>
+      <c r="B96" s="4"/>
       <c r="C96" s="8" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="D96" s="9" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="E96" s="4"/>
-      <c r="F96" s="5"/>
+      <c r="F96" s="16"/>
       <c r="G96" s="16"/>
       <c r="H96" s="4"/>
       <c r="I96" s="6" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="J96" s="5"/>
       <c r="K96" s="5"/>
@@ -7481,17 +7432,17 @@
       </c>
       <c r="B97" s="4"/>
       <c r="C97" s="8" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D97" s="9" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="E97" s="4"/>
       <c r="F97" s="16"/>
       <c r="G97" s="16"/>
       <c r="H97" s="4"/>
       <c r="I97" s="6" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="J97" s="5"/>
       <c r="K97" s="5"/>
@@ -7517,17 +7468,17 @@
       </c>
       <c r="B98" s="4"/>
       <c r="C98" s="8" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D98" s="9" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="E98" s="4"/>
       <c r="F98" s="16"/>
       <c r="G98" s="16"/>
       <c r="H98" s="4"/>
       <c r="I98" s="6" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="J98" s="5"/>
       <c r="K98" s="5"/>
@@ -7551,19 +7502,21 @@
       <c r="A99" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="B99" s="4"/>
+      <c r="B99" s="6" t="s">
+        <v>231</v>
+      </c>
       <c r="C99" s="8" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="D99" s="9" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="E99" s="4"/>
       <c r="F99" s="16"/>
       <c r="G99" s="16"/>
       <c r="H99" s="4"/>
-      <c r="I99" s="6" t="s">
-        <v>230</v>
+      <c r="I99" s="8" t="s">
+        <v>234</v>
       </c>
       <c r="J99" s="5"/>
       <c r="K99" s="5"/>
@@ -7583,7 +7536,7 @@
       <c r="Y99" s="3"/>
       <c r="Z99" s="3"/>
     </row>
-    <row r="100" spans="1:26" ht="13.5" customHeight="1">
+    <row r="100" spans="1:26" ht="15" customHeight="1">
       <c r="A100" s="8" t="s">
         <v>211</v>
       </c>
@@ -7591,18 +7544,18 @@
         <v>231</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D100" s="9" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="E100" s="4"/>
-      <c r="F100" s="16"/>
-      <c r="G100" s="16"/>
-      <c r="H100" s="4"/>
-      <c r="I100" s="8" t="s">
-        <v>234</v>
-      </c>
+      <c r="F100" s="5"/>
+      <c r="G100" s="5"/>
+      <c r="H100" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="I100" s="5"/>
       <c r="J100" s="5"/>
       <c r="K100" s="5"/>
       <c r="L100" s="5"/>
@@ -7621,26 +7574,24 @@
       <c r="Y100" s="3"/>
       <c r="Z100" s="3"/>
     </row>
-    <row r="101" spans="1:26" ht="15" customHeight="1">
+    <row r="101" spans="1:26" ht="13.5" customHeight="1">
       <c r="A101" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="B101" s="6" t="s">
-        <v>231</v>
-      </c>
+      <c r="B101" s="5"/>
       <c r="C101" s="8" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="D101" s="9" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="E101" s="4"/>
-      <c r="F101" s="5"/>
-      <c r="G101" s="5"/>
-      <c r="H101" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="I101" s="5"/>
+      <c r="F101" s="16"/>
+      <c r="G101" s="16"/>
+      <c r="H101" s="4"/>
+      <c r="I101" s="6" t="s">
+        <v>240</v>
+      </c>
       <c r="J101" s="5"/>
       <c r="K101" s="5"/>
       <c r="L101" s="5"/>
@@ -7665,18 +7616,18 @@
       </c>
       <c r="B102" s="5"/>
       <c r="C102" s="8" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="D102" s="9" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="E102" s="4"/>
-      <c r="F102" s="16"/>
-      <c r="G102" s="16"/>
-      <c r="H102" s="4"/>
-      <c r="I102" s="6" t="s">
-        <v>240</v>
-      </c>
+      <c r="F102" s="5"/>
+      <c r="G102" s="5"/>
+      <c r="H102" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="I102" s="5"/>
       <c r="J102" s="5"/>
       <c r="K102" s="5"/>
       <c r="L102" s="5"/>
@@ -7695,23 +7646,25 @@
       <c r="Y102" s="3"/>
       <c r="Z102" s="3"/>
     </row>
-    <row r="103" spans="1:26" ht="13.5" customHeight="1">
+    <row r="103" spans="1:26" ht="12.75" customHeight="1">
       <c r="A103" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="B103" s="5"/>
+      <c r="B103" s="8" t="s">
+        <v>244</v>
+      </c>
       <c r="C103" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="D103" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="E103" s="4"/>
-      <c r="F103" s="5"/>
+        <v>245</v>
+      </c>
+      <c r="D103" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="E103" s="5"/>
+      <c r="F103" s="6" t="s">
+        <v>247</v>
+      </c>
       <c r="G103" s="5"/>
-      <c r="H103" s="4" t="s">
-        <v>243</v>
-      </c>
+      <c r="H103" s="5"/>
       <c r="I103" s="5"/>
       <c r="J103" s="5"/>
       <c r="K103" s="5"/>
@@ -7739,14 +7692,14 @@
         <v>244</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="D104" s="11" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="E104" s="5"/>
       <c r="F104" s="6" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="G104" s="5"/>
       <c r="H104" s="5"/>
@@ -7777,14 +7730,14 @@
         <v>244</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="D105" s="11" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="E105" s="5"/>
       <c r="F105" s="6" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="G105" s="5"/>
       <c r="H105" s="5"/>
@@ -7815,14 +7768,14 @@
         <v>244</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="D106" s="11" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="E106" s="5"/>
       <c r="F106" s="6" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="G106" s="5"/>
       <c r="H106" s="5"/>
@@ -7853,14 +7806,14 @@
         <v>244</v>
       </c>
       <c r="C107" s="8" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="D107" s="11" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="E107" s="5"/>
       <c r="F107" s="6" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="G107" s="5"/>
       <c r="H107" s="5"/>
@@ -7891,14 +7844,14 @@
         <v>244</v>
       </c>
       <c r="C108" s="8" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="D108" s="11" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="E108" s="5"/>
       <c r="F108" s="6" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="G108" s="5"/>
       <c r="H108" s="5"/>
@@ -7929,14 +7882,14 @@
         <v>244</v>
       </c>
       <c r="C109" s="8" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="D109" s="11" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E109" s="5"/>
       <c r="F109" s="6" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="G109" s="5"/>
       <c r="H109" s="5"/>
@@ -7959,7 +7912,7 @@
       <c r="Y109" s="3"/>
       <c r="Z109" s="3"/>
     </row>
-    <row r="110" spans="1:26" ht="12.75" customHeight="1">
+    <row r="110" spans="1:26" ht="13.5" customHeight="1">
       <c r="A110" s="8" t="s">
         <v>211</v>
       </c>
@@ -7967,19 +7920,19 @@
         <v>244</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="D110" s="11" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="E110" s="5"/>
-      <c r="F110" s="6" t="s">
-        <v>265</v>
-      </c>
+      <c r="F110" s="5"/>
       <c r="G110" s="5"/>
       <c r="H110" s="5"/>
-      <c r="I110" s="5"/>
-      <c r="J110" s="5"/>
+      <c r="I110" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="J110" s="16"/>
       <c r="K110" s="5"/>
       <c r="L110" s="5"/>
       <c r="M110" s="6"/>
@@ -8005,17 +7958,17 @@
         <v>244</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="D111" s="11" t="s">
-        <v>267</v>
+        <v>269</v>
+      </c>
+      <c r="D111" s="13" t="s">
+        <v>270</v>
       </c>
       <c r="E111" s="5"/>
       <c r="F111" s="5"/>
       <c r="G111" s="5"/>
       <c r="H111" s="5"/>
       <c r="I111" s="6" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="J111" s="16"/>
       <c r="K111" s="5"/>
@@ -8042,20 +7995,22 @@
       <c r="B112" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="C112" s="8" t="s">
-        <v>269</v>
+      <c r="C112" s="6" t="s">
+        <v>272</v>
       </c>
       <c r="D112" s="13" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="E112" s="5"/>
-      <c r="F112" s="5"/>
+      <c r="F112" s="17" t="s">
+        <v>274</v>
+      </c>
       <c r="G112" s="5"/>
-      <c r="H112" s="5"/>
-      <c r="I112" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="J112" s="16"/>
+      <c r="H112" s="17" t="s">
+        <v>275</v>
+      </c>
+      <c r="I112" s="5"/>
+      <c r="J112" s="5"/>
       <c r="K112" s="5"/>
       <c r="L112" s="5"/>
       <c r="M112" s="6"/>
@@ -8074,26 +8029,20 @@
       <c r="Z112" s="3"/>
     </row>
     <row r="113" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A113" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="B113" s="8" t="s">
-        <v>244</v>
-      </c>
+      <c r="A113" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="B113" s="5"/>
       <c r="C113" s="6" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="D113" s="13" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="E113" s="5"/>
-      <c r="F113" s="17" t="s">
-        <v>274</v>
-      </c>
+      <c r="F113" s="5"/>
       <c r="G113" s="5"/>
-      <c r="H113" s="17" t="s">
-        <v>275</v>
-      </c>
+      <c r="H113" s="5"/>
       <c r="I113" s="5"/>
       <c r="J113" s="5"/>
       <c r="K113" s="5"/>
@@ -8114,20 +8063,24 @@
       <c r="Z113" s="3"/>
     </row>
     <row r="114" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A114" s="6" t="s">
+      <c r="A114" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="B114" s="5"/>
+      <c r="B114" s="6" t="s">
+        <v>279</v>
+      </c>
       <c r="C114" s="6" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="D114" s="13" t="s">
-        <v>278</v>
-      </c>
-      <c r="E114" s="5"/>
+        <v>281</v>
+      </c>
+      <c r="E114" s="8" t="s">
+        <v>282</v>
+      </c>
       <c r="F114" s="5"/>
       <c r="G114" s="5"/>
-      <c r="H114" s="5"/>
+      <c r="H114" s="4"/>
       <c r="I114" s="5"/>
       <c r="J114" s="5"/>
       <c r="K114" s="5"/>
@@ -8155,13 +8108,13 @@
         <v>279</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="D115" s="13" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="E115" s="8" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="F115" s="5"/>
       <c r="G115" s="5"/>
@@ -8193,13 +8146,13 @@
         <v>279</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="D116" s="13" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="E116" s="8" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="F116" s="5"/>
       <c r="G116" s="5"/>
@@ -8231,13 +8184,13 @@
         <v>279</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="D117" s="13" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="E117" s="8" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="F117" s="5"/>
       <c r="G117" s="5"/>
@@ -8269,17 +8222,17 @@
         <v>279</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="D118" s="13" t="s">
-        <v>290</v>
-      </c>
-      <c r="E118" s="8" t="s">
-        <v>291</v>
+        <v>293</v>
+      </c>
+      <c r="E118" s="6" t="s">
+        <v>294</v>
       </c>
       <c r="F118" s="5"/>
       <c r="G118" s="5"/>
-      <c r="H118" s="4"/>
+      <c r="H118" s="5"/>
       <c r="I118" s="5"/>
       <c r="J118" s="5"/>
       <c r="K118" s="5"/>
@@ -8307,17 +8260,17 @@
         <v>279</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="D119" s="13" t="s">
-        <v>293</v>
-      </c>
-      <c r="E119" s="6" t="s">
-        <v>294</v>
+        <v>296</v>
+      </c>
+      <c r="E119" s="8" t="s">
+        <v>297</v>
       </c>
       <c r="F119" s="5"/>
       <c r="G119" s="5"/>
-      <c r="H119" s="5"/>
+      <c r="H119" s="4"/>
       <c r="I119" s="5"/>
       <c r="J119" s="5"/>
       <c r="K119" s="5"/>
@@ -8345,13 +8298,13 @@
         <v>279</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="D120" s="13" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="E120" s="8" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="F120" s="5"/>
       <c r="G120" s="5"/>
@@ -8383,13 +8336,13 @@
         <v>279</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="D121" s="13" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="E121" s="8" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="F121" s="5"/>
       <c r="G121" s="5"/>
@@ -8421,17 +8374,17 @@
         <v>279</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="D122" s="13" t="s">
-        <v>302</v>
-      </c>
-      <c r="E122" s="8" t="s">
-        <v>303</v>
+        <v>305</v>
+      </c>
+      <c r="E122" s="6" t="s">
+        <v>306</v>
       </c>
       <c r="F122" s="5"/>
       <c r="G122" s="5"/>
-      <c r="H122" s="4"/>
+      <c r="H122" s="5"/>
       <c r="I122" s="5"/>
       <c r="J122" s="5"/>
       <c r="K122" s="5"/>
@@ -8459,10 +8412,10 @@
         <v>279</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="D123" s="13" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="E123" s="6" t="s">
         <v>306</v>
@@ -8497,13 +8450,13 @@
         <v>279</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D124" s="13" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="E124" s="6" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="F124" s="5"/>
       <c r="G124" s="5"/>
@@ -8535,13 +8488,13 @@
         <v>279</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="D125" s="13" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="E125" s="6" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="F125" s="5"/>
       <c r="G125" s="5"/>
@@ -8570,18 +8523,20 @@
         <v>276</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>279</v>
+        <v>314</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="D126" s="13" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="E126" s="6" t="s">
-        <v>303</v>
-      </c>
-      <c r="F126" s="5"/>
+        <v>317</v>
+      </c>
+      <c r="F126" s="6" t="s">
+        <v>318</v>
+      </c>
       <c r="G126" s="5"/>
       <c r="H126" s="5"/>
       <c r="I126" s="5"/>
@@ -8611,13 +8566,13 @@
         <v>314</v>
       </c>
       <c r="C127" s="6" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="D127" s="13" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="E127" s="6" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="F127" s="6" t="s">
         <v>318</v>
@@ -8651,13 +8606,13 @@
         <v>314</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="D128" s="13" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="E128" s="6" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="F128" s="6" t="s">
         <v>318</v>
@@ -8691,13 +8646,13 @@
         <v>314</v>
       </c>
       <c r="C129" s="6" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="D129" s="13" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="E129" s="6" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="F129" s="6" t="s">
         <v>318</v>
@@ -8731,13 +8686,13 @@
         <v>314</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="D130" s="13" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="E130" s="6" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="F130" s="6" t="s">
         <v>318</v>
@@ -8771,13 +8726,13 @@
         <v>314</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="D131" s="13" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="E131" s="6" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="F131" s="6" t="s">
         <v>318</v>
@@ -8811,16 +8766,16 @@
         <v>314</v>
       </c>
       <c r="C132" s="6" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="D132" s="13" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="E132" s="6" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="F132" s="6" t="s">
-        <v>318</v>
+        <v>337</v>
       </c>
       <c r="G132" s="5"/>
       <c r="H132" s="5"/>
@@ -8851,19 +8806,19 @@
         <v>314</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="D133" s="13" t="s">
-        <v>335</v>
-      </c>
-      <c r="E133" s="6" t="s">
-        <v>336</v>
+        <v>339</v>
+      </c>
+      <c r="E133" s="8" t="s">
+        <v>340</v>
       </c>
       <c r="F133" s="6" t="s">
         <v>337</v>
       </c>
       <c r="G133" s="5"/>
-      <c r="H133" s="5"/>
+      <c r="H133" s="4"/>
       <c r="I133" s="5"/>
       <c r="J133" s="5"/>
       <c r="K133" s="5"/>
@@ -8891,19 +8846,19 @@
         <v>314</v>
       </c>
       <c r="C134" s="6" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="D134" s="13" t="s">
-        <v>339</v>
-      </c>
-      <c r="E134" s="8" t="s">
-        <v>340</v>
+        <v>342</v>
+      </c>
+      <c r="E134" s="6" t="s">
+        <v>343</v>
       </c>
       <c r="F134" s="6" t="s">
         <v>337</v>
       </c>
       <c r="G134" s="5"/>
-      <c r="H134" s="4"/>
+      <c r="H134" s="5"/>
       <c r="I134" s="5"/>
       <c r="J134" s="5"/>
       <c r="K134" s="5"/>
@@ -8931,13 +8886,13 @@
         <v>314</v>
       </c>
       <c r="C135" s="6" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="D135" s="13" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="E135" s="6" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="F135" s="6" t="s">
         <v>337</v>
@@ -8971,13 +8926,13 @@
         <v>314</v>
       </c>
       <c r="C136" s="6" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="D136" s="13" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="E136" s="6" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="F136" s="6" t="s">
         <v>337</v>
@@ -9007,17 +8962,17 @@
       <c r="A137" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="B137" s="6" t="s">
+      <c r="B137" s="8" t="s">
         <v>314</v>
       </c>
-      <c r="C137" s="6" t="s">
-        <v>347</v>
+      <c r="C137" s="8" t="s">
+        <v>350</v>
       </c>
       <c r="D137" s="13" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="E137" s="6" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F137" s="6" t="s">
         <v>337</v>
@@ -9025,7 +8980,9 @@
       <c r="G137" s="5"/>
       <c r="H137" s="5"/>
       <c r="I137" s="5"/>
-      <c r="J137" s="5"/>
+      <c r="J137" s="6" t="s">
+        <v>350</v>
+      </c>
       <c r="K137" s="5"/>
       <c r="L137" s="5"/>
       <c r="M137" s="6"/>
@@ -9044,30 +9001,28 @@
       <c r="Z137" s="3"/>
     </row>
     <row r="138" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A138" s="8" t="s">
+      <c r="A138" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="B138" s="8" t="s">
-        <v>314</v>
-      </c>
-      <c r="C138" s="8" t="s">
-        <v>350</v>
+      <c r="B138" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="C138" s="6" t="s">
+        <v>354</v>
       </c>
       <c r="D138" s="13" t="s">
-        <v>351</v>
-      </c>
-      <c r="E138" s="6" t="s">
-        <v>352</v>
-      </c>
-      <c r="F138" s="6" t="s">
-        <v>337</v>
+        <v>355</v>
+      </c>
+      <c r="E138" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="F138" s="5" t="s">
+        <v>356</v>
       </c>
       <c r="G138" s="5"/>
       <c r="H138" s="5"/>
       <c r="I138" s="5"/>
-      <c r="J138" s="6" t="s">
-        <v>350</v>
-      </c>
+      <c r="J138" s="5"/>
       <c r="K138" s="5"/>
       <c r="L138" s="5"/>
       <c r="M138" s="6"/>
@@ -9093,16 +9048,16 @@
         <v>353</v>
       </c>
       <c r="C139" s="6" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D139" s="13" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="E139" s="5" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="F139" s="5" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="G139" s="5"/>
       <c r="H139" s="5"/>
@@ -9126,28 +9081,24 @@
       <c r="Z139" s="3"/>
     </row>
     <row r="140" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A140" s="6" t="s">
+      <c r="A140" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="B140" s="6" t="s">
-        <v>353</v>
-      </c>
+      <c r="B140" s="5"/>
       <c r="C140" s="6" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="D140" s="13" t="s">
-        <v>358</v>
-      </c>
-      <c r="E140" s="5" t="s">
-        <v>359</v>
-      </c>
-      <c r="F140" s="5" t="s">
-        <v>359</v>
-      </c>
-      <c r="G140" s="5"/>
+        <v>361</v>
+      </c>
+      <c r="E140" s="5"/>
+      <c r="F140" s="16"/>
+      <c r="G140" s="16"/>
       <c r="H140" s="5"/>
-      <c r="I140" s="5"/>
-      <c r="J140" s="5"/>
+      <c r="I140" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="J140" s="16"/>
       <c r="K140" s="5"/>
       <c r="L140" s="5"/>
       <c r="M140" s="6"/>
@@ -9171,17 +9122,17 @@
       </c>
       <c r="B141" s="5"/>
       <c r="C141" s="6" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D141" s="13" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="E141" s="5"/>
       <c r="F141" s="16"/>
       <c r="G141" s="16"/>
       <c r="H141" s="5"/>
       <c r="I141" s="17" t="s">
-        <v>271</v>
+        <v>364</v>
       </c>
       <c r="J141" s="16"/>
       <c r="K141" s="5"/>
@@ -9207,19 +9158,21 @@
       </c>
       <c r="B142" s="5"/>
       <c r="C142" s="6" t="s">
-        <v>362</v>
-      </c>
-      <c r="D142" s="13" t="s">
-        <v>363</v>
-      </c>
-      <c r="E142" s="5"/>
-      <c r="F142" s="16"/>
-      <c r="G142" s="16"/>
-      <c r="H142" s="5"/>
-      <c r="I142" s="17" t="s">
-        <v>364</v>
-      </c>
-      <c r="J142" s="16"/>
+        <v>365</v>
+      </c>
+      <c r="D142" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="E142" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="F142" s="5"/>
+      <c r="G142" s="5"/>
+      <c r="H142" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="I142" s="5"/>
+      <c r="J142" s="5"/>
       <c r="K142" s="5"/>
       <c r="L142" s="5"/>
       <c r="M142" s="6"/>
@@ -9238,23 +9191,23 @@
       <c r="Z142" s="3"/>
     </row>
     <row r="143" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A143" s="8" t="s">
-        <v>276</v>
+      <c r="A143" s="6" t="s">
+        <v>368</v>
       </c>
       <c r="B143" s="5"/>
       <c r="C143" s="6" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="D143" s="11" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="E143" s="6" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="F143" s="5"/>
       <c r="G143" s="5"/>
       <c r="H143" s="6" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="I143" s="5"/>
       <c r="J143" s="5"/>
@@ -9281,18 +9234,18 @@
       </c>
       <c r="B144" s="5"/>
       <c r="C144" s="6" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="D144" s="11" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="E144" s="6" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="F144" s="5"/>
       <c r="G144" s="5"/>
       <c r="H144" s="6" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="I144" s="5"/>
       <c r="J144" s="5"/>
@@ -9319,19 +9272,19 @@
       </c>
       <c r="B145" s="5"/>
       <c r="C145" s="6" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="D145" s="11" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="E145" s="6" t="s">
-        <v>374</v>
-      </c>
-      <c r="F145" s="5"/>
+        <v>73</v>
+      </c>
+      <c r="F145" s="6" t="s">
+        <v>377</v>
+      </c>
       <c r="G145" s="5"/>
-      <c r="H145" s="6" t="s">
-        <v>374</v>
-      </c>
+      <c r="H145" s="5"/>
       <c r="I145" s="5"/>
       <c r="J145" s="5"/>
       <c r="K145" s="5"/>
@@ -9353,21 +9306,19 @@
     </row>
     <row r="146" spans="1:26" ht="13.5" customHeight="1">
       <c r="A146" s="6" t="s">
-        <v>368</v>
-      </c>
-      <c r="B146" s="5"/>
+        <v>378</v>
+      </c>
+      <c r="B146" s="6"/>
       <c r="C146" s="6" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="D146" s="11" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="E146" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="F146" s="6" t="s">
-        <v>377</v>
-      </c>
+        <v>381</v>
+      </c>
+      <c r="F146" s="5"/>
       <c r="G146" s="5"/>
       <c r="H146" s="5"/>
       <c r="I146" s="5"/>
@@ -9393,24 +9344,30 @@
       <c r="A147" s="6" t="s">
         <v>378</v>
       </c>
-      <c r="B147" s="6"/>
+      <c r="B147" s="6" t="s">
+        <v>382</v>
+      </c>
       <c r="C147" s="6" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="D147" s="11" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="E147" s="6" t="s">
-        <v>381</v>
-      </c>
-      <c r="F147" s="5"/>
+        <v>385</v>
+      </c>
+      <c r="F147" s="6" t="s">
+        <v>385</v>
+      </c>
       <c r="G147" s="5"/>
       <c r="H147" s="5"/>
       <c r="I147" s="5"/>
       <c r="J147" s="5"/>
       <c r="K147" s="5"/>
       <c r="L147" s="5"/>
-      <c r="M147" s="6"/>
+      <c r="M147" s="6" t="s">
+        <v>386</v>
+      </c>
       <c r="N147" s="3"/>
       <c r="O147" s="3"/>
       <c r="P147" s="3"/>
@@ -9433,19 +9390,21 @@
         <v>382</v>
       </c>
       <c r="C148" s="6" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="D148" s="11" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="E148" s="6" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="F148" s="6" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="G148" s="5"/>
-      <c r="H148" s="5"/>
+      <c r="H148" s="6" t="s">
+        <v>389</v>
+      </c>
       <c r="I148" s="5"/>
       <c r="J148" s="5"/>
       <c r="K148" s="5"/>
@@ -9475,20 +9434,20 @@
         <v>382</v>
       </c>
       <c r="C149" s="6" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="D149" s="11" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="E149" s="6" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="F149" s="6" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="G149" s="5"/>
       <c r="H149" s="6" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="I149" s="5"/>
       <c r="J149" s="5"/>
@@ -9519,20 +9478,20 @@
         <v>382</v>
       </c>
       <c r="C150" s="6" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="D150" s="11" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="E150" s="6" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="F150" s="6" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="G150" s="5"/>
       <c r="H150" s="6" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="I150" s="5"/>
       <c r="J150" s="5"/>
@@ -9555,36 +9514,30 @@
       <c r="Y150" s="3"/>
       <c r="Z150" s="3"/>
     </row>
-    <row r="151" spans="1:26" ht="13.5" customHeight="1">
+    <row r="151" spans="1:26" ht="15" customHeight="1">
       <c r="A151" s="6" t="s">
         <v>378</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>382</v>
+        <v>396</v>
       </c>
       <c r="C151" s="6" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="D151" s="11" t="s">
-        <v>394</v>
-      </c>
-      <c r="E151" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="F151" s="6" t="s">
-        <v>395</v>
-      </c>
+        <v>398</v>
+      </c>
+      <c r="E151" s="5"/>
+      <c r="F151" s="5"/>
       <c r="G151" s="5"/>
-      <c r="H151" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="I151" s="5"/>
+      <c r="H151" s="5"/>
+      <c r="I151" s="6" t="s">
+        <v>399</v>
+      </c>
       <c r="J151" s="5"/>
       <c r="K151" s="5"/>
       <c r="L151" s="5"/>
-      <c r="M151" s="6" t="s">
-        <v>386</v>
-      </c>
+      <c r="M151" s="6"/>
       <c r="N151" s="3"/>
       <c r="O151" s="3"/>
       <c r="P151" s="3"/>
@@ -9599,7 +9552,7 @@
       <c r="Y151" s="3"/>
       <c r="Z151" s="3"/>
     </row>
-    <row r="152" spans="1:26" ht="15" customHeight="1">
+    <row r="152" spans="1:26" ht="13.5" customHeight="1">
       <c r="A152" s="6" t="s">
         <v>378</v>
       </c>
@@ -9607,18 +9560,16 @@
         <v>396</v>
       </c>
       <c r="C152" s="6" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="D152" s="11" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="E152" s="5"/>
       <c r="F152" s="5"/>
       <c r="G152" s="5"/>
       <c r="H152" s="5"/>
-      <c r="I152" s="6" t="s">
-        <v>399</v>
-      </c>
+      <c r="I152" s="5"/>
       <c r="J152" s="5"/>
       <c r="K152" s="5"/>
       <c r="L152" s="5"/>
@@ -9641,20 +9592,22 @@
       <c r="A153" s="6" t="s">
         <v>378</v>
       </c>
-      <c r="B153" s="6" t="s">
-        <v>396</v>
+      <c r="B153" s="8" t="s">
+        <v>402</v>
       </c>
       <c r="C153" s="6" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="D153" s="11" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="E153" s="5"/>
       <c r="F153" s="5"/>
       <c r="G153" s="5"/>
       <c r="H153" s="5"/>
-      <c r="I153" s="5"/>
+      <c r="I153" s="6" t="s">
+        <v>405</v>
+      </c>
       <c r="J153" s="5"/>
       <c r="K153" s="5"/>
       <c r="L153" s="5"/>
@@ -9681,18 +9634,22 @@
         <v>402</v>
       </c>
       <c r="C154" s="6" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="D154" s="11" t="s">
-        <v>404</v>
-      </c>
-      <c r="E154" s="5"/>
-      <c r="F154" s="5"/>
+        <v>407</v>
+      </c>
+      <c r="E154" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="F154" s="6" t="s">
+        <v>408</v>
+      </c>
       <c r="G154" s="5"/>
-      <c r="H154" s="5"/>
-      <c r="I154" s="6" t="s">
-        <v>405</v>
-      </c>
+      <c r="H154" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="I154" s="5"/>
       <c r="J154" s="5"/>
       <c r="K154" s="5"/>
       <c r="L154" s="5"/>
@@ -9719,22 +9676,18 @@
         <v>402</v>
       </c>
       <c r="C155" s="6" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="D155" s="11" t="s">
-        <v>407</v>
-      </c>
-      <c r="E155" s="6" t="s">
-        <v>408</v>
-      </c>
-      <c r="F155" s="6" t="s">
-        <v>408</v>
-      </c>
+        <v>410</v>
+      </c>
+      <c r="E155" s="5"/>
+      <c r="F155" s="5"/>
       <c r="G155" s="5"/>
-      <c r="H155" s="6" t="s">
-        <v>408</v>
-      </c>
-      <c r="I155" s="5"/>
+      <c r="H155" s="5"/>
+      <c r="I155" s="6" t="s">
+        <v>405</v>
+      </c>
       <c r="J155" s="5"/>
       <c r="K155" s="5"/>
       <c r="L155" s="5"/>
@@ -9761,17 +9714,17 @@
         <v>402</v>
       </c>
       <c r="C156" s="6" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="D156" s="11" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="E156" s="5"/>
       <c r="F156" s="5"/>
       <c r="G156" s="5"/>
       <c r="H156" s="5"/>
-      <c r="I156" s="6" t="s">
-        <v>405</v>
+      <c r="I156" s="8" t="s">
+        <v>413</v>
       </c>
       <c r="J156" s="5"/>
       <c r="K156" s="5"/>
@@ -9799,10 +9752,10 @@
         <v>402</v>
       </c>
       <c r="C157" s="6" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="D157" s="11" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="E157" s="5"/>
       <c r="F157" s="5"/>
@@ -9837,17 +9790,17 @@
         <v>402</v>
       </c>
       <c r="C158" s="6" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="D158" s="11" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="E158" s="5"/>
       <c r="F158" s="5"/>
       <c r="G158" s="5"/>
       <c r="H158" s="5"/>
       <c r="I158" s="8" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="J158" s="5"/>
       <c r="K158" s="5"/>
@@ -9875,18 +9828,22 @@
         <v>402</v>
       </c>
       <c r="C159" s="6" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="D159" s="11" t="s">
-        <v>417</v>
-      </c>
-      <c r="E159" s="5"/>
-      <c r="F159" s="5"/>
+        <v>420</v>
+      </c>
+      <c r="E159" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="F159" s="6" t="s">
+        <v>421</v>
+      </c>
       <c r="G159" s="5"/>
-      <c r="H159" s="5"/>
-      <c r="I159" s="8" t="s">
-        <v>418</v>
-      </c>
+      <c r="H159" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="I159" s="5"/>
       <c r="J159" s="5"/>
       <c r="K159" s="5"/>
       <c r="L159" s="5"/>
@@ -9909,24 +9866,22 @@
       <c r="A160" s="6" t="s">
         <v>378</v>
       </c>
-      <c r="B160" s="8" t="s">
-        <v>402</v>
+      <c r="B160" s="6" t="s">
+        <v>422</v>
       </c>
       <c r="C160" s="6" t="s">
-        <v>419</v>
-      </c>
-      <c r="D160" s="11" t="s">
-        <v>420</v>
+        <v>423</v>
+      </c>
+      <c r="D160" s="13" t="s">
+        <v>424</v>
       </c>
       <c r="E160" s="6" t="s">
-        <v>421</v>
-      </c>
-      <c r="F160" s="6" t="s">
-        <v>421</v>
-      </c>
+        <v>425</v>
+      </c>
+      <c r="F160" s="5"/>
       <c r="G160" s="5"/>
       <c r="H160" s="6" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="I160" s="5"/>
       <c r="J160" s="5"/>
@@ -9955,18 +9910,18 @@
         <v>422</v>
       </c>
       <c r="C161" s="6" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="D161" s="13" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="E161" s="6" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="F161" s="5"/>
       <c r="G161" s="5"/>
       <c r="H161" s="6" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="I161" s="5"/>
       <c r="J161" s="5"/>
@@ -9995,18 +9950,18 @@
         <v>422</v>
       </c>
       <c r="C162" s="6" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="D162" s="13" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="E162" s="6" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="F162" s="5"/>
       <c r="G162" s="5"/>
       <c r="H162" s="6" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="I162" s="5"/>
       <c r="J162" s="5"/>
@@ -10035,18 +9990,18 @@
         <v>422</v>
       </c>
       <c r="C163" s="6" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="D163" s="13" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="E163" s="6" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="F163" s="5"/>
       <c r="G163" s="5"/>
       <c r="H163" s="6" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="I163" s="5"/>
       <c r="J163" s="5"/>
@@ -10069,24 +10024,22 @@
     </row>
     <row r="164" spans="1:26" ht="13.5" customHeight="1">
       <c r="A164" s="6" t="s">
-        <v>378</v>
-      </c>
-      <c r="B164" s="6" t="s">
-        <v>422</v>
-      </c>
+        <v>435</v>
+      </c>
+      <c r="B164" s="5"/>
       <c r="C164" s="6" t="s">
-        <v>432</v>
-      </c>
-      <c r="D164" s="13" t="s">
-        <v>433</v>
+        <v>436</v>
+      </c>
+      <c r="D164" s="11" t="s">
+        <v>437</v>
       </c>
       <c r="E164" s="6" t="s">
-        <v>434</v>
+        <v>291</v>
       </c>
       <c r="F164" s="5"/>
       <c r="G164" s="5"/>
       <c r="H164" s="6" t="s">
-        <v>434</v>
+        <v>291</v>
       </c>
       <c r="I164" s="5"/>
       <c r="J164" s="5"/>
@@ -10108,24 +10061,26 @@
       <c r="Z164" s="3"/>
     </row>
     <row r="165" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A165" s="6" t="s">
-        <v>435</v>
-      </c>
-      <c r="B165" s="5"/>
+      <c r="A165" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="B165" s="6" t="s">
+        <v>439</v>
+      </c>
       <c r="C165" s="6" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="D165" s="11" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="E165" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="F165" s="5"/>
+        <v>442</v>
+      </c>
+      <c r="F165" s="6" t="s">
+        <v>294</v>
+      </c>
       <c r="G165" s="5"/>
-      <c r="H165" s="6" t="s">
-        <v>291</v>
-      </c>
+      <c r="H165" s="5"/>
       <c r="I165" s="5"/>
       <c r="J165" s="5"/>
       <c r="K165" s="5"/>
@@ -10153,13 +10108,13 @@
         <v>439</v>
       </c>
       <c r="C166" s="6" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="D166" s="11" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="E166" s="6" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="F166" s="6" t="s">
         <v>294</v>
@@ -10190,22 +10145,22 @@
         <v>438</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="C167" s="6" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="D167" s="11" t="s">
-        <v>444</v>
-      </c>
-      <c r="E167" s="6" t="s">
-        <v>445</v>
-      </c>
+        <v>447</v>
+      </c>
+      <c r="E167" s="5"/>
       <c r="F167" s="6" t="s">
-        <v>294</v>
+        <v>448</v>
       </c>
       <c r="G167" s="5"/>
-      <c r="H167" s="5"/>
+      <c r="H167" s="6" t="s">
+        <v>448</v>
+      </c>
       <c r="I167" s="5"/>
       <c r="J167" s="5"/>
       <c r="K167" s="5"/>
@@ -10230,21 +10185,23 @@
         <v>438</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="C168" s="6" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="D168" s="11" t="s">
-        <v>447</v>
-      </c>
-      <c r="E168" s="5"/>
+        <v>451</v>
+      </c>
+      <c r="E168" s="6" t="s">
+        <v>452</v>
+      </c>
       <c r="F168" s="6" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="G168" s="5"/>
       <c r="H168" s="6" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="I168" s="5"/>
       <c r="J168" s="5"/>
@@ -10273,20 +10230,20 @@
         <v>449</v>
       </c>
       <c r="C169" s="6" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="D169" s="11" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="E169" s="6" t="s">
-        <v>452</v>
+        <v>23</v>
       </c>
       <c r="F169" s="6" t="s">
-        <v>452</v>
+        <v>23</v>
       </c>
       <c r="G169" s="5"/>
       <c r="H169" s="6" t="s">
-        <v>452</v>
+        <v>23</v>
       </c>
       <c r="I169" s="5"/>
       <c r="J169" s="5"/>
@@ -10311,26 +10268,20 @@
       <c r="A170" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="B170" s="6" t="s">
-        <v>449</v>
-      </c>
+      <c r="B170" s="5"/>
       <c r="C170" s="6" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="D170" s="11" t="s">
-        <v>454</v>
-      </c>
-      <c r="E170" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F170" s="6" t="s">
-        <v>23</v>
-      </c>
+        <v>456</v>
+      </c>
+      <c r="E170" s="5"/>
+      <c r="F170" s="5"/>
       <c r="G170" s="5"/>
-      <c r="H170" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="I170" s="5"/>
+      <c r="H170" s="5"/>
+      <c r="I170" s="6" t="s">
+        <v>457</v>
+      </c>
       <c r="J170" s="5"/>
       <c r="K170" s="5"/>
       <c r="L170" s="5"/>
@@ -10351,21 +10302,23 @@
     </row>
     <row r="171" spans="1:26" ht="13.5" customHeight="1">
       <c r="A171" s="8" t="s">
-        <v>438</v>
-      </c>
-      <c r="B171" s="5"/>
-      <c r="C171" s="6" t="s">
-        <v>455</v>
+        <v>458</v>
+      </c>
+      <c r="B171" s="8" t="s">
+        <v>459</v>
+      </c>
+      <c r="C171" s="8" t="s">
+        <v>460</v>
       </c>
       <c r="D171" s="11" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="E171" s="5"/>
       <c r="F171" s="5"/>
       <c r="G171" s="5"/>
       <c r="H171" s="5"/>
-      <c r="I171" s="6" t="s">
-        <v>457</v>
+      <c r="I171" s="8" t="s">
+        <v>462</v>
       </c>
       <c r="J171" s="5"/>
       <c r="K171" s="5"/>
@@ -10393,18 +10346,20 @@
         <v>459</v>
       </c>
       <c r="C172" s="8" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="D172" s="11" t="s">
-        <v>461</v>
-      </c>
-      <c r="E172" s="5"/>
+        <v>464</v>
+      </c>
+      <c r="E172" s="6" t="s">
+        <v>291</v>
+      </c>
       <c r="F172" s="5"/>
       <c r="G172" s="5"/>
-      <c r="H172" s="5"/>
-      <c r="I172" s="8" t="s">
-        <v>462</v>
-      </c>
+      <c r="H172" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="I172" s="5"/>
       <c r="J172" s="5"/>
       <c r="K172" s="5"/>
       <c r="L172" s="5"/>
@@ -10428,23 +10383,21 @@
         <v>458</v>
       </c>
       <c r="B173" s="8" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="C173" s="8" t="s">
-        <v>463</v>
-      </c>
-      <c r="D173" s="11" t="s">
-        <v>464</v>
-      </c>
-      <c r="E173" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="F173" s="5"/>
-      <c r="G173" s="5"/>
-      <c r="H173" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="I173" s="5"/>
+        <v>466</v>
+      </c>
+      <c r="D173" s="18" t="s">
+        <v>467</v>
+      </c>
+      <c r="E173" s="19"/>
+      <c r="F173" s="19"/>
+      <c r="G173" s="19"/>
+      <c r="H173" s="20"/>
+      <c r="I173" s="8" t="s">
+        <v>468</v>
+      </c>
       <c r="J173" s="5"/>
       <c r="K173" s="5"/>
       <c r="L173" s="5"/>
@@ -10471,18 +10424,20 @@
         <v>465</v>
       </c>
       <c r="C174" s="8" t="s">
-        <v>466</v>
-      </c>
-      <c r="D174" s="18" t="s">
-        <v>467</v>
-      </c>
-      <c r="E174" s="19"/>
-      <c r="F174" s="19"/>
-      <c r="G174" s="19"/>
-      <c r="H174" s="20"/>
-      <c r="I174" s="8" t="s">
-        <v>468</v>
-      </c>
+        <v>469</v>
+      </c>
+      <c r="D174" s="11" t="s">
+        <v>470</v>
+      </c>
+      <c r="E174" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="F174" s="5"/>
+      <c r="G174" s="5"/>
+      <c r="H174" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="I174" s="5"/>
       <c r="J174" s="5"/>
       <c r="K174" s="5"/>
       <c r="L174" s="5"/>
@@ -10506,22 +10461,20 @@
         <v>458</v>
       </c>
       <c r="B175" s="8" t="s">
-        <v>465</v>
+        <v>472</v>
       </c>
       <c r="C175" s="8" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="D175" s="11" t="s">
-        <v>470</v>
-      </c>
-      <c r="E175" s="6" t="s">
-        <v>471</v>
-      </c>
-      <c r="F175" s="5"/>
+        <v>474</v>
+      </c>
+      <c r="E175" s="5"/>
+      <c r="F175" s="6" t="s">
+        <v>475</v>
+      </c>
       <c r="G175" s="5"/>
-      <c r="H175" s="6" t="s">
-        <v>471</v>
-      </c>
+      <c r="H175" s="5"/>
       <c r="I175" s="5"/>
       <c r="J175" s="5"/>
       <c r="K175" s="5"/>
@@ -10549,14 +10502,14 @@
         <v>472</v>
       </c>
       <c r="C176" s="8" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="D176" s="11" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="E176" s="5"/>
       <c r="F176" s="6" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="G176" s="5"/>
       <c r="H176" s="5"/>
@@ -10587,14 +10540,14 @@
         <v>472</v>
       </c>
       <c r="C177" s="8" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="D177" s="11" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="E177" s="5"/>
       <c r="F177" s="6" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="G177" s="5"/>
       <c r="H177" s="5"/>
@@ -10625,14 +10578,14 @@
         <v>472</v>
       </c>
       <c r="C178" s="8" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="D178" s="11" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="E178" s="5"/>
       <c r="F178" s="6" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="G178" s="5"/>
       <c r="H178" s="5"/>
@@ -10663,14 +10616,14 @@
         <v>472</v>
       </c>
       <c r="C179" s="8" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="D179" s="11" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="E179" s="5"/>
       <c r="F179" s="6" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="G179" s="5"/>
       <c r="H179" s="5"/>
@@ -10701,14 +10654,14 @@
         <v>472</v>
       </c>
       <c r="C180" s="8" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="D180" s="11" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="E180" s="5"/>
       <c r="F180" s="6" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="G180" s="5"/>
       <c r="H180" s="5"/>
@@ -10739,14 +10692,14 @@
         <v>472</v>
       </c>
       <c r="C181" s="8" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="D181" s="11" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="E181" s="5"/>
       <c r="F181" s="6" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="G181" s="5"/>
       <c r="H181" s="5"/>
@@ -10777,14 +10730,14 @@
         <v>472</v>
       </c>
       <c r="C182" s="8" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="D182" s="11" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="E182" s="5"/>
       <c r="F182" s="6" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="G182" s="5"/>
       <c r="H182" s="5"/>
@@ -10815,14 +10768,14 @@
         <v>472</v>
       </c>
       <c r="C183" s="8" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="D183" s="11" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="E183" s="5"/>
       <c r="F183" s="6" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="G183" s="5"/>
       <c r="H183" s="5"/>
@@ -10853,14 +10806,14 @@
         <v>472</v>
       </c>
       <c r="C184" s="8" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="D184" s="11" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="E184" s="5"/>
       <c r="F184" s="6" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="G184" s="5"/>
       <c r="H184" s="5"/>
@@ -10891,14 +10844,14 @@
         <v>472</v>
       </c>
       <c r="C185" s="8" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="D185" s="11" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="E185" s="5"/>
       <c r="F185" s="6" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="G185" s="5"/>
       <c r="H185" s="5"/>
@@ -10929,14 +10882,14 @@
         <v>472</v>
       </c>
       <c r="C186" s="8" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="D186" s="11" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="E186" s="5"/>
       <c r="F186" s="6" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="G186" s="5"/>
       <c r="H186" s="5"/>
@@ -10967,14 +10920,14 @@
         <v>472</v>
       </c>
       <c r="C187" s="8" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="D187" s="11" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="E187" s="5"/>
       <c r="F187" s="6" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="G187" s="5"/>
       <c r="H187" s="5"/>
@@ -11002,20 +10955,20 @@
         <v>458</v>
       </c>
       <c r="B188" s="8" t="s">
-        <v>472</v>
+        <v>512</v>
       </c>
       <c r="C188" s="8" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="D188" s="11" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="E188" s="5"/>
-      <c r="F188" s="6" t="s">
-        <v>511</v>
-      </c>
+      <c r="F188" s="5"/>
       <c r="G188" s="5"/>
-      <c r="H188" s="5"/>
+      <c r="H188" s="5" t="s">
+        <v>515</v>
+      </c>
       <c r="I188" s="5"/>
       <c r="J188" s="5"/>
       <c r="K188" s="5"/>
@@ -11040,19 +10993,19 @@
         <v>458</v>
       </c>
       <c r="B189" s="8" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="C189" s="8" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="D189" s="11" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="E189" s="5"/>
       <c r="F189" s="5"/>
       <c r="G189" s="5"/>
       <c r="H189" s="5" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="I189" s="5"/>
       <c r="J189" s="5"/>
@@ -11081,16 +11034,16 @@
         <v>516</v>
       </c>
       <c r="C190" s="8" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="D190" s="11" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="E190" s="5"/>
       <c r="F190" s="5"/>
       <c r="G190" s="5"/>
       <c r="H190" s="5" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="I190" s="5"/>
       <c r="J190" s="5"/>
@@ -11119,18 +11072,18 @@
         <v>516</v>
       </c>
       <c r="C191" s="8" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="D191" s="11" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="E191" s="5"/>
       <c r="F191" s="5"/>
       <c r="G191" s="5"/>
-      <c r="H191" s="5" t="s">
-        <v>522</v>
-      </c>
-      <c r="I191" s="5"/>
+      <c r="H191" s="5"/>
+      <c r="I191" s="6" t="s">
+        <v>525</v>
+      </c>
       <c r="J191" s="5"/>
       <c r="K191" s="5"/>
       <c r="L191" s="5"/>
@@ -11151,23 +11104,21 @@
     </row>
     <row r="192" spans="1:26" ht="13.5" customHeight="1">
       <c r="A192" s="8" t="s">
-        <v>458</v>
-      </c>
-      <c r="B192" s="8" t="s">
-        <v>516</v>
-      </c>
+        <v>526</v>
+      </c>
+      <c r="B192" s="5"/>
       <c r="C192" s="8" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="D192" s="11" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="E192" s="5"/>
       <c r="F192" s="5"/>
       <c r="G192" s="5"/>
       <c r="H192" s="5"/>
       <c r="I192" s="6" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="J192" s="5"/>
       <c r="K192" s="5"/>
@@ -11193,18 +11144,20 @@
       </c>
       <c r="B193" s="5"/>
       <c r="C193" s="8" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="D193" s="11" t="s">
-        <v>528</v>
-      </c>
-      <c r="E193" s="5"/>
-      <c r="F193" s="5"/>
+        <v>531</v>
+      </c>
+      <c r="E193" s="5" t="s">
+        <v>532</v>
+      </c>
+      <c r="F193" s="5" t="s">
+        <v>532</v>
+      </c>
       <c r="G193" s="5"/>
       <c r="H193" s="5"/>
-      <c r="I193" s="6" t="s">
-        <v>529</v>
-      </c>
+      <c r="I193" s="5"/>
       <c r="J193" s="5"/>
       <c r="K193" s="5"/>
       <c r="L193" s="5"/>
@@ -11224,25 +11177,23 @@
       <c r="Z193" s="3"/>
     </row>
     <row r="194" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A194" s="8" t="s">
-        <v>526</v>
+      <c r="A194" s="6" t="s">
+        <v>533</v>
       </c>
       <c r="B194" s="5"/>
-      <c r="C194" s="8" t="s">
-        <v>530</v>
+      <c r="C194" s="6" t="s">
+        <v>534</v>
       </c>
       <c r="D194" s="11" t="s">
-        <v>531</v>
-      </c>
-      <c r="E194" s="5" t="s">
-        <v>532</v>
-      </c>
-      <c r="F194" s="5" t="s">
-        <v>532</v>
-      </c>
+        <v>535</v>
+      </c>
+      <c r="E194" s="5"/>
+      <c r="F194" s="5"/>
       <c r="G194" s="5"/>
       <c r="H194" s="5"/>
-      <c r="I194" s="5"/>
+      <c r="I194" s="6" t="s">
+        <v>536</v>
+      </c>
       <c r="J194" s="5"/>
       <c r="K194" s="5"/>
       <c r="L194" s="5"/>
@@ -11266,18 +11217,18 @@
         <v>533</v>
       </c>
       <c r="B195" s="5"/>
-      <c r="C195" s="6" t="s">
-        <v>534</v>
+      <c r="C195" s="8" t="s">
+        <v>537</v>
       </c>
       <c r="D195" s="11" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="E195" s="5"/>
       <c r="F195" s="5"/>
       <c r="G195" s="5"/>
       <c r="H195" s="5"/>
-      <c r="I195" s="6" t="s">
-        <v>536</v>
+      <c r="I195" s="8" t="s">
+        <v>539</v>
       </c>
       <c r="J195" s="5"/>
       <c r="K195" s="5"/>
@@ -11303,17 +11254,17 @@
       </c>
       <c r="B196" s="5"/>
       <c r="C196" s="8" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="D196" s="11" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="E196" s="5"/>
       <c r="F196" s="5"/>
       <c r="G196" s="5"/>
       <c r="H196" s="5"/>
-      <c r="I196" s="8" t="s">
-        <v>539</v>
+      <c r="I196" s="6" t="s">
+        <v>542</v>
       </c>
       <c r="J196" s="5"/>
       <c r="K196" s="5"/>
@@ -11338,18 +11289,18 @@
         <v>533</v>
       </c>
       <c r="B197" s="5"/>
-      <c r="C197" s="8" t="s">
-        <v>540</v>
+      <c r="C197" s="6" t="s">
+        <v>543</v>
       </c>
       <c r="D197" s="11" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="E197" s="5"/>
       <c r="F197" s="5"/>
       <c r="G197" s="5"/>
       <c r="H197" s="5"/>
       <c r="I197" s="6" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="J197" s="5"/>
       <c r="K197" s="5"/>
@@ -11375,18 +11326,18 @@
       </c>
       <c r="B198" s="5"/>
       <c r="C198" s="6" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="D198" s="11" t="s">
-        <v>544</v>
-      </c>
-      <c r="E198" s="5"/>
+        <v>547</v>
+      </c>
+      <c r="E198" s="6" t="s">
+        <v>548</v>
+      </c>
       <c r="F198" s="5"/>
       <c r="G198" s="5"/>
       <c r="H198" s="5"/>
-      <c r="I198" s="6" t="s">
-        <v>545</v>
-      </c>
+      <c r="I198" s="5"/>
       <c r="J198" s="5"/>
       <c r="K198" s="5"/>
       <c r="L198" s="5"/>
@@ -11406,23 +11357,23 @@
       <c r="Z198" s="3"/>
     </row>
     <row r="199" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A199" s="6" t="s">
-        <v>533</v>
-      </c>
-      <c r="B199" s="5"/>
-      <c r="C199" s="6" t="s">
-        <v>546</v>
-      </c>
-      <c r="D199" s="11" t="s">
-        <v>547</v>
-      </c>
-      <c r="E199" s="6" t="s">
-        <v>548</v>
-      </c>
+      <c r="A199" s="8" t="s">
+        <v>549</v>
+      </c>
+      <c r="B199" s="4"/>
+      <c r="C199" s="21" t="s">
+        <v>550</v>
+      </c>
+      <c r="D199" s="22" t="s">
+        <v>551</v>
+      </c>
+      <c r="E199" s="4"/>
       <c r="F199" s="5"/>
       <c r="G199" s="5"/>
-      <c r="H199" s="5"/>
-      <c r="I199" s="5"/>
+      <c r="H199" s="4"/>
+      <c r="I199" s="6" t="s">
+        <v>552</v>
+      </c>
       <c r="J199" s="5"/>
       <c r="K199" s="5"/>
       <c r="L199" s="5"/>
@@ -11446,18 +11397,18 @@
         <v>549</v>
       </c>
       <c r="B200" s="4"/>
-      <c r="C200" s="21" t="s">
-        <v>550</v>
-      </c>
-      <c r="D200" s="22" t="s">
-        <v>551</v>
+      <c r="C200" s="8" t="s">
+        <v>553</v>
+      </c>
+      <c r="D200" s="9" t="s">
+        <v>554</v>
       </c>
       <c r="E200" s="4"/>
       <c r="F200" s="5"/>
       <c r="G200" s="5"/>
       <c r="H200" s="4"/>
       <c r="I200" s="6" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="J200" s="5"/>
       <c r="K200" s="5"/>
@@ -11483,17 +11434,17 @@
       </c>
       <c r="B201" s="4"/>
       <c r="C201" s="8" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="D201" s="9" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="E201" s="4"/>
       <c r="F201" s="5"/>
       <c r="G201" s="5"/>
       <c r="H201" s="4"/>
       <c r="I201" s="6" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="J201" s="5"/>
       <c r="K201" s="5"/>
@@ -11515,21 +11466,21 @@
     </row>
     <row r="202" spans="1:26" ht="13.5" customHeight="1">
       <c r="A202" s="8" t="s">
-        <v>549</v>
-      </c>
-      <c r="B202" s="4"/>
-      <c r="C202" s="8" t="s">
-        <v>556</v>
-      </c>
-      <c r="D202" s="9" t="s">
-        <v>557</v>
-      </c>
-      <c r="E202" s="4"/>
+        <v>559</v>
+      </c>
+      <c r="B202" s="5"/>
+      <c r="C202" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="D202" s="11" t="s">
+        <v>561</v>
+      </c>
+      <c r="E202" s="5"/>
       <c r="F202" s="5"/>
       <c r="G202" s="5"/>
-      <c r="H202" s="4"/>
+      <c r="H202" s="5"/>
       <c r="I202" s="6" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="J202" s="5"/>
       <c r="K202" s="5"/>
@@ -11555,17 +11506,17 @@
       </c>
       <c r="B203" s="5"/>
       <c r="C203" s="6" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="D203" s="11" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="E203" s="5"/>
       <c r="F203" s="5"/>
       <c r="G203" s="5"/>
       <c r="H203" s="5"/>
       <c r="I203" s="6" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="J203" s="5"/>
       <c r="K203" s="5"/>
@@ -11586,23 +11537,15 @@
       <c r="Z203" s="3"/>
     </row>
     <row r="204" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A204" s="8" t="s">
-        <v>559</v>
-      </c>
+      <c r="A204" s="5"/>
       <c r="B204" s="5"/>
-      <c r="C204" s="6" t="s">
-        <v>563</v>
-      </c>
-      <c r="D204" s="11" t="s">
-        <v>564</v>
-      </c>
+      <c r="C204" s="5"/>
+      <c r="D204" s="5"/>
       <c r="E204" s="5"/>
       <c r="F204" s="5"/>
       <c r="G204" s="5"/>
       <c r="H204" s="5"/>
-      <c r="I204" s="6" t="s">
-        <v>565</v>
-      </c>
+      <c r="I204" s="5"/>
       <c r="J204" s="5"/>
       <c r="K204" s="5"/>
       <c r="L204" s="5"/>
@@ -17193,34 +17136,7 @@
       <c r="Y403" s="3"/>
       <c r="Z403" s="3"/>
     </row>
-    <row r="404" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A404" s="5"/>
-      <c r="B404" s="5"/>
-      <c r="C404" s="5"/>
-      <c r="D404" s="5"/>
-      <c r="E404" s="5"/>
-      <c r="F404" s="5"/>
-      <c r="G404" s="5"/>
-      <c r="H404" s="5"/>
-      <c r="I404" s="5"/>
-      <c r="J404" s="5"/>
-      <c r="K404" s="5"/>
-      <c r="L404" s="5"/>
-      <c r="M404" s="6"/>
-      <c r="N404" s="3"/>
-      <c r="O404" s="3"/>
-      <c r="P404" s="3"/>
-      <c r="Q404" s="3"/>
-      <c r="R404" s="3"/>
-      <c r="S404" s="3"/>
-      <c r="T404" s="3"/>
-      <c r="U404" s="3"/>
-      <c r="V404" s="3"/>
-      <c r="W404" s="3"/>
-      <c r="X404" s="3"/>
-      <c r="Y404" s="3"/>
-      <c r="Z404" s="3"/>
-    </row>
+    <row r="404" spans="1:26" ht="15.75" customHeight="1"/>
     <row r="405" spans="1:26" ht="15.75" customHeight="1"/>
     <row r="406" spans="1:26" ht="15.75" customHeight="1"/>
     <row r="407" spans="1:26" ht="15.75" customHeight="1"/>
@@ -17817,9 +17733,8 @@
     <row r="998" ht="15.75" customHeight="1"/>
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
-    <row r="1001" ht="15.75" customHeight="1"/>
   </sheetData>
-  <phoneticPr fontId="14"/>
+  <phoneticPr fontId="13"/>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="D3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
@@ -17912,113 +17827,112 @@
     <hyperlink ref="D90" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
     <hyperlink ref="D91" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
     <hyperlink ref="D92" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="D94" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="D95" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="D96" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="D97" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="D98" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="D99" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="D100" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="D101" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="D102" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="D103" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="D104" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
-    <hyperlink ref="D105" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
-    <hyperlink ref="D106" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="D107" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
-    <hyperlink ref="D108" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="D109" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
-    <hyperlink ref="D110" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
-    <hyperlink ref="D111" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
-    <hyperlink ref="D112" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="D113" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
-    <hyperlink ref="D114" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
-    <hyperlink ref="D115" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
-    <hyperlink ref="D116" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-    <hyperlink ref="D117" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
-    <hyperlink ref="D118" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
-    <hyperlink ref="D119" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
-    <hyperlink ref="D120" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
-    <hyperlink ref="D121" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
-    <hyperlink ref="D122" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
-    <hyperlink ref="D123" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
-    <hyperlink ref="D124" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
-    <hyperlink ref="D125" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
-    <hyperlink ref="D126" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
-    <hyperlink ref="D127" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
-    <hyperlink ref="D128" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
-    <hyperlink ref="D129" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
-    <hyperlink ref="D130" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
-    <hyperlink ref="D131" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
-    <hyperlink ref="D132" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
-    <hyperlink ref="D133" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
-    <hyperlink ref="D134" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
-    <hyperlink ref="D135" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
-    <hyperlink ref="D136" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
-    <hyperlink ref="D137" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
-    <hyperlink ref="D138" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
-    <hyperlink ref="D139" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
-    <hyperlink ref="D140" r:id="rId138" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
-    <hyperlink ref="D141" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
-    <hyperlink ref="D142" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
-    <hyperlink ref="D143" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
-    <hyperlink ref="D144" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
-    <hyperlink ref="D145" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
-    <hyperlink ref="D146" r:id="rId144" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
-    <hyperlink ref="D152" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
-    <hyperlink ref="D153" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
-    <hyperlink ref="D154" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
-    <hyperlink ref="D155" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
-    <hyperlink ref="D156" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
-    <hyperlink ref="D157" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
-    <hyperlink ref="D158" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
-    <hyperlink ref="D159" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
-    <hyperlink ref="D160" r:id="rId153" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
-    <hyperlink ref="D161" r:id="rId154" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
-    <hyperlink ref="D162" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
-    <hyperlink ref="D163" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
-    <hyperlink ref="D164" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
-    <hyperlink ref="D165" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
-    <hyperlink ref="D166" r:id="rId159" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
-    <hyperlink ref="D167" r:id="rId160" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
-    <hyperlink ref="D168" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
-    <hyperlink ref="D169" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
-    <hyperlink ref="D170" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
-    <hyperlink ref="D171" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
-    <hyperlink ref="D172" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
-    <hyperlink ref="D173" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
-    <hyperlink ref="D174" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
-    <hyperlink ref="D175" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
-    <hyperlink ref="D176" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
-    <hyperlink ref="D177" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
-    <hyperlink ref="D178" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
-    <hyperlink ref="D179" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
-    <hyperlink ref="D180" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
-    <hyperlink ref="D181" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
-    <hyperlink ref="D182" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
-    <hyperlink ref="D183" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
-    <hyperlink ref="D184" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
-    <hyperlink ref="D185" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
-    <hyperlink ref="D186" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
-    <hyperlink ref="D187" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
-    <hyperlink ref="D188" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
-    <hyperlink ref="D189" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
-    <hyperlink ref="D190" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
-    <hyperlink ref="D191" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
-    <hyperlink ref="D192" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
-    <hyperlink ref="D193" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
-    <hyperlink ref="D194" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
-    <hyperlink ref="D195" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
-    <hyperlink ref="D196" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
-    <hyperlink ref="D197" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
-    <hyperlink ref="D198" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
-    <hyperlink ref="D199" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
-    <hyperlink ref="D200" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
-    <hyperlink ref="D201" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
-    <hyperlink ref="D202" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
-    <hyperlink ref="D203" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
-    <hyperlink ref="D204" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
-    <hyperlink ref="D93" r:id="rId198" xr:uid="{034F19D9-44B1-4863-B854-984F3778DEC2}"/>
+    <hyperlink ref="D93" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="D94" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="D95" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="D96" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="D97" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="D98" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="D99" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="D100" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="D101" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="D102" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="D103" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="D104" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="D105" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="D106" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="D107" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="D108" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="D109" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="D110" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="D111" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="D112" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="D113" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="D114" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="D115" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="D116" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="D117" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="D118" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="D119" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="D120" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="D121" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="D122" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="D123" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="D124" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="D125" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="D126" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="D127" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="D128" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="D129" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="D130" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="D131" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="D132" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="D133" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="D134" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="D135" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
+    <hyperlink ref="D136" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="D137" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="D138" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="D139" r:id="rId138" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="D140" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="D141" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="D142" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="D143" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="D144" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="D145" r:id="rId144" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="D151" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="D152" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="D153" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="D154" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="D155" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="D156" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="D157" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="D158" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
+    <hyperlink ref="D159" r:id="rId153" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
+    <hyperlink ref="D160" r:id="rId154" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
+    <hyperlink ref="D161" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
+    <hyperlink ref="D162" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
+    <hyperlink ref="D163" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
+    <hyperlink ref="D164" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
+    <hyperlink ref="D165" r:id="rId159" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
+    <hyperlink ref="D166" r:id="rId160" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
+    <hyperlink ref="D167" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
+    <hyperlink ref="D168" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
+    <hyperlink ref="D169" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
+    <hyperlink ref="D170" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
+    <hyperlink ref="D171" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
+    <hyperlink ref="D172" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
+    <hyperlink ref="D173" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
+    <hyperlink ref="D174" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
+    <hyperlink ref="D175" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
+    <hyperlink ref="D176" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
+    <hyperlink ref="D177" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
+    <hyperlink ref="D178" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
+    <hyperlink ref="D179" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
+    <hyperlink ref="D180" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
+    <hyperlink ref="D181" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
+    <hyperlink ref="D182" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
+    <hyperlink ref="D183" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
+    <hyperlink ref="D184" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
+    <hyperlink ref="D185" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
+    <hyperlink ref="D186" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
+    <hyperlink ref="D187" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
+    <hyperlink ref="D188" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
+    <hyperlink ref="D189" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
+    <hyperlink ref="D190" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
+    <hyperlink ref="D191" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
+    <hyperlink ref="D192" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
+    <hyperlink ref="D193" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
+    <hyperlink ref="D194" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
+    <hyperlink ref="D195" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
+    <hyperlink ref="D196" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
+    <hyperlink ref="D197" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
+    <hyperlink ref="D198" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
+    <hyperlink ref="D199" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
+    <hyperlink ref="D200" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
+    <hyperlink ref="D201" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
+    <hyperlink ref="D202" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
+    <hyperlink ref="D203" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>

--- a/メニュー/メニュー.xlsx
+++ b/メニュー/メニュー.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dx-user\Desktop\Github用\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dx-user\Desktop\Github用\LINEクーポン\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C876E571-4E7D-4329-AE70-7F4F880FCFC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{202ECD62-762A-4540-A5A2-351662E7DED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2856" yWindow="2856" windowWidth="17280" windowHeight="9048" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="メニュー構造" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="566">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1044" uniqueCount="569">
   <si>
     <t>大カテゴリー</t>
   </si>
@@ -3295,13 +3295,31 @@
   </si>
   <si>
     <t>wifi-access-point</t>
+  </si>
+  <si>
+    <t>デジタルクーポン対象店舗</t>
+    <rPh sb="8" eb="10">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>テンポ</t>
+    </rPh>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>shopping</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>https://yaizu-smartcity.jp/tiles/%E7%84%BC%E6%B4%A5%E5%B8%82%E3%83%87%E3%82%B8%E3%82%BF%E3%83%AB%E3%82%AF%E3%83%BC%E3%83%9D%E3%83%B3%E5%AF%BE%E8%B1%A1%E5%BA%97%E8%88%97/tiles.json</t>
+    <phoneticPr fontId="14"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="17">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -3379,11 +3397,31 @@
       <name val="Arial"/>
     </font>
     <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="6"/>
       <name val="Arial"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -3481,10 +3519,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3534,8 +3573,18 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="11" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="12" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="15" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3752,11 +3801,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Z1000"/>
+  <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A93" sqref="A93:XFD93"/>
+      <selection pane="bottomLeft" activeCell="D94" sqref="D94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -7282,19 +7331,19 @@
       <c r="A93" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="B93" s="5"/>
-      <c r="C93" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="D93" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="E93" s="4"/>
-      <c r="F93" s="16"/>
-      <c r="G93" s="16"/>
-      <c r="H93" s="4"/>
-      <c r="I93" s="6" t="s">
-        <v>214</v>
+      <c r="B93" s="6"/>
+      <c r="C93" s="23" t="s">
+        <v>566</v>
+      </c>
+      <c r="D93" s="25" t="s">
+        <v>568</v>
+      </c>
+      <c r="E93" s="8"/>
+      <c r="F93" s="5"/>
+      <c r="G93" s="5"/>
+      <c r="H93" s="8"/>
+      <c r="I93" s="24" t="s">
+        <v>567</v>
       </c>
       <c r="J93" s="5"/>
       <c r="K93" s="5"/>
@@ -7318,21 +7367,19 @@
       <c r="A94" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="B94" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="C94" s="8" t="s">
-        <v>216</v>
+      <c r="B94" s="5"/>
+      <c r="C94" s="6" t="s">
+        <v>212</v>
       </c>
       <c r="D94" s="9" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="E94" s="4"/>
       <c r="F94" s="16"/>
       <c r="G94" s="16"/>
       <c r="H94" s="4"/>
       <c r="I94" s="6" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="J94" s="5"/>
       <c r="K94" s="5"/>
@@ -7360,17 +7407,17 @@
         <v>215</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D95" s="9" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E95" s="4"/>
-      <c r="F95" s="5"/>
+      <c r="F95" s="16"/>
       <c r="G95" s="16"/>
       <c r="H95" s="4"/>
       <c r="I95" s="6" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="J95" s="5"/>
       <c r="K95" s="5"/>
@@ -7394,19 +7441,21 @@
       <c r="A96" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="B96" s="4"/>
+      <c r="B96" s="6" t="s">
+        <v>215</v>
+      </c>
       <c r="C96" s="8" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D96" s="9" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E96" s="4"/>
-      <c r="F96" s="16"/>
+      <c r="F96" s="5"/>
       <c r="G96" s="16"/>
       <c r="H96" s="4"/>
       <c r="I96" s="6" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="J96" s="5"/>
       <c r="K96" s="5"/>
@@ -7432,17 +7481,17 @@
       </c>
       <c r="B97" s="4"/>
       <c r="C97" s="8" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D97" s="9" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="E97" s="4"/>
       <c r="F97" s="16"/>
       <c r="G97" s="16"/>
       <c r="H97" s="4"/>
       <c r="I97" s="6" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="J97" s="5"/>
       <c r="K97" s="5"/>
@@ -7468,17 +7517,17 @@
       </c>
       <c r="B98" s="4"/>
       <c r="C98" s="8" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D98" s="9" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E98" s="4"/>
       <c r="F98" s="16"/>
       <c r="G98" s="16"/>
       <c r="H98" s="4"/>
       <c r="I98" s="6" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="J98" s="5"/>
       <c r="K98" s="5"/>
@@ -7502,21 +7551,19 @@
       <c r="A99" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="B99" s="6" t="s">
-        <v>231</v>
-      </c>
+      <c r="B99" s="4"/>
       <c r="C99" s="8" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D99" s="9" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E99" s="4"/>
       <c r="F99" s="16"/>
       <c r="G99" s="16"/>
       <c r="H99" s="4"/>
-      <c r="I99" s="8" t="s">
-        <v>234</v>
+      <c r="I99" s="6" t="s">
+        <v>230</v>
       </c>
       <c r="J99" s="5"/>
       <c r="K99" s="5"/>
@@ -7536,7 +7583,7 @@
       <c r="Y99" s="3"/>
       <c r="Z99" s="3"/>
     </row>
-    <row r="100" spans="1:26" ht="15" customHeight="1">
+    <row r="100" spans="1:26" ht="13.5" customHeight="1">
       <c r="A100" s="8" t="s">
         <v>211</v>
       </c>
@@ -7544,18 +7591,18 @@
         <v>231</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D100" s="9" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E100" s="4"/>
-      <c r="F100" s="5"/>
-      <c r="G100" s="5"/>
-      <c r="H100" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="I100" s="5"/>
+      <c r="F100" s="16"/>
+      <c r="G100" s="16"/>
+      <c r="H100" s="4"/>
+      <c r="I100" s="8" t="s">
+        <v>234</v>
+      </c>
       <c r="J100" s="5"/>
       <c r="K100" s="5"/>
       <c r="L100" s="5"/>
@@ -7574,24 +7621,26 @@
       <c r="Y100" s="3"/>
       <c r="Z100" s="3"/>
     </row>
-    <row r="101" spans="1:26" ht="13.5" customHeight="1">
+    <row r="101" spans="1:26" ht="15" customHeight="1">
       <c r="A101" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="B101" s="5"/>
+      <c r="B101" s="6" t="s">
+        <v>231</v>
+      </c>
       <c r="C101" s="8" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D101" s="9" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E101" s="4"/>
-      <c r="F101" s="16"/>
-      <c r="G101" s="16"/>
-      <c r="H101" s="4"/>
-      <c r="I101" s="6" t="s">
-        <v>240</v>
-      </c>
+      <c r="F101" s="5"/>
+      <c r="G101" s="5"/>
+      <c r="H101" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="I101" s="5"/>
       <c r="J101" s="5"/>
       <c r="K101" s="5"/>
       <c r="L101" s="5"/>
@@ -7616,18 +7665,18 @@
       </c>
       <c r="B102" s="5"/>
       <c r="C102" s="8" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D102" s="9" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E102" s="4"/>
-      <c r="F102" s="5"/>
-      <c r="G102" s="5"/>
-      <c r="H102" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="I102" s="5"/>
+      <c r="F102" s="16"/>
+      <c r="G102" s="16"/>
+      <c r="H102" s="4"/>
+      <c r="I102" s="6" t="s">
+        <v>240</v>
+      </c>
       <c r="J102" s="5"/>
       <c r="K102" s="5"/>
       <c r="L102" s="5"/>
@@ -7646,25 +7695,23 @@
       <c r="Y102" s="3"/>
       <c r="Z102" s="3"/>
     </row>
-    <row r="103" spans="1:26" ht="12.75" customHeight="1">
+    <row r="103" spans="1:26" ht="13.5" customHeight="1">
       <c r="A103" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="B103" s="8" t="s">
-        <v>244</v>
-      </c>
+      <c r="B103" s="5"/>
       <c r="C103" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="D103" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="E103" s="5"/>
-      <c r="F103" s="6" t="s">
-        <v>247</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="D103" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="E103" s="4"/>
+      <c r="F103" s="5"/>
       <c r="G103" s="5"/>
-      <c r="H103" s="5"/>
+      <c r="H103" s="4" t="s">
+        <v>243</v>
+      </c>
       <c r="I103" s="5"/>
       <c r="J103" s="5"/>
       <c r="K103" s="5"/>
@@ -7692,14 +7739,14 @@
         <v>244</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D104" s="11" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="E104" s="5"/>
       <c r="F104" s="6" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G104" s="5"/>
       <c r="H104" s="5"/>
@@ -7730,14 +7777,14 @@
         <v>244</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D105" s="11" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E105" s="5"/>
       <c r="F105" s="6" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G105" s="5"/>
       <c r="H105" s="5"/>
@@ -7768,14 +7815,14 @@
         <v>244</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D106" s="11" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E106" s="5"/>
       <c r="F106" s="6" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G106" s="5"/>
       <c r="H106" s="5"/>
@@ -7806,14 +7853,14 @@
         <v>244</v>
       </c>
       <c r="C107" s="8" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D107" s="11" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="E107" s="5"/>
       <c r="F107" s="6" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="G107" s="5"/>
       <c r="H107" s="5"/>
@@ -7844,14 +7891,14 @@
         <v>244</v>
       </c>
       <c r="C108" s="8" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D108" s="11" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E108" s="5"/>
       <c r="F108" s="6" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G108" s="5"/>
       <c r="H108" s="5"/>
@@ -7882,14 +7929,14 @@
         <v>244</v>
       </c>
       <c r="C109" s="8" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D109" s="11" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E109" s="5"/>
       <c r="F109" s="6" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="G109" s="5"/>
       <c r="H109" s="5"/>
@@ -7912,7 +7959,7 @@
       <c r="Y109" s="3"/>
       <c r="Z109" s="3"/>
     </row>
-    <row r="110" spans="1:26" ht="13.5" customHeight="1">
+    <row r="110" spans="1:26" ht="12.75" customHeight="1">
       <c r="A110" s="8" t="s">
         <v>211</v>
       </c>
@@ -7920,19 +7967,19 @@
         <v>244</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D110" s="11" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="E110" s="5"/>
-      <c r="F110" s="5"/>
+      <c r="F110" s="6" t="s">
+        <v>265</v>
+      </c>
       <c r="G110" s="5"/>
       <c r="H110" s="5"/>
-      <c r="I110" s="6" t="s">
-        <v>268</v>
-      </c>
-      <c r="J110" s="16"/>
+      <c r="I110" s="5"/>
+      <c r="J110" s="5"/>
       <c r="K110" s="5"/>
       <c r="L110" s="5"/>
       <c r="M110" s="6"/>
@@ -7958,17 +8005,17 @@
         <v>244</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="D111" s="13" t="s">
-        <v>270</v>
+        <v>266</v>
+      </c>
+      <c r="D111" s="11" t="s">
+        <v>267</v>
       </c>
       <c r="E111" s="5"/>
       <c r="F111" s="5"/>
       <c r="G111" s="5"/>
       <c r="H111" s="5"/>
       <c r="I111" s="6" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="J111" s="16"/>
       <c r="K111" s="5"/>
@@ -7995,22 +8042,20 @@
       <c r="B112" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="C112" s="6" t="s">
-        <v>272</v>
+      <c r="C112" s="8" t="s">
+        <v>269</v>
       </c>
       <c r="D112" s="13" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E112" s="5"/>
-      <c r="F112" s="17" t="s">
-        <v>274</v>
-      </c>
+      <c r="F112" s="5"/>
       <c r="G112" s="5"/>
-      <c r="H112" s="17" t="s">
-        <v>275</v>
-      </c>
-      <c r="I112" s="5"/>
-      <c r="J112" s="5"/>
+      <c r="H112" s="5"/>
+      <c r="I112" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="J112" s="16"/>
       <c r="K112" s="5"/>
       <c r="L112" s="5"/>
       <c r="M112" s="6"/>
@@ -8029,20 +8074,26 @@
       <c r="Z112" s="3"/>
     </row>
     <row r="113" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A113" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="B113" s="5"/>
+      <c r="A113" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="B113" s="8" t="s">
+        <v>244</v>
+      </c>
       <c r="C113" s="6" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="D113" s="13" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="E113" s="5"/>
-      <c r="F113" s="5"/>
+      <c r="F113" s="17" t="s">
+        <v>274</v>
+      </c>
       <c r="G113" s="5"/>
-      <c r="H113" s="5"/>
+      <c r="H113" s="17" t="s">
+        <v>275</v>
+      </c>
       <c r="I113" s="5"/>
       <c r="J113" s="5"/>
       <c r="K113" s="5"/>
@@ -8063,24 +8114,20 @@
       <c r="Z113" s="3"/>
     </row>
     <row r="114" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A114" s="8" t="s">
+      <c r="A114" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="B114" s="6" t="s">
-        <v>279</v>
-      </c>
+      <c r="B114" s="5"/>
       <c r="C114" s="6" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D114" s="13" t="s">
-        <v>281</v>
-      </c>
-      <c r="E114" s="8" t="s">
-        <v>282</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="E114" s="5"/>
       <c r="F114" s="5"/>
       <c r="G114" s="5"/>
-      <c r="H114" s="4"/>
+      <c r="H114" s="5"/>
       <c r="I114" s="5"/>
       <c r="J114" s="5"/>
       <c r="K114" s="5"/>
@@ -8108,13 +8155,13 @@
         <v>279</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D115" s="13" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="E115" s="8" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F115" s="5"/>
       <c r="G115" s="5"/>
@@ -8146,13 +8193,13 @@
         <v>279</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D116" s="13" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="E116" s="8" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="F116" s="5"/>
       <c r="G116" s="5"/>
@@ -8184,13 +8231,13 @@
         <v>279</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D117" s="13" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="E117" s="8" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F117" s="5"/>
       <c r="G117" s="5"/>
@@ -8222,17 +8269,17 @@
         <v>279</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D118" s="13" t="s">
-        <v>293</v>
-      </c>
-      <c r="E118" s="6" t="s">
-        <v>294</v>
+        <v>290</v>
+      </c>
+      <c r="E118" s="8" t="s">
+        <v>291</v>
       </c>
       <c r="F118" s="5"/>
       <c r="G118" s="5"/>
-      <c r="H118" s="5"/>
+      <c r="H118" s="4"/>
       <c r="I118" s="5"/>
       <c r="J118" s="5"/>
       <c r="K118" s="5"/>
@@ -8260,17 +8307,17 @@
         <v>279</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D119" s="13" t="s">
-        <v>296</v>
-      </c>
-      <c r="E119" s="8" t="s">
-        <v>297</v>
+        <v>293</v>
+      </c>
+      <c r="E119" s="6" t="s">
+        <v>294</v>
       </c>
       <c r="F119" s="5"/>
       <c r="G119" s="5"/>
-      <c r="H119" s="4"/>
+      <c r="H119" s="5"/>
       <c r="I119" s="5"/>
       <c r="J119" s="5"/>
       <c r="K119" s="5"/>
@@ -8298,13 +8345,13 @@
         <v>279</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D120" s="13" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="E120" s="8" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="F120" s="5"/>
       <c r="G120" s="5"/>
@@ -8336,13 +8383,13 @@
         <v>279</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D121" s="13" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="E121" s="8" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F121" s="5"/>
       <c r="G121" s="5"/>
@@ -8374,17 +8421,17 @@
         <v>279</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D122" s="13" t="s">
-        <v>305</v>
-      </c>
-      <c r="E122" s="6" t="s">
-        <v>306</v>
+        <v>302</v>
+      </c>
+      <c r="E122" s="8" t="s">
+        <v>303</v>
       </c>
       <c r="F122" s="5"/>
       <c r="G122" s="5"/>
-      <c r="H122" s="5"/>
+      <c r="H122" s="4"/>
       <c r="I122" s="5"/>
       <c r="J122" s="5"/>
       <c r="K122" s="5"/>
@@ -8412,10 +8459,10 @@
         <v>279</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D123" s="13" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="E123" s="6" t="s">
         <v>306</v>
@@ -8450,13 +8497,13 @@
         <v>279</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D124" s="13" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E124" s="6" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="F124" s="5"/>
       <c r="G124" s="5"/>
@@ -8488,13 +8535,13 @@
         <v>279</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D125" s="13" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="E125" s="6" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="F125" s="5"/>
       <c r="G125" s="5"/>
@@ -8523,20 +8570,18 @@
         <v>276</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>314</v>
+        <v>279</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="D126" s="13" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="E126" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="F126" s="6" t="s">
-        <v>318</v>
-      </c>
+        <v>303</v>
+      </c>
+      <c r="F126" s="5"/>
       <c r="G126" s="5"/>
       <c r="H126" s="5"/>
       <c r="I126" s="5"/>
@@ -8566,13 +8611,13 @@
         <v>314</v>
       </c>
       <c r="C127" s="6" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D127" s="13" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="E127" s="6" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="F127" s="6" t="s">
         <v>318</v>
@@ -8606,13 +8651,13 @@
         <v>314</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="D128" s="13" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="E128" s="6" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="F128" s="6" t="s">
         <v>318</v>
@@ -8646,13 +8691,13 @@
         <v>314</v>
       </c>
       <c r="C129" s="6" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D129" s="13" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="E129" s="6" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F129" s="6" t="s">
         <v>318</v>
@@ -8686,13 +8731,13 @@
         <v>314</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D130" s="13" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="E130" s="6" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="F130" s="6" t="s">
         <v>318</v>
@@ -8726,13 +8771,13 @@
         <v>314</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D131" s="13" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="E131" s="6" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F131" s="6" t="s">
         <v>318</v>
@@ -8766,16 +8811,16 @@
         <v>314</v>
       </c>
       <c r="C132" s="6" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D132" s="13" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="E132" s="6" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="F132" s="6" t="s">
-        <v>337</v>
+        <v>318</v>
       </c>
       <c r="G132" s="5"/>
       <c r="H132" s="5"/>
@@ -8806,19 +8851,19 @@
         <v>314</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="D133" s="13" t="s">
-        <v>339</v>
-      </c>
-      <c r="E133" s="8" t="s">
-        <v>340</v>
+        <v>335</v>
+      </c>
+      <c r="E133" s="6" t="s">
+        <v>336</v>
       </c>
       <c r="F133" s="6" t="s">
         <v>337</v>
       </c>
       <c r="G133" s="5"/>
-      <c r="H133" s="4"/>
+      <c r="H133" s="5"/>
       <c r="I133" s="5"/>
       <c r="J133" s="5"/>
       <c r="K133" s="5"/>
@@ -8846,19 +8891,19 @@
         <v>314</v>
       </c>
       <c r="C134" s="6" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="D134" s="13" t="s">
-        <v>342</v>
-      </c>
-      <c r="E134" s="6" t="s">
-        <v>343</v>
+        <v>339</v>
+      </c>
+      <c r="E134" s="8" t="s">
+        <v>340</v>
       </c>
       <c r="F134" s="6" t="s">
         <v>337</v>
       </c>
       <c r="G134" s="5"/>
-      <c r="H134" s="5"/>
+      <c r="H134" s="4"/>
       <c r="I134" s="5"/>
       <c r="J134" s="5"/>
       <c r="K134" s="5"/>
@@ -8886,13 +8931,13 @@
         <v>314</v>
       </c>
       <c r="C135" s="6" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D135" s="13" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="E135" s="6" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="F135" s="6" t="s">
         <v>337</v>
@@ -8926,13 +8971,13 @@
         <v>314</v>
       </c>
       <c r="C136" s="6" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="D136" s="13" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="E136" s="6" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="F136" s="6" t="s">
         <v>337</v>
@@ -8962,17 +9007,17 @@
       <c r="A137" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="B137" s="8" t="s">
+      <c r="B137" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="C137" s="8" t="s">
-        <v>350</v>
+      <c r="C137" s="6" t="s">
+        <v>347</v>
       </c>
       <c r="D137" s="13" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E137" s="6" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="F137" s="6" t="s">
         <v>337</v>
@@ -8980,9 +9025,7 @@
       <c r="G137" s="5"/>
       <c r="H137" s="5"/>
       <c r="I137" s="5"/>
-      <c r="J137" s="6" t="s">
-        <v>350</v>
-      </c>
+      <c r="J137" s="5"/>
       <c r="K137" s="5"/>
       <c r="L137" s="5"/>
       <c r="M137" s="6"/>
@@ -9001,28 +9044,30 @@
       <c r="Z137" s="3"/>
     </row>
     <row r="138" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A138" s="6" t="s">
+      <c r="A138" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="B138" s="6" t="s">
-        <v>353</v>
-      </c>
-      <c r="C138" s="6" t="s">
-        <v>354</v>
+      <c r="B138" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="C138" s="8" t="s">
+        <v>350</v>
       </c>
       <c r="D138" s="13" t="s">
-        <v>355</v>
-      </c>
-      <c r="E138" s="5" t="s">
-        <v>356</v>
-      </c>
-      <c r="F138" s="5" t="s">
-        <v>356</v>
+        <v>351</v>
+      </c>
+      <c r="E138" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="F138" s="6" t="s">
+        <v>337</v>
       </c>
       <c r="G138" s="5"/>
       <c r="H138" s="5"/>
       <c r="I138" s="5"/>
-      <c r="J138" s="5"/>
+      <c r="J138" s="6" t="s">
+        <v>350</v>
+      </c>
       <c r="K138" s="5"/>
       <c r="L138" s="5"/>
       <c r="M138" s="6"/>
@@ -9048,16 +9093,16 @@
         <v>353</v>
       </c>
       <c r="C139" s="6" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D139" s="13" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="E139" s="5" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="F139" s="5" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="G139" s="5"/>
       <c r="H139" s="5"/>
@@ -9081,24 +9126,28 @@
       <c r="Z139" s="3"/>
     </row>
     <row r="140" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A140" s="8" t="s">
+      <c r="A140" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="B140" s="5"/>
+      <c r="B140" s="6" t="s">
+        <v>353</v>
+      </c>
       <c r="C140" s="6" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="D140" s="13" t="s">
-        <v>361</v>
-      </c>
-      <c r="E140" s="5"/>
-      <c r="F140" s="16"/>
-      <c r="G140" s="16"/>
+        <v>358</v>
+      </c>
+      <c r="E140" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="F140" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="G140" s="5"/>
       <c r="H140" s="5"/>
-      <c r="I140" s="17" t="s">
-        <v>271</v>
-      </c>
-      <c r="J140" s="16"/>
+      <c r="I140" s="5"/>
+      <c r="J140" s="5"/>
       <c r="K140" s="5"/>
       <c r="L140" s="5"/>
       <c r="M140" s="6"/>
@@ -9122,17 +9171,17 @@
       </c>
       <c r="B141" s="5"/>
       <c r="C141" s="6" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D141" s="13" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E141" s="5"/>
       <c r="F141" s="16"/>
       <c r="G141" s="16"/>
       <c r="H141" s="5"/>
       <c r="I141" s="17" t="s">
-        <v>364</v>
+        <v>271</v>
       </c>
       <c r="J141" s="16"/>
       <c r="K141" s="5"/>
@@ -9158,21 +9207,19 @@
       </c>
       <c r="B142" s="5"/>
       <c r="C142" s="6" t="s">
-        <v>365</v>
-      </c>
-      <c r="D142" s="11" t="s">
-        <v>366</v>
-      </c>
-      <c r="E142" s="6" t="s">
-        <v>367</v>
-      </c>
-      <c r="F142" s="5"/>
-      <c r="G142" s="5"/>
-      <c r="H142" s="6" t="s">
-        <v>367</v>
-      </c>
-      <c r="I142" s="5"/>
-      <c r="J142" s="5"/>
+        <v>362</v>
+      </c>
+      <c r="D142" s="13" t="s">
+        <v>363</v>
+      </c>
+      <c r="E142" s="5"/>
+      <c r="F142" s="16"/>
+      <c r="G142" s="16"/>
+      <c r="H142" s="5"/>
+      <c r="I142" s="17" t="s">
+        <v>364</v>
+      </c>
+      <c r="J142" s="16"/>
       <c r="K142" s="5"/>
       <c r="L142" s="5"/>
       <c r="M142" s="6"/>
@@ -9191,23 +9238,23 @@
       <c r="Z142" s="3"/>
     </row>
     <row r="143" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A143" s="6" t="s">
-        <v>368</v>
+      <c r="A143" s="8" t="s">
+        <v>276</v>
       </c>
       <c r="B143" s="5"/>
       <c r="C143" s="6" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="D143" s="11" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="E143" s="6" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="F143" s="5"/>
       <c r="G143" s="5"/>
       <c r="H143" s="6" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="I143" s="5"/>
       <c r="J143" s="5"/>
@@ -9234,18 +9281,18 @@
       </c>
       <c r="B144" s="5"/>
       <c r="C144" s="6" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="D144" s="11" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="E144" s="6" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="F144" s="5"/>
       <c r="G144" s="5"/>
       <c r="H144" s="6" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="I144" s="5"/>
       <c r="J144" s="5"/>
@@ -9272,19 +9319,19 @@
       </c>
       <c r="B145" s="5"/>
       <c r="C145" s="6" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="D145" s="11" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="E145" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="F145" s="6" t="s">
-        <v>377</v>
-      </c>
+        <v>374</v>
+      </c>
+      <c r="F145" s="5"/>
       <c r="G145" s="5"/>
-      <c r="H145" s="5"/>
+      <c r="H145" s="6" t="s">
+        <v>374</v>
+      </c>
       <c r="I145" s="5"/>
       <c r="J145" s="5"/>
       <c r="K145" s="5"/>
@@ -9306,19 +9353,21 @@
     </row>
     <row r="146" spans="1:26" ht="13.5" customHeight="1">
       <c r="A146" s="6" t="s">
-        <v>378</v>
-      </c>
-      <c r="B146" s="6"/>
+        <v>368</v>
+      </c>
+      <c r="B146" s="5"/>
       <c r="C146" s="6" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="D146" s="11" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="E146" s="6" t="s">
-        <v>381</v>
-      </c>
-      <c r="F146" s="5"/>
+        <v>73</v>
+      </c>
+      <c r="F146" s="6" t="s">
+        <v>377</v>
+      </c>
       <c r="G146" s="5"/>
       <c r="H146" s="5"/>
       <c r="I146" s="5"/>
@@ -9344,30 +9393,24 @@
       <c r="A147" s="6" t="s">
         <v>378</v>
       </c>
-      <c r="B147" s="6" t="s">
-        <v>382</v>
-      </c>
+      <c r="B147" s="6"/>
       <c r="C147" s="6" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="D147" s="11" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="E147" s="6" t="s">
-        <v>385</v>
-      </c>
-      <c r="F147" s="6" t="s">
-        <v>385</v>
-      </c>
+        <v>381</v>
+      </c>
+      <c r="F147" s="5"/>
       <c r="G147" s="5"/>
       <c r="H147" s="5"/>
       <c r="I147" s="5"/>
       <c r="J147" s="5"/>
       <c r="K147" s="5"/>
       <c r="L147" s="5"/>
-      <c r="M147" s="6" t="s">
-        <v>386</v>
-      </c>
+      <c r="M147" s="6"/>
       <c r="N147" s="3"/>
       <c r="O147" s="3"/>
       <c r="P147" s="3"/>
@@ -9390,21 +9433,19 @@
         <v>382</v>
       </c>
       <c r="C148" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="D148" s="11" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="E148" s="6" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="F148" s="6" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="G148" s="5"/>
-      <c r="H148" s="6" t="s">
-        <v>389</v>
-      </c>
+      <c r="H148" s="5"/>
       <c r="I148" s="5"/>
       <c r="J148" s="5"/>
       <c r="K148" s="5"/>
@@ -9434,20 +9475,20 @@
         <v>382</v>
       </c>
       <c r="C149" s="6" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="D149" s="11" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="E149" s="6" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="F149" s="6" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="G149" s="5"/>
       <c r="H149" s="6" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="I149" s="5"/>
       <c r="J149" s="5"/>
@@ -9478,20 +9519,20 @@
         <v>382</v>
       </c>
       <c r="C150" s="6" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="D150" s="11" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="E150" s="6" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="F150" s="6" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="G150" s="5"/>
       <c r="H150" s="6" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="I150" s="5"/>
       <c r="J150" s="5"/>
@@ -9514,30 +9555,36 @@
       <c r="Y150" s="3"/>
       <c r="Z150" s="3"/>
     </row>
-    <row r="151" spans="1:26" ht="15" customHeight="1">
+    <row r="151" spans="1:26" ht="13.5" customHeight="1">
       <c r="A151" s="6" t="s">
         <v>378</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>396</v>
+        <v>382</v>
       </c>
       <c r="C151" s="6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="D151" s="11" t="s">
-        <v>398</v>
-      </c>
-      <c r="E151" s="5"/>
-      <c r="F151" s="5"/>
+        <v>394</v>
+      </c>
+      <c r="E151" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="F151" s="6" t="s">
+        <v>395</v>
+      </c>
       <c r="G151" s="5"/>
-      <c r="H151" s="5"/>
-      <c r="I151" s="6" t="s">
-        <v>399</v>
-      </c>
+      <c r="H151" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="I151" s="5"/>
       <c r="J151" s="5"/>
       <c r="K151" s="5"/>
       <c r="L151" s="5"/>
-      <c r="M151" s="6"/>
+      <c r="M151" s="6" t="s">
+        <v>386</v>
+      </c>
       <c r="N151" s="3"/>
       <c r="O151" s="3"/>
       <c r="P151" s="3"/>
@@ -9552,7 +9599,7 @@
       <c r="Y151" s="3"/>
       <c r="Z151" s="3"/>
     </row>
-    <row r="152" spans="1:26" ht="13.5" customHeight="1">
+    <row r="152" spans="1:26" ht="15" customHeight="1">
       <c r="A152" s="6" t="s">
         <v>378</v>
       </c>
@@ -9560,16 +9607,18 @@
         <v>396</v>
       </c>
       <c r="C152" s="6" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="D152" s="11" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="E152" s="5"/>
       <c r="F152" s="5"/>
       <c r="G152" s="5"/>
       <c r="H152" s="5"/>
-      <c r="I152" s="5"/>
+      <c r="I152" s="6" t="s">
+        <v>399</v>
+      </c>
       <c r="J152" s="5"/>
       <c r="K152" s="5"/>
       <c r="L152" s="5"/>
@@ -9592,22 +9641,20 @@
       <c r="A153" s="6" t="s">
         <v>378</v>
       </c>
-      <c r="B153" s="8" t="s">
-        <v>402</v>
+      <c r="B153" s="6" t="s">
+        <v>396</v>
       </c>
       <c r="C153" s="6" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="D153" s="11" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="E153" s="5"/>
       <c r="F153" s="5"/>
       <c r="G153" s="5"/>
       <c r="H153" s="5"/>
-      <c r="I153" s="6" t="s">
-        <v>405</v>
-      </c>
+      <c r="I153" s="5"/>
       <c r="J153" s="5"/>
       <c r="K153" s="5"/>
       <c r="L153" s="5"/>
@@ -9634,22 +9681,18 @@
         <v>402</v>
       </c>
       <c r="C154" s="6" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D154" s="11" t="s">
-        <v>407</v>
-      </c>
-      <c r="E154" s="6" t="s">
-        <v>408</v>
-      </c>
-      <c r="F154" s="6" t="s">
-        <v>408</v>
-      </c>
+        <v>404</v>
+      </c>
+      <c r="E154" s="5"/>
+      <c r="F154" s="5"/>
       <c r="G154" s="5"/>
-      <c r="H154" s="6" t="s">
-        <v>408</v>
-      </c>
-      <c r="I154" s="5"/>
+      <c r="H154" s="5"/>
+      <c r="I154" s="6" t="s">
+        <v>405</v>
+      </c>
       <c r="J154" s="5"/>
       <c r="K154" s="5"/>
       <c r="L154" s="5"/>
@@ -9676,18 +9719,22 @@
         <v>402</v>
       </c>
       <c r="C155" s="6" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="D155" s="11" t="s">
-        <v>410</v>
-      </c>
-      <c r="E155" s="5"/>
-      <c r="F155" s="5"/>
+        <v>407</v>
+      </c>
+      <c r="E155" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="F155" s="6" t="s">
+        <v>408</v>
+      </c>
       <c r="G155" s="5"/>
-      <c r="H155" s="5"/>
-      <c r="I155" s="6" t="s">
-        <v>405</v>
-      </c>
+      <c r="H155" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="I155" s="5"/>
       <c r="J155" s="5"/>
       <c r="K155" s="5"/>
       <c r="L155" s="5"/>
@@ -9714,17 +9761,17 @@
         <v>402</v>
       </c>
       <c r="C156" s="6" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D156" s="11" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="E156" s="5"/>
       <c r="F156" s="5"/>
       <c r="G156" s="5"/>
       <c r="H156" s="5"/>
-      <c r="I156" s="8" t="s">
-        <v>413</v>
+      <c r="I156" s="6" t="s">
+        <v>405</v>
       </c>
       <c r="J156" s="5"/>
       <c r="K156" s="5"/>
@@ -9752,10 +9799,10 @@
         <v>402</v>
       </c>
       <c r="C157" s="6" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="D157" s="11" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="E157" s="5"/>
       <c r="F157" s="5"/>
@@ -9790,17 +9837,17 @@
         <v>402</v>
       </c>
       <c r="C158" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D158" s="11" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E158" s="5"/>
       <c r="F158" s="5"/>
       <c r="G158" s="5"/>
       <c r="H158" s="5"/>
       <c r="I158" s="8" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="J158" s="5"/>
       <c r="K158" s="5"/>
@@ -9828,22 +9875,18 @@
         <v>402</v>
       </c>
       <c r="C159" s="6" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="D159" s="11" t="s">
-        <v>420</v>
-      </c>
-      <c r="E159" s="6" t="s">
-        <v>421</v>
-      </c>
-      <c r="F159" s="6" t="s">
-        <v>421</v>
-      </c>
+        <v>417</v>
+      </c>
+      <c r="E159" s="5"/>
+      <c r="F159" s="5"/>
       <c r="G159" s="5"/>
-      <c r="H159" s="6" t="s">
-        <v>421</v>
-      </c>
-      <c r="I159" s="5"/>
+      <c r="H159" s="5"/>
+      <c r="I159" s="8" t="s">
+        <v>418</v>
+      </c>
       <c r="J159" s="5"/>
       <c r="K159" s="5"/>
       <c r="L159" s="5"/>
@@ -9866,22 +9909,24 @@
       <c r="A160" s="6" t="s">
         <v>378</v>
       </c>
-      <c r="B160" s="6" t="s">
-        <v>422</v>
+      <c r="B160" s="8" t="s">
+        <v>402</v>
       </c>
       <c r="C160" s="6" t="s">
-        <v>423</v>
-      </c>
-      <c r="D160" s="13" t="s">
-        <v>424</v>
+        <v>419</v>
+      </c>
+      <c r="D160" s="11" t="s">
+        <v>420</v>
       </c>
       <c r="E160" s="6" t="s">
-        <v>425</v>
-      </c>
-      <c r="F160" s="5"/>
+        <v>421</v>
+      </c>
+      <c r="F160" s="6" t="s">
+        <v>421</v>
+      </c>
       <c r="G160" s="5"/>
       <c r="H160" s="6" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="I160" s="5"/>
       <c r="J160" s="5"/>
@@ -9910,18 +9955,18 @@
         <v>422</v>
       </c>
       <c r="C161" s="6" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="D161" s="13" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="E161" s="6" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="F161" s="5"/>
       <c r="G161" s="5"/>
       <c r="H161" s="6" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="I161" s="5"/>
       <c r="J161" s="5"/>
@@ -9950,18 +9995,18 @@
         <v>422</v>
       </c>
       <c r="C162" s="6" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="D162" s="13" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="E162" s="6" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="F162" s="5"/>
       <c r="G162" s="5"/>
       <c r="H162" s="6" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="I162" s="5"/>
       <c r="J162" s="5"/>
@@ -9990,18 +10035,18 @@
         <v>422</v>
       </c>
       <c r="C163" s="6" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="D163" s="13" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="E163" s="6" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="F163" s="5"/>
       <c r="G163" s="5"/>
       <c r="H163" s="6" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="I163" s="5"/>
       <c r="J163" s="5"/>
@@ -10024,22 +10069,24 @@
     </row>
     <row r="164" spans="1:26" ht="13.5" customHeight="1">
       <c r="A164" s="6" t="s">
-        <v>435</v>
-      </c>
-      <c r="B164" s="5"/>
+        <v>378</v>
+      </c>
+      <c r="B164" s="6" t="s">
+        <v>422</v>
+      </c>
       <c r="C164" s="6" t="s">
-        <v>436</v>
-      </c>
-      <c r="D164" s="11" t="s">
-        <v>437</v>
+        <v>432</v>
+      </c>
+      <c r="D164" s="13" t="s">
+        <v>433</v>
       </c>
       <c r="E164" s="6" t="s">
-        <v>291</v>
+        <v>434</v>
       </c>
       <c r="F164" s="5"/>
       <c r="G164" s="5"/>
       <c r="H164" s="6" t="s">
-        <v>291</v>
+        <v>434</v>
       </c>
       <c r="I164" s="5"/>
       <c r="J164" s="5"/>
@@ -10061,26 +10108,24 @@
       <c r="Z164" s="3"/>
     </row>
     <row r="165" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A165" s="8" t="s">
-        <v>438</v>
-      </c>
-      <c r="B165" s="6" t="s">
-        <v>439</v>
-      </c>
+      <c r="A165" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="B165" s="5"/>
       <c r="C165" s="6" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="D165" s="11" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="E165" s="6" t="s">
-        <v>442</v>
-      </c>
-      <c r="F165" s="6" t="s">
-        <v>294</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="F165" s="5"/>
       <c r="G165" s="5"/>
-      <c r="H165" s="5"/>
+      <c r="H165" s="6" t="s">
+        <v>291</v>
+      </c>
       <c r="I165" s="5"/>
       <c r="J165" s="5"/>
       <c r="K165" s="5"/>
@@ -10108,13 +10153,13 @@
         <v>439</v>
       </c>
       <c r="C166" s="6" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="D166" s="11" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="E166" s="6" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="F166" s="6" t="s">
         <v>294</v>
@@ -10145,22 +10190,22 @@
         <v>438</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="C167" s="6" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="D167" s="11" t="s">
-        <v>447</v>
-      </c>
-      <c r="E167" s="5"/>
+        <v>444</v>
+      </c>
+      <c r="E167" s="6" t="s">
+        <v>445</v>
+      </c>
       <c r="F167" s="6" t="s">
-        <v>448</v>
+        <v>294</v>
       </c>
       <c r="G167" s="5"/>
-      <c r="H167" s="6" t="s">
-        <v>448</v>
-      </c>
+      <c r="H167" s="5"/>
       <c r="I167" s="5"/>
       <c r="J167" s="5"/>
       <c r="K167" s="5"/>
@@ -10185,23 +10230,21 @@
         <v>438</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="C168" s="6" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="D168" s="11" t="s">
-        <v>451</v>
-      </c>
-      <c r="E168" s="6" t="s">
-        <v>452</v>
-      </c>
+        <v>447</v>
+      </c>
+      <c r="E168" s="5"/>
       <c r="F168" s="6" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="G168" s="5"/>
       <c r="H168" s="6" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="I168" s="5"/>
       <c r="J168" s="5"/>
@@ -10230,20 +10273,20 @@
         <v>449</v>
       </c>
       <c r="C169" s="6" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="D169" s="11" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="E169" s="6" t="s">
-        <v>23</v>
+        <v>452</v>
       </c>
       <c r="F169" s="6" t="s">
-        <v>23</v>
+        <v>452</v>
       </c>
       <c r="G169" s="5"/>
       <c r="H169" s="6" t="s">
-        <v>23</v>
+        <v>452</v>
       </c>
       <c r="I169" s="5"/>
       <c r="J169" s="5"/>
@@ -10268,20 +10311,26 @@
       <c r="A170" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="B170" s="5"/>
+      <c r="B170" s="6" t="s">
+        <v>449</v>
+      </c>
       <c r="C170" s="6" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D170" s="11" t="s">
-        <v>456</v>
-      </c>
-      <c r="E170" s="5"/>
-      <c r="F170" s="5"/>
+        <v>454</v>
+      </c>
+      <c r="E170" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F170" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G170" s="5"/>
-      <c r="H170" s="5"/>
-      <c r="I170" s="6" t="s">
-        <v>457</v>
-      </c>
+      <c r="H170" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I170" s="5"/>
       <c r="J170" s="5"/>
       <c r="K170" s="5"/>
       <c r="L170" s="5"/>
@@ -10302,23 +10351,21 @@
     </row>
     <row r="171" spans="1:26" ht="13.5" customHeight="1">
       <c r="A171" s="8" t="s">
-        <v>458</v>
-      </c>
-      <c r="B171" s="8" t="s">
-        <v>459</v>
-      </c>
-      <c r="C171" s="8" t="s">
-        <v>460</v>
+        <v>438</v>
+      </c>
+      <c r="B171" s="5"/>
+      <c r="C171" s="6" t="s">
+        <v>455</v>
       </c>
       <c r="D171" s="11" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="E171" s="5"/>
       <c r="F171" s="5"/>
       <c r="G171" s="5"/>
       <c r="H171" s="5"/>
-      <c r="I171" s="8" t="s">
-        <v>462</v>
+      <c r="I171" s="6" t="s">
+        <v>457</v>
       </c>
       <c r="J171" s="5"/>
       <c r="K171" s="5"/>
@@ -10346,20 +10393,18 @@
         <v>459</v>
       </c>
       <c r="C172" s="8" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="D172" s="11" t="s">
-        <v>464</v>
-      </c>
-      <c r="E172" s="6" t="s">
-        <v>291</v>
-      </c>
+        <v>461</v>
+      </c>
+      <c r="E172" s="5"/>
       <c r="F172" s="5"/>
       <c r="G172" s="5"/>
-      <c r="H172" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="I172" s="5"/>
+      <c r="H172" s="5"/>
+      <c r="I172" s="8" t="s">
+        <v>462</v>
+      </c>
       <c r="J172" s="5"/>
       <c r="K172" s="5"/>
       <c r="L172" s="5"/>
@@ -10383,21 +10428,23 @@
         <v>458</v>
       </c>
       <c r="B173" s="8" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="C173" s="8" t="s">
-        <v>466</v>
-      </c>
-      <c r="D173" s="18" t="s">
-        <v>467</v>
-      </c>
-      <c r="E173" s="19"/>
-      <c r="F173" s="19"/>
-      <c r="G173" s="19"/>
-      <c r="H173" s="20"/>
-      <c r="I173" s="8" t="s">
-        <v>468</v>
-      </c>
+        <v>463</v>
+      </c>
+      <c r="D173" s="11" t="s">
+        <v>464</v>
+      </c>
+      <c r="E173" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="F173" s="5"/>
+      <c r="G173" s="5"/>
+      <c r="H173" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="I173" s="5"/>
       <c r="J173" s="5"/>
       <c r="K173" s="5"/>
       <c r="L173" s="5"/>
@@ -10424,20 +10471,18 @@
         <v>465</v>
       </c>
       <c r="C174" s="8" t="s">
-        <v>469</v>
-      </c>
-      <c r="D174" s="11" t="s">
-        <v>470</v>
-      </c>
-      <c r="E174" s="6" t="s">
-        <v>471</v>
-      </c>
-      <c r="F174" s="5"/>
-      <c r="G174" s="5"/>
-      <c r="H174" s="6" t="s">
-        <v>471</v>
-      </c>
-      <c r="I174" s="5"/>
+        <v>466</v>
+      </c>
+      <c r="D174" s="18" t="s">
+        <v>467</v>
+      </c>
+      <c r="E174" s="19"/>
+      <c r="F174" s="19"/>
+      <c r="G174" s="19"/>
+      <c r="H174" s="20"/>
+      <c r="I174" s="8" t="s">
+        <v>468</v>
+      </c>
       <c r="J174" s="5"/>
       <c r="K174" s="5"/>
       <c r="L174" s="5"/>
@@ -10461,20 +10506,22 @@
         <v>458</v>
       </c>
       <c r="B175" s="8" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="C175" s="8" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="D175" s="11" t="s">
-        <v>474</v>
-      </c>
-      <c r="E175" s="5"/>
-      <c r="F175" s="6" t="s">
-        <v>475</v>
-      </c>
+        <v>470</v>
+      </c>
+      <c r="E175" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="F175" s="5"/>
       <c r="G175" s="5"/>
-      <c r="H175" s="5"/>
+      <c r="H175" s="6" t="s">
+        <v>471</v>
+      </c>
       <c r="I175" s="5"/>
       <c r="J175" s="5"/>
       <c r="K175" s="5"/>
@@ -10502,14 +10549,14 @@
         <v>472</v>
       </c>
       <c r="C176" s="8" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D176" s="11" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="E176" s="5"/>
       <c r="F176" s="6" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="G176" s="5"/>
       <c r="H176" s="5"/>
@@ -10540,14 +10587,14 @@
         <v>472</v>
       </c>
       <c r="C177" s="8" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="D177" s="11" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="E177" s="5"/>
       <c r="F177" s="6" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="G177" s="5"/>
       <c r="H177" s="5"/>
@@ -10578,14 +10625,14 @@
         <v>472</v>
       </c>
       <c r="C178" s="8" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D178" s="11" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="E178" s="5"/>
       <c r="F178" s="6" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="G178" s="5"/>
       <c r="H178" s="5"/>
@@ -10616,14 +10663,14 @@
         <v>472</v>
       </c>
       <c r="C179" s="8" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="D179" s="11" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="E179" s="5"/>
       <c r="F179" s="6" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="G179" s="5"/>
       <c r="H179" s="5"/>
@@ -10654,14 +10701,14 @@
         <v>472</v>
       </c>
       <c r="C180" s="8" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="D180" s="11" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="E180" s="5"/>
       <c r="F180" s="6" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="G180" s="5"/>
       <c r="H180" s="5"/>
@@ -10692,14 +10739,14 @@
         <v>472</v>
       </c>
       <c r="C181" s="8" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D181" s="11" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="E181" s="5"/>
       <c r="F181" s="6" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="G181" s="5"/>
       <c r="H181" s="5"/>
@@ -10730,14 +10777,14 @@
         <v>472</v>
       </c>
       <c r="C182" s="8" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="D182" s="11" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="E182" s="5"/>
       <c r="F182" s="6" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="G182" s="5"/>
       <c r="H182" s="5"/>
@@ -10768,14 +10815,14 @@
         <v>472</v>
       </c>
       <c r="C183" s="8" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="D183" s="11" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="E183" s="5"/>
       <c r="F183" s="6" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="G183" s="5"/>
       <c r="H183" s="5"/>
@@ -10806,14 +10853,14 @@
         <v>472</v>
       </c>
       <c r="C184" s="8" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="D184" s="11" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="E184" s="5"/>
       <c r="F184" s="6" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G184" s="5"/>
       <c r="H184" s="5"/>
@@ -10844,14 +10891,14 @@
         <v>472</v>
       </c>
       <c r="C185" s="8" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="D185" s="11" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="E185" s="5"/>
       <c r="F185" s="6" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="G185" s="5"/>
       <c r="H185" s="5"/>
@@ -10882,14 +10929,14 @@
         <v>472</v>
       </c>
       <c r="C186" s="8" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="D186" s="11" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="E186" s="5"/>
       <c r="F186" s="6" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G186" s="5"/>
       <c r="H186" s="5"/>
@@ -10920,14 +10967,14 @@
         <v>472</v>
       </c>
       <c r="C187" s="8" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="D187" s="11" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="E187" s="5"/>
       <c r="F187" s="6" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="G187" s="5"/>
       <c r="H187" s="5"/>
@@ -10955,20 +11002,20 @@
         <v>458</v>
       </c>
       <c r="B188" s="8" t="s">
-        <v>512</v>
+        <v>472</v>
       </c>
       <c r="C188" s="8" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="D188" s="11" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="E188" s="5"/>
-      <c r="F188" s="5"/>
+      <c r="F188" s="6" t="s">
+        <v>511</v>
+      </c>
       <c r="G188" s="5"/>
-      <c r="H188" s="5" t="s">
-        <v>515</v>
-      </c>
+      <c r="H188" s="5"/>
       <c r="I188" s="5"/>
       <c r="J188" s="5"/>
       <c r="K188" s="5"/>
@@ -10993,19 +11040,19 @@
         <v>458</v>
       </c>
       <c r="B189" s="8" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="C189" s="8" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="D189" s="11" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="E189" s="5"/>
       <c r="F189" s="5"/>
       <c r="G189" s="5"/>
       <c r="H189" s="5" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="I189" s="5"/>
       <c r="J189" s="5"/>
@@ -11034,16 +11081,16 @@
         <v>516</v>
       </c>
       <c r="C190" s="8" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="D190" s="11" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="E190" s="5"/>
       <c r="F190" s="5"/>
       <c r="G190" s="5"/>
       <c r="H190" s="5" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="I190" s="5"/>
       <c r="J190" s="5"/>
@@ -11072,18 +11119,18 @@
         <v>516</v>
       </c>
       <c r="C191" s="8" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="D191" s="11" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="E191" s="5"/>
       <c r="F191" s="5"/>
       <c r="G191" s="5"/>
-      <c r="H191" s="5"/>
-      <c r="I191" s="6" t="s">
-        <v>525</v>
-      </c>
+      <c r="H191" s="5" t="s">
+        <v>522</v>
+      </c>
+      <c r="I191" s="5"/>
       <c r="J191" s="5"/>
       <c r="K191" s="5"/>
       <c r="L191" s="5"/>
@@ -11104,21 +11151,23 @@
     </row>
     <row r="192" spans="1:26" ht="13.5" customHeight="1">
       <c r="A192" s="8" t="s">
-        <v>526</v>
-      </c>
-      <c r="B192" s="5"/>
+        <v>458</v>
+      </c>
+      <c r="B192" s="8" t="s">
+        <v>516</v>
+      </c>
       <c r="C192" s="8" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="D192" s="11" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="E192" s="5"/>
       <c r="F192" s="5"/>
       <c r="G192" s="5"/>
       <c r="H192" s="5"/>
       <c r="I192" s="6" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="J192" s="5"/>
       <c r="K192" s="5"/>
@@ -11144,20 +11193,18 @@
       </c>
       <c r="B193" s="5"/>
       <c r="C193" s="8" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="D193" s="11" t="s">
-        <v>531</v>
-      </c>
-      <c r="E193" s="5" t="s">
-        <v>532</v>
-      </c>
-      <c r="F193" s="5" t="s">
-        <v>532</v>
-      </c>
+        <v>528</v>
+      </c>
+      <c r="E193" s="5"/>
+      <c r="F193" s="5"/>
       <c r="G193" s="5"/>
       <c r="H193" s="5"/>
-      <c r="I193" s="5"/>
+      <c r="I193" s="6" t="s">
+        <v>529</v>
+      </c>
       <c r="J193" s="5"/>
       <c r="K193" s="5"/>
       <c r="L193" s="5"/>
@@ -11177,23 +11224,25 @@
       <c r="Z193" s="3"/>
     </row>
     <row r="194" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A194" s="6" t="s">
-        <v>533</v>
+      <c r="A194" s="8" t="s">
+        <v>526</v>
       </c>
       <c r="B194" s="5"/>
-      <c r="C194" s="6" t="s">
-        <v>534</v>
+      <c r="C194" s="8" t="s">
+        <v>530</v>
       </c>
       <c r="D194" s="11" t="s">
-        <v>535</v>
-      </c>
-      <c r="E194" s="5"/>
-      <c r="F194" s="5"/>
+        <v>531</v>
+      </c>
+      <c r="E194" s="5" t="s">
+        <v>532</v>
+      </c>
+      <c r="F194" s="5" t="s">
+        <v>532</v>
+      </c>
       <c r="G194" s="5"/>
       <c r="H194" s="5"/>
-      <c r="I194" s="6" t="s">
-        <v>536</v>
-      </c>
+      <c r="I194" s="5"/>
       <c r="J194" s="5"/>
       <c r="K194" s="5"/>
       <c r="L194" s="5"/>
@@ -11217,18 +11266,18 @@
         <v>533</v>
       </c>
       <c r="B195" s="5"/>
-      <c r="C195" s="8" t="s">
-        <v>537</v>
+      <c r="C195" s="6" t="s">
+        <v>534</v>
       </c>
       <c r="D195" s="11" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="E195" s="5"/>
       <c r="F195" s="5"/>
       <c r="G195" s="5"/>
       <c r="H195" s="5"/>
-      <c r="I195" s="8" t="s">
-        <v>539</v>
+      <c r="I195" s="6" t="s">
+        <v>536</v>
       </c>
       <c r="J195" s="5"/>
       <c r="K195" s="5"/>
@@ -11254,17 +11303,17 @@
       </c>
       <c r="B196" s="5"/>
       <c r="C196" s="8" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="D196" s="11" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="E196" s="5"/>
       <c r="F196" s="5"/>
       <c r="G196" s="5"/>
       <c r="H196" s="5"/>
-      <c r="I196" s="6" t="s">
-        <v>542</v>
+      <c r="I196" s="8" t="s">
+        <v>539</v>
       </c>
       <c r="J196" s="5"/>
       <c r="K196" s="5"/>
@@ -11289,18 +11338,18 @@
         <v>533</v>
       </c>
       <c r="B197" s="5"/>
-      <c r="C197" s="6" t="s">
-        <v>543</v>
+      <c r="C197" s="8" t="s">
+        <v>540</v>
       </c>
       <c r="D197" s="11" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="E197" s="5"/>
       <c r="F197" s="5"/>
       <c r="G197" s="5"/>
       <c r="H197" s="5"/>
       <c r="I197" s="6" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="J197" s="5"/>
       <c r="K197" s="5"/>
@@ -11326,18 +11375,18 @@
       </c>
       <c r="B198" s="5"/>
       <c r="C198" s="6" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="D198" s="11" t="s">
-        <v>547</v>
-      </c>
-      <c r="E198" s="6" t="s">
-        <v>548</v>
-      </c>
+        <v>544</v>
+      </c>
+      <c r="E198" s="5"/>
       <c r="F198" s="5"/>
       <c r="G198" s="5"/>
       <c r="H198" s="5"/>
-      <c r="I198" s="5"/>
+      <c r="I198" s="6" t="s">
+        <v>545</v>
+      </c>
       <c r="J198" s="5"/>
       <c r="K198" s="5"/>
       <c r="L198" s="5"/>
@@ -11357,23 +11406,23 @@
       <c r="Z198" s="3"/>
     </row>
     <row r="199" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A199" s="8" t="s">
-        <v>549</v>
-      </c>
-      <c r="B199" s="4"/>
-      <c r="C199" s="21" t="s">
-        <v>550</v>
-      </c>
-      <c r="D199" s="22" t="s">
-        <v>551</v>
-      </c>
-      <c r="E199" s="4"/>
+      <c r="A199" s="6" t="s">
+        <v>533</v>
+      </c>
+      <c r="B199" s="5"/>
+      <c r="C199" s="6" t="s">
+        <v>546</v>
+      </c>
+      <c r="D199" s="11" t="s">
+        <v>547</v>
+      </c>
+      <c r="E199" s="6" t="s">
+        <v>548</v>
+      </c>
       <c r="F199" s="5"/>
       <c r="G199" s="5"/>
-      <c r="H199" s="4"/>
-      <c r="I199" s="6" t="s">
-        <v>552</v>
-      </c>
+      <c r="H199" s="5"/>
+      <c r="I199" s="5"/>
       <c r="J199" s="5"/>
       <c r="K199" s="5"/>
       <c r="L199" s="5"/>
@@ -11397,18 +11446,18 @@
         <v>549</v>
       </c>
       <c r="B200" s="4"/>
-      <c r="C200" s="8" t="s">
-        <v>553</v>
-      </c>
-      <c r="D200" s="9" t="s">
-        <v>554</v>
+      <c r="C200" s="21" t="s">
+        <v>550</v>
+      </c>
+      <c r="D200" s="22" t="s">
+        <v>551</v>
       </c>
       <c r="E200" s="4"/>
       <c r="F200" s="5"/>
       <c r="G200" s="5"/>
       <c r="H200" s="4"/>
       <c r="I200" s="6" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="J200" s="5"/>
       <c r="K200" s="5"/>
@@ -11434,17 +11483,17 @@
       </c>
       <c r="B201" s="4"/>
       <c r="C201" s="8" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="D201" s="9" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="E201" s="4"/>
       <c r="F201" s="5"/>
       <c r="G201" s="5"/>
       <c r="H201" s="4"/>
       <c r="I201" s="6" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="J201" s="5"/>
       <c r="K201" s="5"/>
@@ -11466,21 +11515,21 @@
     </row>
     <row r="202" spans="1:26" ht="13.5" customHeight="1">
       <c r="A202" s="8" t="s">
-        <v>559</v>
-      </c>
-      <c r="B202" s="5"/>
-      <c r="C202" s="6" t="s">
-        <v>560</v>
-      </c>
-      <c r="D202" s="11" t="s">
-        <v>561</v>
-      </c>
-      <c r="E202" s="5"/>
+        <v>549</v>
+      </c>
+      <c r="B202" s="4"/>
+      <c r="C202" s="8" t="s">
+        <v>556</v>
+      </c>
+      <c r="D202" s="9" t="s">
+        <v>557</v>
+      </c>
+      <c r="E202" s="4"/>
       <c r="F202" s="5"/>
       <c r="G202" s="5"/>
-      <c r="H202" s="5"/>
+      <c r="H202" s="4"/>
       <c r="I202" s="6" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="J202" s="5"/>
       <c r="K202" s="5"/>
@@ -11506,17 +11555,17 @@
       </c>
       <c r="B203" s="5"/>
       <c r="C203" s="6" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="D203" s="11" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="E203" s="5"/>
       <c r="F203" s="5"/>
       <c r="G203" s="5"/>
       <c r="H203" s="5"/>
       <c r="I203" s="6" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="J203" s="5"/>
       <c r="K203" s="5"/>
@@ -11537,15 +11586,23 @@
       <c r="Z203" s="3"/>
     </row>
     <row r="204" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A204" s="5"/>
+      <c r="A204" s="8" t="s">
+        <v>559</v>
+      </c>
       <c r="B204" s="5"/>
-      <c r="C204" s="5"/>
-      <c r="D204" s="5"/>
+      <c r="C204" s="6" t="s">
+        <v>563</v>
+      </c>
+      <c r="D204" s="11" t="s">
+        <v>564</v>
+      </c>
       <c r="E204" s="5"/>
       <c r="F204" s="5"/>
       <c r="G204" s="5"/>
       <c r="H204" s="5"/>
-      <c r="I204" s="5"/>
+      <c r="I204" s="6" t="s">
+        <v>565</v>
+      </c>
       <c r="J204" s="5"/>
       <c r="K204" s="5"/>
       <c r="L204" s="5"/>
@@ -17136,7 +17193,34 @@
       <c r="Y403" s="3"/>
       <c r="Z403" s="3"/>
     </row>
-    <row r="404" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="404" spans="1:26" ht="13.5" customHeight="1">
+      <c r="A404" s="5"/>
+      <c r="B404" s="5"/>
+      <c r="C404" s="5"/>
+      <c r="D404" s="5"/>
+      <c r="E404" s="5"/>
+      <c r="F404" s="5"/>
+      <c r="G404" s="5"/>
+      <c r="H404" s="5"/>
+      <c r="I404" s="5"/>
+      <c r="J404" s="5"/>
+      <c r="K404" s="5"/>
+      <c r="L404" s="5"/>
+      <c r="M404" s="6"/>
+      <c r="N404" s="3"/>
+      <c r="O404" s="3"/>
+      <c r="P404" s="3"/>
+      <c r="Q404" s="3"/>
+      <c r="R404" s="3"/>
+      <c r="S404" s="3"/>
+      <c r="T404" s="3"/>
+      <c r="U404" s="3"/>
+      <c r="V404" s="3"/>
+      <c r="W404" s="3"/>
+      <c r="X404" s="3"/>
+      <c r="Y404" s="3"/>
+      <c r="Z404" s="3"/>
+    </row>
     <row r="405" spans="1:26" ht="15.75" customHeight="1"/>
     <row r="406" spans="1:26" ht="15.75" customHeight="1"/>
     <row r="407" spans="1:26" ht="15.75" customHeight="1"/>
@@ -17733,8 +17817,9 @@
     <row r="998" ht="15.75" customHeight="1"/>
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="1001" ht="15.75" customHeight="1"/>
   </sheetData>
-  <phoneticPr fontId="13"/>
+  <phoneticPr fontId="14"/>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="D3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
@@ -17827,112 +17912,113 @@
     <hyperlink ref="D90" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
     <hyperlink ref="D91" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
     <hyperlink ref="D92" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="D93" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="D94" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="D95" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="D96" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="D97" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="D98" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="D99" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="D100" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="D101" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="D102" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="D103" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
-    <hyperlink ref="D104" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
-    <hyperlink ref="D105" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="D106" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
-    <hyperlink ref="D107" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="D108" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
-    <hyperlink ref="D109" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
-    <hyperlink ref="D110" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
-    <hyperlink ref="D111" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="D112" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
-    <hyperlink ref="D113" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
-    <hyperlink ref="D114" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
-    <hyperlink ref="D115" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-    <hyperlink ref="D116" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
-    <hyperlink ref="D117" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
-    <hyperlink ref="D118" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
-    <hyperlink ref="D119" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
-    <hyperlink ref="D120" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
-    <hyperlink ref="D121" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
-    <hyperlink ref="D122" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
-    <hyperlink ref="D123" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
-    <hyperlink ref="D124" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
-    <hyperlink ref="D125" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
-    <hyperlink ref="D126" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
-    <hyperlink ref="D127" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
-    <hyperlink ref="D128" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
-    <hyperlink ref="D129" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
-    <hyperlink ref="D130" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
-    <hyperlink ref="D131" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
-    <hyperlink ref="D132" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
-    <hyperlink ref="D133" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
-    <hyperlink ref="D134" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
-    <hyperlink ref="D135" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
-    <hyperlink ref="D136" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
-    <hyperlink ref="D137" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
-    <hyperlink ref="D138" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
-    <hyperlink ref="D139" r:id="rId138" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
-    <hyperlink ref="D140" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
-    <hyperlink ref="D141" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
-    <hyperlink ref="D142" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
-    <hyperlink ref="D143" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
-    <hyperlink ref="D144" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
-    <hyperlink ref="D145" r:id="rId144" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
-    <hyperlink ref="D151" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
-    <hyperlink ref="D152" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
-    <hyperlink ref="D153" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
-    <hyperlink ref="D154" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
-    <hyperlink ref="D155" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
-    <hyperlink ref="D156" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
-    <hyperlink ref="D157" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
-    <hyperlink ref="D158" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
-    <hyperlink ref="D159" r:id="rId153" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
-    <hyperlink ref="D160" r:id="rId154" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
-    <hyperlink ref="D161" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
-    <hyperlink ref="D162" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
-    <hyperlink ref="D163" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
-    <hyperlink ref="D164" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
-    <hyperlink ref="D165" r:id="rId159" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
-    <hyperlink ref="D166" r:id="rId160" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
-    <hyperlink ref="D167" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
-    <hyperlink ref="D168" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
-    <hyperlink ref="D169" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
-    <hyperlink ref="D170" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
-    <hyperlink ref="D171" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
-    <hyperlink ref="D172" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
-    <hyperlink ref="D173" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
-    <hyperlink ref="D174" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
-    <hyperlink ref="D175" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
-    <hyperlink ref="D176" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
-    <hyperlink ref="D177" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
-    <hyperlink ref="D178" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
-    <hyperlink ref="D179" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
-    <hyperlink ref="D180" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
-    <hyperlink ref="D181" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
-    <hyperlink ref="D182" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
-    <hyperlink ref="D183" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
-    <hyperlink ref="D184" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
-    <hyperlink ref="D185" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
-    <hyperlink ref="D186" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
-    <hyperlink ref="D187" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
-    <hyperlink ref="D188" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
-    <hyperlink ref="D189" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
-    <hyperlink ref="D190" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
-    <hyperlink ref="D191" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
-    <hyperlink ref="D192" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
-    <hyperlink ref="D193" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
-    <hyperlink ref="D194" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
-    <hyperlink ref="D195" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
-    <hyperlink ref="D196" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
-    <hyperlink ref="D197" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
-    <hyperlink ref="D198" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
-    <hyperlink ref="D199" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
-    <hyperlink ref="D200" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
-    <hyperlink ref="D201" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
-    <hyperlink ref="D202" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
-    <hyperlink ref="D203" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
+    <hyperlink ref="D94" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="D95" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="D96" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="D97" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="D98" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="D99" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="D100" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="D101" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="D102" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="D103" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="D104" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="D105" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="D106" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="D107" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="D108" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="D109" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="D110" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="D111" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="D112" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="D113" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="D114" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="D115" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="D116" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="D117" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="D118" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="D119" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="D120" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="D121" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="D122" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="D123" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="D124" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="D125" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="D126" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="D127" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="D128" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="D129" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="D130" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="D131" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="D132" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="D133" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="D134" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="D135" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="D136" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
+    <hyperlink ref="D137" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="D138" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="D139" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="D140" r:id="rId138" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="D141" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="D142" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="D143" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="D144" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="D145" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="D146" r:id="rId144" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="D152" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="D153" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="D154" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="D155" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="D156" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="D157" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="D158" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="D159" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
+    <hyperlink ref="D160" r:id="rId153" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
+    <hyperlink ref="D161" r:id="rId154" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
+    <hyperlink ref="D162" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
+    <hyperlink ref="D163" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
+    <hyperlink ref="D164" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
+    <hyperlink ref="D165" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
+    <hyperlink ref="D166" r:id="rId159" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
+    <hyperlink ref="D167" r:id="rId160" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
+    <hyperlink ref="D168" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
+    <hyperlink ref="D169" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
+    <hyperlink ref="D170" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
+    <hyperlink ref="D171" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
+    <hyperlink ref="D172" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
+    <hyperlink ref="D173" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
+    <hyperlink ref="D174" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
+    <hyperlink ref="D175" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
+    <hyperlink ref="D176" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
+    <hyperlink ref="D177" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
+    <hyperlink ref="D178" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
+    <hyperlink ref="D179" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
+    <hyperlink ref="D180" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
+    <hyperlink ref="D181" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
+    <hyperlink ref="D182" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
+    <hyperlink ref="D183" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
+    <hyperlink ref="D184" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
+    <hyperlink ref="D185" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
+    <hyperlink ref="D186" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
+    <hyperlink ref="D187" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
+    <hyperlink ref="D188" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
+    <hyperlink ref="D189" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
+    <hyperlink ref="D190" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
+    <hyperlink ref="D191" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
+    <hyperlink ref="D192" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
+    <hyperlink ref="D193" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
+    <hyperlink ref="D194" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
+    <hyperlink ref="D195" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
+    <hyperlink ref="D196" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
+    <hyperlink ref="D197" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
+    <hyperlink ref="D198" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
+    <hyperlink ref="D199" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
+    <hyperlink ref="D200" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
+    <hyperlink ref="D201" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
+    <hyperlink ref="D202" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
+    <hyperlink ref="D203" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
+    <hyperlink ref="D204" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
+    <hyperlink ref="D93" r:id="rId198" xr:uid="{034F19D9-44B1-4863-B854-984F3778DEC2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>

--- a/メニュー/メニュー.xlsx
+++ b/メニュー/メニュー.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dx-user\Desktop\Github用\LINEクーポン\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\vm22flo01\DownloadFiles\DX推進課\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{202ECD62-762A-4540-A5A2-351662E7DED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39E7AD8D-9325-4E1D-852F-2104FC2ED9AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2856" yWindow="2856" windowWidth="17280" windowHeight="9048" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="メニュー構造" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1044" uniqueCount="569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="566">
   <si>
     <t>大カテゴリー</t>
   </si>
@@ -3295,31 +3295,13 @@
   </si>
   <si>
     <t>wifi-access-point</t>
-  </si>
-  <si>
-    <t>デジタルクーポン対象店舗</t>
-    <rPh sb="8" eb="10">
-      <t>タイショウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>テンポ</t>
-    </rPh>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
-    <t>shopping</t>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
-    <t>https://yaizu-smartcity.jp/tiles/%E7%84%BC%E6%B4%A5%E5%B8%82%E3%83%87%E3%82%B8%E3%82%BF%E3%83%AB%E3%82%AF%E3%83%BC%E3%83%9D%E3%83%B3%E5%AF%BE%E8%B1%A1%E5%BA%97%E8%88%97/tiles.json</t>
-    <phoneticPr fontId="14"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17">
+  <fonts count="14">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -3397,31 +3379,11 @@
       <name val="Arial"/>
     </font>
     <font>
-      <u/>
-      <sz val="10"/>
-      <color theme="10"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="6"/>
       <name val="Arial"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -3519,11 +3481,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3573,18 +3534,8 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="11" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="12" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="15" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3801,11 +3752,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Z1001"/>
+  <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D94" sqref="D94"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A93" sqref="A93:XFD93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -7331,19 +7282,19 @@
       <c r="A93" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="B93" s="6"/>
-      <c r="C93" s="23" t="s">
-        <v>566</v>
-      </c>
-      <c r="D93" s="25" t="s">
-        <v>568</v>
-      </c>
-      <c r="E93" s="8"/>
-      <c r="F93" s="5"/>
-      <c r="G93" s="5"/>
-      <c r="H93" s="8"/>
-      <c r="I93" s="24" t="s">
-        <v>567</v>
+      <c r="B93" s="5"/>
+      <c r="C93" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="D93" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="E93" s="4"/>
+      <c r="F93" s="16"/>
+      <c r="G93" s="16"/>
+      <c r="H93" s="4"/>
+      <c r="I93" s="6" t="s">
+        <v>214</v>
       </c>
       <c r="J93" s="5"/>
       <c r="K93" s="5"/>
@@ -7367,19 +7318,21 @@
       <c r="A94" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="B94" s="5"/>
-      <c r="C94" s="6" t="s">
-        <v>212</v>
+      <c r="B94" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="C94" s="8" t="s">
+        <v>216</v>
       </c>
       <c r="D94" s="9" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="E94" s="4"/>
       <c r="F94" s="16"/>
       <c r="G94" s="16"/>
       <c r="H94" s="4"/>
       <c r="I94" s="6" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="J94" s="5"/>
       <c r="K94" s="5"/>
@@ -7407,17 +7360,17 @@
         <v>215</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="D95" s="9" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="E95" s="4"/>
-      <c r="F95" s="16"/>
+      <c r="F95" s="5"/>
       <c r="G95" s="16"/>
       <c r="H95" s="4"/>
       <c r="I95" s="6" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="J95" s="5"/>
       <c r="K95" s="5"/>
@@ -7441,21 +7394,19 @@
       <c r="A96" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="B96" s="6" t="s">
-        <v>215</v>
-      </c>
+      <c r="B96" s="4"/>
       <c r="C96" s="8" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="D96" s="9" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="E96" s="4"/>
-      <c r="F96" s="5"/>
+      <c r="F96" s="16"/>
       <c r="G96" s="16"/>
       <c r="H96" s="4"/>
       <c r="I96" s="6" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="J96" s="5"/>
       <c r="K96" s="5"/>
@@ -7481,17 +7432,17 @@
       </c>
       <c r="B97" s="4"/>
       <c r="C97" s="8" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D97" s="9" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="E97" s="4"/>
       <c r="F97" s="16"/>
       <c r="G97" s="16"/>
       <c r="H97" s="4"/>
       <c r="I97" s="6" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="J97" s="5"/>
       <c r="K97" s="5"/>
@@ -7517,17 +7468,17 @@
       </c>
       <c r="B98" s="4"/>
       <c r="C98" s="8" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D98" s="9" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="E98" s="4"/>
       <c r="F98" s="16"/>
       <c r="G98" s="16"/>
       <c r="H98" s="4"/>
       <c r="I98" s="6" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="J98" s="5"/>
       <c r="K98" s="5"/>
@@ -7551,19 +7502,21 @@
       <c r="A99" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="B99" s="4"/>
+      <c r="B99" s="6" t="s">
+        <v>231</v>
+      </c>
       <c r="C99" s="8" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="D99" s="9" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="E99" s="4"/>
       <c r="F99" s="16"/>
       <c r="G99" s="16"/>
       <c r="H99" s="4"/>
-      <c r="I99" s="6" t="s">
-        <v>230</v>
+      <c r="I99" s="8" t="s">
+        <v>234</v>
       </c>
       <c r="J99" s="5"/>
       <c r="K99" s="5"/>
@@ -7583,7 +7536,7 @@
       <c r="Y99" s="3"/>
       <c r="Z99" s="3"/>
     </row>
-    <row r="100" spans="1:26" ht="13.5" customHeight="1">
+    <row r="100" spans="1:26" ht="15" customHeight="1">
       <c r="A100" s="8" t="s">
         <v>211</v>
       </c>
@@ -7591,18 +7544,18 @@
         <v>231</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D100" s="9" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="E100" s="4"/>
-      <c r="F100" s="16"/>
-      <c r="G100" s="16"/>
-      <c r="H100" s="4"/>
-      <c r="I100" s="8" t="s">
-        <v>234</v>
-      </c>
+      <c r="F100" s="5"/>
+      <c r="G100" s="5"/>
+      <c r="H100" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="I100" s="5"/>
       <c r="J100" s="5"/>
       <c r="K100" s="5"/>
       <c r="L100" s="5"/>
@@ -7621,26 +7574,24 @@
       <c r="Y100" s="3"/>
       <c r="Z100" s="3"/>
     </row>
-    <row r="101" spans="1:26" ht="15" customHeight="1">
+    <row r="101" spans="1:26" ht="13.5" customHeight="1">
       <c r="A101" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="B101" s="6" t="s">
-        <v>231</v>
-      </c>
+      <c r="B101" s="5"/>
       <c r="C101" s="8" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="D101" s="9" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="E101" s="4"/>
-      <c r="F101" s="5"/>
-      <c r="G101" s="5"/>
-      <c r="H101" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="I101" s="5"/>
+      <c r="F101" s="16"/>
+      <c r="G101" s="16"/>
+      <c r="H101" s="4"/>
+      <c r="I101" s="6" t="s">
+        <v>240</v>
+      </c>
       <c r="J101" s="5"/>
       <c r="K101" s="5"/>
       <c r="L101" s="5"/>
@@ -7665,18 +7616,18 @@
       </c>
       <c r="B102" s="5"/>
       <c r="C102" s="8" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="D102" s="9" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="E102" s="4"/>
-      <c r="F102" s="16"/>
-      <c r="G102" s="16"/>
-      <c r="H102" s="4"/>
-      <c r="I102" s="6" t="s">
-        <v>240</v>
-      </c>
+      <c r="F102" s="5"/>
+      <c r="G102" s="5"/>
+      <c r="H102" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="I102" s="5"/>
       <c r="J102" s="5"/>
       <c r="K102" s="5"/>
       <c r="L102" s="5"/>
@@ -7695,23 +7646,25 @@
       <c r="Y102" s="3"/>
       <c r="Z102" s="3"/>
     </row>
-    <row r="103" spans="1:26" ht="13.5" customHeight="1">
+    <row r="103" spans="1:26" ht="12.75" customHeight="1">
       <c r="A103" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="B103" s="5"/>
+      <c r="B103" s="8" t="s">
+        <v>244</v>
+      </c>
       <c r="C103" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="D103" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="E103" s="4"/>
-      <c r="F103" s="5"/>
+        <v>245</v>
+      </c>
+      <c r="D103" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="E103" s="5"/>
+      <c r="F103" s="6" t="s">
+        <v>247</v>
+      </c>
       <c r="G103" s="5"/>
-      <c r="H103" s="4" t="s">
-        <v>243</v>
-      </c>
+      <c r="H103" s="5"/>
       <c r="I103" s="5"/>
       <c r="J103" s="5"/>
       <c r="K103" s="5"/>
@@ -7739,14 +7692,14 @@
         <v>244</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="D104" s="11" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="E104" s="5"/>
       <c r="F104" s="6" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="G104" s="5"/>
       <c r="H104" s="5"/>
@@ -7777,14 +7730,14 @@
         <v>244</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="D105" s="11" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="E105" s="5"/>
       <c r="F105" s="6" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="G105" s="5"/>
       <c r="H105" s="5"/>
@@ -7815,14 +7768,14 @@
         <v>244</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="D106" s="11" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="E106" s="5"/>
       <c r="F106" s="6" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="G106" s="5"/>
       <c r="H106" s="5"/>
@@ -7853,14 +7806,14 @@
         <v>244</v>
       </c>
       <c r="C107" s="8" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="D107" s="11" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="E107" s="5"/>
       <c r="F107" s="6" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="G107" s="5"/>
       <c r="H107" s="5"/>
@@ -7891,14 +7844,14 @@
         <v>244</v>
       </c>
       <c r="C108" s="8" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="D108" s="11" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="E108" s="5"/>
       <c r="F108" s="6" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="G108" s="5"/>
       <c r="H108" s="5"/>
@@ -7929,14 +7882,14 @@
         <v>244</v>
       </c>
       <c r="C109" s="8" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="D109" s="11" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E109" s="5"/>
       <c r="F109" s="6" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="G109" s="5"/>
       <c r="H109" s="5"/>
@@ -7959,7 +7912,7 @@
       <c r="Y109" s="3"/>
       <c r="Z109" s="3"/>
     </row>
-    <row r="110" spans="1:26" ht="12.75" customHeight="1">
+    <row r="110" spans="1:26" ht="13.5" customHeight="1">
       <c r="A110" s="8" t="s">
         <v>211</v>
       </c>
@@ -7967,19 +7920,19 @@
         <v>244</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="D110" s="11" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="E110" s="5"/>
-      <c r="F110" s="6" t="s">
-        <v>265</v>
-      </c>
+      <c r="F110" s="5"/>
       <c r="G110" s="5"/>
       <c r="H110" s="5"/>
-      <c r="I110" s="5"/>
-      <c r="J110" s="5"/>
+      <c r="I110" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="J110" s="16"/>
       <c r="K110" s="5"/>
       <c r="L110" s="5"/>
       <c r="M110" s="6"/>
@@ -8005,17 +7958,17 @@
         <v>244</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="D111" s="11" t="s">
-        <v>267</v>
+        <v>269</v>
+      </c>
+      <c r="D111" s="13" t="s">
+        <v>270</v>
       </c>
       <c r="E111" s="5"/>
       <c r="F111" s="5"/>
       <c r="G111" s="5"/>
       <c r="H111" s="5"/>
       <c r="I111" s="6" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="J111" s="16"/>
       <c r="K111" s="5"/>
@@ -8042,20 +7995,22 @@
       <c r="B112" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="C112" s="8" t="s">
-        <v>269</v>
+      <c r="C112" s="6" t="s">
+        <v>272</v>
       </c>
       <c r="D112" s="13" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="E112" s="5"/>
-      <c r="F112" s="5"/>
+      <c r="F112" s="17" t="s">
+        <v>274</v>
+      </c>
       <c r="G112" s="5"/>
-      <c r="H112" s="5"/>
-      <c r="I112" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="J112" s="16"/>
+      <c r="H112" s="17" t="s">
+        <v>275</v>
+      </c>
+      <c r="I112" s="5"/>
+      <c r="J112" s="5"/>
       <c r="K112" s="5"/>
       <c r="L112" s="5"/>
       <c r="M112" s="6"/>
@@ -8074,26 +8029,20 @@
       <c r="Z112" s="3"/>
     </row>
     <row r="113" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A113" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="B113" s="8" t="s">
-        <v>244</v>
-      </c>
+      <c r="A113" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="B113" s="5"/>
       <c r="C113" s="6" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="D113" s="13" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="E113" s="5"/>
-      <c r="F113" s="17" t="s">
-        <v>274</v>
-      </c>
+      <c r="F113" s="5"/>
       <c r="G113" s="5"/>
-      <c r="H113" s="17" t="s">
-        <v>275</v>
-      </c>
+      <c r="H113" s="5"/>
       <c r="I113" s="5"/>
       <c r="J113" s="5"/>
       <c r="K113" s="5"/>
@@ -8114,20 +8063,24 @@
       <c r="Z113" s="3"/>
     </row>
     <row r="114" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A114" s="6" t="s">
+      <c r="A114" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="B114" s="5"/>
+      <c r="B114" s="6" t="s">
+        <v>279</v>
+      </c>
       <c r="C114" s="6" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="D114" s="13" t="s">
-        <v>278</v>
-      </c>
-      <c r="E114" s="5"/>
+        <v>281</v>
+      </c>
+      <c r="E114" s="8" t="s">
+        <v>282</v>
+      </c>
       <c r="F114" s="5"/>
       <c r="G114" s="5"/>
-      <c r="H114" s="5"/>
+      <c r="H114" s="4"/>
       <c r="I114" s="5"/>
       <c r="J114" s="5"/>
       <c r="K114" s="5"/>
@@ -8155,13 +8108,13 @@
         <v>279</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="D115" s="13" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="E115" s="8" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="F115" s="5"/>
       <c r="G115" s="5"/>
@@ -8193,13 +8146,13 @@
         <v>279</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="D116" s="13" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="E116" s="8" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="F116" s="5"/>
       <c r="G116" s="5"/>
@@ -8231,13 +8184,13 @@
         <v>279</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="D117" s="13" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="E117" s="8" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="F117" s="5"/>
       <c r="G117" s="5"/>
@@ -8269,17 +8222,17 @@
         <v>279</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="D118" s="13" t="s">
-        <v>290</v>
-      </c>
-      <c r="E118" s="8" t="s">
-        <v>291</v>
+        <v>293</v>
+      </c>
+      <c r="E118" s="6" t="s">
+        <v>294</v>
       </c>
       <c r="F118" s="5"/>
       <c r="G118" s="5"/>
-      <c r="H118" s="4"/>
+      <c r="H118" s="5"/>
       <c r="I118" s="5"/>
       <c r="J118" s="5"/>
       <c r="K118" s="5"/>
@@ -8307,17 +8260,17 @@
         <v>279</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="D119" s="13" t="s">
-        <v>293</v>
-      </c>
-      <c r="E119" s="6" t="s">
-        <v>294</v>
+        <v>296</v>
+      </c>
+      <c r="E119" s="8" t="s">
+        <v>297</v>
       </c>
       <c r="F119" s="5"/>
       <c r="G119" s="5"/>
-      <c r="H119" s="5"/>
+      <c r="H119" s="4"/>
       <c r="I119" s="5"/>
       <c r="J119" s="5"/>
       <c r="K119" s="5"/>
@@ -8345,13 +8298,13 @@
         <v>279</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="D120" s="13" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="E120" s="8" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="F120" s="5"/>
       <c r="G120" s="5"/>
@@ -8383,13 +8336,13 @@
         <v>279</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="D121" s="13" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="E121" s="8" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="F121" s="5"/>
       <c r="G121" s="5"/>
@@ -8421,17 +8374,17 @@
         <v>279</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="D122" s="13" t="s">
-        <v>302</v>
-      </c>
-      <c r="E122" s="8" t="s">
-        <v>303</v>
+        <v>305</v>
+      </c>
+      <c r="E122" s="6" t="s">
+        <v>306</v>
       </c>
       <c r="F122" s="5"/>
       <c r="G122" s="5"/>
-      <c r="H122" s="4"/>
+      <c r="H122" s="5"/>
       <c r="I122" s="5"/>
       <c r="J122" s="5"/>
       <c r="K122" s="5"/>
@@ -8459,10 +8412,10 @@
         <v>279</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="D123" s="13" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="E123" s="6" t="s">
         <v>306</v>
@@ -8497,13 +8450,13 @@
         <v>279</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D124" s="13" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="E124" s="6" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="F124" s="5"/>
       <c r="G124" s="5"/>
@@ -8535,13 +8488,13 @@
         <v>279</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="D125" s="13" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="E125" s="6" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="F125" s="5"/>
       <c r="G125" s="5"/>
@@ -8570,18 +8523,20 @@
         <v>276</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>279</v>
+        <v>314</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="D126" s="13" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="E126" s="6" t="s">
-        <v>303</v>
-      </c>
-      <c r="F126" s="5"/>
+        <v>317</v>
+      </c>
+      <c r="F126" s="6" t="s">
+        <v>318</v>
+      </c>
       <c r="G126" s="5"/>
       <c r="H126" s="5"/>
       <c r="I126" s="5"/>
@@ -8611,13 +8566,13 @@
         <v>314</v>
       </c>
       <c r="C127" s="6" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="D127" s="13" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="E127" s="6" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="F127" s="6" t="s">
         <v>318</v>
@@ -8651,13 +8606,13 @@
         <v>314</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="D128" s="13" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="E128" s="6" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="F128" s="6" t="s">
         <v>318</v>
@@ -8691,13 +8646,13 @@
         <v>314</v>
       </c>
       <c r="C129" s="6" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="D129" s="13" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="E129" s="6" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="F129" s="6" t="s">
         <v>318</v>
@@ -8731,13 +8686,13 @@
         <v>314</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="D130" s="13" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="E130" s="6" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="F130" s="6" t="s">
         <v>318</v>
@@ -8771,13 +8726,13 @@
         <v>314</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="D131" s="13" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="E131" s="6" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="F131" s="6" t="s">
         <v>318</v>
@@ -8811,16 +8766,16 @@
         <v>314</v>
       </c>
       <c r="C132" s="6" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="D132" s="13" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="E132" s="6" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="F132" s="6" t="s">
-        <v>318</v>
+        <v>337</v>
       </c>
       <c r="G132" s="5"/>
       <c r="H132" s="5"/>
@@ -8851,19 +8806,19 @@
         <v>314</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="D133" s="13" t="s">
-        <v>335</v>
-      </c>
-      <c r="E133" s="6" t="s">
-        <v>336</v>
+        <v>339</v>
+      </c>
+      <c r="E133" s="8" t="s">
+        <v>340</v>
       </c>
       <c r="F133" s="6" t="s">
         <v>337</v>
       </c>
       <c r="G133" s="5"/>
-      <c r="H133" s="5"/>
+      <c r="H133" s="4"/>
       <c r="I133" s="5"/>
       <c r="J133" s="5"/>
       <c r="K133" s="5"/>
@@ -8891,19 +8846,19 @@
         <v>314</v>
       </c>
       <c r="C134" s="6" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="D134" s="13" t="s">
-        <v>339</v>
-      </c>
-      <c r="E134" s="8" t="s">
-        <v>340</v>
+        <v>342</v>
+      </c>
+      <c r="E134" s="6" t="s">
+        <v>343</v>
       </c>
       <c r="F134" s="6" t="s">
         <v>337</v>
       </c>
       <c r="G134" s="5"/>
-      <c r="H134" s="4"/>
+      <c r="H134" s="5"/>
       <c r="I134" s="5"/>
       <c r="J134" s="5"/>
       <c r="K134" s="5"/>
@@ -8931,13 +8886,13 @@
         <v>314</v>
       </c>
       <c r="C135" s="6" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="D135" s="13" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="E135" s="6" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="F135" s="6" t="s">
         <v>337</v>
@@ -8971,13 +8926,13 @@
         <v>314</v>
       </c>
       <c r="C136" s="6" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="D136" s="13" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="E136" s="6" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="F136" s="6" t="s">
         <v>337</v>
@@ -9007,17 +8962,17 @@
       <c r="A137" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="B137" s="6" t="s">
+      <c r="B137" s="8" t="s">
         <v>314</v>
       </c>
-      <c r="C137" s="6" t="s">
-        <v>347</v>
+      <c r="C137" s="8" t="s">
+        <v>350</v>
       </c>
       <c r="D137" s="13" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="E137" s="6" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F137" s="6" t="s">
         <v>337</v>
@@ -9025,7 +8980,9 @@
       <c r="G137" s="5"/>
       <c r="H137" s="5"/>
       <c r="I137" s="5"/>
-      <c r="J137" s="5"/>
+      <c r="J137" s="6" t="s">
+        <v>350</v>
+      </c>
       <c r="K137" s="5"/>
       <c r="L137" s="5"/>
       <c r="M137" s="6"/>
@@ -9044,30 +9001,28 @@
       <c r="Z137" s="3"/>
     </row>
     <row r="138" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A138" s="8" t="s">
+      <c r="A138" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="B138" s="8" t="s">
-        <v>314</v>
-      </c>
-      <c r="C138" s="8" t="s">
-        <v>350</v>
+      <c r="B138" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="C138" s="6" t="s">
+        <v>354</v>
       </c>
       <c r="D138" s="13" t="s">
-        <v>351</v>
-      </c>
-      <c r="E138" s="6" t="s">
-        <v>352</v>
-      </c>
-      <c r="F138" s="6" t="s">
-        <v>337</v>
+        <v>355</v>
+      </c>
+      <c r="E138" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="F138" s="5" t="s">
+        <v>356</v>
       </c>
       <c r="G138" s="5"/>
       <c r="H138" s="5"/>
       <c r="I138" s="5"/>
-      <c r="J138" s="6" t="s">
-        <v>350</v>
-      </c>
+      <c r="J138" s="5"/>
       <c r="K138" s="5"/>
       <c r="L138" s="5"/>
       <c r="M138" s="6"/>
@@ -9093,16 +9048,16 @@
         <v>353</v>
       </c>
       <c r="C139" s="6" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D139" s="13" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="E139" s="5" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="F139" s="5" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="G139" s="5"/>
       <c r="H139" s="5"/>
@@ -9126,28 +9081,24 @@
       <c r="Z139" s="3"/>
     </row>
     <row r="140" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A140" s="6" t="s">
+      <c r="A140" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="B140" s="6" t="s">
-        <v>353</v>
-      </c>
+      <c r="B140" s="5"/>
       <c r="C140" s="6" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="D140" s="13" t="s">
-        <v>358</v>
-      </c>
-      <c r="E140" s="5" t="s">
-        <v>359</v>
-      </c>
-      <c r="F140" s="5" t="s">
-        <v>359</v>
-      </c>
-      <c r="G140" s="5"/>
+        <v>361</v>
+      </c>
+      <c r="E140" s="5"/>
+      <c r="F140" s="16"/>
+      <c r="G140" s="16"/>
       <c r="H140" s="5"/>
-      <c r="I140" s="5"/>
-      <c r="J140" s="5"/>
+      <c r="I140" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="J140" s="16"/>
       <c r="K140" s="5"/>
       <c r="L140" s="5"/>
       <c r="M140" s="6"/>
@@ -9171,17 +9122,17 @@
       </c>
       <c r="B141" s="5"/>
       <c r="C141" s="6" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D141" s="13" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="E141" s="5"/>
       <c r="F141" s="16"/>
       <c r="G141" s="16"/>
       <c r="H141" s="5"/>
       <c r="I141" s="17" t="s">
-        <v>271</v>
+        <v>364</v>
       </c>
       <c r="J141" s="16"/>
       <c r="K141" s="5"/>
@@ -9207,19 +9158,21 @@
       </c>
       <c r="B142" s="5"/>
       <c r="C142" s="6" t="s">
-        <v>362</v>
-      </c>
-      <c r="D142" s="13" t="s">
-        <v>363</v>
-      </c>
-      <c r="E142" s="5"/>
-      <c r="F142" s="16"/>
-      <c r="G142" s="16"/>
-      <c r="H142" s="5"/>
-      <c r="I142" s="17" t="s">
-        <v>364</v>
-      </c>
-      <c r="J142" s="16"/>
+        <v>365</v>
+      </c>
+      <c r="D142" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="E142" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="F142" s="5"/>
+      <c r="G142" s="5"/>
+      <c r="H142" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="I142" s="5"/>
+      <c r="J142" s="5"/>
       <c r="K142" s="5"/>
       <c r="L142" s="5"/>
       <c r="M142" s="6"/>
@@ -9238,23 +9191,23 @@
       <c r="Z142" s="3"/>
     </row>
     <row r="143" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A143" s="8" t="s">
-        <v>276</v>
+      <c r="A143" s="6" t="s">
+        <v>368</v>
       </c>
       <c r="B143" s="5"/>
       <c r="C143" s="6" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="D143" s="11" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="E143" s="6" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="F143" s="5"/>
       <c r="G143" s="5"/>
       <c r="H143" s="6" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="I143" s="5"/>
       <c r="J143" s="5"/>
@@ -9281,18 +9234,18 @@
       </c>
       <c r="B144" s="5"/>
       <c r="C144" s="6" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="D144" s="11" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="E144" s="6" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="F144" s="5"/>
       <c r="G144" s="5"/>
       <c r="H144" s="6" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="I144" s="5"/>
       <c r="J144" s="5"/>
@@ -9319,19 +9272,19 @@
       </c>
       <c r="B145" s="5"/>
       <c r="C145" s="6" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="D145" s="11" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="E145" s="6" t="s">
-        <v>374</v>
-      </c>
-      <c r="F145" s="5"/>
+        <v>73</v>
+      </c>
+      <c r="F145" s="6" t="s">
+        <v>377</v>
+      </c>
       <c r="G145" s="5"/>
-      <c r="H145" s="6" t="s">
-        <v>374</v>
-      </c>
+      <c r="H145" s="5"/>
       <c r="I145" s="5"/>
       <c r="J145" s="5"/>
       <c r="K145" s="5"/>
@@ -9353,21 +9306,19 @@
     </row>
     <row r="146" spans="1:26" ht="13.5" customHeight="1">
       <c r="A146" s="6" t="s">
-        <v>368</v>
-      </c>
-      <c r="B146" s="5"/>
+        <v>378</v>
+      </c>
+      <c r="B146" s="6"/>
       <c r="C146" s="6" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="D146" s="11" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="E146" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="F146" s="6" t="s">
-        <v>377</v>
-      </c>
+        <v>381</v>
+      </c>
+      <c r="F146" s="5"/>
       <c r="G146" s="5"/>
       <c r="H146" s="5"/>
       <c r="I146" s="5"/>
@@ -9393,24 +9344,30 @@
       <c r="A147" s="6" t="s">
         <v>378</v>
       </c>
-      <c r="B147" s="6"/>
+      <c r="B147" s="6" t="s">
+        <v>382</v>
+      </c>
       <c r="C147" s="6" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="D147" s="11" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="E147" s="6" t="s">
-        <v>381</v>
-      </c>
-      <c r="F147" s="5"/>
+        <v>385</v>
+      </c>
+      <c r="F147" s="6" t="s">
+        <v>385</v>
+      </c>
       <c r="G147" s="5"/>
       <c r="H147" s="5"/>
       <c r="I147" s="5"/>
       <c r="J147" s="5"/>
       <c r="K147" s="5"/>
       <c r="L147" s="5"/>
-      <c r="M147" s="6"/>
+      <c r="M147" s="6" t="s">
+        <v>386</v>
+      </c>
       <c r="N147" s="3"/>
       <c r="O147" s="3"/>
       <c r="P147" s="3"/>
@@ -9433,19 +9390,21 @@
         <v>382</v>
       </c>
       <c r="C148" s="6" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="D148" s="11" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="E148" s="6" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="F148" s="6" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="G148" s="5"/>
-      <c r="H148" s="5"/>
+      <c r="H148" s="6" t="s">
+        <v>389</v>
+      </c>
       <c r="I148" s="5"/>
       <c r="J148" s="5"/>
       <c r="K148" s="5"/>
@@ -9475,20 +9434,20 @@
         <v>382</v>
       </c>
       <c r="C149" s="6" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="D149" s="11" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="E149" s="6" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="F149" s="6" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="G149" s="5"/>
       <c r="H149" s="6" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="I149" s="5"/>
       <c r="J149" s="5"/>
@@ -9519,20 +9478,20 @@
         <v>382</v>
       </c>
       <c r="C150" s="6" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="D150" s="11" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="E150" s="6" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="F150" s="6" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="G150" s="5"/>
       <c r="H150" s="6" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="I150" s="5"/>
       <c r="J150" s="5"/>
@@ -9555,36 +9514,30 @@
       <c r="Y150" s="3"/>
       <c r="Z150" s="3"/>
     </row>
-    <row r="151" spans="1:26" ht="13.5" customHeight="1">
+    <row r="151" spans="1:26" ht="15" customHeight="1">
       <c r="A151" s="6" t="s">
         <v>378</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>382</v>
+        <v>396</v>
       </c>
       <c r="C151" s="6" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="D151" s="11" t="s">
-        <v>394</v>
-      </c>
-      <c r="E151" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="F151" s="6" t="s">
-        <v>395</v>
-      </c>
+        <v>398</v>
+      </c>
+      <c r="E151" s="5"/>
+      <c r="F151" s="5"/>
       <c r="G151" s="5"/>
-      <c r="H151" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="I151" s="5"/>
+      <c r="H151" s="5"/>
+      <c r="I151" s="6" t="s">
+        <v>399</v>
+      </c>
       <c r="J151" s="5"/>
       <c r="K151" s="5"/>
       <c r="L151" s="5"/>
-      <c r="M151" s="6" t="s">
-        <v>386</v>
-      </c>
+      <c r="M151" s="6"/>
       <c r="N151" s="3"/>
       <c r="O151" s="3"/>
       <c r="P151" s="3"/>
@@ -9599,7 +9552,7 @@
       <c r="Y151" s="3"/>
       <c r="Z151" s="3"/>
     </row>
-    <row r="152" spans="1:26" ht="15" customHeight="1">
+    <row r="152" spans="1:26" ht="13.5" customHeight="1">
       <c r="A152" s="6" t="s">
         <v>378</v>
       </c>
@@ -9607,18 +9560,16 @@
         <v>396</v>
       </c>
       <c r="C152" s="6" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="D152" s="11" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="E152" s="5"/>
       <c r="F152" s="5"/>
       <c r="G152" s="5"/>
       <c r="H152" s="5"/>
-      <c r="I152" s="6" t="s">
-        <v>399</v>
-      </c>
+      <c r="I152" s="5"/>
       <c r="J152" s="5"/>
       <c r="K152" s="5"/>
       <c r="L152" s="5"/>
@@ -9641,20 +9592,22 @@
       <c r="A153" s="6" t="s">
         <v>378</v>
       </c>
-      <c r="B153" s="6" t="s">
-        <v>396</v>
+      <c r="B153" s="8" t="s">
+        <v>402</v>
       </c>
       <c r="C153" s="6" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="D153" s="11" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="E153" s="5"/>
       <c r="F153" s="5"/>
       <c r="G153" s="5"/>
       <c r="H153" s="5"/>
-      <c r="I153" s="5"/>
+      <c r="I153" s="6" t="s">
+        <v>405</v>
+      </c>
       <c r="J153" s="5"/>
       <c r="K153" s="5"/>
       <c r="L153" s="5"/>
@@ -9681,18 +9634,22 @@
         <v>402</v>
       </c>
       <c r="C154" s="6" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="D154" s="11" t="s">
-        <v>404</v>
-      </c>
-      <c r="E154" s="5"/>
-      <c r="F154" s="5"/>
+        <v>407</v>
+      </c>
+      <c r="E154" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="F154" s="6" t="s">
+        <v>408</v>
+      </c>
       <c r="G154" s="5"/>
-      <c r="H154" s="5"/>
-      <c r="I154" s="6" t="s">
-        <v>405</v>
-      </c>
+      <c r="H154" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="I154" s="5"/>
       <c r="J154" s="5"/>
       <c r="K154" s="5"/>
       <c r="L154" s="5"/>
@@ -9719,22 +9676,18 @@
         <v>402</v>
       </c>
       <c r="C155" s="6" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="D155" s="11" t="s">
-        <v>407</v>
-      </c>
-      <c r="E155" s="6" t="s">
-        <v>408</v>
-      </c>
-      <c r="F155" s="6" t="s">
-        <v>408</v>
-      </c>
+        <v>410</v>
+      </c>
+      <c r="E155" s="5"/>
+      <c r="F155" s="5"/>
       <c r="G155" s="5"/>
-      <c r="H155" s="6" t="s">
-        <v>408</v>
-      </c>
-      <c r="I155" s="5"/>
+      <c r="H155" s="5"/>
+      <c r="I155" s="6" t="s">
+        <v>405</v>
+      </c>
       <c r="J155" s="5"/>
       <c r="K155" s="5"/>
       <c r="L155" s="5"/>
@@ -9761,17 +9714,17 @@
         <v>402</v>
       </c>
       <c r="C156" s="6" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="D156" s="11" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="E156" s="5"/>
       <c r="F156" s="5"/>
       <c r="G156" s="5"/>
       <c r="H156" s="5"/>
-      <c r="I156" s="6" t="s">
-        <v>405</v>
+      <c r="I156" s="8" t="s">
+        <v>413</v>
       </c>
       <c r="J156" s="5"/>
       <c r="K156" s="5"/>
@@ -9799,10 +9752,10 @@
         <v>402</v>
       </c>
       <c r="C157" s="6" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="D157" s="11" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="E157" s="5"/>
       <c r="F157" s="5"/>
@@ -9837,17 +9790,17 @@
         <v>402</v>
       </c>
       <c r="C158" s="6" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="D158" s="11" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="E158" s="5"/>
       <c r="F158" s="5"/>
       <c r="G158" s="5"/>
       <c r="H158" s="5"/>
       <c r="I158" s="8" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="J158" s="5"/>
       <c r="K158" s="5"/>
@@ -9875,18 +9828,22 @@
         <v>402</v>
       </c>
       <c r="C159" s="6" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="D159" s="11" t="s">
-        <v>417</v>
-      </c>
-      <c r="E159" s="5"/>
-      <c r="F159" s="5"/>
+        <v>420</v>
+      </c>
+      <c r="E159" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="F159" s="6" t="s">
+        <v>421</v>
+      </c>
       <c r="G159" s="5"/>
-      <c r="H159" s="5"/>
-      <c r="I159" s="8" t="s">
-        <v>418</v>
-      </c>
+      <c r="H159" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="I159" s="5"/>
       <c r="J159" s="5"/>
       <c r="K159" s="5"/>
       <c r="L159" s="5"/>
@@ -9909,24 +9866,22 @@
       <c r="A160" s="6" t="s">
         <v>378</v>
       </c>
-      <c r="B160" s="8" t="s">
-        <v>402</v>
+      <c r="B160" s="6" t="s">
+        <v>422</v>
       </c>
       <c r="C160" s="6" t="s">
-        <v>419</v>
-      </c>
-      <c r="D160" s="11" t="s">
-        <v>420</v>
+        <v>423</v>
+      </c>
+      <c r="D160" s="13" t="s">
+        <v>424</v>
       </c>
       <c r="E160" s="6" t="s">
-        <v>421</v>
-      </c>
-      <c r="F160" s="6" t="s">
-        <v>421</v>
-      </c>
+        <v>425</v>
+      </c>
+      <c r="F160" s="5"/>
       <c r="G160" s="5"/>
       <c r="H160" s="6" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="I160" s="5"/>
       <c r="J160" s="5"/>
@@ -9955,18 +9910,18 @@
         <v>422</v>
       </c>
       <c r="C161" s="6" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="D161" s="13" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="E161" s="6" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="F161" s="5"/>
       <c r="G161" s="5"/>
       <c r="H161" s="6" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="I161" s="5"/>
       <c r="J161" s="5"/>
@@ -9995,18 +9950,18 @@
         <v>422</v>
       </c>
       <c r="C162" s="6" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="D162" s="13" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="E162" s="6" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="F162" s="5"/>
       <c r="G162" s="5"/>
       <c r="H162" s="6" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="I162" s="5"/>
       <c r="J162" s="5"/>
@@ -10035,18 +9990,18 @@
         <v>422</v>
       </c>
       <c r="C163" s="6" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="D163" s="13" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="E163" s="6" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="F163" s="5"/>
       <c r="G163" s="5"/>
       <c r="H163" s="6" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="I163" s="5"/>
       <c r="J163" s="5"/>
@@ -10069,24 +10024,22 @@
     </row>
     <row r="164" spans="1:26" ht="13.5" customHeight="1">
       <c r="A164" s="6" t="s">
-        <v>378</v>
-      </c>
-      <c r="B164" s="6" t="s">
-        <v>422</v>
-      </c>
+        <v>435</v>
+      </c>
+      <c r="B164" s="5"/>
       <c r="C164" s="6" t="s">
-        <v>432</v>
-      </c>
-      <c r="D164" s="13" t="s">
-        <v>433</v>
+        <v>436</v>
+      </c>
+      <c r="D164" s="11" t="s">
+        <v>437</v>
       </c>
       <c r="E164" s="6" t="s">
-        <v>434</v>
+        <v>291</v>
       </c>
       <c r="F164" s="5"/>
       <c r="G164" s="5"/>
       <c r="H164" s="6" t="s">
-        <v>434</v>
+        <v>291</v>
       </c>
       <c r="I164" s="5"/>
       <c r="J164" s="5"/>
@@ -10108,24 +10061,26 @@
       <c r="Z164" s="3"/>
     </row>
     <row r="165" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A165" s="6" t="s">
-        <v>435</v>
-      </c>
-      <c r="B165" s="5"/>
+      <c r="A165" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="B165" s="6" t="s">
+        <v>439</v>
+      </c>
       <c r="C165" s="6" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="D165" s="11" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="E165" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="F165" s="5"/>
+        <v>442</v>
+      </c>
+      <c r="F165" s="6" t="s">
+        <v>294</v>
+      </c>
       <c r="G165" s="5"/>
-      <c r="H165" s="6" t="s">
-        <v>291</v>
-      </c>
+      <c r="H165" s="5"/>
       <c r="I165" s="5"/>
       <c r="J165" s="5"/>
       <c r="K165" s="5"/>
@@ -10153,13 +10108,13 @@
         <v>439</v>
       </c>
       <c r="C166" s="6" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="D166" s="11" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="E166" s="6" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="F166" s="6" t="s">
         <v>294</v>
@@ -10190,22 +10145,22 @@
         <v>438</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="C167" s="6" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="D167" s="11" t="s">
-        <v>444</v>
-      </c>
-      <c r="E167" s="6" t="s">
-        <v>445</v>
-      </c>
+        <v>447</v>
+      </c>
+      <c r="E167" s="5"/>
       <c r="F167" s="6" t="s">
-        <v>294</v>
+        <v>448</v>
       </c>
       <c r="G167" s="5"/>
-      <c r="H167" s="5"/>
+      <c r="H167" s="6" t="s">
+        <v>448</v>
+      </c>
       <c r="I167" s="5"/>
       <c r="J167" s="5"/>
       <c r="K167" s="5"/>
@@ -10230,21 +10185,23 @@
         <v>438</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="C168" s="6" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="D168" s="11" t="s">
-        <v>447</v>
-      </c>
-      <c r="E168" s="5"/>
+        <v>451</v>
+      </c>
+      <c r="E168" s="6" t="s">
+        <v>452</v>
+      </c>
       <c r="F168" s="6" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="G168" s="5"/>
       <c r="H168" s="6" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="I168" s="5"/>
       <c r="J168" s="5"/>
@@ -10273,20 +10230,20 @@
         <v>449</v>
       </c>
       <c r="C169" s="6" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="D169" s="11" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="E169" s="6" t="s">
-        <v>452</v>
+        <v>23</v>
       </c>
       <c r="F169" s="6" t="s">
-        <v>452</v>
+        <v>23</v>
       </c>
       <c r="G169" s="5"/>
       <c r="H169" s="6" t="s">
-        <v>452</v>
+        <v>23</v>
       </c>
       <c r="I169" s="5"/>
       <c r="J169" s="5"/>
@@ -10311,26 +10268,20 @@
       <c r="A170" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="B170" s="6" t="s">
-        <v>449</v>
-      </c>
+      <c r="B170" s="5"/>
       <c r="C170" s="6" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="D170" s="11" t="s">
-        <v>454</v>
-      </c>
-      <c r="E170" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F170" s="6" t="s">
-        <v>23</v>
-      </c>
+        <v>456</v>
+      </c>
+      <c r="E170" s="5"/>
+      <c r="F170" s="5"/>
       <c r="G170" s="5"/>
-      <c r="H170" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="I170" s="5"/>
+      <c r="H170" s="5"/>
+      <c r="I170" s="6" t="s">
+        <v>457</v>
+      </c>
       <c r="J170" s="5"/>
       <c r="K170" s="5"/>
       <c r="L170" s="5"/>
@@ -10351,21 +10302,23 @@
     </row>
     <row r="171" spans="1:26" ht="13.5" customHeight="1">
       <c r="A171" s="8" t="s">
-        <v>438</v>
-      </c>
-      <c r="B171" s="5"/>
-      <c r="C171" s="6" t="s">
-        <v>455</v>
+        <v>458</v>
+      </c>
+      <c r="B171" s="8" t="s">
+        <v>459</v>
+      </c>
+      <c r="C171" s="8" t="s">
+        <v>460</v>
       </c>
       <c r="D171" s="11" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="E171" s="5"/>
       <c r="F171" s="5"/>
       <c r="G171" s="5"/>
       <c r="H171" s="5"/>
-      <c r="I171" s="6" t="s">
-        <v>457</v>
+      <c r="I171" s="8" t="s">
+        <v>462</v>
       </c>
       <c r="J171" s="5"/>
       <c r="K171" s="5"/>
@@ -10393,18 +10346,20 @@
         <v>459</v>
       </c>
       <c r="C172" s="8" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="D172" s="11" t="s">
-        <v>461</v>
-      </c>
-      <c r="E172" s="5"/>
+        <v>464</v>
+      </c>
+      <c r="E172" s="6" t="s">
+        <v>291</v>
+      </c>
       <c r="F172" s="5"/>
       <c r="G172" s="5"/>
-      <c r="H172" s="5"/>
-      <c r="I172" s="8" t="s">
-        <v>462</v>
-      </c>
+      <c r="H172" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="I172" s="5"/>
       <c r="J172" s="5"/>
       <c r="K172" s="5"/>
       <c r="L172" s="5"/>
@@ -10428,23 +10383,21 @@
         <v>458</v>
       </c>
       <c r="B173" s="8" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="C173" s="8" t="s">
-        <v>463</v>
-      </c>
-      <c r="D173" s="11" t="s">
-        <v>464</v>
-      </c>
-      <c r="E173" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="F173" s="5"/>
-      <c r="G173" s="5"/>
-      <c r="H173" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="I173" s="5"/>
+        <v>466</v>
+      </c>
+      <c r="D173" s="18" t="s">
+        <v>467</v>
+      </c>
+      <c r="E173" s="19"/>
+      <c r="F173" s="19"/>
+      <c r="G173" s="19"/>
+      <c r="H173" s="20"/>
+      <c r="I173" s="8" t="s">
+        <v>468</v>
+      </c>
       <c r="J173" s="5"/>
       <c r="K173" s="5"/>
       <c r="L173" s="5"/>
@@ -10471,18 +10424,20 @@
         <v>465</v>
       </c>
       <c r="C174" s="8" t="s">
-        <v>466</v>
-      </c>
-      <c r="D174" s="18" t="s">
-        <v>467</v>
-      </c>
-      <c r="E174" s="19"/>
-      <c r="F174" s="19"/>
-      <c r="G174" s="19"/>
-      <c r="H174" s="20"/>
-      <c r="I174" s="8" t="s">
-        <v>468</v>
-      </c>
+        <v>469</v>
+      </c>
+      <c r="D174" s="11" t="s">
+        <v>470</v>
+      </c>
+      <c r="E174" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="F174" s="5"/>
+      <c r="G174" s="5"/>
+      <c r="H174" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="I174" s="5"/>
       <c r="J174" s="5"/>
       <c r="K174" s="5"/>
       <c r="L174" s="5"/>
@@ -10506,22 +10461,20 @@
         <v>458</v>
       </c>
       <c r="B175" s="8" t="s">
-        <v>465</v>
+        <v>472</v>
       </c>
       <c r="C175" s="8" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="D175" s="11" t="s">
-        <v>470</v>
-      </c>
-      <c r="E175" s="6" t="s">
-        <v>471</v>
-      </c>
-      <c r="F175" s="5"/>
+        <v>474</v>
+      </c>
+      <c r="E175" s="5"/>
+      <c r="F175" s="6" t="s">
+        <v>475</v>
+      </c>
       <c r="G175" s="5"/>
-      <c r="H175" s="6" t="s">
-        <v>471</v>
-      </c>
+      <c r="H175" s="5"/>
       <c r="I175" s="5"/>
       <c r="J175" s="5"/>
       <c r="K175" s="5"/>
@@ -10549,14 +10502,14 @@
         <v>472</v>
       </c>
       <c r="C176" s="8" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="D176" s="11" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="E176" s="5"/>
       <c r="F176" s="6" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="G176" s="5"/>
       <c r="H176" s="5"/>
@@ -10587,14 +10540,14 @@
         <v>472</v>
       </c>
       <c r="C177" s="8" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="D177" s="11" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="E177" s="5"/>
       <c r="F177" s="6" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="G177" s="5"/>
       <c r="H177" s="5"/>
@@ -10625,14 +10578,14 @@
         <v>472</v>
       </c>
       <c r="C178" s="8" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="D178" s="11" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="E178" s="5"/>
       <c r="F178" s="6" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="G178" s="5"/>
       <c r="H178" s="5"/>
@@ -10663,14 +10616,14 @@
         <v>472</v>
       </c>
       <c r="C179" s="8" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="D179" s="11" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="E179" s="5"/>
       <c r="F179" s="6" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="G179" s="5"/>
       <c r="H179" s="5"/>
@@ -10701,14 +10654,14 @@
         <v>472</v>
       </c>
       <c r="C180" s="8" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="D180" s="11" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="E180" s="5"/>
       <c r="F180" s="6" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="G180" s="5"/>
       <c r="H180" s="5"/>
@@ -10739,14 +10692,14 @@
         <v>472</v>
       </c>
       <c r="C181" s="8" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="D181" s="11" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="E181" s="5"/>
       <c r="F181" s="6" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="G181" s="5"/>
       <c r="H181" s="5"/>
@@ -10777,14 +10730,14 @@
         <v>472</v>
       </c>
       <c r="C182" s="8" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="D182" s="11" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="E182" s="5"/>
       <c r="F182" s="6" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="G182" s="5"/>
       <c r="H182" s="5"/>
@@ -10815,14 +10768,14 @@
         <v>472</v>
       </c>
       <c r="C183" s="8" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="D183" s="11" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="E183" s="5"/>
       <c r="F183" s="6" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="G183" s="5"/>
       <c r="H183" s="5"/>
@@ -10853,14 +10806,14 @@
         <v>472</v>
       </c>
       <c r="C184" s="8" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="D184" s="11" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="E184" s="5"/>
       <c r="F184" s="6" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="G184" s="5"/>
       <c r="H184" s="5"/>
@@ -10891,14 +10844,14 @@
         <v>472</v>
       </c>
       <c r="C185" s="8" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="D185" s="11" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="E185" s="5"/>
       <c r="F185" s="6" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="G185" s="5"/>
       <c r="H185" s="5"/>
@@ -10929,14 +10882,14 @@
         <v>472</v>
       </c>
       <c r="C186" s="8" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="D186" s="11" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="E186" s="5"/>
       <c r="F186" s="6" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="G186" s="5"/>
       <c r="H186" s="5"/>
@@ -10967,14 +10920,14 @@
         <v>472</v>
       </c>
       <c r="C187" s="8" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="D187" s="11" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="E187" s="5"/>
       <c r="F187" s="6" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="G187" s="5"/>
       <c r="H187" s="5"/>
@@ -11002,20 +10955,20 @@
         <v>458</v>
       </c>
       <c r="B188" s="8" t="s">
-        <v>472</v>
+        <v>512</v>
       </c>
       <c r="C188" s="8" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="D188" s="11" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="E188" s="5"/>
-      <c r="F188" s="6" t="s">
-        <v>511</v>
-      </c>
+      <c r="F188" s="5"/>
       <c r="G188" s="5"/>
-      <c r="H188" s="5"/>
+      <c r="H188" s="5" t="s">
+        <v>515</v>
+      </c>
       <c r="I188" s="5"/>
       <c r="J188" s="5"/>
       <c r="K188" s="5"/>
@@ -11040,19 +10993,19 @@
         <v>458</v>
       </c>
       <c r="B189" s="8" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="C189" s="8" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="D189" s="11" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="E189" s="5"/>
       <c r="F189" s="5"/>
       <c r="G189" s="5"/>
       <c r="H189" s="5" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="I189" s="5"/>
       <c r="J189" s="5"/>
@@ -11081,16 +11034,16 @@
         <v>516</v>
       </c>
       <c r="C190" s="8" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="D190" s="11" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="E190" s="5"/>
       <c r="F190" s="5"/>
       <c r="G190" s="5"/>
       <c r="H190" s="5" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="I190" s="5"/>
       <c r="J190" s="5"/>
@@ -11119,18 +11072,18 @@
         <v>516</v>
       </c>
       <c r="C191" s="8" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="D191" s="11" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="E191" s="5"/>
       <c r="F191" s="5"/>
       <c r="G191" s="5"/>
-      <c r="H191" s="5" t="s">
-        <v>522</v>
-      </c>
-      <c r="I191" s="5"/>
+      <c r="H191" s="5"/>
+      <c r="I191" s="6" t="s">
+        <v>525</v>
+      </c>
       <c r="J191" s="5"/>
       <c r="K191" s="5"/>
       <c r="L191" s="5"/>
@@ -11151,23 +11104,21 @@
     </row>
     <row r="192" spans="1:26" ht="13.5" customHeight="1">
       <c r="A192" s="8" t="s">
-        <v>458</v>
-      </c>
-      <c r="B192" s="8" t="s">
-        <v>516</v>
-      </c>
+        <v>526</v>
+      </c>
+      <c r="B192" s="5"/>
       <c r="C192" s="8" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="D192" s="11" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="E192" s="5"/>
       <c r="F192" s="5"/>
       <c r="G192" s="5"/>
       <c r="H192" s="5"/>
       <c r="I192" s="6" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="J192" s="5"/>
       <c r="K192" s="5"/>
@@ -11193,18 +11144,20 @@
       </c>
       <c r="B193" s="5"/>
       <c r="C193" s="8" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="D193" s="11" t="s">
-        <v>528</v>
-      </c>
-      <c r="E193" s="5"/>
-      <c r="F193" s="5"/>
+        <v>531</v>
+      </c>
+      <c r="E193" s="5" t="s">
+        <v>532</v>
+      </c>
+      <c r="F193" s="5" t="s">
+        <v>532</v>
+      </c>
       <c r="G193" s="5"/>
       <c r="H193" s="5"/>
-      <c r="I193" s="6" t="s">
-        <v>529</v>
-      </c>
+      <c r="I193" s="5"/>
       <c r="J193" s="5"/>
       <c r="K193" s="5"/>
       <c r="L193" s="5"/>
@@ -11224,25 +11177,23 @@
       <c r="Z193" s="3"/>
     </row>
     <row r="194" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A194" s="8" t="s">
-        <v>526</v>
+      <c r="A194" s="6" t="s">
+        <v>533</v>
       </c>
       <c r="B194" s="5"/>
-      <c r="C194" s="8" t="s">
-        <v>530</v>
+      <c r="C194" s="6" t="s">
+        <v>534</v>
       </c>
       <c r="D194" s="11" t="s">
-        <v>531</v>
-      </c>
-      <c r="E194" s="5" t="s">
-        <v>532</v>
-      </c>
-      <c r="F194" s="5" t="s">
-        <v>532</v>
-      </c>
+        <v>535</v>
+      </c>
+      <c r="E194" s="5"/>
+      <c r="F194" s="5"/>
       <c r="G194" s="5"/>
       <c r="H194" s="5"/>
-      <c r="I194" s="5"/>
+      <c r="I194" s="6" t="s">
+        <v>536</v>
+      </c>
       <c r="J194" s="5"/>
       <c r="K194" s="5"/>
       <c r="L194" s="5"/>
@@ -11266,18 +11217,18 @@
         <v>533</v>
       </c>
       <c r="B195" s="5"/>
-      <c r="C195" s="6" t="s">
-        <v>534</v>
+      <c r="C195" s="8" t="s">
+        <v>537</v>
       </c>
       <c r="D195" s="11" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="E195" s="5"/>
       <c r="F195" s="5"/>
       <c r="G195" s="5"/>
       <c r="H195" s="5"/>
-      <c r="I195" s="6" t="s">
-        <v>536</v>
+      <c r="I195" s="8" t="s">
+        <v>539</v>
       </c>
       <c r="J195" s="5"/>
       <c r="K195" s="5"/>
@@ -11303,17 +11254,17 @@
       </c>
       <c r="B196" s="5"/>
       <c r="C196" s="8" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="D196" s="11" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="E196" s="5"/>
       <c r="F196" s="5"/>
       <c r="G196" s="5"/>
       <c r="H196" s="5"/>
-      <c r="I196" s="8" t="s">
-        <v>539</v>
+      <c r="I196" s="6" t="s">
+        <v>542</v>
       </c>
       <c r="J196" s="5"/>
       <c r="K196" s="5"/>
@@ -11338,18 +11289,18 @@
         <v>533</v>
       </c>
       <c r="B197" s="5"/>
-      <c r="C197" s="8" t="s">
-        <v>540</v>
+      <c r="C197" s="6" t="s">
+        <v>543</v>
       </c>
       <c r="D197" s="11" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="E197" s="5"/>
       <c r="F197" s="5"/>
       <c r="G197" s="5"/>
       <c r="H197" s="5"/>
       <c r="I197" s="6" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="J197" s="5"/>
       <c r="K197" s="5"/>
@@ -11375,18 +11326,18 @@
       </c>
       <c r="B198" s="5"/>
       <c r="C198" s="6" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="D198" s="11" t="s">
-        <v>544</v>
-      </c>
-      <c r="E198" s="5"/>
+        <v>547</v>
+      </c>
+      <c r="E198" s="6" t="s">
+        <v>548</v>
+      </c>
       <c r="F198" s="5"/>
       <c r="G198" s="5"/>
       <c r="H198" s="5"/>
-      <c r="I198" s="6" t="s">
-        <v>545</v>
-      </c>
+      <c r="I198" s="5"/>
       <c r="J198" s="5"/>
       <c r="K198" s="5"/>
       <c r="L198" s="5"/>
@@ -11406,23 +11357,23 @@
       <c r="Z198" s="3"/>
     </row>
     <row r="199" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A199" s="6" t="s">
-        <v>533</v>
-      </c>
-      <c r="B199" s="5"/>
-      <c r="C199" s="6" t="s">
-        <v>546</v>
-      </c>
-      <c r="D199" s="11" t="s">
-        <v>547</v>
-      </c>
-      <c r="E199" s="6" t="s">
-        <v>548</v>
-      </c>
+      <c r="A199" s="8" t="s">
+        <v>549</v>
+      </c>
+      <c r="B199" s="4"/>
+      <c r="C199" s="21" t="s">
+        <v>550</v>
+      </c>
+      <c r="D199" s="22" t="s">
+        <v>551</v>
+      </c>
+      <c r="E199" s="4"/>
       <c r="F199" s="5"/>
       <c r="G199" s="5"/>
-      <c r="H199" s="5"/>
-      <c r="I199" s="5"/>
+      <c r="H199" s="4"/>
+      <c r="I199" s="6" t="s">
+        <v>552</v>
+      </c>
       <c r="J199" s="5"/>
       <c r="K199" s="5"/>
       <c r="L199" s="5"/>
@@ -11446,18 +11397,18 @@
         <v>549</v>
       </c>
       <c r="B200" s="4"/>
-      <c r="C200" s="21" t="s">
-        <v>550</v>
-      </c>
-      <c r="D200" s="22" t="s">
-        <v>551</v>
+      <c r="C200" s="8" t="s">
+        <v>553</v>
+      </c>
+      <c r="D200" s="9" t="s">
+        <v>554</v>
       </c>
       <c r="E200" s="4"/>
       <c r="F200" s="5"/>
       <c r="G200" s="5"/>
       <c r="H200" s="4"/>
       <c r="I200" s="6" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="J200" s="5"/>
       <c r="K200" s="5"/>
@@ -11483,17 +11434,17 @@
       </c>
       <c r="B201" s="4"/>
       <c r="C201" s="8" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="D201" s="9" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="E201" s="4"/>
       <c r="F201" s="5"/>
       <c r="G201" s="5"/>
       <c r="H201" s="4"/>
       <c r="I201" s="6" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="J201" s="5"/>
       <c r="K201" s="5"/>
@@ -11515,21 +11466,21 @@
     </row>
     <row r="202" spans="1:26" ht="13.5" customHeight="1">
       <c r="A202" s="8" t="s">
-        <v>549</v>
-      </c>
-      <c r="B202" s="4"/>
-      <c r="C202" s="8" t="s">
-        <v>556</v>
-      </c>
-      <c r="D202" s="9" t="s">
-        <v>557</v>
-      </c>
-      <c r="E202" s="4"/>
+        <v>559</v>
+      </c>
+      <c r="B202" s="5"/>
+      <c r="C202" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="D202" s="11" t="s">
+        <v>561</v>
+      </c>
+      <c r="E202" s="5"/>
       <c r="F202" s="5"/>
       <c r="G202" s="5"/>
-      <c r="H202" s="4"/>
+      <c r="H202" s="5"/>
       <c r="I202" s="6" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="J202" s="5"/>
       <c r="K202" s="5"/>
@@ -11555,17 +11506,17 @@
       </c>
       <c r="B203" s="5"/>
       <c r="C203" s="6" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="D203" s="11" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="E203" s="5"/>
       <c r="F203" s="5"/>
       <c r="G203" s="5"/>
       <c r="H203" s="5"/>
       <c r="I203" s="6" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="J203" s="5"/>
       <c r="K203" s="5"/>
@@ -11586,23 +11537,15 @@
       <c r="Z203" s="3"/>
     </row>
     <row r="204" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A204" s="8" t="s">
-        <v>559</v>
-      </c>
+      <c r="A204" s="5"/>
       <c r="B204" s="5"/>
-      <c r="C204" s="6" t="s">
-        <v>563</v>
-      </c>
-      <c r="D204" s="11" t="s">
-        <v>564</v>
-      </c>
+      <c r="C204" s="5"/>
+      <c r="D204" s="5"/>
       <c r="E204" s="5"/>
       <c r="F204" s="5"/>
       <c r="G204" s="5"/>
       <c r="H204" s="5"/>
-      <c r="I204" s="6" t="s">
-        <v>565</v>
-      </c>
+      <c r="I204" s="5"/>
       <c r="J204" s="5"/>
       <c r="K204" s="5"/>
       <c r="L204" s="5"/>
@@ -17193,34 +17136,7 @@
       <c r="Y403" s="3"/>
       <c r="Z403" s="3"/>
     </row>
-    <row r="404" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A404" s="5"/>
-      <c r="B404" s="5"/>
-      <c r="C404" s="5"/>
-      <c r="D404" s="5"/>
-      <c r="E404" s="5"/>
-      <c r="F404" s="5"/>
-      <c r="G404" s="5"/>
-      <c r="H404" s="5"/>
-      <c r="I404" s="5"/>
-      <c r="J404" s="5"/>
-      <c r="K404" s="5"/>
-      <c r="L404" s="5"/>
-      <c r="M404" s="6"/>
-      <c r="N404" s="3"/>
-      <c r="O404" s="3"/>
-      <c r="P404" s="3"/>
-      <c r="Q404" s="3"/>
-      <c r="R404" s="3"/>
-      <c r="S404" s="3"/>
-      <c r="T404" s="3"/>
-      <c r="U404" s="3"/>
-      <c r="V404" s="3"/>
-      <c r="W404" s="3"/>
-      <c r="X404" s="3"/>
-      <c r="Y404" s="3"/>
-      <c r="Z404" s="3"/>
-    </row>
+    <row r="404" spans="1:26" ht="15.75" customHeight="1"/>
     <row r="405" spans="1:26" ht="15.75" customHeight="1"/>
     <row r="406" spans="1:26" ht="15.75" customHeight="1"/>
     <row r="407" spans="1:26" ht="15.75" customHeight="1"/>
@@ -17817,9 +17733,8 @@
     <row r="998" ht="15.75" customHeight="1"/>
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
-    <row r="1001" ht="15.75" customHeight="1"/>
   </sheetData>
-  <phoneticPr fontId="14"/>
+  <phoneticPr fontId="13"/>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="D3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
@@ -17912,113 +17827,112 @@
     <hyperlink ref="D90" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
     <hyperlink ref="D91" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
     <hyperlink ref="D92" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="D94" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="D95" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="D96" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="D97" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="D98" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="D99" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="D100" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="D101" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="D102" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="D103" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="D104" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
-    <hyperlink ref="D105" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
-    <hyperlink ref="D106" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="D107" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
-    <hyperlink ref="D108" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="D109" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
-    <hyperlink ref="D110" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
-    <hyperlink ref="D111" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
-    <hyperlink ref="D112" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="D113" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
-    <hyperlink ref="D114" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
-    <hyperlink ref="D115" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
-    <hyperlink ref="D116" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-    <hyperlink ref="D117" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
-    <hyperlink ref="D118" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
-    <hyperlink ref="D119" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
-    <hyperlink ref="D120" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
-    <hyperlink ref="D121" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
-    <hyperlink ref="D122" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
-    <hyperlink ref="D123" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
-    <hyperlink ref="D124" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
-    <hyperlink ref="D125" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
-    <hyperlink ref="D126" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
-    <hyperlink ref="D127" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
-    <hyperlink ref="D128" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
-    <hyperlink ref="D129" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
-    <hyperlink ref="D130" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
-    <hyperlink ref="D131" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
-    <hyperlink ref="D132" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
-    <hyperlink ref="D133" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
-    <hyperlink ref="D134" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
-    <hyperlink ref="D135" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
-    <hyperlink ref="D136" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
-    <hyperlink ref="D137" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
-    <hyperlink ref="D138" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
-    <hyperlink ref="D139" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
-    <hyperlink ref="D140" r:id="rId138" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
-    <hyperlink ref="D141" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
-    <hyperlink ref="D142" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
-    <hyperlink ref="D143" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
-    <hyperlink ref="D144" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
-    <hyperlink ref="D145" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
-    <hyperlink ref="D146" r:id="rId144" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
-    <hyperlink ref="D152" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
-    <hyperlink ref="D153" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
-    <hyperlink ref="D154" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
-    <hyperlink ref="D155" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
-    <hyperlink ref="D156" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
-    <hyperlink ref="D157" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
-    <hyperlink ref="D158" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
-    <hyperlink ref="D159" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
-    <hyperlink ref="D160" r:id="rId153" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
-    <hyperlink ref="D161" r:id="rId154" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
-    <hyperlink ref="D162" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
-    <hyperlink ref="D163" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
-    <hyperlink ref="D164" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
-    <hyperlink ref="D165" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
-    <hyperlink ref="D166" r:id="rId159" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
-    <hyperlink ref="D167" r:id="rId160" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
-    <hyperlink ref="D168" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
-    <hyperlink ref="D169" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
-    <hyperlink ref="D170" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
-    <hyperlink ref="D171" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
-    <hyperlink ref="D172" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
-    <hyperlink ref="D173" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
-    <hyperlink ref="D174" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
-    <hyperlink ref="D175" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
-    <hyperlink ref="D176" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
-    <hyperlink ref="D177" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
-    <hyperlink ref="D178" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
-    <hyperlink ref="D179" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
-    <hyperlink ref="D180" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
-    <hyperlink ref="D181" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
-    <hyperlink ref="D182" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
-    <hyperlink ref="D183" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
-    <hyperlink ref="D184" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
-    <hyperlink ref="D185" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
-    <hyperlink ref="D186" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
-    <hyperlink ref="D187" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
-    <hyperlink ref="D188" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
-    <hyperlink ref="D189" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
-    <hyperlink ref="D190" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
-    <hyperlink ref="D191" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
-    <hyperlink ref="D192" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
-    <hyperlink ref="D193" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
-    <hyperlink ref="D194" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
-    <hyperlink ref="D195" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
-    <hyperlink ref="D196" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
-    <hyperlink ref="D197" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
-    <hyperlink ref="D198" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
-    <hyperlink ref="D199" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
-    <hyperlink ref="D200" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
-    <hyperlink ref="D201" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
-    <hyperlink ref="D202" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
-    <hyperlink ref="D203" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
-    <hyperlink ref="D204" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
-    <hyperlink ref="D93" r:id="rId198" xr:uid="{034F19D9-44B1-4863-B854-984F3778DEC2}"/>
+    <hyperlink ref="D93" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="D94" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="D95" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="D96" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="D97" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="D98" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="D99" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="D100" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="D101" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="D102" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="D103" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="D104" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="D105" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="D106" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="D107" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="D108" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="D109" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="D110" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="D111" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="D112" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="D113" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="D114" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="D115" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="D116" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="D117" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="D118" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="D119" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="D120" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="D121" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="D122" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="D123" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="D124" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="D125" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="D126" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="D127" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="D128" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="D129" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="D130" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="D131" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="D132" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="D133" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="D134" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="D135" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
+    <hyperlink ref="D136" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="D137" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="D138" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="D139" r:id="rId138" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="D140" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="D141" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="D142" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="D143" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="D144" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="D145" r:id="rId144" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="D151" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="D152" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="D153" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="D154" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="D155" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="D156" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="D157" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="D158" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
+    <hyperlink ref="D159" r:id="rId153" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
+    <hyperlink ref="D160" r:id="rId154" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
+    <hyperlink ref="D161" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
+    <hyperlink ref="D162" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
+    <hyperlink ref="D163" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
+    <hyperlink ref="D164" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
+    <hyperlink ref="D165" r:id="rId159" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
+    <hyperlink ref="D166" r:id="rId160" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
+    <hyperlink ref="D167" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
+    <hyperlink ref="D168" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
+    <hyperlink ref="D169" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
+    <hyperlink ref="D170" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
+    <hyperlink ref="D171" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
+    <hyperlink ref="D172" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
+    <hyperlink ref="D173" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
+    <hyperlink ref="D174" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
+    <hyperlink ref="D175" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
+    <hyperlink ref="D176" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
+    <hyperlink ref="D177" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
+    <hyperlink ref="D178" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
+    <hyperlink ref="D179" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
+    <hyperlink ref="D180" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
+    <hyperlink ref="D181" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
+    <hyperlink ref="D182" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
+    <hyperlink ref="D183" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
+    <hyperlink ref="D184" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
+    <hyperlink ref="D185" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
+    <hyperlink ref="D186" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
+    <hyperlink ref="D187" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
+    <hyperlink ref="D188" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
+    <hyperlink ref="D189" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
+    <hyperlink ref="D190" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
+    <hyperlink ref="D191" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
+    <hyperlink ref="D192" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
+    <hyperlink ref="D193" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
+    <hyperlink ref="D194" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
+    <hyperlink ref="D195" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
+    <hyperlink ref="D196" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
+    <hyperlink ref="D197" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
+    <hyperlink ref="D198" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
+    <hyperlink ref="D199" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
+    <hyperlink ref="D200" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
+    <hyperlink ref="D201" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
+    <hyperlink ref="D202" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
+    <hyperlink ref="D203" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>

--- a/メニュー/メニュー.xlsx
+++ b/メニュー/メニュー.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\vm22flo01\DownloadFiles\DX推進課\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\webmeeting\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39E7AD8D-9325-4E1D-852F-2104FC2ED9AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2F7A6F8-DDD8-47F3-94BC-094643792CE9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5544" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="メニュー構造" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="566">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1044" uniqueCount="568">
   <si>
     <t>大カテゴリー</t>
   </si>
@@ -3295,13 +3295,21 @@
   </si>
   <si>
     <t>wifi-access-point</t>
+  </si>
+  <si>
+    <t>テスト</t>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>https://yaizu-smartcity.jp/tiles/%E9%80%A3%E6%90%BA%E8%A9%A6%E9%A8%930804/tiles.json</t>
+    <phoneticPr fontId="13"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="16">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -3384,6 +3392,20 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="5">
@@ -3481,10 +3503,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3534,8 +3557,15 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="11" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="12" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3754,9 +3784,9 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A93" sqref="A93:XFD93"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A190" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H204" sqref="H204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -11537,14 +11567,22 @@
       <c r="Z203" s="3"/>
     </row>
     <row r="204" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A204" s="5"/>
+      <c r="A204" s="23" t="s">
+        <v>566</v>
+      </c>
       <c r="B204" s="5"/>
-      <c r="C204" s="5"/>
-      <c r="D204" s="5"/>
+      <c r="C204" s="23" t="s">
+        <v>566</v>
+      </c>
+      <c r="D204" s="24" t="s">
+        <v>567</v>
+      </c>
       <c r="E204" s="5"/>
       <c r="F204" s="5"/>
       <c r="G204" s="5"/>
-      <c r="H204" s="5"/>
+      <c r="H204" s="5" t="s">
+        <v>522</v>
+      </c>
       <c r="I204" s="5"/>
       <c r="J204" s="5"/>
       <c r="K204" s="5"/>
@@ -17933,9 +17971,10 @@
     <hyperlink ref="D201" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
     <hyperlink ref="D202" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
     <hyperlink ref="D203" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
+    <hyperlink ref="D204" r:id="rId198" xr:uid="{F78A7448-B5E6-4A6E-99D0-790B36C877BA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId199"/>
   <headerFooter>
     <oddFooter>&amp;C000000&amp;P</oddFooter>
   </headerFooter>

--- a/メニュー/メニュー.xlsx
+++ b/メニュー/メニュー.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\webmeeting\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2F7A6F8-DDD8-47F3-94BC-094643792CE9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDD9E415-9C87-410A-96F5-6606744F76DE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5544" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1044" uniqueCount="568">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="566">
   <si>
     <t>大カテゴリー</t>
   </si>
@@ -3295,14 +3295,6 @@
   </si>
   <si>
     <t>wifi-access-point</t>
-  </si>
-  <si>
-    <t>テスト</t>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
-    <t>https://yaizu-smartcity.jp/tiles/%E9%80%A3%E6%90%BA%E8%A9%A6%E9%A8%930804/tiles.json</t>
-    <phoneticPr fontId="13"/>
   </si>
 </sst>
 </file>
@@ -3784,9 +3776,9 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A190" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H204" sqref="H204"/>
+      <selection pane="bottomLeft" activeCell="A204" sqref="A204:XFD204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -11567,22 +11559,14 @@
       <c r="Z203" s="3"/>
     </row>
     <row r="204" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A204" s="23" t="s">
-        <v>566</v>
-      </c>
+      <c r="A204" s="23"/>
       <c r="B204" s="5"/>
-      <c r="C204" s="23" t="s">
-        <v>566</v>
-      </c>
-      <c r="D204" s="24" t="s">
-        <v>567</v>
-      </c>
+      <c r="C204" s="23"/>
+      <c r="D204" s="24"/>
       <c r="E204" s="5"/>
       <c r="F204" s="5"/>
       <c r="G204" s="5"/>
-      <c r="H204" s="5" t="s">
-        <v>522</v>
-      </c>
+      <c r="H204" s="5"/>
       <c r="I204" s="5"/>
       <c r="J204" s="5"/>
       <c r="K204" s="5"/>
@@ -17971,10 +17955,9 @@
     <hyperlink ref="D201" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
     <hyperlink ref="D202" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
     <hyperlink ref="D203" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
-    <hyperlink ref="D204" r:id="rId198" xr:uid="{F78A7448-B5E6-4A6E-99D0-790B36C877BA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="portrait" r:id="rId199"/>
+  <pageSetup orientation="portrait" r:id="rId198"/>
   <headerFooter>
     <oddFooter>&amp;C000000&amp;P</oddFooter>
   </headerFooter>

--- a/メニュー/メニュー.xlsx
+++ b/メニュー/メニュー.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\webmeeting\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\webmeeting\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDD9E415-9C87-410A-96F5-6606744F76DE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD70524B-AB9A-4622-B6DF-93D29CD064CA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5544" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="メニュー構造" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="566">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1044" uniqueCount="568">
   <si>
     <t>大カテゴリー</t>
   </si>
@@ -3295,6 +3295,14 @@
   </si>
   <si>
     <t>wifi-access-point</t>
+  </si>
+  <si>
+    <t>テスト</t>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>https://yaizu-smartcity.jp/tiles/%E9%80%A3%E6%90%BA%E8%A9%A6%E9%A8%930804/tiles.json</t>
+    <phoneticPr fontId="13"/>
   </si>
 </sst>
 </file>
@@ -3776,9 +3784,9 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A190" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A204" sqref="A204:XFD204"/>
+      <selection pane="bottomLeft" activeCell="D205" sqref="D205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -11559,14 +11567,22 @@
       <c r="Z203" s="3"/>
     </row>
     <row r="204" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A204" s="23"/>
+      <c r="A204" s="23" t="s">
+        <v>566</v>
+      </c>
       <c r="B204" s="5"/>
-      <c r="C204" s="23"/>
-      <c r="D204" s="24"/>
+      <c r="C204" s="23" t="s">
+        <v>566</v>
+      </c>
+      <c r="D204" s="24" t="s">
+        <v>567</v>
+      </c>
       <c r="E204" s="5"/>
       <c r="F204" s="5"/>
       <c r="G204" s="5"/>
-      <c r="H204" s="5"/>
+      <c r="H204" s="5" t="s">
+        <v>522</v>
+      </c>
       <c r="I204" s="5"/>
       <c r="J204" s="5"/>
       <c r="K204" s="5"/>
@@ -17955,9 +17971,10 @@
     <hyperlink ref="D201" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
     <hyperlink ref="D202" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
     <hyperlink ref="D203" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
+    <hyperlink ref="D204" r:id="rId198" xr:uid="{F78A7448-B5E6-4A6E-99D0-790B36C877BA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="portrait" r:id="rId198"/>
+  <pageSetup orientation="portrait" r:id="rId199"/>
   <headerFooter>
     <oddFooter>&amp;C000000&amp;P</oddFooter>
   </headerFooter>

--- a/メニュー/メニュー.xlsx
+++ b/メニュー/メニュー.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\webmeeting\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\webmeeting\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD70524B-AB9A-4622-B6DF-93D29CD064CA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23C055F9-DFE4-4A98-B845-31030AC5EC56}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5544" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="メニュー構造" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1044" uniqueCount="568">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1043" uniqueCount="568">
   <si>
     <t>大カテゴリー</t>
   </si>
@@ -3784,9 +3784,9 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A190" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D205" sqref="D205"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1048550" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A205" sqref="A205:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -11580,9 +11580,7 @@
       <c r="E204" s="5"/>
       <c r="F204" s="5"/>
       <c r="G204" s="5"/>
-      <c r="H204" s="5" t="s">
-        <v>522</v>
-      </c>
+      <c r="H204" s="5"/>
       <c r="I204" s="5"/>
       <c r="J204" s="5"/>
       <c r="K204" s="5"/>

--- a/メニュー/メニュー.xlsx
+++ b/メニュー/メニュー.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\webmeeting\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23C055F9-DFE4-4A98-B845-31030AC5EC56}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BB30A6F-06BF-4A4F-8545-036EDA35FDBF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5544" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1043" uniqueCount="568">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1044" uniqueCount="568">
   <si>
     <t>大カテゴリー</t>
   </si>
@@ -3785,8 +3785,8 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1048550" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A205" sqref="A205:XFD1048576"/>
+      <pane ySplit="1" topLeftCell="A189" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A204" sqref="A204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -11580,7 +11580,9 @@
       <c r="E204" s="5"/>
       <c r="F204" s="5"/>
       <c r="G204" s="5"/>
-      <c r="H204" s="5"/>
+      <c r="H204" s="5" t="s">
+        <v>519</v>
+      </c>
       <c r="I204" s="5"/>
       <c r="J204" s="5"/>
       <c r="K204" s="5"/>
@@ -17969,7 +17971,7 @@
     <hyperlink ref="D201" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
     <hyperlink ref="D202" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
     <hyperlink ref="D203" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
-    <hyperlink ref="D204" r:id="rId198" xr:uid="{F78A7448-B5E6-4A6E-99D0-790B36C877BA}"/>
+    <hyperlink ref="D204" r:id="rId198" xr:uid="{079C1069-FF93-4F9F-AD04-C18E4AE45C8F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId199"/>

--- a/メニュー/メニュー.xlsx
+++ b/メニュー/メニュー.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\webmeeting\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BB30A6F-06BF-4A4F-8545-036EDA35FDBF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19ACD323-6B49-466A-909B-D21B65A8155A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5544" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1044" uniqueCount="568">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="566">
   <si>
     <t>大カテゴリー</t>
   </si>
@@ -3295,14 +3295,6 @@
   </si>
   <si>
     <t>wifi-access-point</t>
-  </si>
-  <si>
-    <t>テスト</t>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
-    <t>https://yaizu-smartcity.jp/tiles/%E9%80%A3%E6%90%BA%E8%A9%A6%E9%A8%930804/tiles.json</t>
-    <phoneticPr fontId="13"/>
   </si>
 </sst>
 </file>
@@ -3786,7 +3778,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A189" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A204" sqref="A204"/>
+      <selection pane="bottomLeft" activeCell="A204" sqref="A204:XFD204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -11567,22 +11559,14 @@
       <c r="Z203" s="3"/>
     </row>
     <row r="204" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A204" s="23" t="s">
-        <v>566</v>
-      </c>
+      <c r="A204" s="23"/>
       <c r="B204" s="5"/>
-      <c r="C204" s="23" t="s">
-        <v>566</v>
-      </c>
-      <c r="D204" s="24" t="s">
-        <v>567</v>
-      </c>
+      <c r="C204" s="23"/>
+      <c r="D204" s="24"/>
       <c r="E204" s="5"/>
       <c r="F204" s="5"/>
       <c r="G204" s="5"/>
-      <c r="H204" s="5" t="s">
-        <v>519</v>
-      </c>
+      <c r="H204" s="5"/>
       <c r="I204" s="5"/>
       <c r="J204" s="5"/>
       <c r="K204" s="5"/>
@@ -17971,10 +17955,9 @@
     <hyperlink ref="D201" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
     <hyperlink ref="D202" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
     <hyperlink ref="D203" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
-    <hyperlink ref="D204" r:id="rId198" xr:uid="{079C1069-FF93-4F9F-AD04-C18E4AE45C8F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="portrait" r:id="rId199"/>
+  <pageSetup orientation="portrait" r:id="rId198"/>
   <headerFooter>
     <oddFooter>&amp;C000000&amp;P</oddFooter>
   </headerFooter>

--- a/メニュー/メニュー.xlsx
+++ b/メニュー/メニュー.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\webmeeting\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19ACD323-6B49-466A-909B-D21B65A8155A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{931DD80F-2142-4561-80CF-1C5167898EBF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5544" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="566">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1044" uniqueCount="568">
   <si>
     <t>大カテゴリー</t>
   </si>
@@ -3295,6 +3295,17 @@
   </si>
   <si>
     <t>wifi-access-point</t>
+  </si>
+  <si>
+    <t>https://yaizu-smartcity.jp/tiles/%E9%80%A3%E6%90%BA%E8%A9%A6%E9%A8%930804/tiles.json</t>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>連携試験</t>
+    <rPh sb="0" eb="4">
+      <t>レンケイシケン</t>
+    </rPh>
+    <phoneticPr fontId="13"/>
   </si>
 </sst>
 </file>
@@ -3777,8 +3788,8 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A189" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A204" sqref="A204:XFD204"/>
+      <pane ySplit="1" topLeftCell="A185" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A204" sqref="A204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -11559,14 +11570,22 @@
       <c r="Z203" s="3"/>
     </row>
     <row r="204" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A204" s="23"/>
+      <c r="A204" s="23" t="s">
+        <v>567</v>
+      </c>
       <c r="B204" s="5"/>
-      <c r="C204" s="23"/>
-      <c r="D204" s="24"/>
+      <c r="C204" s="23" t="s">
+        <v>567</v>
+      </c>
+      <c r="D204" s="24" t="s">
+        <v>566</v>
+      </c>
       <c r="E204" s="5"/>
       <c r="F204" s="5"/>
       <c r="G204" s="5"/>
-      <c r="H204" s="5"/>
+      <c r="H204" s="5" t="s">
+        <v>515</v>
+      </c>
       <c r="I204" s="5"/>
       <c r="J204" s="5"/>
       <c r="K204" s="5"/>
@@ -17955,9 +17974,10 @@
     <hyperlink ref="D201" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
     <hyperlink ref="D202" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
     <hyperlink ref="D203" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
+    <hyperlink ref="D204" r:id="rId198" xr:uid="{811B312E-40FA-459B-AE0B-2F5F2BE4CF27}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="portrait" r:id="rId198"/>
+  <pageSetup orientation="portrait" r:id="rId199"/>
   <headerFooter>
     <oddFooter>&amp;C000000&amp;P</oddFooter>
   </headerFooter>

--- a/メニュー/メニュー.xlsx
+++ b/メニュー/メニュー.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\webmeeting\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{931DD80F-2142-4561-80CF-1C5167898EBF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8477AA11-8DA5-410F-AEB9-F90C40D01AF2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5544" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1044" uniqueCount="568">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="566">
   <si>
     <t>大カテゴリー</t>
   </si>
@@ -3295,17 +3295,6 @@
   </si>
   <si>
     <t>wifi-access-point</t>
-  </si>
-  <si>
-    <t>https://yaizu-smartcity.jp/tiles/%E9%80%A3%E6%90%BA%E8%A9%A6%E9%A8%930804/tiles.json</t>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
-    <t>連携試験</t>
-    <rPh sb="0" eb="4">
-      <t>レンケイシケン</t>
-    </rPh>
-    <phoneticPr fontId="13"/>
   </si>
 </sst>
 </file>
@@ -3789,7 +3778,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A185" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A204" sqref="A204"/>
+      <selection pane="bottomLeft" activeCell="A204" sqref="A204:XFD204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -11570,22 +11559,14 @@
       <c r="Z203" s="3"/>
     </row>
     <row r="204" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A204" s="23" t="s">
-        <v>567</v>
-      </c>
+      <c r="A204" s="23"/>
       <c r="B204" s="5"/>
-      <c r="C204" s="23" t="s">
-        <v>567</v>
-      </c>
-      <c r="D204" s="24" t="s">
-        <v>566</v>
-      </c>
+      <c r="C204" s="23"/>
+      <c r="D204" s="24"/>
       <c r="E204" s="5"/>
       <c r="F204" s="5"/>
       <c r="G204" s="5"/>
-      <c r="H204" s="5" t="s">
-        <v>515</v>
-      </c>
+      <c r="H204" s="5"/>
       <c r="I204" s="5"/>
       <c r="J204" s="5"/>
       <c r="K204" s="5"/>
@@ -17974,10 +17955,9 @@
     <hyperlink ref="D201" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
     <hyperlink ref="D202" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
     <hyperlink ref="D203" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
-    <hyperlink ref="D204" r:id="rId198" xr:uid="{811B312E-40FA-459B-AE0B-2F5F2BE4CF27}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="portrait" r:id="rId199"/>
+  <pageSetup orientation="portrait" r:id="rId198"/>
   <headerFooter>
     <oddFooter>&amp;C000000&amp;P</oddFooter>
   </headerFooter>

--- a/メニュー/メニュー.xlsx
+++ b/メニュー/メニュー.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\webmeeting\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\vm22flo01\DownloadFiles\DX推進課\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8477AA11-8DA5-410F-AEB9-F90C40D01AF2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD4C7BF9-EC85-474E-9B9D-A088A60A52E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5544" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="900" yWindow="840" windowWidth="21204" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="メニュー構造" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="566">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1044" uniqueCount="568">
   <si>
     <t>大カテゴリー</t>
   </si>
@@ -3295,6 +3295,23 @@
   </si>
   <si>
     <t>wifi-access-point</t>
+  </si>
+  <si>
+    <t>災害ごみ受入場所</t>
+    <rPh sb="0" eb="2">
+      <t>サイガイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ウケイレ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>バショ</t>
+    </rPh>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>https://yaizu-smartcity.jp/tiles/%E7%81%BD%E5%AE%B3%E3%81%94%E3%81%BF%E5%8F%97%E5%85%A5%E5%A0%B4%E6%89%80/tiles.json</t>
+    <phoneticPr fontId="13"/>
   </si>
 </sst>
 </file>
@@ -3499,7 +3516,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3554,6 +3571,12 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3774,11 +3797,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Z1000"/>
+  <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A185" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A204" sqref="A204:XFD204"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A151" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D172" sqref="D172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -10049,21 +10072,19 @@
         <v>435</v>
       </c>
       <c r="B164" s="5"/>
-      <c r="C164" s="6" t="s">
-        <v>436</v>
-      </c>
-      <c r="D164" s="11" t="s">
-        <v>437</v>
-      </c>
-      <c r="E164" s="6" t="s">
-        <v>291</v>
-      </c>
+      <c r="C164" s="25" t="s">
+        <v>566</v>
+      </c>
+      <c r="D164" s="26" t="s">
+        <v>567</v>
+      </c>
+      <c r="E164" s="6"/>
       <c r="F164" s="5"/>
       <c r="G164" s="5"/>
-      <c r="H164" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="I164" s="5"/>
+      <c r="H164" s="6"/>
+      <c r="I164" s="5" t="s">
+        <v>268</v>
+      </c>
       <c r="J164" s="5"/>
       <c r="K164" s="5"/>
       <c r="L164" s="5"/>
@@ -10083,26 +10104,24 @@
       <c r="Z164" s="3"/>
     </row>
     <row r="165" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A165" s="8" t="s">
-        <v>438</v>
-      </c>
-      <c r="B165" s="6" t="s">
-        <v>439</v>
-      </c>
+      <c r="A165" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="B165" s="5"/>
       <c r="C165" s="6" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="D165" s="11" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="E165" s="6" t="s">
-        <v>442</v>
-      </c>
-      <c r="F165" s="6" t="s">
-        <v>294</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="F165" s="5"/>
       <c r="G165" s="5"/>
-      <c r="H165" s="5"/>
+      <c r="H165" s="6" t="s">
+        <v>291</v>
+      </c>
       <c r="I165" s="5"/>
       <c r="J165" s="5"/>
       <c r="K165" s="5"/>
@@ -10130,13 +10149,13 @@
         <v>439</v>
       </c>
       <c r="C166" s="6" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="D166" s="11" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="E166" s="6" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="F166" s="6" t="s">
         <v>294</v>
@@ -10167,22 +10186,22 @@
         <v>438</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="C167" s="6" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="D167" s="11" t="s">
-        <v>447</v>
-      </c>
-      <c r="E167" s="5"/>
+        <v>444</v>
+      </c>
+      <c r="E167" s="6" t="s">
+        <v>445</v>
+      </c>
       <c r="F167" s="6" t="s">
-        <v>448</v>
+        <v>294</v>
       </c>
       <c r="G167" s="5"/>
-      <c r="H167" s="6" t="s">
-        <v>448</v>
-      </c>
+      <c r="H167" s="5"/>
       <c r="I167" s="5"/>
       <c r="J167" s="5"/>
       <c r="K167" s="5"/>
@@ -10207,23 +10226,21 @@
         <v>438</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="C168" s="6" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="D168" s="11" t="s">
-        <v>451</v>
-      </c>
-      <c r="E168" s="6" t="s">
-        <v>452</v>
-      </c>
+        <v>447</v>
+      </c>
+      <c r="E168" s="5"/>
       <c r="F168" s="6" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="G168" s="5"/>
       <c r="H168" s="6" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="I168" s="5"/>
       <c r="J168" s="5"/>
@@ -10252,20 +10269,20 @@
         <v>449</v>
       </c>
       <c r="C169" s="6" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="D169" s="11" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="E169" s="6" t="s">
-        <v>23</v>
+        <v>452</v>
       </c>
       <c r="F169" s="6" t="s">
-        <v>23</v>
+        <v>452</v>
       </c>
       <c r="G169" s="5"/>
       <c r="H169" s="6" t="s">
-        <v>23</v>
+        <v>452</v>
       </c>
       <c r="I169" s="5"/>
       <c r="J169" s="5"/>
@@ -10290,20 +10307,26 @@
       <c r="A170" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="B170" s="5"/>
+      <c r="B170" s="6" t="s">
+        <v>449</v>
+      </c>
       <c r="C170" s="6" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D170" s="11" t="s">
-        <v>456</v>
-      </c>
-      <c r="E170" s="5"/>
-      <c r="F170" s="5"/>
+        <v>454</v>
+      </c>
+      <c r="E170" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F170" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G170" s="5"/>
-      <c r="H170" s="5"/>
-      <c r="I170" s="6" t="s">
-        <v>457</v>
-      </c>
+      <c r="H170" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I170" s="5"/>
       <c r="J170" s="5"/>
       <c r="K170" s="5"/>
       <c r="L170" s="5"/>
@@ -10324,23 +10347,21 @@
     </row>
     <row r="171" spans="1:26" ht="13.5" customHeight="1">
       <c r="A171" s="8" t="s">
-        <v>458</v>
-      </c>
-      <c r="B171" s="8" t="s">
-        <v>459</v>
-      </c>
-      <c r="C171" s="8" t="s">
-        <v>460</v>
+        <v>438</v>
+      </c>
+      <c r="B171" s="5"/>
+      <c r="C171" s="6" t="s">
+        <v>455</v>
       </c>
       <c r="D171" s="11" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="E171" s="5"/>
       <c r="F171" s="5"/>
       <c r="G171" s="5"/>
       <c r="H171" s="5"/>
-      <c r="I171" s="8" t="s">
-        <v>462</v>
+      <c r="I171" s="6" t="s">
+        <v>457</v>
       </c>
       <c r="J171" s="5"/>
       <c r="K171" s="5"/>
@@ -10368,20 +10389,18 @@
         <v>459</v>
       </c>
       <c r="C172" s="8" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="D172" s="11" t="s">
-        <v>464</v>
-      </c>
-      <c r="E172" s="6" t="s">
-        <v>291</v>
-      </c>
+        <v>461</v>
+      </c>
+      <c r="E172" s="5"/>
       <c r="F172" s="5"/>
       <c r="G172" s="5"/>
-      <c r="H172" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="I172" s="5"/>
+      <c r="H172" s="5"/>
+      <c r="I172" s="8" t="s">
+        <v>462</v>
+      </c>
       <c r="J172" s="5"/>
       <c r="K172" s="5"/>
       <c r="L172" s="5"/>
@@ -10405,21 +10424,23 @@
         <v>458</v>
       </c>
       <c r="B173" s="8" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="C173" s="8" t="s">
-        <v>466</v>
-      </c>
-      <c r="D173" s="18" t="s">
-        <v>467</v>
-      </c>
-      <c r="E173" s="19"/>
-      <c r="F173" s="19"/>
-      <c r="G173" s="19"/>
-      <c r="H173" s="20"/>
-      <c r="I173" s="8" t="s">
-        <v>468</v>
-      </c>
+        <v>463</v>
+      </c>
+      <c r="D173" s="11" t="s">
+        <v>464</v>
+      </c>
+      <c r="E173" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="F173" s="5"/>
+      <c r="G173" s="5"/>
+      <c r="H173" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="I173" s="5"/>
       <c r="J173" s="5"/>
       <c r="K173" s="5"/>
       <c r="L173" s="5"/>
@@ -10446,20 +10467,18 @@
         <v>465</v>
       </c>
       <c r="C174" s="8" t="s">
-        <v>469</v>
-      </c>
-      <c r="D174" s="11" t="s">
-        <v>470</v>
-      </c>
-      <c r="E174" s="6" t="s">
-        <v>471</v>
-      </c>
-      <c r="F174" s="5"/>
-      <c r="G174" s="5"/>
-      <c r="H174" s="6" t="s">
-        <v>471</v>
-      </c>
-      <c r="I174" s="5"/>
+        <v>466</v>
+      </c>
+      <c r="D174" s="18" t="s">
+        <v>467</v>
+      </c>
+      <c r="E174" s="19"/>
+      <c r="F174" s="19"/>
+      <c r="G174" s="19"/>
+      <c r="H174" s="20"/>
+      <c r="I174" s="8" t="s">
+        <v>468</v>
+      </c>
       <c r="J174" s="5"/>
       <c r="K174" s="5"/>
       <c r="L174" s="5"/>
@@ -10483,20 +10502,22 @@
         <v>458</v>
       </c>
       <c r="B175" s="8" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="C175" s="8" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="D175" s="11" t="s">
-        <v>474</v>
-      </c>
-      <c r="E175" s="5"/>
-      <c r="F175" s="6" t="s">
-        <v>475</v>
-      </c>
+        <v>470</v>
+      </c>
+      <c r="E175" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="F175" s="5"/>
       <c r="G175" s="5"/>
-      <c r="H175" s="5"/>
+      <c r="H175" s="6" t="s">
+        <v>471</v>
+      </c>
       <c r="I175" s="5"/>
       <c r="J175" s="5"/>
       <c r="K175" s="5"/>
@@ -10524,14 +10545,14 @@
         <v>472</v>
       </c>
       <c r="C176" s="8" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D176" s="11" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="E176" s="5"/>
       <c r="F176" s="6" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="G176" s="5"/>
       <c r="H176" s="5"/>
@@ -10562,14 +10583,14 @@
         <v>472</v>
       </c>
       <c r="C177" s="8" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="D177" s="11" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="E177" s="5"/>
       <c r="F177" s="6" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="G177" s="5"/>
       <c r="H177" s="5"/>
@@ -10600,14 +10621,14 @@
         <v>472</v>
       </c>
       <c r="C178" s="8" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D178" s="11" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="E178" s="5"/>
       <c r="F178" s="6" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="G178" s="5"/>
       <c r="H178" s="5"/>
@@ -10638,14 +10659,14 @@
         <v>472</v>
       </c>
       <c r="C179" s="8" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="D179" s="11" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="E179" s="5"/>
       <c r="F179" s="6" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="G179" s="5"/>
       <c r="H179" s="5"/>
@@ -10676,14 +10697,14 @@
         <v>472</v>
       </c>
       <c r="C180" s="8" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="D180" s="11" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="E180" s="5"/>
       <c r="F180" s="6" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="G180" s="5"/>
       <c r="H180" s="5"/>
@@ -10714,14 +10735,14 @@
         <v>472</v>
       </c>
       <c r="C181" s="8" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D181" s="11" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="E181" s="5"/>
       <c r="F181" s="6" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="G181" s="5"/>
       <c r="H181" s="5"/>
@@ -10752,14 +10773,14 @@
         <v>472</v>
       </c>
       <c r="C182" s="8" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="D182" s="11" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="E182" s="5"/>
       <c r="F182" s="6" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="G182" s="5"/>
       <c r="H182" s="5"/>
@@ -10790,14 +10811,14 @@
         <v>472</v>
       </c>
       <c r="C183" s="8" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="D183" s="11" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="E183" s="5"/>
       <c r="F183" s="6" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="G183" s="5"/>
       <c r="H183" s="5"/>
@@ -10828,14 +10849,14 @@
         <v>472</v>
       </c>
       <c r="C184" s="8" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="D184" s="11" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="E184" s="5"/>
       <c r="F184" s="6" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G184" s="5"/>
       <c r="H184" s="5"/>
@@ -10866,14 +10887,14 @@
         <v>472</v>
       </c>
       <c r="C185" s="8" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="D185" s="11" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="E185" s="5"/>
       <c r="F185" s="6" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="G185" s="5"/>
       <c r="H185" s="5"/>
@@ -10904,14 +10925,14 @@
         <v>472</v>
       </c>
       <c r="C186" s="8" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="D186" s="11" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="E186" s="5"/>
       <c r="F186" s="6" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G186" s="5"/>
       <c r="H186" s="5"/>
@@ -10942,14 +10963,14 @@
         <v>472</v>
       </c>
       <c r="C187" s="8" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="D187" s="11" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="E187" s="5"/>
       <c r="F187" s="6" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="G187" s="5"/>
       <c r="H187" s="5"/>
@@ -10977,20 +10998,20 @@
         <v>458</v>
       </c>
       <c r="B188" s="8" t="s">
-        <v>512</v>
+        <v>472</v>
       </c>
       <c r="C188" s="8" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="D188" s="11" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="E188" s="5"/>
-      <c r="F188" s="5"/>
+      <c r="F188" s="6" t="s">
+        <v>511</v>
+      </c>
       <c r="G188" s="5"/>
-      <c r="H188" s="5" t="s">
-        <v>515</v>
-      </c>
+      <c r="H188" s="5"/>
       <c r="I188" s="5"/>
       <c r="J188" s="5"/>
       <c r="K188" s="5"/>
@@ -11015,19 +11036,19 @@
         <v>458</v>
       </c>
       <c r="B189" s="8" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="C189" s="8" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="D189" s="11" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="E189" s="5"/>
       <c r="F189" s="5"/>
       <c r="G189" s="5"/>
       <c r="H189" s="5" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="I189" s="5"/>
       <c r="J189" s="5"/>
@@ -11056,16 +11077,16 @@
         <v>516</v>
       </c>
       <c r="C190" s="8" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="D190" s="11" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="E190" s="5"/>
       <c r="F190" s="5"/>
       <c r="G190" s="5"/>
       <c r="H190" s="5" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="I190" s="5"/>
       <c r="J190" s="5"/>
@@ -11094,18 +11115,18 @@
         <v>516</v>
       </c>
       <c r="C191" s="8" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="D191" s="11" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="E191" s="5"/>
       <c r="F191" s="5"/>
       <c r="G191" s="5"/>
-      <c r="H191" s="5"/>
-      <c r="I191" s="6" t="s">
-        <v>525</v>
-      </c>
+      <c r="H191" s="5" t="s">
+        <v>522</v>
+      </c>
+      <c r="I191" s="5"/>
       <c r="J191" s="5"/>
       <c r="K191" s="5"/>
       <c r="L191" s="5"/>
@@ -11126,21 +11147,23 @@
     </row>
     <row r="192" spans="1:26" ht="13.5" customHeight="1">
       <c r="A192" s="8" t="s">
-        <v>526</v>
-      </c>
-      <c r="B192" s="5"/>
+        <v>458</v>
+      </c>
+      <c r="B192" s="8" t="s">
+        <v>516</v>
+      </c>
       <c r="C192" s="8" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="D192" s="11" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="E192" s="5"/>
       <c r="F192" s="5"/>
       <c r="G192" s="5"/>
       <c r="H192" s="5"/>
       <c r="I192" s="6" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="J192" s="5"/>
       <c r="K192" s="5"/>
@@ -11166,20 +11189,18 @@
       </c>
       <c r="B193" s="5"/>
       <c r="C193" s="8" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="D193" s="11" t="s">
-        <v>531</v>
-      </c>
-      <c r="E193" s="5" t="s">
-        <v>532</v>
-      </c>
-      <c r="F193" s="5" t="s">
-        <v>532</v>
-      </c>
+        <v>528</v>
+      </c>
+      <c r="E193" s="5"/>
+      <c r="F193" s="5"/>
       <c r="G193" s="5"/>
       <c r="H193" s="5"/>
-      <c r="I193" s="5"/>
+      <c r="I193" s="6" t="s">
+        <v>529</v>
+      </c>
       <c r="J193" s="5"/>
       <c r="K193" s="5"/>
       <c r="L193" s="5"/>
@@ -11199,23 +11220,25 @@
       <c r="Z193" s="3"/>
     </row>
     <row r="194" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A194" s="6" t="s">
-        <v>533</v>
+      <c r="A194" s="8" t="s">
+        <v>526</v>
       </c>
       <c r="B194" s="5"/>
-      <c r="C194" s="6" t="s">
-        <v>534</v>
+      <c r="C194" s="8" t="s">
+        <v>530</v>
       </c>
       <c r="D194" s="11" t="s">
-        <v>535</v>
-      </c>
-      <c r="E194" s="5"/>
-      <c r="F194" s="5"/>
+        <v>531</v>
+      </c>
+      <c r="E194" s="5" t="s">
+        <v>532</v>
+      </c>
+      <c r="F194" s="5" t="s">
+        <v>532</v>
+      </c>
       <c r="G194" s="5"/>
       <c r="H194" s="5"/>
-      <c r="I194" s="6" t="s">
-        <v>536</v>
-      </c>
+      <c r="I194" s="5"/>
       <c r="J194" s="5"/>
       <c r="K194" s="5"/>
       <c r="L194" s="5"/>
@@ -11239,18 +11262,18 @@
         <v>533</v>
       </c>
       <c r="B195" s="5"/>
-      <c r="C195" s="8" t="s">
-        <v>537</v>
+      <c r="C195" s="6" t="s">
+        <v>534</v>
       </c>
       <c r="D195" s="11" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="E195" s="5"/>
       <c r="F195" s="5"/>
       <c r="G195" s="5"/>
       <c r="H195" s="5"/>
-      <c r="I195" s="8" t="s">
-        <v>539</v>
+      <c r="I195" s="6" t="s">
+        <v>536</v>
       </c>
       <c r="J195" s="5"/>
       <c r="K195" s="5"/>
@@ -11276,17 +11299,17 @@
       </c>
       <c r="B196" s="5"/>
       <c r="C196" s="8" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="D196" s="11" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="E196" s="5"/>
       <c r="F196" s="5"/>
       <c r="G196" s="5"/>
       <c r="H196" s="5"/>
-      <c r="I196" s="6" t="s">
-        <v>542</v>
+      <c r="I196" s="8" t="s">
+        <v>539</v>
       </c>
       <c r="J196" s="5"/>
       <c r="K196" s="5"/>
@@ -11311,18 +11334,18 @@
         <v>533</v>
       </c>
       <c r="B197" s="5"/>
-      <c r="C197" s="6" t="s">
-        <v>543</v>
+      <c r="C197" s="8" t="s">
+        <v>540</v>
       </c>
       <c r="D197" s="11" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="E197" s="5"/>
       <c r="F197" s="5"/>
       <c r="G197" s="5"/>
       <c r="H197" s="5"/>
       <c r="I197" s="6" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="J197" s="5"/>
       <c r="K197" s="5"/>
@@ -11348,18 +11371,18 @@
       </c>
       <c r="B198" s="5"/>
       <c r="C198" s="6" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="D198" s="11" t="s">
-        <v>547</v>
-      </c>
-      <c r="E198" s="6" t="s">
-        <v>548</v>
-      </c>
+        <v>544</v>
+      </c>
+      <c r="E198" s="5"/>
       <c r="F198" s="5"/>
       <c r="G198" s="5"/>
       <c r="H198" s="5"/>
-      <c r="I198" s="5"/>
+      <c r="I198" s="6" t="s">
+        <v>545</v>
+      </c>
       <c r="J198" s="5"/>
       <c r="K198" s="5"/>
       <c r="L198" s="5"/>
@@ -11379,23 +11402,23 @@
       <c r="Z198" s="3"/>
     </row>
     <row r="199" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A199" s="8" t="s">
-        <v>549</v>
-      </c>
-      <c r="B199" s="4"/>
-      <c r="C199" s="21" t="s">
-        <v>550</v>
-      </c>
-      <c r="D199" s="22" t="s">
-        <v>551</v>
-      </c>
-      <c r="E199" s="4"/>
+      <c r="A199" s="6" t="s">
+        <v>533</v>
+      </c>
+      <c r="B199" s="5"/>
+      <c r="C199" s="6" t="s">
+        <v>546</v>
+      </c>
+      <c r="D199" s="11" t="s">
+        <v>547</v>
+      </c>
+      <c r="E199" s="6" t="s">
+        <v>548</v>
+      </c>
       <c r="F199" s="5"/>
       <c r="G199" s="5"/>
-      <c r="H199" s="4"/>
-      <c r="I199" s="6" t="s">
-        <v>552</v>
-      </c>
+      <c r="H199" s="5"/>
+      <c r="I199" s="5"/>
       <c r="J199" s="5"/>
       <c r="K199" s="5"/>
       <c r="L199" s="5"/>
@@ -11419,18 +11442,18 @@
         <v>549</v>
       </c>
       <c r="B200" s="4"/>
-      <c r="C200" s="8" t="s">
-        <v>553</v>
-      </c>
-      <c r="D200" s="9" t="s">
-        <v>554</v>
+      <c r="C200" s="21" t="s">
+        <v>550</v>
+      </c>
+      <c r="D200" s="22" t="s">
+        <v>551</v>
       </c>
       <c r="E200" s="4"/>
       <c r="F200" s="5"/>
       <c r="G200" s="5"/>
       <c r="H200" s="4"/>
       <c r="I200" s="6" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="J200" s="5"/>
       <c r="K200" s="5"/>
@@ -11456,17 +11479,17 @@
       </c>
       <c r="B201" s="4"/>
       <c r="C201" s="8" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="D201" s="9" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="E201" s="4"/>
       <c r="F201" s="5"/>
       <c r="G201" s="5"/>
       <c r="H201" s="4"/>
       <c r="I201" s="6" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="J201" s="5"/>
       <c r="K201" s="5"/>
@@ -11488,21 +11511,21 @@
     </row>
     <row r="202" spans="1:26" ht="13.5" customHeight="1">
       <c r="A202" s="8" t="s">
-        <v>559</v>
-      </c>
-      <c r="B202" s="5"/>
-      <c r="C202" s="6" t="s">
-        <v>560</v>
-      </c>
-      <c r="D202" s="11" t="s">
-        <v>561</v>
-      </c>
-      <c r="E202" s="5"/>
+        <v>549</v>
+      </c>
+      <c r="B202" s="4"/>
+      <c r="C202" s="8" t="s">
+        <v>556</v>
+      </c>
+      <c r="D202" s="9" t="s">
+        <v>557</v>
+      </c>
+      <c r="E202" s="4"/>
       <c r="F202" s="5"/>
       <c r="G202" s="5"/>
-      <c r="H202" s="5"/>
+      <c r="H202" s="4"/>
       <c r="I202" s="6" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="J202" s="5"/>
       <c r="K202" s="5"/>
@@ -11528,17 +11551,17 @@
       </c>
       <c r="B203" s="5"/>
       <c r="C203" s="6" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="D203" s="11" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="E203" s="5"/>
       <c r="F203" s="5"/>
       <c r="G203" s="5"/>
       <c r="H203" s="5"/>
       <c r="I203" s="6" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="J203" s="5"/>
       <c r="K203" s="5"/>
@@ -11559,15 +11582,23 @@
       <c r="Z203" s="3"/>
     </row>
     <row r="204" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A204" s="23"/>
+      <c r="A204" s="8" t="s">
+        <v>559</v>
+      </c>
       <c r="B204" s="5"/>
-      <c r="C204" s="23"/>
-      <c r="D204" s="24"/>
+      <c r="C204" s="6" t="s">
+        <v>563</v>
+      </c>
+      <c r="D204" s="11" t="s">
+        <v>564</v>
+      </c>
       <c r="E204" s="5"/>
       <c r="F204" s="5"/>
       <c r="G204" s="5"/>
       <c r="H204" s="5"/>
-      <c r="I204" s="5"/>
+      <c r="I204" s="6" t="s">
+        <v>565</v>
+      </c>
       <c r="J204" s="5"/>
       <c r="K204" s="5"/>
       <c r="L204" s="5"/>
@@ -11587,10 +11618,10 @@
       <c r="Z204" s="3"/>
     </row>
     <row r="205" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A205" s="5"/>
+      <c r="A205" s="23"/>
       <c r="B205" s="5"/>
-      <c r="C205" s="5"/>
-      <c r="D205" s="5"/>
+      <c r="C205" s="23"/>
+      <c r="D205" s="24"/>
       <c r="E205" s="5"/>
       <c r="F205" s="5"/>
       <c r="G205" s="5"/>
@@ -17158,7 +17189,34 @@
       <c r="Y403" s="3"/>
       <c r="Z403" s="3"/>
     </row>
-    <row r="404" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="404" spans="1:26" ht="13.5" customHeight="1">
+      <c r="A404" s="5"/>
+      <c r="B404" s="5"/>
+      <c r="C404" s="5"/>
+      <c r="D404" s="5"/>
+      <c r="E404" s="5"/>
+      <c r="F404" s="5"/>
+      <c r="G404" s="5"/>
+      <c r="H404" s="5"/>
+      <c r="I404" s="5"/>
+      <c r="J404" s="5"/>
+      <c r="K404" s="5"/>
+      <c r="L404" s="5"/>
+      <c r="M404" s="6"/>
+      <c r="N404" s="3"/>
+      <c r="O404" s="3"/>
+      <c r="P404" s="3"/>
+      <c r="Q404" s="3"/>
+      <c r="R404" s="3"/>
+      <c r="S404" s="3"/>
+      <c r="T404" s="3"/>
+      <c r="U404" s="3"/>
+      <c r="V404" s="3"/>
+      <c r="W404" s="3"/>
+      <c r="X404" s="3"/>
+      <c r="Y404" s="3"/>
+      <c r="Z404" s="3"/>
+    </row>
     <row r="405" spans="1:26" ht="15.75" customHeight="1"/>
     <row r="406" spans="1:26" ht="15.75" customHeight="1"/>
     <row r="407" spans="1:26" ht="15.75" customHeight="1"/>
@@ -17755,6 +17813,7 @@
     <row r="998" ht="15.75" customHeight="1"/>
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="1001" ht="15.75" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="13"/>
   <hyperlinks>
@@ -17915,49 +17974,49 @@
     <hyperlink ref="D161" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
     <hyperlink ref="D162" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
     <hyperlink ref="D163" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
-    <hyperlink ref="D164" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
-    <hyperlink ref="D165" r:id="rId159" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
-    <hyperlink ref="D166" r:id="rId160" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
-    <hyperlink ref="D167" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
-    <hyperlink ref="D168" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
-    <hyperlink ref="D169" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
-    <hyperlink ref="D170" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
-    <hyperlink ref="D171" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
-    <hyperlink ref="D172" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
-    <hyperlink ref="D173" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
-    <hyperlink ref="D174" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
-    <hyperlink ref="D175" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
-    <hyperlink ref="D176" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
-    <hyperlink ref="D177" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
-    <hyperlink ref="D178" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
-    <hyperlink ref="D179" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
-    <hyperlink ref="D180" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
-    <hyperlink ref="D181" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
-    <hyperlink ref="D182" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
-    <hyperlink ref="D183" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
-    <hyperlink ref="D184" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
-    <hyperlink ref="D185" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
-    <hyperlink ref="D186" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
-    <hyperlink ref="D187" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
-    <hyperlink ref="D188" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
-    <hyperlink ref="D189" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
-    <hyperlink ref="D190" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
-    <hyperlink ref="D191" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
-    <hyperlink ref="D192" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
-    <hyperlink ref="D193" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
-    <hyperlink ref="D194" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
-    <hyperlink ref="D195" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
-    <hyperlink ref="D196" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
-    <hyperlink ref="D197" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
-    <hyperlink ref="D198" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
-    <hyperlink ref="D199" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
-    <hyperlink ref="D200" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
-    <hyperlink ref="D201" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
-    <hyperlink ref="D202" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
-    <hyperlink ref="D203" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
+    <hyperlink ref="D166" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
+    <hyperlink ref="D167" r:id="rId159" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
+    <hyperlink ref="D168" r:id="rId160" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
+    <hyperlink ref="D169" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
+    <hyperlink ref="D170" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
+    <hyperlink ref="D171" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
+    <hyperlink ref="D172" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
+    <hyperlink ref="D173" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
+    <hyperlink ref="D174" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
+    <hyperlink ref="D175" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
+    <hyperlink ref="D176" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
+    <hyperlink ref="D177" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
+    <hyperlink ref="D178" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
+    <hyperlink ref="D179" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
+    <hyperlink ref="D180" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
+    <hyperlink ref="D181" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
+    <hyperlink ref="D182" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
+    <hyperlink ref="D183" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
+    <hyperlink ref="D184" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
+    <hyperlink ref="D185" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
+    <hyperlink ref="D186" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
+    <hyperlink ref="D187" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
+    <hyperlink ref="D188" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
+    <hyperlink ref="D189" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
+    <hyperlink ref="D190" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
+    <hyperlink ref="D191" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
+    <hyperlink ref="D192" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
+    <hyperlink ref="D193" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
+    <hyperlink ref="D194" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
+    <hyperlink ref="D195" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
+    <hyperlink ref="D196" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
+    <hyperlink ref="D197" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
+    <hyperlink ref="D198" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
+    <hyperlink ref="D199" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
+    <hyperlink ref="D200" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
+    <hyperlink ref="D201" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
+    <hyperlink ref="D202" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
+    <hyperlink ref="D203" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
+    <hyperlink ref="D204" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
+    <hyperlink ref="D165" r:id="rId197" xr:uid="{1A0C1FCE-3241-4AC7-B899-8231EBE3B6EA}"/>
+    <hyperlink ref="D164" r:id="rId198" xr:uid="{2D43E6E3-1115-4E25-A48D-2EB6067C8E84}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="portrait" r:id="rId198"/>
   <headerFooter>
     <oddFooter>&amp;C000000&amp;P</oddFooter>
   </headerFooter>

--- a/メニュー/メニュー.xlsx
+++ b/メニュー/メニュー.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\webmeeting\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\svmfile\filesv\102003001DX推進課\【令和7年度】\50_事業\10-01_スマートシティ推進事業費\02_スマートマップ焼津保守運用業務\50_地図データ\災害ごみ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8477AA11-8DA5-410F-AEB9-F90C40D01AF2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CE37349-E008-461A-8B24-6C805FB1D48E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5544" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="メニュー構造" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="566">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1044" uniqueCount="569">
   <si>
     <t>大カテゴリー</t>
   </si>
@@ -3295,6 +3295,26 @@
   </si>
   <si>
     <t>wifi-access-point</t>
+  </si>
+  <si>
+    <t>災害ごみ受入場所</t>
+    <rPh sb="0" eb="2">
+      <t>サイガイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ウケイレ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>バショ</t>
+    </rPh>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>https://yaizu-smartcity.jp/tiles/%E7%81%BD%E5%AE%B3%E3%81%94%E3%81%BF%E5%8F%97%E5%85%A5%E5%A0%B4%E6%89%80/tiles.json</t>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>map-pin-red</t>
   </si>
 </sst>
 </file>
@@ -3499,7 +3519,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3554,6 +3574,12 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3774,11 +3800,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Z1000"/>
+  <dimension ref="A1:Z1001"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A185" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A204" sqref="A204:XFD204"/>
+      <pane ySplit="1" topLeftCell="A151" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B164" sqref="B164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -10049,21 +10075,19 @@
         <v>435</v>
       </c>
       <c r="B164" s="5"/>
-      <c r="C164" s="6" t="s">
-        <v>436</v>
-      </c>
-      <c r="D164" s="11" t="s">
-        <v>437</v>
-      </c>
-      <c r="E164" s="6" t="s">
-        <v>291</v>
-      </c>
+      <c r="C164" s="25" t="s">
+        <v>566</v>
+      </c>
+      <c r="D164" s="26" t="s">
+        <v>567</v>
+      </c>
+      <c r="E164" s="6"/>
       <c r="F164" s="5"/>
       <c r="G164" s="5"/>
-      <c r="H164" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="I164" s="5"/>
+      <c r="H164" s="6"/>
+      <c r="I164" s="5" t="s">
+        <v>568</v>
+      </c>
       <c r="J164" s="5"/>
       <c r="K164" s="5"/>
       <c r="L164" s="5"/>
@@ -10083,26 +10107,24 @@
       <c r="Z164" s="3"/>
     </row>
     <row r="165" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A165" s="8" t="s">
-        <v>438</v>
-      </c>
-      <c r="B165" s="6" t="s">
-        <v>439</v>
-      </c>
+      <c r="A165" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="B165" s="5"/>
       <c r="C165" s="6" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="D165" s="11" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="E165" s="6" t="s">
-        <v>442</v>
-      </c>
-      <c r="F165" s="6" t="s">
-        <v>294</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="F165" s="5"/>
       <c r="G165" s="5"/>
-      <c r="H165" s="5"/>
+      <c r="H165" s="6" t="s">
+        <v>291</v>
+      </c>
       <c r="I165" s="5"/>
       <c r="J165" s="5"/>
       <c r="K165" s="5"/>
@@ -10130,13 +10152,13 @@
         <v>439</v>
       </c>
       <c r="C166" s="6" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="D166" s="11" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="E166" s="6" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="F166" s="6" t="s">
         <v>294</v>
@@ -10167,22 +10189,22 @@
         <v>438</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="C167" s="6" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="D167" s="11" t="s">
-        <v>447</v>
-      </c>
-      <c r="E167" s="5"/>
+        <v>444</v>
+      </c>
+      <c r="E167" s="6" t="s">
+        <v>445</v>
+      </c>
       <c r="F167" s="6" t="s">
-        <v>448</v>
+        <v>294</v>
       </c>
       <c r="G167" s="5"/>
-      <c r="H167" s="6" t="s">
-        <v>448</v>
-      </c>
+      <c r="H167" s="5"/>
       <c r="I167" s="5"/>
       <c r="J167" s="5"/>
       <c r="K167" s="5"/>
@@ -10207,23 +10229,21 @@
         <v>438</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="C168" s="6" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="D168" s="11" t="s">
-        <v>451</v>
-      </c>
-      <c r="E168" s="6" t="s">
-        <v>452</v>
-      </c>
+        <v>447</v>
+      </c>
+      <c r="E168" s="5"/>
       <c r="F168" s="6" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="G168" s="5"/>
       <c r="H168" s="6" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="I168" s="5"/>
       <c r="J168" s="5"/>
@@ -10252,20 +10272,20 @@
         <v>449</v>
       </c>
       <c r="C169" s="6" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="D169" s="11" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="E169" s="6" t="s">
-        <v>23</v>
+        <v>452</v>
       </c>
       <c r="F169" s="6" t="s">
-        <v>23</v>
+        <v>452</v>
       </c>
       <c r="G169" s="5"/>
       <c r="H169" s="6" t="s">
-        <v>23</v>
+        <v>452</v>
       </c>
       <c r="I169" s="5"/>
       <c r="J169" s="5"/>
@@ -10290,20 +10310,26 @@
       <c r="A170" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="B170" s="5"/>
+      <c r="B170" s="6" t="s">
+        <v>449</v>
+      </c>
       <c r="C170" s="6" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D170" s="11" t="s">
-        <v>456</v>
-      </c>
-      <c r="E170" s="5"/>
-      <c r="F170" s="5"/>
+        <v>454</v>
+      </c>
+      <c r="E170" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F170" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G170" s="5"/>
-      <c r="H170" s="5"/>
-      <c r="I170" s="6" t="s">
-        <v>457</v>
-      </c>
+      <c r="H170" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I170" s="5"/>
       <c r="J170" s="5"/>
       <c r="K170" s="5"/>
       <c r="L170" s="5"/>
@@ -10324,23 +10350,21 @@
     </row>
     <row r="171" spans="1:26" ht="13.5" customHeight="1">
       <c r="A171" s="8" t="s">
-        <v>458</v>
-      </c>
-      <c r="B171" s="8" t="s">
-        <v>459</v>
-      </c>
-      <c r="C171" s="8" t="s">
-        <v>460</v>
+        <v>438</v>
+      </c>
+      <c r="B171" s="5"/>
+      <c r="C171" s="6" t="s">
+        <v>455</v>
       </c>
       <c r="D171" s="11" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="E171" s="5"/>
       <c r="F171" s="5"/>
       <c r="G171" s="5"/>
       <c r="H171" s="5"/>
-      <c r="I171" s="8" t="s">
-        <v>462</v>
+      <c r="I171" s="6" t="s">
+        <v>457</v>
       </c>
       <c r="J171" s="5"/>
       <c r="K171" s="5"/>
@@ -10368,20 +10392,18 @@
         <v>459</v>
       </c>
       <c r="C172" s="8" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="D172" s="11" t="s">
-        <v>464</v>
-      </c>
-      <c r="E172" s="6" t="s">
-        <v>291</v>
-      </c>
+        <v>461</v>
+      </c>
+      <c r="E172" s="5"/>
       <c r="F172" s="5"/>
       <c r="G172" s="5"/>
-      <c r="H172" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="I172" s="5"/>
+      <c r="H172" s="5"/>
+      <c r="I172" s="8" t="s">
+        <v>462</v>
+      </c>
       <c r="J172" s="5"/>
       <c r="K172" s="5"/>
       <c r="L172" s="5"/>
@@ -10405,21 +10427,23 @@
         <v>458</v>
       </c>
       <c r="B173" s="8" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="C173" s="8" t="s">
-        <v>466</v>
-      </c>
-      <c r="D173" s="18" t="s">
-        <v>467</v>
-      </c>
-      <c r="E173" s="19"/>
-      <c r="F173" s="19"/>
-      <c r="G173" s="19"/>
-      <c r="H173" s="20"/>
-      <c r="I173" s="8" t="s">
-        <v>468</v>
-      </c>
+        <v>463</v>
+      </c>
+      <c r="D173" s="11" t="s">
+        <v>464</v>
+      </c>
+      <c r="E173" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="F173" s="5"/>
+      <c r="G173" s="5"/>
+      <c r="H173" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="I173" s="5"/>
       <c r="J173" s="5"/>
       <c r="K173" s="5"/>
       <c r="L173" s="5"/>
@@ -10446,20 +10470,18 @@
         <v>465</v>
       </c>
       <c r="C174" s="8" t="s">
-        <v>469</v>
-      </c>
-      <c r="D174" s="11" t="s">
-        <v>470</v>
-      </c>
-      <c r="E174" s="6" t="s">
-        <v>471</v>
-      </c>
-      <c r="F174" s="5"/>
-      <c r="G174" s="5"/>
-      <c r="H174" s="6" t="s">
-        <v>471</v>
-      </c>
-      <c r="I174" s="5"/>
+        <v>466</v>
+      </c>
+      <c r="D174" s="18" t="s">
+        <v>467</v>
+      </c>
+      <c r="E174" s="19"/>
+      <c r="F174" s="19"/>
+      <c r="G174" s="19"/>
+      <c r="H174" s="20"/>
+      <c r="I174" s="8" t="s">
+        <v>468</v>
+      </c>
       <c r="J174" s="5"/>
       <c r="K174" s="5"/>
       <c r="L174" s="5"/>
@@ -10483,20 +10505,22 @@
         <v>458</v>
       </c>
       <c r="B175" s="8" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="C175" s="8" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="D175" s="11" t="s">
-        <v>474</v>
-      </c>
-      <c r="E175" s="5"/>
-      <c r="F175" s="6" t="s">
-        <v>475</v>
-      </c>
+        <v>470</v>
+      </c>
+      <c r="E175" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="F175" s="5"/>
       <c r="G175" s="5"/>
-      <c r="H175" s="5"/>
+      <c r="H175" s="6" t="s">
+        <v>471</v>
+      </c>
       <c r="I175" s="5"/>
       <c r="J175" s="5"/>
       <c r="K175" s="5"/>
@@ -10524,14 +10548,14 @@
         <v>472</v>
       </c>
       <c r="C176" s="8" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D176" s="11" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="E176" s="5"/>
       <c r="F176" s="6" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="G176" s="5"/>
       <c r="H176" s="5"/>
@@ -10562,14 +10586,14 @@
         <v>472</v>
       </c>
       <c r="C177" s="8" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="D177" s="11" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="E177" s="5"/>
       <c r="F177" s="6" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="G177" s="5"/>
       <c r="H177" s="5"/>
@@ -10600,14 +10624,14 @@
         <v>472</v>
       </c>
       <c r="C178" s="8" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D178" s="11" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="E178" s="5"/>
       <c r="F178" s="6" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="G178" s="5"/>
       <c r="H178" s="5"/>
@@ -10638,14 +10662,14 @@
         <v>472</v>
       </c>
       <c r="C179" s="8" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="D179" s="11" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="E179" s="5"/>
       <c r="F179" s="6" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="G179" s="5"/>
       <c r="H179" s="5"/>
@@ -10676,14 +10700,14 @@
         <v>472</v>
       </c>
       <c r="C180" s="8" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="D180" s="11" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="E180" s="5"/>
       <c r="F180" s="6" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="G180" s="5"/>
       <c r="H180" s="5"/>
@@ -10714,14 +10738,14 @@
         <v>472</v>
       </c>
       <c r="C181" s="8" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D181" s="11" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="E181" s="5"/>
       <c r="F181" s="6" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="G181" s="5"/>
       <c r="H181" s="5"/>
@@ -10752,14 +10776,14 @@
         <v>472</v>
       </c>
       <c r="C182" s="8" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="D182" s="11" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="E182" s="5"/>
       <c r="F182" s="6" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="G182" s="5"/>
       <c r="H182" s="5"/>
@@ -10790,14 +10814,14 @@
         <v>472</v>
       </c>
       <c r="C183" s="8" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="D183" s="11" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="E183" s="5"/>
       <c r="F183" s="6" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="G183" s="5"/>
       <c r="H183" s="5"/>
@@ -10828,14 +10852,14 @@
         <v>472</v>
       </c>
       <c r="C184" s="8" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="D184" s="11" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="E184" s="5"/>
       <c r="F184" s="6" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G184" s="5"/>
       <c r="H184" s="5"/>
@@ -10866,14 +10890,14 @@
         <v>472</v>
       </c>
       <c r="C185" s="8" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="D185" s="11" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="E185" s="5"/>
       <c r="F185" s="6" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="G185" s="5"/>
       <c r="H185" s="5"/>
@@ -10904,14 +10928,14 @@
         <v>472</v>
       </c>
       <c r="C186" s="8" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="D186" s="11" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="E186" s="5"/>
       <c r="F186" s="6" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G186" s="5"/>
       <c r="H186" s="5"/>
@@ -10942,14 +10966,14 @@
         <v>472</v>
       </c>
       <c r="C187" s="8" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="D187" s="11" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="E187" s="5"/>
       <c r="F187" s="6" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="G187" s="5"/>
       <c r="H187" s="5"/>
@@ -10977,20 +11001,20 @@
         <v>458</v>
       </c>
       <c r="B188" s="8" t="s">
-        <v>512</v>
+        <v>472</v>
       </c>
       <c r="C188" s="8" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="D188" s="11" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="E188" s="5"/>
-      <c r="F188" s="5"/>
+      <c r="F188" s="6" t="s">
+        <v>511</v>
+      </c>
       <c r="G188" s="5"/>
-      <c r="H188" s="5" t="s">
-        <v>515</v>
-      </c>
+      <c r="H188" s="5"/>
       <c r="I188" s="5"/>
       <c r="J188" s="5"/>
       <c r="K188" s="5"/>
@@ -11015,19 +11039,19 @@
         <v>458</v>
       </c>
       <c r="B189" s="8" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="C189" s="8" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="D189" s="11" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="E189" s="5"/>
       <c r="F189" s="5"/>
       <c r="G189" s="5"/>
       <c r="H189" s="5" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="I189" s="5"/>
       <c r="J189" s="5"/>
@@ -11056,16 +11080,16 @@
         <v>516</v>
       </c>
       <c r="C190" s="8" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="D190" s="11" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="E190" s="5"/>
       <c r="F190" s="5"/>
       <c r="G190" s="5"/>
       <c r="H190" s="5" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="I190" s="5"/>
       <c r="J190" s="5"/>
@@ -11094,18 +11118,18 @@
         <v>516</v>
       </c>
       <c r="C191" s="8" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="D191" s="11" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="E191" s="5"/>
       <c r="F191" s="5"/>
       <c r="G191" s="5"/>
-      <c r="H191" s="5"/>
-      <c r="I191" s="6" t="s">
-        <v>525</v>
-      </c>
+      <c r="H191" s="5" t="s">
+        <v>522</v>
+      </c>
+      <c r="I191" s="5"/>
       <c r="J191" s="5"/>
       <c r="K191" s="5"/>
       <c r="L191" s="5"/>
@@ -11126,21 +11150,23 @@
     </row>
     <row r="192" spans="1:26" ht="13.5" customHeight="1">
       <c r="A192" s="8" t="s">
-        <v>526</v>
-      </c>
-      <c r="B192" s="5"/>
+        <v>458</v>
+      </c>
+      <c r="B192" s="8" t="s">
+        <v>516</v>
+      </c>
       <c r="C192" s="8" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="D192" s="11" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="E192" s="5"/>
       <c r="F192" s="5"/>
       <c r="G192" s="5"/>
       <c r="H192" s="5"/>
       <c r="I192" s="6" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="J192" s="5"/>
       <c r="K192" s="5"/>
@@ -11166,20 +11192,18 @@
       </c>
       <c r="B193" s="5"/>
       <c r="C193" s="8" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="D193" s="11" t="s">
-        <v>531</v>
-      </c>
-      <c r="E193" s="5" t="s">
-        <v>532</v>
-      </c>
-      <c r="F193" s="5" t="s">
-        <v>532</v>
-      </c>
+        <v>528</v>
+      </c>
+      <c r="E193" s="5"/>
+      <c r="F193" s="5"/>
       <c r="G193" s="5"/>
       <c r="H193" s="5"/>
-      <c r="I193" s="5"/>
+      <c r="I193" s="6" t="s">
+        <v>529</v>
+      </c>
       <c r="J193" s="5"/>
       <c r="K193" s="5"/>
       <c r="L193" s="5"/>
@@ -11199,23 +11223,25 @@
       <c r="Z193" s="3"/>
     </row>
     <row r="194" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A194" s="6" t="s">
-        <v>533</v>
+      <c r="A194" s="8" t="s">
+        <v>526</v>
       </c>
       <c r="B194" s="5"/>
-      <c r="C194" s="6" t="s">
-        <v>534</v>
+      <c r="C194" s="8" t="s">
+        <v>530</v>
       </c>
       <c r="D194" s="11" t="s">
-        <v>535</v>
-      </c>
-      <c r="E194" s="5"/>
-      <c r="F194" s="5"/>
+        <v>531</v>
+      </c>
+      <c r="E194" s="5" t="s">
+        <v>532</v>
+      </c>
+      <c r="F194" s="5" t="s">
+        <v>532</v>
+      </c>
       <c r="G194" s="5"/>
       <c r="H194" s="5"/>
-      <c r="I194" s="6" t="s">
-        <v>536</v>
-      </c>
+      <c r="I194" s="5"/>
       <c r="J194" s="5"/>
       <c r="K194" s="5"/>
       <c r="L194" s="5"/>
@@ -11239,18 +11265,18 @@
         <v>533</v>
       </c>
       <c r="B195" s="5"/>
-      <c r="C195" s="8" t="s">
-        <v>537</v>
+      <c r="C195" s="6" t="s">
+        <v>534</v>
       </c>
       <c r="D195" s="11" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="E195" s="5"/>
       <c r="F195" s="5"/>
       <c r="G195" s="5"/>
       <c r="H195" s="5"/>
-      <c r="I195" s="8" t="s">
-        <v>539</v>
+      <c r="I195" s="6" t="s">
+        <v>536</v>
       </c>
       <c r="J195" s="5"/>
       <c r="K195" s="5"/>
@@ -11276,17 +11302,17 @@
       </c>
       <c r="B196" s="5"/>
       <c r="C196" s="8" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="D196" s="11" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="E196" s="5"/>
       <c r="F196" s="5"/>
       <c r="G196" s="5"/>
       <c r="H196" s="5"/>
-      <c r="I196" s="6" t="s">
-        <v>542</v>
+      <c r="I196" s="8" t="s">
+        <v>539</v>
       </c>
       <c r="J196" s="5"/>
       <c r="K196" s="5"/>
@@ -11311,18 +11337,18 @@
         <v>533</v>
       </c>
       <c r="B197" s="5"/>
-      <c r="C197" s="6" t="s">
-        <v>543</v>
+      <c r="C197" s="8" t="s">
+        <v>540</v>
       </c>
       <c r="D197" s="11" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="E197" s="5"/>
       <c r="F197" s="5"/>
       <c r="G197" s="5"/>
       <c r="H197" s="5"/>
       <c r="I197" s="6" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="J197" s="5"/>
       <c r="K197" s="5"/>
@@ -11348,18 +11374,18 @@
       </c>
       <c r="B198" s="5"/>
       <c r="C198" s="6" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="D198" s="11" t="s">
-        <v>547</v>
-      </c>
-      <c r="E198" s="6" t="s">
-        <v>548</v>
-      </c>
+        <v>544</v>
+      </c>
+      <c r="E198" s="5"/>
       <c r="F198" s="5"/>
       <c r="G198" s="5"/>
       <c r="H198" s="5"/>
-      <c r="I198" s="5"/>
+      <c r="I198" s="6" t="s">
+        <v>545</v>
+      </c>
       <c r="J198" s="5"/>
       <c r="K198" s="5"/>
       <c r="L198" s="5"/>
@@ -11379,23 +11405,23 @@
       <c r="Z198" s="3"/>
     </row>
     <row r="199" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A199" s="8" t="s">
-        <v>549</v>
-      </c>
-      <c r="B199" s="4"/>
-      <c r="C199" s="21" t="s">
-        <v>550</v>
-      </c>
-      <c r="D199" s="22" t="s">
-        <v>551</v>
-      </c>
-      <c r="E199" s="4"/>
+      <c r="A199" s="6" t="s">
+        <v>533</v>
+      </c>
+      <c r="B199" s="5"/>
+      <c r="C199" s="6" t="s">
+        <v>546</v>
+      </c>
+      <c r="D199" s="11" t="s">
+        <v>547</v>
+      </c>
+      <c r="E199" s="6" t="s">
+        <v>548</v>
+      </c>
       <c r="F199" s="5"/>
       <c r="G199" s="5"/>
-      <c r="H199" s="4"/>
-      <c r="I199" s="6" t="s">
-        <v>552</v>
-      </c>
+      <c r="H199" s="5"/>
+      <c r="I199" s="5"/>
       <c r="J199" s="5"/>
       <c r="K199" s="5"/>
       <c r="L199" s="5"/>
@@ -11419,18 +11445,18 @@
         <v>549</v>
       </c>
       <c r="B200" s="4"/>
-      <c r="C200" s="8" t="s">
-        <v>553</v>
-      </c>
-      <c r="D200" s="9" t="s">
-        <v>554</v>
+      <c r="C200" s="21" t="s">
+        <v>550</v>
+      </c>
+      <c r="D200" s="22" t="s">
+        <v>551</v>
       </c>
       <c r="E200" s="4"/>
       <c r="F200" s="5"/>
       <c r="G200" s="5"/>
       <c r="H200" s="4"/>
       <c r="I200" s="6" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="J200" s="5"/>
       <c r="K200" s="5"/>
@@ -11456,17 +11482,17 @@
       </c>
       <c r="B201" s="4"/>
       <c r="C201" s="8" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="D201" s="9" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="E201" s="4"/>
       <c r="F201" s="5"/>
       <c r="G201" s="5"/>
       <c r="H201" s="4"/>
       <c r="I201" s="6" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="J201" s="5"/>
       <c r="K201" s="5"/>
@@ -11488,21 +11514,21 @@
     </row>
     <row r="202" spans="1:26" ht="13.5" customHeight="1">
       <c r="A202" s="8" t="s">
-        <v>559</v>
-      </c>
-      <c r="B202" s="5"/>
-      <c r="C202" s="6" t="s">
-        <v>560</v>
-      </c>
-      <c r="D202" s="11" t="s">
-        <v>561</v>
-      </c>
-      <c r="E202" s="5"/>
+        <v>549</v>
+      </c>
+      <c r="B202" s="4"/>
+      <c r="C202" s="8" t="s">
+        <v>556</v>
+      </c>
+      <c r="D202" s="9" t="s">
+        <v>557</v>
+      </c>
+      <c r="E202" s="4"/>
       <c r="F202" s="5"/>
       <c r="G202" s="5"/>
-      <c r="H202" s="5"/>
+      <c r="H202" s="4"/>
       <c r="I202" s="6" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="J202" s="5"/>
       <c r="K202" s="5"/>
@@ -11528,17 +11554,17 @@
       </c>
       <c r="B203" s="5"/>
       <c r="C203" s="6" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="D203" s="11" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="E203" s="5"/>
       <c r="F203" s="5"/>
       <c r="G203" s="5"/>
       <c r="H203" s="5"/>
       <c r="I203" s="6" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="J203" s="5"/>
       <c r="K203" s="5"/>
@@ -11559,15 +11585,23 @@
       <c r="Z203" s="3"/>
     </row>
     <row r="204" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A204" s="23"/>
+      <c r="A204" s="8" t="s">
+        <v>559</v>
+      </c>
       <c r="B204" s="5"/>
-      <c r="C204" s="23"/>
-      <c r="D204" s="24"/>
+      <c r="C204" s="6" t="s">
+        <v>563</v>
+      </c>
+      <c r="D204" s="11" t="s">
+        <v>564</v>
+      </c>
       <c r="E204" s="5"/>
       <c r="F204" s="5"/>
       <c r="G204" s="5"/>
       <c r="H204" s="5"/>
-      <c r="I204" s="5"/>
+      <c r="I204" s="6" t="s">
+        <v>565</v>
+      </c>
       <c r="J204" s="5"/>
       <c r="K204" s="5"/>
       <c r="L204" s="5"/>
@@ -11587,10 +11621,10 @@
       <c r="Z204" s="3"/>
     </row>
     <row r="205" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A205" s="5"/>
+      <c r="A205" s="23"/>
       <c r="B205" s="5"/>
-      <c r="C205" s="5"/>
-      <c r="D205" s="5"/>
+      <c r="C205" s="23"/>
+      <c r="D205" s="24"/>
       <c r="E205" s="5"/>
       <c r="F205" s="5"/>
       <c r="G205" s="5"/>
@@ -17158,7 +17192,34 @@
       <c r="Y403" s="3"/>
       <c r="Z403" s="3"/>
     </row>
-    <row r="404" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="404" spans="1:26" ht="13.5" customHeight="1">
+      <c r="A404" s="5"/>
+      <c r="B404" s="5"/>
+      <c r="C404" s="5"/>
+      <c r="D404" s="5"/>
+      <c r="E404" s="5"/>
+      <c r="F404" s="5"/>
+      <c r="G404" s="5"/>
+      <c r="H404" s="5"/>
+      <c r="I404" s="5"/>
+      <c r="J404" s="5"/>
+      <c r="K404" s="5"/>
+      <c r="L404" s="5"/>
+      <c r="M404" s="6"/>
+      <c r="N404" s="3"/>
+      <c r="O404" s="3"/>
+      <c r="P404" s="3"/>
+      <c r="Q404" s="3"/>
+      <c r="R404" s="3"/>
+      <c r="S404" s="3"/>
+      <c r="T404" s="3"/>
+      <c r="U404" s="3"/>
+      <c r="V404" s="3"/>
+      <c r="W404" s="3"/>
+      <c r="X404" s="3"/>
+      <c r="Y404" s="3"/>
+      <c r="Z404" s="3"/>
+    </row>
     <row r="405" spans="1:26" ht="15.75" customHeight="1"/>
     <row r="406" spans="1:26" ht="15.75" customHeight="1"/>
     <row r="407" spans="1:26" ht="15.75" customHeight="1"/>
@@ -17755,6 +17816,7 @@
     <row r="998" ht="15.75" customHeight="1"/>
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="1001" ht="15.75" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="13"/>
   <hyperlinks>
@@ -17915,49 +17977,49 @@
     <hyperlink ref="D161" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
     <hyperlink ref="D162" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
     <hyperlink ref="D163" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
-    <hyperlink ref="D164" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
-    <hyperlink ref="D165" r:id="rId159" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
-    <hyperlink ref="D166" r:id="rId160" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
-    <hyperlink ref="D167" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
-    <hyperlink ref="D168" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
-    <hyperlink ref="D169" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
-    <hyperlink ref="D170" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
-    <hyperlink ref="D171" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
-    <hyperlink ref="D172" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
-    <hyperlink ref="D173" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
-    <hyperlink ref="D174" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
-    <hyperlink ref="D175" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
-    <hyperlink ref="D176" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
-    <hyperlink ref="D177" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
-    <hyperlink ref="D178" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
-    <hyperlink ref="D179" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
-    <hyperlink ref="D180" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
-    <hyperlink ref="D181" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
-    <hyperlink ref="D182" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
-    <hyperlink ref="D183" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
-    <hyperlink ref="D184" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
-    <hyperlink ref="D185" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
-    <hyperlink ref="D186" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
-    <hyperlink ref="D187" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
-    <hyperlink ref="D188" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
-    <hyperlink ref="D189" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
-    <hyperlink ref="D190" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
-    <hyperlink ref="D191" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
-    <hyperlink ref="D192" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
-    <hyperlink ref="D193" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
-    <hyperlink ref="D194" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
-    <hyperlink ref="D195" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
-    <hyperlink ref="D196" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
-    <hyperlink ref="D197" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
-    <hyperlink ref="D198" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
-    <hyperlink ref="D199" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
-    <hyperlink ref="D200" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
-    <hyperlink ref="D201" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
-    <hyperlink ref="D202" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
-    <hyperlink ref="D203" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
+    <hyperlink ref="D166" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
+    <hyperlink ref="D167" r:id="rId159" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
+    <hyperlink ref="D168" r:id="rId160" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
+    <hyperlink ref="D169" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
+    <hyperlink ref="D170" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
+    <hyperlink ref="D171" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
+    <hyperlink ref="D172" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
+    <hyperlink ref="D173" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
+    <hyperlink ref="D174" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
+    <hyperlink ref="D175" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
+    <hyperlink ref="D176" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
+    <hyperlink ref="D177" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
+    <hyperlink ref="D178" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
+    <hyperlink ref="D179" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
+    <hyperlink ref="D180" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
+    <hyperlink ref="D181" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
+    <hyperlink ref="D182" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
+    <hyperlink ref="D183" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
+    <hyperlink ref="D184" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
+    <hyperlink ref="D185" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
+    <hyperlink ref="D186" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
+    <hyperlink ref="D187" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
+    <hyperlink ref="D188" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
+    <hyperlink ref="D189" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
+    <hyperlink ref="D190" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
+    <hyperlink ref="D191" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
+    <hyperlink ref="D192" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
+    <hyperlink ref="D193" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
+    <hyperlink ref="D194" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
+    <hyperlink ref="D195" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
+    <hyperlink ref="D196" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
+    <hyperlink ref="D197" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
+    <hyperlink ref="D198" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
+    <hyperlink ref="D199" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
+    <hyperlink ref="D200" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
+    <hyperlink ref="D201" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
+    <hyperlink ref="D202" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
+    <hyperlink ref="D203" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
+    <hyperlink ref="D204" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
+    <hyperlink ref="D165" r:id="rId197" xr:uid="{1A0C1FCE-3241-4AC7-B899-8231EBE3B6EA}"/>
+    <hyperlink ref="D164" r:id="rId198" xr:uid="{2D43E6E3-1115-4E25-A48D-2EB6067C8E84}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="portrait" r:id="rId198"/>
   <headerFooter>
     <oddFooter>&amp;C000000&amp;P</oddFooter>
   </headerFooter>

--- a/メニュー/メニュー.xlsx
+++ b/メニュー/メニュー.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\webmeeting\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dx-user\Desktop\県ワークショップ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8477AA11-8DA5-410F-AEB9-F90C40D01AF2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2EF1DDF-1A42-44B7-B7FA-BA1B8B6C2CB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5544" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="メニュー構造" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="566">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1060" uniqueCount="582">
   <si>
     <t>大カテゴリー</t>
   </si>
@@ -3295,13 +3296,92 @@
   </si>
   <si>
     <t>wifi-access-point</t>
+  </si>
+  <si>
+    <t>ワークショップ</t>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>brown-marker</t>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>移動</t>
+    <rPh sb="0" eb="2">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>まちのスポット</t>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>歴史・史跡</t>
+    <rPh sb="0" eb="2">
+      <t>レキシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シセキ</t>
+    </rPh>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>安心安全</t>
+    <rPh sb="0" eb="4">
+      <t>アンシンアンゼン</t>
+    </rPh>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>https://yaizu-smartcity.jp/tiles/%E3%83%86%E3%82%B9%E3%83%88%EF%BC%88%E3%81%8A%E5%BA%97%EF%BC%89/tiles.json</t>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>https://yaizu-smartcity.jp/tiles/%E3%83%86%E3%82%B9%E3%83%88%EF%BC%88%E3%81%BE%E3%81%A1%E3%81%AE%E3%82%B9%E3%83%9D%E3%83%83%E3%83%88%EF%BC%89/tiles.json</t>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>https://yaizu-smartcity.jp/tiles/%E3%83%86%E3%82%B9%E3%83%88%EF%BC%88%E5%AE%89%E5%BF%83%E5%AE%89%E5%85%A8%EF%BC%89/tiles.json</t>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>https://yaizu-smartcity.jp/tiles/%E3%83%86%E3%82%B9%E3%83%88%EF%BC%88%E6%AD%B4%E5%8F%B2%EF%BC%89/tiles.json</t>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>https://yaizu-smartcity.jp/tiles/%E3%83%86%E3%82%B9%E3%83%88%EF%BC%88%E7%A7%BB%E5%8B%95%EF%BC%89/tiles.json</t>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>parking</t>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>bunkazai</t>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>evacuation-area</t>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>shopping</t>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>お店１</t>
+    <rPh sb="1" eb="2">
+      <t>ミセ</t>
+    </rPh>
+    <phoneticPr fontId="13"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16">
+  <fonts count="18">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -3398,6 +3478,19 @@
       <name val="ＭＳ ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -3499,7 +3592,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3553,6 +3646,15 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -3777,8 +3879,8 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A185" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A204" sqref="A204:XFD204"/>
+      <pane ySplit="1" topLeftCell="A192" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D204" sqref="D204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -11559,15 +11661,23 @@
       <c r="Z203" s="3"/>
     </row>
     <row r="204" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A204" s="23"/>
+      <c r="A204" s="23" t="s">
+        <v>566</v>
+      </c>
       <c r="B204" s="5"/>
-      <c r="C204" s="23"/>
-      <c r="D204" s="24"/>
+      <c r="C204" s="23" t="s">
+        <v>581</v>
+      </c>
+      <c r="D204" s="24" t="s">
+        <v>572</v>
+      </c>
       <c r="E204" s="5"/>
       <c r="F204" s="5"/>
       <c r="G204" s="5"/>
       <c r="H204" s="5"/>
-      <c r="I204" s="5"/>
+      <c r="I204" s="26" t="s">
+        <v>580</v>
+      </c>
       <c r="J204" s="5"/>
       <c r="K204" s="5"/>
       <c r="L204" s="5"/>
@@ -11587,15 +11697,23 @@
       <c r="Z204" s="3"/>
     </row>
     <row r="205" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A205" s="5"/>
+      <c r="A205" s="23" t="s">
+        <v>566</v>
+      </c>
       <c r="B205" s="5"/>
-      <c r="C205" s="5"/>
-      <c r="D205" s="5"/>
+      <c r="C205" s="25" t="s">
+        <v>569</v>
+      </c>
+      <c r="D205" s="24" t="s">
+        <v>573</v>
+      </c>
       <c r="E205" s="5"/>
       <c r="F205" s="5"/>
       <c r="G205" s="5"/>
       <c r="H205" s="5"/>
-      <c r="I205" s="5"/>
+      <c r="I205" s="26" t="s">
+        <v>567</v>
+      </c>
       <c r="J205" s="5"/>
       <c r="K205" s="5"/>
       <c r="L205" s="5"/>
@@ -11615,15 +11733,23 @@
       <c r="Z205" s="3"/>
     </row>
     <row r="206" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A206" s="5"/>
+      <c r="A206" s="23" t="s">
+        <v>566</v>
+      </c>
       <c r="B206" s="5"/>
-      <c r="C206" s="5"/>
-      <c r="D206" s="5"/>
+      <c r="C206" s="25" t="s">
+        <v>568</v>
+      </c>
+      <c r="D206" s="24" t="s">
+        <v>576</v>
+      </c>
       <c r="E206" s="5"/>
       <c r="F206" s="5"/>
       <c r="G206" s="5"/>
       <c r="H206" s="5"/>
-      <c r="I206" s="5"/>
+      <c r="I206" s="27" t="s">
+        <v>577</v>
+      </c>
       <c r="J206" s="5"/>
       <c r="K206" s="5"/>
       <c r="L206" s="5"/>
@@ -11643,15 +11769,23 @@
       <c r="Z206" s="3"/>
     </row>
     <row r="207" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A207" s="5"/>
+      <c r="A207" s="23" t="s">
+        <v>566</v>
+      </c>
       <c r="B207" s="5"/>
-      <c r="C207" s="5"/>
-      <c r="D207" s="5"/>
+      <c r="C207" s="25" t="s">
+        <v>570</v>
+      </c>
+      <c r="D207" s="24" t="s">
+        <v>575</v>
+      </c>
       <c r="E207" s="5"/>
       <c r="F207" s="5"/>
       <c r="G207" s="5"/>
       <c r="H207" s="5"/>
-      <c r="I207" s="5"/>
+      <c r="I207" s="26" t="s">
+        <v>578</v>
+      </c>
       <c r="J207" s="5"/>
       <c r="K207" s="5"/>
       <c r="L207" s="5"/>
@@ -11671,15 +11805,23 @@
       <c r="Z207" s="3"/>
     </row>
     <row r="208" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A208" s="5"/>
+      <c r="A208" s="23" t="s">
+        <v>566</v>
+      </c>
       <c r="B208" s="5"/>
-      <c r="C208" s="5"/>
-      <c r="D208" s="5"/>
+      <c r="C208" s="25" t="s">
+        <v>571</v>
+      </c>
+      <c r="D208" s="24" t="s">
+        <v>574</v>
+      </c>
       <c r="E208" s="5"/>
       <c r="F208" s="5"/>
       <c r="G208" s="5"/>
       <c r="H208" s="5"/>
-      <c r="I208" s="5"/>
+      <c r="I208" s="26" t="s">
+        <v>579</v>
+      </c>
       <c r="J208" s="5"/>
       <c r="K208" s="5"/>
       <c r="L208" s="5"/>
@@ -17955,9 +18097,14 @@
     <hyperlink ref="D201" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
     <hyperlink ref="D202" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
     <hyperlink ref="D203" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
+    <hyperlink ref="D204" r:id="rId198" xr:uid="{1DDF31CA-4C1A-47AB-B531-B33993A99C83}"/>
+    <hyperlink ref="D205" r:id="rId199" xr:uid="{12E97F43-A944-4A7E-8977-4F3381FB37CE}"/>
+    <hyperlink ref="D208" r:id="rId200" xr:uid="{894BDD69-722F-4F91-8D28-A702EAE443DD}"/>
+    <hyperlink ref="D207" r:id="rId201" xr:uid="{5B9F4B4A-C8FC-4EAC-8B2B-1EE12984095E}"/>
+    <hyperlink ref="D206" r:id="rId202" xr:uid="{075E9294-1171-4E5F-BB24-67022106992B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="portrait" r:id="rId198"/>
+  <pageSetup orientation="portrait" r:id="rId203"/>
   <headerFooter>
     <oddFooter>&amp;C000000&amp;P</oddFooter>
   </headerFooter>

--- a/メニュー/メニュー.xlsx
+++ b/メニュー/メニュー.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dx-user\Desktop\県ワークショップ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dx-user\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2EF1DDF-1A42-44B7-B7FA-BA1B8B6C2CB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8334B1D3-88BE-4DA3-9038-D889259BFF13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,12 +16,11 @@
     <sheet name="メニュー構造" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1060" uniqueCount="582">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1044" uniqueCount="569">
   <si>
     <t>大カテゴリー</t>
   </si>
@@ -3298,82 +3297,48 @@
     <t>wifi-access-point</t>
   </si>
   <si>
-    <t>ワークショップ</t>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
     <t>brown-marker</t>
     <phoneticPr fontId="13"/>
   </si>
   <si>
-    <t>移動</t>
+    <t>災害ごみ受入場所</t>
     <rPh sb="0" eb="2">
-      <t>イドウ</t>
+      <t>サイガイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ウケイレ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>バショ</t>
     </rPh>
     <phoneticPr fontId="13"/>
   </si>
   <si>
-    <t>まちのスポット</t>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
-    <t>歴史・史跡</t>
-    <rPh sb="0" eb="2">
-      <t>レキシ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>シセキ</t>
-    </rPh>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
-    <t>安心安全</t>
-    <rPh sb="0" eb="4">
-      <t>アンシンアンゼン</t>
-    </rPh>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
-    <t>https://yaizu-smartcity.jp/tiles/%E3%83%86%E3%82%B9%E3%83%88%EF%BC%88%E3%81%8A%E5%BA%97%EF%BC%89/tiles.json</t>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
-    <t>https://yaizu-smartcity.jp/tiles/%E3%83%86%E3%82%B9%E3%83%88%EF%BC%88%E3%81%BE%E3%81%A1%E3%81%AE%E3%82%B9%E3%83%9D%E3%83%83%E3%83%88%EF%BC%89/tiles.json</t>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
-    <t>https://yaizu-smartcity.jp/tiles/%E3%83%86%E3%82%B9%E3%83%88%EF%BC%88%E5%AE%89%E5%BF%83%E5%AE%89%E5%85%A8%EF%BC%89/tiles.json</t>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
-    <t>https://yaizu-smartcity.jp/tiles/%E3%83%86%E3%82%B9%E3%83%88%EF%BC%88%E6%AD%B4%E5%8F%B2%EF%BC%89/tiles.json</t>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
-    <t>https://yaizu-smartcity.jp/tiles/%E3%83%86%E3%82%B9%E3%83%88%EF%BC%88%E7%A7%BB%E5%8B%95%EF%BC%89/tiles.json</t>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
-    <t>parking</t>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
-    <t>bunkazai</t>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
-    <t>evacuation-area</t>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
-    <t>shopping</t>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
-    <t>お店１</t>
-    <rPh sb="1" eb="2">
-      <t>ミセ</t>
-    </rPh>
+    <r>
+      <t>yaizu-smartcity.jp/tiles/</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>災害ごみ</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/tiles.json</t>
+    </r>
     <phoneticPr fontId="13"/>
   </si>
 </sst>
@@ -3381,7 +3346,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+  <fonts count="20">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -3492,6 +3457,22 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -3592,7 +3573,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3657,6 +3638,10 @@
     <xf numFmtId="49" fontId="17" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="16" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -3876,11 +3861,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Z1000"/>
+  <dimension ref="A1:Z1001"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A192" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D204" sqref="D204"/>
+      <pane ySplit="1" topLeftCell="A182" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A205" sqref="A205:XFD209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -10150,22 +10135,20 @@
       <c r="A164" s="6" t="s">
         <v>435</v>
       </c>
-      <c r="B164" s="5"/>
-      <c r="C164" s="6" t="s">
-        <v>436</v>
-      </c>
-      <c r="D164" s="11" t="s">
-        <v>437</v>
-      </c>
-      <c r="E164" s="6" t="s">
-        <v>291</v>
-      </c>
+      <c r="B164" s="6"/>
+      <c r="C164" s="28" t="s">
+        <v>567</v>
+      </c>
+      <c r="D164" s="29" t="s">
+        <v>568</v>
+      </c>
+      <c r="E164" s="6"/>
       <c r="F164" s="5"/>
       <c r="G164" s="5"/>
-      <c r="H164" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="I164" s="5"/>
+      <c r="H164" s="6"/>
+      <c r="I164" s="26" t="s">
+        <v>566</v>
+      </c>
       <c r="J164" s="5"/>
       <c r="K164" s="5"/>
       <c r="L164" s="5"/>
@@ -10185,26 +10168,24 @@
       <c r="Z164" s="3"/>
     </row>
     <row r="165" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A165" s="8" t="s">
-        <v>438</v>
-      </c>
-      <c r="B165" s="6" t="s">
-        <v>439</v>
-      </c>
+      <c r="A165" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="B165" s="5"/>
       <c r="C165" s="6" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="D165" s="11" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="E165" s="6" t="s">
-        <v>442</v>
-      </c>
-      <c r="F165" s="6" t="s">
-        <v>294</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="F165" s="5"/>
       <c r="G165" s="5"/>
-      <c r="H165" s="5"/>
+      <c r="H165" s="6" t="s">
+        <v>291</v>
+      </c>
       <c r="I165" s="5"/>
       <c r="J165" s="5"/>
       <c r="K165" s="5"/>
@@ -10232,13 +10213,13 @@
         <v>439</v>
       </c>
       <c r="C166" s="6" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="D166" s="11" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="E166" s="6" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="F166" s="6" t="s">
         <v>294</v>
@@ -10269,22 +10250,22 @@
         <v>438</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="C167" s="6" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="D167" s="11" t="s">
-        <v>447</v>
-      </c>
-      <c r="E167" s="5"/>
+        <v>444</v>
+      </c>
+      <c r="E167" s="6" t="s">
+        <v>445</v>
+      </c>
       <c r="F167" s="6" t="s">
-        <v>448</v>
+        <v>294</v>
       </c>
       <c r="G167" s="5"/>
-      <c r="H167" s="6" t="s">
-        <v>448</v>
-      </c>
+      <c r="H167" s="5"/>
       <c r="I167" s="5"/>
       <c r="J167" s="5"/>
       <c r="K167" s="5"/>
@@ -10309,23 +10290,21 @@
         <v>438</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="C168" s="6" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="D168" s="11" t="s">
-        <v>451</v>
-      </c>
-      <c r="E168" s="6" t="s">
-        <v>452</v>
-      </c>
+        <v>447</v>
+      </c>
+      <c r="E168" s="5"/>
       <c r="F168" s="6" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="G168" s="5"/>
       <c r="H168" s="6" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="I168" s="5"/>
       <c r="J168" s="5"/>
@@ -10354,20 +10333,20 @@
         <v>449</v>
       </c>
       <c r="C169" s="6" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="D169" s="11" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="E169" s="6" t="s">
-        <v>23</v>
+        <v>452</v>
       </c>
       <c r="F169" s="6" t="s">
-        <v>23</v>
+        <v>452</v>
       </c>
       <c r="G169" s="5"/>
       <c r="H169" s="6" t="s">
-        <v>23</v>
+        <v>452</v>
       </c>
       <c r="I169" s="5"/>
       <c r="J169" s="5"/>
@@ -10392,20 +10371,26 @@
       <c r="A170" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="B170" s="5"/>
+      <c r="B170" s="6" t="s">
+        <v>449</v>
+      </c>
       <c r="C170" s="6" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D170" s="11" t="s">
-        <v>456</v>
-      </c>
-      <c r="E170" s="5"/>
-      <c r="F170" s="5"/>
+        <v>454</v>
+      </c>
+      <c r="E170" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F170" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G170" s="5"/>
-      <c r="H170" s="5"/>
-      <c r="I170" s="6" t="s">
-        <v>457</v>
-      </c>
+      <c r="H170" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I170" s="5"/>
       <c r="J170" s="5"/>
       <c r="K170" s="5"/>
       <c r="L170" s="5"/>
@@ -10426,23 +10411,21 @@
     </row>
     <row r="171" spans="1:26" ht="13.5" customHeight="1">
       <c r="A171" s="8" t="s">
-        <v>458</v>
-      </c>
-      <c r="B171" s="8" t="s">
-        <v>459</v>
-      </c>
-      <c r="C171" s="8" t="s">
-        <v>460</v>
+        <v>438</v>
+      </c>
+      <c r="B171" s="5"/>
+      <c r="C171" s="6" t="s">
+        <v>455</v>
       </c>
       <c r="D171" s="11" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="E171" s="5"/>
       <c r="F171" s="5"/>
       <c r="G171" s="5"/>
       <c r="H171" s="5"/>
-      <c r="I171" s="8" t="s">
-        <v>462</v>
+      <c r="I171" s="6" t="s">
+        <v>457</v>
       </c>
       <c r="J171" s="5"/>
       <c r="K171" s="5"/>
@@ -10470,20 +10453,18 @@
         <v>459</v>
       </c>
       <c r="C172" s="8" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="D172" s="11" t="s">
-        <v>464</v>
-      </c>
-      <c r="E172" s="6" t="s">
-        <v>291</v>
-      </c>
+        <v>461</v>
+      </c>
+      <c r="E172" s="5"/>
       <c r="F172" s="5"/>
       <c r="G172" s="5"/>
-      <c r="H172" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="I172" s="5"/>
+      <c r="H172" s="5"/>
+      <c r="I172" s="8" t="s">
+        <v>462</v>
+      </c>
       <c r="J172" s="5"/>
       <c r="K172" s="5"/>
       <c r="L172" s="5"/>
@@ -10507,21 +10488,23 @@
         <v>458</v>
       </c>
       <c r="B173" s="8" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="C173" s="8" t="s">
-        <v>466</v>
-      </c>
-      <c r="D173" s="18" t="s">
-        <v>467</v>
-      </c>
-      <c r="E173" s="19"/>
-      <c r="F173" s="19"/>
-      <c r="G173" s="19"/>
-      <c r="H173" s="20"/>
-      <c r="I173" s="8" t="s">
-        <v>468</v>
-      </c>
+        <v>463</v>
+      </c>
+      <c r="D173" s="11" t="s">
+        <v>464</v>
+      </c>
+      <c r="E173" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="F173" s="5"/>
+      <c r="G173" s="5"/>
+      <c r="H173" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="I173" s="5"/>
       <c r="J173" s="5"/>
       <c r="K173" s="5"/>
       <c r="L173" s="5"/>
@@ -10548,20 +10531,18 @@
         <v>465</v>
       </c>
       <c r="C174" s="8" t="s">
-        <v>469</v>
-      </c>
-      <c r="D174" s="11" t="s">
-        <v>470</v>
-      </c>
-      <c r="E174" s="6" t="s">
-        <v>471</v>
-      </c>
-      <c r="F174" s="5"/>
-      <c r="G174" s="5"/>
-      <c r="H174" s="6" t="s">
-        <v>471</v>
-      </c>
-      <c r="I174" s="5"/>
+        <v>466</v>
+      </c>
+      <c r="D174" s="18" t="s">
+        <v>467</v>
+      </c>
+      <c r="E174" s="19"/>
+      <c r="F174" s="19"/>
+      <c r="G174" s="19"/>
+      <c r="H174" s="20"/>
+      <c r="I174" s="8" t="s">
+        <v>468</v>
+      </c>
       <c r="J174" s="5"/>
       <c r="K174" s="5"/>
       <c r="L174" s="5"/>
@@ -10585,20 +10566,22 @@
         <v>458</v>
       </c>
       <c r="B175" s="8" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="C175" s="8" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="D175" s="11" t="s">
-        <v>474</v>
-      </c>
-      <c r="E175" s="5"/>
-      <c r="F175" s="6" t="s">
-        <v>475</v>
-      </c>
+        <v>470</v>
+      </c>
+      <c r="E175" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="F175" s="5"/>
       <c r="G175" s="5"/>
-      <c r="H175" s="5"/>
+      <c r="H175" s="6" t="s">
+        <v>471</v>
+      </c>
       <c r="I175" s="5"/>
       <c r="J175" s="5"/>
       <c r="K175" s="5"/>
@@ -10626,14 +10609,14 @@
         <v>472</v>
       </c>
       <c r="C176" s="8" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D176" s="11" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="E176" s="5"/>
       <c r="F176" s="6" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="G176" s="5"/>
       <c r="H176" s="5"/>
@@ -10664,14 +10647,14 @@
         <v>472</v>
       </c>
       <c r="C177" s="8" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="D177" s="11" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="E177" s="5"/>
       <c r="F177" s="6" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="G177" s="5"/>
       <c r="H177" s="5"/>
@@ -10702,14 +10685,14 @@
         <v>472</v>
       </c>
       <c r="C178" s="8" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D178" s="11" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="E178" s="5"/>
       <c r="F178" s="6" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="G178" s="5"/>
       <c r="H178" s="5"/>
@@ -10740,14 +10723,14 @@
         <v>472</v>
       </c>
       <c r="C179" s="8" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="D179" s="11" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="E179" s="5"/>
       <c r="F179" s="6" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="G179" s="5"/>
       <c r="H179" s="5"/>
@@ -10778,14 +10761,14 @@
         <v>472</v>
       </c>
       <c r="C180" s="8" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="D180" s="11" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="E180" s="5"/>
       <c r="F180" s="6" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="G180" s="5"/>
       <c r="H180" s="5"/>
@@ -10816,14 +10799,14 @@
         <v>472</v>
       </c>
       <c r="C181" s="8" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D181" s="11" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="E181" s="5"/>
       <c r="F181" s="6" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="G181" s="5"/>
       <c r="H181" s="5"/>
@@ -10854,14 +10837,14 @@
         <v>472</v>
       </c>
       <c r="C182" s="8" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="D182" s="11" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="E182" s="5"/>
       <c r="F182" s="6" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="G182" s="5"/>
       <c r="H182" s="5"/>
@@ -10892,14 +10875,14 @@
         <v>472</v>
       </c>
       <c r="C183" s="8" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="D183" s="11" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="E183" s="5"/>
       <c r="F183" s="6" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="G183" s="5"/>
       <c r="H183" s="5"/>
@@ -10930,14 +10913,14 @@
         <v>472</v>
       </c>
       <c r="C184" s="8" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="D184" s="11" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="E184" s="5"/>
       <c r="F184" s="6" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G184" s="5"/>
       <c r="H184" s="5"/>
@@ -10968,14 +10951,14 @@
         <v>472</v>
       </c>
       <c r="C185" s="8" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="D185" s="11" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="E185" s="5"/>
       <c r="F185" s="6" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="G185" s="5"/>
       <c r="H185" s="5"/>
@@ -11006,14 +10989,14 @@
         <v>472</v>
       </c>
       <c r="C186" s="8" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="D186" s="11" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="E186" s="5"/>
       <c r="F186" s="6" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G186" s="5"/>
       <c r="H186" s="5"/>
@@ -11044,14 +11027,14 @@
         <v>472</v>
       </c>
       <c r="C187" s="8" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="D187" s="11" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="E187" s="5"/>
       <c r="F187" s="6" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="G187" s="5"/>
       <c r="H187" s="5"/>
@@ -11079,20 +11062,20 @@
         <v>458</v>
       </c>
       <c r="B188" s="8" t="s">
-        <v>512</v>
+        <v>472</v>
       </c>
       <c r="C188" s="8" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="D188" s="11" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="E188" s="5"/>
-      <c r="F188" s="5"/>
+      <c r="F188" s="6" t="s">
+        <v>511</v>
+      </c>
       <c r="G188" s="5"/>
-      <c r="H188" s="5" t="s">
-        <v>515</v>
-      </c>
+      <c r="H188" s="5"/>
       <c r="I188" s="5"/>
       <c r="J188" s="5"/>
       <c r="K188" s="5"/>
@@ -11117,19 +11100,19 @@
         <v>458</v>
       </c>
       <c r="B189" s="8" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="C189" s="8" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="D189" s="11" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="E189" s="5"/>
       <c r="F189" s="5"/>
       <c r="G189" s="5"/>
       <c r="H189" s="5" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="I189" s="5"/>
       <c r="J189" s="5"/>
@@ -11158,16 +11141,16 @@
         <v>516</v>
       </c>
       <c r="C190" s="8" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="D190" s="11" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="E190" s="5"/>
       <c r="F190" s="5"/>
       <c r="G190" s="5"/>
       <c r="H190" s="5" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="I190" s="5"/>
       <c r="J190" s="5"/>
@@ -11196,18 +11179,18 @@
         <v>516</v>
       </c>
       <c r="C191" s="8" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="D191" s="11" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="E191" s="5"/>
       <c r="F191" s="5"/>
       <c r="G191" s="5"/>
-      <c r="H191" s="5"/>
-      <c r="I191" s="6" t="s">
-        <v>525</v>
-      </c>
+      <c r="H191" s="5" t="s">
+        <v>522</v>
+      </c>
+      <c r="I191" s="5"/>
       <c r="J191" s="5"/>
       <c r="K191" s="5"/>
       <c r="L191" s="5"/>
@@ -11228,21 +11211,23 @@
     </row>
     <row r="192" spans="1:26" ht="13.5" customHeight="1">
       <c r="A192" s="8" t="s">
-        <v>526</v>
-      </c>
-      <c r="B192" s="5"/>
+        <v>458</v>
+      </c>
+      <c r="B192" s="8" t="s">
+        <v>516</v>
+      </c>
       <c r="C192" s="8" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="D192" s="11" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="E192" s="5"/>
       <c r="F192" s="5"/>
       <c r="G192" s="5"/>
       <c r="H192" s="5"/>
       <c r="I192" s="6" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="J192" s="5"/>
       <c r="K192" s="5"/>
@@ -11268,20 +11253,18 @@
       </c>
       <c r="B193" s="5"/>
       <c r="C193" s="8" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="D193" s="11" t="s">
-        <v>531</v>
-      </c>
-      <c r="E193" s="5" t="s">
-        <v>532</v>
-      </c>
-      <c r="F193" s="5" t="s">
-        <v>532</v>
-      </c>
+        <v>528</v>
+      </c>
+      <c r="E193" s="5"/>
+      <c r="F193" s="5"/>
       <c r="G193" s="5"/>
       <c r="H193" s="5"/>
-      <c r="I193" s="5"/>
+      <c r="I193" s="6" t="s">
+        <v>529</v>
+      </c>
       <c r="J193" s="5"/>
       <c r="K193" s="5"/>
       <c r="L193" s="5"/>
@@ -11301,23 +11284,25 @@
       <c r="Z193" s="3"/>
     </row>
     <row r="194" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A194" s="6" t="s">
-        <v>533</v>
+      <c r="A194" s="8" t="s">
+        <v>526</v>
       </c>
       <c r="B194" s="5"/>
-      <c r="C194" s="6" t="s">
-        <v>534</v>
+      <c r="C194" s="8" t="s">
+        <v>530</v>
       </c>
       <c r="D194" s="11" t="s">
-        <v>535</v>
-      </c>
-      <c r="E194" s="5"/>
-      <c r="F194" s="5"/>
+        <v>531</v>
+      </c>
+      <c r="E194" s="5" t="s">
+        <v>532</v>
+      </c>
+      <c r="F194" s="5" t="s">
+        <v>532</v>
+      </c>
       <c r="G194" s="5"/>
       <c r="H194" s="5"/>
-      <c r="I194" s="6" t="s">
-        <v>536</v>
-      </c>
+      <c r="I194" s="5"/>
       <c r="J194" s="5"/>
       <c r="K194" s="5"/>
       <c r="L194" s="5"/>
@@ -11341,18 +11326,18 @@
         <v>533</v>
       </c>
       <c r="B195" s="5"/>
-      <c r="C195" s="8" t="s">
-        <v>537</v>
+      <c r="C195" s="6" t="s">
+        <v>534</v>
       </c>
       <c r="D195" s="11" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="E195" s="5"/>
       <c r="F195" s="5"/>
       <c r="G195" s="5"/>
       <c r="H195" s="5"/>
-      <c r="I195" s="8" t="s">
-        <v>539</v>
+      <c r="I195" s="6" t="s">
+        <v>536</v>
       </c>
       <c r="J195" s="5"/>
       <c r="K195" s="5"/>
@@ -11378,17 +11363,17 @@
       </c>
       <c r="B196" s="5"/>
       <c r="C196" s="8" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="D196" s="11" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="E196" s="5"/>
       <c r="F196" s="5"/>
       <c r="G196" s="5"/>
       <c r="H196" s="5"/>
-      <c r="I196" s="6" t="s">
-        <v>542</v>
+      <c r="I196" s="8" t="s">
+        <v>539</v>
       </c>
       <c r="J196" s="5"/>
       <c r="K196" s="5"/>
@@ -11413,18 +11398,18 @@
         <v>533</v>
       </c>
       <c r="B197" s="5"/>
-      <c r="C197" s="6" t="s">
-        <v>543</v>
+      <c r="C197" s="8" t="s">
+        <v>540</v>
       </c>
       <c r="D197" s="11" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="E197" s="5"/>
       <c r="F197" s="5"/>
       <c r="G197" s="5"/>
       <c r="H197" s="5"/>
       <c r="I197" s="6" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="J197" s="5"/>
       <c r="K197" s="5"/>
@@ -11450,18 +11435,18 @@
       </c>
       <c r="B198" s="5"/>
       <c r="C198" s="6" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="D198" s="11" t="s">
-        <v>547</v>
-      </c>
-      <c r="E198" s="6" t="s">
-        <v>548</v>
-      </c>
+        <v>544</v>
+      </c>
+      <c r="E198" s="5"/>
       <c r="F198" s="5"/>
       <c r="G198" s="5"/>
       <c r="H198" s="5"/>
-      <c r="I198" s="5"/>
+      <c r="I198" s="6" t="s">
+        <v>545</v>
+      </c>
       <c r="J198" s="5"/>
       <c r="K198" s="5"/>
       <c r="L198" s="5"/>
@@ -11481,23 +11466,23 @@
       <c r="Z198" s="3"/>
     </row>
     <row r="199" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A199" s="8" t="s">
-        <v>549</v>
-      </c>
-      <c r="B199" s="4"/>
-      <c r="C199" s="21" t="s">
-        <v>550</v>
-      </c>
-      <c r="D199" s="22" t="s">
-        <v>551</v>
-      </c>
-      <c r="E199" s="4"/>
+      <c r="A199" s="6" t="s">
+        <v>533</v>
+      </c>
+      <c r="B199" s="5"/>
+      <c r="C199" s="6" t="s">
+        <v>546</v>
+      </c>
+      <c r="D199" s="11" t="s">
+        <v>547</v>
+      </c>
+      <c r="E199" s="6" t="s">
+        <v>548</v>
+      </c>
       <c r="F199" s="5"/>
       <c r="G199" s="5"/>
-      <c r="H199" s="4"/>
-      <c r="I199" s="6" t="s">
-        <v>552</v>
-      </c>
+      <c r="H199" s="5"/>
+      <c r="I199" s="5"/>
       <c r="J199" s="5"/>
       <c r="K199" s="5"/>
       <c r="L199" s="5"/>
@@ -11521,18 +11506,18 @@
         <v>549</v>
       </c>
       <c r="B200" s="4"/>
-      <c r="C200" s="8" t="s">
-        <v>553</v>
-      </c>
-      <c r="D200" s="9" t="s">
-        <v>554</v>
+      <c r="C200" s="21" t="s">
+        <v>550</v>
+      </c>
+      <c r="D200" s="22" t="s">
+        <v>551</v>
       </c>
       <c r="E200" s="4"/>
       <c r="F200" s="5"/>
       <c r="G200" s="5"/>
       <c r="H200" s="4"/>
       <c r="I200" s="6" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="J200" s="5"/>
       <c r="K200" s="5"/>
@@ -11558,17 +11543,17 @@
       </c>
       <c r="B201" s="4"/>
       <c r="C201" s="8" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="D201" s="9" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="E201" s="4"/>
       <c r="F201" s="5"/>
       <c r="G201" s="5"/>
       <c r="H201" s="4"/>
       <c r="I201" s="6" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="J201" s="5"/>
       <c r="K201" s="5"/>
@@ -11590,21 +11575,21 @@
     </row>
     <row r="202" spans="1:26" ht="13.5" customHeight="1">
       <c r="A202" s="8" t="s">
-        <v>559</v>
-      </c>
-      <c r="B202" s="5"/>
-      <c r="C202" s="6" t="s">
-        <v>560</v>
-      </c>
-      <c r="D202" s="11" t="s">
-        <v>561</v>
-      </c>
-      <c r="E202" s="5"/>
+        <v>549</v>
+      </c>
+      <c r="B202" s="4"/>
+      <c r="C202" s="8" t="s">
+        <v>556</v>
+      </c>
+      <c r="D202" s="9" t="s">
+        <v>557</v>
+      </c>
+      <c r="E202" s="4"/>
       <c r="F202" s="5"/>
       <c r="G202" s="5"/>
-      <c r="H202" s="5"/>
+      <c r="H202" s="4"/>
       <c r="I202" s="6" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="J202" s="5"/>
       <c r="K202" s="5"/>
@@ -11630,17 +11615,17 @@
       </c>
       <c r="B203" s="5"/>
       <c r="C203" s="6" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="D203" s="11" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="E203" s="5"/>
       <c r="F203" s="5"/>
       <c r="G203" s="5"/>
       <c r="H203" s="5"/>
       <c r="I203" s="6" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="J203" s="5"/>
       <c r="K203" s="5"/>
@@ -11661,22 +11646,22 @@
       <c r="Z203" s="3"/>
     </row>
     <row r="204" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A204" s="23" t="s">
-        <v>566</v>
+      <c r="A204" s="8" t="s">
+        <v>559</v>
       </c>
       <c r="B204" s="5"/>
-      <c r="C204" s="23" t="s">
-        <v>581</v>
-      </c>
-      <c r="D204" s="24" t="s">
-        <v>572</v>
+      <c r="C204" s="6" t="s">
+        <v>563</v>
+      </c>
+      <c r="D204" s="11" t="s">
+        <v>564</v>
       </c>
       <c r="E204" s="5"/>
       <c r="F204" s="5"/>
       <c r="G204" s="5"/>
       <c r="H204" s="5"/>
-      <c r="I204" s="26" t="s">
-        <v>580</v>
+      <c r="I204" s="6" t="s">
+        <v>565</v>
       </c>
       <c r="J204" s="5"/>
       <c r="K204" s="5"/>
@@ -11697,23 +11682,15 @@
       <c r="Z204" s="3"/>
     </row>
     <row r="205" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A205" s="23" t="s">
-        <v>566</v>
-      </c>
+      <c r="A205" s="23"/>
       <c r="B205" s="5"/>
-      <c r="C205" s="25" t="s">
-        <v>569</v>
-      </c>
-      <c r="D205" s="24" t="s">
-        <v>573</v>
-      </c>
+      <c r="C205" s="23"/>
+      <c r="D205" s="24"/>
       <c r="E205" s="5"/>
       <c r="F205" s="5"/>
       <c r="G205" s="5"/>
       <c r="H205" s="5"/>
-      <c r="I205" s="26" t="s">
-        <v>567</v>
-      </c>
+      <c r="I205" s="26"/>
       <c r="J205" s="5"/>
       <c r="K205" s="5"/>
       <c r="L205" s="5"/>
@@ -11733,23 +11710,15 @@
       <c r="Z205" s="3"/>
     </row>
     <row r="206" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A206" s="23" t="s">
-        <v>566</v>
-      </c>
+      <c r="A206" s="23"/>
       <c r="B206" s="5"/>
-      <c r="C206" s="25" t="s">
-        <v>568</v>
-      </c>
-      <c r="D206" s="24" t="s">
-        <v>576</v>
-      </c>
+      <c r="C206" s="25"/>
+      <c r="D206" s="24"/>
       <c r="E206" s="5"/>
       <c r="F206" s="5"/>
       <c r="G206" s="5"/>
       <c r="H206" s="5"/>
-      <c r="I206" s="27" t="s">
-        <v>577</v>
-      </c>
+      <c r="I206" s="26"/>
       <c r="J206" s="5"/>
       <c r="K206" s="5"/>
       <c r="L206" s="5"/>
@@ -11769,23 +11738,15 @@
       <c r="Z206" s="3"/>
     </row>
     <row r="207" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A207" s="23" t="s">
-        <v>566</v>
-      </c>
+      <c r="A207" s="23"/>
       <c r="B207" s="5"/>
-      <c r="C207" s="25" t="s">
-        <v>570</v>
-      </c>
-      <c r="D207" s="24" t="s">
-        <v>575</v>
-      </c>
+      <c r="C207" s="25"/>
+      <c r="D207" s="24"/>
       <c r="E207" s="5"/>
       <c r="F207" s="5"/>
       <c r="G207" s="5"/>
       <c r="H207" s="5"/>
-      <c r="I207" s="26" t="s">
-        <v>578</v>
-      </c>
+      <c r="I207" s="27"/>
       <c r="J207" s="5"/>
       <c r="K207" s="5"/>
       <c r="L207" s="5"/>
@@ -11805,23 +11766,15 @@
       <c r="Z207" s="3"/>
     </row>
     <row r="208" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A208" s="23" t="s">
-        <v>566</v>
-      </c>
+      <c r="A208" s="23"/>
       <c r="B208" s="5"/>
-      <c r="C208" s="25" t="s">
-        <v>571</v>
-      </c>
-      <c r="D208" s="24" t="s">
-        <v>574</v>
-      </c>
+      <c r="C208" s="25"/>
+      <c r="D208" s="24"/>
       <c r="E208" s="5"/>
       <c r="F208" s="5"/>
       <c r="G208" s="5"/>
       <c r="H208" s="5"/>
-      <c r="I208" s="26" t="s">
-        <v>579</v>
-      </c>
+      <c r="I208" s="26"/>
       <c r="J208" s="5"/>
       <c r="K208" s="5"/>
       <c r="L208" s="5"/>
@@ -11841,15 +11794,15 @@
       <c r="Z208" s="3"/>
     </row>
     <row r="209" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A209" s="5"/>
+      <c r="A209" s="23"/>
       <c r="B209" s="5"/>
-      <c r="C209" s="5"/>
-      <c r="D209" s="5"/>
+      <c r="C209" s="25"/>
+      <c r="D209" s="24"/>
       <c r="E209" s="5"/>
       <c r="F209" s="5"/>
       <c r="G209" s="5"/>
       <c r="H209" s="5"/>
-      <c r="I209" s="5"/>
+      <c r="I209" s="26"/>
       <c r="J209" s="5"/>
       <c r="K209" s="5"/>
       <c r="L209" s="5"/>
@@ -17300,7 +17253,34 @@
       <c r="Y403" s="3"/>
       <c r="Z403" s="3"/>
     </row>
-    <row r="404" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="404" spans="1:26" ht="13.5" customHeight="1">
+      <c r="A404" s="5"/>
+      <c r="B404" s="5"/>
+      <c r="C404" s="5"/>
+      <c r="D404" s="5"/>
+      <c r="E404" s="5"/>
+      <c r="F404" s="5"/>
+      <c r="G404" s="5"/>
+      <c r="H404" s="5"/>
+      <c r="I404" s="5"/>
+      <c r="J404" s="5"/>
+      <c r="K404" s="5"/>
+      <c r="L404" s="5"/>
+      <c r="M404" s="6"/>
+      <c r="N404" s="3"/>
+      <c r="O404" s="3"/>
+      <c r="P404" s="3"/>
+      <c r="Q404" s="3"/>
+      <c r="R404" s="3"/>
+      <c r="S404" s="3"/>
+      <c r="T404" s="3"/>
+      <c r="U404" s="3"/>
+      <c r="V404" s="3"/>
+      <c r="W404" s="3"/>
+      <c r="X404" s="3"/>
+      <c r="Y404" s="3"/>
+      <c r="Z404" s="3"/>
+    </row>
     <row r="405" spans="1:26" ht="15.75" customHeight="1"/>
     <row r="406" spans="1:26" ht="15.75" customHeight="1"/>
     <row r="407" spans="1:26" ht="15.75" customHeight="1"/>
@@ -17897,6 +17877,7 @@
     <row r="998" ht="15.75" customHeight="1"/>
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="1001" ht="15.75" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="13"/>
   <hyperlinks>
@@ -18057,54 +18038,50 @@
     <hyperlink ref="D161" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
     <hyperlink ref="D162" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
     <hyperlink ref="D163" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
-    <hyperlink ref="D164" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
-    <hyperlink ref="D165" r:id="rId159" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
-    <hyperlink ref="D166" r:id="rId160" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
-    <hyperlink ref="D167" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
-    <hyperlink ref="D168" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
-    <hyperlink ref="D169" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
-    <hyperlink ref="D170" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
-    <hyperlink ref="D171" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
-    <hyperlink ref="D172" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
-    <hyperlink ref="D173" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
-    <hyperlink ref="D174" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
-    <hyperlink ref="D175" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
-    <hyperlink ref="D176" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
-    <hyperlink ref="D177" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
-    <hyperlink ref="D178" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
-    <hyperlink ref="D179" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
-    <hyperlink ref="D180" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
-    <hyperlink ref="D181" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
-    <hyperlink ref="D182" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
-    <hyperlink ref="D183" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
-    <hyperlink ref="D184" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
-    <hyperlink ref="D185" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
-    <hyperlink ref="D186" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
-    <hyperlink ref="D187" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
-    <hyperlink ref="D188" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
-    <hyperlink ref="D189" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
-    <hyperlink ref="D190" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
-    <hyperlink ref="D191" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
-    <hyperlink ref="D192" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
-    <hyperlink ref="D193" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
-    <hyperlink ref="D194" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
-    <hyperlink ref="D195" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
-    <hyperlink ref="D196" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
-    <hyperlink ref="D197" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
-    <hyperlink ref="D198" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
-    <hyperlink ref="D199" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
-    <hyperlink ref="D200" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
-    <hyperlink ref="D201" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
-    <hyperlink ref="D202" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
-    <hyperlink ref="D203" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
-    <hyperlink ref="D204" r:id="rId198" xr:uid="{1DDF31CA-4C1A-47AB-B531-B33993A99C83}"/>
-    <hyperlink ref="D205" r:id="rId199" xr:uid="{12E97F43-A944-4A7E-8977-4F3381FB37CE}"/>
-    <hyperlink ref="D208" r:id="rId200" xr:uid="{894BDD69-722F-4F91-8D28-A702EAE443DD}"/>
-    <hyperlink ref="D207" r:id="rId201" xr:uid="{5B9F4B4A-C8FC-4EAC-8B2B-1EE12984095E}"/>
-    <hyperlink ref="D206" r:id="rId202" xr:uid="{075E9294-1171-4E5F-BB24-67022106992B}"/>
+    <hyperlink ref="D165" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
+    <hyperlink ref="D166" r:id="rId159" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
+    <hyperlink ref="D167" r:id="rId160" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
+    <hyperlink ref="D168" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
+    <hyperlink ref="D169" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
+    <hyperlink ref="D170" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
+    <hyperlink ref="D171" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
+    <hyperlink ref="D172" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
+    <hyperlink ref="D173" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
+    <hyperlink ref="D174" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
+    <hyperlink ref="D175" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
+    <hyperlink ref="D176" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
+    <hyperlink ref="D177" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
+    <hyperlink ref="D178" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
+    <hyperlink ref="D179" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
+    <hyperlink ref="D180" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
+    <hyperlink ref="D181" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
+    <hyperlink ref="D182" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
+    <hyperlink ref="D183" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
+    <hyperlink ref="D184" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
+    <hyperlink ref="D185" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
+    <hyperlink ref="D186" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
+    <hyperlink ref="D187" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
+    <hyperlink ref="D188" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
+    <hyperlink ref="D189" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
+    <hyperlink ref="D190" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
+    <hyperlink ref="D191" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
+    <hyperlink ref="D192" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
+    <hyperlink ref="D193" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
+    <hyperlink ref="D194" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
+    <hyperlink ref="D195" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
+    <hyperlink ref="D196" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
+    <hyperlink ref="D197" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
+    <hyperlink ref="D198" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
+    <hyperlink ref="D199" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
+    <hyperlink ref="D200" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
+    <hyperlink ref="D201" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
+    <hyperlink ref="D202" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
+    <hyperlink ref="D203" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
+    <hyperlink ref="D204" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
+    <hyperlink ref="D164" r:id="rId198" display="https://yaizu-smartcity.jp/tiles/%E7%81%BD%E5%AE%B3%E3%81%94%E3%81%BF/tiles.json" xr:uid="{0E1E66AB-E725-4DC2-A9E7-89AB9F93D44F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="portrait" r:id="rId203"/>
+  <pageSetup orientation="portrait" r:id="rId199"/>
   <headerFooter>
     <oddFooter>&amp;C000000&amp;P</oddFooter>
   </headerFooter>

--- a/メニュー/メニュー.xlsx
+++ b/メニュー/メニュー.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dx-user\Desktop\県ワークショップ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dx-user\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2EF1DDF-1A42-44B7-B7FA-BA1B8B6C2CB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1BAE3E9-81EB-4A7A-99F7-0D8291D17F86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,12 +16,11 @@
     <sheet name="メニュー構造" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1060" uniqueCount="582">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1044" uniqueCount="569">
   <si>
     <t>大カテゴリー</t>
   </si>
@@ -3298,82 +3297,24 @@
     <t>wifi-access-point</t>
   </si>
   <si>
-    <t>ワークショップ</t>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
     <t>brown-marker</t>
     <phoneticPr fontId="13"/>
   </si>
   <si>
-    <t>移動</t>
+    <t>災害ごみ受入場所</t>
     <rPh sb="0" eb="2">
-      <t>イドウ</t>
+      <t>サイガイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ウケイレ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>バショ</t>
     </rPh>
     <phoneticPr fontId="13"/>
   </si>
   <si>
-    <t>まちのスポット</t>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
-    <t>歴史・史跡</t>
-    <rPh sb="0" eb="2">
-      <t>レキシ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>シセキ</t>
-    </rPh>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
-    <t>安心安全</t>
-    <rPh sb="0" eb="4">
-      <t>アンシンアンゼン</t>
-    </rPh>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
-    <t>https://yaizu-smartcity.jp/tiles/%E3%83%86%E3%82%B9%E3%83%88%EF%BC%88%E3%81%8A%E5%BA%97%EF%BC%89/tiles.json</t>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
-    <t>https://yaizu-smartcity.jp/tiles/%E3%83%86%E3%82%B9%E3%83%88%EF%BC%88%E3%81%BE%E3%81%A1%E3%81%AE%E3%82%B9%E3%83%9D%E3%83%83%E3%83%88%EF%BC%89/tiles.json</t>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
-    <t>https://yaizu-smartcity.jp/tiles/%E3%83%86%E3%82%B9%E3%83%88%EF%BC%88%E5%AE%89%E5%BF%83%E5%AE%89%E5%85%A8%EF%BC%89/tiles.json</t>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
-    <t>https://yaizu-smartcity.jp/tiles/%E3%83%86%E3%82%B9%E3%83%88%EF%BC%88%E6%AD%B4%E5%8F%B2%EF%BC%89/tiles.json</t>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
-    <t>https://yaizu-smartcity.jp/tiles/%E3%83%86%E3%82%B9%E3%83%88%EF%BC%88%E7%A7%BB%E5%8B%95%EF%BC%89/tiles.json</t>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
-    <t>parking</t>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
-    <t>bunkazai</t>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
-    <t>evacuation-area</t>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
-    <t>shopping</t>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
-    <t>お店１</t>
-    <rPh sb="1" eb="2">
-      <t>ミセ</t>
-    </rPh>
+    <t>https://yaizu-smartcity.jp/tiles/%E7%81%BD%E5%AE%B3%E3%81%94%E3%81%BF/tiles.json</t>
     <phoneticPr fontId="13"/>
   </si>
 </sst>
@@ -3592,7 +3533,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3657,6 +3598,10 @@
     <xf numFmtId="49" fontId="17" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="16" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -3876,11 +3821,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Z1000"/>
+  <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A192" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D204" sqref="D204"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A150" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D164" sqref="D164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -10150,22 +10095,20 @@
       <c r="A164" s="6" t="s">
         <v>435</v>
       </c>
-      <c r="B164" s="5"/>
-      <c r="C164" s="6" t="s">
-        <v>436</v>
-      </c>
-      <c r="D164" s="11" t="s">
-        <v>437</v>
-      </c>
-      <c r="E164" s="6" t="s">
-        <v>291</v>
-      </c>
+      <c r="B164" s="6"/>
+      <c r="C164" s="28" t="s">
+        <v>567</v>
+      </c>
+      <c r="D164" s="29" t="s">
+        <v>568</v>
+      </c>
+      <c r="E164" s="6"/>
       <c r="F164" s="5"/>
       <c r="G164" s="5"/>
-      <c r="H164" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="I164" s="5"/>
+      <c r="H164" s="6"/>
+      <c r="I164" s="26" t="s">
+        <v>566</v>
+      </c>
       <c r="J164" s="5"/>
       <c r="K164" s="5"/>
       <c r="L164" s="5"/>
@@ -10185,26 +10128,24 @@
       <c r="Z164" s="3"/>
     </row>
     <row r="165" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A165" s="8" t="s">
-        <v>438</v>
-      </c>
-      <c r="B165" s="6" t="s">
-        <v>439</v>
-      </c>
+      <c r="A165" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="B165" s="5"/>
       <c r="C165" s="6" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="D165" s="11" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="E165" s="6" t="s">
-        <v>442</v>
-      </c>
-      <c r="F165" s="6" t="s">
-        <v>294</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="F165" s="5"/>
       <c r="G165" s="5"/>
-      <c r="H165" s="5"/>
+      <c r="H165" s="6" t="s">
+        <v>291</v>
+      </c>
       <c r="I165" s="5"/>
       <c r="J165" s="5"/>
       <c r="K165" s="5"/>
@@ -10232,13 +10173,13 @@
         <v>439</v>
       </c>
       <c r="C166" s="6" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="D166" s="11" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="E166" s="6" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="F166" s="6" t="s">
         <v>294</v>
@@ -10269,22 +10210,22 @@
         <v>438</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="C167" s="6" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="D167" s="11" t="s">
-        <v>447</v>
-      </c>
-      <c r="E167" s="5"/>
+        <v>444</v>
+      </c>
+      <c r="E167" s="6" t="s">
+        <v>445</v>
+      </c>
       <c r="F167" s="6" t="s">
-        <v>448</v>
+        <v>294</v>
       </c>
       <c r="G167" s="5"/>
-      <c r="H167" s="6" t="s">
-        <v>448</v>
-      </c>
+      <c r="H167" s="5"/>
       <c r="I167" s="5"/>
       <c r="J167" s="5"/>
       <c r="K167" s="5"/>
@@ -10309,23 +10250,21 @@
         <v>438</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="C168" s="6" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="D168" s="11" t="s">
-        <v>451</v>
-      </c>
-      <c r="E168" s="6" t="s">
-        <v>452</v>
-      </c>
+        <v>447</v>
+      </c>
+      <c r="E168" s="5"/>
       <c r="F168" s="6" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="G168" s="5"/>
       <c r="H168" s="6" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="I168" s="5"/>
       <c r="J168" s="5"/>
@@ -10354,20 +10293,20 @@
         <v>449</v>
       </c>
       <c r="C169" s="6" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="D169" s="11" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="E169" s="6" t="s">
-        <v>23</v>
+        <v>452</v>
       </c>
       <c r="F169" s="6" t="s">
-        <v>23</v>
+        <v>452</v>
       </c>
       <c r="G169" s="5"/>
       <c r="H169" s="6" t="s">
-        <v>23</v>
+        <v>452</v>
       </c>
       <c r="I169" s="5"/>
       <c r="J169" s="5"/>
@@ -10392,20 +10331,26 @@
       <c r="A170" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="B170" s="5"/>
+      <c r="B170" s="6" t="s">
+        <v>449</v>
+      </c>
       <c r="C170" s="6" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D170" s="11" t="s">
-        <v>456</v>
-      </c>
-      <c r="E170" s="5"/>
-      <c r="F170" s="5"/>
+        <v>454</v>
+      </c>
+      <c r="E170" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F170" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G170" s="5"/>
-      <c r="H170" s="5"/>
-      <c r="I170" s="6" t="s">
-        <v>457</v>
-      </c>
+      <c r="H170" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I170" s="5"/>
       <c r="J170" s="5"/>
       <c r="K170" s="5"/>
       <c r="L170" s="5"/>
@@ -10426,23 +10371,21 @@
     </row>
     <row r="171" spans="1:26" ht="13.5" customHeight="1">
       <c r="A171" s="8" t="s">
-        <v>458</v>
-      </c>
-      <c r="B171" s="8" t="s">
-        <v>459</v>
-      </c>
-      <c r="C171" s="8" t="s">
-        <v>460</v>
+        <v>438</v>
+      </c>
+      <c r="B171" s="5"/>
+      <c r="C171" s="6" t="s">
+        <v>455</v>
       </c>
       <c r="D171" s="11" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="E171" s="5"/>
       <c r="F171" s="5"/>
       <c r="G171" s="5"/>
       <c r="H171" s="5"/>
-      <c r="I171" s="8" t="s">
-        <v>462</v>
+      <c r="I171" s="6" t="s">
+        <v>457</v>
       </c>
       <c r="J171" s="5"/>
       <c r="K171" s="5"/>
@@ -10470,20 +10413,18 @@
         <v>459</v>
       </c>
       <c r="C172" s="8" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="D172" s="11" t="s">
-        <v>464</v>
-      </c>
-      <c r="E172" s="6" t="s">
-        <v>291</v>
-      </c>
+        <v>461</v>
+      </c>
+      <c r="E172" s="5"/>
       <c r="F172" s="5"/>
       <c r="G172" s="5"/>
-      <c r="H172" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="I172" s="5"/>
+      <c r="H172" s="5"/>
+      <c r="I172" s="8" t="s">
+        <v>462</v>
+      </c>
       <c r="J172" s="5"/>
       <c r="K172" s="5"/>
       <c r="L172" s="5"/>
@@ -10507,21 +10448,23 @@
         <v>458</v>
       </c>
       <c r="B173" s="8" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="C173" s="8" t="s">
-        <v>466</v>
-      </c>
-      <c r="D173" s="18" t="s">
-        <v>467</v>
-      </c>
-      <c r="E173" s="19"/>
-      <c r="F173" s="19"/>
-      <c r="G173" s="19"/>
-      <c r="H173" s="20"/>
-      <c r="I173" s="8" t="s">
-        <v>468</v>
-      </c>
+        <v>463</v>
+      </c>
+      <c r="D173" s="11" t="s">
+        <v>464</v>
+      </c>
+      <c r="E173" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="F173" s="5"/>
+      <c r="G173" s="5"/>
+      <c r="H173" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="I173" s="5"/>
       <c r="J173" s="5"/>
       <c r="K173" s="5"/>
       <c r="L173" s="5"/>
@@ -10548,20 +10491,18 @@
         <v>465</v>
       </c>
       <c r="C174" s="8" t="s">
-        <v>469</v>
-      </c>
-      <c r="D174" s="11" t="s">
-        <v>470</v>
-      </c>
-      <c r="E174" s="6" t="s">
-        <v>471</v>
-      </c>
-      <c r="F174" s="5"/>
-      <c r="G174" s="5"/>
-      <c r="H174" s="6" t="s">
-        <v>471</v>
-      </c>
-      <c r="I174" s="5"/>
+        <v>466</v>
+      </c>
+      <c r="D174" s="18" t="s">
+        <v>467</v>
+      </c>
+      <c r="E174" s="19"/>
+      <c r="F174" s="19"/>
+      <c r="G174" s="19"/>
+      <c r="H174" s="20"/>
+      <c r="I174" s="8" t="s">
+        <v>468</v>
+      </c>
       <c r="J174" s="5"/>
       <c r="K174" s="5"/>
       <c r="L174" s="5"/>
@@ -10585,20 +10526,22 @@
         <v>458</v>
       </c>
       <c r="B175" s="8" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="C175" s="8" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="D175" s="11" t="s">
-        <v>474</v>
-      </c>
-      <c r="E175" s="5"/>
-      <c r="F175" s="6" t="s">
-        <v>475</v>
-      </c>
+        <v>470</v>
+      </c>
+      <c r="E175" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="F175" s="5"/>
       <c r="G175" s="5"/>
-      <c r="H175" s="5"/>
+      <c r="H175" s="6" t="s">
+        <v>471</v>
+      </c>
       <c r="I175" s="5"/>
       <c r="J175" s="5"/>
       <c r="K175" s="5"/>
@@ -10626,14 +10569,14 @@
         <v>472</v>
       </c>
       <c r="C176" s="8" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D176" s="11" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="E176" s="5"/>
       <c r="F176" s="6" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="G176" s="5"/>
       <c r="H176" s="5"/>
@@ -10664,14 +10607,14 @@
         <v>472</v>
       </c>
       <c r="C177" s="8" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="D177" s="11" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="E177" s="5"/>
       <c r="F177" s="6" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="G177" s="5"/>
       <c r="H177" s="5"/>
@@ -10702,14 +10645,14 @@
         <v>472</v>
       </c>
       <c r="C178" s="8" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D178" s="11" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="E178" s="5"/>
       <c r="F178" s="6" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="G178" s="5"/>
       <c r="H178" s="5"/>
@@ -10740,14 +10683,14 @@
         <v>472</v>
       </c>
       <c r="C179" s="8" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="D179" s="11" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="E179" s="5"/>
       <c r="F179" s="6" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="G179" s="5"/>
       <c r="H179" s="5"/>
@@ -10778,14 +10721,14 @@
         <v>472</v>
       </c>
       <c r="C180" s="8" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="D180" s="11" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="E180" s="5"/>
       <c r="F180" s="6" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="G180" s="5"/>
       <c r="H180" s="5"/>
@@ -10816,14 +10759,14 @@
         <v>472</v>
       </c>
       <c r="C181" s="8" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D181" s="11" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="E181" s="5"/>
       <c r="F181" s="6" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="G181" s="5"/>
       <c r="H181" s="5"/>
@@ -10854,14 +10797,14 @@
         <v>472</v>
       </c>
       <c r="C182" s="8" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="D182" s="11" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="E182" s="5"/>
       <c r="F182" s="6" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="G182" s="5"/>
       <c r="H182" s="5"/>
@@ -10892,14 +10835,14 @@
         <v>472</v>
       </c>
       <c r="C183" s="8" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="D183" s="11" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="E183" s="5"/>
       <c r="F183" s="6" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="G183" s="5"/>
       <c r="H183" s="5"/>
@@ -10930,14 +10873,14 @@
         <v>472</v>
       </c>
       <c r="C184" s="8" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="D184" s="11" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="E184" s="5"/>
       <c r="F184" s="6" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G184" s="5"/>
       <c r="H184" s="5"/>
@@ -10968,14 +10911,14 @@
         <v>472</v>
       </c>
       <c r="C185" s="8" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="D185" s="11" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="E185" s="5"/>
       <c r="F185" s="6" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="G185" s="5"/>
       <c r="H185" s="5"/>
@@ -11006,14 +10949,14 @@
         <v>472</v>
       </c>
       <c r="C186" s="8" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="D186" s="11" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="E186" s="5"/>
       <c r="F186" s="6" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G186" s="5"/>
       <c r="H186" s="5"/>
@@ -11044,14 +10987,14 @@
         <v>472</v>
       </c>
       <c r="C187" s="8" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="D187" s="11" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="E187" s="5"/>
       <c r="F187" s="6" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="G187" s="5"/>
       <c r="H187" s="5"/>
@@ -11079,20 +11022,20 @@
         <v>458</v>
       </c>
       <c r="B188" s="8" t="s">
-        <v>512</v>
+        <v>472</v>
       </c>
       <c r="C188" s="8" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="D188" s="11" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="E188" s="5"/>
-      <c r="F188" s="5"/>
+      <c r="F188" s="6" t="s">
+        <v>511</v>
+      </c>
       <c r="G188" s="5"/>
-      <c r="H188" s="5" t="s">
-        <v>515</v>
-      </c>
+      <c r="H188" s="5"/>
       <c r="I188" s="5"/>
       <c r="J188" s="5"/>
       <c r="K188" s="5"/>
@@ -11117,19 +11060,19 @@
         <v>458</v>
       </c>
       <c r="B189" s="8" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="C189" s="8" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="D189" s="11" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="E189" s="5"/>
       <c r="F189" s="5"/>
       <c r="G189" s="5"/>
       <c r="H189" s="5" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="I189" s="5"/>
       <c r="J189" s="5"/>
@@ -11158,16 +11101,16 @@
         <v>516</v>
       </c>
       <c r="C190" s="8" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="D190" s="11" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="E190" s="5"/>
       <c r="F190" s="5"/>
       <c r="G190" s="5"/>
       <c r="H190" s="5" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="I190" s="5"/>
       <c r="J190" s="5"/>
@@ -11196,18 +11139,18 @@
         <v>516</v>
       </c>
       <c r="C191" s="8" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="D191" s="11" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="E191" s="5"/>
       <c r="F191" s="5"/>
       <c r="G191" s="5"/>
-      <c r="H191" s="5"/>
-      <c r="I191" s="6" t="s">
-        <v>525</v>
-      </c>
+      <c r="H191" s="5" t="s">
+        <v>522</v>
+      </c>
+      <c r="I191" s="5"/>
       <c r="J191" s="5"/>
       <c r="K191" s="5"/>
       <c r="L191" s="5"/>
@@ -11228,21 +11171,23 @@
     </row>
     <row r="192" spans="1:26" ht="13.5" customHeight="1">
       <c r="A192" s="8" t="s">
-        <v>526</v>
-      </c>
-      <c r="B192" s="5"/>
+        <v>458</v>
+      </c>
+      <c r="B192" s="8" t="s">
+        <v>516</v>
+      </c>
       <c r="C192" s="8" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="D192" s="11" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="E192" s="5"/>
       <c r="F192" s="5"/>
       <c r="G192" s="5"/>
       <c r="H192" s="5"/>
       <c r="I192" s="6" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="J192" s="5"/>
       <c r="K192" s="5"/>
@@ -11268,20 +11213,18 @@
       </c>
       <c r="B193" s="5"/>
       <c r="C193" s="8" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="D193" s="11" t="s">
-        <v>531</v>
-      </c>
-      <c r="E193" s="5" t="s">
-        <v>532</v>
-      </c>
-      <c r="F193" s="5" t="s">
-        <v>532</v>
-      </c>
+        <v>528</v>
+      </c>
+      <c r="E193" s="5"/>
+      <c r="F193" s="5"/>
       <c r="G193" s="5"/>
       <c r="H193" s="5"/>
-      <c r="I193" s="5"/>
+      <c r="I193" s="6" t="s">
+        <v>529</v>
+      </c>
       <c r="J193" s="5"/>
       <c r="K193" s="5"/>
       <c r="L193" s="5"/>
@@ -11301,23 +11244,25 @@
       <c r="Z193" s="3"/>
     </row>
     <row r="194" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A194" s="6" t="s">
-        <v>533</v>
+      <c r="A194" s="8" t="s">
+        <v>526</v>
       </c>
       <c r="B194" s="5"/>
-      <c r="C194" s="6" t="s">
-        <v>534</v>
+      <c r="C194" s="8" t="s">
+        <v>530</v>
       </c>
       <c r="D194" s="11" t="s">
-        <v>535</v>
-      </c>
-      <c r="E194" s="5"/>
-      <c r="F194" s="5"/>
+        <v>531</v>
+      </c>
+      <c r="E194" s="5" t="s">
+        <v>532</v>
+      </c>
+      <c r="F194" s="5" t="s">
+        <v>532</v>
+      </c>
       <c r="G194" s="5"/>
       <c r="H194" s="5"/>
-      <c r="I194" s="6" t="s">
-        <v>536</v>
-      </c>
+      <c r="I194" s="5"/>
       <c r="J194" s="5"/>
       <c r="K194" s="5"/>
       <c r="L194" s="5"/>
@@ -11341,18 +11286,18 @@
         <v>533</v>
       </c>
       <c r="B195" s="5"/>
-      <c r="C195" s="8" t="s">
-        <v>537</v>
+      <c r="C195" s="6" t="s">
+        <v>534</v>
       </c>
       <c r="D195" s="11" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="E195" s="5"/>
       <c r="F195" s="5"/>
       <c r="G195" s="5"/>
       <c r="H195" s="5"/>
-      <c r="I195" s="8" t="s">
-        <v>539</v>
+      <c r="I195" s="6" t="s">
+        <v>536</v>
       </c>
       <c r="J195" s="5"/>
       <c r="K195" s="5"/>
@@ -11378,17 +11323,17 @@
       </c>
       <c r="B196" s="5"/>
       <c r="C196" s="8" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="D196" s="11" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="E196" s="5"/>
       <c r="F196" s="5"/>
       <c r="G196" s="5"/>
       <c r="H196" s="5"/>
-      <c r="I196" s="6" t="s">
-        <v>542</v>
+      <c r="I196" s="8" t="s">
+        <v>539</v>
       </c>
       <c r="J196" s="5"/>
       <c r="K196" s="5"/>
@@ -11413,18 +11358,18 @@
         <v>533</v>
       </c>
       <c r="B197" s="5"/>
-      <c r="C197" s="6" t="s">
-        <v>543</v>
+      <c r="C197" s="8" t="s">
+        <v>540</v>
       </c>
       <c r="D197" s="11" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="E197" s="5"/>
       <c r="F197" s="5"/>
       <c r="G197" s="5"/>
       <c r="H197" s="5"/>
       <c r="I197" s="6" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="J197" s="5"/>
       <c r="K197" s="5"/>
@@ -11450,18 +11395,18 @@
       </c>
       <c r="B198" s="5"/>
       <c r="C198" s="6" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="D198" s="11" t="s">
-        <v>547</v>
-      </c>
-      <c r="E198" s="6" t="s">
-        <v>548</v>
-      </c>
+        <v>544</v>
+      </c>
+      <c r="E198" s="5"/>
       <c r="F198" s="5"/>
       <c r="G198" s="5"/>
       <c r="H198" s="5"/>
-      <c r="I198" s="5"/>
+      <c r="I198" s="6" t="s">
+        <v>545</v>
+      </c>
       <c r="J198" s="5"/>
       <c r="K198" s="5"/>
       <c r="L198" s="5"/>
@@ -11481,23 +11426,23 @@
       <c r="Z198" s="3"/>
     </row>
     <row r="199" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A199" s="8" t="s">
-        <v>549</v>
-      </c>
-      <c r="B199" s="4"/>
-      <c r="C199" s="21" t="s">
-        <v>550</v>
-      </c>
-      <c r="D199" s="22" t="s">
-        <v>551</v>
-      </c>
-      <c r="E199" s="4"/>
+      <c r="A199" s="6" t="s">
+        <v>533</v>
+      </c>
+      <c r="B199" s="5"/>
+      <c r="C199" s="6" t="s">
+        <v>546</v>
+      </c>
+      <c r="D199" s="11" t="s">
+        <v>547</v>
+      </c>
+      <c r="E199" s="6" t="s">
+        <v>548</v>
+      </c>
       <c r="F199" s="5"/>
       <c r="G199" s="5"/>
-      <c r="H199" s="4"/>
-      <c r="I199" s="6" t="s">
-        <v>552</v>
-      </c>
+      <c r="H199" s="5"/>
+      <c r="I199" s="5"/>
       <c r="J199" s="5"/>
       <c r="K199" s="5"/>
       <c r="L199" s="5"/>
@@ -11521,18 +11466,18 @@
         <v>549</v>
       </c>
       <c r="B200" s="4"/>
-      <c r="C200" s="8" t="s">
-        <v>553</v>
-      </c>
-      <c r="D200" s="9" t="s">
-        <v>554</v>
+      <c r="C200" s="21" t="s">
+        <v>550</v>
+      </c>
+      <c r="D200" s="22" t="s">
+        <v>551</v>
       </c>
       <c r="E200" s="4"/>
       <c r="F200" s="5"/>
       <c r="G200" s="5"/>
       <c r="H200" s="4"/>
       <c r="I200" s="6" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="J200" s="5"/>
       <c r="K200" s="5"/>
@@ -11558,17 +11503,17 @@
       </c>
       <c r="B201" s="4"/>
       <c r="C201" s="8" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="D201" s="9" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="E201" s="4"/>
       <c r="F201" s="5"/>
       <c r="G201" s="5"/>
       <c r="H201" s="4"/>
       <c r="I201" s="6" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="J201" s="5"/>
       <c r="K201" s="5"/>
@@ -11590,21 +11535,21 @@
     </row>
     <row r="202" spans="1:26" ht="13.5" customHeight="1">
       <c r="A202" s="8" t="s">
-        <v>559</v>
-      </c>
-      <c r="B202" s="5"/>
-      <c r="C202" s="6" t="s">
-        <v>560</v>
-      </c>
-      <c r="D202" s="11" t="s">
-        <v>561</v>
-      </c>
-      <c r="E202" s="5"/>
+        <v>549</v>
+      </c>
+      <c r="B202" s="4"/>
+      <c r="C202" s="8" t="s">
+        <v>556</v>
+      </c>
+      <c r="D202" s="9" t="s">
+        <v>557</v>
+      </c>
+      <c r="E202" s="4"/>
       <c r="F202" s="5"/>
       <c r="G202" s="5"/>
-      <c r="H202" s="5"/>
+      <c r="H202" s="4"/>
       <c r="I202" s="6" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="J202" s="5"/>
       <c r="K202" s="5"/>
@@ -11630,17 +11575,17 @@
       </c>
       <c r="B203" s="5"/>
       <c r="C203" s="6" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="D203" s="11" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="E203" s="5"/>
       <c r="F203" s="5"/>
       <c r="G203" s="5"/>
       <c r="H203" s="5"/>
       <c r="I203" s="6" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="J203" s="5"/>
       <c r="K203" s="5"/>
@@ -11661,22 +11606,22 @@
       <c r="Z203" s="3"/>
     </row>
     <row r="204" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A204" s="23" t="s">
-        <v>566</v>
+      <c r="A204" s="8" t="s">
+        <v>559</v>
       </c>
       <c r="B204" s="5"/>
-      <c r="C204" s="23" t="s">
-        <v>581</v>
-      </c>
-      <c r="D204" s="24" t="s">
-        <v>572</v>
+      <c r="C204" s="6" t="s">
+        <v>563</v>
+      </c>
+      <c r="D204" s="11" t="s">
+        <v>564</v>
       </c>
       <c r="E204" s="5"/>
       <c r="F204" s="5"/>
       <c r="G204" s="5"/>
       <c r="H204" s="5"/>
-      <c r="I204" s="26" t="s">
-        <v>580</v>
+      <c r="I204" s="6" t="s">
+        <v>565</v>
       </c>
       <c r="J204" s="5"/>
       <c r="K204" s="5"/>
@@ -11697,23 +11642,15 @@
       <c r="Z204" s="3"/>
     </row>
     <row r="205" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A205" s="23" t="s">
-        <v>566</v>
-      </c>
+      <c r="A205" s="23"/>
       <c r="B205" s="5"/>
-      <c r="C205" s="25" t="s">
-        <v>569</v>
-      </c>
-      <c r="D205" s="24" t="s">
-        <v>573</v>
-      </c>
+      <c r="C205" s="23"/>
+      <c r="D205" s="24"/>
       <c r="E205" s="5"/>
       <c r="F205" s="5"/>
       <c r="G205" s="5"/>
       <c r="H205" s="5"/>
-      <c r="I205" s="26" t="s">
-        <v>567</v>
-      </c>
+      <c r="I205" s="26"/>
       <c r="J205" s="5"/>
       <c r="K205" s="5"/>
       <c r="L205" s="5"/>
@@ -11733,23 +11670,15 @@
       <c r="Z205" s="3"/>
     </row>
     <row r="206" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A206" s="23" t="s">
-        <v>566</v>
-      </c>
+      <c r="A206" s="23"/>
       <c r="B206" s="5"/>
-      <c r="C206" s="25" t="s">
-        <v>568</v>
-      </c>
-      <c r="D206" s="24" t="s">
-        <v>576</v>
-      </c>
+      <c r="C206" s="25"/>
+      <c r="D206" s="24"/>
       <c r="E206" s="5"/>
       <c r="F206" s="5"/>
       <c r="G206" s="5"/>
       <c r="H206" s="5"/>
-      <c r="I206" s="27" t="s">
-        <v>577</v>
-      </c>
+      <c r="I206" s="26"/>
       <c r="J206" s="5"/>
       <c r="K206" s="5"/>
       <c r="L206" s="5"/>
@@ -11769,23 +11698,15 @@
       <c r="Z206" s="3"/>
     </row>
     <row r="207" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A207" s="23" t="s">
-        <v>566</v>
-      </c>
+      <c r="A207" s="23"/>
       <c r="B207" s="5"/>
-      <c r="C207" s="25" t="s">
-        <v>570</v>
-      </c>
-      <c r="D207" s="24" t="s">
-        <v>575</v>
-      </c>
+      <c r="C207" s="25"/>
+      <c r="D207" s="24"/>
       <c r="E207" s="5"/>
       <c r="F207" s="5"/>
       <c r="G207" s="5"/>
       <c r="H207" s="5"/>
-      <c r="I207" s="26" t="s">
-        <v>578</v>
-      </c>
+      <c r="I207" s="27"/>
       <c r="J207" s="5"/>
       <c r="K207" s="5"/>
       <c r="L207" s="5"/>
@@ -11805,23 +11726,15 @@
       <c r="Z207" s="3"/>
     </row>
     <row r="208" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A208" s="23" t="s">
-        <v>566</v>
-      </c>
+      <c r="A208" s="23"/>
       <c r="B208" s="5"/>
-      <c r="C208" s="25" t="s">
-        <v>571</v>
-      </c>
-      <c r="D208" s="24" t="s">
-        <v>574</v>
-      </c>
+      <c r="C208" s="25"/>
+      <c r="D208" s="24"/>
       <c r="E208" s="5"/>
       <c r="F208" s="5"/>
       <c r="G208" s="5"/>
       <c r="H208" s="5"/>
-      <c r="I208" s="26" t="s">
-        <v>579</v>
-      </c>
+      <c r="I208" s="26"/>
       <c r="J208" s="5"/>
       <c r="K208" s="5"/>
       <c r="L208" s="5"/>
@@ -11841,15 +11754,15 @@
       <c r="Z208" s="3"/>
     </row>
     <row r="209" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A209" s="5"/>
+      <c r="A209" s="23"/>
       <c r="B209" s="5"/>
-      <c r="C209" s="5"/>
-      <c r="D209" s="5"/>
+      <c r="C209" s="25"/>
+      <c r="D209" s="24"/>
       <c r="E209" s="5"/>
       <c r="F209" s="5"/>
       <c r="G209" s="5"/>
       <c r="H209" s="5"/>
-      <c r="I209" s="5"/>
+      <c r="I209" s="26"/>
       <c r="J209" s="5"/>
       <c r="K209" s="5"/>
       <c r="L209" s="5"/>
@@ -17300,7 +17213,34 @@
       <c r="Y403" s="3"/>
       <c r="Z403" s="3"/>
     </row>
-    <row r="404" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="404" spans="1:26" ht="13.5" customHeight="1">
+      <c r="A404" s="5"/>
+      <c r="B404" s="5"/>
+      <c r="C404" s="5"/>
+      <c r="D404" s="5"/>
+      <c r="E404" s="5"/>
+      <c r="F404" s="5"/>
+      <c r="G404" s="5"/>
+      <c r="H404" s="5"/>
+      <c r="I404" s="5"/>
+      <c r="J404" s="5"/>
+      <c r="K404" s="5"/>
+      <c r="L404" s="5"/>
+      <c r="M404" s="6"/>
+      <c r="N404" s="3"/>
+      <c r="O404" s="3"/>
+      <c r="P404" s="3"/>
+      <c r="Q404" s="3"/>
+      <c r="R404" s="3"/>
+      <c r="S404" s="3"/>
+      <c r="T404" s="3"/>
+      <c r="U404" s="3"/>
+      <c r="V404" s="3"/>
+      <c r="W404" s="3"/>
+      <c r="X404" s="3"/>
+      <c r="Y404" s="3"/>
+      <c r="Z404" s="3"/>
+    </row>
     <row r="405" spans="1:26" ht="15.75" customHeight="1"/>
     <row r="406" spans="1:26" ht="15.75" customHeight="1"/>
     <row r="407" spans="1:26" ht="15.75" customHeight="1"/>
@@ -17897,6 +17837,7 @@
     <row r="998" ht="15.75" customHeight="1"/>
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="1001" ht="15.75" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="13"/>
   <hyperlinks>
@@ -18057,54 +17998,50 @@
     <hyperlink ref="D161" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
     <hyperlink ref="D162" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
     <hyperlink ref="D163" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
-    <hyperlink ref="D164" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
-    <hyperlink ref="D165" r:id="rId159" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
-    <hyperlink ref="D166" r:id="rId160" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
-    <hyperlink ref="D167" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
-    <hyperlink ref="D168" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
-    <hyperlink ref="D169" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
-    <hyperlink ref="D170" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
-    <hyperlink ref="D171" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
-    <hyperlink ref="D172" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
-    <hyperlink ref="D173" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
-    <hyperlink ref="D174" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
-    <hyperlink ref="D175" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
-    <hyperlink ref="D176" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
-    <hyperlink ref="D177" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
-    <hyperlink ref="D178" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
-    <hyperlink ref="D179" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
-    <hyperlink ref="D180" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
-    <hyperlink ref="D181" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
-    <hyperlink ref="D182" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
-    <hyperlink ref="D183" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
-    <hyperlink ref="D184" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
-    <hyperlink ref="D185" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
-    <hyperlink ref="D186" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
-    <hyperlink ref="D187" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
-    <hyperlink ref="D188" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
-    <hyperlink ref="D189" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
-    <hyperlink ref="D190" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
-    <hyperlink ref="D191" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
-    <hyperlink ref="D192" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
-    <hyperlink ref="D193" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
-    <hyperlink ref="D194" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
-    <hyperlink ref="D195" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
-    <hyperlink ref="D196" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
-    <hyperlink ref="D197" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
-    <hyperlink ref="D198" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
-    <hyperlink ref="D199" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
-    <hyperlink ref="D200" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
-    <hyperlink ref="D201" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
-    <hyperlink ref="D202" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
-    <hyperlink ref="D203" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
-    <hyperlink ref="D204" r:id="rId198" xr:uid="{1DDF31CA-4C1A-47AB-B531-B33993A99C83}"/>
-    <hyperlink ref="D205" r:id="rId199" xr:uid="{12E97F43-A944-4A7E-8977-4F3381FB37CE}"/>
-    <hyperlink ref="D208" r:id="rId200" xr:uid="{894BDD69-722F-4F91-8D28-A702EAE443DD}"/>
-    <hyperlink ref="D207" r:id="rId201" xr:uid="{5B9F4B4A-C8FC-4EAC-8B2B-1EE12984095E}"/>
-    <hyperlink ref="D206" r:id="rId202" xr:uid="{075E9294-1171-4E5F-BB24-67022106992B}"/>
+    <hyperlink ref="D165" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
+    <hyperlink ref="D166" r:id="rId159" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
+    <hyperlink ref="D167" r:id="rId160" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
+    <hyperlink ref="D168" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
+    <hyperlink ref="D169" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
+    <hyperlink ref="D170" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
+    <hyperlink ref="D171" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
+    <hyperlink ref="D172" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
+    <hyperlink ref="D173" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
+    <hyperlink ref="D174" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
+    <hyperlink ref="D175" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
+    <hyperlink ref="D176" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
+    <hyperlink ref="D177" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
+    <hyperlink ref="D178" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
+    <hyperlink ref="D179" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
+    <hyperlink ref="D180" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
+    <hyperlink ref="D181" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
+    <hyperlink ref="D182" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
+    <hyperlink ref="D183" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
+    <hyperlink ref="D184" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
+    <hyperlink ref="D185" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
+    <hyperlink ref="D186" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
+    <hyperlink ref="D187" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
+    <hyperlink ref="D188" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
+    <hyperlink ref="D189" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
+    <hyperlink ref="D190" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
+    <hyperlink ref="D191" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
+    <hyperlink ref="D192" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
+    <hyperlink ref="D193" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
+    <hyperlink ref="D194" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
+    <hyperlink ref="D195" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
+    <hyperlink ref="D196" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
+    <hyperlink ref="D197" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
+    <hyperlink ref="D198" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
+    <hyperlink ref="D199" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
+    <hyperlink ref="D200" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
+    <hyperlink ref="D201" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
+    <hyperlink ref="D202" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
+    <hyperlink ref="D203" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
+    <hyperlink ref="D204" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
+    <hyperlink ref="D164" r:id="rId198" xr:uid="{0E1E66AB-E725-4DC2-A9E7-89AB9F93D44F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="portrait" r:id="rId203"/>
+  <pageSetup orientation="portrait" r:id="rId199"/>
   <headerFooter>
     <oddFooter>&amp;C000000&amp;P</oddFooter>
   </headerFooter>

--- a/メニュー/メニュー.xlsx
+++ b/メニュー/メニュー.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dx-user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dx-user\Desktop\県ワークショップ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1BAE3E9-81EB-4A7A-99F7-0D8291D17F86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B49575A-2855-418F-97AD-2470DB3FBA8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1044" uniqueCount="569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1068" uniqueCount="586">
   <si>
     <t>大カテゴリー</t>
   </si>
@@ -3297,7 +3297,89 @@
     <t>wifi-access-point</t>
   </si>
   <si>
+    <t>ワークショップ</t>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
     <t>brown-marker</t>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>移動</t>
+    <rPh sb="0" eb="2">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>まちのスポット</t>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>歴史・史跡</t>
+    <rPh sb="0" eb="2">
+      <t>レキシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シセキ</t>
+    </rPh>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>安心安全</t>
+    <rPh sb="0" eb="4">
+      <t>アンシンアンゼン</t>
+    </rPh>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>https://yaizu-smartcity.jp/tiles/%E3%83%86%E3%82%B9%E3%83%88%EF%BC%88%E3%81%8A%E5%BA%97%EF%BC%89/tiles.json</t>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>https://yaizu-smartcity.jp/tiles/%E3%83%86%E3%82%B9%E3%83%88%EF%BC%88%E3%81%BE%E3%81%A1%E3%81%AE%E3%82%B9%E3%83%9D%E3%83%83%E3%83%88%EF%BC%89/tiles.json</t>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>https://yaizu-smartcity.jp/tiles/%E3%83%86%E3%82%B9%E3%83%88%EF%BC%88%E5%AE%89%E5%BF%83%E5%AE%89%E5%85%A8%EF%BC%89/tiles.json</t>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>https://yaizu-smartcity.jp/tiles/%E3%83%86%E3%82%B9%E3%83%88%EF%BC%88%E6%AD%B4%E5%8F%B2%EF%BC%89/tiles.json</t>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>https://yaizu-smartcity.jp/tiles/%E3%83%86%E3%82%B9%E3%83%88%EF%BC%88%E7%A7%BB%E5%8B%95%EF%BC%89/tiles.json</t>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>parking</t>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>bunkazai</t>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>evacuation-area</t>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>shopping</t>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>お店１</t>
+    <rPh sb="1" eb="2">
+      <t>ミセ</t>
+    </rPh>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>お店２</t>
+    <rPh sb="1" eb="2">
+      <t>ミセ</t>
+    </rPh>
     <phoneticPr fontId="13"/>
   </si>
   <si>
@@ -3311,6 +3393,10 @@
     <rPh sb="6" eb="8">
       <t>バショ</t>
     </rPh>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>https://yaizu-smartcity.jp/tiles/%E3%83%86%E3%82%B9%E3%83%88%EF%BC%88%E3%81%8A%E5%BA%97%EF%BC%92%EF%BC%89/tiles.json</t>
     <phoneticPr fontId="13"/>
   </si>
   <si>
@@ -3598,10 +3684,10 @@
     <xf numFmtId="49" fontId="17" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="16" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -3821,11 +3907,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Z1001"/>
+  <dimension ref="A1:Z1002"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A150" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D164" sqref="D164"/>
+      <pane ySplit="1" topLeftCell="A159" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D165" sqref="D165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -10096,18 +10182,18 @@
         <v>435</v>
       </c>
       <c r="B164" s="6"/>
-      <c r="C164" s="28" t="s">
-        <v>567</v>
-      </c>
-      <c r="D164" s="29" t="s">
-        <v>568</v>
+      <c r="C164" s="29" t="s">
+        <v>583</v>
+      </c>
+      <c r="D164" s="28" t="s">
+        <v>585</v>
       </c>
       <c r="E164" s="6"/>
       <c r="F164" s="5"/>
       <c r="G164" s="5"/>
       <c r="H164" s="6"/>
       <c r="I164" s="26" t="s">
-        <v>566</v>
+        <v>268</v>
       </c>
       <c r="J164" s="5"/>
       <c r="K164" s="5"/>
@@ -11642,15 +11728,23 @@
       <c r="Z204" s="3"/>
     </row>
     <row r="205" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A205" s="23"/>
+      <c r="A205" s="23" t="s">
+        <v>566</v>
+      </c>
       <c r="B205" s="5"/>
-      <c r="C205" s="23"/>
-      <c r="D205" s="24"/>
+      <c r="C205" s="23" t="s">
+        <v>581</v>
+      </c>
+      <c r="D205" s="24" t="s">
+        <v>572</v>
+      </c>
       <c r="E205" s="5"/>
       <c r="F205" s="5"/>
       <c r="G205" s="5"/>
       <c r="H205" s="5"/>
-      <c r="I205" s="26"/>
+      <c r="I205" s="26" t="s">
+        <v>580</v>
+      </c>
       <c r="J205" s="5"/>
       <c r="K205" s="5"/>
       <c r="L205" s="5"/>
@@ -11670,15 +11764,23 @@
       <c r="Z205" s="3"/>
     </row>
     <row r="206" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A206" s="23"/>
+      <c r="A206" s="23" t="s">
+        <v>566</v>
+      </c>
       <c r="B206" s="5"/>
-      <c r="C206" s="25"/>
-      <c r="D206" s="24"/>
+      <c r="C206" s="23" t="s">
+        <v>582</v>
+      </c>
+      <c r="D206" s="28" t="s">
+        <v>584</v>
+      </c>
       <c r="E206" s="5"/>
       <c r="F206" s="5"/>
       <c r="G206" s="5"/>
       <c r="H206" s="5"/>
-      <c r="I206" s="26"/>
+      <c r="I206" s="26" t="s">
+        <v>580</v>
+      </c>
       <c r="J206" s="5"/>
       <c r="K206" s="5"/>
       <c r="L206" s="5"/>
@@ -11698,15 +11800,23 @@
       <c r="Z206" s="3"/>
     </row>
     <row r="207" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A207" s="23"/>
+      <c r="A207" s="23" t="s">
+        <v>566</v>
+      </c>
       <c r="B207" s="5"/>
-      <c r="C207" s="25"/>
-      <c r="D207" s="24"/>
+      <c r="C207" s="25" t="s">
+        <v>569</v>
+      </c>
+      <c r="D207" s="24" t="s">
+        <v>573</v>
+      </c>
       <c r="E207" s="5"/>
       <c r="F207" s="5"/>
       <c r="G207" s="5"/>
       <c r="H207" s="5"/>
-      <c r="I207" s="27"/>
+      <c r="I207" s="26" t="s">
+        <v>567</v>
+      </c>
       <c r="J207" s="5"/>
       <c r="K207" s="5"/>
       <c r="L207" s="5"/>
@@ -11726,15 +11836,23 @@
       <c r="Z207" s="3"/>
     </row>
     <row r="208" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A208" s="23"/>
+      <c r="A208" s="23" t="s">
+        <v>566</v>
+      </c>
       <c r="B208" s="5"/>
-      <c r="C208" s="25"/>
-      <c r="D208" s="24"/>
+      <c r="C208" s="25" t="s">
+        <v>568</v>
+      </c>
+      <c r="D208" s="24" t="s">
+        <v>576</v>
+      </c>
       <c r="E208" s="5"/>
       <c r="F208" s="5"/>
       <c r="G208" s="5"/>
       <c r="H208" s="5"/>
-      <c r="I208" s="26"/>
+      <c r="I208" s="27" t="s">
+        <v>577</v>
+      </c>
       <c r="J208" s="5"/>
       <c r="K208" s="5"/>
       <c r="L208" s="5"/>
@@ -11754,15 +11872,23 @@
       <c r="Z208" s="3"/>
     </row>
     <row r="209" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A209" s="23"/>
+      <c r="A209" s="23" t="s">
+        <v>566</v>
+      </c>
       <c r="B209" s="5"/>
-      <c r="C209" s="25"/>
-      <c r="D209" s="24"/>
+      <c r="C209" s="25" t="s">
+        <v>571</v>
+      </c>
+      <c r="D209" s="24" t="s">
+        <v>574</v>
+      </c>
       <c r="E209" s="5"/>
       <c r="F209" s="5"/>
       <c r="G209" s="5"/>
       <c r="H209" s="5"/>
-      <c r="I209" s="26"/>
+      <c r="I209" s="26" t="s">
+        <v>579</v>
+      </c>
       <c r="J209" s="5"/>
       <c r="K209" s="5"/>
       <c r="L209" s="5"/>
@@ -11782,15 +11908,23 @@
       <c r="Z209" s="3"/>
     </row>
     <row r="210" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A210" s="5"/>
+      <c r="A210" s="23" t="s">
+        <v>566</v>
+      </c>
       <c r="B210" s="5"/>
-      <c r="C210" s="5"/>
-      <c r="D210" s="5"/>
+      <c r="C210" s="25" t="s">
+        <v>570</v>
+      </c>
+      <c r="D210" s="24" t="s">
+        <v>575</v>
+      </c>
       <c r="E210" s="5"/>
       <c r="F210" s="5"/>
       <c r="G210" s="5"/>
       <c r="H210" s="5"/>
-      <c r="I210" s="5"/>
+      <c r="I210" s="26" t="s">
+        <v>578</v>
+      </c>
       <c r="J210" s="5"/>
       <c r="K210" s="5"/>
       <c r="L210" s="5"/>
@@ -11810,15 +11944,15 @@
       <c r="Z210" s="3"/>
     </row>
     <row r="211" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A211" s="5"/>
+      <c r="A211" s="23"/>
       <c r="B211" s="5"/>
-      <c r="C211" s="5"/>
-      <c r="D211" s="5"/>
+      <c r="C211" s="25"/>
+      <c r="D211" s="24"/>
       <c r="E211" s="5"/>
       <c r="F211" s="5"/>
       <c r="G211" s="5"/>
       <c r="H211" s="5"/>
-      <c r="I211" s="5"/>
+      <c r="I211" s="26"/>
       <c r="J211" s="5"/>
       <c r="K211" s="5"/>
       <c r="L211" s="5"/>
@@ -17241,7 +17375,34 @@
       <c r="Y404" s="3"/>
       <c r="Z404" s="3"/>
     </row>
-    <row r="405" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="405" spans="1:26" ht="13.5" customHeight="1">
+      <c r="A405" s="5"/>
+      <c r="B405" s="5"/>
+      <c r="C405" s="5"/>
+      <c r="D405" s="5"/>
+      <c r="E405" s="5"/>
+      <c r="F405" s="5"/>
+      <c r="G405" s="5"/>
+      <c r="H405" s="5"/>
+      <c r="I405" s="5"/>
+      <c r="J405" s="5"/>
+      <c r="K405" s="5"/>
+      <c r="L405" s="5"/>
+      <c r="M405" s="6"/>
+      <c r="N405" s="3"/>
+      <c r="O405" s="3"/>
+      <c r="P405" s="3"/>
+      <c r="Q405" s="3"/>
+      <c r="R405" s="3"/>
+      <c r="S405" s="3"/>
+      <c r="T405" s="3"/>
+      <c r="U405" s="3"/>
+      <c r="V405" s="3"/>
+      <c r="W405" s="3"/>
+      <c r="X405" s="3"/>
+      <c r="Y405" s="3"/>
+      <c r="Z405" s="3"/>
+    </row>
     <row r="406" spans="1:26" ht="15.75" customHeight="1"/>
     <row r="407" spans="1:26" ht="15.75" customHeight="1"/>
     <row r="408" spans="1:26" ht="15.75" customHeight="1"/>
@@ -17838,6 +17999,7 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
     <row r="1001" ht="15.75" customHeight="1"/>
+    <row r="1002" ht="15.75" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="13"/>
   <hyperlinks>
@@ -18038,10 +18200,15 @@
     <hyperlink ref="D202" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
     <hyperlink ref="D203" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
     <hyperlink ref="D204" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
-    <hyperlink ref="D164" r:id="rId198" xr:uid="{0E1E66AB-E725-4DC2-A9E7-89AB9F93D44F}"/>
+    <hyperlink ref="D205" r:id="rId198" xr:uid="{1DDF31CA-4C1A-47AB-B531-B33993A99C83}"/>
+    <hyperlink ref="D207" r:id="rId199" xr:uid="{12E97F43-A944-4A7E-8977-4F3381FB37CE}"/>
+    <hyperlink ref="D208" r:id="rId200" xr:uid="{075E9294-1171-4E5F-BB24-67022106992B}"/>
+    <hyperlink ref="D206" r:id="rId201" xr:uid="{4A7F16D9-4431-48D1-BFAA-0CEA5CF29755}"/>
+    <hyperlink ref="D209" r:id="rId202" display="https://yaizu-smartcity.jp/tiles/%E3%83%86%E3%82%B9%E3%83%88%EF%BC%88%E7%A7%BB%E5%8B%95%EF%BC%89/tiles.json" xr:uid="{30E523FF-6A7E-4C3D-8DD0-F65F4A66B339}"/>
+    <hyperlink ref="D164" r:id="rId203" xr:uid="{0E1E66AB-E725-4DC2-A9E7-89AB9F93D44F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="portrait" r:id="rId199"/>
+  <pageSetup orientation="portrait" r:id="rId204"/>
   <headerFooter>
     <oddFooter>&amp;C000000&amp;P</oddFooter>
   </headerFooter>

--- a/メニュー/メニュー.xlsx
+++ b/メニュー/メニュー.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dx-user\Desktop\県ワークショップ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\vm22flo01\DownloadFiles\DX推進課\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B49575A-2855-418F-97AD-2470DB3FBA8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D06D680E-5179-437F-961A-8F1ACD757345}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1836" yWindow="1560" windowWidth="21204" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="メニュー構造" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1068" uniqueCount="586">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1048" uniqueCount="571">
   <si>
     <t>大カテゴリー</t>
   </si>
@@ -70,6 +70,7 @@
         <sz val="10"/>
         <color rgb="FF0000FF"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://yaizu-smartcity.jp/tiles/行政区域界/tiles.json</t>
     </r>
@@ -93,6 +94,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://yaizu-smartcity.jp/tiles/%E9%81%BF%E9%9B%A3%E6%89%80%E4%B8%80%E8%A6%A7/tiles.json</t>
     </r>
@@ -110,6 +112,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://yaizu-smartcity.jp/tiles/%E6%8C%87%E5%AE%9A%E7%B7%8A%E6%80%A5%E9%81%BF%E9%9B%A3%E5%A0%B4%E6%89%80%E4%B8%80%E8%A6%A7/tiles.json</t>
     </r>
@@ -127,6 +130,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://yaizu-smartcity.jp/tiles/%E6%8C%87%E5%AE%9A%E6%B4%A5%E6%B3%A2%E9%81%BF%E9%9B%A3%E3%83%93%E3%83%AB%E4%B8%80%E8%A6%A7/tiles.json</t>
     </r>
@@ -144,6 +148,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://yaizu-smartcity.jp/tiles/%E6%B6%88%E9%98%B2%E6%B0%B4%E5%88%A9%E6%96%BD%E8%A8%AD%E4%B8%80%E8%A6%A7/tiles.json</t>
     </r>
@@ -161,6 +166,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://yaizu-smartcity.jp/tiles/%E9%98%B2%E7%81%BD%E5%80%89%E5%BA%AB%E4%B8%80%E8%A6%A7/tiles.json</t>
     </r>
@@ -178,6 +184,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://yaizu-smartcity.jp/tiles/%E6%B0%B4%E9%98%B2%E5%80%89%E5%BA%AB%E4%B8%80%E8%A6%A7/tiles.json</t>
     </r>
@@ -195,6 +202,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://yaizu-smartcity.jp/tiles/%E6%95%91%E8%AD%B7%E7%97%85%E9%99%A2%E4%B8%80%E8%A6%A7/tiles.json</t>
     </r>
@@ -212,6 +220,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://yaizu-smartcity.jp/tiles/%E6%95%91%E8%AD%B7%E6%89%80%E4%B8%80%E8%A6%A7/tiles.json</t>
     </r>
@@ -229,6 +238,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://yaizu-smartcity.jp/tiles/%E9%98%B2%E7%81%BD%E7%94%A8%E3%83%98%E3%83%AA%E3%83%9D%E3%83%BC%E3%83%88%E4%B8%80%E8%A6%A7/tiles.json</t>
     </r>
@@ -246,6 +256,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://yaizu-smartcity.jp/tiles/%E5%90%8C%E5%A0%B1%E7%84%A1%E7%B7%9A%E5%AD%90%E5%B1%80%E4%B8%80%E8%A6%A7/tiles.json</t>
     </r>
@@ -263,6 +274,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://yaizu-smartcity.jp/tiles/%E9%A3%B2%E6%96%99%E6%B0%B4%E7%94%A8%E8%B2%AF%E6%B0%B4%E6%A7%BD%E4%B8%80%E8%A6%A7/tiles.json</t>
     </r>
@@ -280,6 +292,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://yaizu-smartcity.jp/tiles/%E5%9C%9F%E3%81%AE%E3%81%86%E3%82%B9%E3%83%86%E3%83%BC%E3%82%B7%E3%83%A7%E3%83%B3/tiles.json</t>
     </r>
@@ -300,6 +313,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://yaizu-smartcity.jp/tiles/%E7%B7%8A%E6%80%A5%E8%BC%B8%E9%80%81%E8%B7%AF_%E4%B8%80%E6%AC%A1%E7%B7%8A%E6%80%A5%E8%BC%B8%E9%80%81%E8%B7%AF/tiles.json</t>
     </r>
@@ -317,6 +331,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://yaizu-smartcity.jp/tiles/%E7%B7%8A%E6%80%A5%E8%BC%B8%E9%80%81%E8%B7%AF_%E4%BA%8C%E6%AC%A1%E7%B7%8A%E6%80%A5%E8%BC%B8%E9%80%81%E8%B7%AF/tiles.json</t>
     </r>
@@ -334,6 +349,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://yaizu-smartcity.jp/tiles/%E7%B7%8A%E6%80%A5%E8%BC%B8%E9%80%81%E8%B7%AF_%E4%B8%89%E6%AC%A1%E8%BC%B8%E9%80%81%E8%B7%AF/tiles.json</t>
     </r>
@@ -354,6 +370,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://yaizu-smartcity.jp/tiles/%E9%98%B2%E7%81%BD%E9%96%A2%E9%80%A3%E6%96%BD%E8%A8%AD_%E8%AD%A6%E5%AF%9F%E7%BD%B2_%E4%BA%A4%E7%95%AA/tiles.json</t>
     </r>
@@ -371,6 +388,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://yaizu-smartcity.jp/tiles/%E9%98%B2%E7%81%BD%E9%96%A2%E9%80%A3%E6%96%BD%E8%A8%AD_%E6%B6%88%E9%98%B2%E6%96%BD%E8%A8%AD/tiles.json</t>
     </r>
@@ -388,6 +406,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://yaizu-smartcity.jp/tiles/%E8%87%AA%E4%B8%BB%E9%98%B2%E7%81%BD%E4%BC%9A%E5%A2%83%E7%95%8C/tiles.json</t>
     </r>
@@ -411,6 +430,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://tileserver.geolonia.com/yaizu-smartmap-shindobunpu/tiles/{z}/{x}/{y}.png?v=eWFpenUtc21hcnRtYXAtc2hpbmRvYnVucHV8YWRtaW4tdXBsb2Fkcy95YWl6dS1zbWFydG1hcC1zaGluZG9idW5wdS0wMUpGWTlGRzE1VDdCSlhRUTJQU1k4TlYzTiP8BmltEvFgZ7AbtdKg7djJVPCvEaVsVGPshOWpe6gKgg&amp;key=bb4125ebc1ba442da48d3556f1fe13f5</t>
     </r>
@@ -425,6 +445,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://tileserver.geolonia.com/yaizu-smartmap-ekijyouka/tiles/{z}/{x}/{y}.png?v=eWFpenUtc21hcnRtYXAtZWtpanlvdWthfGFkbWluLXVwbG9hZHMveWFpenUtc21hcnRtYXAtZWtpanlvdWthLTAxSkcwNTZOWFhRQk1UTkpGQUhUOFhNWkVaI3kGu2YpRPXXVDMk0_MykR8ek8rKaS9gxzJwC5M4jj0c&amp;key=bb4125ebc1ba442da48d3556f1fe13f5</t>
     </r>
@@ -442,6 +463,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://tileserver.geolonia.com/yaizu-smartmap-4th-tsunami-shinsui/tiles/{z}/{x}/{y}.png?v=eWFpenUtc21hcnRtYXAtNHRoLXRzdW5hbWktc2hpbnN1aXxhZG1pbi11cGxvYWRzL3lhaXp1LXNtYXJ0bWFwLTR0aC10c3VuYW1pLXNoaW5zdWktMDFKRzFRRjFTQ1hLNUhaRzJZWkRGSk1XM1gjLfrbRh2tvRwxB46BnVq1eJAP4L5jhCAiR9miZwWJ3hk&amp;key=bb4125ebc1ba442da48d3556f1fe13f5</t>
     </r>
@@ -459,6 +481,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://yaizu-smartcity.jp/tiles/土石流_警戒区域/tiles.json</t>
     </r>
@@ -476,6 +499,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://yaizu-smartcity.jp/tiles/土石流_特別警戒区域/tiles.json</t>
     </r>
@@ -493,6 +517,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://yaizu-smartcity.jp/tiles/地すべり_警戒区域/tiles.json</t>
     </r>
@@ -510,6 +535,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://yaizu-smartcity.jp/tiles/がけ崩れ_警戒区域/tiles.json</t>
     </r>
@@ -527,6 +553,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://yaizu-smartcity.jp/tiles/がけ崩れ_特別警戒区域/tiles.json</t>
     </r>
@@ -547,6 +574,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://tileserver.geolonia.com/yaizu-smartmap-all_flood-max-20250122/tiles/{z}/{x}/{y}.png?v=eWFpenUtc21hcnRtYXAtYWxsX2Zsb29kLW1heC0yMDI1MDEyMnxhZG1pbi11cGxvYWRzL3lhaXp1LXNtYXJ0bWFwLWFsbF9mbG9vZC1tYXgtMjAyNTAxMjItMDFKSjVNNDZIR1hZR0swUUpNTjNZUDRLNlkjPCK5r3Br4iBJ6gs43vYJ3CP6pHMrS3prdRz8lVj3KiE&amp;key=bb4125ebc1ba442da48d3556f1fe13f5</t>
     </r>
@@ -561,6 +589,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://tileserver.geolonia.com/yaizu-smartmap-ooigawa_flood-max-20250122/tiles/{z}/{x}/{y}.png?v=eWFpenUtc21hcnRtYXAtb29pZ2F3YV9mbG9vZC1tYXgtMjAyNTAxMjJ8YWRtaW4tdXBsb2Fkcy95YWl6dS1zbWFydG1hcC1vb2lnYXdhX2Zsb29kLW1heC0yMDI1MDEyMi0wMUpKNU05U0dKUVZQNjBTTVE5MzBBNVBTUyN4ZFSCYWcG-VtbFmW8f7esVIHQGyyB-N_-8c-5sjW6lQ&amp;key=bb4125ebc1ba442da48d3556f1fe13f5</t>
     </r>
@@ -575,6 +604,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://tileserver.geolonia.com/yaizu-smartmap-takakusagawa_flood-max-20250122/tiles/{z}/{x}/{y}.png?v=eWFpenUtc21hcnRtYXAtdGFrYWt1c2FnYXdhX2Zsb29kLW1heC0yMDI1MDEyMnxhZG1pbi11cGxvYWRzL3lhaXp1LXNtYXJ0bWFwLXRha2FrdXNhZ2F3YV9mbG9vZC1tYXgtMjAyNTAxMjItMDFKSjVNQUJIQTdUVjRYWEE5QTkzR0FHWkgjimM1TsDVEkqLCSi4wpFK8q5JcfTnTIY6i3i6r57CX0A&amp;key=bb4125ebc1ba442da48d3556f1fe13f5</t>
     </r>
@@ -589,6 +619,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://tileserver.geolonia.com/yaizu-smartmap-ishiwakigawa_flood-max-20250122/tiles/{z}/{x}/{y}.png?v=eWFpenUtc21hcnRtYXAtaXNoaXdha2lnYXdhX2Zsb29kLW1heC0yMDI1MDEyMnxhZG1pbi11cGxvYWRzL3lhaXp1LXNtYXJ0bWFwLWlzaGl3YWtpZ2F3YV9mbG9vZC1tYXgtMjAyNTAxMjItMDFKSjVNOTkyRkZLRFoxV0ZZMDVXOUg1RTUjdD9kb3q6n-edazGHScn5Z_BB2dOtDwwBL0WYUslrNz0&amp;key=bb4125ebc1ba442da48d3556f1fe13f5</t>
     </r>
@@ -603,6 +634,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://tileserver.geolonia.com/yaizu-smartmap-asahinagawa_flood-max-20250122/tiles/{z}/{x}/{y}.png?v=eWFpenUtc21hcnRtYXAtYXNhaGluYWdhd2FfZmxvb2QtbWF4LTIwMjUwMTIyfGFkbWluLXVwbG9hZHMveWFpenUtc21hcnRtYXAtYXNhaGluYWdhd2FfZmxvb2QtbWF4LTIwMjUwMTIyLTAxSko1TTkyN0VEWVA2RzZHWlFENkZHWFdCI5apEATwxiJ5O-u8vrCa_Aq8i588yYu99pyHCD-6cnJD&amp;key=bb4125ebc1ba442da48d3556f1fe13f5</t>
     </r>
@@ -617,6 +649,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://tileserver.geolonia.com/yaizu-smartmap-hanashigawa_flood-max-20250122/tiles/{z}/{x}/{y}.png?v=eWFpenUtc21hcnRtYXAtaGFuYXNoaWdhd2FfZmxvb2QtbWF4LTIwMjUwMTIyfGFkbWluLXVwbG9hZHMveWFpenUtc21hcnRtYXAtaGFuYXNoaWdhd2FfZmxvb2QtbWF4LTIwMjUwMTIyLTAxSko1TTk1UFdES1ZZUUdFNjg1RkRFWDA5IzJO1Gu9VFWg7akAUXsx62QIvoMMD3bV0B99FamjVRWH&amp;key=bb4125ebc1ba442da48d3556f1fe13f5</t>
     </r>
@@ -631,6 +664,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://tileserver.geolonia.com/yaizu-smartmap-umedagawa_flood-max-20250122/tiles/{z}/{x}/{y}.png?v=eWFpenUtc21hcnRtYXAtdW1lZGFnYXdhX2Zsb29kLW1heC0yMDI1MDEyMnxhZG1pbi11cGxvYWRzL3lhaXp1LXNtYXJ0bWFwLXVtZWRhZ2F3YV9mbG9vZC1tYXgtMjAyNTAxMjItMDFKSjVNQU4wNUFFQ0c1Q0dXNFE3VE5GVFkjVEgHYpNTdDz0-WFNj93-ZwFbTyu6Z0d2wk2iM9R5u7Q&amp;key=bb4125ebc1ba442da48d3556f1fe13f5</t>
     </r>
@@ -645,6 +679,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://tileserver.geolonia.com/yaizu-smartmap-setogawa_flood-max-20250122/tiles/{z}/{x}/{y}.png?v=eWFpenUtc21hcnRtYXAtc2V0b2dhd2FfZmxvb2QtbWF4LTIwMjUwMTIyfGFkbWluLXVwbG9hZHMveWFpenUtc21hcnRtYXAtc2V0b2dhd2FfZmxvb2QtbWF4LTIwMjUwMTIyLTAxSko1TUE0RDdKMFZIS0o4Sk1WOTJOTTVBIxuMCm_quVhuckWPNF1obvQO2eCdJtGYUMEVHn3gRKKK&amp;key=bb4125ebc1ba442da48d3556f1fe13f5</t>
     </r>
@@ -659,6 +694,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://tileserver.geolonia.com/yaizu-smartmap-uchisetotanigawa_flood-max-20250122/tiles/{z}/{x}/{y}.png?v=eWFpenUtc21hcnRtYXAtdWNoaXNldG90YW5pZ2F3YV9mbG9vZC1tYXgtMjAyNTAxMjJ8YWRtaW4tdXBsb2Fkcy95YWl6dS1zbWFydG1hcC11Y2hpc2V0b3RhbmlnYXdhX2Zsb29kLW1heC0yMDI1MDEyMi0wMUpKNU1BSjVRSDkwVEg4OUtHV1NDWUQ1WSMydwZLx6k83TZLytgIgc_DPtLeFNHJTqwf9gZAhWFbfA&amp;key=bb4125ebc1ba442da48d3556f1fe13f5</t>
     </r>
@@ -673,6 +709,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://tileserver.geolonia.com/yaizu-smartmap-koishigawa_flood-max-20250122/tiles/{z}/{x}/{y}.png?v=eWFpenUtc21hcnRtYXAta29pc2hpZ2F3YV9mbG9vZC1tYXgtMjAyNTAxMjJ8YWRtaW4tdXBsb2Fkcy95YWl6dS1zbWFydG1hcC1rb2lzaGlnYXdhX2Zsb29kLW1heC0yMDI1MDEyMi0wMUpKNU05RjdYWU1ZNkpQM0dKTjg5NkhXNiNYOsA7y7e0r_Iu0xpEQOEsj_X5p1-ruM4dQIoVYOSRVw&amp;key=bb4125ebc1ba442da48d3556f1fe13f5</t>
     </r>
@@ -687,6 +724,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://tileserver.geolonia.com/yaizu-smartmap-kuroishigawa_flood-max-20250122/tiles/{z}/{x}/{y}.png?v=eWFpenUtc21hcnRtYXAta3Vyb2lzaGlnYXdhX2Zsb29kLW1heC0yMDI1MDEyMnxhZG1pbi11cGxvYWRzL3lhaXp1LXNtYXJ0bWFwLWt1cm9pc2hpZ2F3YV9mbG9vZC1tYXgtMjAyNTAxMjItMDFKSjVNOU5GNjA3OEs0WUFHQkhXNUhQRFYjLsEzoWos3xapWiBFua2VXJUD5vbReBaMpvfpr_TB3Ng&amp;key=bb4125ebc1ba442da48d3556f1fe13f5</t>
     </r>
@@ -701,6 +739,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://tileserver.geolonia.com/yaizu-smartmap-koyagawa_flood-max-20250122/tiles/{z}/{x}/{y}.png?v=eWFpenUtc21hcnRtYXAta295YWdhd2FfZmxvb2QtbWF4LTIwMjUwMTIyfGFkbWluLXVwbG9hZHMveWFpenUtc21hcnRtYXAta295YWdhd2FfZmxvb2QtbWF4LTIwMjUwMTIyLTAxSko1TTlKNTROUjlCUVM4QlBWWVc3SzEwI3r7R2_FhpUp13cFLSg7diJ2jHwWVzgQWzKSk7nqnxoQ&amp;key=bb4125ebc1ba442da48d3556f1fe13f5</t>
     </r>
@@ -715,6 +754,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://tileserver.geolonia.com/yaizu-smartmap-tochiyamagawa_flood-max-20250122/tiles/{z}/{x}/{y}.png?v=eWFpenUtc21hcnRtYXAtdG9jaGl5YW1hZ2F3YV9mbG9vZC1tYXgtMjAyNTAxMjJ8YWRtaW4tdXBsb2Fkcy95YWl6dS1zbWFydG1hcC10b2NoaXlhbWFnYXdhX2Zsb29kLW1heC0yMDI1MDEyMi0wMUpKNU1BRTlCVDNEWFAxQkdCSjBLNlI2UCOyAh242YqHr6vhWYEoYxNDPOkyFsQGJOX99vXLPs9jvQ&amp;key=bb4125ebc1ba442da48d3556f1fe13f5</t>
     </r>
@@ -729,6 +769,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://tileserver.geolonia.com/yaizu-smartmap-seanjigawa_flood-max-20250122/tiles/{z}/{x}/{y}.png?v=eWFpenUtc21hcnRtYXAtc2VhbmppZ2F3YV9mbG9vZC1tYXgtMjAyNTAxMjJ8YWRtaW4tdXBsb2Fkcy95YWl6dS1zbWFydG1hcC1zZWFuamlnYXdhX2Zsb29kLW1heC0yMDI1MDEyMi0wMUpKNU1BMUM5TVJaS0hSVFpTTUJNRU5ITSOLbk41LqC3NJjdsDptQg3a5dUe1-jYrf9Ci_w7me138w&amp;key=bb4125ebc1ba442da48d3556f1fe13f5</t>
     </r>
@@ -743,6 +784,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://tileserver.geolonia.com/yaizu-smartmap-shidatanakagawa_flood-max-20250122/tiles/{z}/{x}/{y}.png?v=eWFpenUtc21hcnRtYXAtc2hpZGF0YW5ha2FnYXdhX2Zsb29kLW1heC0yMDI1MDEyMnxhZG1pbi11cGxvYWRzL3lhaXp1LXNtYXJ0bWFwLXNoaWRhdGFuYWthZ2F3YV9mbG9vZC1tYXgtMjAyNTAxMjItMDFKSjVNQTg5NjExWUs0M0pKWFhKMzNEQ0sjjXDhElx_Bq-DmgbAZv1rkLWFAJz_mYHzTJ1uT5fEXXE&amp;key=bb4125ebc1ba442da48d3556f1fe13f5</t>
     </r>
@@ -757,6 +799,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://tileserver.geolonia.com/yaizu-smartmap-izumigawa_flood-max-20250122/tiles/{z}/{x}/{y}.png?v=eWFpenUtc21hcnRtYXAtaXp1bWlnYXdhX2Zsb29kLW1heC0yMDI1MDEyMnxhZG1pbi11cGxvYWRzL3lhaXp1LXNtYXJ0bWFwLWl6dW1pZ2F3YV9mbG9vZC1tYXgtMjAyNTAxMjItMDFKSjVNOUMyNEM3NDIzWlA4M0U5MTFaOTIjiZDvCV2809c0N38igMrrlYkjUOlioRRIzO2VhSPcBEU&amp;key=bb4125ebc1ba442da48d3556f1fe13f5</t>
     </r>
@@ -771,6 +814,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">https://tileserver.geolonia.com/yaizu-smartmap-otsutanigawa_flood-max-20250122/tiles/{z}/{x}/{y}.png?v=eWFpenUtc21hcnRtYXAtb3RzdXRhbmlnYXdhX2Zsb29kLW1heC0yMDI1MDEyMnxhZG1pbi11cGxvYWRzL3lhaXp1LXNtYXJ0bWFwLW90c3V0YW5pZ2F3YV9mbG9vZC1tYXgtMjAyNTAxMjItMDFKSjVNOVhUMUJDMEU1OVMwRUhRQzRRRU4juXpVh3i0MnT59rsmSRi1Y-5Yv9Q2ka273F77i7qhk6M&amp;key=bb4125ebc1ba442da48d3556f1fe13f5
 </t>
@@ -786,6 +830,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://tileserver.geolonia.com/yaizu-smartmap-all_flood-planned-20250122/tiles/{z}/{x}/{y}.png?v=eWFpenUtc21hcnRtYXAtYWxsX2Zsb29kLXBsYW5uZWQtMjAyNTAxMjJ8YWRtaW4tdXBsb2Fkcy95YWl6dS1zbWFydG1hcC1hbGxfZmxvb2QtcGxhbm5lZC0yMDI1MDEyMi0wMUpKNVRETjFRNVk2S1E3WTYwV0JSWkVXRiMvFbymz4lH_fdrJRy-jvgwTVw2D13DlzjxNICrb7qY1A&amp;key=bb4125ebc1ba442da48d3556f1fe13f5</t>
     </r>
@@ -797,6 +842,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://tileserver.geolonia.com/yaizu-smartmap-ooigawa_flood-planned-20250122/tiles/{z}/{x}/{y}.png?v=eWFpenUtc21hcnRtYXAtb29pZ2F3YV9mbG9vZC1wbGFubmVkLTIwMjUwMTIyfGFkbWluLXVwbG9hZHMveWFpenUtc21hcnRtYXAtb29pZ2F3YV9mbG9vZC1wbGFubmVkLTIwMjUwMTIyLTAxSko1VERWUkdYNjBLNlFBQTFLM1I5UU5SI3K6_rl11h-EuwrNQ4AE7yQiOLb8PCKqFDOJ4FDRsG-g&amp;key=bb4125ebc1ba442da48d3556f1fe13f5</t>
     </r>
@@ -808,6 +854,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://tileserver.geolonia.com/yaizu-smartmap-setogawa_flood-planned-20250122/tiles/{z}/{x}/{y}.png?v=eWFpenUtc21hcnRtYXAtc2V0b2dhd2FfZmxvb2QtcGxhbm5lZC0yMDI1MDEyMnxhZG1pbi11cGxvYWRzL3lhaXp1LXNtYXJ0bWFwLXNldG9nYXdhX2Zsb29kLXBsYW5uZWQtMjAyNTAxMjItMDFKSjVURTFZNVRWRTBIVzFWOUFLMzBLRFcji6G-BXNCHGZShICjglWb3w_mWK_NKrvuXH_tI_9nlgQ&amp;key=bb4125ebc1ba442da48d3556f1fe13f5</t>
     </r>
@@ -819,6 +866,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://tileserver.geolonia.com/yaizu-smartmap-koyagawa_flood-planned-20250122/tiles/{z}/{x}/{y}.png?v=eWFpenUtc21hcnRtYXAta295YWdhd2FfZmxvb2QtcGxhbm5lZC0yMDI1MDEyMnxhZG1pbi11cGxvYWRzL3lhaXp1LXNtYXJ0bWFwLWtveWFnYXdhX2Zsb29kLXBsYW5uZWQtMjAyNTAxMjItMDFKSjVURFJXSldXSkVXUFdESEMzV0sxNTgjf-2T3_0XdWSFLtX6dSNEbLxxCj2IDXBYnWuWoALGMxI&amp;key=bb4125ebc1ba442da48d3556f1fe13f5</t>
     </r>
@@ -830,6 +878,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://tileserver.geolonia.com/yaizu-smartmap-tochiyamagawa_flood-planned-20250122/tiles/{z}/{x}/{y}.png?v=eWFpenUtc21hcnRtYXAtdG9jaGl5YW1hZ2F3YV9mbG9vZC1wbGFubmVkLTIwMjUwMTIyfGFkbWluLXVwbG9hZHMveWFpenUtc21hcnRtYXAtdG9jaGl5YW1hZ2F3YV9mbG9vZC1wbGFubmVkLTIwMjUwMTIyLTAxSko1VEU4NktENUZWU1RGVjE4RDNRVFBUI0UGkE67qVTbtRvaLl2OvOsiZu9Hnd-9AT1ia-ckrXPG&amp;key=bb4125ebc1ba442da48d3556f1fe13f5</t>
     </r>
@@ -841,6 +890,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://tileserver.geolonia.com/yaizu-smartmap-shidatanakagawa_flood-planned-20250122/tiles/{z}/{x}/{y}.png?v=eWFpenUtc21hcnRtYXAtc2hpZGF0YW5ha2FnYXdhX2Zsb29kLXBsYW5uZWQtMjAyNTAxMjJ8YWRtaW4tdXBsb2Fkcy95YWl6dS1zbWFydG1hcC1zaGlkYXRhbmFrYWdhd2FfZmxvb2QtcGxhbm5lZC0yMDI1MDEyMi0wMUpKNVRFNTUyV0dRWUVTWVdWVkFHNURDUiM6XrMaFpsN_nu69zOxecuTueNyhch7DBXrxCJmaCBV8w&amp;key=bb4125ebc1ba442da48d3556f1fe13f5</t>
     </r>
@@ -852,6 +902,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://tileserver.geolonia.com/yaizu-smartmap-otsutanigawa_flood-planned-20250122/tiles/{z}/{x}/{y}.png?v=eWFpenUtc21hcnRtYXAtb3RzdXRhbmlnYXdhX2Zsb29kLXBsYW5uZWQtMjAyNTAxMjJ8YWRtaW4tdXBsb2Fkcy95YWl6dS1zbWFydG1hcC1vdHN1dGFuaWdhd2FfZmxvb2QtcGxhbm5lZC0yMDI1MDEyMi0wMUpKNVREWkFYQVcyMktRNEdWVkhOTTQ4USPJeHao4Q6wyWn0IEPkPECr5W-lDwzRh1n7dcRP_rd19Q&amp;key=bb4125ebc1ba442da48d3556f1fe13f5</t>
     </r>
@@ -866,6 +917,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://tileserver.geolonia.com/yaizu-smartmap-all_flood-duration/tiles/{z}/{x}/{y}.png?v=eWFpenUtc21hcnRtYXAtYWxsX2Zsb29kLWR1cmF0aW9ufGFkbWluLXVwbG9hZHMveWFpenUtc21hcnRtYXAtYWxsX2Zsb29kLWR1cmF0aW9uLTAxSkZDMjM2TkNFOEE4WlY1RlpXUTFUNjdQI72n4lnDlqr_qS3dvbGif0AlepOAnvK3E1Vx_MjVLXsc&amp;key=bb4125ebc1ba442da48d3556f1fe13f5</t>
     </r>
@@ -877,6 +929,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://tileserver.geolonia.com/yaizu-smartmap-ooigawa_flood-duration_modified/tiles/{z}/{x}/{y}.png?v=eWFpenUtc21hcnRtYXAtb29pZ2F3YV9mbG9vZC1kdXJhdGlvbl9tb2RpZmllZHxhZG1pbi11cGxvYWRzL3lhaXp1LXNtYXJ0bWFwLW9vaWdhd2FfZmxvb2QtZHVyYXRpb25fbW9kaWZpZWQtMDFKRkMyM0tRRTBOOE02RlJaWlBYWTdNVEsjb6TUQ42ra-hBJK2eSP06FX90ArT2yTi5_X9jzEWntEw&amp;key=bb4125ebc1ba442da48d3556f1fe13f5</t>
     </r>
@@ -888,6 +941,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://tileserver.geolonia.com/yaizu-smartmap-asahinagawa_flood-duration_modified/tiles/{z}/{x}/{y}.png?v=eWFpenUtc21hcnRtYXAtYXNhaGluYWdhd2FfZmxvb2QtZHVyYXRpb25fbW9kaWZpZWR8YWRtaW4tdXBsb2Fkcy95YWl6dS1zbWFydG1hcC1hc2FoaW5hZ2F3YV9mbG9vZC1kdXJhdGlvbl9tb2RpZmllZC0wMUpGQzIzQUtEQkFQUkpXMkNKSE45Q0pWNCOv1qiFcrLRZll0zMjGPpeTcM-NM60iPJiH7OxfIPrruw&amp;key=bb4125ebc1ba442da48d3556f1fe13f5</t>
     </r>
@@ -899,6 +953,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://tileserver.geolonia.com/yaizu-smartmap-hanashigawa_flood-duration_modified/tiles/{z}/{x}/{y}.png?v=eWFpenUtc21hcnRtYXAtaGFuYXNoaWdhd2FfZmxvb2QtZHVyYXRpb25fbW9kaWZpZWR8YWRtaW4tdXBsb2Fkcy95YWl6dS1zbWFydG1hcC1oYW5hc2hpZ2F3YV9mbG9vZC1kdXJhdGlvbl9tb2RpZmllZC0wMUpGQzIzRFJBTVYzWFRDUlY0WVJCUUVIUyOyqbE2vnFeS_9BZw94HXS20jBUsE7o_rmOXEyGSp0CYA&amp;key=bb4125ebc1ba442da48d3556f1fe13f5</t>
     </r>
@@ -910,6 +965,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://tileserver.geolonia.com/yaizu-smartmap-setogawa_flood-duration_modified/tiles/{z}/{x}/{y}.png?v=eWFpenUtc21hcnRtYXAtc2V0b2dhd2FfZmxvb2QtZHVyYXRpb25fbW9kaWZpZWR8YWRtaW4tdXBsb2Fkcy95YWl6dS1zbWFydG1hcC1zZXRvZ2F3YV9mbG9vZC1kdXJhdGlvbl9tb2RpZmllZC0wMUpGQzIzVDFETjRKNDZSSENUNkc3VlBGMSM4etkawiLQc6u4jK6mqi1X2xklmi7fEC1D6aIWymyDbA&amp;key=bb4125ebc1ba442da48d3556f1fe13f5</t>
     </r>
@@ -921,6 +977,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://tileserver.geolonia.com/yaizu-smartmap-koyagawa_flood-duration_modified/tiles/{z}/{x}/{y}.png?v=eWFpenUtc21hcnRtYXAta295YWdhd2FfZmxvb2QtZHVyYXRpb25fbW9kaWZpZWR8YWRtaW4tdXBsb2Fkcy95YWl6dS1zbWFydG1hcC1rb3lhZ2F3YV9mbG9vZC1kdXJhdGlvbl9tb2RpZmllZC0wMUpGQzIzR1ZZWEFDQzg4MUg3QjlLV1lFOCOfdwjLULNhmI_ow4g0dWNl2dx8qQUUG8aFUeQo_0hXDQ&amp;key=bb4125ebc1ba442da48d3556f1fe13f5</t>
     </r>
@@ -932,6 +989,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://tileserver.geolonia.com/yaizu-smartmap-tochiyamagawa_flood-duration_modified/tiles/{z}/{x}/{y}.png?v=eWFpenUtc21hcnRtYXAtdG9jaGl5YW1hZ2F3YV9mbG9vZC1kdXJhdGlvbl9tb2RpZmllZHxhZG1pbi11cGxvYWRzL3lhaXp1LXNtYXJ0bWFwLXRvY2hpeWFtYWdhd2FfZmxvb2QtZHVyYXRpb25fbW9kaWZpZWQtMDFKRkMyM1pWWVE3MEowUzdaNTZHWkNKRFojC5eX3JK7qasK2odfocPvh5KVdzgW8GfTWFIWWxO0-OY&amp;key=bb4125ebc1ba442da48d3556f1fe13f5</t>
     </r>
@@ -943,6 +1001,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://tileserver.geolonia.com/yaizu-smartmap-shidatanakagawa_flood-duration_modified/tiles/{z}/{x}/{y}.png?v=eWFpenUtc21hcnRtYXAtc2hpZGF0YW5ha2FnYXdhX2Zsb29kLWR1cmF0aW9uX21vZGlmaWVkfGFkbWluLXVwbG9hZHMveWFpenUtc21hcnRtYXAtc2hpZGF0YW5ha2FnYXdhX2Zsb29kLWR1cmF0aW9uX21vZGlmaWVkLTAxSkZDMjNYNFlBNDZLMlQxTVdGMVFWODJaI8I_8TmmNT2ZBas2uO_iuv708Hw-rSmd9df6Iy_TRMzO&amp;key=bb4125ebc1ba442da48d3556f1fe13f5</t>
     </r>
@@ -954,6 +1013,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://tileserver.geolonia.com/yaizu-smartmap-otsutanigawa_flood-duration_modified/tiles/{z}/{x}/{y}.png?v=eWFpenUtc21hcnRtYXAtb3RzdXRhbmlnYXdhX2Zsb29kLWR1cmF0aW9uX21vZGlmaWVkfGFkbWluLXVwbG9hZHMveWFpenUtc21hcnRtYXAtb3RzdXRhbmlnYXdhX2Zsb29kLWR1cmF0aW9uX21vZGlmaWVkLTAxSkZDMjNRNENHRURIR1FLNEtGU1lLMzZBI7KZF6uvKMllQBtCXF86Bop_8GzzniSe6NN1Rp0RaowV&amp;key=bb4125ebc1ba442da48d3556f1fe13f5</t>
     </r>
@@ -968,6 +1028,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://yaizu-smartcity.jp/tiles/%E5%A4%A7%E4%BA%95%E5%B7%9D_%E5%AE%B6%E5%B1%8B%E5%80%92%E5%A3%8A%E7%AD%89%E6%B0%BE%E6%BF%AB%E6%83%B3%E5%AE%9A%EF%BC%88%E6%B0%BE%E6%BF%AB%E6%B5%81%EF%BC%89/tiles.json</t>
     </r>
@@ -985,6 +1046,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://yaizu-smartcity.jp/tiles/%E5%A4%A7%E4%BA%95%E5%B7%9D_%E5%AE%B6%E5%B1%8B%E5%80%92%E5%A3%8A%E7%AD%89%E6%B0%BE%E6%BF%AB%E6%83%B3%E5%AE%9A%EF%BC%88%E6%B2%B3%E5%B2%B8%E4%BE%B5%E9%A3%9F%EF%BC%89/tiles.json</t>
     </r>
@@ -1002,6 +1064,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://yaizu-smartcity.jp/tiles/%E6%9C%9D%E6%AF%94%E5%A5%88%E5%B7%9D_%E5%AE%B6%E5%B1%8B%E5%80%92%E5%A3%8A%E7%AD%89%E6%B0%BE%E6%BF%AB%E6%83%B3%E5%AE%9A%EF%BC%88%E6%B2%B3%E5%B2%B8%E4%BE%B5%E9%A3%9F%EF%BC%89/tiles.json</t>
     </r>
@@ -1013,6 +1076,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://yaizu-smartcity.jp/tiles/%E8%91%89%E6%A2%A8%E5%B7%9D_%E5%AE%B6%E5%B1%8B%E5%80%92%E5%A3%8A%E7%AD%89%E6%B0%BE%E6%BF%AB%E6%83%B3%E5%AE%9A%EF%BC%88%E6%B2%B3%E5%B2%B8%E4%BE%B5%E9%A3%9F%EF%BC%89/tiles.json</t>
     </r>
@@ -1024,6 +1088,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://yaizu-smartcity.jp/tiles/%E7%80%AC%E6%88%B8%E5%B7%9D_%E5%AE%B6%E5%B1%8B%E5%80%92%E5%A3%8A%E7%AD%89%E6%B0%BE%E6%BF%AB%E6%83%B3%E5%AE%9A%EF%BC%88%E6%B2%B3%E5%B2%B8%E4%BE%B5%E9%A3%9F%EF%BC%89/tiles.json</t>
     </r>
@@ -1035,6 +1100,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://yaizu-smartcity.jp/tiles/%E6%9C%A8%E5%B1%8B%E5%B7%9D_%E5%AE%B6%E5%B1%8B%E5%80%92%E5%A3%8A%E7%AD%89%E6%B0%BE%E6%BF%AB%E6%83%B3%E5%AE%9A%EF%BC%88%E6%B2%B3%E5%B2%B8%E4%BE%B5%E9%A3%9F%EF%BC%89/tiles.json</t>
     </r>
@@ -1046,6 +1112,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://yaizu-smartcity.jp/tiles/%E6%A0%83%E5%B1%B1%E5%B7%9D_%E5%AE%B6%E5%B1%8B%E5%80%92%E5%A3%8A%E7%AD%89%E6%B0%BE%E6%BF%AB%E6%83%B3%E5%AE%9A%EF%BC%88%E6%B2%B3%E5%B2%B8%E4%BE%B5%E9%A3%9F%EF%BC%89/tiles.json</t>
     </r>
@@ -1057,6 +1124,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://yaizu-smartcity.jp/tiles/%E5%BF%97%E5%A4%AA%E7%94%B0%E4%B8%AD%E5%B7%9D_%E5%AE%B6%E5%B1%8B%E5%80%92%E5%A3%8A%E7%AD%89%E6%B0%BE%E6%BF%AB%E6%83%B3%E5%AE%9A%EF%BC%88%E6%B2%B3%E5%B2%B8%E4%BE%B5%E9%A3%9F%EF%BC%89/tiles.json</t>
     </r>
@@ -1068,6 +1136,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://yaizu-smartcity.jp/tiles/%E5%A4%A7%E6%B4%A5%E8%B0%B7%E5%B7%9D_%E5%AE%B6%E5%B1%8B%E5%80%92%E5%A3%8A%E7%AD%89%E6%B0%BE%E6%BF%AB%E6%83%B3%E5%AE%9A%EF%BC%88%E6%B2%B3%E5%B2%B8%E4%BE%B5%E9%A3%9F%EF%BC%89/tiles.json</t>
     </r>
@@ -1082,6 +1151,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://yaizu-smartcity.jp/tiles/%E5%86%85%E6%B0%B4%E6%B5%B8%E6%B0%B4%E6%83%B3%E5%AE%9A%E5%8C%BA%E5%9F%9F(%E5%85%AC%E5%85%B1%E4%B8%8B%E6%B0%B4%E9%81%93%E5%8C%BA%E5%9F%9F%E5%86%85)/tiles.json</t>
     </r>
@@ -1099,6 +1169,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://yaizu-smartcity.jp/tiles/%E6%B5%B8%E6%B0%B4%E5%B1%A5%E6%AD%B4_%E7%B5%B1%E5%90%88/tiles.json</t>
     </r>
@@ -1113,6 +1184,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://yaizu-smartcity.jp/tiles/%E6%B5%B8%E6%B0%B4%E5%B1%A5%E6%AD%B4_%E4%BB%A4%E5%92%8C4%E5%B9%B4/tiles.json</t>
     </r>
@@ -1127,6 +1199,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://yaizu-smartcity.jp/tiles/%E6%B5%B8%E6%B0%B4%E5%B1%A5%E6%AD%B4_%E4%BB%A4%E5%92%8C%E5%85%83%E5%B9%B4/tiles.json</t>
     </r>
@@ -1141,6 +1214,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://yaizu-smartcity.jp/tiles/%E6%B5%B8%E6%B0%B4%E5%B1%A5%E6%AD%B4_%E5%B9%B3%E6%88%9029%E5%B9%B4/tiles.json</t>
     </r>
@@ -1155,6 +1229,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://yaizu-smartcity.jp/tiles/%E6%B5%B8%E6%B0%B4%E5%B1%A5%E6%AD%B4_%E5%B9%B3%E6%88%9026%E5%B9%B4/tiles.json</t>
     </r>
@@ -1169,6 +1244,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://yaizu-smartcity.jp/tiles/%E6%B5%B8%E6%B0%B4%E5%B1%A5%E6%AD%B4_%E5%B9%B3%E6%88%9025%E5%B9%B4/tiles.json</t>
     </r>
@@ -1183,6 +1259,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://yaizu-smartcity.jp/tiles/%E6%B5%B8%E6%B0%B4%E5%B1%A5%E6%AD%B4_%E5%B9%B3%E6%88%9024%E5%B9%B4/tiles.json</t>
     </r>
@@ -1197,6 +1274,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://yaizu-smartcity.jp/tiles/%E6%B5%B8%E6%B0%B4%E5%B1%A5%E6%AD%B4_%E5%B9%B3%E6%88%9023%E5%B9%B4/tiles.json</t>
     </r>
@@ -1211,6 +1289,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://yaizu-smartcity.jp/tiles/%E6%B5%B8%E6%B0%B4%E5%B1%A5%E6%AD%B4_%E5%B9%B3%E6%88%9022%E5%B9%B4/tiles.json</t>
     </r>
@@ -1225,6 +1304,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://yaizu-smartcity.jp/tiles/%E6%B5%B8%E6%B0%B4%E5%B1%A5%E6%AD%B4_%E5%B9%B3%E6%88%9020%E5%B9%B4/tiles.json</t>
     </r>
@@ -1239,6 +1319,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://yaizu-smartcity.jp/tiles/%E6%B5%B8%E6%B0%B4%E5%B1%A5%E6%AD%B4_%E5%B9%B3%E6%88%9019%E5%B9%B4/tiles.json</t>
     </r>
@@ -1253,6 +1334,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://yaizu-smartcity.jp/tiles/%E6%B5%B8%E6%B0%B4%E5%B1%A5%E6%AD%B4_%E5%B9%B3%E6%88%9018%E5%B9%B4/tiles.json</t>
     </r>
@@ -1267,6 +1349,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://yaizu-smartcity.jp/tiles/%E6%B5%B8%E6%B0%B4%E5%B1%A5%E6%AD%B4_%E5%B9%B3%E6%88%9017%E5%B9%B4/tiles.json</t>
     </r>
@@ -1281,6 +1364,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://yaizu-smartcity.jp/tiles/%E6%B5%B8%E6%B0%B4%E5%B1%A5%E6%AD%B4_%E5%B9%B3%E6%88%9016%E5%B9%B4/tiles.json</t>
     </r>
@@ -1295,6 +1379,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://yaizu-smartcity.jp/tiles/%E6%B5%B8%E6%B0%B4%E5%B1%A5%E6%AD%B4_%E5%B9%B3%E6%88%9015%E5%B9%B4/tiles.json</t>
     </r>
@@ -1309,6 +1394,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://yaizu-smartcity.jp/tiles/%E6%B5%B8%E6%B0%B4%E5%B1%A5%E6%AD%B4_%E5%B9%B3%E6%88%9014%E5%B9%B4/tiles.json</t>
     </r>
@@ -1323,6 +1409,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://yaizu-smartcity.jp/tiles/%E6%B5%B8%E6%B0%B4%E5%B1%A5%E6%AD%B4_%E5%B9%B3%E6%88%9013%E5%B9%B4/tiles.json</t>
     </r>
@@ -1337,6 +1424,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://yaizu-smartcity.jp/tiles/%E6%B5%B8%E6%B0%B4%E5%B1%A5%E6%AD%B4_%E5%B9%B3%E6%88%9012%E5%B9%B4/tiles.json</t>
     </r>
@@ -1351,6 +1439,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://yaizu-smartcity.jp/tiles/%E6%B5%B8%E6%B0%B4%E5%B1%A5%E6%AD%B4_%E5%B9%B3%E6%88%9011%E5%B9%B4/tiles.json</t>
     </r>
@@ -1365,6 +1454,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://yaizu-smartcity.jp/tiles/%E6%B5%B8%E6%B0%B4%E5%B1%A5%E6%AD%B4_%E5%B9%B3%E6%88%9010%E5%B9%B4/tiles.json</t>
     </r>
@@ -1379,6 +1469,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://yaizu-smartcity.jp/tiles/%E6%B5%B8%E6%B0%B4%E5%B1%A5%E6%AD%B4_%E5%B9%B3%E6%88%909%E5%B9%B4/tiles.json</t>
     </r>
@@ -1396,6 +1487,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://yaizu-smartcity.jp/tiles/%E3%81%8A%E9%A3%9F%E4%BA%8B/tiles.json</t>
     </r>
@@ -1416,6 +1508,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://yaizu-smartcity.jp/tiles/%E3%82%B7%E3%83%A7%E3%83%83%E3%83%97/tiles.json</t>
     </r>
@@ -1433,6 +1526,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://yaizu-smartcity.jp/tiles/%E5%B7%A5%E5%A0%B4%E4%BD%B5%E8%A8%AD%E7%9B%B4%E5%A3%B2%E6%89%80%E4%B8%80%E8%A6%A7/tiles.json</t>
     </r>
@@ -1450,6 +1544,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://yaizu-smartcity.jp/tiles/%E4%BD%93%E9%A8%93%E3%83%BB%E8%A6%8B%E3%81%A9%E3%81%93%E3%82%8D/tiles.json</t>
     </r>
@@ -1467,6 +1562,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://yaizu-smartcity.jp/tiles/%E6%97%A5%E5%B8%B0%E3%82%8A%E6%B8%A9%E6%B3%89%E3%83%BB%E8%B6%B3%E6%B9%AF/tiles.json</t>
     </r>
@@ -1484,6 +1580,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://yaizu-smartcity.jp/tiles/%E5%AE%BF%E6%B3%8A/tiles.json</t>
     </r>
@@ -1504,6 +1601,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://yaizu-smartcity.jp/tiles/%E3%83%AC%E3%83%B3%E3%82%BF%E3%82%AB%E3%83%BC/tiles.json</t>
     </r>
@@ -1521,6 +1619,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://yaizu-smartcity.jp/tiles/%E3%81%9D%E3%81%AE%E4%BB%96/tiles.json</t>
     </r>
@@ -1538,6 +1637,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://yaizu-smartcity.jp/tiles/%E5%B8%82%E5%96%B6%E9%A7%90%E8%BB%8A%E5%A0%B4%E3%83%BB%E9%A7%90%E8%BC%AA%E5%A0%B4/tiles.json</t>
     </r>
@@ -1555,6 +1655,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://yaizu-smartcity.jp/tiles/%E7%84%BC%E6%B4%A5%E8%A6%B3%E5%85%89%E3%83%9E%E3%83%83%E3%83%97/tiles.json</t>
     </r>
@@ -1575,6 +1676,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://yaizu-smartcity.jp/tiles/%E3%83%8F%E3%82%A4%E3%82%AD%E3%83%B3%E3%82%B0%E3%82%B3%E3%83%BC%E3%82%B9_1-1%E8%8A%B1%E6%B2%A2%E3%81%AE%E9%87%8C_%E9%9E%8D%E6%8E%9B%E5%B3%A0_%E9%AB%98%E8%8D%89%E5%B1%B1_%E7%9F%B3%E8%84%87%E3%82%B3%E3%83%BC%E3%82%B9/tiles.json</t>
     </r>
@@ -1592,6 +1694,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://yaizu-smartcity.jp/tiles/%E3%83%8F%E3%82%A4%E3%82%AD%E3%83%B3%E3%82%B0%E3%82%B3%E3%83%BC%E3%82%B9_1-2%E5%9D%82%E6%9C%AC_%E9%AB%98%E8%8D%89%E5%B1%B1%E3%82%B3%E3%83%BC%E3%82%B9/tiles.json</t>
     </r>
@@ -1609,6 +1712,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://yaizu-smartcity.jp/tiles/%E3%83%8F%E3%82%A4%E3%82%AD%E3%83%B3%E3%82%B0%E3%82%B3%E3%83%BC%E3%82%B9_1-3%E7%84%BC%E6%B4%A5%E5%B8%82_%E9%96%A2%E6%96%B9_%E9%AB%98%E8%8D%89%E5%B1%B1%E3%82%B3%E3%83%BC%E3%82%B9/tiles.json</t>
     </r>
@@ -1626,6 +1730,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://yaizu-smartcity.jp/tiles/%E3%83%8F%E3%82%A4%E3%82%AD%E3%83%B3%E3%82%B0%E3%82%B3%E3%83%BC%E3%82%B9_1-4%E8%97%A4%E6%9E%9D%E5%B8%82_%E4%B8%89%E8%BC%AA_%E9%AB%98%E8%8D%89%E5%B1%B1%E3%82%B3%E3%83%BC%E3%82%B9/tiles.json</t>
     </r>
@@ -1643,6 +1748,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://yaizu-smartcity.jp/tiles/%E3%83%8F%E3%82%A4%E3%82%AD%E3%83%B3%E3%82%B0%E3%82%B3%E3%83%BC%E3%82%B9_2%E7%84%BC%E6%B4%A5%E5%B8%82_%E8%8A%B1%E6%B2%A2%E3%81%AE%E9%87%8C_%E6%BA%80%E8%A6%B3%E5%B3%B0%E3%82%B3%E3%83%BC%E3%82%B9/tiles.json</t>
     </r>
@@ -1660,6 +1766,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://yaizu-smartcity.jp/tiles/%E3%83%8F%E3%82%A4%E3%82%AD%E3%83%B3%E3%82%B0%E3%82%B3%E3%83%BC%E3%82%B9_3-1%E5%85%A5%E5%8F%A3_%E8%8A%B1%E6%B2%A2%E5%B1%B1_%E6%97%A5%E6%9C%AC%E5%9D%82%E5%B3%A0_%E8%8A%B1%E6%B2%A2%E3%81%AE%E9%87%8C%E3%82%B3%E3%83%BC%E3%82%B9/tiles.json</t>
     </r>
@@ -1677,6 +1784,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://yaizu-smartcity.jp/tiles/%E3%83%8F%E3%82%A4%E3%82%AD%E3%83%B3%E3%82%B0%E3%82%B3%E3%83%BC%E3%82%B9_3-2%E9%9D%99%E5%B2%A1%E5%B8%82_%E5%B0%8F%E5%9D%82_%E6%97%A5%E6%9C%AC%E5%9D%82%E5%B3%A0_%E8%8A%B1%E6%B2%A2%E5%B1%B1_%E7%9F%B3%E9%83%A8%E3%82%B3%E3%83%BC%E3%82%B9/tiles.json</t>
     </r>
@@ -1694,6 +1802,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://yaizu-smartcity.jp/tiles/%E3%83%8F%E3%82%A4%E3%82%AD%E3%83%B3%E3%82%B0%E3%82%B3%E3%83%BC%E3%82%B9_%E5%9C%B0%E7%82%B9/tiles.json</t>
     </r>
@@ -1711,6 +1820,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://yaizu-smartcity.jp/tiles/%E3%83%8F%E3%82%A4%E3%82%AD%E3%83%B3%E3%82%B0%E3%82%B3%E3%83%BC%E3%82%B9_%E5%9C%B0%E7%82%B9_%E3%83%88%E3%82%A4%E3%83%AC/tiles.json</t>
     </r>
@@ -1728,6 +1838,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://yaizu-smartcity.jp/tiles/%E3%83%8F%E3%82%A4%E3%82%AD%E3%83%B3%E3%82%B0%E3%82%B3%E3%83%BC%E3%82%B9_%E5%9C%B0%E7%82%B9_%E9%A7%90%E8%BB%8A%E5%A0%B4/tiles.json</t>
     </r>
@@ -1751,6 +1862,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://tileserver.geolonia.com/yaizu-smartmap-airplane-photo-20250107/tiles/{z}/{x}/{y}.png?v=eWFpenUtc21hcnRtYXAtYWlycGxhbmUtcGhvdG8tMjAyNTAxMDd8YWRtaW4tdXBsb2Fkcy95YWl6dS1zbWFydG1hcC1haXJwbGFuZS1waG90by0yMDI1MDEwNy0wMUpHWjZYNFREVkRGWENaUTZLMFI0OTI3SCNrke6hy68odQSAeYKKqMfyyh60LcOUvZIyg0WHjX-LWA&amp;key=bb4125ebc1ba442da48d3556f1fe13f5</t>
     </r>
@@ -1768,6 +1880,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://yaizu-smartcity.jp/tiles/市街化区域界_市街化調整区域界/tiles.json</t>
     </r>
@@ -1785,6 +1898,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://yaizu-smartcity.jp/tiles/高度利用地区/tiles.json</t>
     </r>
@@ -1802,6 +1916,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://yaizu-smartcity.jp/tiles/準防火地域/tiles.json</t>
     </r>
@@ -1819,6 +1934,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://yaizu-smartcity.jp/tiles/都市計画道路/tiles.json</t>
     </r>
@@ -1836,6 +1952,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://yaizu-smartcity.jp/tiles/駐車場/tiles.json</t>
     </r>
@@ -1853,6 +1970,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://yaizu-smartcity.jp/tiles/公園_緑地/tiles.json</t>
     </r>
@@ -1870,6 +1988,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://yaizu-smartcity.jp/tiles/%E3%81%94%E3%81%BF%E7%84%BC%E5%8D%B4%E5%A0%B4/tiles.json</t>
     </r>
@@ -1887,6 +2006,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://yaizu-smartcity.jp/tiles/し尿処理場/tiles.json</t>
     </r>
@@ -1904,6 +2024,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://yaizu-smartcity.jp/tiles/地区計画区域/tiles.json</t>
     </r>
@@ -1921,6 +2042,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://yaizu-smartcity.jp/tiles/土地区画整理事業区域/tiles.json</t>
     </r>
@@ -1935,6 +2057,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://yaizu-smartcity.jp/tiles/住まいるシティ拠点エリア_都市機能誘導区域/tiles.json</t>
     </r>
@@ -1952,6 +2075,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://yaizu-smartcity.jp/tiles/住まいるエリア_居住誘導区域/tiles.json</t>
     </r>
@@ -1969,6 +2093,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://yaizu-smartcity.jp/tiles/%E9%83%BD%E5%B8%82%E8%A8%88%E7%94%BB%E5%9B%B3_%E7%AC%AC%E4%B8%80%E7%A8%AE%E4%BD%8E%E5%B1%A4%E4%BD%8F%E5%B1%85%E5%B0%82%E7%94%A8%E5%9C%B0%E5%9F%9F/tiles.json</t>
     </r>
@@ -1989,6 +2114,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://yaizu-smartcity.jp/tiles/%E9%83%BD%E5%B8%82%E8%A8%88%E7%94%BB%E5%9B%B3_%E7%AC%AC%E4%B8%80%E7%A8%AE%E4%B8%AD%E9%AB%98%E5%B1%A4%E4%BD%8F%E5%B1%85%E5%B0%82%E7%94%A8%E5%9C%B0%E5%9F%9F/tiles.json</t>
     </r>
@@ -2006,6 +2132,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://yaizu-smartcity.jp/tiles/%E9%83%BD%E5%B8%82%E8%A8%88%E7%94%BB%E5%9B%B3_%E7%AC%AC%E4%BA%8C%E7%A8%AE%E4%B8%AD%E9%AB%98%E5%B1%A4%E4%BD%8F%E5%B1%85%E5%B0%82%E7%94%A8%E5%9C%B0%E5%9F%9F/tiles.json</t>
     </r>
@@ -2023,6 +2150,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://yaizu-smartcity.jp/tiles/%E9%83%BD%E5%B8%82%E8%A8%88%E7%94%BB%E5%9B%B3_%E7%AC%AC%E4%B8%80%E7%A8%AE%E4%BD%8F%E5%B1%85%E5%9C%B0%E5%9F%9F/tiles.json</t>
     </r>
@@ -2040,6 +2168,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://yaizu-smartcity.jp/tiles/%E9%83%BD%E5%B8%82%E8%A8%88%E7%94%BB%E5%9B%B3_%E7%AC%AC%E4%BA%8C%E7%A8%AE%E4%BD%8F%E5%B1%85%E5%9C%B0%E5%9F%9F/tiles.json</t>
     </r>
@@ -2057,6 +2186,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://yaizu-smartcity.jp/tiles/%E9%83%BD%E5%B8%82%E8%A8%88%E7%94%BB%E5%9B%B3_%E6%BA%96%E4%BD%8F%E5%B1%85%E5%9C%B0%E5%9F%9F/tiles.json</t>
     </r>
@@ -2074,6 +2204,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://yaizu-smartcity.jp/tiles/%E9%83%BD%E5%B8%82%E8%A8%88%E7%94%BB%E5%9B%B3_%E8%BF%91%E9%9A%A3%E5%95%86%E6%A5%AD%E5%9C%B0%E5%9F%9F/tiles.json</t>
     </r>
@@ -2094,6 +2225,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://yaizu-smartcity.jp/tiles/%E9%83%BD%E5%B8%82%E8%A8%88%E7%94%BB%E5%9B%B3_%E5%95%86%E6%A5%AD%E5%9C%B0%E5%9F%9F/tiles.json</t>
     </r>
@@ -2111,6 +2243,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://yaizu-smartcity.jp/tiles/%E9%83%BD%E5%B8%82%E8%A8%88%E7%94%BB%E5%9B%B3_%E6%BA%96%E5%B7%A5%E6%A5%AD%E5%9C%B0%E5%9F%9F/tiles.json</t>
     </r>
@@ -2128,6 +2261,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://yaizu-smartcity.jp/tiles/%E9%83%BD%E5%B8%82%E8%A8%88%E7%94%BB%E5%9B%B3_%E5%B7%A5%E6%A5%AD%E5%9C%B0%E5%9F%9F/tiles.json</t>
     </r>
@@ -2145,6 +2279,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://yaizu-smartcity.jp/tiles/%E9%83%BD%E5%B8%82%E8%A8%88%E7%94%BB%E5%9B%B3_%E5%B7%A5%E6%A5%AD%E5%B0%82%E7%94%A8%E5%9C%B0%E5%9F%9F/tiles.json</t>
     </r>
@@ -2162,6 +2297,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://yaizu-smartcity.jp/tiles/%E9%83%BD%E5%B8%82%E8%A8%88%E7%94%BB%E5%9B%B3_%E6%95%B7%E5%9C%B0%E9%9D%A2%E7%A9%8D%E3%81%AE%E6%9C%80%E4%BD%8E%E9%99%90%E5%BA%A6%E6%8C%87%E5%AE%9A%E5%8C%BA%E5%9F%9F/tiles.json</t>
     </r>
@@ -2182,6 +2318,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://yaizu-smartcity.jp/tiles/%E5%8C%BA%E7%94%BB%E6%95%B4%E7%90%86%E5%9C%B0%E5%9B%B3/tiles.json</t>
     </r>
@@ -2199,6 +2336,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://yaizu-smartcity.jp/tiles/%E6%98%94%E3%81%AE%E7%84%BC%E6%B4%A5%E3%81%A8%E6%AF%94%E3%81%B9%E3%81%A6%E3%81%BF%E3%82%88%E3%81%86/tiles.json</t>
     </r>
@@ -2216,6 +2354,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://yaizu-smartcity.jp/tiles/%E5%85%AC%E8%A1%86%E3%83%88%E3%82%A4%E3%83%AC%E4%B8%80%E8%A6%A7/tiles.json</t>
     </r>
@@ -2230,6 +2369,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://yaizu-smartcity.jp/tiles/%E5%85%AC%E5%9C%92%E4%B8%80%E8%A6%A7/tiles.json</t>
     </r>
@@ -2247,6 +2387,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://yaizu-smartcity.jp/tiles/%E3%81%95%E3%81%8F%E3%82%89%E4%B8%A6%E6%9C%A8%E7%AE%A1%E7%90%86%E8%AA%BF%E6%9B%B8/tiles.json</t>
     </r>
@@ -2267,6 +2408,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://yaizu-smartcity.jp/tiles/固定資産税_路線価図/tiles.json</t>
     </r>
@@ -2284,6 +2426,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://yaizu-smartcity.jp/tiles/%E6%A8%99%E6%BA%96%E5%AE%85%E5%9C%B0/tiles.json</t>
     </r>
@@ -2301,6 +2444,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://yaizu-smartcity.jp/tiles/%E7%8A%B6%E6%B3%81%E9%A1%9E%E4%BC%BC%E5%9C%B0%E5%8C%BA/tiles.json</t>
     </r>
@@ -2375,6 +2519,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://yaizu-smartcity.jp/tiles/%E7%84%BC%E6%B4%A5%E5%B8%82%E8%87%AA%E4%B8%BB%E9%81%8B%E8%A1%8C%E3%83%90%E3%82%B9%E8%B7%AF%E7%B7%9A%E5%9B%B3_%E5%81%9C%E7%95%99%E6%89%80/tiles.json</t>
     </r>
@@ -2392,6 +2537,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://yaizu-smartcity.jp/tiles/%E7%84%BC%E6%B4%A5%E5%B8%82%E8%87%AA%E4%B8%BB%E9%81%8B%E8%A1%8C%E3%83%90%E3%82%B9%E8%B7%AF%E7%B7%9A%E5%9B%B3_%E8%B7%AF%E7%B7%9A/tiles.json</t>
     </r>
@@ -2409,6 +2555,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://yaizu-smartcity.jp/tiles/焼津IC周辺地区_タクシー乗降位置/tiles.json</t>
     </r>
@@ -2426,6 +2573,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://yaizu-smartcity.jp/tiles/焼津IC周辺地区_タクシー乗降区域/tiles.json</t>
     </r>
@@ -2443,6 +2591,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://yaizu-smartcity.jp/tiles/%E7%84%BC%E6%B4%A5IC%E5%91%A8%E8%BE%BA%E5%9C%B0%E5%8C%BA_%E3%82%BF%E3%82%AF%E3%82%B7%E3%83%BC%E6%8C%87%E5%AE%9A%E6%96%BD%E8%A8%AD/tiles.json</t>
     </r>
@@ -2457,6 +2606,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://yaizu-smartcity.jp/tiles/大島・三和地区_タクシー乗降位置/tiles.json</t>
     </r>
@@ -2474,6 +2624,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://yaizu-smartcity.jp/tiles/%E5%A4%A7%E5%B3%B6%E3%83%BB%E4%B8%89%E5%92%8C%E5%9C%B0%E5%8C%BA_%E3%82%BF%E3%82%AF%E3%82%B7%E3%83%BC%E6%8C%87%E5%AE%9A%E6%96%BD%E8%A8%AD/tiles.json</t>
     </r>
@@ -2488,6 +2639,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://yaizu-smartcity.jp/tiles/大井川地区_タクシー乗降位置/tiles.json</t>
     </r>
@@ -2505,6 +2657,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://yaizu-smartcity.jp/tiles/大井川地区_タクシー乗降区域/tiles.json</t>
     </r>
@@ -2525,6 +2678,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://yaizu-smartcity.jp/tiles/%E4%BA%A4%E9%80%9A%E4%BA%8B%E6%95%85_2022/tiles.json</t>
     </r>
@@ -2542,6 +2696,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://yaizu-smartcity.jp/tiles/%E4%BA%A4%E9%80%9A%E4%BA%8B%E6%95%85_2021/tiles.json</t>
     </r>
@@ -2559,6 +2714,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://yaizu-smartcity.jp/tiles/%E4%BA%A4%E9%80%9A%E4%BA%8B%E6%95%85_2020/tiles.json</t>
     </r>
@@ -2576,6 +2732,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://yaizu-smartcity.jp/tiles/%E4%BA%A4%E9%80%9A%E4%BA%8B%E6%95%85_2019/tiles.json</t>
     </r>
@@ -2596,6 +2753,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://yaizu-smartcity.jp/tiles/%E3%83%AA%E3%82%B5%E3%82%A4%E3%82%AF%E3%83%AB%E6%8B%A0%E7%82%B9/tiles.json</t>
     </r>
@@ -2616,6 +2774,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://yaizu-smartcity.jp/tiles/%E8%BE%B2%E6%A5%AD%E5%9C%B0%E5%9F%9F%E6%8C%AF%E8%88%88%E8%A8%88%E7%94%BB_%E8%BE%B2%E7%94%A8%E5%9C%B0%E5%8C%BA%E5%9F%9F/tiles.json</t>
     </r>
@@ -2633,6 +2792,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://yaizu-smartcity.jp/tiles/%E8%BE%B2%E6%A5%AD%E5%9C%B0%E5%9F%9F%E6%8C%AF%E8%88%88%E8%A8%88%E7%94%BB_%E8%BE%B2%E6%A5%AD%E7%94%A8%E6%96%BD%E8%A8%AD%E7%94%A8%E5%9C%B0/tiles.json</t>
     </r>
@@ -2650,6 +2810,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://yaizu-smartcity.jp/tiles/農業用施設図/tiles.json</t>
     </r>
@@ -2670,6 +2831,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://yaizu-smartcity.jp/tiles/農道一般平面図_農道/tiles.json</t>
     </r>
@@ -2687,6 +2849,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://yaizu-smartcity.jp/tiles/農道一般平面図_林道/tiles.json</t>
     </r>
@@ -2701,6 +2864,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://yaizu-smartcity.jp/tiles/%E3%83%95%E3%82%A1%E3%83%9F%E3%83%AA%E3%83%BC%E8%BE%B2%E5%9C%92/tiles.json</t>
     </r>
@@ -2724,6 +2888,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://yaizu-smartcity.jp/tiles/%E5%B0%8F%E5%AD%A6%E6%A0%A1/tiles.json</t>
     </r>
@@ -2741,6 +2906,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://yaizu-smartcity.jp/tiles/%E5%B0%8F%E5%AD%A6%E6%A0%A1%E5%8C%BA/tiles.json</t>
     </r>
@@ -2758,6 +2924,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://yaizu-smartcity.jp/tiles/%E4%B8%AD%E5%AD%A6%E6%A0%A1/tiles.json</t>
     </r>
@@ -2775,6 +2942,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://yaizu-smartcity.jp/tiles/%E4%B8%AD%E5%AD%A6%E6%A0%A1%E5%8C%BA/tiles.json</t>
     </r>
@@ -2795,6 +2963,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://yaizu-smartcity.jp/tiles/%E9%80%9A%E5%AD%A6%E8%B7%AF_%E5%92%8C%E7%94%B0%E5%B0%8F%E5%AD%A6%E6%A0%A1/tiles.json</t>
     </r>
@@ -2812,6 +2981,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://yaizu-smartcity.jp/tiles/%E9%80%9A%E5%AD%A6%E8%B7%AF_%E5%A4%A7%E4%BA%95%E5%B7%9D%E5%8D%97%E5%B0%8F%E5%AD%A6%E6%A0%A1/tiles.json</t>
     </r>
@@ -2829,6 +2999,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://yaizu-smartcity.jp/tiles/%E9%80%9A%E5%AD%A6%E8%B7%AF_%E5%A4%A7%E4%BA%95%E5%B7%9D%E6%9D%B1%E5%B0%8F%E5%AD%A6%E6%A0%A1/tiles.json</t>
     </r>
@@ -2846,6 +3017,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://yaizu-smartcity.jp/tiles/%E9%80%9A%E5%AD%A6%E8%B7%AF_%E5%A4%A7%E4%BA%95%E5%B7%9D%E8%A5%BF%E5%B0%8F%E5%AD%A6%E6%A0%A1/tiles.json</t>
     </r>
@@ -2863,6 +3035,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://yaizu-smartcity.jp/tiles/%E9%80%9A%E5%AD%A6%E8%B7%AF_%E5%A4%A7%E5%AF%8C%E5%B0%8F%E5%AD%A6%E6%A0%A1/tiles.json</t>
     </r>
@@ -2880,6 +3053,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://yaizu-smartcity.jp/tiles/%E9%80%9A%E5%AD%A6%E8%B7%AF_%E5%B0%8F%E5%B7%9D%E5%B0%8F%E5%AD%A6%E6%A0%A1/tiles.json</t>
     </r>
@@ -2897,6 +3071,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://yaizu-smartcity.jp/tiles/%E9%80%9A%E5%AD%A6%E8%B7%AF_%E6%9D%B1%E7%9B%8A%E6%B4%A5%E5%B0%8F%E5%AD%A6%E6%A0%A1/tiles.json</t>
     </r>
@@ -2914,6 +3089,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://yaizu-smartcity.jp/tiles/%E9%80%9A%E5%AD%A6%E8%B7%AF_%E6%B8%AF%E5%B0%8F%E5%AD%A6%E6%A0%A1/tiles.json</t>
     </r>
@@ -2931,6 +3107,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://yaizu-smartcity.jp/tiles/%E9%80%9A%E5%AD%A6%E8%B7%AF_%E7%84%BC%E6%B4%A5%E5%8D%97%E5%B0%8F%E5%AD%A6%E6%A0%A1/tiles.json</t>
     </r>
@@ -2948,6 +3125,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://yaizu-smartcity.jp/tiles/%E9%80%9A%E5%AD%A6%E8%B7%AF_%E7%84%BC%E6%B4%A5%E6%9D%B1%E5%B0%8F%E5%AD%A6%E6%A0%A1/tiles.json</t>
     </r>
@@ -2965,6 +3143,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://yaizu-smartcity.jp/tiles/%E9%80%9A%E5%AD%A6%E8%B7%AF_%E7%84%BC%E6%B4%A5%E8%A5%BF%E5%B0%8F%E5%AD%A6%E6%A0%A1/tiles.json</t>
     </r>
@@ -2982,6 +3161,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://yaizu-smartcity.jp/tiles/%E9%80%9A%E5%AD%A6%E8%B7%AF_%E8%B1%8A%E7%94%B0%E5%B0%8F%E5%AD%A6%E6%A0%A1/tiles.json</t>
     </r>
@@ -2999,6 +3179,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://yaizu-smartcity.jp/tiles/%E9%80%9A%E5%AD%A6%E8%B7%AF_%E9%BB%92%E7%9F%B3%E5%B0%8F%E5%AD%A6%E6%A0%A1/tiles.json</t>
     </r>
@@ -3019,6 +3200,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://yaizu-smartcity.jp/tiles/%E6%94%BE%E8%AA%B2%E5%BE%8C%E7%AD%89%E3%83%87%E3%82%A4%E3%82%B5%E3%83%BC%E3%83%93%E3%82%B9%E4%B8%80%E8%A6%A7/tiles.json</t>
     </r>
@@ -3039,6 +3221,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://yaizu-smartcity.jp/tiles/%E5%AD%90%E8%82%B2%E3%81%A6%E6%96%BD%E8%A8%AD%E4%B8%80%E8%A6%A7/tiles.json</t>
     </r>
@@ -3056,6 +3239,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://yaizu-smartcity.jp/tiles/%E5%AD%90%E8%82%B2%E3%81%A6%E6%94%AF%E6%8F%B4%E6%96%BD%E8%A8%AD/tiles.json</t>
     </r>
@@ -3073,6 +3257,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://yaizu-smartcity.jp/tiles/%E3%81%82%E3%81%8B%E3%81%A1%E3%82%83%E3%82%93%E3%81%88%E3%81%8D%E4%B8%80%E8%A6%A7/tiles.json</t>
     </r>
@@ -3093,6 +3278,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://yaizu-smartcity.jp/tiles/%E5%9C%B0%E5%9F%9F%E4%BA%A4%E6%B5%81%E3%82%BB%E3%83%B3%E3%82%BF%E3%83%BC/tiles.json</t>
     </r>
@@ -3110,6 +3296,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://yaizu-smartcity.jp/tiles/%E8%87%AA%E6%B2%BB%E4%BC%9A%E5%8C%BA%E5%9F%9F/tiles.json</t>
     </r>
@@ -3130,6 +3317,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://yaizu-smartcity.jp/tiles/%E6%96%87%E5%8C%96%E4%BC%9A%E9%A4%A8%E3%83%BB%E8%B3%87%E6%96%99%E9%A4%A8/tiles.json</t>
     </r>
@@ -3147,6 +3335,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://yaizu-smartcity.jp/tiles/%E5%9B%B3%E6%9B%B8%E9%A4%A8/tiles.json</t>
     </r>
@@ -3164,6 +3353,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://yaizu-smartcity.jp/tiles/%E3%82%B9%E3%83%9D%E3%83%BC%E3%83%84%E6%96%BD%E8%A8%AD/tiles.json</t>
     </r>
@@ -3181,6 +3371,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://yaizu-smartcity.jp/tiles/%E6%96%87%E5%8C%96%E8%B2%A1%E3%83%9E%E3%83%83%E3%83%97/tiles.json</t>
     </r>
@@ -3198,6 +3389,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://yaizu-smartcity.jp/tiles/%E5%9F%8B%E8%94%B5%E6%96%87%E5%8C%96%E8%B2%A1/tiles.json</t>
     </r>
@@ -3218,6 +3410,7 @@
         <sz val="10"/>
         <color rgb="FF0000FF"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://yaizu-smartcity.jp/tiles/%E3%81%BE%E3%81%A1%E3%81%AA%E3%81%8B%E6%B6%BC%E3%81%BF%E3%81%A9%E3%81%93%E3%82%8D/tiles.json</t>
     </r>
@@ -3235,6 +3428,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://yaizu-smartcity.jp/tiles/%E7%A6%8F%E7%A5%89%E4%BC%9A%E9%A4%A8/tiles.json</t>
     </r>
@@ -3252,6 +3446,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://yaizu-smartcity.jp/tiles/AED%E8%A8%AD%E7%BD%AE%E7%AE%87%E6%89%80%E4%B8%80%E8%A6%A7/tiles.json</t>
     </r>
@@ -3272,6 +3467,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://yaizu-smartcity.jp/tiles/%E5%B8%82%E5%BD%B9%E6%89%80%E3%83%BB%E3%82%BB%E3%83%B3%E3%82%BF%E3%83%BC/tiles.json</t>
     </r>
@@ -3289,98 +3485,13 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://yaizu-smartcity.jp/tiles/%E5%85%AC%E8%A1%86%E7%84%A1%E7%B7%9ALAN%E4%B8%80%E8%A6%A7/tiles.json</t>
     </r>
   </si>
   <si>
     <t>wifi-access-point</t>
-  </si>
-  <si>
-    <t>ワークショップ</t>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
-    <t>brown-marker</t>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
-    <t>移動</t>
-    <rPh sb="0" eb="2">
-      <t>イドウ</t>
-    </rPh>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
-    <t>まちのスポット</t>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
-    <t>歴史・史跡</t>
-    <rPh sb="0" eb="2">
-      <t>レキシ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>シセキ</t>
-    </rPh>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
-    <t>安心安全</t>
-    <rPh sb="0" eb="4">
-      <t>アンシンアンゼン</t>
-    </rPh>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
-    <t>https://yaizu-smartcity.jp/tiles/%E3%83%86%E3%82%B9%E3%83%88%EF%BC%88%E3%81%8A%E5%BA%97%EF%BC%89/tiles.json</t>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
-    <t>https://yaizu-smartcity.jp/tiles/%E3%83%86%E3%82%B9%E3%83%88%EF%BC%88%E3%81%BE%E3%81%A1%E3%81%AE%E3%82%B9%E3%83%9D%E3%83%83%E3%83%88%EF%BC%89/tiles.json</t>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
-    <t>https://yaizu-smartcity.jp/tiles/%E3%83%86%E3%82%B9%E3%83%88%EF%BC%88%E5%AE%89%E5%BF%83%E5%AE%89%E5%85%A8%EF%BC%89/tiles.json</t>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
-    <t>https://yaizu-smartcity.jp/tiles/%E3%83%86%E3%82%B9%E3%83%88%EF%BC%88%E6%AD%B4%E5%8F%B2%EF%BC%89/tiles.json</t>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
-    <t>https://yaizu-smartcity.jp/tiles/%E3%83%86%E3%82%B9%E3%83%88%EF%BC%88%E7%A7%BB%E5%8B%95%EF%BC%89/tiles.json</t>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
-    <t>parking</t>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
-    <t>bunkazai</t>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
-    <t>evacuation-area</t>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
-    <t>shopping</t>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
-    <t>お店１</t>
-    <rPh sb="1" eb="2">
-      <t>ミセ</t>
-    </rPh>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
-    <t>お店２</t>
-    <rPh sb="1" eb="2">
-      <t>ミセ</t>
-    </rPh>
-    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>災害ごみ受入場所</t>
@@ -3396,11 +3507,25 @@
     <phoneticPr fontId="13"/>
   </si>
   <si>
-    <t>https://yaizu-smartcity.jp/tiles/%E3%83%86%E3%82%B9%E3%83%88%EF%BC%88%E3%81%8A%E5%BA%97%EF%BC%92%EF%BC%89/tiles.json</t>
+    <t>https://yaizu-smartcity.jp/tiles/%E7%81%BD%E5%AE%B3%E3%81%94%E3%81%BF/tiles.json</t>
     <phoneticPr fontId="13"/>
   </si>
   <si>
-    <t>https://yaizu-smartcity.jp/tiles/%E7%81%BD%E5%AE%B3%E3%81%94%E3%81%BF/tiles.json</t>
+    <t>ベジチェック設置場所</t>
+    <rPh sb="6" eb="8">
+      <t>セッチ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>バショ</t>
+    </rPh>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>agricultural-experience-facility</t>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>https://yaizu-smartcity.jp/tiles/%E3%83%99%E3%82%B8%E3%83%81%E3%82%A7%E3%83%83%E3%82%AF%E8%A8%AD%E7%BD%AE%E5%A0%B4%E6%89%80/tiles.json</t>
     <phoneticPr fontId="13"/>
   </si>
 </sst>
@@ -3408,7 +3533,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+  <fonts count="19">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -3420,57 +3545,67 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF222222"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -3484,6 +3619,7 @@
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="6"/>
@@ -3497,6 +3633,7 @@
       <sz val="10"/>
       <color theme="10"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3518,6 +3655,13 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="5">
@@ -3619,7 +3763,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3687,6 +3831,12 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="16" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3907,11 +4057,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Z1002"/>
+  <dimension ref="A1:Z1003"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A159" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D165" sqref="D165"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A158" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A206" sqref="A206:XFD211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -10183,10 +10333,10 @@
       </c>
       <c r="B164" s="6"/>
       <c r="C164" s="29" t="s">
-        <v>583</v>
+        <v>566</v>
       </c>
       <c r="D164" s="28" t="s">
-        <v>585</v>
+        <v>567</v>
       </c>
       <c r="E164" s="6"/>
       <c r="F164" s="5"/>
@@ -11551,19 +11701,19 @@
       <c r="A200" s="8" t="s">
         <v>549</v>
       </c>
-      <c r="B200" s="4"/>
-      <c r="C200" s="21" t="s">
-        <v>550</v>
-      </c>
-      <c r="D200" s="22" t="s">
-        <v>551</v>
-      </c>
-      <c r="E200" s="4"/>
+      <c r="B200" s="5"/>
+      <c r="C200" s="30" t="s">
+        <v>568</v>
+      </c>
+      <c r="D200" s="31" t="s">
+        <v>570</v>
+      </c>
+      <c r="E200" s="6"/>
       <c r="F200" s="5"/>
       <c r="G200" s="5"/>
-      <c r="H200" s="4"/>
-      <c r="I200" s="6" t="s">
-        <v>552</v>
+      <c r="H200" s="5"/>
+      <c r="I200" s="5" t="s">
+        <v>569</v>
       </c>
       <c r="J200" s="5"/>
       <c r="K200" s="5"/>
@@ -11588,18 +11738,18 @@
         <v>549</v>
       </c>
       <c r="B201" s="4"/>
-      <c r="C201" s="8" t="s">
-        <v>553</v>
-      </c>
-      <c r="D201" s="9" t="s">
-        <v>554</v>
+      <c r="C201" s="21" t="s">
+        <v>550</v>
+      </c>
+      <c r="D201" s="22" t="s">
+        <v>551</v>
       </c>
       <c r="E201" s="4"/>
       <c r="F201" s="5"/>
       <c r="G201" s="5"/>
       <c r="H201" s="4"/>
       <c r="I201" s="6" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="J201" s="5"/>
       <c r="K201" s="5"/>
@@ -11625,17 +11775,17 @@
       </c>
       <c r="B202" s="4"/>
       <c r="C202" s="8" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="D202" s="9" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="E202" s="4"/>
       <c r="F202" s="5"/>
       <c r="G202" s="5"/>
       <c r="H202" s="4"/>
       <c r="I202" s="6" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="J202" s="5"/>
       <c r="K202" s="5"/>
@@ -11657,21 +11807,21 @@
     </row>
     <row r="203" spans="1:26" ht="13.5" customHeight="1">
       <c r="A203" s="8" t="s">
-        <v>559</v>
-      </c>
-      <c r="B203" s="5"/>
-      <c r="C203" s="6" t="s">
-        <v>560</v>
-      </c>
-      <c r="D203" s="11" t="s">
-        <v>561</v>
-      </c>
-      <c r="E203" s="5"/>
+        <v>549</v>
+      </c>
+      <c r="B203" s="4"/>
+      <c r="C203" s="8" t="s">
+        <v>556</v>
+      </c>
+      <c r="D203" s="9" t="s">
+        <v>557</v>
+      </c>
+      <c r="E203" s="4"/>
       <c r="F203" s="5"/>
       <c r="G203" s="5"/>
-      <c r="H203" s="5"/>
+      <c r="H203" s="4"/>
       <c r="I203" s="6" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="J203" s="5"/>
       <c r="K203" s="5"/>
@@ -11697,17 +11847,17 @@
       </c>
       <c r="B204" s="5"/>
       <c r="C204" s="6" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="D204" s="11" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="E204" s="5"/>
       <c r="F204" s="5"/>
       <c r="G204" s="5"/>
       <c r="H204" s="5"/>
       <c r="I204" s="6" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="J204" s="5"/>
       <c r="K204" s="5"/>
@@ -11728,22 +11878,22 @@
       <c r="Z204" s="3"/>
     </row>
     <row r="205" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A205" s="23" t="s">
-        <v>566</v>
+      <c r="A205" s="8" t="s">
+        <v>559</v>
       </c>
       <c r="B205" s="5"/>
-      <c r="C205" s="23" t="s">
-        <v>581</v>
-      </c>
-      <c r="D205" s="24" t="s">
-        <v>572</v>
+      <c r="C205" s="6" t="s">
+        <v>563</v>
+      </c>
+      <c r="D205" s="11" t="s">
+        <v>564</v>
       </c>
       <c r="E205" s="5"/>
       <c r="F205" s="5"/>
       <c r="G205" s="5"/>
       <c r="H205" s="5"/>
-      <c r="I205" s="26" t="s">
-        <v>580</v>
+      <c r="I205" s="6" t="s">
+        <v>565</v>
       </c>
       <c r="J205" s="5"/>
       <c r="K205" s="5"/>
@@ -11764,23 +11914,15 @@
       <c r="Z205" s="3"/>
     </row>
     <row r="206" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A206" s="23" t="s">
-        <v>566</v>
-      </c>
+      <c r="A206" s="23"/>
       <c r="B206" s="5"/>
-      <c r="C206" s="23" t="s">
-        <v>582</v>
-      </c>
-      <c r="D206" s="28" t="s">
-        <v>584</v>
-      </c>
+      <c r="C206" s="23"/>
+      <c r="D206" s="24"/>
       <c r="E206" s="5"/>
       <c r="F206" s="5"/>
       <c r="G206" s="5"/>
       <c r="H206" s="5"/>
-      <c r="I206" s="26" t="s">
-        <v>580</v>
-      </c>
+      <c r="I206" s="26"/>
       <c r="J206" s="5"/>
       <c r="K206" s="5"/>
       <c r="L206" s="5"/>
@@ -11800,23 +11942,15 @@
       <c r="Z206" s="3"/>
     </row>
     <row r="207" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A207" s="23" t="s">
-        <v>566</v>
-      </c>
+      <c r="A207" s="23"/>
       <c r="B207" s="5"/>
-      <c r="C207" s="25" t="s">
-        <v>569</v>
-      </c>
-      <c r="D207" s="24" t="s">
-        <v>573</v>
-      </c>
+      <c r="C207" s="23"/>
+      <c r="D207" s="28"/>
       <c r="E207" s="5"/>
       <c r="F207" s="5"/>
       <c r="G207" s="5"/>
       <c r="H207" s="5"/>
-      <c r="I207" s="26" t="s">
-        <v>567</v>
-      </c>
+      <c r="I207" s="26"/>
       <c r="J207" s="5"/>
       <c r="K207" s="5"/>
       <c r="L207" s="5"/>
@@ -11836,23 +11970,15 @@
       <c r="Z207" s="3"/>
     </row>
     <row r="208" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A208" s="23" t="s">
-        <v>566</v>
-      </c>
+      <c r="A208" s="23"/>
       <c r="B208" s="5"/>
-      <c r="C208" s="25" t="s">
-        <v>568</v>
-      </c>
-      <c r="D208" s="24" t="s">
-        <v>576</v>
-      </c>
+      <c r="C208" s="25"/>
+      <c r="D208" s="24"/>
       <c r="E208" s="5"/>
       <c r="F208" s="5"/>
       <c r="G208" s="5"/>
       <c r="H208" s="5"/>
-      <c r="I208" s="27" t="s">
-        <v>577</v>
-      </c>
+      <c r="I208" s="26"/>
       <c r="J208" s="5"/>
       <c r="K208" s="5"/>
       <c r="L208" s="5"/>
@@ -11872,23 +11998,15 @@
       <c r="Z208" s="3"/>
     </row>
     <row r="209" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A209" s="23" t="s">
-        <v>566</v>
-      </c>
+      <c r="A209" s="23"/>
       <c r="B209" s="5"/>
-      <c r="C209" s="25" t="s">
-        <v>571</v>
-      </c>
-      <c r="D209" s="24" t="s">
-        <v>574</v>
-      </c>
+      <c r="C209" s="25"/>
+      <c r="D209" s="24"/>
       <c r="E209" s="5"/>
       <c r="F209" s="5"/>
       <c r="G209" s="5"/>
       <c r="H209" s="5"/>
-      <c r="I209" s="26" t="s">
-        <v>579</v>
-      </c>
+      <c r="I209" s="27"/>
       <c r="J209" s="5"/>
       <c r="K209" s="5"/>
       <c r="L209" s="5"/>
@@ -11908,23 +12026,15 @@
       <c r="Z209" s="3"/>
     </row>
     <row r="210" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A210" s="23" t="s">
-        <v>566</v>
-      </c>
+      <c r="A210" s="23"/>
       <c r="B210" s="5"/>
-      <c r="C210" s="25" t="s">
-        <v>570</v>
-      </c>
-      <c r="D210" s="24" t="s">
-        <v>575</v>
-      </c>
+      <c r="C210" s="25"/>
+      <c r="D210" s="24"/>
       <c r="E210" s="5"/>
       <c r="F210" s="5"/>
       <c r="G210" s="5"/>
       <c r="H210" s="5"/>
-      <c r="I210" s="26" t="s">
-        <v>578</v>
-      </c>
+      <c r="I210" s="26"/>
       <c r="J210" s="5"/>
       <c r="K210" s="5"/>
       <c r="L210" s="5"/>
@@ -11972,15 +12082,15 @@
       <c r="Z211" s="3"/>
     </row>
     <row r="212" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A212" s="5"/>
+      <c r="A212" s="23"/>
       <c r="B212" s="5"/>
-      <c r="C212" s="5"/>
-      <c r="D212" s="5"/>
+      <c r="C212" s="25"/>
+      <c r="D212" s="24"/>
       <c r="E212" s="5"/>
       <c r="F212" s="5"/>
       <c r="G212" s="5"/>
       <c r="H212" s="5"/>
-      <c r="I212" s="5"/>
+      <c r="I212" s="26"/>
       <c r="J212" s="5"/>
       <c r="K212" s="5"/>
       <c r="L212" s="5"/>
@@ -17403,7 +17513,34 @@
       <c r="Y405" s="3"/>
       <c r="Z405" s="3"/>
     </row>
-    <row r="406" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="406" spans="1:26" ht="13.5" customHeight="1">
+      <c r="A406" s="5"/>
+      <c r="B406" s="5"/>
+      <c r="C406" s="5"/>
+      <c r="D406" s="5"/>
+      <c r="E406" s="5"/>
+      <c r="F406" s="5"/>
+      <c r="G406" s="5"/>
+      <c r="H406" s="5"/>
+      <c r="I406" s="5"/>
+      <c r="J406" s="5"/>
+      <c r="K406" s="5"/>
+      <c r="L406" s="5"/>
+      <c r="M406" s="6"/>
+      <c r="N406" s="3"/>
+      <c r="O406" s="3"/>
+      <c r="P406" s="3"/>
+      <c r="Q406" s="3"/>
+      <c r="R406" s="3"/>
+      <c r="S406" s="3"/>
+      <c r="T406" s="3"/>
+      <c r="U406" s="3"/>
+      <c r="V406" s="3"/>
+      <c r="W406" s="3"/>
+      <c r="X406" s="3"/>
+      <c r="Y406" s="3"/>
+      <c r="Z406" s="3"/>
+    </row>
     <row r="407" spans="1:26" ht="15.75" customHeight="1"/>
     <row r="408" spans="1:26" ht="15.75" customHeight="1"/>
     <row r="409" spans="1:26" ht="15.75" customHeight="1"/>
@@ -18000,6 +18137,7 @@
     <row r="1000" ht="15.75" customHeight="1"/>
     <row r="1001" ht="15.75" customHeight="1"/>
     <row r="1002" ht="15.75" customHeight="1"/>
+    <row r="1003" ht="15.75" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="13"/>
   <hyperlinks>
@@ -18195,20 +18333,15 @@
     <hyperlink ref="D197" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
     <hyperlink ref="D198" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
     <hyperlink ref="D199" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
-    <hyperlink ref="D200" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
-    <hyperlink ref="D201" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
-    <hyperlink ref="D202" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
-    <hyperlink ref="D203" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
-    <hyperlink ref="D204" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
-    <hyperlink ref="D205" r:id="rId198" xr:uid="{1DDF31CA-4C1A-47AB-B531-B33993A99C83}"/>
-    <hyperlink ref="D207" r:id="rId199" xr:uid="{12E97F43-A944-4A7E-8977-4F3381FB37CE}"/>
-    <hyperlink ref="D208" r:id="rId200" xr:uid="{075E9294-1171-4E5F-BB24-67022106992B}"/>
-    <hyperlink ref="D206" r:id="rId201" xr:uid="{4A7F16D9-4431-48D1-BFAA-0CEA5CF29755}"/>
-    <hyperlink ref="D209" r:id="rId202" display="https://yaizu-smartcity.jp/tiles/%E3%83%86%E3%82%B9%E3%83%88%EF%BC%88%E7%A7%BB%E5%8B%95%EF%BC%89/tiles.json" xr:uid="{30E523FF-6A7E-4C3D-8DD0-F65F4A66B339}"/>
-    <hyperlink ref="D164" r:id="rId203" xr:uid="{0E1E66AB-E725-4DC2-A9E7-89AB9F93D44F}"/>
+    <hyperlink ref="D201" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
+    <hyperlink ref="D202" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
+    <hyperlink ref="D203" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
+    <hyperlink ref="D204" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
+    <hyperlink ref="D205" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
+    <hyperlink ref="D164" r:id="rId198" xr:uid="{0E1E66AB-E725-4DC2-A9E7-89AB9F93D44F}"/>
+    <hyperlink ref="D200" r:id="rId199" xr:uid="{FB5BD734-C92C-4DCB-AC83-E67BDA12DFF4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="portrait" r:id="rId204"/>
   <headerFooter>
     <oddFooter>&amp;C000000&amp;P</oddFooter>
   </headerFooter>

--- a/メニュー/メニュー.xlsx
+++ b/メニュー/メニュー.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\vm22flo01\DownloadFiles\DX推進課\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D06D680E-5179-437F-961A-8F1ACD757345}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{812BBCDB-76E3-4E8B-91BF-D52C74178669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1836" yWindow="1560" windowWidth="21204" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="メニュー構造" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1048" uniqueCount="571">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1073" uniqueCount="587">
   <si>
     <t>大カテゴリー</t>
   </si>
@@ -3526,6 +3526,89 @@
   </si>
   <si>
     <t>https://yaizu-smartcity.jp/tiles/%E3%83%99%E3%82%B8%E3%83%81%E3%82%A7%E3%83%83%E3%82%AF%E8%A8%AD%E7%BD%AE%E5%A0%B4%E6%89%80/tiles.json</t>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>ドライブコンテスト</t>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>スマホ使用</t>
+    <rPh sb="3" eb="5">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>急ハンドル</t>
+    <rPh sb="0" eb="1">
+      <t>キュウ</t>
+    </rPh>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>急ブレーキ</t>
+    <rPh sb="0" eb="1">
+      <t>キュウ</t>
+    </rPh>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>急加速</t>
+    <rPh sb="0" eb="1">
+      <t>キュウ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>カソク</t>
+    </rPh>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>速度超過</t>
+    <rPh sb="0" eb="2">
+      <t>ソクド</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>チョウカ</t>
+    </rPh>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>https://yaizu-smartcity.jp/tiles/%E3%83%89%E3%83%A9%E3%82%A4%E3%83%96%E3%82%B3%E3%83%B3%E3%83%86%E3%82%B9%E3%83%88_%E3%82%B9%E3%83%9E%E3%83%9B%E4%BD%BF%E7%94%A8/tiles.json</t>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>https://yaizu-smartcity.jp/tiles/%E3%83%89%E3%83%A9%E3%82%A4%E3%83%96%E3%82%B3%E3%83%B3%E3%83%86%E3%82%B9%E3%83%88_%E6%80%A5%E3%83%8F%E3%83%B3%E3%83%89%E3%83%AB/tiles.json</t>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>https://yaizu-smartcity.jp/tiles/%E3%83%89%E3%83%A9%E3%82%A4%E3%83%96%E3%82%B3%E3%83%B3%E3%83%86%E3%82%B9%E3%83%88_%E6%80%A5%E3%83%96%E3%83%AC%E3%83%BC%E3%82%AD/tiles.json</t>
+  </si>
+  <si>
+    <t>https://yaizu-smartcity.jp/tiles/%E3%83%89%E3%83%A9%E3%82%A4%E3%83%96%E3%82%B3%E3%83%B3%E3%83%86%E3%82%B9%E3%83%88_%E6%80%A5%E5%8A%A0%E9%80%9F/tiles.json</t>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>https://yaizu-smartcity.jp/tiles/%E3%83%89%E3%83%A9%E3%82%A4%E3%83%96%E3%82%B3%E3%83%B3%E3%83%86%E3%82%B9%E3%83%88_%E9%80%9F%E5%BA%A6%E8%B6%85%E9%81%8E/tiles.json</t>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>#A1A4FF</t>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>#FF8DFF</t>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>#FF6565</t>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>#3F4886</t>
+  </si>
+  <si>
+    <t>#3F994C</t>
     <phoneticPr fontId="13"/>
   </si>
 </sst>
@@ -3763,7 +3846,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3837,6 +3920,12 @@
     </xf>
     <xf numFmtId="49" fontId="14" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4057,11 +4146,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Z1003"/>
+  <dimension ref="A1:Z1008"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A158" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A206" sqref="A206:XFD211"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A153" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I167" sqref="I167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -10329,22 +10418,24 @@
     </row>
     <row r="164" spans="1:26" ht="13.5" customHeight="1">
       <c r="A164" s="6" t="s">
-        <v>435</v>
-      </c>
-      <c r="B164" s="6"/>
-      <c r="C164" s="29" t="s">
-        <v>566</v>
-      </c>
-      <c r="D164" s="28" t="s">
-        <v>567</v>
+        <v>378</v>
+      </c>
+      <c r="B164" s="30" t="s">
+        <v>571</v>
+      </c>
+      <c r="C164" s="30" t="s">
+        <v>572</v>
+      </c>
+      <c r="D164" s="33" t="s">
+        <v>577</v>
       </c>
       <c r="E164" s="6"/>
       <c r="F164" s="5"/>
       <c r="G164" s="5"/>
-      <c r="H164" s="6"/>
-      <c r="I164" s="26" t="s">
-        <v>268</v>
-      </c>
+      <c r="H164" s="6" t="s">
+        <v>582</v>
+      </c>
+      <c r="I164" s="5"/>
       <c r="J164" s="5"/>
       <c r="K164" s="5"/>
       <c r="L164" s="5"/>
@@ -10365,22 +10456,22 @@
     </row>
     <row r="165" spans="1:26" ht="13.5" customHeight="1">
       <c r="A165" s="6" t="s">
-        <v>435</v>
-      </c>
-      <c r="B165" s="5"/>
-      <c r="C165" s="6" t="s">
-        <v>436</v>
-      </c>
-      <c r="D165" s="11" t="s">
-        <v>437</v>
-      </c>
-      <c r="E165" s="6" t="s">
-        <v>291</v>
-      </c>
+        <v>378</v>
+      </c>
+      <c r="B165" s="30" t="s">
+        <v>571</v>
+      </c>
+      <c r="C165" s="30" t="s">
+        <v>573</v>
+      </c>
+      <c r="D165" s="33" t="s">
+        <v>578</v>
+      </c>
+      <c r="E165" s="6"/>
       <c r="F165" s="5"/>
       <c r="G165" s="5"/>
       <c r="H165" s="6" t="s">
-        <v>291</v>
+        <v>583</v>
       </c>
       <c r="I165" s="5"/>
       <c r="J165" s="5"/>
@@ -10402,26 +10493,24 @@
       <c r="Z165" s="3"/>
     </row>
     <row r="166" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A166" s="8" t="s">
-        <v>438</v>
-      </c>
-      <c r="B166" s="6" t="s">
-        <v>439</v>
-      </c>
-      <c r="C166" s="6" t="s">
-        <v>440</v>
-      </c>
-      <c r="D166" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="E166" s="6" t="s">
-        <v>442</v>
-      </c>
-      <c r="F166" s="6" t="s">
-        <v>294</v>
-      </c>
+      <c r="A166" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="B166" s="30" t="s">
+        <v>571</v>
+      </c>
+      <c r="C166" s="30" t="s">
+        <v>574</v>
+      </c>
+      <c r="D166" s="32" t="s">
+        <v>579</v>
+      </c>
+      <c r="E166" s="6"/>
+      <c r="F166" s="5"/>
       <c r="G166" s="5"/>
-      <c r="H166" s="5"/>
+      <c r="H166" s="6" t="s">
+        <v>584</v>
+      </c>
       <c r="I166" s="5"/>
       <c r="J166" s="5"/>
       <c r="K166" s="5"/>
@@ -10442,26 +10531,24 @@
       <c r="Z166" s="3"/>
     </row>
     <row r="167" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A167" s="8" t="s">
-        <v>438</v>
-      </c>
-      <c r="B167" s="6" t="s">
-        <v>439</v>
-      </c>
-      <c r="C167" s="6" t="s">
-        <v>443</v>
-      </c>
-      <c r="D167" s="11" t="s">
-        <v>444</v>
-      </c>
-      <c r="E167" s="6" t="s">
-        <v>445</v>
-      </c>
-      <c r="F167" s="6" t="s">
-        <v>294</v>
-      </c>
+      <c r="A167" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="B167" s="30" t="s">
+        <v>571</v>
+      </c>
+      <c r="C167" s="30" t="s">
+        <v>575</v>
+      </c>
+      <c r="D167" s="33" t="s">
+        <v>580</v>
+      </c>
+      <c r="E167" s="6"/>
+      <c r="F167" s="5"/>
       <c r="G167" s="5"/>
-      <c r="H167" s="5"/>
+      <c r="H167" s="6" t="s">
+        <v>585</v>
+      </c>
       <c r="I167" s="5"/>
       <c r="J167" s="5"/>
       <c r="K167" s="5"/>
@@ -10482,25 +10569,23 @@
       <c r="Z167" s="3"/>
     </row>
     <row r="168" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A168" s="8" t="s">
-        <v>438</v>
-      </c>
-      <c r="B168" s="6" t="s">
-        <v>446</v>
-      </c>
-      <c r="C168" s="6" t="s">
-        <v>446</v>
-      </c>
-      <c r="D168" s="11" t="s">
-        <v>447</v>
-      </c>
-      <c r="E168" s="5"/>
-      <c r="F168" s="6" t="s">
-        <v>448</v>
-      </c>
+      <c r="A168" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="B168" s="30" t="s">
+        <v>571</v>
+      </c>
+      <c r="C168" s="30" t="s">
+        <v>576</v>
+      </c>
+      <c r="D168" s="33" t="s">
+        <v>581</v>
+      </c>
+      <c r="E168" s="6"/>
+      <c r="F168" s="5"/>
       <c r="G168" s="5"/>
       <c r="H168" s="6" t="s">
-        <v>448</v>
+        <v>586</v>
       </c>
       <c r="I168" s="5"/>
       <c r="J168" s="5"/>
@@ -10522,29 +10607,23 @@
       <c r="Z168" s="3"/>
     </row>
     <row r="169" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A169" s="8" t="s">
-        <v>438</v>
-      </c>
-      <c r="B169" s="6" t="s">
-        <v>449</v>
-      </c>
-      <c r="C169" s="6" t="s">
-        <v>450</v>
-      </c>
-      <c r="D169" s="11" t="s">
-        <v>451</v>
-      </c>
-      <c r="E169" s="6" t="s">
-        <v>452</v>
-      </c>
-      <c r="F169" s="6" t="s">
-        <v>452</v>
-      </c>
+      <c r="A169" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="B169" s="6"/>
+      <c r="C169" s="29" t="s">
+        <v>566</v>
+      </c>
+      <c r="D169" s="28" t="s">
+        <v>567</v>
+      </c>
+      <c r="E169" s="6"/>
+      <c r="F169" s="5"/>
       <c r="G169" s="5"/>
-      <c r="H169" s="6" t="s">
-        <v>452</v>
-      </c>
-      <c r="I169" s="5"/>
+      <c r="H169" s="6"/>
+      <c r="I169" s="26" t="s">
+        <v>268</v>
+      </c>
       <c r="J169" s="5"/>
       <c r="K169" s="5"/>
       <c r="L169" s="5"/>
@@ -10564,27 +10643,23 @@
       <c r="Z169" s="3"/>
     </row>
     <row r="170" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A170" s="8" t="s">
-        <v>438</v>
-      </c>
-      <c r="B170" s="6" t="s">
-        <v>449</v>
-      </c>
+      <c r="A170" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="B170" s="5"/>
       <c r="C170" s="6" t="s">
-        <v>453</v>
+        <v>436</v>
       </c>
       <c r="D170" s="11" t="s">
-        <v>454</v>
+        <v>437</v>
       </c>
       <c r="E170" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F170" s="6" t="s">
-        <v>23</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="F170" s="5"/>
       <c r="G170" s="5"/>
       <c r="H170" s="6" t="s">
-        <v>23</v>
+        <v>291</v>
       </c>
       <c r="I170" s="5"/>
       <c r="J170" s="5"/>
@@ -10609,20 +10684,24 @@
       <c r="A171" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="B171" s="5"/>
+      <c r="B171" s="6" t="s">
+        <v>439</v>
+      </c>
       <c r="C171" s="6" t="s">
-        <v>455</v>
+        <v>440</v>
       </c>
       <c r="D171" s="11" t="s">
-        <v>456</v>
-      </c>
-      <c r="E171" s="5"/>
-      <c r="F171" s="5"/>
+        <v>441</v>
+      </c>
+      <c r="E171" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="F171" s="6" t="s">
+        <v>294</v>
+      </c>
       <c r="G171" s="5"/>
       <c r="H171" s="5"/>
-      <c r="I171" s="6" t="s">
-        <v>457</v>
-      </c>
+      <c r="I171" s="5"/>
       <c r="J171" s="5"/>
       <c r="K171" s="5"/>
       <c r="L171" s="5"/>
@@ -10643,24 +10722,26 @@
     </row>
     <row r="172" spans="1:26" ht="13.5" customHeight="1">
       <c r="A172" s="8" t="s">
-        <v>458</v>
-      </c>
-      <c r="B172" s="8" t="s">
-        <v>459</v>
-      </c>
-      <c r="C172" s="8" t="s">
-        <v>460</v>
+        <v>438</v>
+      </c>
+      <c r="B172" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="C172" s="6" t="s">
+        <v>443</v>
       </c>
       <c r="D172" s="11" t="s">
-        <v>461</v>
-      </c>
-      <c r="E172" s="5"/>
-      <c r="F172" s="5"/>
+        <v>444</v>
+      </c>
+      <c r="E172" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="F172" s="6" t="s">
+        <v>294</v>
+      </c>
       <c r="G172" s="5"/>
       <c r="H172" s="5"/>
-      <c r="I172" s="8" t="s">
-        <v>462</v>
-      </c>
+      <c r="I172" s="5"/>
       <c r="J172" s="5"/>
       <c r="K172" s="5"/>
       <c r="L172" s="5"/>
@@ -10681,24 +10762,24 @@
     </row>
     <row r="173" spans="1:26" ht="13.5" customHeight="1">
       <c r="A173" s="8" t="s">
-        <v>458</v>
-      </c>
-      <c r="B173" s="8" t="s">
-        <v>459</v>
-      </c>
-      <c r="C173" s="8" t="s">
-        <v>463</v>
+        <v>438</v>
+      </c>
+      <c r="B173" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="C173" s="6" t="s">
+        <v>446</v>
       </c>
       <c r="D173" s="11" t="s">
-        <v>464</v>
-      </c>
-      <c r="E173" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="F173" s="5"/>
+        <v>447</v>
+      </c>
+      <c r="E173" s="5"/>
+      <c r="F173" s="6" t="s">
+        <v>448</v>
+      </c>
       <c r="G173" s="5"/>
       <c r="H173" s="6" t="s">
-        <v>291</v>
+        <v>448</v>
       </c>
       <c r="I173" s="5"/>
       <c r="J173" s="5"/>
@@ -10721,24 +10802,28 @@
     </row>
     <row r="174" spans="1:26" ht="13.5" customHeight="1">
       <c r="A174" s="8" t="s">
-        <v>458</v>
-      </c>
-      <c r="B174" s="8" t="s">
-        <v>465</v>
-      </c>
-      <c r="C174" s="8" t="s">
-        <v>466</v>
-      </c>
-      <c r="D174" s="18" t="s">
-        <v>467</v>
-      </c>
-      <c r="E174" s="19"/>
-      <c r="F174" s="19"/>
-      <c r="G174" s="19"/>
-      <c r="H174" s="20"/>
-      <c r="I174" s="8" t="s">
-        <v>468</v>
-      </c>
+        <v>438</v>
+      </c>
+      <c r="B174" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="C174" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="D174" s="11" t="s">
+        <v>451</v>
+      </c>
+      <c r="E174" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="F174" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="G174" s="5"/>
+      <c r="H174" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="I174" s="5"/>
       <c r="J174" s="5"/>
       <c r="K174" s="5"/>
       <c r="L174" s="5"/>
@@ -10759,24 +10844,26 @@
     </row>
     <row r="175" spans="1:26" ht="13.5" customHeight="1">
       <c r="A175" s="8" t="s">
-        <v>458</v>
-      </c>
-      <c r="B175" s="8" t="s">
-        <v>465</v>
-      </c>
-      <c r="C175" s="8" t="s">
-        <v>469</v>
+        <v>438</v>
+      </c>
+      <c r="B175" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="C175" s="6" t="s">
+        <v>453</v>
       </c>
       <c r="D175" s="11" t="s">
-        <v>470</v>
+        <v>454</v>
       </c>
       <c r="E175" s="6" t="s">
-        <v>471</v>
-      </c>
-      <c r="F175" s="5"/>
+        <v>23</v>
+      </c>
+      <c r="F175" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G175" s="5"/>
       <c r="H175" s="6" t="s">
-        <v>471</v>
+        <v>23</v>
       </c>
       <c r="I175" s="5"/>
       <c r="J175" s="5"/>
@@ -10799,24 +10886,22 @@
     </row>
     <row r="176" spans="1:26" ht="13.5" customHeight="1">
       <c r="A176" s="8" t="s">
-        <v>458</v>
-      </c>
-      <c r="B176" s="8" t="s">
-        <v>472</v>
-      </c>
-      <c r="C176" s="8" t="s">
-        <v>473</v>
+        <v>438</v>
+      </c>
+      <c r="B176" s="5"/>
+      <c r="C176" s="6" t="s">
+        <v>455</v>
       </c>
       <c r="D176" s="11" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="E176" s="5"/>
-      <c r="F176" s="6" t="s">
-        <v>475</v>
-      </c>
+      <c r="F176" s="5"/>
       <c r="G176" s="5"/>
       <c r="H176" s="5"/>
-      <c r="I176" s="5"/>
+      <c r="I176" s="6" t="s">
+        <v>457</v>
+      </c>
       <c r="J176" s="5"/>
       <c r="K176" s="5"/>
       <c r="L176" s="5"/>
@@ -10840,21 +10925,21 @@
         <v>458</v>
       </c>
       <c r="B177" s="8" t="s">
-        <v>472</v>
+        <v>459</v>
       </c>
       <c r="C177" s="8" t="s">
-        <v>476</v>
+        <v>460</v>
       </c>
       <c r="D177" s="11" t="s">
-        <v>477</v>
+        <v>461</v>
       </c>
       <c r="E177" s="5"/>
-      <c r="F177" s="6" t="s">
-        <v>478</v>
-      </c>
+      <c r="F177" s="5"/>
       <c r="G177" s="5"/>
       <c r="H177" s="5"/>
-      <c r="I177" s="5"/>
+      <c r="I177" s="8" t="s">
+        <v>462</v>
+      </c>
       <c r="J177" s="5"/>
       <c r="K177" s="5"/>
       <c r="L177" s="5"/>
@@ -10878,20 +10963,22 @@
         <v>458</v>
       </c>
       <c r="B178" s="8" t="s">
-        <v>472</v>
+        <v>459</v>
       </c>
       <c r="C178" s="8" t="s">
-        <v>479</v>
+        <v>463</v>
       </c>
       <c r="D178" s="11" t="s">
-        <v>480</v>
-      </c>
-      <c r="E178" s="5"/>
-      <c r="F178" s="6" t="s">
-        <v>481</v>
-      </c>
+        <v>464</v>
+      </c>
+      <c r="E178" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="F178" s="5"/>
       <c r="G178" s="5"/>
-      <c r="H178" s="5"/>
+      <c r="H178" s="6" t="s">
+        <v>291</v>
+      </c>
       <c r="I178" s="5"/>
       <c r="J178" s="5"/>
       <c r="K178" s="5"/>
@@ -10916,21 +11003,21 @@
         <v>458</v>
       </c>
       <c r="B179" s="8" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="C179" s="8" t="s">
-        <v>482</v>
-      </c>
-      <c r="D179" s="11" t="s">
-        <v>483</v>
-      </c>
-      <c r="E179" s="5"/>
-      <c r="F179" s="6" t="s">
-        <v>484</v>
-      </c>
-      <c r="G179" s="5"/>
-      <c r="H179" s="5"/>
-      <c r="I179" s="5"/>
+        <v>466</v>
+      </c>
+      <c r="D179" s="18" t="s">
+        <v>467</v>
+      </c>
+      <c r="E179" s="19"/>
+      <c r="F179" s="19"/>
+      <c r="G179" s="19"/>
+      <c r="H179" s="20"/>
+      <c r="I179" s="8" t="s">
+        <v>468</v>
+      </c>
       <c r="J179" s="5"/>
       <c r="K179" s="5"/>
       <c r="L179" s="5"/>
@@ -10954,20 +11041,22 @@
         <v>458</v>
       </c>
       <c r="B180" s="8" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="C180" s="8" t="s">
-        <v>485</v>
+        <v>469</v>
       </c>
       <c r="D180" s="11" t="s">
-        <v>486</v>
-      </c>
-      <c r="E180" s="5"/>
-      <c r="F180" s="6" t="s">
-        <v>487</v>
-      </c>
+        <v>470</v>
+      </c>
+      <c r="E180" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="F180" s="5"/>
       <c r="G180" s="5"/>
-      <c r="H180" s="5"/>
+      <c r="H180" s="6" t="s">
+        <v>471</v>
+      </c>
       <c r="I180" s="5"/>
       <c r="J180" s="5"/>
       <c r="K180" s="5"/>
@@ -10995,14 +11084,14 @@
         <v>472</v>
       </c>
       <c r="C181" s="8" t="s">
-        <v>488</v>
+        <v>473</v>
       </c>
       <c r="D181" s="11" t="s">
-        <v>489</v>
+        <v>474</v>
       </c>
       <c r="E181" s="5"/>
       <c r="F181" s="6" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="G181" s="5"/>
       <c r="H181" s="5"/>
@@ -11033,14 +11122,14 @@
         <v>472</v>
       </c>
       <c r="C182" s="8" t="s">
-        <v>491</v>
+        <v>476</v>
       </c>
       <c r="D182" s="11" t="s">
-        <v>492</v>
+        <v>477</v>
       </c>
       <c r="E182" s="5"/>
       <c r="F182" s="6" t="s">
-        <v>493</v>
+        <v>478</v>
       </c>
       <c r="G182" s="5"/>
       <c r="H182" s="5"/>
@@ -11071,14 +11160,14 @@
         <v>472</v>
       </c>
       <c r="C183" s="8" t="s">
-        <v>494</v>
+        <v>479</v>
       </c>
       <c r="D183" s="11" t="s">
-        <v>495</v>
+        <v>480</v>
       </c>
       <c r="E183" s="5"/>
       <c r="F183" s="6" t="s">
-        <v>496</v>
+        <v>481</v>
       </c>
       <c r="G183" s="5"/>
       <c r="H183" s="5"/>
@@ -11109,14 +11198,14 @@
         <v>472</v>
       </c>
       <c r="C184" s="8" t="s">
-        <v>497</v>
+        <v>482</v>
       </c>
       <c r="D184" s="11" t="s">
-        <v>498</v>
+        <v>483</v>
       </c>
       <c r="E184" s="5"/>
       <c r="F184" s="6" t="s">
-        <v>499</v>
+        <v>484</v>
       </c>
       <c r="G184" s="5"/>
       <c r="H184" s="5"/>
@@ -11147,14 +11236,14 @@
         <v>472</v>
       </c>
       <c r="C185" s="8" t="s">
-        <v>500</v>
+        <v>485</v>
       </c>
       <c r="D185" s="11" t="s">
-        <v>501</v>
+        <v>486</v>
       </c>
       <c r="E185" s="5"/>
       <c r="F185" s="6" t="s">
-        <v>502</v>
+        <v>487</v>
       </c>
       <c r="G185" s="5"/>
       <c r="H185" s="5"/>
@@ -11185,14 +11274,14 @@
         <v>472</v>
       </c>
       <c r="C186" s="8" t="s">
-        <v>503</v>
+        <v>488</v>
       </c>
       <c r="D186" s="11" t="s">
-        <v>504</v>
+        <v>489</v>
       </c>
       <c r="E186" s="5"/>
       <c r="F186" s="6" t="s">
-        <v>505</v>
+        <v>490</v>
       </c>
       <c r="G186" s="5"/>
       <c r="H186" s="5"/>
@@ -11223,14 +11312,14 @@
         <v>472</v>
       </c>
       <c r="C187" s="8" t="s">
-        <v>506</v>
+        <v>491</v>
       </c>
       <c r="D187" s="11" t="s">
-        <v>507</v>
+        <v>492</v>
       </c>
       <c r="E187" s="5"/>
       <c r="F187" s="6" t="s">
-        <v>508</v>
+        <v>493</v>
       </c>
       <c r="G187" s="5"/>
       <c r="H187" s="5"/>
@@ -11261,14 +11350,14 @@
         <v>472</v>
       </c>
       <c r="C188" s="8" t="s">
-        <v>509</v>
+        <v>494</v>
       </c>
       <c r="D188" s="11" t="s">
-        <v>510</v>
+        <v>495</v>
       </c>
       <c r="E188" s="5"/>
       <c r="F188" s="6" t="s">
-        <v>511</v>
+        <v>496</v>
       </c>
       <c r="G188" s="5"/>
       <c r="H188" s="5"/>
@@ -11296,20 +11385,20 @@
         <v>458</v>
       </c>
       <c r="B189" s="8" t="s">
-        <v>512</v>
+        <v>472</v>
       </c>
       <c r="C189" s="8" t="s">
-        <v>513</v>
+        <v>497</v>
       </c>
       <c r="D189" s="11" t="s">
-        <v>514</v>
+        <v>498</v>
       </c>
       <c r="E189" s="5"/>
-      <c r="F189" s="5"/>
+      <c r="F189" s="6" t="s">
+        <v>499</v>
+      </c>
       <c r="G189" s="5"/>
-      <c r="H189" s="5" t="s">
-        <v>515</v>
-      </c>
+      <c r="H189" s="5"/>
       <c r="I189" s="5"/>
       <c r="J189" s="5"/>
       <c r="K189" s="5"/>
@@ -11334,20 +11423,20 @@
         <v>458</v>
       </c>
       <c r="B190" s="8" t="s">
-        <v>516</v>
+        <v>472</v>
       </c>
       <c r="C190" s="8" t="s">
-        <v>517</v>
+        <v>500</v>
       </c>
       <c r="D190" s="11" t="s">
-        <v>518</v>
+        <v>501</v>
       </c>
       <c r="E190" s="5"/>
-      <c r="F190" s="5"/>
+      <c r="F190" s="6" t="s">
+        <v>502</v>
+      </c>
       <c r="G190" s="5"/>
-      <c r="H190" s="5" t="s">
-        <v>519</v>
-      </c>
+      <c r="H190" s="5"/>
       <c r="I190" s="5"/>
       <c r="J190" s="5"/>
       <c r="K190" s="5"/>
@@ -11372,20 +11461,20 @@
         <v>458</v>
       </c>
       <c r="B191" s="8" t="s">
-        <v>516</v>
+        <v>472</v>
       </c>
       <c r="C191" s="8" t="s">
-        <v>520</v>
+        <v>503</v>
       </c>
       <c r="D191" s="11" t="s">
-        <v>521</v>
+        <v>504</v>
       </c>
       <c r="E191" s="5"/>
-      <c r="F191" s="5"/>
+      <c r="F191" s="6" t="s">
+        <v>505</v>
+      </c>
       <c r="G191" s="5"/>
-      <c r="H191" s="5" t="s">
-        <v>522</v>
-      </c>
+      <c r="H191" s="5"/>
       <c r="I191" s="5"/>
       <c r="J191" s="5"/>
       <c r="K191" s="5"/>
@@ -11410,21 +11499,21 @@
         <v>458</v>
       </c>
       <c r="B192" s="8" t="s">
-        <v>516</v>
+        <v>472</v>
       </c>
       <c r="C192" s="8" t="s">
-        <v>523</v>
+        <v>506</v>
       </c>
       <c r="D192" s="11" t="s">
-        <v>524</v>
+        <v>507</v>
       </c>
       <c r="E192" s="5"/>
-      <c r="F192" s="5"/>
+      <c r="F192" s="6" t="s">
+        <v>508</v>
+      </c>
       <c r="G192" s="5"/>
       <c r="H192" s="5"/>
-      <c r="I192" s="6" t="s">
-        <v>525</v>
-      </c>
+      <c r="I192" s="5"/>
       <c r="J192" s="5"/>
       <c r="K192" s="5"/>
       <c r="L192" s="5"/>
@@ -11445,22 +11534,24 @@
     </row>
     <row r="193" spans="1:26" ht="13.5" customHeight="1">
       <c r="A193" s="8" t="s">
-        <v>526</v>
-      </c>
-      <c r="B193" s="5"/>
+        <v>458</v>
+      </c>
+      <c r="B193" s="8" t="s">
+        <v>472</v>
+      </c>
       <c r="C193" s="8" t="s">
-        <v>527</v>
+        <v>509</v>
       </c>
       <c r="D193" s="11" t="s">
-        <v>528</v>
+        <v>510</v>
       </c>
       <c r="E193" s="5"/>
-      <c r="F193" s="5"/>
+      <c r="F193" s="6" t="s">
+        <v>511</v>
+      </c>
       <c r="G193" s="5"/>
       <c r="H193" s="5"/>
-      <c r="I193" s="6" t="s">
-        <v>529</v>
-      </c>
+      <c r="I193" s="5"/>
       <c r="J193" s="5"/>
       <c r="K193" s="5"/>
       <c r="L193" s="5"/>
@@ -11481,23 +11572,23 @@
     </row>
     <row r="194" spans="1:26" ht="13.5" customHeight="1">
       <c r="A194" s="8" t="s">
-        <v>526</v>
-      </c>
-      <c r="B194" s="5"/>
+        <v>458</v>
+      </c>
+      <c r="B194" s="8" t="s">
+        <v>512</v>
+      </c>
       <c r="C194" s="8" t="s">
-        <v>530</v>
+        <v>513</v>
       </c>
       <c r="D194" s="11" t="s">
-        <v>531</v>
-      </c>
-      <c r="E194" s="5" t="s">
-        <v>532</v>
-      </c>
-      <c r="F194" s="5" t="s">
-        <v>532</v>
-      </c>
+        <v>514</v>
+      </c>
+      <c r="E194" s="5"/>
+      <c r="F194" s="5"/>
       <c r="G194" s="5"/>
-      <c r="H194" s="5"/>
+      <c r="H194" s="5" t="s">
+        <v>515</v>
+      </c>
       <c r="I194" s="5"/>
       <c r="J194" s="5"/>
       <c r="K194" s="5"/>
@@ -11518,23 +11609,25 @@
       <c r="Z194" s="3"/>
     </row>
     <row r="195" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A195" s="6" t="s">
-        <v>533</v>
-      </c>
-      <c r="B195" s="5"/>
-      <c r="C195" s="6" t="s">
-        <v>534</v>
+      <c r="A195" s="8" t="s">
+        <v>458</v>
+      </c>
+      <c r="B195" s="8" t="s">
+        <v>516</v>
+      </c>
+      <c r="C195" s="8" t="s">
+        <v>517</v>
       </c>
       <c r="D195" s="11" t="s">
-        <v>535</v>
+        <v>518</v>
       </c>
       <c r="E195" s="5"/>
       <c r="F195" s="5"/>
       <c r="G195" s="5"/>
-      <c r="H195" s="5"/>
-      <c r="I195" s="6" t="s">
-        <v>536</v>
-      </c>
+      <c r="H195" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="I195" s="5"/>
       <c r="J195" s="5"/>
       <c r="K195" s="5"/>
       <c r="L195" s="5"/>
@@ -11554,23 +11647,25 @@
       <c r="Z195" s="3"/>
     </row>
     <row r="196" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A196" s="6" t="s">
-        <v>533</v>
-      </c>
-      <c r="B196" s="5"/>
+      <c r="A196" s="8" t="s">
+        <v>458</v>
+      </c>
+      <c r="B196" s="8" t="s">
+        <v>516</v>
+      </c>
       <c r="C196" s="8" t="s">
-        <v>537</v>
+        <v>520</v>
       </c>
       <c r="D196" s="11" t="s">
-        <v>538</v>
+        <v>521</v>
       </c>
       <c r="E196" s="5"/>
       <c r="F196" s="5"/>
       <c r="G196" s="5"/>
-      <c r="H196" s="5"/>
-      <c r="I196" s="8" t="s">
-        <v>539</v>
-      </c>
+      <c r="H196" s="5" t="s">
+        <v>522</v>
+      </c>
+      <c r="I196" s="5"/>
       <c r="J196" s="5"/>
       <c r="K196" s="5"/>
       <c r="L196" s="5"/>
@@ -11590,22 +11685,24 @@
       <c r="Z196" s="3"/>
     </row>
     <row r="197" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A197" s="6" t="s">
-        <v>533</v>
-      </c>
-      <c r="B197" s="5"/>
+      <c r="A197" s="8" t="s">
+        <v>458</v>
+      </c>
+      <c r="B197" s="8" t="s">
+        <v>516</v>
+      </c>
       <c r="C197" s="8" t="s">
-        <v>540</v>
+        <v>523</v>
       </c>
       <c r="D197" s="11" t="s">
-        <v>541</v>
+        <v>524</v>
       </c>
       <c r="E197" s="5"/>
       <c r="F197" s="5"/>
       <c r="G197" s="5"/>
       <c r="H197" s="5"/>
       <c r="I197" s="6" t="s">
-        <v>542</v>
+        <v>525</v>
       </c>
       <c r="J197" s="5"/>
       <c r="K197" s="5"/>
@@ -11626,22 +11723,22 @@
       <c r="Z197" s="3"/>
     </row>
     <row r="198" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A198" s="6" t="s">
-        <v>533</v>
+      <c r="A198" s="8" t="s">
+        <v>526</v>
       </c>
       <c r="B198" s="5"/>
-      <c r="C198" s="6" t="s">
-        <v>543</v>
+      <c r="C198" s="8" t="s">
+        <v>527</v>
       </c>
       <c r="D198" s="11" t="s">
-        <v>544</v>
+        <v>528</v>
       </c>
       <c r="E198" s="5"/>
       <c r="F198" s="5"/>
       <c r="G198" s="5"/>
       <c r="H198" s="5"/>
       <c r="I198" s="6" t="s">
-        <v>545</v>
+        <v>529</v>
       </c>
       <c r="J198" s="5"/>
       <c r="K198" s="5"/>
@@ -11662,20 +11759,22 @@
       <c r="Z198" s="3"/>
     </row>
     <row r="199" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A199" s="6" t="s">
-        <v>533</v>
+      <c r="A199" s="8" t="s">
+        <v>526</v>
       </c>
       <c r="B199" s="5"/>
-      <c r="C199" s="6" t="s">
-        <v>546</v>
+      <c r="C199" s="8" t="s">
+        <v>530</v>
       </c>
       <c r="D199" s="11" t="s">
-        <v>547</v>
-      </c>
-      <c r="E199" s="6" t="s">
-        <v>548</v>
-      </c>
-      <c r="F199" s="5"/>
+        <v>531</v>
+      </c>
+      <c r="E199" s="5" t="s">
+        <v>532</v>
+      </c>
+      <c r="F199" s="5" t="s">
+        <v>532</v>
+      </c>
       <c r="G199" s="5"/>
       <c r="H199" s="5"/>
       <c r="I199" s="5"/>
@@ -11698,22 +11797,22 @@
       <c r="Z199" s="3"/>
     </row>
     <row r="200" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A200" s="8" t="s">
-        <v>549</v>
+      <c r="A200" s="6" t="s">
+        <v>533</v>
       </c>
       <c r="B200" s="5"/>
-      <c r="C200" s="30" t="s">
-        <v>568</v>
-      </c>
-      <c r="D200" s="31" t="s">
-        <v>570</v>
-      </c>
-      <c r="E200" s="6"/>
+      <c r="C200" s="6" t="s">
+        <v>534</v>
+      </c>
+      <c r="D200" s="11" t="s">
+        <v>535</v>
+      </c>
+      <c r="E200" s="5"/>
       <c r="F200" s="5"/>
       <c r="G200" s="5"/>
       <c r="H200" s="5"/>
-      <c r="I200" s="5" t="s">
-        <v>569</v>
+      <c r="I200" s="6" t="s">
+        <v>536</v>
       </c>
       <c r="J200" s="5"/>
       <c r="K200" s="5"/>
@@ -11734,22 +11833,22 @@
       <c r="Z200" s="3"/>
     </row>
     <row r="201" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A201" s="8" t="s">
-        <v>549</v>
-      </c>
-      <c r="B201" s="4"/>
-      <c r="C201" s="21" t="s">
-        <v>550</v>
-      </c>
-      <c r="D201" s="22" t="s">
-        <v>551</v>
-      </c>
-      <c r="E201" s="4"/>
+      <c r="A201" s="6" t="s">
+        <v>533</v>
+      </c>
+      <c r="B201" s="5"/>
+      <c r="C201" s="8" t="s">
+        <v>537</v>
+      </c>
+      <c r="D201" s="11" t="s">
+        <v>538</v>
+      </c>
+      <c r="E201" s="5"/>
       <c r="F201" s="5"/>
       <c r="G201" s="5"/>
-      <c r="H201" s="4"/>
-      <c r="I201" s="6" t="s">
-        <v>552</v>
+      <c r="H201" s="5"/>
+      <c r="I201" s="8" t="s">
+        <v>539</v>
       </c>
       <c r="J201" s="5"/>
       <c r="K201" s="5"/>
@@ -11770,22 +11869,22 @@
       <c r="Z201" s="3"/>
     </row>
     <row r="202" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A202" s="8" t="s">
-        <v>549</v>
-      </c>
-      <c r="B202" s="4"/>
+      <c r="A202" s="6" t="s">
+        <v>533</v>
+      </c>
+      <c r="B202" s="5"/>
       <c r="C202" s="8" t="s">
-        <v>553</v>
-      </c>
-      <c r="D202" s="9" t="s">
-        <v>554</v>
-      </c>
-      <c r="E202" s="4"/>
+        <v>540</v>
+      </c>
+      <c r="D202" s="11" t="s">
+        <v>541</v>
+      </c>
+      <c r="E202" s="5"/>
       <c r="F202" s="5"/>
       <c r="G202" s="5"/>
-      <c r="H202" s="4"/>
+      <c r="H202" s="5"/>
       <c r="I202" s="6" t="s">
-        <v>555</v>
+        <v>542</v>
       </c>
       <c r="J202" s="5"/>
       <c r="K202" s="5"/>
@@ -11806,22 +11905,22 @@
       <c r="Z202" s="3"/>
     </row>
     <row r="203" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A203" s="8" t="s">
-        <v>549</v>
-      </c>
-      <c r="B203" s="4"/>
-      <c r="C203" s="8" t="s">
-        <v>556</v>
-      </c>
-      <c r="D203" s="9" t="s">
-        <v>557</v>
-      </c>
-      <c r="E203" s="4"/>
+      <c r="A203" s="6" t="s">
+        <v>533</v>
+      </c>
+      <c r="B203" s="5"/>
+      <c r="C203" s="6" t="s">
+        <v>543</v>
+      </c>
+      <c r="D203" s="11" t="s">
+        <v>544</v>
+      </c>
+      <c r="E203" s="5"/>
       <c r="F203" s="5"/>
       <c r="G203" s="5"/>
-      <c r="H203" s="4"/>
+      <c r="H203" s="5"/>
       <c r="I203" s="6" t="s">
-        <v>558</v>
+        <v>545</v>
       </c>
       <c r="J203" s="5"/>
       <c r="K203" s="5"/>
@@ -11842,23 +11941,23 @@
       <c r="Z203" s="3"/>
     </row>
     <row r="204" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A204" s="8" t="s">
-        <v>559</v>
+      <c r="A204" s="6" t="s">
+        <v>533</v>
       </c>
       <c r="B204" s="5"/>
       <c r="C204" s="6" t="s">
-        <v>560</v>
+        <v>546</v>
       </c>
       <c r="D204" s="11" t="s">
-        <v>561</v>
-      </c>
-      <c r="E204" s="5"/>
+        <v>547</v>
+      </c>
+      <c r="E204" s="6" t="s">
+        <v>548</v>
+      </c>
       <c r="F204" s="5"/>
       <c r="G204" s="5"/>
       <c r="H204" s="5"/>
-      <c r="I204" s="6" t="s">
-        <v>562</v>
-      </c>
+      <c r="I204" s="5"/>
       <c r="J204" s="5"/>
       <c r="K204" s="5"/>
       <c r="L204" s="5"/>
@@ -11879,21 +11978,21 @@
     </row>
     <row r="205" spans="1:26" ht="13.5" customHeight="1">
       <c r="A205" s="8" t="s">
-        <v>559</v>
+        <v>549</v>
       </c>
       <c r="B205" s="5"/>
-      <c r="C205" s="6" t="s">
-        <v>563</v>
-      </c>
-      <c r="D205" s="11" t="s">
-        <v>564</v>
-      </c>
-      <c r="E205" s="5"/>
+      <c r="C205" s="30" t="s">
+        <v>568</v>
+      </c>
+      <c r="D205" s="31" t="s">
+        <v>570</v>
+      </c>
+      <c r="E205" s="6"/>
       <c r="F205" s="5"/>
       <c r="G205" s="5"/>
       <c r="H205" s="5"/>
-      <c r="I205" s="6" t="s">
-        <v>565</v>
+      <c r="I205" s="5" t="s">
+        <v>569</v>
       </c>
       <c r="J205" s="5"/>
       <c r="K205" s="5"/>
@@ -11914,15 +12013,23 @@
       <c r="Z205" s="3"/>
     </row>
     <row r="206" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A206" s="23"/>
-      <c r="B206" s="5"/>
-      <c r="C206" s="23"/>
-      <c r="D206" s="24"/>
-      <c r="E206" s="5"/>
+      <c r="A206" s="8" t="s">
+        <v>549</v>
+      </c>
+      <c r="B206" s="4"/>
+      <c r="C206" s="21" t="s">
+        <v>550</v>
+      </c>
+      <c r="D206" s="22" t="s">
+        <v>551</v>
+      </c>
+      <c r="E206" s="4"/>
       <c r="F206" s="5"/>
       <c r="G206" s="5"/>
-      <c r="H206" s="5"/>
-      <c r="I206" s="26"/>
+      <c r="H206" s="4"/>
+      <c r="I206" s="6" t="s">
+        <v>552</v>
+      </c>
       <c r="J206" s="5"/>
       <c r="K206" s="5"/>
       <c r="L206" s="5"/>
@@ -11942,15 +12049,23 @@
       <c r="Z206" s="3"/>
     </row>
     <row r="207" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A207" s="23"/>
-      <c r="B207" s="5"/>
-      <c r="C207" s="23"/>
-      <c r="D207" s="28"/>
-      <c r="E207" s="5"/>
+      <c r="A207" s="8" t="s">
+        <v>549</v>
+      </c>
+      <c r="B207" s="4"/>
+      <c r="C207" s="8" t="s">
+        <v>553</v>
+      </c>
+      <c r="D207" s="9" t="s">
+        <v>554</v>
+      </c>
+      <c r="E207" s="4"/>
       <c r="F207" s="5"/>
       <c r="G207" s="5"/>
-      <c r="H207" s="5"/>
-      <c r="I207" s="26"/>
+      <c r="H207" s="4"/>
+      <c r="I207" s="6" t="s">
+        <v>555</v>
+      </c>
       <c r="J207" s="5"/>
       <c r="K207" s="5"/>
       <c r="L207" s="5"/>
@@ -11970,15 +12085,23 @@
       <c r="Z207" s="3"/>
     </row>
     <row r="208" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A208" s="23"/>
-      <c r="B208" s="5"/>
-      <c r="C208" s="25"/>
-      <c r="D208" s="24"/>
-      <c r="E208" s="5"/>
+      <c r="A208" s="8" t="s">
+        <v>549</v>
+      </c>
+      <c r="B208" s="4"/>
+      <c r="C208" s="8" t="s">
+        <v>556</v>
+      </c>
+      <c r="D208" s="9" t="s">
+        <v>557</v>
+      </c>
+      <c r="E208" s="4"/>
       <c r="F208" s="5"/>
       <c r="G208" s="5"/>
-      <c r="H208" s="5"/>
-      <c r="I208" s="26"/>
+      <c r="H208" s="4"/>
+      <c r="I208" s="6" t="s">
+        <v>558</v>
+      </c>
       <c r="J208" s="5"/>
       <c r="K208" s="5"/>
       <c r="L208" s="5"/>
@@ -11998,15 +12121,23 @@
       <c r="Z208" s="3"/>
     </row>
     <row r="209" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A209" s="23"/>
+      <c r="A209" s="8" t="s">
+        <v>559</v>
+      </c>
       <c r="B209" s="5"/>
-      <c r="C209" s="25"/>
-      <c r="D209" s="24"/>
+      <c r="C209" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="D209" s="11" t="s">
+        <v>561</v>
+      </c>
       <c r="E209" s="5"/>
       <c r="F209" s="5"/>
       <c r="G209" s="5"/>
       <c r="H209" s="5"/>
-      <c r="I209" s="27"/>
+      <c r="I209" s="6" t="s">
+        <v>562</v>
+      </c>
       <c r="J209" s="5"/>
       <c r="K209" s="5"/>
       <c r="L209" s="5"/>
@@ -12026,15 +12157,23 @@
       <c r="Z209" s="3"/>
     </row>
     <row r="210" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A210" s="23"/>
+      <c r="A210" s="8" t="s">
+        <v>559</v>
+      </c>
       <c r="B210" s="5"/>
-      <c r="C210" s="25"/>
-      <c r="D210" s="24"/>
+      <c r="C210" s="6" t="s">
+        <v>563</v>
+      </c>
+      <c r="D210" s="11" t="s">
+        <v>564</v>
+      </c>
       <c r="E210" s="5"/>
       <c r="F210" s="5"/>
       <c r="G210" s="5"/>
       <c r="H210" s="5"/>
-      <c r="I210" s="26"/>
+      <c r="I210" s="6" t="s">
+        <v>565</v>
+      </c>
       <c r="J210" s="5"/>
       <c r="K210" s="5"/>
       <c r="L210" s="5"/>
@@ -12056,7 +12195,7 @@
     <row r="211" spans="1:26" ht="13.5" customHeight="1">
       <c r="A211" s="23"/>
       <c r="B211" s="5"/>
-      <c r="C211" s="25"/>
+      <c r="C211" s="23"/>
       <c r="D211" s="24"/>
       <c r="E211" s="5"/>
       <c r="F211" s="5"/>
@@ -12084,8 +12223,8 @@
     <row r="212" spans="1:26" ht="13.5" customHeight="1">
       <c r="A212" s="23"/>
       <c r="B212" s="5"/>
-      <c r="C212" s="25"/>
-      <c r="D212" s="24"/>
+      <c r="C212" s="23"/>
+      <c r="D212" s="28"/>
       <c r="E212" s="5"/>
       <c r="F212" s="5"/>
       <c r="G212" s="5"/>
@@ -12110,15 +12249,15 @@
       <c r="Z212" s="3"/>
     </row>
     <row r="213" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A213" s="5"/>
+      <c r="A213" s="23"/>
       <c r="B213" s="5"/>
-      <c r="C213" s="5"/>
-      <c r="D213" s="5"/>
+      <c r="C213" s="25"/>
+      <c r="D213" s="24"/>
       <c r="E213" s="5"/>
       <c r="F213" s="5"/>
       <c r="G213" s="5"/>
       <c r="H213" s="5"/>
-      <c r="I213" s="5"/>
+      <c r="I213" s="26"/>
       <c r="J213" s="5"/>
       <c r="K213" s="5"/>
       <c r="L213" s="5"/>
@@ -12138,15 +12277,15 @@
       <c r="Z213" s="3"/>
     </row>
     <row r="214" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A214" s="5"/>
+      <c r="A214" s="23"/>
       <c r="B214" s="5"/>
-      <c r="C214" s="5"/>
-      <c r="D214" s="5"/>
+      <c r="C214" s="25"/>
+      <c r="D214" s="24"/>
       <c r="E214" s="5"/>
       <c r="F214" s="5"/>
       <c r="G214" s="5"/>
       <c r="H214" s="5"/>
-      <c r="I214" s="5"/>
+      <c r="I214" s="27"/>
       <c r="J214" s="5"/>
       <c r="K214" s="5"/>
       <c r="L214" s="5"/>
@@ -12166,15 +12305,15 @@
       <c r="Z214" s="3"/>
     </row>
     <row r="215" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A215" s="5"/>
+      <c r="A215" s="23"/>
       <c r="B215" s="5"/>
-      <c r="C215" s="5"/>
-      <c r="D215" s="5"/>
+      <c r="C215" s="25"/>
+      <c r="D215" s="24"/>
       <c r="E215" s="5"/>
       <c r="F215" s="5"/>
       <c r="G215" s="5"/>
       <c r="H215" s="5"/>
-      <c r="I215" s="5"/>
+      <c r="I215" s="26"/>
       <c r="J215" s="5"/>
       <c r="K215" s="5"/>
       <c r="L215" s="5"/>
@@ -12194,15 +12333,15 @@
       <c r="Z215" s="3"/>
     </row>
     <row r="216" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A216" s="5"/>
+      <c r="A216" s="23"/>
       <c r="B216" s="5"/>
-      <c r="C216" s="5"/>
-      <c r="D216" s="5"/>
+      <c r="C216" s="25"/>
+      <c r="D216" s="24"/>
       <c r="E216" s="5"/>
       <c r="F216" s="5"/>
       <c r="G216" s="5"/>
       <c r="H216" s="5"/>
-      <c r="I216" s="5"/>
+      <c r="I216" s="26"/>
       <c r="J216" s="5"/>
       <c r="K216" s="5"/>
       <c r="L216" s="5"/>
@@ -12222,15 +12361,15 @@
       <c r="Z216" s="3"/>
     </row>
     <row r="217" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A217" s="5"/>
+      <c r="A217" s="23"/>
       <c r="B217" s="5"/>
-      <c r="C217" s="5"/>
-      <c r="D217" s="5"/>
+      <c r="C217" s="25"/>
+      <c r="D217" s="24"/>
       <c r="E217" s="5"/>
       <c r="F217" s="5"/>
       <c r="G217" s="5"/>
       <c r="H217" s="5"/>
-      <c r="I217" s="5"/>
+      <c r="I217" s="26"/>
       <c r="J217" s="5"/>
       <c r="K217" s="5"/>
       <c r="L217" s="5"/>
@@ -17541,11 +17680,146 @@
       <c r="Y406" s="3"/>
       <c r="Z406" s="3"/>
     </row>
-    <row r="407" spans="1:26" ht="15.75" customHeight="1"/>
-    <row r="408" spans="1:26" ht="15.75" customHeight="1"/>
-    <row r="409" spans="1:26" ht="15.75" customHeight="1"/>
-    <row r="410" spans="1:26" ht="15.75" customHeight="1"/>
-    <row r="411" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="407" spans="1:26" ht="13.5" customHeight="1">
+      <c r="A407" s="5"/>
+      <c r="B407" s="5"/>
+      <c r="C407" s="5"/>
+      <c r="D407" s="5"/>
+      <c r="E407" s="5"/>
+      <c r="F407" s="5"/>
+      <c r="G407" s="5"/>
+      <c r="H407" s="5"/>
+      <c r="I407" s="5"/>
+      <c r="J407" s="5"/>
+      <c r="K407" s="5"/>
+      <c r="L407" s="5"/>
+      <c r="M407" s="6"/>
+      <c r="N407" s="3"/>
+      <c r="O407" s="3"/>
+      <c r="P407" s="3"/>
+      <c r="Q407" s="3"/>
+      <c r="R407" s="3"/>
+      <c r="S407" s="3"/>
+      <c r="T407" s="3"/>
+      <c r="U407" s="3"/>
+      <c r="V407" s="3"/>
+      <c r="W407" s="3"/>
+      <c r="X407" s="3"/>
+      <c r="Y407" s="3"/>
+      <c r="Z407" s="3"/>
+    </row>
+    <row r="408" spans="1:26" ht="13.5" customHeight="1">
+      <c r="A408" s="5"/>
+      <c r="B408" s="5"/>
+      <c r="C408" s="5"/>
+      <c r="D408" s="5"/>
+      <c r="E408" s="5"/>
+      <c r="F408" s="5"/>
+      <c r="G408" s="5"/>
+      <c r="H408" s="5"/>
+      <c r="I408" s="5"/>
+      <c r="J408" s="5"/>
+      <c r="K408" s="5"/>
+      <c r="L408" s="5"/>
+      <c r="M408" s="6"/>
+      <c r="N408" s="3"/>
+      <c r="O408" s="3"/>
+      <c r="P408" s="3"/>
+      <c r="Q408" s="3"/>
+      <c r="R408" s="3"/>
+      <c r="S408" s="3"/>
+      <c r="T408" s="3"/>
+      <c r="U408" s="3"/>
+      <c r="V408" s="3"/>
+      <c r="W408" s="3"/>
+      <c r="X408" s="3"/>
+      <c r="Y408" s="3"/>
+      <c r="Z408" s="3"/>
+    </row>
+    <row r="409" spans="1:26" ht="13.5" customHeight="1">
+      <c r="A409" s="5"/>
+      <c r="B409" s="5"/>
+      <c r="C409" s="5"/>
+      <c r="D409" s="5"/>
+      <c r="E409" s="5"/>
+      <c r="F409" s="5"/>
+      <c r="G409" s="5"/>
+      <c r="H409" s="5"/>
+      <c r="I409" s="5"/>
+      <c r="J409" s="5"/>
+      <c r="K409" s="5"/>
+      <c r="L409" s="5"/>
+      <c r="M409" s="6"/>
+      <c r="N409" s="3"/>
+      <c r="O409" s="3"/>
+      <c r="P409" s="3"/>
+      <c r="Q409" s="3"/>
+      <c r="R409" s="3"/>
+      <c r="S409" s="3"/>
+      <c r="T409" s="3"/>
+      <c r="U409" s="3"/>
+      <c r="V409" s="3"/>
+      <c r="W409" s="3"/>
+      <c r="X409" s="3"/>
+      <c r="Y409" s="3"/>
+      <c r="Z409" s="3"/>
+    </row>
+    <row r="410" spans="1:26" ht="13.5" customHeight="1">
+      <c r="A410" s="5"/>
+      <c r="B410" s="5"/>
+      <c r="C410" s="5"/>
+      <c r="D410" s="5"/>
+      <c r="E410" s="5"/>
+      <c r="F410" s="5"/>
+      <c r="G410" s="5"/>
+      <c r="H410" s="5"/>
+      <c r="I410" s="5"/>
+      <c r="J410" s="5"/>
+      <c r="K410" s="5"/>
+      <c r="L410" s="5"/>
+      <c r="M410" s="6"/>
+      <c r="N410" s="3"/>
+      <c r="O410" s="3"/>
+      <c r="P410" s="3"/>
+      <c r="Q410" s="3"/>
+      <c r="R410" s="3"/>
+      <c r="S410" s="3"/>
+      <c r="T410" s="3"/>
+      <c r="U410" s="3"/>
+      <c r="V410" s="3"/>
+      <c r="W410" s="3"/>
+      <c r="X410" s="3"/>
+      <c r="Y410" s="3"/>
+      <c r="Z410" s="3"/>
+    </row>
+    <row r="411" spans="1:26" ht="13.5" customHeight="1">
+      <c r="A411" s="5"/>
+      <c r="B411" s="5"/>
+      <c r="C411" s="5"/>
+      <c r="D411" s="5"/>
+      <c r="E411" s="5"/>
+      <c r="F411" s="5"/>
+      <c r="G411" s="5"/>
+      <c r="H411" s="5"/>
+      <c r="I411" s="5"/>
+      <c r="J411" s="5"/>
+      <c r="K411" s="5"/>
+      <c r="L411" s="5"/>
+      <c r="M411" s="6"/>
+      <c r="N411" s="3"/>
+      <c r="O411" s="3"/>
+      <c r="P411" s="3"/>
+      <c r="Q411" s="3"/>
+      <c r="R411" s="3"/>
+      <c r="S411" s="3"/>
+      <c r="T411" s="3"/>
+      <c r="U411" s="3"/>
+      <c r="V411" s="3"/>
+      <c r="W411" s="3"/>
+      <c r="X411" s="3"/>
+      <c r="Y411" s="3"/>
+      <c r="Z411" s="3"/>
+    </row>
     <row r="412" spans="1:26" ht="15.75" customHeight="1"/>
     <row r="413" spans="1:26" ht="15.75" customHeight="1"/>
     <row r="414" spans="1:26" ht="15.75" customHeight="1"/>
@@ -18138,6 +18412,11 @@
     <row r="1001" ht="15.75" customHeight="1"/>
     <row r="1002" ht="15.75" customHeight="1"/>
     <row r="1003" ht="15.75" customHeight="1"/>
+    <row r="1004" ht="15.75" customHeight="1"/>
+    <row r="1005" ht="15.75" customHeight="1"/>
+    <row r="1006" ht="15.75" customHeight="1"/>
+    <row r="1007" ht="15.75" customHeight="1"/>
+    <row r="1008" ht="15.75" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="13"/>
   <hyperlinks>
@@ -18298,48 +18577,52 @@
     <hyperlink ref="D161" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
     <hyperlink ref="D162" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
     <hyperlink ref="D163" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
-    <hyperlink ref="D165" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
-    <hyperlink ref="D166" r:id="rId159" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
-    <hyperlink ref="D167" r:id="rId160" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
-    <hyperlink ref="D168" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
-    <hyperlink ref="D169" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
-    <hyperlink ref="D170" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
-    <hyperlink ref="D171" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
-    <hyperlink ref="D172" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
-    <hyperlink ref="D173" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
-    <hyperlink ref="D174" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
-    <hyperlink ref="D175" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
-    <hyperlink ref="D176" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
-    <hyperlink ref="D177" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
-    <hyperlink ref="D178" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
-    <hyperlink ref="D179" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
-    <hyperlink ref="D180" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
-    <hyperlink ref="D181" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
-    <hyperlink ref="D182" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
-    <hyperlink ref="D183" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
-    <hyperlink ref="D184" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
-    <hyperlink ref="D185" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
-    <hyperlink ref="D186" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
-    <hyperlink ref="D187" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
-    <hyperlink ref="D188" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
-    <hyperlink ref="D189" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
-    <hyperlink ref="D190" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
-    <hyperlink ref="D191" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
-    <hyperlink ref="D192" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
-    <hyperlink ref="D193" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
-    <hyperlink ref="D194" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
-    <hyperlink ref="D195" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
-    <hyperlink ref="D196" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
-    <hyperlink ref="D197" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
-    <hyperlink ref="D198" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
-    <hyperlink ref="D199" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
-    <hyperlink ref="D201" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
-    <hyperlink ref="D202" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
-    <hyperlink ref="D203" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
-    <hyperlink ref="D204" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
-    <hyperlink ref="D205" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
-    <hyperlink ref="D164" r:id="rId198" xr:uid="{0E1E66AB-E725-4DC2-A9E7-89AB9F93D44F}"/>
-    <hyperlink ref="D200" r:id="rId199" xr:uid="{FB5BD734-C92C-4DCB-AC83-E67BDA12DFF4}"/>
+    <hyperlink ref="D170" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
+    <hyperlink ref="D171" r:id="rId159" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
+    <hyperlink ref="D172" r:id="rId160" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
+    <hyperlink ref="D173" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
+    <hyperlink ref="D174" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
+    <hyperlink ref="D175" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
+    <hyperlink ref="D176" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
+    <hyperlink ref="D177" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
+    <hyperlink ref="D178" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
+    <hyperlink ref="D179" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
+    <hyperlink ref="D180" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
+    <hyperlink ref="D181" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
+    <hyperlink ref="D182" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
+    <hyperlink ref="D183" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
+    <hyperlink ref="D184" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
+    <hyperlink ref="D185" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
+    <hyperlink ref="D186" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
+    <hyperlink ref="D187" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
+    <hyperlink ref="D188" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
+    <hyperlink ref="D189" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
+    <hyperlink ref="D190" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
+    <hyperlink ref="D191" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
+    <hyperlink ref="D192" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
+    <hyperlink ref="D193" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
+    <hyperlink ref="D194" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
+    <hyperlink ref="D195" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
+    <hyperlink ref="D196" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
+    <hyperlink ref="D197" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
+    <hyperlink ref="D198" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
+    <hyperlink ref="D199" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
+    <hyperlink ref="D200" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
+    <hyperlink ref="D201" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
+    <hyperlink ref="D202" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
+    <hyperlink ref="D203" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
+    <hyperlink ref="D204" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
+    <hyperlink ref="D206" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
+    <hyperlink ref="D207" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
+    <hyperlink ref="D208" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
+    <hyperlink ref="D209" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
+    <hyperlink ref="D210" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
+    <hyperlink ref="D169" r:id="rId198" xr:uid="{0E1E66AB-E725-4DC2-A9E7-89AB9F93D44F}"/>
+    <hyperlink ref="D205" r:id="rId199" xr:uid="{FB5BD734-C92C-4DCB-AC83-E67BDA12DFF4}"/>
+    <hyperlink ref="D164" r:id="rId200" xr:uid="{E6F63535-7CB0-4B0A-8A9B-2FF45193FA31}"/>
+    <hyperlink ref="D165" r:id="rId201" xr:uid="{23618A7F-70F1-429D-A989-04E42D5219C5}"/>
+    <hyperlink ref="D167" r:id="rId202" xr:uid="{A61CFECD-5D13-489A-855F-076420E34CFD}"/>
+    <hyperlink ref="D168" r:id="rId203" xr:uid="{6EDE7FBD-C182-4315-93DC-5FE3983DF025}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <headerFooter>

--- a/メニュー/メニュー.xlsx
+++ b/メニュー/メニュー.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\vm22flo01\DownloadFiles\DX推進課\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\svmfile\filesv\102003001DX推進課\【令和7年度】\50_事業\10-01_スマートシティ推進事業費\02_スマートマップ焼津保守運用業務\50_地図データ\03_Github更新\ととフェス\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{812BBCDB-76E3-4E8B-91BF-D52C74178669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83ECA2C0-663E-477F-85DA-C3F97DA73645}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1073" uniqueCount="587">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1123" uniqueCount="612">
   <si>
     <t>大カテゴリー</t>
   </si>
@@ -3610,6 +3610,148 @@
   <si>
     <t>#3F994C</t>
     <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>parking</t>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>歴史・史跡</t>
+    <rPh sb="0" eb="2">
+      <t>レキシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シセキ</t>
+    </rPh>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>休憩場所（ベンチ）</t>
+    <rPh sb="0" eb="2">
+      <t>キュウケイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>バショ</t>
+    </rPh>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>自動販売機</t>
+    <rPh sb="0" eb="2">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ハンバイキ</t>
+    </rPh>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>魚フェス会場駐車場</t>
+    <rPh sb="0" eb="1">
+      <t>サカナ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カイジョウ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>チュウシャジョウ</t>
+    </rPh>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>魚（とと）フェス！</t>
+    <rPh sb="0" eb="1">
+      <t>サカナ</t>
+    </rPh>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>魚フェス会場</t>
+    <rPh sb="0" eb="2">
+      <t>カイジョウ</t>
+    </rPh>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>有料駐車場（焼津駅周辺）</t>
+    <rPh sb="0" eb="2">
+      <t>ユウリョウ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>チュウシャジョウ</t>
+    </rPh>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>お立ち寄りスポット</t>
+    <rPh sb="1" eb="2">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>便利なスポット</t>
+    <rPh sb="0" eb="2">
+      <t>ベンリ</t>
+    </rPh>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>その他</t>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>魚フェス交通規制</t>
+    <rPh sb="0" eb="1">
+      <t>サカナ</t>
+    </rPh>
+    <rPh sb="4" eb="8">
+      <t>コウツウキセイ</t>
+    </rPh>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>https://yaizu-smartcity.jp/tiles/%E9%AD%9A%E3%83%95%E3%82%A7%E3%82%B9%E4%BA%A4%E9%80%9A%E8%A6%8F%E5%88%B6/tiles.json</t>
+  </si>
+  <si>
+    <t>https://yaizu-smartcity.jp/tiles/%E9%AD%9A%E3%83%95%E3%82%A7%E3%82%B9%E4%BC%9A%E5%A0%B4/tiles.json</t>
+  </si>
+  <si>
+    <t>https://yaizu-smartcity.jp/tiles/%E9%AD%9A%E3%83%95%E3%82%A7%E3%82%B9%E9%A7%90%E8%BB%8A%E5%A0%B4/tiles.json</t>
+  </si>
+  <si>
+    <t>https://yaizu-smartcity.jp/tiles/%E9%AD%9A%E3%83%95%E3%82%A7%E3%82%B9%E5%91%A8%E8%BE%BA%E3%82%B9%E3%83%9D%E3%83%83%E3%83%88_%E6%9C%89%E6%96%99%E9%A7%90%E8%BB%8A%E5%A0%B4/tiles.json</t>
+  </si>
+  <si>
+    <t>https://yaizu-smartcity.jp/tiles/%E9%AD%9A%E3%83%95%E3%82%A7%E3%82%B9%E5%91%A8%E8%BE%BA%E3%82%B9%E3%83%9D%E3%83%83%E3%83%88_%E3%81%9D%E3%81%AE%E4%BB%96/tiles.json</t>
+  </si>
+  <si>
+    <t>https://yaizu-smartcity.jp/tiles/%E9%AD%9A%E3%83%95%E3%82%A7%E3%82%B9%E5%91%A8%E8%BE%BA%E3%82%B9%E3%83%9D%E3%83%83%E3%83%88_%E4%BC%91%E6%86%A9%E5%A0%B4%E6%89%80/tiles.json</t>
+  </si>
+  <si>
+    <t>https://yaizu-smartcity.jp/tiles/%E9%AD%9A%E3%83%95%E3%82%A7%E3%82%B9%E5%91%A8%E8%BE%BA%E3%82%B9%E3%83%9D%E3%83%83%E3%83%88_%E5%8F%B2%E8%B7%A1/tiles.json</t>
+  </si>
+  <si>
+    <t>https://yaizu-smartcity.jp/tiles/%E9%AD%9A%E3%83%95%E3%82%A7%E3%82%B9%E5%91%A8%E8%BE%BA%E3%82%B9%E3%83%9D%E3%83%83%E3%83%88_%E8%87%AA%E5%8B%95%E8%B2%A9%E5%A3%B2%E6%A9%9F/tiles.json</t>
+  </si>
+  <si>
+    <t>#0000ff</t>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>#dc143c</t>
+  </si>
+  <si>
+    <t>#ffd700</t>
+  </si>
+  <si>
+    <t>map-pin</t>
+  </si>
+  <si>
+    <t>historical-folk-facilities</t>
   </si>
 </sst>
 </file>
@@ -3773,7 +3915,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -3841,12 +3983,103 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3908,9 +4141,6 @@
     <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="16" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3921,10 +4151,44 @@
     <xf numFmtId="49" fontId="14" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="14" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -4146,16 +4410,18 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Z1008"/>
+  <dimension ref="A1:Z1010"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A153" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I167" sqref="I167"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D205" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="H225" sqref="H225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="23" customWidth="1"/>
+    <col min="1" max="1" width="31.88671875" customWidth="1"/>
     <col min="2" max="2" width="33.109375" customWidth="1"/>
     <col min="3" max="3" width="30.109375" customWidth="1"/>
     <col min="4" max="4" width="153.109375" customWidth="1"/>
@@ -9374,9 +9640,7 @@
       <c r="G137" s="5"/>
       <c r="H137" s="5"/>
       <c r="I137" s="5"/>
-      <c r="J137" s="6" t="s">
-        <v>350</v>
-      </c>
+      <c r="J137" s="6"/>
       <c r="K137" s="5"/>
       <c r="L137" s="5"/>
       <c r="M137" s="6"/>
@@ -10420,13 +10684,13 @@
       <c r="A164" s="6" t="s">
         <v>378</v>
       </c>
-      <c r="B164" s="30" t="s">
+      <c r="B164" s="29" t="s">
         <v>571</v>
       </c>
-      <c r="C164" s="30" t="s">
+      <c r="C164" s="29" t="s">
         <v>572</v>
       </c>
-      <c r="D164" s="33" t="s">
+      <c r="D164" s="32" t="s">
         <v>577</v>
       </c>
       <c r="E164" s="6"/>
@@ -10458,13 +10722,13 @@
       <c r="A165" s="6" t="s">
         <v>378</v>
       </c>
-      <c r="B165" s="30" t="s">
+      <c r="B165" s="29" t="s">
         <v>571</v>
       </c>
-      <c r="C165" s="30" t="s">
+      <c r="C165" s="29" t="s">
         <v>573</v>
       </c>
-      <c r="D165" s="33" t="s">
+      <c r="D165" s="32" t="s">
         <v>578</v>
       </c>
       <c r="E165" s="6"/>
@@ -10496,13 +10760,13 @@
       <c r="A166" s="6" t="s">
         <v>378</v>
       </c>
-      <c r="B166" s="30" t="s">
+      <c r="B166" s="29" t="s">
         <v>571</v>
       </c>
-      <c r="C166" s="30" t="s">
+      <c r="C166" s="29" t="s">
         <v>574</v>
       </c>
-      <c r="D166" s="32" t="s">
+      <c r="D166" s="31" t="s">
         <v>579</v>
       </c>
       <c r="E166" s="6"/>
@@ -10534,13 +10798,13 @@
       <c r="A167" s="6" t="s">
         <v>378</v>
       </c>
-      <c r="B167" s="30" t="s">
+      <c r="B167" s="29" t="s">
         <v>571</v>
       </c>
-      <c r="C167" s="30" t="s">
+      <c r="C167" s="29" t="s">
         <v>575</v>
       </c>
-      <c r="D167" s="33" t="s">
+      <c r="D167" s="32" t="s">
         <v>580</v>
       </c>
       <c r="E167" s="6"/>
@@ -10572,13 +10836,13 @@
       <c r="A168" s="6" t="s">
         <v>378</v>
       </c>
-      <c r="B168" s="30" t="s">
+      <c r="B168" s="29" t="s">
         <v>571</v>
       </c>
-      <c r="C168" s="30" t="s">
+      <c r="C168" s="29" t="s">
         <v>576</v>
       </c>
-      <c r="D168" s="33" t="s">
+      <c r="D168" s="32" t="s">
         <v>581</v>
       </c>
       <c r="E168" s="6"/>
@@ -10611,10 +10875,10 @@
         <v>435</v>
       </c>
       <c r="B169" s="6"/>
-      <c r="C169" s="29" t="s">
+      <c r="C169" s="28" t="s">
         <v>566</v>
       </c>
-      <c r="D169" s="28" t="s">
+      <c r="D169" s="27" t="s">
         <v>567</v>
       </c>
       <c r="E169" s="6"/>
@@ -11981,10 +12245,10 @@
         <v>549</v>
       </c>
       <c r="B205" s="5"/>
-      <c r="C205" s="30" t="s">
+      <c r="C205" s="29" t="s">
         <v>568</v>
       </c>
-      <c r="D205" s="31" t="s">
+      <c r="D205" s="30" t="s">
         <v>570</v>
       </c>
       <c r="E205" s="6"/>
@@ -12164,7 +12428,7 @@
       <c r="C210" s="6" t="s">
         <v>563</v>
       </c>
-      <c r="D210" s="11" t="s">
+      <c r="D210" s="35" t="s">
         <v>564</v>
       </c>
       <c r="E210" s="5"/>
@@ -12193,15 +12457,23 @@
       <c r="Z210" s="3"/>
     </row>
     <row r="211" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A211" s="23"/>
+      <c r="A211" s="23" t="s">
+        <v>592</v>
+      </c>
       <c r="B211" s="5"/>
-      <c r="C211" s="23"/>
-      <c r="D211" s="24"/>
-      <c r="E211" s="5"/>
+      <c r="C211" s="40" t="s">
+        <v>593</v>
+      </c>
+      <c r="D211" s="41" t="s">
+        <v>600</v>
+      </c>
+      <c r="E211" s="34"/>
       <c r="F211" s="5"/>
       <c r="G211" s="5"/>
-      <c r="H211" s="5"/>
-      <c r="I211" s="26"/>
+      <c r="H211" s="5" t="s">
+        <v>607</v>
+      </c>
+      <c r="I211" s="5"/>
       <c r="J211" s="5"/>
       <c r="K211" s="5"/>
       <c r="L211" s="5"/>
@@ -12221,15 +12493,23 @@
       <c r="Z211" s="3"/>
     </row>
     <row r="212" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A212" s="23"/>
-      <c r="B212" s="5"/>
-      <c r="C212" s="23"/>
-      <c r="D212" s="28"/>
-      <c r="E212" s="5"/>
+      <c r="A212" s="23" t="s">
+        <v>592</v>
+      </c>
+      <c r="B212" s="38"/>
+      <c r="C212" s="44" t="s">
+        <v>591</v>
+      </c>
+      <c r="D212" s="36" t="s">
+        <v>601</v>
+      </c>
+      <c r="E212" s="34"/>
       <c r="F212" s="5"/>
       <c r="G212" s="5"/>
-      <c r="H212" s="5"/>
-      <c r="I212" s="26"/>
+      <c r="H212" s="5" t="s">
+        <v>609</v>
+      </c>
+      <c r="I212" s="5"/>
       <c r="J212" s="5"/>
       <c r="K212" s="5"/>
       <c r="L212" s="5"/>
@@ -12249,15 +12529,23 @@
       <c r="Z212" s="3"/>
     </row>
     <row r="213" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A213" s="23"/>
-      <c r="B213" s="5"/>
-      <c r="C213" s="25"/>
-      <c r="D213" s="24"/>
-      <c r="E213" s="5"/>
+      <c r="A213" s="23" t="s">
+        <v>592</v>
+      </c>
+      <c r="B213" s="38"/>
+      <c r="C213" s="44" t="s">
+        <v>598</v>
+      </c>
+      <c r="D213" s="36" t="s">
+        <v>599</v>
+      </c>
+      <c r="E213" s="34"/>
       <c r="F213" s="5"/>
       <c r="G213" s="5"/>
-      <c r="H213" s="5"/>
-      <c r="I213" s="26"/>
+      <c r="H213" s="5" t="s">
+        <v>608</v>
+      </c>
+      <c r="I213" s="5"/>
       <c r="J213" s="5"/>
       <c r="K213" s="5"/>
       <c r="L213" s="5"/>
@@ -12277,15 +12565,23 @@
       <c r="Z213" s="3"/>
     </row>
     <row r="214" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A214" s="23"/>
-      <c r="B214" s="5"/>
-      <c r="C214" s="25"/>
-      <c r="D214" s="24"/>
-      <c r="E214" s="5"/>
+      <c r="A214" s="23" t="s">
+        <v>592</v>
+      </c>
+      <c r="B214" s="39"/>
+      <c r="C214" s="45" t="s">
+        <v>594</v>
+      </c>
+      <c r="D214" s="46" t="s">
+        <v>602</v>
+      </c>
+      <c r="E214" s="34"/>
       <c r="F214" s="5"/>
       <c r="G214" s="5"/>
       <c r="H214" s="5"/>
-      <c r="I214" s="27"/>
+      <c r="I214" s="6" t="s">
+        <v>587</v>
+      </c>
       <c r="J214" s="5"/>
       <c r="K214" s="5"/>
       <c r="L214" s="5"/>
@@ -12305,15 +12601,25 @@
       <c r="Z214" s="3"/>
     </row>
     <row r="215" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A215" s="23"/>
-      <c r="B215" s="5"/>
-      <c r="C215" s="25"/>
-      <c r="D215" s="24"/>
-      <c r="E215" s="5"/>
-      <c r="F215" s="5"/>
-      <c r="G215" s="5"/>
-      <c r="H215" s="5"/>
-      <c r="I215" s="26"/>
+      <c r="A215" s="23" t="s">
+        <v>592</v>
+      </c>
+      <c r="B215" s="37" t="s">
+        <v>595</v>
+      </c>
+      <c r="C215" s="42" t="s">
+        <v>212</v>
+      </c>
+      <c r="D215" s="43" t="s">
+        <v>213</v>
+      </c>
+      <c r="E215" s="4"/>
+      <c r="F215" s="16"/>
+      <c r="G215" s="16"/>
+      <c r="H215" s="4"/>
+      <c r="I215" s="6" t="s">
+        <v>214</v>
+      </c>
       <c r="J215" s="5"/>
       <c r="K215" s="5"/>
       <c r="L215" s="5"/>
@@ -12333,15 +12639,25 @@
       <c r="Z215" s="3"/>
     </row>
     <row r="216" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A216" s="23"/>
-      <c r="B216" s="5"/>
-      <c r="C216" s="25"/>
-      <c r="D216" s="24"/>
-      <c r="E216" s="5"/>
-      <c r="F216" s="5"/>
-      <c r="G216" s="5"/>
-      <c r="H216" s="5"/>
-      <c r="I216" s="26"/>
+      <c r="A216" s="23" t="s">
+        <v>592</v>
+      </c>
+      <c r="B216" s="37" t="s">
+        <v>595</v>
+      </c>
+      <c r="C216" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="D216" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="E216" s="4"/>
+      <c r="F216" s="16"/>
+      <c r="G216" s="16"/>
+      <c r="H216" s="4"/>
+      <c r="I216" s="6" t="s">
+        <v>218</v>
+      </c>
       <c r="J216" s="5"/>
       <c r="K216" s="5"/>
       <c r="L216" s="5"/>
@@ -12361,15 +12677,25 @@
       <c r="Z216" s="3"/>
     </row>
     <row r="217" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A217" s="23"/>
-      <c r="B217" s="5"/>
-      <c r="C217" s="25"/>
-      <c r="D217" s="24"/>
-      <c r="E217" s="5"/>
-      <c r="F217" s="5"/>
-      <c r="G217" s="5"/>
-      <c r="H217" s="5"/>
-      <c r="I217" s="26"/>
+      <c r="A217" s="23" t="s">
+        <v>592</v>
+      </c>
+      <c r="B217" s="37" t="s">
+        <v>595</v>
+      </c>
+      <c r="C217" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="D217" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="E217" s="4"/>
+      <c r="F217" s="16"/>
+      <c r="G217" s="16"/>
+      <c r="H217" s="4"/>
+      <c r="I217" s="6" t="s">
+        <v>227</v>
+      </c>
       <c r="J217" s="5"/>
       <c r="K217" s="5"/>
       <c r="L217" s="5"/>
@@ -12389,15 +12715,25 @@
       <c r="Z217" s="3"/>
     </row>
     <row r="218" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A218" s="5"/>
-      <c r="B218" s="5"/>
-      <c r="C218" s="5"/>
-      <c r="D218" s="5"/>
+      <c r="A218" s="23" t="s">
+        <v>592</v>
+      </c>
+      <c r="B218" s="37" t="s">
+        <v>595</v>
+      </c>
+      <c r="C218" s="25" t="s">
+        <v>588</v>
+      </c>
+      <c r="D218" s="24" t="s">
+        <v>605</v>
+      </c>
       <c r="E218" s="5"/>
       <c r="F218" s="5"/>
       <c r="G218" s="5"/>
       <c r="H218" s="5"/>
-      <c r="I218" s="5"/>
+      <c r="I218" s="5" t="s">
+        <v>611</v>
+      </c>
       <c r="J218" s="5"/>
       <c r="K218" s="5"/>
       <c r="L218" s="5"/>
@@ -12417,15 +12753,25 @@
       <c r="Z218" s="3"/>
     </row>
     <row r="219" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A219" s="5"/>
-      <c r="B219" s="5"/>
-      <c r="C219" s="5"/>
-      <c r="D219" s="5"/>
+      <c r="A219" s="23" t="s">
+        <v>592</v>
+      </c>
+      <c r="B219" s="33" t="s">
+        <v>596</v>
+      </c>
+      <c r="C219" s="25" t="s">
+        <v>589</v>
+      </c>
+      <c r="D219" s="24" t="s">
+        <v>604</v>
+      </c>
       <c r="E219" s="5"/>
       <c r="F219" s="5"/>
       <c r="G219" s="5"/>
       <c r="H219" s="5"/>
-      <c r="I219" s="5"/>
+      <c r="I219" s="5" t="s">
+        <v>268</v>
+      </c>
       <c r="J219" s="5"/>
       <c r="K219" s="5"/>
       <c r="L219" s="5"/>
@@ -12445,15 +12791,25 @@
       <c r="Z219" s="3"/>
     </row>
     <row r="220" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A220" s="5"/>
-      <c r="B220" s="5"/>
-      <c r="C220" s="5"/>
-      <c r="D220" s="5"/>
+      <c r="A220" s="23" t="s">
+        <v>592</v>
+      </c>
+      <c r="B220" s="33" t="s">
+        <v>596</v>
+      </c>
+      <c r="C220" s="25" t="s">
+        <v>590</v>
+      </c>
+      <c r="D220" s="24" t="s">
+        <v>606</v>
+      </c>
       <c r="E220" s="5"/>
       <c r="F220" s="5"/>
       <c r="G220" s="5"/>
       <c r="H220" s="5"/>
-      <c r="I220" s="5"/>
+      <c r="I220" s="5" t="s">
+        <v>35</v>
+      </c>
       <c r="J220" s="5"/>
       <c r="K220" s="5"/>
       <c r="L220" s="5"/>
@@ -12473,15 +12829,25 @@
       <c r="Z220" s="3"/>
     </row>
     <row r="221" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A221" s="5"/>
-      <c r="B221" s="5"/>
-      <c r="C221" s="5"/>
-      <c r="D221" s="5"/>
+      <c r="A221" s="23" t="s">
+        <v>592</v>
+      </c>
+      <c r="B221" s="33" t="s">
+        <v>596</v>
+      </c>
+      <c r="C221" s="25" t="s">
+        <v>597</v>
+      </c>
+      <c r="D221" s="24" t="s">
+        <v>603</v>
+      </c>
       <c r="E221" s="5"/>
       <c r="F221" s="5"/>
       <c r="G221" s="5"/>
       <c r="H221" s="5"/>
-      <c r="I221" s="5"/>
+      <c r="I221" s="5" t="s">
+        <v>610</v>
+      </c>
       <c r="J221" s="5"/>
       <c r="K221" s="5"/>
       <c r="L221" s="5"/>
@@ -17820,8 +18186,62 @@
       <c r="Y411" s="3"/>
       <c r="Z411" s="3"/>
     </row>
-    <row r="412" spans="1:26" ht="15.75" customHeight="1"/>
-    <row r="413" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="412" spans="1:26" ht="13.5" customHeight="1">
+      <c r="A412" s="5"/>
+      <c r="B412" s="5"/>
+      <c r="C412" s="5"/>
+      <c r="D412" s="5"/>
+      <c r="E412" s="5"/>
+      <c r="F412" s="5"/>
+      <c r="G412" s="5"/>
+      <c r="H412" s="5"/>
+      <c r="I412" s="5"/>
+      <c r="J412" s="5"/>
+      <c r="K412" s="5"/>
+      <c r="L412" s="5"/>
+      <c r="M412" s="6"/>
+      <c r="N412" s="3"/>
+      <c r="O412" s="3"/>
+      <c r="P412" s="3"/>
+      <c r="Q412" s="3"/>
+      <c r="R412" s="3"/>
+      <c r="S412" s="3"/>
+      <c r="T412" s="3"/>
+      <c r="U412" s="3"/>
+      <c r="V412" s="3"/>
+      <c r="W412" s="3"/>
+      <c r="X412" s="3"/>
+      <c r="Y412" s="3"/>
+      <c r="Z412" s="3"/>
+    </row>
+    <row r="413" spans="1:26" ht="13.5" customHeight="1">
+      <c r="A413" s="5"/>
+      <c r="B413" s="5"/>
+      <c r="C413" s="5"/>
+      <c r="D413" s="5"/>
+      <c r="E413" s="5"/>
+      <c r="F413" s="5"/>
+      <c r="G413" s="5"/>
+      <c r="H413" s="5"/>
+      <c r="I413" s="5"/>
+      <c r="J413" s="5"/>
+      <c r="K413" s="5"/>
+      <c r="L413" s="5"/>
+      <c r="M413" s="6"/>
+      <c r="N413" s="3"/>
+      <c r="O413" s="3"/>
+      <c r="P413" s="3"/>
+      <c r="Q413" s="3"/>
+      <c r="R413" s="3"/>
+      <c r="S413" s="3"/>
+      <c r="T413" s="3"/>
+      <c r="U413" s="3"/>
+      <c r="V413" s="3"/>
+      <c r="W413" s="3"/>
+      <c r="X413" s="3"/>
+      <c r="Y413" s="3"/>
+      <c r="Z413" s="3"/>
+    </row>
     <row r="414" spans="1:26" ht="15.75" customHeight="1"/>
     <row r="415" spans="1:26" ht="15.75" customHeight="1"/>
     <row r="416" spans="1:26" ht="15.75" customHeight="1"/>
@@ -18417,6 +18837,8 @@
     <row r="1006" ht="15.75" customHeight="1"/>
     <row r="1007" ht="15.75" customHeight="1"/>
     <row r="1008" ht="15.75" customHeight="1"/>
+    <row r="1009" ht="15.75" customHeight="1"/>
+    <row r="1010" ht="15.75" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="13"/>
   <hyperlinks>
@@ -18623,6 +19045,9 @@
     <hyperlink ref="D165" r:id="rId201" xr:uid="{23618A7F-70F1-429D-A989-04E42D5219C5}"/>
     <hyperlink ref="D167" r:id="rId202" xr:uid="{A61CFECD-5D13-489A-855F-076420E34CFD}"/>
     <hyperlink ref="D168" r:id="rId203" xr:uid="{6EDE7FBD-C182-4315-93DC-5FE3983DF025}"/>
+    <hyperlink ref="D215" r:id="rId204" xr:uid="{F8CC161C-3698-4455-AE50-3DBD3D45797B}"/>
+    <hyperlink ref="D216" r:id="rId205" xr:uid="{F41BCF05-CC73-422D-8893-0B9A8DAAA427}"/>
+    <hyperlink ref="D217" r:id="rId206" xr:uid="{511CA28D-F4D7-4764-8143-3595BDCD915C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <headerFooter>

--- a/メニュー/メニュー.xlsx
+++ b/メニュー/メニュー.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\svmfile\filesv\102003001DX推進課\【令和7年度】\50_事業\10-01_スマートシティ推進事業費\02_スマートマップ焼津保守運用業務\50_地図データ\03_Github更新\ととフェス\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83ECA2C0-663E-477F-85DA-C3F97DA73645}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D9D9F4B-5A51-4D4C-98FF-E6E2B689321C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4413,10 +4413,10 @@
   <dimension ref="A1:Z1010"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D205" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D147" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H225" sqref="H225"/>
+      <selection pane="bottomRight" activeCell="H211" sqref="H211:H213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -12467,12 +12467,12 @@
       <c r="D211" s="41" t="s">
         <v>600</v>
       </c>
-      <c r="E211" s="34"/>
+      <c r="E211" s="5" t="s">
+        <v>607</v>
+      </c>
       <c r="F211" s="5"/>
       <c r="G211" s="5"/>
-      <c r="H211" s="5" t="s">
-        <v>607</v>
-      </c>
+      <c r="H211" s="5"/>
       <c r="I211" s="5"/>
       <c r="J211" s="5"/>
       <c r="K211" s="5"/>
@@ -12503,12 +12503,12 @@
       <c r="D212" s="36" t="s">
         <v>601</v>
       </c>
-      <c r="E212" s="34"/>
+      <c r="E212" s="5" t="s">
+        <v>609</v>
+      </c>
       <c r="F212" s="5"/>
       <c r="G212" s="5"/>
-      <c r="H212" s="5" t="s">
-        <v>609</v>
-      </c>
+      <c r="H212" s="5"/>
       <c r="I212" s="5"/>
       <c r="J212" s="5"/>
       <c r="K212" s="5"/>
@@ -12539,12 +12539,12 @@
       <c r="D213" s="36" t="s">
         <v>599</v>
       </c>
-      <c r="E213" s="34"/>
+      <c r="E213" s="5" t="s">
+        <v>608</v>
+      </c>
       <c r="F213" s="5"/>
       <c r="G213" s="5"/>
-      <c r="H213" s="5" t="s">
-        <v>608</v>
-      </c>
+      <c r="H213" s="5"/>
       <c r="I213" s="5"/>
       <c r="J213" s="5"/>
       <c r="K213" s="5"/>

--- a/メニュー/メニュー.xlsx
+++ b/メニュー/メニュー.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\svmfile\filesv\102003001DX推進課\【令和7年度】\50_事業\10-01_スマートシティ推進事業費\02_スマートマップ焼津保守運用業務\50_地図データ\03_Github更新\ととフェス\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D9D9F4B-5A51-4D4C-98FF-E6E2B689321C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09BA2BF1-51F1-46A3-9BCE-4A7C94ADA543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3748,10 +3748,10 @@
     <t>#ffd700</t>
   </si>
   <si>
-    <t>map-pin</t>
-  </si>
-  <si>
     <t>historical-folk-facilities</t>
+  </si>
+  <si>
+    <t>star</t>
   </si>
 </sst>
 </file>
@@ -4413,10 +4413,10 @@
   <dimension ref="A1:Z1010"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D147" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D208" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H211" sqref="H211:H213"/>
+      <selection pane="bottomRight" activeCell="J220" sqref="J220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -12732,7 +12732,7 @@
       <c r="G218" s="5"/>
       <c r="H218" s="5"/>
       <c r="I218" s="5" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="J218" s="5"/>
       <c r="K218" s="5"/>
@@ -12846,7 +12846,7 @@
       <c r="G221" s="5"/>
       <c r="H221" s="5"/>
       <c r="I221" s="5" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="J221" s="5"/>
       <c r="K221" s="5"/>

--- a/メニュー/メニュー.xlsx
+++ b/メニュー/メニュー.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\svmfile\filesv\102003001DX推進課\【令和7年度】\50_事業\10-01_スマートシティ推進事業費\02_スマートマップ焼津保守運用業務\50_地図データ\03_Github更新\ととフェス\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\vm22flo01\DownloadFiles\DX推進課\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09BA2BF1-51F1-46A3-9BCE-4A7C94ADA543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE5BACB5-E8A7-4F20-AEEA-B75EF3850247}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3494,23 +3494,6 @@
     <t>wifi-access-point</t>
   </si>
   <si>
-    <t>災害ごみ受入場所</t>
-    <rPh sb="0" eb="2">
-      <t>サイガイ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ウケイレ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>バショ</t>
-    </rPh>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
-    <t>https://yaizu-smartcity.jp/tiles/%E7%81%BD%E5%AE%B3%E3%81%94%E3%81%BF/tiles.json</t>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
     <t>ベジチェック設置場所</t>
     <rPh sb="6" eb="8">
       <t>セッチ</t>
@@ -3752,6 +3735,23 @@
   </si>
   <si>
     <t>star</t>
+  </si>
+  <si>
+    <t>ビーチクリーン大作戦（海岸清掃）</t>
+    <rPh sb="7" eb="10">
+      <t>ダイサクセン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カイガン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>セイソウ</t>
+    </rPh>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>https://yaizu-smartcity.jp/tiles/%E3%83%93%E3%83%BC%E3%83%81%E3%82%AF%E3%83%AA%E3%83%BC%E3%83%B3%E5%A4%A7%E4%BD%9C%E6%88%A6/tiles.json</t>
+    <phoneticPr fontId="13"/>
   </si>
 </sst>
 </file>
@@ -4079,7 +4079,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4189,6 +4189,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -4413,10 +4416,10 @@
   <dimension ref="A1:Z1010"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D208" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D155" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J220" sqref="J220"/>
+      <selection pane="bottomRight" activeCell="C171" sqref="C171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -10685,19 +10688,19 @@
         <v>378</v>
       </c>
       <c r="B164" s="29" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C164" s="29" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="D164" s="32" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="E164" s="6"/>
       <c r="F164" s="5"/>
       <c r="G164" s="5"/>
       <c r="H164" s="6" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="I164" s="5"/>
       <c r="J164" s="5"/>
@@ -10723,19 +10726,19 @@
         <v>378</v>
       </c>
       <c r="B165" s="29" t="s">
+        <v>569</v>
+      </c>
+      <c r="C165" s="29" t="s">
         <v>571</v>
       </c>
-      <c r="C165" s="29" t="s">
-        <v>573</v>
-      </c>
       <c r="D165" s="32" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="E165" s="6"/>
       <c r="F165" s="5"/>
       <c r="G165" s="5"/>
       <c r="H165" s="6" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="I165" s="5"/>
       <c r="J165" s="5"/>
@@ -10761,19 +10764,19 @@
         <v>378</v>
       </c>
       <c r="B166" s="29" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C166" s="29" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D166" s="31" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="E166" s="6"/>
       <c r="F166" s="5"/>
       <c r="G166" s="5"/>
       <c r="H166" s="6" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="I166" s="5"/>
       <c r="J166" s="5"/>
@@ -10799,19 +10802,19 @@
         <v>378</v>
       </c>
       <c r="B167" s="29" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C167" s="29" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="D167" s="32" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="E167" s="6"/>
       <c r="F167" s="5"/>
       <c r="G167" s="5"/>
       <c r="H167" s="6" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="I167" s="5"/>
       <c r="J167" s="5"/>
@@ -10837,19 +10840,19 @@
         <v>378</v>
       </c>
       <c r="B168" s="29" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C168" s="29" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="D168" s="32" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="E168" s="6"/>
       <c r="F168" s="5"/>
       <c r="G168" s="5"/>
       <c r="H168" s="6" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="I168" s="5"/>
       <c r="J168" s="5"/>
@@ -10876,19 +10879,19 @@
       </c>
       <c r="B169" s="6"/>
       <c r="C169" s="28" t="s">
-        <v>566</v>
-      </c>
-      <c r="D169" s="27" t="s">
-        <v>567</v>
-      </c>
-      <c r="E169" s="6"/>
-      <c r="F169" s="5"/>
+        <v>610</v>
+      </c>
+      <c r="D169" s="47" t="s">
+        <v>611</v>
+      </c>
+      <c r="E169" s="27"/>
+      <c r="F169" s="6"/>
       <c r="G169" s="5"/>
-      <c r="H169" s="6"/>
-      <c r="I169" s="26" t="s">
+      <c r="H169" s="5"/>
+      <c r="I169" s="6"/>
+      <c r="J169" s="26" t="s">
         <v>268</v>
       </c>
-      <c r="J169" s="5"/>
       <c r="K169" s="5"/>
       <c r="L169" s="5"/>
       <c r="M169" s="6"/>
@@ -12246,17 +12249,17 @@
       </c>
       <c r="B205" s="5"/>
       <c r="C205" s="29" t="s">
+        <v>566</v>
+      </c>
+      <c r="D205" s="30" t="s">
         <v>568</v>
-      </c>
-      <c r="D205" s="30" t="s">
-        <v>570</v>
       </c>
       <c r="E205" s="6"/>
       <c r="F205" s="5"/>
       <c r="G205" s="5"/>
       <c r="H205" s="5"/>
       <c r="I205" s="5" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="J205" s="5"/>
       <c r="K205" s="5"/>
@@ -12458,17 +12461,17 @@
     </row>
     <row r="211" spans="1:26" ht="13.5" customHeight="1">
       <c r="A211" s="23" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B211" s="5"/>
       <c r="C211" s="40" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="D211" s="41" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="E211" s="5" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="F211" s="5"/>
       <c r="G211" s="5"/>
@@ -12494,17 +12497,17 @@
     </row>
     <row r="212" spans="1:26" ht="13.5" customHeight="1">
       <c r="A212" s="23" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B212" s="38"/>
       <c r="C212" s="44" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="D212" s="36" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="E212" s="5" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="F212" s="5"/>
       <c r="G212" s="5"/>
@@ -12530,17 +12533,17 @@
     </row>
     <row r="213" spans="1:26" ht="13.5" customHeight="1">
       <c r="A213" s="23" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B213" s="38"/>
       <c r="C213" s="44" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="D213" s="36" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="E213" s="5" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="F213" s="5"/>
       <c r="G213" s="5"/>
@@ -12566,21 +12569,21 @@
     </row>
     <row r="214" spans="1:26" ht="13.5" customHeight="1">
       <c r="A214" s="23" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B214" s="39"/>
       <c r="C214" s="45" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="D214" s="46" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="E214" s="34"/>
       <c r="F214" s="5"/>
       <c r="G214" s="5"/>
       <c r="H214" s="5"/>
       <c r="I214" s="6" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="J214" s="5"/>
       <c r="K214" s="5"/>
@@ -12602,10 +12605,10 @@
     </row>
     <row r="215" spans="1:26" ht="13.5" customHeight="1">
       <c r="A215" s="23" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B215" s="37" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C215" s="42" t="s">
         <v>212</v>
@@ -12640,10 +12643,10 @@
     </row>
     <row r="216" spans="1:26" ht="13.5" customHeight="1">
       <c r="A216" s="23" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B216" s="37" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C216" s="6" t="s">
         <v>215</v>
@@ -12678,10 +12681,10 @@
     </row>
     <row r="217" spans="1:26" ht="13.5" customHeight="1">
       <c r="A217" s="23" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B217" s="37" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C217" s="8" t="s">
         <v>225</v>
@@ -12716,23 +12719,23 @@
     </row>
     <row r="218" spans="1:26" ht="13.5" customHeight="1">
       <c r="A218" s="23" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B218" s="37" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C218" s="25" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D218" s="24" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="E218" s="5"/>
       <c r="F218" s="5"/>
       <c r="G218" s="5"/>
       <c r="H218" s="5"/>
       <c r="I218" s="5" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="J218" s="5"/>
       <c r="K218" s="5"/>
@@ -12754,16 +12757,16 @@
     </row>
     <row r="219" spans="1:26" ht="13.5" customHeight="1">
       <c r="A219" s="23" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B219" s="33" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="C219" s="25" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="D219" s="24" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="E219" s="5"/>
       <c r="F219" s="5"/>
@@ -12792,16 +12795,16 @@
     </row>
     <row r="220" spans="1:26" ht="13.5" customHeight="1">
       <c r="A220" s="23" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B220" s="33" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="C220" s="25" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="D220" s="24" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="E220" s="5"/>
       <c r="F220" s="5"/>
@@ -12830,23 +12833,23 @@
     </row>
     <row r="221" spans="1:26" ht="13.5" customHeight="1">
       <c r="A221" s="23" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B221" s="33" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="C221" s="25" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="D221" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="E221" s="5"/>
       <c r="F221" s="5"/>
       <c r="G221" s="5"/>
       <c r="H221" s="5"/>
       <c r="I221" s="5" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="J221" s="5"/>
       <c r="K221" s="5"/>
@@ -19039,15 +19042,15 @@
     <hyperlink ref="D208" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
     <hyperlink ref="D209" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
     <hyperlink ref="D210" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
-    <hyperlink ref="D169" r:id="rId198" xr:uid="{0E1E66AB-E725-4DC2-A9E7-89AB9F93D44F}"/>
-    <hyperlink ref="D205" r:id="rId199" xr:uid="{FB5BD734-C92C-4DCB-AC83-E67BDA12DFF4}"/>
-    <hyperlink ref="D164" r:id="rId200" xr:uid="{E6F63535-7CB0-4B0A-8A9B-2FF45193FA31}"/>
-    <hyperlink ref="D165" r:id="rId201" xr:uid="{23618A7F-70F1-429D-A989-04E42D5219C5}"/>
-    <hyperlink ref="D167" r:id="rId202" xr:uid="{A61CFECD-5D13-489A-855F-076420E34CFD}"/>
-    <hyperlink ref="D168" r:id="rId203" xr:uid="{6EDE7FBD-C182-4315-93DC-5FE3983DF025}"/>
-    <hyperlink ref="D215" r:id="rId204" xr:uid="{F8CC161C-3698-4455-AE50-3DBD3D45797B}"/>
-    <hyperlink ref="D216" r:id="rId205" xr:uid="{F41BCF05-CC73-422D-8893-0B9A8DAAA427}"/>
-    <hyperlink ref="D217" r:id="rId206" xr:uid="{511CA28D-F4D7-4764-8143-3595BDCD915C}"/>
+    <hyperlink ref="D205" r:id="rId198" xr:uid="{FB5BD734-C92C-4DCB-AC83-E67BDA12DFF4}"/>
+    <hyperlink ref="D164" r:id="rId199" xr:uid="{E6F63535-7CB0-4B0A-8A9B-2FF45193FA31}"/>
+    <hyperlink ref="D165" r:id="rId200" xr:uid="{23618A7F-70F1-429D-A989-04E42D5219C5}"/>
+    <hyperlink ref="D167" r:id="rId201" xr:uid="{A61CFECD-5D13-489A-855F-076420E34CFD}"/>
+    <hyperlink ref="D168" r:id="rId202" xr:uid="{6EDE7FBD-C182-4315-93DC-5FE3983DF025}"/>
+    <hyperlink ref="D215" r:id="rId203" xr:uid="{F8CC161C-3698-4455-AE50-3DBD3D45797B}"/>
+    <hyperlink ref="D216" r:id="rId204" xr:uid="{F41BCF05-CC73-422D-8893-0B9A8DAAA427}"/>
+    <hyperlink ref="D217" r:id="rId205" xr:uid="{511CA28D-F4D7-4764-8143-3595BDCD915C}"/>
+    <hyperlink ref="D169" r:id="rId206" xr:uid="{25EBF6EE-C6F0-4FC0-901D-880CA630C9E4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <headerFooter>

--- a/メニュー/メニュー.xlsx
+++ b/メニュー/メニュー.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\svmfile\filesv\102003001DX推進課\【令和7年度】\50_事業\10-01_スマートシティ推進事業費\02_スマートマップ焼津保守運用業務\50_地図データ\03_Github更新\ととフェス\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\vm22flo01\DownloadFiles\DX推進課\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09BA2BF1-51F1-46A3-9BCE-4A7C94ADA543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADF22425-CB56-4873-9F08-DD9123D3CF3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2630,9 +2630,6 @@
     </r>
   </si>
   <si>
-    <t>大井川地区（乗降位置）</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <u/>
@@ -2648,9 +2645,6 @@
     <t>demand-taxi-lightblue</t>
   </si>
   <si>
-    <t>大井川地区（乗降区域）</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <u/>
@@ -3492,23 +3486,6 @@
   </si>
   <si>
     <t>wifi-access-point</t>
-  </si>
-  <si>
-    <t>災害ごみ受入場所</t>
-    <rPh sb="0" eb="2">
-      <t>サイガイ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ウケイレ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>バショ</t>
-    </rPh>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
-    <t>https://yaizu-smartcity.jp/tiles/%E7%81%BD%E5%AE%B3%E3%81%94%E3%81%BF/tiles.json</t>
-    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>ベジチェック設置場所</t>
@@ -3752,6 +3729,30 @@
   </si>
   <si>
     <t>star</t>
+  </si>
+  <si>
+    <t>大井川地区（乗降区域）</t>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>大井川地区（乗降位置）</t>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>ビーチクリーン大作戦（海岸清掃）</t>
+    <rPh sb="7" eb="10">
+      <t>ダイサクセン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カイガン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>セイソウ</t>
+    </rPh>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>https://yaizu-smartcity.jp/tiles/%E3%83%93%E3%83%BC%E3%83%81%E3%82%AF%E3%83%AA%E3%83%BC%E3%83%B3%E5%A4%A7%E4%BD%9C%E6%88%A6/tiles.json</t>
   </si>
 </sst>
 </file>
@@ -4079,7 +4080,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4189,6 +4190,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -4413,10 +4417,10 @@
   <dimension ref="A1:Z1010"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D208" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="G162" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J220" sqref="J220"/>
+      <selection pane="bottomRight" activeCell="J169" sqref="J169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -10447,18 +10451,18 @@
       <c r="B158" s="8" t="s">
         <v>402</v>
       </c>
-      <c r="C158" s="6" t="s">
+      <c r="C158" s="47" t="s">
+        <v>609</v>
+      </c>
+      <c r="D158" s="11" t="s">
         <v>416</v>
-      </c>
-      <c r="D158" s="11" t="s">
-        <v>417</v>
       </c>
       <c r="E158" s="5"/>
       <c r="F158" s="5"/>
       <c r="G158" s="5"/>
       <c r="H158" s="5"/>
       <c r="I158" s="8" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="J158" s="5"/>
       <c r="K158" s="5"/>
@@ -10485,21 +10489,21 @@
       <c r="B159" s="8" t="s">
         <v>402</v>
       </c>
-      <c r="C159" s="6" t="s">
+      <c r="C159" s="47" t="s">
+        <v>608</v>
+      </c>
+      <c r="D159" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="E159" s="6" t="s">
         <v>419</v>
       </c>
-      <c r="D159" s="11" t="s">
-        <v>420</v>
-      </c>
-      <c r="E159" s="6" t="s">
-        <v>421</v>
-      </c>
       <c r="F159" s="6" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="G159" s="5"/>
       <c r="H159" s="6" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="I159" s="5"/>
       <c r="J159" s="5"/>
@@ -10525,21 +10529,21 @@
         <v>378</v>
       </c>
       <c r="B160" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="C160" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="D160" s="13" t="s">
         <v>422</v>
       </c>
-      <c r="C160" s="6" t="s">
+      <c r="E160" s="6" t="s">
         <v>423</v>
-      </c>
-      <c r="D160" s="13" t="s">
-        <v>424</v>
-      </c>
-      <c r="E160" s="6" t="s">
-        <v>425</v>
       </c>
       <c r="F160" s="5"/>
       <c r="G160" s="5"/>
       <c r="H160" s="6" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="I160" s="5"/>
       <c r="J160" s="5"/>
@@ -10565,21 +10569,21 @@
         <v>378</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C161" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="D161" s="13" t="s">
+        <v>425</v>
+      </c>
+      <c r="E161" s="6" t="s">
         <v>426</v>
-      </c>
-      <c r="D161" s="13" t="s">
-        <v>427</v>
-      </c>
-      <c r="E161" s="6" t="s">
-        <v>428</v>
       </c>
       <c r="F161" s="5"/>
       <c r="G161" s="5"/>
       <c r="H161" s="6" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="I161" s="5"/>
       <c r="J161" s="5"/>
@@ -10605,21 +10609,21 @@
         <v>378</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C162" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="D162" s="13" t="s">
+        <v>428</v>
+      </c>
+      <c r="E162" s="6" t="s">
         <v>429</v>
-      </c>
-      <c r="D162" s="13" t="s">
-        <v>430</v>
-      </c>
-      <c r="E162" s="6" t="s">
-        <v>431</v>
       </c>
       <c r="F162" s="5"/>
       <c r="G162" s="5"/>
       <c r="H162" s="6" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="I162" s="5"/>
       <c r="J162" s="5"/>
@@ -10645,21 +10649,21 @@
         <v>378</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C163" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="D163" s="13" t="s">
+        <v>431</v>
+      </c>
+      <c r="E163" s="6" t="s">
         <v>432</v>
-      </c>
-      <c r="D163" s="13" t="s">
-        <v>433</v>
-      </c>
-      <c r="E163" s="6" t="s">
-        <v>434</v>
       </c>
       <c r="F163" s="5"/>
       <c r="G163" s="5"/>
       <c r="H163" s="6" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="I163" s="5"/>
       <c r="J163" s="5"/>
@@ -10685,19 +10689,19 @@
         <v>378</v>
       </c>
       <c r="B164" s="29" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="C164" s="29" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="D164" s="32" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="E164" s="6"/>
       <c r="F164" s="5"/>
       <c r="G164" s="5"/>
       <c r="H164" s="6" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="I164" s="5"/>
       <c r="J164" s="5"/>
@@ -10723,19 +10727,19 @@
         <v>378</v>
       </c>
       <c r="B165" s="29" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="C165" s="29" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="D165" s="32" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="E165" s="6"/>
       <c r="F165" s="5"/>
       <c r="G165" s="5"/>
       <c r="H165" s="6" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="I165" s="5"/>
       <c r="J165" s="5"/>
@@ -10761,19 +10765,19 @@
         <v>378</v>
       </c>
       <c r="B166" s="29" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="C166" s="29" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="D166" s="31" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="E166" s="6"/>
       <c r="F166" s="5"/>
       <c r="G166" s="5"/>
       <c r="H166" s="6" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="I166" s="5"/>
       <c r="J166" s="5"/>
@@ -10799,19 +10803,19 @@
         <v>378</v>
       </c>
       <c r="B167" s="29" t="s">
+        <v>567</v>
+      </c>
+      <c r="C167" s="29" t="s">
         <v>571</v>
       </c>
-      <c r="C167" s="29" t="s">
-        <v>575</v>
-      </c>
       <c r="D167" s="32" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="E167" s="6"/>
       <c r="F167" s="5"/>
       <c r="G167" s="5"/>
       <c r="H167" s="6" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="I167" s="5"/>
       <c r="J167" s="5"/>
@@ -10837,19 +10841,19 @@
         <v>378</v>
       </c>
       <c r="B168" s="29" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="C168" s="29" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="D168" s="32" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="E168" s="6"/>
       <c r="F168" s="5"/>
       <c r="G168" s="5"/>
       <c r="H168" s="6" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="I168" s="5"/>
       <c r="J168" s="5"/>
@@ -10872,14 +10876,14 @@
     </row>
     <row r="169" spans="1:26" ht="13.5" customHeight="1">
       <c r="A169" s="6" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B169" s="6"/>
       <c r="C169" s="28" t="s">
-        <v>566</v>
+        <v>610</v>
       </c>
       <c r="D169" s="27" t="s">
-        <v>567</v>
+        <v>611</v>
       </c>
       <c r="E169" s="6"/>
       <c r="F169" s="5"/>
@@ -10908,14 +10912,14 @@
     </row>
     <row r="170" spans="1:26" ht="13.5" customHeight="1">
       <c r="A170" s="6" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B170" s="5"/>
       <c r="C170" s="6" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="D170" s="11" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E170" s="6" t="s">
         <v>291</v>
@@ -10946,19 +10950,19 @@
     </row>
     <row r="171" spans="1:26" ht="13.5" customHeight="1">
       <c r="A171" s="8" t="s">
+        <v>436</v>
+      </c>
+      <c r="B171" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="C171" s="6" t="s">
         <v>438</v>
       </c>
-      <c r="B171" s="6" t="s">
+      <c r="D171" s="11" t="s">
         <v>439</v>
       </c>
-      <c r="C171" s="6" t="s">
+      <c r="E171" s="6" t="s">
         <v>440</v>
-      </c>
-      <c r="D171" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="E171" s="6" t="s">
-        <v>442</v>
       </c>
       <c r="F171" s="6" t="s">
         <v>294</v>
@@ -10986,19 +10990,19 @@
     </row>
     <row r="172" spans="1:26" ht="13.5" customHeight="1">
       <c r="A172" s="8" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C172" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="D172" s="11" t="s">
+        <v>442</v>
+      </c>
+      <c r="E172" s="6" t="s">
         <v>443</v>
-      </c>
-      <c r="D172" s="11" t="s">
-        <v>444</v>
-      </c>
-      <c r="E172" s="6" t="s">
-        <v>445</v>
       </c>
       <c r="F172" s="6" t="s">
         <v>294</v>
@@ -11026,24 +11030,24 @@
     </row>
     <row r="173" spans="1:26" ht="13.5" customHeight="1">
       <c r="A173" s="8" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B173" s="6" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C173" s="6" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D173" s="11" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="E173" s="5"/>
       <c r="F173" s="6" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="G173" s="5"/>
       <c r="H173" s="6" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="I173" s="5"/>
       <c r="J173" s="5"/>
@@ -11066,26 +11070,26 @@
     </row>
     <row r="174" spans="1:26" ht="13.5" customHeight="1">
       <c r="A174" s="8" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B174" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="C174" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="D174" s="11" t="s">
         <v>449</v>
       </c>
-      <c r="C174" s="6" t="s">
+      <c r="E174" s="6" t="s">
         <v>450</v>
       </c>
-      <c r="D174" s="11" t="s">
-        <v>451</v>
-      </c>
-      <c r="E174" s="6" t="s">
-        <v>452</v>
-      </c>
       <c r="F174" s="6" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="G174" s="5"/>
       <c r="H174" s="6" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="I174" s="5"/>
       <c r="J174" s="5"/>
@@ -11108,16 +11112,16 @@
     </row>
     <row r="175" spans="1:26" ht="13.5" customHeight="1">
       <c r="A175" s="8" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C175" s="6" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D175" s="11" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E175" s="6" t="s">
         <v>23</v>
@@ -11150,21 +11154,21 @@
     </row>
     <row r="176" spans="1:26" ht="13.5" customHeight="1">
       <c r="A176" s="8" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B176" s="5"/>
       <c r="C176" s="6" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D176" s="11" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E176" s="5"/>
       <c r="F176" s="5"/>
       <c r="G176" s="5"/>
       <c r="H176" s="5"/>
       <c r="I176" s="6" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="J176" s="5"/>
       <c r="K176" s="5"/>
@@ -11186,23 +11190,23 @@
     </row>
     <row r="177" spans="1:26" ht="13.5" customHeight="1">
       <c r="A177" s="8" t="s">
+        <v>456</v>
+      </c>
+      <c r="B177" s="8" t="s">
+        <v>457</v>
+      </c>
+      <c r="C177" s="8" t="s">
         <v>458</v>
       </c>
-      <c r="B177" s="8" t="s">
+      <c r="D177" s="11" t="s">
         <v>459</v>
-      </c>
-      <c r="C177" s="8" t="s">
-        <v>460</v>
-      </c>
-      <c r="D177" s="11" t="s">
-        <v>461</v>
       </c>
       <c r="E177" s="5"/>
       <c r="F177" s="5"/>
       <c r="G177" s="5"/>
       <c r="H177" s="5"/>
       <c r="I177" s="8" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="J177" s="5"/>
       <c r="K177" s="5"/>
@@ -11224,16 +11228,16 @@
     </row>
     <row r="178" spans="1:26" ht="13.5" customHeight="1">
       <c r="A178" s="8" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B178" s="8" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C178" s="8" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D178" s="11" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="E178" s="6" t="s">
         <v>291</v>
@@ -11264,23 +11268,23 @@
     </row>
     <row r="179" spans="1:26" ht="13.5" customHeight="1">
       <c r="A179" s="8" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B179" s="8" t="s">
+        <v>463</v>
+      </c>
+      <c r="C179" s="8" t="s">
+        <v>464</v>
+      </c>
+      <c r="D179" s="18" t="s">
         <v>465</v>
-      </c>
-      <c r="C179" s="8" t="s">
-        <v>466</v>
-      </c>
-      <c r="D179" s="18" t="s">
-        <v>467</v>
       </c>
       <c r="E179" s="19"/>
       <c r="F179" s="19"/>
       <c r="G179" s="19"/>
       <c r="H179" s="20"/>
       <c r="I179" s="8" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="J179" s="5"/>
       <c r="K179" s="5"/>
@@ -11302,24 +11306,24 @@
     </row>
     <row r="180" spans="1:26" ht="13.5" customHeight="1">
       <c r="A180" s="8" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B180" s="8" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C180" s="8" t="s">
+        <v>467</v>
+      </c>
+      <c r="D180" s="11" t="s">
+        <v>468</v>
+      </c>
+      <c r="E180" s="6" t="s">
         <v>469</v>
-      </c>
-      <c r="D180" s="11" t="s">
-        <v>470</v>
-      </c>
-      <c r="E180" s="6" t="s">
-        <v>471</v>
       </c>
       <c r="F180" s="5"/>
       <c r="G180" s="5"/>
       <c r="H180" s="6" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="I180" s="5"/>
       <c r="J180" s="5"/>
@@ -11342,20 +11346,20 @@
     </row>
     <row r="181" spans="1:26" ht="13.5" customHeight="1">
       <c r="A181" s="8" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B181" s="8" t="s">
+        <v>470</v>
+      </c>
+      <c r="C181" s="8" t="s">
+        <v>471</v>
+      </c>
+      <c r="D181" s="11" t="s">
         <v>472</v>
-      </c>
-      <c r="C181" s="8" t="s">
-        <v>473</v>
-      </c>
-      <c r="D181" s="11" t="s">
-        <v>474</v>
       </c>
       <c r="E181" s="5"/>
       <c r="F181" s="6" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="G181" s="5"/>
       <c r="H181" s="5"/>
@@ -11380,20 +11384,20 @@
     </row>
     <row r="182" spans="1:26" ht="13.5" customHeight="1">
       <c r="A182" s="8" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B182" s="8" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C182" s="8" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D182" s="11" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="E182" s="5"/>
       <c r="F182" s="6" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="G182" s="5"/>
       <c r="H182" s="5"/>
@@ -11418,20 +11422,20 @@
     </row>
     <row r="183" spans="1:26" ht="13.5" customHeight="1">
       <c r="A183" s="8" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B183" s="8" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C183" s="8" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="D183" s="11" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E183" s="5"/>
       <c r="F183" s="6" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="G183" s="5"/>
       <c r="H183" s="5"/>
@@ -11456,20 +11460,20 @@
     </row>
     <row r="184" spans="1:26" ht="13.5" customHeight="1">
       <c r="A184" s="8" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B184" s="8" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C184" s="8" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D184" s="11" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E184" s="5"/>
       <c r="F184" s="6" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="G184" s="5"/>
       <c r="H184" s="5"/>
@@ -11494,20 +11498,20 @@
     </row>
     <row r="185" spans="1:26" ht="13.5" customHeight="1">
       <c r="A185" s="8" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B185" s="8" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C185" s="8" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D185" s="11" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="E185" s="5"/>
       <c r="F185" s="6" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="G185" s="5"/>
       <c r="H185" s="5"/>
@@ -11532,20 +11536,20 @@
     </row>
     <row r="186" spans="1:26" ht="13.5" customHeight="1">
       <c r="A186" s="8" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B186" s="8" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C186" s="8" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="D186" s="11" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="E186" s="5"/>
       <c r="F186" s="6" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="G186" s="5"/>
       <c r="H186" s="5"/>
@@ -11570,20 +11574,20 @@
     </row>
     <row r="187" spans="1:26" ht="13.5" customHeight="1">
       <c r="A187" s="8" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B187" s="8" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C187" s="8" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D187" s="11" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="E187" s="5"/>
       <c r="F187" s="6" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="G187" s="5"/>
       <c r="H187" s="5"/>
@@ -11608,20 +11612,20 @@
     </row>
     <row r="188" spans="1:26" ht="13.5" customHeight="1">
       <c r="A188" s="8" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B188" s="8" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C188" s="8" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D188" s="11" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E188" s="5"/>
       <c r="F188" s="6" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G188" s="5"/>
       <c r="H188" s="5"/>
@@ -11646,20 +11650,20 @@
     </row>
     <row r="189" spans="1:26" ht="13.5" customHeight="1">
       <c r="A189" s="8" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B189" s="8" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C189" s="8" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D189" s="11" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E189" s="5"/>
       <c r="F189" s="6" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="G189" s="5"/>
       <c r="H189" s="5"/>
@@ -11684,20 +11688,20 @@
     </row>
     <row r="190" spans="1:26" ht="13.5" customHeight="1">
       <c r="A190" s="8" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B190" s="8" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C190" s="8" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D190" s="11" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="E190" s="5"/>
       <c r="F190" s="6" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="G190" s="5"/>
       <c r="H190" s="5"/>
@@ -11722,20 +11726,20 @@
     </row>
     <row r="191" spans="1:26" ht="13.5" customHeight="1">
       <c r="A191" s="8" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B191" s="8" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C191" s="8" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D191" s="11" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="E191" s="5"/>
       <c r="F191" s="6" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="G191" s="5"/>
       <c r="H191" s="5"/>
@@ -11760,20 +11764,20 @@
     </row>
     <row r="192" spans="1:26" ht="13.5" customHeight="1">
       <c r="A192" s="8" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B192" s="8" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C192" s="8" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D192" s="11" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="E192" s="5"/>
       <c r="F192" s="6" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="G192" s="5"/>
       <c r="H192" s="5"/>
@@ -11798,20 +11802,20 @@
     </row>
     <row r="193" spans="1:26" ht="13.5" customHeight="1">
       <c r="A193" s="8" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B193" s="8" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C193" s="8" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D193" s="11" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="E193" s="5"/>
       <c r="F193" s="6" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="G193" s="5"/>
       <c r="H193" s="5"/>
@@ -11836,22 +11840,22 @@
     </row>
     <row r="194" spans="1:26" ht="13.5" customHeight="1">
       <c r="A194" s="8" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B194" s="8" t="s">
+        <v>510</v>
+      </c>
+      <c r="C194" s="8" t="s">
+        <v>511</v>
+      </c>
+      <c r="D194" s="11" t="s">
         <v>512</v>
-      </c>
-      <c r="C194" s="8" t="s">
-        <v>513</v>
-      </c>
-      <c r="D194" s="11" t="s">
-        <v>514</v>
       </c>
       <c r="E194" s="5"/>
       <c r="F194" s="5"/>
       <c r="G194" s="5"/>
       <c r="H194" s="5" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="I194" s="5"/>
       <c r="J194" s="5"/>
@@ -11874,22 +11878,22 @@
     </row>
     <row r="195" spans="1:26" ht="13.5" customHeight="1">
       <c r="A195" s="8" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B195" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="C195" s="8" t="s">
+        <v>515</v>
+      </c>
+      <c r="D195" s="11" t="s">
         <v>516</v>
-      </c>
-      <c r="C195" s="8" t="s">
-        <v>517</v>
-      </c>
-      <c r="D195" s="11" t="s">
-        <v>518</v>
       </c>
       <c r="E195" s="5"/>
       <c r="F195" s="5"/>
       <c r="G195" s="5"/>
       <c r="H195" s="5" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="I195" s="5"/>
       <c r="J195" s="5"/>
@@ -11912,22 +11916,22 @@
     </row>
     <row r="196" spans="1:26" ht="13.5" customHeight="1">
       <c r="A196" s="8" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B196" s="8" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C196" s="8" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="D196" s="11" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="E196" s="5"/>
       <c r="F196" s="5"/>
       <c r="G196" s="5"/>
       <c r="H196" s="5" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="I196" s="5"/>
       <c r="J196" s="5"/>
@@ -11950,23 +11954,23 @@
     </row>
     <row r="197" spans="1:26" ht="13.5" customHeight="1">
       <c r="A197" s="8" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B197" s="8" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C197" s="8" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="D197" s="11" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="E197" s="5"/>
       <c r="F197" s="5"/>
       <c r="G197" s="5"/>
       <c r="H197" s="5"/>
       <c r="I197" s="6" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="J197" s="5"/>
       <c r="K197" s="5"/>
@@ -11988,21 +11992,21 @@
     </row>
     <row r="198" spans="1:26" ht="13.5" customHeight="1">
       <c r="A198" s="8" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B198" s="5"/>
       <c r="C198" s="8" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="D198" s="11" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="E198" s="5"/>
       <c r="F198" s="5"/>
       <c r="G198" s="5"/>
       <c r="H198" s="5"/>
       <c r="I198" s="6" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="J198" s="5"/>
       <c r="K198" s="5"/>
@@ -12024,20 +12028,20 @@
     </row>
     <row r="199" spans="1:26" ht="13.5" customHeight="1">
       <c r="A199" s="8" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B199" s="5"/>
       <c r="C199" s="8" t="s">
+        <v>528</v>
+      </c>
+      <c r="D199" s="11" t="s">
+        <v>529</v>
+      </c>
+      <c r="E199" s="5" t="s">
         <v>530</v>
       </c>
-      <c r="D199" s="11" t="s">
-        <v>531</v>
-      </c>
-      <c r="E199" s="5" t="s">
-        <v>532</v>
-      </c>
       <c r="F199" s="5" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="G199" s="5"/>
       <c r="H199" s="5"/>
@@ -12062,21 +12066,21 @@
     </row>
     <row r="200" spans="1:26" ht="13.5" customHeight="1">
       <c r="A200" s="6" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B200" s="5"/>
       <c r="C200" s="6" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="D200" s="11" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="E200" s="5"/>
       <c r="F200" s="5"/>
       <c r="G200" s="5"/>
       <c r="H200" s="5"/>
       <c r="I200" s="6" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="J200" s="5"/>
       <c r="K200" s="5"/>
@@ -12098,21 +12102,21 @@
     </row>
     <row r="201" spans="1:26" ht="13.5" customHeight="1">
       <c r="A201" s="6" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B201" s="5"/>
       <c r="C201" s="8" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="D201" s="11" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E201" s="5"/>
       <c r="F201" s="5"/>
       <c r="G201" s="5"/>
       <c r="H201" s="5"/>
       <c r="I201" s="8" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="J201" s="5"/>
       <c r="K201" s="5"/>
@@ -12134,21 +12138,21 @@
     </row>
     <row r="202" spans="1:26" ht="13.5" customHeight="1">
       <c r="A202" s="6" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B202" s="5"/>
       <c r="C202" s="8" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="D202" s="11" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="E202" s="5"/>
       <c r="F202" s="5"/>
       <c r="G202" s="5"/>
       <c r="H202" s="5"/>
       <c r="I202" s="6" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="J202" s="5"/>
       <c r="K202" s="5"/>
@@ -12170,21 +12174,21 @@
     </row>
     <row r="203" spans="1:26" ht="13.5" customHeight="1">
       <c r="A203" s="6" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B203" s="5"/>
       <c r="C203" s="6" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="D203" s="11" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="E203" s="5"/>
       <c r="F203" s="5"/>
       <c r="G203" s="5"/>
       <c r="H203" s="5"/>
       <c r="I203" s="6" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="J203" s="5"/>
       <c r="K203" s="5"/>
@@ -12206,17 +12210,17 @@
     </row>
     <row r="204" spans="1:26" ht="13.5" customHeight="1">
       <c r="A204" s="6" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B204" s="5"/>
       <c r="C204" s="6" t="s">
+        <v>544</v>
+      </c>
+      <c r="D204" s="11" t="s">
+        <v>545</v>
+      </c>
+      <c r="E204" s="6" t="s">
         <v>546</v>
-      </c>
-      <c r="D204" s="11" t="s">
-        <v>547</v>
-      </c>
-      <c r="E204" s="6" t="s">
-        <v>548</v>
       </c>
       <c r="F204" s="5"/>
       <c r="G204" s="5"/>
@@ -12242,21 +12246,21 @@
     </row>
     <row r="205" spans="1:26" ht="13.5" customHeight="1">
       <c r="A205" s="8" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B205" s="5"/>
       <c r="C205" s="29" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="D205" s="30" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="E205" s="6"/>
       <c r="F205" s="5"/>
       <c r="G205" s="5"/>
       <c r="H205" s="5"/>
       <c r="I205" s="5" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="J205" s="5"/>
       <c r="K205" s="5"/>
@@ -12278,21 +12282,21 @@
     </row>
     <row r="206" spans="1:26" ht="13.5" customHeight="1">
       <c r="A206" s="8" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B206" s="4"/>
       <c r="C206" s="21" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="D206" s="22" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="E206" s="4"/>
       <c r="F206" s="5"/>
       <c r="G206" s="5"/>
       <c r="H206" s="4"/>
       <c r="I206" s="6" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="J206" s="5"/>
       <c r="K206" s="5"/>
@@ -12314,21 +12318,21 @@
     </row>
     <row r="207" spans="1:26" ht="13.5" customHeight="1">
       <c r="A207" s="8" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B207" s="4"/>
       <c r="C207" s="8" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="D207" s="9" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="E207" s="4"/>
       <c r="F207" s="5"/>
       <c r="G207" s="5"/>
       <c r="H207" s="4"/>
       <c r="I207" s="6" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="J207" s="5"/>
       <c r="K207" s="5"/>
@@ -12350,21 +12354,21 @@
     </row>
     <row r="208" spans="1:26" ht="13.5" customHeight="1">
       <c r="A208" s="8" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B208" s="4"/>
       <c r="C208" s="8" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="D208" s="9" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="E208" s="4"/>
       <c r="F208" s="5"/>
       <c r="G208" s="5"/>
       <c r="H208" s="4"/>
       <c r="I208" s="6" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="J208" s="5"/>
       <c r="K208" s="5"/>
@@ -12386,21 +12390,21 @@
     </row>
     <row r="209" spans="1:26" ht="13.5" customHeight="1">
       <c r="A209" s="8" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B209" s="5"/>
       <c r="C209" s="6" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="D209" s="11" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="E209" s="5"/>
       <c r="F209" s="5"/>
       <c r="G209" s="5"/>
       <c r="H209" s="5"/>
       <c r="I209" s="6" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="J209" s="5"/>
       <c r="K209" s="5"/>
@@ -12422,21 +12426,21 @@
     </row>
     <row r="210" spans="1:26" ht="13.5" customHeight="1">
       <c r="A210" s="8" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B210" s="5"/>
       <c r="C210" s="6" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="D210" s="35" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E210" s="5"/>
       <c r="F210" s="5"/>
       <c r="G210" s="5"/>
       <c r="H210" s="5"/>
       <c r="I210" s="6" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="J210" s="5"/>
       <c r="K210" s="5"/>
@@ -12458,17 +12462,17 @@
     </row>
     <row r="211" spans="1:26" ht="13.5" customHeight="1">
       <c r="A211" s="23" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="B211" s="5"/>
       <c r="C211" s="40" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="D211" s="41" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="E211" s="5" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="F211" s="5"/>
       <c r="G211" s="5"/>
@@ -12494,17 +12498,17 @@
     </row>
     <row r="212" spans="1:26" ht="13.5" customHeight="1">
       <c r="A212" s="23" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="B212" s="38"/>
       <c r="C212" s="44" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="D212" s="36" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="E212" s="5" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="F212" s="5"/>
       <c r="G212" s="5"/>
@@ -12530,17 +12534,17 @@
     </row>
     <row r="213" spans="1:26" ht="13.5" customHeight="1">
       <c r="A213" s="23" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="B213" s="38"/>
       <c r="C213" s="44" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="D213" s="36" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="E213" s="5" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="F213" s="5"/>
       <c r="G213" s="5"/>
@@ -12566,21 +12570,21 @@
     </row>
     <row r="214" spans="1:26" ht="13.5" customHeight="1">
       <c r="A214" s="23" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="B214" s="39"/>
       <c r="C214" s="45" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="D214" s="46" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="E214" s="34"/>
       <c r="F214" s="5"/>
       <c r="G214" s="5"/>
       <c r="H214" s="5"/>
       <c r="I214" s="6" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="J214" s="5"/>
       <c r="K214" s="5"/>
@@ -12602,10 +12606,10 @@
     </row>
     <row r="215" spans="1:26" ht="13.5" customHeight="1">
       <c r="A215" s="23" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="B215" s="37" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="C215" s="42" t="s">
         <v>212</v>
@@ -12640,10 +12644,10 @@
     </row>
     <row r="216" spans="1:26" ht="13.5" customHeight="1">
       <c r="A216" s="23" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="B216" s="37" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="C216" s="6" t="s">
         <v>215</v>
@@ -12678,10 +12682,10 @@
     </row>
     <row r="217" spans="1:26" ht="13.5" customHeight="1">
       <c r="A217" s="23" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="B217" s="37" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="C217" s="8" t="s">
         <v>225</v>
@@ -12716,23 +12720,23 @@
     </row>
     <row r="218" spans="1:26" ht="13.5" customHeight="1">
       <c r="A218" s="23" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="B218" s="37" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="C218" s="25" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="D218" s="24" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="E218" s="5"/>
       <c r="F218" s="5"/>
       <c r="G218" s="5"/>
       <c r="H218" s="5"/>
       <c r="I218" s="5" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="J218" s="5"/>
       <c r="K218" s="5"/>
@@ -12754,16 +12758,16 @@
     </row>
     <row r="219" spans="1:26" ht="13.5" customHeight="1">
       <c r="A219" s="23" t="s">
+        <v>588</v>
+      </c>
+      <c r="B219" s="33" t="s">
         <v>592</v>
       </c>
-      <c r="B219" s="33" t="s">
-        <v>596</v>
-      </c>
       <c r="C219" s="25" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="D219" s="24" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="E219" s="5"/>
       <c r="F219" s="5"/>
@@ -12792,16 +12796,16 @@
     </row>
     <row r="220" spans="1:26" ht="13.5" customHeight="1">
       <c r="A220" s="23" t="s">
+        <v>588</v>
+      </c>
+      <c r="B220" s="33" t="s">
         <v>592</v>
       </c>
-      <c r="B220" s="33" t="s">
-        <v>596</v>
-      </c>
       <c r="C220" s="25" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="D220" s="24" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="E220" s="5"/>
       <c r="F220" s="5"/>
@@ -12830,23 +12834,23 @@
     </row>
     <row r="221" spans="1:26" ht="13.5" customHeight="1">
       <c r="A221" s="23" t="s">
+        <v>588</v>
+      </c>
+      <c r="B221" s="33" t="s">
         <v>592</v>
       </c>
-      <c r="B221" s="33" t="s">
-        <v>596</v>
-      </c>
       <c r="C221" s="25" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="D221" s="24" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="E221" s="5"/>
       <c r="F221" s="5"/>
       <c r="G221" s="5"/>
       <c r="H221" s="5"/>
       <c r="I221" s="5" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="J221" s="5"/>
       <c r="K221" s="5"/>
@@ -19039,15 +19043,14 @@
     <hyperlink ref="D208" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
     <hyperlink ref="D209" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
     <hyperlink ref="D210" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
-    <hyperlink ref="D169" r:id="rId198" xr:uid="{0E1E66AB-E725-4DC2-A9E7-89AB9F93D44F}"/>
-    <hyperlink ref="D205" r:id="rId199" xr:uid="{FB5BD734-C92C-4DCB-AC83-E67BDA12DFF4}"/>
-    <hyperlink ref="D164" r:id="rId200" xr:uid="{E6F63535-7CB0-4B0A-8A9B-2FF45193FA31}"/>
-    <hyperlink ref="D165" r:id="rId201" xr:uid="{23618A7F-70F1-429D-A989-04E42D5219C5}"/>
-    <hyperlink ref="D167" r:id="rId202" xr:uid="{A61CFECD-5D13-489A-855F-076420E34CFD}"/>
-    <hyperlink ref="D168" r:id="rId203" xr:uid="{6EDE7FBD-C182-4315-93DC-5FE3983DF025}"/>
-    <hyperlink ref="D215" r:id="rId204" xr:uid="{F8CC161C-3698-4455-AE50-3DBD3D45797B}"/>
-    <hyperlink ref="D216" r:id="rId205" xr:uid="{F41BCF05-CC73-422D-8893-0B9A8DAAA427}"/>
-    <hyperlink ref="D217" r:id="rId206" xr:uid="{511CA28D-F4D7-4764-8143-3595BDCD915C}"/>
+    <hyperlink ref="D205" r:id="rId198" xr:uid="{FB5BD734-C92C-4DCB-AC83-E67BDA12DFF4}"/>
+    <hyperlink ref="D164" r:id="rId199" xr:uid="{E6F63535-7CB0-4B0A-8A9B-2FF45193FA31}"/>
+    <hyperlink ref="D165" r:id="rId200" xr:uid="{23618A7F-70F1-429D-A989-04E42D5219C5}"/>
+    <hyperlink ref="D167" r:id="rId201" xr:uid="{A61CFECD-5D13-489A-855F-076420E34CFD}"/>
+    <hyperlink ref="D168" r:id="rId202" xr:uid="{6EDE7FBD-C182-4315-93DC-5FE3983DF025}"/>
+    <hyperlink ref="D215" r:id="rId203" xr:uid="{F8CC161C-3698-4455-AE50-3DBD3D45797B}"/>
+    <hyperlink ref="D216" r:id="rId204" xr:uid="{F41BCF05-CC73-422D-8893-0B9A8DAAA427}"/>
+    <hyperlink ref="D217" r:id="rId205" xr:uid="{511CA28D-F4D7-4764-8143-3595BDCD915C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <headerFooter>

--- a/メニュー/メニュー.xlsx
+++ b/メニュー/メニュー.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\svmfile\filesv\102003001DX推進課\【令和7年度】\50_事業\10-01_スマートシティ推進事業費\02_スマートマップ焼津保守運用業務\50_地図データ\03_Github更新\ととフェス\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\vm22flo01\DownloadFiles\DX推進課\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09BA2BF1-51F1-46A3-9BCE-4A7C94ADA543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60451AA3-5BE4-4106-80B2-07AF93BBEE65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2630,9 +2630,6 @@
     </r>
   </si>
   <si>
-    <t>大井川地区（乗降位置）</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <u/>
@@ -2648,9 +2645,6 @@
     <t>demand-taxi-lightblue</t>
   </si>
   <si>
-    <t>大井川地区（乗降区域）</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <u/>
@@ -2741,12 +2735,6 @@
     <t>#ABE0EB</t>
   </si>
   <si>
-    <t>ごみ・リサイクル</t>
-  </si>
-  <si>
-    <t>リサイクル拠点</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <u/>
@@ -3492,23 +3480,6 @@
   </si>
   <si>
     <t>wifi-access-point</t>
-  </si>
-  <si>
-    <t>災害ごみ受入場所</t>
-    <rPh sb="0" eb="2">
-      <t>サイガイ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ウケイレ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>バショ</t>
-    </rPh>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
-    <t>https://yaizu-smartcity.jp/tiles/%E7%81%BD%E5%AE%B3%E3%81%94%E3%81%BF/tiles.json</t>
-    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>ベジチェック設置場所</t>
@@ -3752,6 +3723,39 @@
   </si>
   <si>
     <t>star</t>
+  </si>
+  <si>
+    <t>大井川地区（乗降区域）</t>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>大井川地区（乗降位置）</t>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>ビーチクリーン大作戦（海岸清掃）</t>
+    <rPh sb="7" eb="10">
+      <t>ダイサクセン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カイガン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>セイソウ</t>
+    </rPh>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>リサイクル拠点</t>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>ごみ・リサイクル</t>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>https://yaizu-smartcity.jp/tiles/%E3%83%93%E3%83%BC%E3%83%81%E3%82%AF%E3%83%AA%E3%83%BC%E3%83%B3%E5%A4%A7%E4%BD%9C%E6%88%A6/tiles.json</t>
+    <phoneticPr fontId="13"/>
   </si>
 </sst>
 </file>
@@ -4079,7 +4083,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4189,6 +4193,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -4413,10 +4420,10 @@
   <dimension ref="A1:Z1010"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D208" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D158" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J220" sqref="J220"/>
+      <selection pane="bottomRight" activeCell="B172" sqref="B172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -10447,18 +10454,18 @@
       <c r="B158" s="8" t="s">
         <v>402</v>
       </c>
-      <c r="C158" s="6" t="s">
+      <c r="C158" s="47" t="s">
+        <v>607</v>
+      </c>
+      <c r="D158" s="11" t="s">
         <v>416</v>
-      </c>
-      <c r="D158" s="11" t="s">
-        <v>417</v>
       </c>
       <c r="E158" s="5"/>
       <c r="F158" s="5"/>
       <c r="G158" s="5"/>
       <c r="H158" s="5"/>
       <c r="I158" s="8" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="J158" s="5"/>
       <c r="K158" s="5"/>
@@ -10485,21 +10492,21 @@
       <c r="B159" s="8" t="s">
         <v>402</v>
       </c>
-      <c r="C159" s="6" t="s">
+      <c r="C159" s="47" t="s">
+        <v>606</v>
+      </c>
+      <c r="D159" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="E159" s="6" t="s">
         <v>419</v>
       </c>
-      <c r="D159" s="11" t="s">
-        <v>420</v>
-      </c>
-      <c r="E159" s="6" t="s">
-        <v>421</v>
-      </c>
       <c r="F159" s="6" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="G159" s="5"/>
       <c r="H159" s="6" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="I159" s="5"/>
       <c r="J159" s="5"/>
@@ -10525,21 +10532,21 @@
         <v>378</v>
       </c>
       <c r="B160" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="C160" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="D160" s="13" t="s">
         <v>422</v>
       </c>
-      <c r="C160" s="6" t="s">
+      <c r="E160" s="6" t="s">
         <v>423</v>
-      </c>
-      <c r="D160" s="13" t="s">
-        <v>424</v>
-      </c>
-      <c r="E160" s="6" t="s">
-        <v>425</v>
       </c>
       <c r="F160" s="5"/>
       <c r="G160" s="5"/>
       <c r="H160" s="6" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="I160" s="5"/>
       <c r="J160" s="5"/>
@@ -10565,21 +10572,21 @@
         <v>378</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C161" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="D161" s="13" t="s">
+        <v>425</v>
+      </c>
+      <c r="E161" s="6" t="s">
         <v>426</v>
-      </c>
-      <c r="D161" s="13" t="s">
-        <v>427</v>
-      </c>
-      <c r="E161" s="6" t="s">
-        <v>428</v>
       </c>
       <c r="F161" s="5"/>
       <c r="G161" s="5"/>
       <c r="H161" s="6" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="I161" s="5"/>
       <c r="J161" s="5"/>
@@ -10605,21 +10612,21 @@
         <v>378</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C162" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="D162" s="13" t="s">
+        <v>428</v>
+      </c>
+      <c r="E162" s="6" t="s">
         <v>429</v>
-      </c>
-      <c r="D162" s="13" t="s">
-        <v>430</v>
-      </c>
-      <c r="E162" s="6" t="s">
-        <v>431</v>
       </c>
       <c r="F162" s="5"/>
       <c r="G162" s="5"/>
       <c r="H162" s="6" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="I162" s="5"/>
       <c r="J162" s="5"/>
@@ -10645,21 +10652,21 @@
         <v>378</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C163" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="D163" s="13" t="s">
+        <v>431</v>
+      </c>
+      <c r="E163" s="6" t="s">
         <v>432</v>
-      </c>
-      <c r="D163" s="13" t="s">
-        <v>433</v>
-      </c>
-      <c r="E163" s="6" t="s">
-        <v>434</v>
       </c>
       <c r="F163" s="5"/>
       <c r="G163" s="5"/>
       <c r="H163" s="6" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="I163" s="5"/>
       <c r="J163" s="5"/>
@@ -10685,19 +10692,19 @@
         <v>378</v>
       </c>
       <c r="B164" s="29" t="s">
+        <v>565</v>
+      </c>
+      <c r="C164" s="29" t="s">
+        <v>566</v>
+      </c>
+      <c r="D164" s="32" t="s">
         <v>571</v>
-      </c>
-      <c r="C164" s="29" t="s">
-        <v>572</v>
-      </c>
-      <c r="D164" s="32" t="s">
-        <v>577</v>
       </c>
       <c r="E164" s="6"/>
       <c r="F164" s="5"/>
       <c r="G164" s="5"/>
       <c r="H164" s="6" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="I164" s="5"/>
       <c r="J164" s="5"/>
@@ -10723,19 +10730,19 @@
         <v>378</v>
       </c>
       <c r="B165" s="29" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="C165" s="29" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="D165" s="32" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="E165" s="6"/>
       <c r="F165" s="5"/>
       <c r="G165" s="5"/>
       <c r="H165" s="6" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="I165" s="5"/>
       <c r="J165" s="5"/>
@@ -10761,19 +10768,19 @@
         <v>378</v>
       </c>
       <c r="B166" s="29" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="C166" s="29" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="D166" s="31" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="E166" s="6"/>
       <c r="F166" s="5"/>
       <c r="G166" s="5"/>
       <c r="H166" s="6" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="I166" s="5"/>
       <c r="J166" s="5"/>
@@ -10799,19 +10806,19 @@
         <v>378</v>
       </c>
       <c r="B167" s="29" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="C167" s="29" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="D167" s="32" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="E167" s="6"/>
       <c r="F167" s="5"/>
       <c r="G167" s="5"/>
       <c r="H167" s="6" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="I167" s="5"/>
       <c r="J167" s="5"/>
@@ -10837,19 +10844,19 @@
         <v>378</v>
       </c>
       <c r="B168" s="29" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="C168" s="29" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="D168" s="32" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="E168" s="6"/>
       <c r="F168" s="5"/>
       <c r="G168" s="5"/>
       <c r="H168" s="6" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="I168" s="5"/>
       <c r="J168" s="5"/>
@@ -10871,15 +10878,15 @@
       <c r="Z168" s="3"/>
     </row>
     <row r="169" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A169" s="6" t="s">
-        <v>435</v>
+      <c r="A169" s="47" t="s">
+        <v>610</v>
       </c>
       <c r="B169" s="6"/>
       <c r="C169" s="28" t="s">
-        <v>566</v>
+        <v>608</v>
       </c>
       <c r="D169" s="27" t="s">
-        <v>567</v>
+        <v>611</v>
       </c>
       <c r="E169" s="6"/>
       <c r="F169" s="5"/>
@@ -10907,15 +10914,15 @@
       <c r="Z169" s="3"/>
     </row>
     <row r="170" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A170" s="6" t="s">
-        <v>435</v>
+      <c r="A170" s="47" t="s">
+        <v>610</v>
       </c>
       <c r="B170" s="5"/>
-      <c r="C170" s="6" t="s">
-        <v>436</v>
+      <c r="C170" s="47" t="s">
+        <v>609</v>
       </c>
       <c r="D170" s="11" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="E170" s="6" t="s">
         <v>291</v>
@@ -10946,19 +10953,19 @@
     </row>
     <row r="171" spans="1:26" ht="13.5" customHeight="1">
       <c r="A171" s="8" t="s">
+        <v>434</v>
+      </c>
+      <c r="B171" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="C171" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="D171" s="11" t="s">
+        <v>437</v>
+      </c>
+      <c r="E171" s="6" t="s">
         <v>438</v>
-      </c>
-      <c r="B171" s="6" t="s">
-        <v>439</v>
-      </c>
-      <c r="C171" s="6" t="s">
-        <v>440</v>
-      </c>
-      <c r="D171" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="E171" s="6" t="s">
-        <v>442</v>
       </c>
       <c r="F171" s="6" t="s">
         <v>294</v>
@@ -10986,19 +10993,19 @@
     </row>
     <row r="172" spans="1:26" ht="13.5" customHeight="1">
       <c r="A172" s="8" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="B172" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="C172" s="6" t="s">
         <v>439</v>
       </c>
-      <c r="C172" s="6" t="s">
-        <v>443</v>
-      </c>
       <c r="D172" s="11" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="E172" s="6" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="F172" s="6" t="s">
         <v>294</v>
@@ -11026,24 +11033,24 @@
     </row>
     <row r="173" spans="1:26" ht="13.5" customHeight="1">
       <c r="A173" s="8" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="B173" s="6" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="C173" s="6" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="D173" s="11" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="E173" s="5"/>
       <c r="F173" s="6" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="G173" s="5"/>
       <c r="H173" s="6" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="I173" s="5"/>
       <c r="J173" s="5"/>
@@ -11066,26 +11073,26 @@
     </row>
     <row r="174" spans="1:26" ht="13.5" customHeight="1">
       <c r="A174" s="8" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="B174" s="6" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="C174" s="6" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="D174" s="11" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="E174" s="6" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="F174" s="6" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="G174" s="5"/>
       <c r="H174" s="6" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="I174" s="5"/>
       <c r="J174" s="5"/>
@@ -11108,16 +11115,16 @@
     </row>
     <row r="175" spans="1:26" ht="13.5" customHeight="1">
       <c r="A175" s="8" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="B175" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="C175" s="6" t="s">
         <v>449</v>
       </c>
-      <c r="C175" s="6" t="s">
-        <v>453</v>
-      </c>
       <c r="D175" s="11" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="E175" s="6" t="s">
         <v>23</v>
@@ -11150,21 +11157,21 @@
     </row>
     <row r="176" spans="1:26" ht="13.5" customHeight="1">
       <c r="A176" s="8" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="B176" s="5"/>
       <c r="C176" s="6" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="D176" s="11" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="E176" s="5"/>
       <c r="F176" s="5"/>
       <c r="G176" s="5"/>
       <c r="H176" s="5"/>
       <c r="I176" s="6" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="J176" s="5"/>
       <c r="K176" s="5"/>
@@ -11186,23 +11193,23 @@
     </row>
     <row r="177" spans="1:26" ht="13.5" customHeight="1">
       <c r="A177" s="8" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="B177" s="8" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="C177" s="8" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="D177" s="11" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="E177" s="5"/>
       <c r="F177" s="5"/>
       <c r="G177" s="5"/>
       <c r="H177" s="5"/>
       <c r="I177" s="8" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="J177" s="5"/>
       <c r="K177" s="5"/>
@@ -11224,16 +11231,16 @@
     </row>
     <row r="178" spans="1:26" ht="13.5" customHeight="1">
       <c r="A178" s="8" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="B178" s="8" t="s">
+        <v>455</v>
+      </c>
+      <c r="C178" s="8" t="s">
         <v>459</v>
       </c>
-      <c r="C178" s="8" t="s">
-        <v>463</v>
-      </c>
       <c r="D178" s="11" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="E178" s="6" t="s">
         <v>291</v>
@@ -11264,23 +11271,23 @@
     </row>
     <row r="179" spans="1:26" ht="13.5" customHeight="1">
       <c r="A179" s="8" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="B179" s="8" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="C179" s="8" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="D179" s="18" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="E179" s="19"/>
       <c r="F179" s="19"/>
       <c r="G179" s="19"/>
       <c r="H179" s="20"/>
       <c r="I179" s="8" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="J179" s="5"/>
       <c r="K179" s="5"/>
@@ -11302,24 +11309,24 @@
     </row>
     <row r="180" spans="1:26" ht="13.5" customHeight="1">
       <c r="A180" s="8" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="B180" s="8" t="s">
+        <v>461</v>
+      </c>
+      <c r="C180" s="8" t="s">
         <v>465</v>
       </c>
-      <c r="C180" s="8" t="s">
-        <v>469</v>
-      </c>
       <c r="D180" s="11" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="E180" s="6" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="F180" s="5"/>
       <c r="G180" s="5"/>
       <c r="H180" s="6" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="I180" s="5"/>
       <c r="J180" s="5"/>
@@ -11342,20 +11349,20 @@
     </row>
     <row r="181" spans="1:26" ht="13.5" customHeight="1">
       <c r="A181" s="8" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="B181" s="8" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="C181" s="8" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="D181" s="11" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="E181" s="5"/>
       <c r="F181" s="6" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="G181" s="5"/>
       <c r="H181" s="5"/>
@@ -11380,20 +11387,20 @@
     </row>
     <row r="182" spans="1:26" ht="13.5" customHeight="1">
       <c r="A182" s="8" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="B182" s="8" t="s">
+        <v>468</v>
+      </c>
+      <c r="C182" s="8" t="s">
         <v>472</v>
       </c>
-      <c r="C182" s="8" t="s">
-        <v>476</v>
-      </c>
       <c r="D182" s="11" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="E182" s="5"/>
       <c r="F182" s="6" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="G182" s="5"/>
       <c r="H182" s="5"/>
@@ -11418,20 +11425,20 @@
     </row>
     <row r="183" spans="1:26" ht="13.5" customHeight="1">
       <c r="A183" s="8" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="B183" s="8" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="C183" s="8" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="D183" s="11" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="E183" s="5"/>
       <c r="F183" s="6" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="G183" s="5"/>
       <c r="H183" s="5"/>
@@ -11456,20 +11463,20 @@
     </row>
     <row r="184" spans="1:26" ht="13.5" customHeight="1">
       <c r="A184" s="8" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="B184" s="8" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="C184" s="8" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="D184" s="11" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="E184" s="5"/>
       <c r="F184" s="6" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="G184" s="5"/>
       <c r="H184" s="5"/>
@@ -11494,20 +11501,20 @@
     </row>
     <row r="185" spans="1:26" ht="13.5" customHeight="1">
       <c r="A185" s="8" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="B185" s="8" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="C185" s="8" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="D185" s="11" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="E185" s="5"/>
       <c r="F185" s="6" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="G185" s="5"/>
       <c r="H185" s="5"/>
@@ -11532,20 +11539,20 @@
     </row>
     <row r="186" spans="1:26" ht="13.5" customHeight="1">
       <c r="A186" s="8" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="B186" s="8" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="C186" s="8" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="D186" s="11" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="E186" s="5"/>
       <c r="F186" s="6" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="G186" s="5"/>
       <c r="H186" s="5"/>
@@ -11570,20 +11577,20 @@
     </row>
     <row r="187" spans="1:26" ht="13.5" customHeight="1">
       <c r="A187" s="8" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="B187" s="8" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="C187" s="8" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="D187" s="11" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="E187" s="5"/>
       <c r="F187" s="6" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="G187" s="5"/>
       <c r="H187" s="5"/>
@@ -11608,20 +11615,20 @@
     </row>
     <row r="188" spans="1:26" ht="13.5" customHeight="1">
       <c r="A188" s="8" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="B188" s="8" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="C188" s="8" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="D188" s="11" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="E188" s="5"/>
       <c r="F188" s="6" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="G188" s="5"/>
       <c r="H188" s="5"/>
@@ -11646,20 +11653,20 @@
     </row>
     <row r="189" spans="1:26" ht="13.5" customHeight="1">
       <c r="A189" s="8" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="B189" s="8" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="C189" s="8" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="D189" s="11" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="E189" s="5"/>
       <c r="F189" s="6" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="G189" s="5"/>
       <c r="H189" s="5"/>
@@ -11684,20 +11691,20 @@
     </row>
     <row r="190" spans="1:26" ht="13.5" customHeight="1">
       <c r="A190" s="8" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="B190" s="8" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="C190" s="8" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="D190" s="11" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="E190" s="5"/>
       <c r="F190" s="6" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="G190" s="5"/>
       <c r="H190" s="5"/>
@@ -11722,20 +11729,20 @@
     </row>
     <row r="191" spans="1:26" ht="13.5" customHeight="1">
       <c r="A191" s="8" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="B191" s="8" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="C191" s="8" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="D191" s="11" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="E191" s="5"/>
       <c r="F191" s="6" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="G191" s="5"/>
       <c r="H191" s="5"/>
@@ -11760,20 +11767,20 @@
     </row>
     <row r="192" spans="1:26" ht="13.5" customHeight="1">
       <c r="A192" s="8" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="B192" s="8" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="C192" s="8" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="D192" s="11" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="E192" s="5"/>
       <c r="F192" s="6" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="G192" s="5"/>
       <c r="H192" s="5"/>
@@ -11798,20 +11805,20 @@
     </row>
     <row r="193" spans="1:26" ht="13.5" customHeight="1">
       <c r="A193" s="8" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="B193" s="8" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="C193" s="8" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="D193" s="11" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="E193" s="5"/>
       <c r="F193" s="6" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="G193" s="5"/>
       <c r="H193" s="5"/>
@@ -11836,22 +11843,22 @@
     </row>
     <row r="194" spans="1:26" ht="13.5" customHeight="1">
       <c r="A194" s="8" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="B194" s="8" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="C194" s="8" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="D194" s="11" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="E194" s="5"/>
       <c r="F194" s="5"/>
       <c r="G194" s="5"/>
       <c r="H194" s="5" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="I194" s="5"/>
       <c r="J194" s="5"/>
@@ -11874,22 +11881,22 @@
     </row>
     <row r="195" spans="1:26" ht="13.5" customHeight="1">
       <c r="A195" s="8" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="B195" s="8" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="C195" s="8" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="D195" s="11" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="E195" s="5"/>
       <c r="F195" s="5"/>
       <c r="G195" s="5"/>
       <c r="H195" s="5" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="I195" s="5"/>
       <c r="J195" s="5"/>
@@ -11912,22 +11919,22 @@
     </row>
     <row r="196" spans="1:26" ht="13.5" customHeight="1">
       <c r="A196" s="8" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="B196" s="8" t="s">
+        <v>512</v>
+      </c>
+      <c r="C196" s="8" t="s">
         <v>516</v>
       </c>
-      <c r="C196" s="8" t="s">
-        <v>520</v>
-      </c>
       <c r="D196" s="11" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="E196" s="5"/>
       <c r="F196" s="5"/>
       <c r="G196" s="5"/>
       <c r="H196" s="5" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="I196" s="5"/>
       <c r="J196" s="5"/>
@@ -11950,23 +11957,23 @@
     </row>
     <row r="197" spans="1:26" ht="13.5" customHeight="1">
       <c r="A197" s="8" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="B197" s="8" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="C197" s="8" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="D197" s="11" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="E197" s="5"/>
       <c r="F197" s="5"/>
       <c r="G197" s="5"/>
       <c r="H197" s="5"/>
       <c r="I197" s="6" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="J197" s="5"/>
       <c r="K197" s="5"/>
@@ -11988,21 +11995,21 @@
     </row>
     <row r="198" spans="1:26" ht="13.5" customHeight="1">
       <c r="A198" s="8" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="B198" s="5"/>
       <c r="C198" s="8" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="D198" s="11" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="E198" s="5"/>
       <c r="F198" s="5"/>
       <c r="G198" s="5"/>
       <c r="H198" s="5"/>
       <c r="I198" s="6" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="J198" s="5"/>
       <c r="K198" s="5"/>
@@ -12024,20 +12031,20 @@
     </row>
     <row r="199" spans="1:26" ht="13.5" customHeight="1">
       <c r="A199" s="8" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="B199" s="5"/>
       <c r="C199" s="8" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="D199" s="11" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="E199" s="5" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="F199" s="5" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="G199" s="5"/>
       <c r="H199" s="5"/>
@@ -12062,21 +12069,21 @@
     </row>
     <row r="200" spans="1:26" ht="13.5" customHeight="1">
       <c r="A200" s="6" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B200" s="5"/>
       <c r="C200" s="6" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="D200" s="11" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="E200" s="5"/>
       <c r="F200" s="5"/>
       <c r="G200" s="5"/>
       <c r="H200" s="5"/>
       <c r="I200" s="6" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="J200" s="5"/>
       <c r="K200" s="5"/>
@@ -12098,21 +12105,21 @@
     </row>
     <row r="201" spans="1:26" ht="13.5" customHeight="1">
       <c r="A201" s="6" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B201" s="5"/>
       <c r="C201" s="8" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="D201" s="11" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="E201" s="5"/>
       <c r="F201" s="5"/>
       <c r="G201" s="5"/>
       <c r="H201" s="5"/>
       <c r="I201" s="8" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="J201" s="5"/>
       <c r="K201" s="5"/>
@@ -12134,21 +12141,21 @@
     </row>
     <row r="202" spans="1:26" ht="13.5" customHeight="1">
       <c r="A202" s="6" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B202" s="5"/>
       <c r="C202" s="8" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="D202" s="11" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="E202" s="5"/>
       <c r="F202" s="5"/>
       <c r="G202" s="5"/>
       <c r="H202" s="5"/>
       <c r="I202" s="6" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="J202" s="5"/>
       <c r="K202" s="5"/>
@@ -12170,21 +12177,21 @@
     </row>
     <row r="203" spans="1:26" ht="13.5" customHeight="1">
       <c r="A203" s="6" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B203" s="5"/>
       <c r="C203" s="6" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="D203" s="11" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="E203" s="5"/>
       <c r="F203" s="5"/>
       <c r="G203" s="5"/>
       <c r="H203" s="5"/>
       <c r="I203" s="6" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="J203" s="5"/>
       <c r="K203" s="5"/>
@@ -12206,17 +12213,17 @@
     </row>
     <row r="204" spans="1:26" ht="13.5" customHeight="1">
       <c r="A204" s="6" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B204" s="5"/>
       <c r="C204" s="6" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="D204" s="11" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="E204" s="6" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="F204" s="5"/>
       <c r="G204" s="5"/>
@@ -12242,21 +12249,21 @@
     </row>
     <row r="205" spans="1:26" ht="13.5" customHeight="1">
       <c r="A205" s="8" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="B205" s="5"/>
       <c r="C205" s="29" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="D205" s="30" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="E205" s="6"/>
       <c r="F205" s="5"/>
       <c r="G205" s="5"/>
       <c r="H205" s="5"/>
       <c r="I205" s="5" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="J205" s="5"/>
       <c r="K205" s="5"/>
@@ -12278,21 +12285,21 @@
     </row>
     <row r="206" spans="1:26" ht="13.5" customHeight="1">
       <c r="A206" s="8" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="B206" s="4"/>
       <c r="C206" s="21" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="D206" s="22" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="E206" s="4"/>
       <c r="F206" s="5"/>
       <c r="G206" s="5"/>
       <c r="H206" s="4"/>
       <c r="I206" s="6" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="J206" s="5"/>
       <c r="K206" s="5"/>
@@ -12314,21 +12321,21 @@
     </row>
     <row r="207" spans="1:26" ht="13.5" customHeight="1">
       <c r="A207" s="8" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="B207" s="4"/>
       <c r="C207" s="8" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="D207" s="9" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="E207" s="4"/>
       <c r="F207" s="5"/>
       <c r="G207" s="5"/>
       <c r="H207" s="4"/>
       <c r="I207" s="6" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="J207" s="5"/>
       <c r="K207" s="5"/>
@@ -12350,21 +12357,21 @@
     </row>
     <row r="208" spans="1:26" ht="13.5" customHeight="1">
       <c r="A208" s="8" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="B208" s="4"/>
       <c r="C208" s="8" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="D208" s="9" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="E208" s="4"/>
       <c r="F208" s="5"/>
       <c r="G208" s="5"/>
       <c r="H208" s="4"/>
       <c r="I208" s="6" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="J208" s="5"/>
       <c r="K208" s="5"/>
@@ -12386,21 +12393,21 @@
     </row>
     <row r="209" spans="1:26" ht="13.5" customHeight="1">
       <c r="A209" s="8" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="B209" s="5"/>
       <c r="C209" s="6" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="D209" s="11" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="E209" s="5"/>
       <c r="F209" s="5"/>
       <c r="G209" s="5"/>
       <c r="H209" s="5"/>
       <c r="I209" s="6" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="J209" s="5"/>
       <c r="K209" s="5"/>
@@ -12422,21 +12429,21 @@
     </row>
     <row r="210" spans="1:26" ht="13.5" customHeight="1">
       <c r="A210" s="8" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="B210" s="5"/>
       <c r="C210" s="6" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="D210" s="35" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="E210" s="5"/>
       <c r="F210" s="5"/>
       <c r="G210" s="5"/>
       <c r="H210" s="5"/>
       <c r="I210" s="6" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="J210" s="5"/>
       <c r="K210" s="5"/>
@@ -12458,17 +12465,17 @@
     </row>
     <row r="211" spans="1:26" ht="13.5" customHeight="1">
       <c r="A211" s="23" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="B211" s="5"/>
       <c r="C211" s="40" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="D211" s="41" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="E211" s="5" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="F211" s="5"/>
       <c r="G211" s="5"/>
@@ -12494,17 +12501,17 @@
     </row>
     <row r="212" spans="1:26" ht="13.5" customHeight="1">
       <c r="A212" s="23" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="B212" s="38"/>
       <c r="C212" s="44" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="D212" s="36" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="E212" s="5" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="F212" s="5"/>
       <c r="G212" s="5"/>
@@ -12530,17 +12537,17 @@
     </row>
     <row r="213" spans="1:26" ht="13.5" customHeight="1">
       <c r="A213" s="23" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="B213" s="38"/>
       <c r="C213" s="44" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="D213" s="36" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="E213" s="5" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="F213" s="5"/>
       <c r="G213" s="5"/>
@@ -12566,21 +12573,21 @@
     </row>
     <row r="214" spans="1:26" ht="13.5" customHeight="1">
       <c r="A214" s="23" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="B214" s="39"/>
       <c r="C214" s="45" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="D214" s="46" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="E214" s="34"/>
       <c r="F214" s="5"/>
       <c r="G214" s="5"/>
       <c r="H214" s="5"/>
       <c r="I214" s="6" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="J214" s="5"/>
       <c r="K214" s="5"/>
@@ -12602,10 +12609,10 @@
     </row>
     <row r="215" spans="1:26" ht="13.5" customHeight="1">
       <c r="A215" s="23" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="B215" s="37" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="C215" s="42" t="s">
         <v>212</v>
@@ -12640,10 +12647,10 @@
     </row>
     <row r="216" spans="1:26" ht="13.5" customHeight="1">
       <c r="A216" s="23" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="B216" s="37" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="C216" s="6" t="s">
         <v>215</v>
@@ -12678,10 +12685,10 @@
     </row>
     <row r="217" spans="1:26" ht="13.5" customHeight="1">
       <c r="A217" s="23" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="B217" s="37" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="C217" s="8" t="s">
         <v>225</v>
@@ -12716,23 +12723,23 @@
     </row>
     <row r="218" spans="1:26" ht="13.5" customHeight="1">
       <c r="A218" s="23" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="B218" s="37" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="C218" s="25" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="D218" s="24" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="E218" s="5"/>
       <c r="F218" s="5"/>
       <c r="G218" s="5"/>
       <c r="H218" s="5"/>
       <c r="I218" s="5" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="J218" s="5"/>
       <c r="K218" s="5"/>
@@ -12754,16 +12761,16 @@
     </row>
     <row r="219" spans="1:26" ht="13.5" customHeight="1">
       <c r="A219" s="23" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="B219" s="33" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="C219" s="25" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="D219" s="24" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="E219" s="5"/>
       <c r="F219" s="5"/>
@@ -12792,16 +12799,16 @@
     </row>
     <row r="220" spans="1:26" ht="13.5" customHeight="1">
       <c r="A220" s="23" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="B220" s="33" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="C220" s="25" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="D220" s="24" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="E220" s="5"/>
       <c r="F220" s="5"/>
@@ -12830,23 +12837,23 @@
     </row>
     <row r="221" spans="1:26" ht="13.5" customHeight="1">
       <c r="A221" s="23" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="B221" s="33" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="C221" s="25" t="s">
+        <v>591</v>
+      </c>
+      <c r="D221" s="24" t="s">
         <v>597</v>
-      </c>
-      <c r="D221" s="24" t="s">
-        <v>603</v>
       </c>
       <c r="E221" s="5"/>
       <c r="F221" s="5"/>
       <c r="G221" s="5"/>
       <c r="H221" s="5"/>
       <c r="I221" s="5" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="J221" s="5"/>
       <c r="K221" s="5"/>
@@ -19039,15 +19046,15 @@
     <hyperlink ref="D208" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
     <hyperlink ref="D209" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
     <hyperlink ref="D210" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
-    <hyperlink ref="D169" r:id="rId198" xr:uid="{0E1E66AB-E725-4DC2-A9E7-89AB9F93D44F}"/>
-    <hyperlink ref="D205" r:id="rId199" xr:uid="{FB5BD734-C92C-4DCB-AC83-E67BDA12DFF4}"/>
-    <hyperlink ref="D164" r:id="rId200" xr:uid="{E6F63535-7CB0-4B0A-8A9B-2FF45193FA31}"/>
-    <hyperlink ref="D165" r:id="rId201" xr:uid="{23618A7F-70F1-429D-A989-04E42D5219C5}"/>
-    <hyperlink ref="D167" r:id="rId202" xr:uid="{A61CFECD-5D13-489A-855F-076420E34CFD}"/>
-    <hyperlink ref="D168" r:id="rId203" xr:uid="{6EDE7FBD-C182-4315-93DC-5FE3983DF025}"/>
-    <hyperlink ref="D215" r:id="rId204" xr:uid="{F8CC161C-3698-4455-AE50-3DBD3D45797B}"/>
-    <hyperlink ref="D216" r:id="rId205" xr:uid="{F41BCF05-CC73-422D-8893-0B9A8DAAA427}"/>
-    <hyperlink ref="D217" r:id="rId206" xr:uid="{511CA28D-F4D7-4764-8143-3595BDCD915C}"/>
+    <hyperlink ref="D205" r:id="rId198" xr:uid="{FB5BD734-C92C-4DCB-AC83-E67BDA12DFF4}"/>
+    <hyperlink ref="D164" r:id="rId199" xr:uid="{E6F63535-7CB0-4B0A-8A9B-2FF45193FA31}"/>
+    <hyperlink ref="D165" r:id="rId200" xr:uid="{23618A7F-70F1-429D-A989-04E42D5219C5}"/>
+    <hyperlink ref="D167" r:id="rId201" xr:uid="{A61CFECD-5D13-489A-855F-076420E34CFD}"/>
+    <hyperlink ref="D168" r:id="rId202" xr:uid="{6EDE7FBD-C182-4315-93DC-5FE3983DF025}"/>
+    <hyperlink ref="D215" r:id="rId203" xr:uid="{F8CC161C-3698-4455-AE50-3DBD3D45797B}"/>
+    <hyperlink ref="D216" r:id="rId204" xr:uid="{F41BCF05-CC73-422D-8893-0B9A8DAAA427}"/>
+    <hyperlink ref="D217" r:id="rId205" xr:uid="{511CA28D-F4D7-4764-8143-3595BDCD915C}"/>
+    <hyperlink ref="D169" r:id="rId206" xr:uid="{73510502-1858-43FA-99B1-A81975C45762}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <headerFooter>

--- a/メニュー/メニュー.xlsx
+++ b/メニュー/メニュー.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\vm22flo01\DownloadFiles\DX推進課\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\svmfile\filesv\102003001DX推進課\【令和7年度】\50_事業\10-01_スマートシティ推進事業費\02_スマートマップ焼津保守運用業務\50_地図データ\03_Github更新\ととフェス\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60451AA3-5BE4-4106-80B2-07AF93BBEE65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09BA2BF1-51F1-46A3-9BCE-4A7C94ADA543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2630,6 +2630,9 @@
     </r>
   </si>
   <si>
+    <t>大井川地区（乗降位置）</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <u/>
@@ -2645,6 +2648,9 @@
     <t>demand-taxi-lightblue</t>
   </si>
   <si>
+    <t>大井川地区（乗降区域）</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <u/>
@@ -2735,6 +2741,12 @@
     <t>#ABE0EB</t>
   </si>
   <si>
+    <t>ごみ・リサイクル</t>
+  </si>
+  <si>
+    <t>リサイクル拠点</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <u/>
@@ -3480,6 +3492,23 @@
   </si>
   <si>
     <t>wifi-access-point</t>
+  </si>
+  <si>
+    <t>災害ごみ受入場所</t>
+    <rPh sb="0" eb="2">
+      <t>サイガイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ウケイレ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>バショ</t>
+    </rPh>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>https://yaizu-smartcity.jp/tiles/%E7%81%BD%E5%AE%B3%E3%81%94%E3%81%BF/tiles.json</t>
+    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>ベジチェック設置場所</t>
@@ -3723,39 +3752,6 @@
   </si>
   <si>
     <t>star</t>
-  </si>
-  <si>
-    <t>大井川地区（乗降区域）</t>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
-    <t>大井川地区（乗降位置）</t>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
-    <t>ビーチクリーン大作戦（海岸清掃）</t>
-    <rPh sb="7" eb="10">
-      <t>ダイサクセン</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>カイガン</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>セイソウ</t>
-    </rPh>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
-    <t>リサイクル拠点</t>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
-    <t>ごみ・リサイクル</t>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
-    <t>https://yaizu-smartcity.jp/tiles/%E3%83%93%E3%83%BC%E3%83%81%E3%82%AF%E3%83%AA%E3%83%BC%E3%83%B3%E5%A4%A7%E4%BD%9C%E6%88%A6/tiles.json</t>
-    <phoneticPr fontId="13"/>
   </si>
 </sst>
 </file>
@@ -4083,7 +4079,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4193,9 +4189,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -4420,10 +4413,10 @@
   <dimension ref="A1:Z1010"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D158" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D208" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B172" sqref="B172"/>
+      <selection pane="bottomRight" activeCell="J220" sqref="J220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -10454,18 +10447,18 @@
       <c r="B158" s="8" t="s">
         <v>402</v>
       </c>
-      <c r="C158" s="47" t="s">
-        <v>607</v>
+      <c r="C158" s="6" t="s">
+        <v>416</v>
       </c>
       <c r="D158" s="11" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="E158" s="5"/>
       <c r="F158" s="5"/>
       <c r="G158" s="5"/>
       <c r="H158" s="5"/>
       <c r="I158" s="8" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="J158" s="5"/>
       <c r="K158" s="5"/>
@@ -10492,21 +10485,21 @@
       <c r="B159" s="8" t="s">
         <v>402</v>
       </c>
-      <c r="C159" s="47" t="s">
-        <v>606</v>
+      <c r="C159" s="6" t="s">
+        <v>419</v>
       </c>
       <c r="D159" s="11" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="E159" s="6" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="F159" s="6" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="G159" s="5"/>
       <c r="H159" s="6" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="I159" s="5"/>
       <c r="J159" s="5"/>
@@ -10532,21 +10525,21 @@
         <v>378</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="C160" s="6" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="D160" s="13" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="E160" s="6" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="F160" s="5"/>
       <c r="G160" s="5"/>
       <c r="H160" s="6" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="I160" s="5"/>
       <c r="J160" s="5"/>
@@ -10572,21 +10565,21 @@
         <v>378</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="C161" s="6" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="D161" s="13" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="E161" s="6" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="F161" s="5"/>
       <c r="G161" s="5"/>
       <c r="H161" s="6" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="I161" s="5"/>
       <c r="J161" s="5"/>
@@ -10612,21 +10605,21 @@
         <v>378</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="C162" s="6" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="D162" s="13" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="E162" s="6" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="F162" s="5"/>
       <c r="G162" s="5"/>
       <c r="H162" s="6" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="I162" s="5"/>
       <c r="J162" s="5"/>
@@ -10652,21 +10645,21 @@
         <v>378</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="C163" s="6" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="D163" s="13" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="E163" s="6" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="F163" s="5"/>
       <c r="G163" s="5"/>
       <c r="H163" s="6" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="I163" s="5"/>
       <c r="J163" s="5"/>
@@ -10692,19 +10685,19 @@
         <v>378</v>
       </c>
       <c r="B164" s="29" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="C164" s="29" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="D164" s="32" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
       <c r="E164" s="6"/>
       <c r="F164" s="5"/>
       <c r="G164" s="5"/>
       <c r="H164" s="6" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
       <c r="I164" s="5"/>
       <c r="J164" s="5"/>
@@ -10730,19 +10723,19 @@
         <v>378</v>
       </c>
       <c r="B165" s="29" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="C165" s="29" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
       <c r="D165" s="32" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
       <c r="E165" s="6"/>
       <c r="F165" s="5"/>
       <c r="G165" s="5"/>
       <c r="H165" s="6" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
       <c r="I165" s="5"/>
       <c r="J165" s="5"/>
@@ -10768,19 +10761,19 @@
         <v>378</v>
       </c>
       <c r="B166" s="29" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="C166" s="29" t="s">
-        <v>568</v>
+        <v>574</v>
       </c>
       <c r="D166" s="31" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
       <c r="E166" s="6"/>
       <c r="F166" s="5"/>
       <c r="G166" s="5"/>
       <c r="H166" s="6" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
       <c r="I166" s="5"/>
       <c r="J166" s="5"/>
@@ -10806,19 +10799,19 @@
         <v>378</v>
       </c>
       <c r="B167" s="29" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="C167" s="29" t="s">
-        <v>569</v>
+        <v>575</v>
       </c>
       <c r="D167" s="32" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
       <c r="E167" s="6"/>
       <c r="F167" s="5"/>
       <c r="G167" s="5"/>
       <c r="H167" s="6" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
       <c r="I167" s="5"/>
       <c r="J167" s="5"/>
@@ -10844,19 +10837,19 @@
         <v>378</v>
       </c>
       <c r="B168" s="29" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="C168" s="29" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
       <c r="D168" s="32" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
       <c r="E168" s="6"/>
       <c r="F168" s="5"/>
       <c r="G168" s="5"/>
       <c r="H168" s="6" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
       <c r="I168" s="5"/>
       <c r="J168" s="5"/>
@@ -10878,15 +10871,15 @@
       <c r="Z168" s="3"/>
     </row>
     <row r="169" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A169" s="47" t="s">
-        <v>610</v>
+      <c r="A169" s="6" t="s">
+        <v>435</v>
       </c>
       <c r="B169" s="6"/>
       <c r="C169" s="28" t="s">
-        <v>608</v>
+        <v>566</v>
       </c>
       <c r="D169" s="27" t="s">
-        <v>611</v>
+        <v>567</v>
       </c>
       <c r="E169" s="6"/>
       <c r="F169" s="5"/>
@@ -10914,15 +10907,15 @@
       <c r="Z169" s="3"/>
     </row>
     <row r="170" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A170" s="47" t="s">
-        <v>610</v>
+      <c r="A170" s="6" t="s">
+        <v>435</v>
       </c>
       <c r="B170" s="5"/>
-      <c r="C170" s="47" t="s">
-        <v>609</v>
+      <c r="C170" s="6" t="s">
+        <v>436</v>
       </c>
       <c r="D170" s="11" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="E170" s="6" t="s">
         <v>291</v>
@@ -10953,19 +10946,19 @@
     </row>
     <row r="171" spans="1:26" ht="13.5" customHeight="1">
       <c r="A171" s="8" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="C171" s="6" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="D171" s="11" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="E171" s="6" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="F171" s="6" t="s">
         <v>294</v>
@@ -10993,19 +10986,19 @@
     </row>
     <row r="172" spans="1:26" ht="13.5" customHeight="1">
       <c r="A172" s="8" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="C172" s="6" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="D172" s="11" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="E172" s="6" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="F172" s="6" t="s">
         <v>294</v>
@@ -11033,24 +11026,24 @@
     </row>
     <row r="173" spans="1:26" ht="13.5" customHeight="1">
       <c r="A173" s="8" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="B173" s="6" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="C173" s="6" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="D173" s="11" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="E173" s="5"/>
       <c r="F173" s="6" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="G173" s="5"/>
       <c r="H173" s="6" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="I173" s="5"/>
       <c r="J173" s="5"/>
@@ -11073,26 +11066,26 @@
     </row>
     <row r="174" spans="1:26" ht="13.5" customHeight="1">
       <c r="A174" s="8" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="B174" s="6" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="C174" s="6" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="D174" s="11" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="E174" s="6" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="F174" s="6" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="G174" s="5"/>
       <c r="H174" s="6" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="I174" s="5"/>
       <c r="J174" s="5"/>
@@ -11115,16 +11108,16 @@
     </row>
     <row r="175" spans="1:26" ht="13.5" customHeight="1">
       <c r="A175" s="8" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="C175" s="6" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="D175" s="11" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="E175" s="6" t="s">
         <v>23</v>
@@ -11157,21 +11150,21 @@
     </row>
     <row r="176" spans="1:26" ht="13.5" customHeight="1">
       <c r="A176" s="8" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="B176" s="5"/>
       <c r="C176" s="6" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="D176" s="11" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="E176" s="5"/>
       <c r="F176" s="5"/>
       <c r="G176" s="5"/>
       <c r="H176" s="5"/>
       <c r="I176" s="6" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="J176" s="5"/>
       <c r="K176" s="5"/>
@@ -11193,23 +11186,23 @@
     </row>
     <row r="177" spans="1:26" ht="13.5" customHeight="1">
       <c r="A177" s="8" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="B177" s="8" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="C177" s="8" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="D177" s="11" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="E177" s="5"/>
       <c r="F177" s="5"/>
       <c r="G177" s="5"/>
       <c r="H177" s="5"/>
       <c r="I177" s="8" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="J177" s="5"/>
       <c r="K177" s="5"/>
@@ -11231,16 +11224,16 @@
     </row>
     <row r="178" spans="1:26" ht="13.5" customHeight="1">
       <c r="A178" s="8" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="B178" s="8" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="C178" s="8" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="D178" s="11" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="E178" s="6" t="s">
         <v>291</v>
@@ -11271,23 +11264,23 @@
     </row>
     <row r="179" spans="1:26" ht="13.5" customHeight="1">
       <c r="A179" s="8" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="B179" s="8" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="C179" s="8" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="D179" s="18" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="E179" s="19"/>
       <c r="F179" s="19"/>
       <c r="G179" s="19"/>
       <c r="H179" s="20"/>
       <c r="I179" s="8" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="J179" s="5"/>
       <c r="K179" s="5"/>
@@ -11309,24 +11302,24 @@
     </row>
     <row r="180" spans="1:26" ht="13.5" customHeight="1">
       <c r="A180" s="8" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="B180" s="8" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="C180" s="8" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="D180" s="11" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="E180" s="6" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="F180" s="5"/>
       <c r="G180" s="5"/>
       <c r="H180" s="6" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="I180" s="5"/>
       <c r="J180" s="5"/>
@@ -11349,20 +11342,20 @@
     </row>
     <row r="181" spans="1:26" ht="13.5" customHeight="1">
       <c r="A181" s="8" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="B181" s="8" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="C181" s="8" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="D181" s="11" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="E181" s="5"/>
       <c r="F181" s="6" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="G181" s="5"/>
       <c r="H181" s="5"/>
@@ -11387,20 +11380,20 @@
     </row>
     <row r="182" spans="1:26" ht="13.5" customHeight="1">
       <c r="A182" s="8" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="B182" s="8" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="C182" s="8" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="D182" s="11" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="E182" s="5"/>
       <c r="F182" s="6" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="G182" s="5"/>
       <c r="H182" s="5"/>
@@ -11425,20 +11418,20 @@
     </row>
     <row r="183" spans="1:26" ht="13.5" customHeight="1">
       <c r="A183" s="8" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="B183" s="8" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="C183" s="8" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="D183" s="11" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="E183" s="5"/>
       <c r="F183" s="6" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="G183" s="5"/>
       <c r="H183" s="5"/>
@@ -11463,20 +11456,20 @@
     </row>
     <row r="184" spans="1:26" ht="13.5" customHeight="1">
       <c r="A184" s="8" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="B184" s="8" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="C184" s="8" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="D184" s="11" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="E184" s="5"/>
       <c r="F184" s="6" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="G184" s="5"/>
       <c r="H184" s="5"/>
@@ -11501,20 +11494,20 @@
     </row>
     <row r="185" spans="1:26" ht="13.5" customHeight="1">
       <c r="A185" s="8" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="B185" s="8" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="C185" s="8" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="D185" s="11" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="E185" s="5"/>
       <c r="F185" s="6" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="G185" s="5"/>
       <c r="H185" s="5"/>
@@ -11539,20 +11532,20 @@
     </row>
     <row r="186" spans="1:26" ht="13.5" customHeight="1">
       <c r="A186" s="8" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="B186" s="8" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="C186" s="8" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="D186" s="11" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="E186" s="5"/>
       <c r="F186" s="6" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="G186" s="5"/>
       <c r="H186" s="5"/>
@@ -11577,20 +11570,20 @@
     </row>
     <row r="187" spans="1:26" ht="13.5" customHeight="1">
       <c r="A187" s="8" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="B187" s="8" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="C187" s="8" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="D187" s="11" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="E187" s="5"/>
       <c r="F187" s="6" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="G187" s="5"/>
       <c r="H187" s="5"/>
@@ -11615,20 +11608,20 @@
     </row>
     <row r="188" spans="1:26" ht="13.5" customHeight="1">
       <c r="A188" s="8" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="B188" s="8" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="C188" s="8" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="D188" s="11" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="E188" s="5"/>
       <c r="F188" s="6" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="G188" s="5"/>
       <c r="H188" s="5"/>
@@ -11653,20 +11646,20 @@
     </row>
     <row r="189" spans="1:26" ht="13.5" customHeight="1">
       <c r="A189" s="8" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="B189" s="8" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="C189" s="8" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="D189" s="11" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="E189" s="5"/>
       <c r="F189" s="6" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="G189" s="5"/>
       <c r="H189" s="5"/>
@@ -11691,20 +11684,20 @@
     </row>
     <row r="190" spans="1:26" ht="13.5" customHeight="1">
       <c r="A190" s="8" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="B190" s="8" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="C190" s="8" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="D190" s="11" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="E190" s="5"/>
       <c r="F190" s="6" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="G190" s="5"/>
       <c r="H190" s="5"/>
@@ -11729,20 +11722,20 @@
     </row>
     <row r="191" spans="1:26" ht="13.5" customHeight="1">
       <c r="A191" s="8" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="B191" s="8" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="C191" s="8" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="D191" s="11" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="E191" s="5"/>
       <c r="F191" s="6" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="G191" s="5"/>
       <c r="H191" s="5"/>
@@ -11767,20 +11760,20 @@
     </row>
     <row r="192" spans="1:26" ht="13.5" customHeight="1">
       <c r="A192" s="8" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="B192" s="8" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="C192" s="8" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="D192" s="11" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="E192" s="5"/>
       <c r="F192" s="6" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="G192" s="5"/>
       <c r="H192" s="5"/>
@@ -11805,20 +11798,20 @@
     </row>
     <row r="193" spans="1:26" ht="13.5" customHeight="1">
       <c r="A193" s="8" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="B193" s="8" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="C193" s="8" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="D193" s="11" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="E193" s="5"/>
       <c r="F193" s="6" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="G193" s="5"/>
       <c r="H193" s="5"/>
@@ -11843,22 +11836,22 @@
     </row>
     <row r="194" spans="1:26" ht="13.5" customHeight="1">
       <c r="A194" s="8" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="B194" s="8" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="C194" s="8" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="D194" s="11" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="E194" s="5"/>
       <c r="F194" s="5"/>
       <c r="G194" s="5"/>
       <c r="H194" s="5" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="I194" s="5"/>
       <c r="J194" s="5"/>
@@ -11881,22 +11874,22 @@
     </row>
     <row r="195" spans="1:26" ht="13.5" customHeight="1">
       <c r="A195" s="8" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="B195" s="8" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="C195" s="8" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="D195" s="11" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="E195" s="5"/>
       <c r="F195" s="5"/>
       <c r="G195" s="5"/>
       <c r="H195" s="5" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="I195" s="5"/>
       <c r="J195" s="5"/>
@@ -11919,22 +11912,22 @@
     </row>
     <row r="196" spans="1:26" ht="13.5" customHeight="1">
       <c r="A196" s="8" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="B196" s="8" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="C196" s="8" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="D196" s="11" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="E196" s="5"/>
       <c r="F196" s="5"/>
       <c r="G196" s="5"/>
       <c r="H196" s="5" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="I196" s="5"/>
       <c r="J196" s="5"/>
@@ -11957,23 +11950,23 @@
     </row>
     <row r="197" spans="1:26" ht="13.5" customHeight="1">
       <c r="A197" s="8" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="B197" s="8" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="C197" s="8" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="D197" s="11" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="E197" s="5"/>
       <c r="F197" s="5"/>
       <c r="G197" s="5"/>
       <c r="H197" s="5"/>
       <c r="I197" s="6" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="J197" s="5"/>
       <c r="K197" s="5"/>
@@ -11995,21 +11988,21 @@
     </row>
     <row r="198" spans="1:26" ht="13.5" customHeight="1">
       <c r="A198" s="8" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="B198" s="5"/>
       <c r="C198" s="8" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="D198" s="11" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="E198" s="5"/>
       <c r="F198" s="5"/>
       <c r="G198" s="5"/>
       <c r="H198" s="5"/>
       <c r="I198" s="6" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="J198" s="5"/>
       <c r="K198" s="5"/>
@@ -12031,20 +12024,20 @@
     </row>
     <row r="199" spans="1:26" ht="13.5" customHeight="1">
       <c r="A199" s="8" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="B199" s="5"/>
       <c r="C199" s="8" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="D199" s="11" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="E199" s="5" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="F199" s="5" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="G199" s="5"/>
       <c r="H199" s="5"/>
@@ -12069,21 +12062,21 @@
     </row>
     <row r="200" spans="1:26" ht="13.5" customHeight="1">
       <c r="A200" s="6" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="B200" s="5"/>
       <c r="C200" s="6" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="D200" s="11" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="E200" s="5"/>
       <c r="F200" s="5"/>
       <c r="G200" s="5"/>
       <c r="H200" s="5"/>
       <c r="I200" s="6" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="J200" s="5"/>
       <c r="K200" s="5"/>
@@ -12105,21 +12098,21 @@
     </row>
     <row r="201" spans="1:26" ht="13.5" customHeight="1">
       <c r="A201" s="6" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="B201" s="5"/>
       <c r="C201" s="8" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="D201" s="11" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="E201" s="5"/>
       <c r="F201" s="5"/>
       <c r="G201" s="5"/>
       <c r="H201" s="5"/>
       <c r="I201" s="8" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="J201" s="5"/>
       <c r="K201" s="5"/>
@@ -12141,21 +12134,21 @@
     </row>
     <row r="202" spans="1:26" ht="13.5" customHeight="1">
       <c r="A202" s="6" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="B202" s="5"/>
       <c r="C202" s="8" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="D202" s="11" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="E202" s="5"/>
       <c r="F202" s="5"/>
       <c r="G202" s="5"/>
       <c r="H202" s="5"/>
       <c r="I202" s="6" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="J202" s="5"/>
       <c r="K202" s="5"/>
@@ -12177,21 +12170,21 @@
     </row>
     <row r="203" spans="1:26" ht="13.5" customHeight="1">
       <c r="A203" s="6" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="B203" s="5"/>
       <c r="C203" s="6" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="D203" s="11" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="E203" s="5"/>
       <c r="F203" s="5"/>
       <c r="G203" s="5"/>
       <c r="H203" s="5"/>
       <c r="I203" s="6" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="J203" s="5"/>
       <c r="K203" s="5"/>
@@ -12213,17 +12206,17 @@
     </row>
     <row r="204" spans="1:26" ht="13.5" customHeight="1">
       <c r="A204" s="6" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="B204" s="5"/>
       <c r="C204" s="6" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="D204" s="11" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="E204" s="6" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="F204" s="5"/>
       <c r="G204" s="5"/>
@@ -12249,21 +12242,21 @@
     </row>
     <row r="205" spans="1:26" ht="13.5" customHeight="1">
       <c r="A205" s="8" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="B205" s="5"/>
       <c r="C205" s="29" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="D205" s="30" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="E205" s="6"/>
       <c r="F205" s="5"/>
       <c r="G205" s="5"/>
       <c r="H205" s="5"/>
       <c r="I205" s="5" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="J205" s="5"/>
       <c r="K205" s="5"/>
@@ -12285,21 +12278,21 @@
     </row>
     <row r="206" spans="1:26" ht="13.5" customHeight="1">
       <c r="A206" s="8" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="B206" s="4"/>
       <c r="C206" s="21" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="D206" s="22" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="E206" s="4"/>
       <c r="F206" s="5"/>
       <c r="G206" s="5"/>
       <c r="H206" s="4"/>
       <c r="I206" s="6" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="J206" s="5"/>
       <c r="K206" s="5"/>
@@ -12321,21 +12314,21 @@
     </row>
     <row r="207" spans="1:26" ht="13.5" customHeight="1">
       <c r="A207" s="8" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="B207" s="4"/>
       <c r="C207" s="8" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="D207" s="9" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="E207" s="4"/>
       <c r="F207" s="5"/>
       <c r="G207" s="5"/>
       <c r="H207" s="4"/>
       <c r="I207" s="6" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="J207" s="5"/>
       <c r="K207" s="5"/>
@@ -12357,21 +12350,21 @@
     </row>
     <row r="208" spans="1:26" ht="13.5" customHeight="1">
       <c r="A208" s="8" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="B208" s="4"/>
       <c r="C208" s="8" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="D208" s="9" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="E208" s="4"/>
       <c r="F208" s="5"/>
       <c r="G208" s="5"/>
       <c r="H208" s="4"/>
       <c r="I208" s="6" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="J208" s="5"/>
       <c r="K208" s="5"/>
@@ -12393,21 +12386,21 @@
     </row>
     <row r="209" spans="1:26" ht="13.5" customHeight="1">
       <c r="A209" s="8" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="B209" s="5"/>
       <c r="C209" s="6" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="D209" s="11" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="E209" s="5"/>
       <c r="F209" s="5"/>
       <c r="G209" s="5"/>
       <c r="H209" s="5"/>
       <c r="I209" s="6" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="J209" s="5"/>
       <c r="K209" s="5"/>
@@ -12429,21 +12422,21 @@
     </row>
     <row r="210" spans="1:26" ht="13.5" customHeight="1">
       <c r="A210" s="8" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="B210" s="5"/>
       <c r="C210" s="6" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="D210" s="35" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="E210" s="5"/>
       <c r="F210" s="5"/>
       <c r="G210" s="5"/>
       <c r="H210" s="5"/>
       <c r="I210" s="6" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="J210" s="5"/>
       <c r="K210" s="5"/>
@@ -12465,17 +12458,17 @@
     </row>
     <row r="211" spans="1:26" ht="13.5" customHeight="1">
       <c r="A211" s="23" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
       <c r="B211" s="5"/>
       <c r="C211" s="40" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
       <c r="D211" s="41" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
       <c r="E211" s="5" t="s">
-        <v>601</v>
+        <v>607</v>
       </c>
       <c r="F211" s="5"/>
       <c r="G211" s="5"/>
@@ -12501,17 +12494,17 @@
     </row>
     <row r="212" spans="1:26" ht="13.5" customHeight="1">
       <c r="A212" s="23" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
       <c r="B212" s="38"/>
       <c r="C212" s="44" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
       <c r="D212" s="36" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
       <c r="E212" s="5" t="s">
-        <v>603</v>
+        <v>609</v>
       </c>
       <c r="F212" s="5"/>
       <c r="G212" s="5"/>
@@ -12537,17 +12530,17 @@
     </row>
     <row r="213" spans="1:26" ht="13.5" customHeight="1">
       <c r="A213" s="23" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
       <c r="B213" s="38"/>
       <c r="C213" s="44" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
       <c r="D213" s="36" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
       <c r="E213" s="5" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
       <c r="F213" s="5"/>
       <c r="G213" s="5"/>
@@ -12573,21 +12566,21 @@
     </row>
     <row r="214" spans="1:26" ht="13.5" customHeight="1">
       <c r="A214" s="23" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
       <c r="B214" s="39"/>
       <c r="C214" s="45" t="s">
-        <v>588</v>
+        <v>594</v>
       </c>
       <c r="D214" s="46" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
       <c r="E214" s="34"/>
       <c r="F214" s="5"/>
       <c r="G214" s="5"/>
       <c r="H214" s="5"/>
       <c r="I214" s="6" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
       <c r="J214" s="5"/>
       <c r="K214" s="5"/>
@@ -12609,10 +12602,10 @@
     </row>
     <row r="215" spans="1:26" ht="13.5" customHeight="1">
       <c r="A215" s="23" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
       <c r="B215" s="37" t="s">
-        <v>589</v>
+        <v>595</v>
       </c>
       <c r="C215" s="42" t="s">
         <v>212</v>
@@ -12647,10 +12640,10 @@
     </row>
     <row r="216" spans="1:26" ht="13.5" customHeight="1">
       <c r="A216" s="23" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
       <c r="B216" s="37" t="s">
-        <v>589</v>
+        <v>595</v>
       </c>
       <c r="C216" s="6" t="s">
         <v>215</v>
@@ -12685,10 +12678,10 @@
     </row>
     <row r="217" spans="1:26" ht="13.5" customHeight="1">
       <c r="A217" s="23" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
       <c r="B217" s="37" t="s">
-        <v>589</v>
+        <v>595</v>
       </c>
       <c r="C217" s="8" t="s">
         <v>225</v>
@@ -12723,23 +12716,23 @@
     </row>
     <row r="218" spans="1:26" ht="13.5" customHeight="1">
       <c r="A218" s="23" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
       <c r="B218" s="37" t="s">
-        <v>589</v>
+        <v>595</v>
       </c>
       <c r="C218" s="25" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
       <c r="D218" s="24" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
       <c r="E218" s="5"/>
       <c r="F218" s="5"/>
       <c r="G218" s="5"/>
       <c r="H218" s="5"/>
       <c r="I218" s="5" t="s">
-        <v>604</v>
+        <v>610</v>
       </c>
       <c r="J218" s="5"/>
       <c r="K218" s="5"/>
@@ -12761,16 +12754,16 @@
     </row>
     <row r="219" spans="1:26" ht="13.5" customHeight="1">
       <c r="A219" s="23" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
       <c r="B219" s="33" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
       <c r="C219" s="25" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
       <c r="D219" s="24" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
       <c r="E219" s="5"/>
       <c r="F219" s="5"/>
@@ -12799,16 +12792,16 @@
     </row>
     <row r="220" spans="1:26" ht="13.5" customHeight="1">
       <c r="A220" s="23" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
       <c r="B220" s="33" t="s">
+        <v>596</v>
+      </c>
+      <c r="C220" s="25" t="s">
         <v>590</v>
       </c>
-      <c r="C220" s="25" t="s">
-        <v>584</v>
-      </c>
       <c r="D220" s="24" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
       <c r="E220" s="5"/>
       <c r="F220" s="5"/>
@@ -12837,23 +12830,23 @@
     </row>
     <row r="221" spans="1:26" ht="13.5" customHeight="1">
       <c r="A221" s="23" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
       <c r="B221" s="33" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
       <c r="C221" s="25" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
       <c r="D221" s="24" t="s">
-        <v>597</v>
+        <v>603</v>
       </c>
       <c r="E221" s="5"/>
       <c r="F221" s="5"/>
       <c r="G221" s="5"/>
       <c r="H221" s="5"/>
       <c r="I221" s="5" t="s">
-        <v>605</v>
+        <v>611</v>
       </c>
       <c r="J221" s="5"/>
       <c r="K221" s="5"/>
@@ -19046,15 +19039,15 @@
     <hyperlink ref="D208" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
     <hyperlink ref="D209" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
     <hyperlink ref="D210" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
-    <hyperlink ref="D205" r:id="rId198" xr:uid="{FB5BD734-C92C-4DCB-AC83-E67BDA12DFF4}"/>
-    <hyperlink ref="D164" r:id="rId199" xr:uid="{E6F63535-7CB0-4B0A-8A9B-2FF45193FA31}"/>
-    <hyperlink ref="D165" r:id="rId200" xr:uid="{23618A7F-70F1-429D-A989-04E42D5219C5}"/>
-    <hyperlink ref="D167" r:id="rId201" xr:uid="{A61CFECD-5D13-489A-855F-076420E34CFD}"/>
-    <hyperlink ref="D168" r:id="rId202" xr:uid="{6EDE7FBD-C182-4315-93DC-5FE3983DF025}"/>
-    <hyperlink ref="D215" r:id="rId203" xr:uid="{F8CC161C-3698-4455-AE50-3DBD3D45797B}"/>
-    <hyperlink ref="D216" r:id="rId204" xr:uid="{F41BCF05-CC73-422D-8893-0B9A8DAAA427}"/>
-    <hyperlink ref="D217" r:id="rId205" xr:uid="{511CA28D-F4D7-4764-8143-3595BDCD915C}"/>
-    <hyperlink ref="D169" r:id="rId206" xr:uid="{73510502-1858-43FA-99B1-A81975C45762}"/>
+    <hyperlink ref="D169" r:id="rId198" xr:uid="{0E1E66AB-E725-4DC2-A9E7-89AB9F93D44F}"/>
+    <hyperlink ref="D205" r:id="rId199" xr:uid="{FB5BD734-C92C-4DCB-AC83-E67BDA12DFF4}"/>
+    <hyperlink ref="D164" r:id="rId200" xr:uid="{E6F63535-7CB0-4B0A-8A9B-2FF45193FA31}"/>
+    <hyperlink ref="D165" r:id="rId201" xr:uid="{23618A7F-70F1-429D-A989-04E42D5219C5}"/>
+    <hyperlink ref="D167" r:id="rId202" xr:uid="{A61CFECD-5D13-489A-855F-076420E34CFD}"/>
+    <hyperlink ref="D168" r:id="rId203" xr:uid="{6EDE7FBD-C182-4315-93DC-5FE3983DF025}"/>
+    <hyperlink ref="D215" r:id="rId204" xr:uid="{F8CC161C-3698-4455-AE50-3DBD3D45797B}"/>
+    <hyperlink ref="D216" r:id="rId205" xr:uid="{F41BCF05-CC73-422D-8893-0B9A8DAAA427}"/>
+    <hyperlink ref="D217" r:id="rId206" xr:uid="{511CA28D-F4D7-4764-8143-3595BDCD915C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <headerFooter>

--- a/メニュー/メニュー.xlsx
+++ b/メニュー/メニュー.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\svmfile\filesv\102003001DX推進課\【令和7年度】\50_事業\10-01_スマートシティ推進事業費\02_スマートマップ焼津保守運用業務\50_地図データ\03_Github更新\ととフェス\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\vm22flo01\DownloadFiles\DX推進課\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09BA2BF1-51F1-46A3-9BCE-4A7C94ADA543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{747D3F46-EB56-4260-A6B7-E2E3F9775062}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1123" uniqueCount="612">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1103" uniqueCount="601">
   <si>
     <t>大カテゴリー</t>
   </si>
@@ -3492,23 +3492,6 @@
   </si>
   <si>
     <t>wifi-access-point</t>
-  </si>
-  <si>
-    <t>災害ごみ受入場所</t>
-    <rPh sb="0" eb="2">
-      <t>サイガイ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ウケイレ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>バショ</t>
-    </rPh>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
-    <t>https://yaizu-smartcity.jp/tiles/%E7%81%BD%E5%AE%B3%E3%81%94%E3%81%BF/tiles.json</t>
-    <phoneticPr fontId="13"/>
   </si>
   <si>
     <t>ベジチェック設置場所</t>
@@ -3646,33 +3629,6 @@
     <phoneticPr fontId="13"/>
   </si>
   <si>
-    <t>魚フェス会場駐車場</t>
-    <rPh sb="0" eb="1">
-      <t>サカナ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>カイジョウ</t>
-    </rPh>
-    <rPh sb="6" eb="9">
-      <t>チュウシャジョウ</t>
-    </rPh>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
-    <t>魚（とと）フェス！</t>
-    <rPh sb="0" eb="1">
-      <t>サカナ</t>
-    </rPh>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
-    <t>魚フェス会場</t>
-    <rPh sb="0" eb="2">
-      <t>カイジョウ</t>
-    </rPh>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
     <t>有料駐車場（焼津駅周辺）</t>
     <rPh sb="0" eb="2">
       <t>ユウリョウ</t>
@@ -3683,16 +3639,6 @@
     <phoneticPr fontId="13"/>
   </si>
   <si>
-    <t>お立ち寄りスポット</t>
-    <rPh sb="1" eb="2">
-      <t>タ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ヨ</t>
-    </rPh>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
     <t>便利なスポット</t>
     <rPh sb="0" eb="2">
       <t>ベンリ</t>
@@ -3704,61 +3650,52 @@
     <phoneticPr fontId="13"/>
   </si>
   <si>
-    <t>魚フェス交通規制</t>
-    <rPh sb="0" eb="1">
-      <t>サカナ</t>
+    <t>https://yaizu-smartcity.jp/tiles/%E9%AD%9A%E3%83%95%E3%82%A7%E3%82%B9%E5%91%A8%E8%BE%BA%E3%82%B9%E3%83%9D%E3%83%83%E3%83%88_%E6%9C%89%E6%96%99%E9%A7%90%E8%BB%8A%E5%A0%B4/tiles.json</t>
+  </si>
+  <si>
+    <t>https://yaizu-smartcity.jp/tiles/%E9%AD%9A%E3%83%95%E3%82%A7%E3%82%B9%E5%91%A8%E8%BE%BA%E3%82%B9%E3%83%9D%E3%83%83%E3%83%88_%E3%81%9D%E3%81%AE%E4%BB%96/tiles.json</t>
+  </si>
+  <si>
+    <t>https://yaizu-smartcity.jp/tiles/%E9%AD%9A%E3%83%95%E3%82%A7%E3%82%B9%E5%91%A8%E8%BE%BA%E3%82%B9%E3%83%9D%E3%83%83%E3%83%88_%E4%BC%91%E6%86%A9%E5%A0%B4%E6%89%80/tiles.json</t>
+  </si>
+  <si>
+    <t>https://yaizu-smartcity.jp/tiles/%E9%AD%9A%E3%83%95%E3%82%A7%E3%82%B9%E5%91%A8%E8%BE%BA%E3%82%B9%E3%83%9D%E3%83%83%E3%83%88_%E5%8F%B2%E8%B7%A1/tiles.json</t>
+  </si>
+  <si>
+    <t>https://yaizu-smartcity.jp/tiles/%E9%AD%9A%E3%83%95%E3%82%A7%E3%82%B9%E5%91%A8%E8%BE%BA%E3%82%B9%E3%83%9D%E3%83%83%E3%83%88_%E8%87%AA%E5%8B%95%E8%B2%A9%E5%A3%B2%E6%A9%9F/tiles.json</t>
+  </si>
+  <si>
+    <t>historical-folk-facilities</t>
+  </si>
+  <si>
+    <t>star</t>
+  </si>
+  <si>
+    <t>焼津駅前を歩こう！</t>
+    <rPh sb="0" eb="2">
+      <t>ヤイヅ</t>
     </rPh>
-    <rPh sb="4" eb="8">
-      <t>コウツウキセイ</t>
+    <rPh sb="2" eb="3">
+      <t>エキ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>アル</t>
     </rPh>
     <phoneticPr fontId="13"/>
   </si>
   <si>
-    <t>https://yaizu-smartcity.jp/tiles/%E9%AD%9A%E3%83%95%E3%82%A7%E3%82%B9%E4%BA%A4%E9%80%9A%E8%A6%8F%E5%88%B6/tiles.json</t>
-  </si>
-  <si>
-    <t>https://yaizu-smartcity.jp/tiles/%E9%AD%9A%E3%83%95%E3%82%A7%E3%82%B9%E4%BC%9A%E5%A0%B4/tiles.json</t>
-  </si>
-  <si>
-    <t>https://yaizu-smartcity.jp/tiles/%E9%AD%9A%E3%83%95%E3%82%A7%E3%82%B9%E9%A7%90%E8%BB%8A%E5%A0%B4/tiles.json</t>
-  </si>
-  <si>
-    <t>https://yaizu-smartcity.jp/tiles/%E9%AD%9A%E3%83%95%E3%82%A7%E3%82%B9%E5%91%A8%E8%BE%BA%E3%82%B9%E3%83%9D%E3%83%83%E3%83%88_%E6%9C%89%E6%96%99%E9%A7%90%E8%BB%8A%E5%A0%B4/tiles.json</t>
-  </si>
-  <si>
-    <t>https://yaizu-smartcity.jp/tiles/%E9%AD%9A%E3%83%95%E3%82%A7%E3%82%B9%E5%91%A8%E8%BE%BA%E3%82%B9%E3%83%9D%E3%83%83%E3%83%88_%E3%81%9D%E3%81%AE%E4%BB%96/tiles.json</t>
-  </si>
-  <si>
-    <t>https://yaizu-smartcity.jp/tiles/%E9%AD%9A%E3%83%95%E3%82%A7%E3%82%B9%E5%91%A8%E8%BE%BA%E3%82%B9%E3%83%9D%E3%83%83%E3%83%88_%E4%BC%91%E6%86%A9%E5%A0%B4%E6%89%80/tiles.json</t>
-  </si>
-  <si>
-    <t>https://yaizu-smartcity.jp/tiles/%E9%AD%9A%E3%83%95%E3%82%A7%E3%82%B9%E5%91%A8%E8%BE%BA%E3%82%B9%E3%83%9D%E3%83%83%E3%83%88_%E5%8F%B2%E8%B7%A1/tiles.json</t>
-  </si>
-  <si>
-    <t>https://yaizu-smartcity.jp/tiles/%E9%AD%9A%E3%83%95%E3%82%A7%E3%82%B9%E5%91%A8%E8%BE%BA%E3%82%B9%E3%83%9D%E3%83%83%E3%83%88_%E8%87%AA%E5%8B%95%E8%B2%A9%E5%A3%B2%E6%A9%9F/tiles.json</t>
-  </si>
-  <si>
-    <t>#0000ff</t>
+    <t>日帰り温泉・足湯</t>
     <phoneticPr fontId="13"/>
-  </si>
-  <si>
-    <t>#dc143c</t>
-  </si>
-  <si>
-    <t>#ffd700</t>
-  </si>
-  <si>
-    <t>historical-folk-facilities</t>
-  </si>
-  <si>
-    <t>star</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19">
+  <fonts count="18">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -3878,12 +3815,6 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
@@ -3915,7 +3846,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -3999,19 +3930,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color rgb="FF000000"/>
@@ -4050,36 +3968,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4138,14 +4032,7 @@
     <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="49" fontId="16" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="14" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4157,40 +4044,27 @@
     <xf numFmtId="49" fontId="14" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="15" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -4410,13 +4284,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Z1010"/>
+  <dimension ref="A1:Z1001"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D208" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D153" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J220" sqref="J220"/>
+      <selection pane="bottomRight" activeCell="A169" sqref="A169:XFD169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -10684,20 +10558,20 @@
       <c r="A164" s="6" t="s">
         <v>378</v>
       </c>
-      <c r="B164" s="29" t="s">
-        <v>571</v>
-      </c>
-      <c r="C164" s="29" t="s">
-        <v>572</v>
-      </c>
-      <c r="D164" s="32" t="s">
-        <v>577</v>
+      <c r="B164" s="26" t="s">
+        <v>569</v>
+      </c>
+      <c r="C164" s="26" t="s">
+        <v>570</v>
+      </c>
+      <c r="D164" s="29" t="s">
+        <v>575</v>
       </c>
       <c r="E164" s="6"/>
       <c r="F164" s="5"/>
       <c r="G164" s="5"/>
       <c r="H164" s="6" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="I164" s="5"/>
       <c r="J164" s="5"/>
@@ -10722,20 +10596,20 @@
       <c r="A165" s="6" t="s">
         <v>378</v>
       </c>
-      <c r="B165" s="29" t="s">
+      <c r="B165" s="26" t="s">
+        <v>569</v>
+      </c>
+      <c r="C165" s="26" t="s">
         <v>571</v>
       </c>
-      <c r="C165" s="29" t="s">
-        <v>573</v>
-      </c>
-      <c r="D165" s="32" t="s">
-        <v>578</v>
+      <c r="D165" s="29" t="s">
+        <v>576</v>
       </c>
       <c r="E165" s="6"/>
       <c r="F165" s="5"/>
       <c r="G165" s="5"/>
       <c r="H165" s="6" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="I165" s="5"/>
       <c r="J165" s="5"/>
@@ -10760,20 +10634,20 @@
       <c r="A166" s="6" t="s">
         <v>378</v>
       </c>
-      <c r="B166" s="29" t="s">
-        <v>571</v>
-      </c>
-      <c r="C166" s="29" t="s">
-        <v>574</v>
-      </c>
-      <c r="D166" s="31" t="s">
-        <v>579</v>
+      <c r="B166" s="26" t="s">
+        <v>569</v>
+      </c>
+      <c r="C166" s="26" t="s">
+        <v>572</v>
+      </c>
+      <c r="D166" s="28" t="s">
+        <v>577</v>
       </c>
       <c r="E166" s="6"/>
       <c r="F166" s="5"/>
       <c r="G166" s="5"/>
       <c r="H166" s="6" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="I166" s="5"/>
       <c r="J166" s="5"/>
@@ -10798,20 +10672,20 @@
       <c r="A167" s="6" t="s">
         <v>378</v>
       </c>
-      <c r="B167" s="29" t="s">
-        <v>571</v>
-      </c>
-      <c r="C167" s="29" t="s">
-        <v>575</v>
-      </c>
-      <c r="D167" s="32" t="s">
-        <v>580</v>
+      <c r="B167" s="26" t="s">
+        <v>569</v>
+      </c>
+      <c r="C167" s="26" t="s">
+        <v>573</v>
+      </c>
+      <c r="D167" s="29" t="s">
+        <v>578</v>
       </c>
       <c r="E167" s="6"/>
       <c r="F167" s="5"/>
       <c r="G167" s="5"/>
       <c r="H167" s="6" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="I167" s="5"/>
       <c r="J167" s="5"/>
@@ -10836,20 +10710,20 @@
       <c r="A168" s="6" t="s">
         <v>378</v>
       </c>
-      <c r="B168" s="29" t="s">
-        <v>571</v>
-      </c>
-      <c r="C168" s="29" t="s">
-        <v>576</v>
-      </c>
-      <c r="D168" s="32" t="s">
-        <v>581</v>
+      <c r="B168" s="26" t="s">
+        <v>569</v>
+      </c>
+      <c r="C168" s="26" t="s">
+        <v>574</v>
+      </c>
+      <c r="D168" s="29" t="s">
+        <v>579</v>
       </c>
       <c r="E168" s="6"/>
       <c r="F168" s="5"/>
       <c r="G168" s="5"/>
       <c r="H168" s="6" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="I168" s="5"/>
       <c r="J168" s="5"/>
@@ -10874,20 +10748,22 @@
       <c r="A169" s="6" t="s">
         <v>435</v>
       </c>
-      <c r="B169" s="6"/>
-      <c r="C169" s="28" t="s">
-        <v>566</v>
-      </c>
-      <c r="D169" s="27" t="s">
-        <v>567</v>
-      </c>
-      <c r="E169" s="6"/>
+      <c r="B169" s="5"/>
+      <c r="C169" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="D169" s="11" t="s">
+        <v>437</v>
+      </c>
+      <c r="E169" s="6" t="s">
+        <v>291</v>
+      </c>
       <c r="F169" s="5"/>
       <c r="G169" s="5"/>
-      <c r="H169" s="6"/>
-      <c r="I169" s="26" t="s">
-        <v>268</v>
-      </c>
+      <c r="H169" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="I169" s="5"/>
       <c r="J169" s="5"/>
       <c r="K169" s="5"/>
       <c r="L169" s="5"/>
@@ -10907,24 +10783,26 @@
       <c r="Z169" s="3"/>
     </row>
     <row r="170" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A170" s="6" t="s">
-        <v>435</v>
-      </c>
-      <c r="B170" s="5"/>
+      <c r="A170" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="B170" s="6" t="s">
+        <v>439</v>
+      </c>
       <c r="C170" s="6" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="D170" s="11" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="E170" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="F170" s="5"/>
+        <v>442</v>
+      </c>
+      <c r="F170" s="6" t="s">
+        <v>294</v>
+      </c>
       <c r="G170" s="5"/>
-      <c r="H170" s="6" t="s">
-        <v>291</v>
-      </c>
+      <c r="H170" s="5"/>
       <c r="I170" s="5"/>
       <c r="J170" s="5"/>
       <c r="K170" s="5"/>
@@ -10952,13 +10830,13 @@
         <v>439</v>
       </c>
       <c r="C171" s="6" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="D171" s="11" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="E171" s="6" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="F171" s="6" t="s">
         <v>294</v>
@@ -10989,22 +10867,22 @@
         <v>438</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="C172" s="6" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="D172" s="11" t="s">
-        <v>444</v>
-      </c>
-      <c r="E172" s="6" t="s">
-        <v>445</v>
-      </c>
+        <v>447</v>
+      </c>
+      <c r="E172" s="5"/>
       <c r="F172" s="6" t="s">
-        <v>294</v>
+        <v>448</v>
       </c>
       <c r="G172" s="5"/>
-      <c r="H172" s="5"/>
+      <c r="H172" s="6" t="s">
+        <v>448</v>
+      </c>
       <c r="I172" s="5"/>
       <c r="J172" s="5"/>
       <c r="K172" s="5"/>
@@ -11029,21 +10907,23 @@
         <v>438</v>
       </c>
       <c r="B173" s="6" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="C173" s="6" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="D173" s="11" t="s">
-        <v>447</v>
-      </c>
-      <c r="E173" s="5"/>
+        <v>451</v>
+      </c>
+      <c r="E173" s="6" t="s">
+        <v>452</v>
+      </c>
       <c r="F173" s="6" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="G173" s="5"/>
       <c r="H173" s="6" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="I173" s="5"/>
       <c r="J173" s="5"/>
@@ -11072,20 +10952,20 @@
         <v>449</v>
       </c>
       <c r="C174" s="6" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="D174" s="11" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="E174" s="6" t="s">
-        <v>452</v>
+        <v>23</v>
       </c>
       <c r="F174" s="6" t="s">
-        <v>452</v>
+        <v>23</v>
       </c>
       <c r="G174" s="5"/>
       <c r="H174" s="6" t="s">
-        <v>452</v>
+        <v>23</v>
       </c>
       <c r="I174" s="5"/>
       <c r="J174" s="5"/>
@@ -11110,26 +10990,20 @@
       <c r="A175" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="B175" s="6" t="s">
-        <v>449</v>
-      </c>
+      <c r="B175" s="5"/>
       <c r="C175" s="6" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="D175" s="11" t="s">
-        <v>454</v>
-      </c>
-      <c r="E175" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F175" s="6" t="s">
-        <v>23</v>
-      </c>
+        <v>456</v>
+      </c>
+      <c r="E175" s="5"/>
+      <c r="F175" s="5"/>
       <c r="G175" s="5"/>
-      <c r="H175" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="I175" s="5"/>
+      <c r="H175" s="5"/>
+      <c r="I175" s="6" t="s">
+        <v>457</v>
+      </c>
       <c r="J175" s="5"/>
       <c r="K175" s="5"/>
       <c r="L175" s="5"/>
@@ -11150,21 +11024,23 @@
     </row>
     <row r="176" spans="1:26" ht="13.5" customHeight="1">
       <c r="A176" s="8" t="s">
-        <v>438</v>
-      </c>
-      <c r="B176" s="5"/>
-      <c r="C176" s="6" t="s">
-        <v>455</v>
+        <v>458</v>
+      </c>
+      <c r="B176" s="8" t="s">
+        <v>459</v>
+      </c>
+      <c r="C176" s="8" t="s">
+        <v>460</v>
       </c>
       <c r="D176" s="11" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="E176" s="5"/>
       <c r="F176" s="5"/>
       <c r="G176" s="5"/>
       <c r="H176" s="5"/>
-      <c r="I176" s="6" t="s">
-        <v>457</v>
+      <c r="I176" s="8" t="s">
+        <v>462</v>
       </c>
       <c r="J176" s="5"/>
       <c r="K176" s="5"/>
@@ -11192,18 +11068,20 @@
         <v>459</v>
       </c>
       <c r="C177" s="8" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="D177" s="11" t="s">
-        <v>461</v>
-      </c>
-      <c r="E177" s="5"/>
+        <v>464</v>
+      </c>
+      <c r="E177" s="6" t="s">
+        <v>291</v>
+      </c>
       <c r="F177" s="5"/>
       <c r="G177" s="5"/>
-      <c r="H177" s="5"/>
-      <c r="I177" s="8" t="s">
-        <v>462</v>
-      </c>
+      <c r="H177" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="I177" s="5"/>
       <c r="J177" s="5"/>
       <c r="K177" s="5"/>
       <c r="L177" s="5"/>
@@ -11227,23 +11105,21 @@
         <v>458</v>
       </c>
       <c r="B178" s="8" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="C178" s="8" t="s">
-        <v>463</v>
-      </c>
-      <c r="D178" s="11" t="s">
-        <v>464</v>
-      </c>
-      <c r="E178" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="F178" s="5"/>
-      <c r="G178" s="5"/>
-      <c r="H178" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="I178" s="5"/>
+        <v>466</v>
+      </c>
+      <c r="D178" s="18" t="s">
+        <v>467</v>
+      </c>
+      <c r="E178" s="19"/>
+      <c r="F178" s="19"/>
+      <c r="G178" s="19"/>
+      <c r="H178" s="20"/>
+      <c r="I178" s="8" t="s">
+        <v>468</v>
+      </c>
       <c r="J178" s="5"/>
       <c r="K178" s="5"/>
       <c r="L178" s="5"/>
@@ -11270,18 +11146,20 @@
         <v>465</v>
       </c>
       <c r="C179" s="8" t="s">
-        <v>466</v>
-      </c>
-      <c r="D179" s="18" t="s">
-        <v>467</v>
-      </c>
-      <c r="E179" s="19"/>
-      <c r="F179" s="19"/>
-      <c r="G179" s="19"/>
-      <c r="H179" s="20"/>
-      <c r="I179" s="8" t="s">
-        <v>468</v>
-      </c>
+        <v>469</v>
+      </c>
+      <c r="D179" s="11" t="s">
+        <v>470</v>
+      </c>
+      <c r="E179" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="F179" s="5"/>
+      <c r="G179" s="5"/>
+      <c r="H179" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="I179" s="5"/>
       <c r="J179" s="5"/>
       <c r="K179" s="5"/>
       <c r="L179" s="5"/>
@@ -11305,22 +11183,20 @@
         <v>458</v>
       </c>
       <c r="B180" s="8" t="s">
-        <v>465</v>
+        <v>472</v>
       </c>
       <c r="C180" s="8" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="D180" s="11" t="s">
-        <v>470</v>
-      </c>
-      <c r="E180" s="6" t="s">
-        <v>471</v>
-      </c>
-      <c r="F180" s="5"/>
+        <v>474</v>
+      </c>
+      <c r="E180" s="5"/>
+      <c r="F180" s="6" t="s">
+        <v>475</v>
+      </c>
       <c r="G180" s="5"/>
-      <c r="H180" s="6" t="s">
-        <v>471</v>
-      </c>
+      <c r="H180" s="5"/>
       <c r="I180" s="5"/>
       <c r="J180" s="5"/>
       <c r="K180" s="5"/>
@@ -11348,14 +11224,14 @@
         <v>472</v>
       </c>
       <c r="C181" s="8" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="D181" s="11" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="E181" s="5"/>
       <c r="F181" s="6" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="G181" s="5"/>
       <c r="H181" s="5"/>
@@ -11386,14 +11262,14 @@
         <v>472</v>
       </c>
       <c r="C182" s="8" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="D182" s="11" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="E182" s="5"/>
       <c r="F182" s="6" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="G182" s="5"/>
       <c r="H182" s="5"/>
@@ -11424,14 +11300,14 @@
         <v>472</v>
       </c>
       <c r="C183" s="8" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="D183" s="11" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="E183" s="5"/>
       <c r="F183" s="6" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="G183" s="5"/>
       <c r="H183" s="5"/>
@@ -11462,14 +11338,14 @@
         <v>472</v>
       </c>
       <c r="C184" s="8" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="D184" s="11" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="E184" s="5"/>
       <c r="F184" s="6" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="G184" s="5"/>
       <c r="H184" s="5"/>
@@ -11500,14 +11376,14 @@
         <v>472</v>
       </c>
       <c r="C185" s="8" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="D185" s="11" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="E185" s="5"/>
       <c r="F185" s="6" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="G185" s="5"/>
       <c r="H185" s="5"/>
@@ -11538,14 +11414,14 @@
         <v>472</v>
       </c>
       <c r="C186" s="8" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="D186" s="11" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="E186" s="5"/>
       <c r="F186" s="6" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="G186" s="5"/>
       <c r="H186" s="5"/>
@@ -11576,14 +11452,14 @@
         <v>472</v>
       </c>
       <c r="C187" s="8" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="D187" s="11" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="E187" s="5"/>
       <c r="F187" s="6" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="G187" s="5"/>
       <c r="H187" s="5"/>
@@ -11614,14 +11490,14 @@
         <v>472</v>
       </c>
       <c r="C188" s="8" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="D188" s="11" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="E188" s="5"/>
       <c r="F188" s="6" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="G188" s="5"/>
       <c r="H188" s="5"/>
@@ -11652,14 +11528,14 @@
         <v>472</v>
       </c>
       <c r="C189" s="8" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="D189" s="11" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="E189" s="5"/>
       <c r="F189" s="6" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="G189" s="5"/>
       <c r="H189" s="5"/>
@@ -11690,14 +11566,14 @@
         <v>472</v>
       </c>
       <c r="C190" s="8" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="D190" s="11" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="E190" s="5"/>
       <c r="F190" s="6" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="G190" s="5"/>
       <c r="H190" s="5"/>
@@ -11728,14 +11604,14 @@
         <v>472</v>
       </c>
       <c r="C191" s="8" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="D191" s="11" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="E191" s="5"/>
       <c r="F191" s="6" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="G191" s="5"/>
       <c r="H191" s="5"/>
@@ -11766,14 +11642,14 @@
         <v>472</v>
       </c>
       <c r="C192" s="8" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="D192" s="11" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="E192" s="5"/>
       <c r="F192" s="6" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="G192" s="5"/>
       <c r="H192" s="5"/>
@@ -11801,20 +11677,20 @@
         <v>458</v>
       </c>
       <c r="B193" s="8" t="s">
-        <v>472</v>
+        <v>512</v>
       </c>
       <c r="C193" s="8" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="D193" s="11" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="E193" s="5"/>
-      <c r="F193" s="6" t="s">
-        <v>511</v>
-      </c>
+      <c r="F193" s="5"/>
       <c r="G193" s="5"/>
-      <c r="H193" s="5"/>
+      <c r="H193" s="5" t="s">
+        <v>515</v>
+      </c>
       <c r="I193" s="5"/>
       <c r="J193" s="5"/>
       <c r="K193" s="5"/>
@@ -11839,19 +11715,19 @@
         <v>458</v>
       </c>
       <c r="B194" s="8" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="C194" s="8" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="D194" s="11" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="E194" s="5"/>
       <c r="F194" s="5"/>
       <c r="G194" s="5"/>
       <c r="H194" s="5" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="I194" s="5"/>
       <c r="J194" s="5"/>
@@ -11880,16 +11756,16 @@
         <v>516</v>
       </c>
       <c r="C195" s="8" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="D195" s="11" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="E195" s="5"/>
       <c r="F195" s="5"/>
       <c r="G195" s="5"/>
       <c r="H195" s="5" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="I195" s="5"/>
       <c r="J195" s="5"/>
@@ -11918,18 +11794,18 @@
         <v>516</v>
       </c>
       <c r="C196" s="8" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="D196" s="11" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="E196" s="5"/>
       <c r="F196" s="5"/>
       <c r="G196" s="5"/>
-      <c r="H196" s="5" t="s">
-        <v>522</v>
-      </c>
-      <c r="I196" s="5"/>
+      <c r="H196" s="5"/>
+      <c r="I196" s="6" t="s">
+        <v>525</v>
+      </c>
       <c r="J196" s="5"/>
       <c r="K196" s="5"/>
       <c r="L196" s="5"/>
@@ -11950,23 +11826,21 @@
     </row>
     <row r="197" spans="1:26" ht="13.5" customHeight="1">
       <c r="A197" s="8" t="s">
-        <v>458</v>
-      </c>
-      <c r="B197" s="8" t="s">
-        <v>516</v>
-      </c>
+        <v>526</v>
+      </c>
+      <c r="B197" s="5"/>
       <c r="C197" s="8" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="D197" s="11" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="E197" s="5"/>
       <c r="F197" s="5"/>
       <c r="G197" s="5"/>
       <c r="H197" s="5"/>
       <c r="I197" s="6" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="J197" s="5"/>
       <c r="K197" s="5"/>
@@ -11992,18 +11866,20 @@
       </c>
       <c r="B198" s="5"/>
       <c r="C198" s="8" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="D198" s="11" t="s">
-        <v>528</v>
-      </c>
-      <c r="E198" s="5"/>
-      <c r="F198" s="5"/>
+        <v>531</v>
+      </c>
+      <c r="E198" s="5" t="s">
+        <v>532</v>
+      </c>
+      <c r="F198" s="5" t="s">
+        <v>532</v>
+      </c>
       <c r="G198" s="5"/>
       <c r="H198" s="5"/>
-      <c r="I198" s="6" t="s">
-        <v>529</v>
-      </c>
+      <c r="I198" s="5"/>
       <c r="J198" s="5"/>
       <c r="K198" s="5"/>
       <c r="L198" s="5"/>
@@ -12023,25 +11899,23 @@
       <c r="Z198" s="3"/>
     </row>
     <row r="199" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A199" s="8" t="s">
-        <v>526</v>
+      <c r="A199" s="6" t="s">
+        <v>533</v>
       </c>
       <c r="B199" s="5"/>
-      <c r="C199" s="8" t="s">
-        <v>530</v>
+      <c r="C199" s="6" t="s">
+        <v>534</v>
       </c>
       <c r="D199" s="11" t="s">
-        <v>531</v>
-      </c>
-      <c r="E199" s="5" t="s">
-        <v>532</v>
-      </c>
-      <c r="F199" s="5" t="s">
-        <v>532</v>
-      </c>
+        <v>535</v>
+      </c>
+      <c r="E199" s="5"/>
+      <c r="F199" s="5"/>
       <c r="G199" s="5"/>
       <c r="H199" s="5"/>
-      <c r="I199" s="5"/>
+      <c r="I199" s="6" t="s">
+        <v>536</v>
+      </c>
       <c r="J199" s="5"/>
       <c r="K199" s="5"/>
       <c r="L199" s="5"/>
@@ -12065,18 +11939,18 @@
         <v>533</v>
       </c>
       <c r="B200" s="5"/>
-      <c r="C200" s="6" t="s">
-        <v>534</v>
+      <c r="C200" s="8" t="s">
+        <v>537</v>
       </c>
       <c r="D200" s="11" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="E200" s="5"/>
       <c r="F200" s="5"/>
       <c r="G200" s="5"/>
       <c r="H200" s="5"/>
-      <c r="I200" s="6" t="s">
-        <v>536</v>
+      <c r="I200" s="8" t="s">
+        <v>539</v>
       </c>
       <c r="J200" s="5"/>
       <c r="K200" s="5"/>
@@ -12102,17 +11976,17 @@
       </c>
       <c r="B201" s="5"/>
       <c r="C201" s="8" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="D201" s="11" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="E201" s="5"/>
       <c r="F201" s="5"/>
       <c r="G201" s="5"/>
       <c r="H201" s="5"/>
-      <c r="I201" s="8" t="s">
-        <v>539</v>
+      <c r="I201" s="6" t="s">
+        <v>542</v>
       </c>
       <c r="J201" s="5"/>
       <c r="K201" s="5"/>
@@ -12137,18 +12011,18 @@
         <v>533</v>
       </c>
       <c r="B202" s="5"/>
-      <c r="C202" s="8" t="s">
-        <v>540</v>
+      <c r="C202" s="6" t="s">
+        <v>543</v>
       </c>
       <c r="D202" s="11" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="E202" s="5"/>
       <c r="F202" s="5"/>
       <c r="G202" s="5"/>
       <c r="H202" s="5"/>
       <c r="I202" s="6" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="J202" s="5"/>
       <c r="K202" s="5"/>
@@ -12174,18 +12048,18 @@
       </c>
       <c r="B203" s="5"/>
       <c r="C203" s="6" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="D203" s="11" t="s">
-        <v>544</v>
-      </c>
-      <c r="E203" s="5"/>
+        <v>547</v>
+      </c>
+      <c r="E203" s="6" t="s">
+        <v>548</v>
+      </c>
       <c r="F203" s="5"/>
       <c r="G203" s="5"/>
       <c r="H203" s="5"/>
-      <c r="I203" s="6" t="s">
-        <v>545</v>
-      </c>
+      <c r="I203" s="5"/>
       <c r="J203" s="5"/>
       <c r="K203" s="5"/>
       <c r="L203" s="5"/>
@@ -12205,23 +12079,23 @@
       <c r="Z203" s="3"/>
     </row>
     <row r="204" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A204" s="6" t="s">
-        <v>533</v>
+      <c r="A204" s="8" t="s">
+        <v>549</v>
       </c>
       <c r="B204" s="5"/>
-      <c r="C204" s="6" t="s">
-        <v>546</v>
-      </c>
-      <c r="D204" s="11" t="s">
-        <v>547</v>
-      </c>
-      <c r="E204" s="6" t="s">
-        <v>548</v>
-      </c>
+      <c r="C204" s="26" t="s">
+        <v>566</v>
+      </c>
+      <c r="D204" s="27" t="s">
+        <v>568</v>
+      </c>
+      <c r="E204" s="6"/>
       <c r="F204" s="5"/>
       <c r="G204" s="5"/>
       <c r="H204" s="5"/>
-      <c r="I204" s="5"/>
+      <c r="I204" s="5" t="s">
+        <v>567</v>
+      </c>
       <c r="J204" s="5"/>
       <c r="K204" s="5"/>
       <c r="L204" s="5"/>
@@ -12244,19 +12118,19 @@
       <c r="A205" s="8" t="s">
         <v>549</v>
       </c>
-      <c r="B205" s="5"/>
-      <c r="C205" s="29" t="s">
-        <v>568</v>
-      </c>
-      <c r="D205" s="30" t="s">
-        <v>570</v>
-      </c>
-      <c r="E205" s="6"/>
+      <c r="B205" s="4"/>
+      <c r="C205" s="21" t="s">
+        <v>550</v>
+      </c>
+      <c r="D205" s="22" t="s">
+        <v>551</v>
+      </c>
+      <c r="E205" s="4"/>
       <c r="F205" s="5"/>
       <c r="G205" s="5"/>
-      <c r="H205" s="5"/>
-      <c r="I205" s="5" t="s">
-        <v>569</v>
+      <c r="H205" s="4"/>
+      <c r="I205" s="6" t="s">
+        <v>552</v>
       </c>
       <c r="J205" s="5"/>
       <c r="K205" s="5"/>
@@ -12281,18 +12155,18 @@
         <v>549</v>
       </c>
       <c r="B206" s="4"/>
-      <c r="C206" s="21" t="s">
-        <v>550</v>
-      </c>
-      <c r="D206" s="22" t="s">
-        <v>551</v>
+      <c r="C206" s="8" t="s">
+        <v>553</v>
+      </c>
+      <c r="D206" s="9" t="s">
+        <v>554</v>
       </c>
       <c r="E206" s="4"/>
       <c r="F206" s="5"/>
       <c r="G206" s="5"/>
       <c r="H206" s="4"/>
       <c r="I206" s="6" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="J206" s="5"/>
       <c r="K206" s="5"/>
@@ -12318,17 +12192,17 @@
       </c>
       <c r="B207" s="4"/>
       <c r="C207" s="8" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="D207" s="9" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="E207" s="4"/>
       <c r="F207" s="5"/>
       <c r="G207" s="5"/>
       <c r="H207" s="4"/>
       <c r="I207" s="6" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="J207" s="5"/>
       <c r="K207" s="5"/>
@@ -12350,21 +12224,21 @@
     </row>
     <row r="208" spans="1:26" ht="13.5" customHeight="1">
       <c r="A208" s="8" t="s">
-        <v>549</v>
-      </c>
-      <c r="B208" s="4"/>
-      <c r="C208" s="8" t="s">
-        <v>556</v>
-      </c>
-      <c r="D208" s="9" t="s">
-        <v>557</v>
-      </c>
-      <c r="E208" s="4"/>
+        <v>559</v>
+      </c>
+      <c r="B208" s="5"/>
+      <c r="C208" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="D208" s="11" t="s">
+        <v>561</v>
+      </c>
+      <c r="E208" s="5"/>
       <c r="F208" s="5"/>
       <c r="G208" s="5"/>
-      <c r="H208" s="4"/>
+      <c r="H208" s="5"/>
       <c r="I208" s="6" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="J208" s="5"/>
       <c r="K208" s="5"/>
@@ -12390,17 +12264,17 @@
       </c>
       <c r="B209" s="5"/>
       <c r="C209" s="6" t="s">
-        <v>560</v>
-      </c>
-      <c r="D209" s="11" t="s">
-        <v>561</v>
+        <v>563</v>
+      </c>
+      <c r="D209" s="32" t="s">
+        <v>564</v>
       </c>
       <c r="E209" s="5"/>
       <c r="F209" s="5"/>
       <c r="G209" s="5"/>
       <c r="H209" s="5"/>
       <c r="I209" s="6" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="J209" s="5"/>
       <c r="K209" s="5"/>
@@ -12421,22 +12295,22 @@
       <c r="Z209" s="3"/>
     </row>
     <row r="210" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A210" s="8" t="s">
-        <v>559</v>
-      </c>
-      <c r="B210" s="5"/>
-      <c r="C210" s="6" t="s">
-        <v>563</v>
-      </c>
-      <c r="D210" s="35" t="s">
-        <v>564</v>
-      </c>
-      <c r="E210" s="5"/>
+      <c r="A210" s="23" t="s">
+        <v>599</v>
+      </c>
+      <c r="B210" s="30"/>
+      <c r="C210" s="36" t="s">
+        <v>589</v>
+      </c>
+      <c r="D210" s="37" t="s">
+        <v>592</v>
+      </c>
+      <c r="E210" s="31"/>
       <c r="F210" s="5"/>
       <c r="G210" s="5"/>
       <c r="H210" s="5"/>
       <c r="I210" s="6" t="s">
-        <v>565</v>
+        <v>585</v>
       </c>
       <c r="J210" s="5"/>
       <c r="K210" s="5"/>
@@ -12458,22 +12332,22 @@
     </row>
     <row r="211" spans="1:26" ht="13.5" customHeight="1">
       <c r="A211" s="23" t="s">
-        <v>592</v>
-      </c>
-      <c r="B211" s="5"/>
-      <c r="C211" s="40" t="s">
-        <v>593</v>
-      </c>
-      <c r="D211" s="41" t="s">
+        <v>599</v>
+      </c>
+      <c r="B211" s="33"/>
+      <c r="C211" s="38" t="s">
         <v>600</v>
       </c>
-      <c r="E211" s="5" t="s">
-        <v>607</v>
-      </c>
-      <c r="F211" s="5"/>
-      <c r="G211" s="5"/>
-      <c r="H211" s="5"/>
-      <c r="I211" s="5"/>
+      <c r="D211" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="E211" s="4"/>
+      <c r="F211" s="16"/>
+      <c r="G211" s="16"/>
+      <c r="H211" s="4"/>
+      <c r="I211" s="6" t="s">
+        <v>227</v>
+      </c>
       <c r="J211" s="5"/>
       <c r="K211" s="5"/>
       <c r="L211" s="5"/>
@@ -12494,22 +12368,22 @@
     </row>
     <row r="212" spans="1:26" ht="13.5" customHeight="1">
       <c r="A212" s="23" t="s">
-        <v>592</v>
-      </c>
-      <c r="B212" s="38"/>
-      <c r="C212" s="44" t="s">
-        <v>591</v>
-      </c>
-      <c r="D212" s="36" t="s">
-        <v>601</v>
-      </c>
-      <c r="E212" s="5" t="s">
-        <v>609</v>
-      </c>
+        <v>599</v>
+      </c>
+      <c r="B212" s="33"/>
+      <c r="C212" s="25" t="s">
+        <v>586</v>
+      </c>
+      <c r="D212" s="24" t="s">
+        <v>595</v>
+      </c>
+      <c r="E212" s="5"/>
       <c r="F212" s="5"/>
       <c r="G212" s="5"/>
       <c r="H212" s="5"/>
-      <c r="I212" s="5"/>
+      <c r="I212" s="5" t="s">
+        <v>597</v>
+      </c>
       <c r="J212" s="5"/>
       <c r="K212" s="5"/>
       <c r="L212" s="5"/>
@@ -12530,22 +12404,22 @@
     </row>
     <row r="213" spans="1:26" ht="13.5" customHeight="1">
       <c r="A213" s="23" t="s">
-        <v>592</v>
-      </c>
-      <c r="B213" s="38"/>
-      <c r="C213" s="44" t="s">
-        <v>598</v>
-      </c>
-      <c r="D213" s="36" t="s">
         <v>599</v>
       </c>
-      <c r="E213" s="5" t="s">
-        <v>608</v>
-      </c>
-      <c r="F213" s="5"/>
-      <c r="G213" s="5"/>
-      <c r="H213" s="5"/>
-      <c r="I213" s="5"/>
+      <c r="B213" s="30"/>
+      <c r="C213" s="34" t="s">
+        <v>212</v>
+      </c>
+      <c r="D213" s="35" t="s">
+        <v>213</v>
+      </c>
+      <c r="E213" s="4"/>
+      <c r="F213" s="16"/>
+      <c r="G213" s="16"/>
+      <c r="H213" s="4"/>
+      <c r="I213" s="6" t="s">
+        <v>214</v>
+      </c>
       <c r="J213" s="5"/>
       <c r="K213" s="5"/>
       <c r="L213" s="5"/>
@@ -12566,21 +12440,21 @@
     </row>
     <row r="214" spans="1:26" ht="13.5" customHeight="1">
       <c r="A214" s="23" t="s">
-        <v>592</v>
-      </c>
-      <c r="B214" s="39"/>
-      <c r="C214" s="45" t="s">
-        <v>594</v>
-      </c>
-      <c r="D214" s="46" t="s">
-        <v>602</v>
-      </c>
-      <c r="E214" s="34"/>
-      <c r="F214" s="5"/>
-      <c r="G214" s="5"/>
-      <c r="H214" s="5"/>
+        <v>599</v>
+      </c>
+      <c r="B214" s="30"/>
+      <c r="C214" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="D214" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="E214" s="4"/>
+      <c r="F214" s="16"/>
+      <c r="G214" s="16"/>
+      <c r="H214" s="4"/>
       <c r="I214" s="6" t="s">
-        <v>587</v>
+        <v>218</v>
       </c>
       <c r="J214" s="5"/>
       <c r="K214" s="5"/>
@@ -12602,23 +12476,23 @@
     </row>
     <row r="215" spans="1:26" ht="13.5" customHeight="1">
       <c r="A215" s="23" t="s">
-        <v>592</v>
-      </c>
-      <c r="B215" s="37" t="s">
-        <v>595</v>
-      </c>
-      <c r="C215" s="42" t="s">
-        <v>212</v>
-      </c>
-      <c r="D215" s="43" t="s">
-        <v>213</v>
-      </c>
-      <c r="E215" s="4"/>
-      <c r="F215" s="16"/>
-      <c r="G215" s="16"/>
-      <c r="H215" s="4"/>
-      <c r="I215" s="6" t="s">
-        <v>214</v>
+        <v>599</v>
+      </c>
+      <c r="B215" s="30" t="s">
+        <v>590</v>
+      </c>
+      <c r="C215" s="25" t="s">
+        <v>587</v>
+      </c>
+      <c r="D215" s="24" t="s">
+        <v>594</v>
+      </c>
+      <c r="E215" s="5"/>
+      <c r="F215" s="5"/>
+      <c r="G215" s="5"/>
+      <c r="H215" s="5"/>
+      <c r="I215" s="5" t="s">
+        <v>268</v>
       </c>
       <c r="J215" s="5"/>
       <c r="K215" s="5"/>
@@ -12640,23 +12514,23 @@
     </row>
     <row r="216" spans="1:26" ht="13.5" customHeight="1">
       <c r="A216" s="23" t="s">
-        <v>592</v>
-      </c>
-      <c r="B216" s="37" t="s">
-        <v>595</v>
-      </c>
-      <c r="C216" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="D216" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="E216" s="4"/>
-      <c r="F216" s="16"/>
-      <c r="G216" s="16"/>
-      <c r="H216" s="4"/>
-      <c r="I216" s="6" t="s">
-        <v>218</v>
+        <v>599</v>
+      </c>
+      <c r="B216" s="30" t="s">
+        <v>590</v>
+      </c>
+      <c r="C216" s="25" t="s">
+        <v>588</v>
+      </c>
+      <c r="D216" s="24" t="s">
+        <v>596</v>
+      </c>
+      <c r="E216" s="5"/>
+      <c r="F216" s="5"/>
+      <c r="G216" s="5"/>
+      <c r="H216" s="5"/>
+      <c r="I216" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="J216" s="5"/>
       <c r="K216" s="5"/>
@@ -12678,23 +12552,23 @@
     </row>
     <row r="217" spans="1:26" ht="13.5" customHeight="1">
       <c r="A217" s="23" t="s">
-        <v>592</v>
-      </c>
-      <c r="B217" s="37" t="s">
-        <v>595</v>
-      </c>
-      <c r="C217" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="D217" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="E217" s="4"/>
-      <c r="F217" s="16"/>
-      <c r="G217" s="16"/>
-      <c r="H217" s="4"/>
-      <c r="I217" s="6" t="s">
-        <v>227</v>
+        <v>599</v>
+      </c>
+      <c r="B217" s="30" t="s">
+        <v>590</v>
+      </c>
+      <c r="C217" s="25" t="s">
+        <v>591</v>
+      </c>
+      <c r="D217" s="24" t="s">
+        <v>593</v>
+      </c>
+      <c r="E217" s="5"/>
+      <c r="F217" s="5"/>
+      <c r="G217" s="5"/>
+      <c r="H217" s="5"/>
+      <c r="I217" s="5" t="s">
+        <v>598</v>
       </c>
       <c r="J217" s="5"/>
       <c r="K217" s="5"/>
@@ -12715,25 +12589,15 @@
       <c r="Z217" s="3"/>
     </row>
     <row r="218" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A218" s="23" t="s">
-        <v>592</v>
-      </c>
-      <c r="B218" s="37" t="s">
-        <v>595</v>
-      </c>
-      <c r="C218" s="25" t="s">
-        <v>588</v>
-      </c>
-      <c r="D218" s="24" t="s">
-        <v>605</v>
-      </c>
+      <c r="A218" s="5"/>
+      <c r="B218" s="5"/>
+      <c r="C218" s="5"/>
+      <c r="D218" s="5"/>
       <c r="E218" s="5"/>
       <c r="F218" s="5"/>
       <c r="G218" s="5"/>
       <c r="H218" s="5"/>
-      <c r="I218" s="5" t="s">
-        <v>610</v>
-      </c>
+      <c r="I218" s="5"/>
       <c r="J218" s="5"/>
       <c r="K218" s="5"/>
       <c r="L218" s="5"/>
@@ -12753,25 +12617,15 @@
       <c r="Z218" s="3"/>
     </row>
     <row r="219" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A219" s="23" t="s">
-        <v>592</v>
-      </c>
-      <c r="B219" s="33" t="s">
-        <v>596</v>
-      </c>
-      <c r="C219" s="25" t="s">
-        <v>589</v>
-      </c>
-      <c r="D219" s="24" t="s">
-        <v>604</v>
-      </c>
+      <c r="A219" s="5"/>
+      <c r="B219" s="5"/>
+      <c r="C219" s="5"/>
+      <c r="D219" s="5"/>
       <c r="E219" s="5"/>
       <c r="F219" s="5"/>
       <c r="G219" s="5"/>
       <c r="H219" s="5"/>
-      <c r="I219" s="5" t="s">
-        <v>268</v>
-      </c>
+      <c r="I219" s="5"/>
       <c r="J219" s="5"/>
       <c r="K219" s="5"/>
       <c r="L219" s="5"/>
@@ -12791,25 +12645,15 @@
       <c r="Z219" s="3"/>
     </row>
     <row r="220" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A220" s="23" t="s">
-        <v>592</v>
-      </c>
-      <c r="B220" s="33" t="s">
-        <v>596</v>
-      </c>
-      <c r="C220" s="25" t="s">
-        <v>590</v>
-      </c>
-      <c r="D220" s="24" t="s">
-        <v>606</v>
-      </c>
+      <c r="A220" s="5"/>
+      <c r="B220" s="5"/>
+      <c r="C220" s="5"/>
+      <c r="D220" s="5"/>
       <c r="E220" s="5"/>
       <c r="F220" s="5"/>
       <c r="G220" s="5"/>
       <c r="H220" s="5"/>
-      <c r="I220" s="5" t="s">
-        <v>35</v>
-      </c>
+      <c r="I220" s="5"/>
       <c r="J220" s="5"/>
       <c r="K220" s="5"/>
       <c r="L220" s="5"/>
@@ -12829,25 +12673,15 @@
       <c r="Z220" s="3"/>
     </row>
     <row r="221" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A221" s="23" t="s">
-        <v>592</v>
-      </c>
-      <c r="B221" s="33" t="s">
-        <v>596</v>
-      </c>
-      <c r="C221" s="25" t="s">
-        <v>597</v>
-      </c>
-      <c r="D221" s="24" t="s">
-        <v>603</v>
-      </c>
+      <c r="A221" s="5"/>
+      <c r="B221" s="5"/>
+      <c r="C221" s="5"/>
+      <c r="D221" s="5"/>
       <c r="E221" s="5"/>
       <c r="F221" s="5"/>
       <c r="G221" s="5"/>
       <c r="H221" s="5"/>
-      <c r="I221" s="5" t="s">
-        <v>611</v>
-      </c>
+      <c r="I221" s="5"/>
       <c r="J221" s="5"/>
       <c r="K221" s="5"/>
       <c r="L221" s="5"/>
@@ -17990,258 +17824,15 @@
       <c r="Y404" s="3"/>
       <c r="Z404" s="3"/>
     </row>
-    <row r="405" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A405" s="5"/>
-      <c r="B405" s="5"/>
-      <c r="C405" s="5"/>
-      <c r="D405" s="5"/>
-      <c r="E405" s="5"/>
-      <c r="F405" s="5"/>
-      <c r="G405" s="5"/>
-      <c r="H405" s="5"/>
-      <c r="I405" s="5"/>
-      <c r="J405" s="5"/>
-      <c r="K405" s="5"/>
-      <c r="L405" s="5"/>
-      <c r="M405" s="6"/>
-      <c r="N405" s="3"/>
-      <c r="O405" s="3"/>
-      <c r="P405" s="3"/>
-      <c r="Q405" s="3"/>
-      <c r="R405" s="3"/>
-      <c r="S405" s="3"/>
-      <c r="T405" s="3"/>
-      <c r="U405" s="3"/>
-      <c r="V405" s="3"/>
-      <c r="W405" s="3"/>
-      <c r="X405" s="3"/>
-      <c r="Y405" s="3"/>
-      <c r="Z405" s="3"/>
-    </row>
-    <row r="406" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A406" s="5"/>
-      <c r="B406" s="5"/>
-      <c r="C406" s="5"/>
-      <c r="D406" s="5"/>
-      <c r="E406" s="5"/>
-      <c r="F406" s="5"/>
-      <c r="G406" s="5"/>
-      <c r="H406" s="5"/>
-      <c r="I406" s="5"/>
-      <c r="J406" s="5"/>
-      <c r="K406" s="5"/>
-      <c r="L406" s="5"/>
-      <c r="M406" s="6"/>
-      <c r="N406" s="3"/>
-      <c r="O406" s="3"/>
-      <c r="P406" s="3"/>
-      <c r="Q406" s="3"/>
-      <c r="R406" s="3"/>
-      <c r="S406" s="3"/>
-      <c r="T406" s="3"/>
-      <c r="U406" s="3"/>
-      <c r="V406" s="3"/>
-      <c r="W406" s="3"/>
-      <c r="X406" s="3"/>
-      <c r="Y406" s="3"/>
-      <c r="Z406" s="3"/>
-    </row>
-    <row r="407" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A407" s="5"/>
-      <c r="B407" s="5"/>
-      <c r="C407" s="5"/>
-      <c r="D407" s="5"/>
-      <c r="E407" s="5"/>
-      <c r="F407" s="5"/>
-      <c r="G407" s="5"/>
-      <c r="H407" s="5"/>
-      <c r="I407" s="5"/>
-      <c r="J407" s="5"/>
-      <c r="K407" s="5"/>
-      <c r="L407" s="5"/>
-      <c r="M407" s="6"/>
-      <c r="N407" s="3"/>
-      <c r="O407" s="3"/>
-      <c r="P407" s="3"/>
-      <c r="Q407" s="3"/>
-      <c r="R407" s="3"/>
-      <c r="S407" s="3"/>
-      <c r="T407" s="3"/>
-      <c r="U407" s="3"/>
-      <c r="V407" s="3"/>
-      <c r="W407" s="3"/>
-      <c r="X407" s="3"/>
-      <c r="Y407" s="3"/>
-      <c r="Z407" s="3"/>
-    </row>
-    <row r="408" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A408" s="5"/>
-      <c r="B408" s="5"/>
-      <c r="C408" s="5"/>
-      <c r="D408" s="5"/>
-      <c r="E408" s="5"/>
-      <c r="F408" s="5"/>
-      <c r="G408" s="5"/>
-      <c r="H408" s="5"/>
-      <c r="I408" s="5"/>
-      <c r="J408" s="5"/>
-      <c r="K408" s="5"/>
-      <c r="L408" s="5"/>
-      <c r="M408" s="6"/>
-      <c r="N408" s="3"/>
-      <c r="O408" s="3"/>
-      <c r="P408" s="3"/>
-      <c r="Q408" s="3"/>
-      <c r="R408" s="3"/>
-      <c r="S408" s="3"/>
-      <c r="T408" s="3"/>
-      <c r="U408" s="3"/>
-      <c r="V408" s="3"/>
-      <c r="W408" s="3"/>
-      <c r="X408" s="3"/>
-      <c r="Y408" s="3"/>
-      <c r="Z408" s="3"/>
-    </row>
-    <row r="409" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A409" s="5"/>
-      <c r="B409" s="5"/>
-      <c r="C409" s="5"/>
-      <c r="D409" s="5"/>
-      <c r="E409" s="5"/>
-      <c r="F409" s="5"/>
-      <c r="G409" s="5"/>
-      <c r="H409" s="5"/>
-      <c r="I409" s="5"/>
-      <c r="J409" s="5"/>
-      <c r="K409" s="5"/>
-      <c r="L409" s="5"/>
-      <c r="M409" s="6"/>
-      <c r="N409" s="3"/>
-      <c r="O409" s="3"/>
-      <c r="P409" s="3"/>
-      <c r="Q409" s="3"/>
-      <c r="R409" s="3"/>
-      <c r="S409" s="3"/>
-      <c r="T409" s="3"/>
-      <c r="U409" s="3"/>
-      <c r="V409" s="3"/>
-      <c r="W409" s="3"/>
-      <c r="X409" s="3"/>
-      <c r="Y409" s="3"/>
-      <c r="Z409" s="3"/>
-    </row>
-    <row r="410" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A410" s="5"/>
-      <c r="B410" s="5"/>
-      <c r="C410" s="5"/>
-      <c r="D410" s="5"/>
-      <c r="E410" s="5"/>
-      <c r="F410" s="5"/>
-      <c r="G410" s="5"/>
-      <c r="H410" s="5"/>
-      <c r="I410" s="5"/>
-      <c r="J410" s="5"/>
-      <c r="K410" s="5"/>
-      <c r="L410" s="5"/>
-      <c r="M410" s="6"/>
-      <c r="N410" s="3"/>
-      <c r="O410" s="3"/>
-      <c r="P410" s="3"/>
-      <c r="Q410" s="3"/>
-      <c r="R410" s="3"/>
-      <c r="S410" s="3"/>
-      <c r="T410" s="3"/>
-      <c r="U410" s="3"/>
-      <c r="V410" s="3"/>
-      <c r="W410" s="3"/>
-      <c r="X410" s="3"/>
-      <c r="Y410" s="3"/>
-      <c r="Z410" s="3"/>
-    </row>
-    <row r="411" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A411" s="5"/>
-      <c r="B411" s="5"/>
-      <c r="C411" s="5"/>
-      <c r="D411" s="5"/>
-      <c r="E411" s="5"/>
-      <c r="F411" s="5"/>
-      <c r="G411" s="5"/>
-      <c r="H411" s="5"/>
-      <c r="I411" s="5"/>
-      <c r="J411" s="5"/>
-      <c r="K411" s="5"/>
-      <c r="L411" s="5"/>
-      <c r="M411" s="6"/>
-      <c r="N411" s="3"/>
-      <c r="O411" s="3"/>
-      <c r="P411" s="3"/>
-      <c r="Q411" s="3"/>
-      <c r="R411" s="3"/>
-      <c r="S411" s="3"/>
-      <c r="T411" s="3"/>
-      <c r="U411" s="3"/>
-      <c r="V411" s="3"/>
-      <c r="W411" s="3"/>
-      <c r="X411" s="3"/>
-      <c r="Y411" s="3"/>
-      <c r="Z411" s="3"/>
-    </row>
-    <row r="412" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A412" s="5"/>
-      <c r="B412" s="5"/>
-      <c r="C412" s="5"/>
-      <c r="D412" s="5"/>
-      <c r="E412" s="5"/>
-      <c r="F412" s="5"/>
-      <c r="G412" s="5"/>
-      <c r="H412" s="5"/>
-      <c r="I412" s="5"/>
-      <c r="J412" s="5"/>
-      <c r="K412" s="5"/>
-      <c r="L412" s="5"/>
-      <c r="M412" s="6"/>
-      <c r="N412" s="3"/>
-      <c r="O412" s="3"/>
-      <c r="P412" s="3"/>
-      <c r="Q412" s="3"/>
-      <c r="R412" s="3"/>
-      <c r="S412" s="3"/>
-      <c r="T412" s="3"/>
-      <c r="U412" s="3"/>
-      <c r="V412" s="3"/>
-      <c r="W412" s="3"/>
-      <c r="X412" s="3"/>
-      <c r="Y412" s="3"/>
-      <c r="Z412" s="3"/>
-    </row>
-    <row r="413" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A413" s="5"/>
-      <c r="B413" s="5"/>
-      <c r="C413" s="5"/>
-      <c r="D413" s="5"/>
-      <c r="E413" s="5"/>
-      <c r="F413" s="5"/>
-      <c r="G413" s="5"/>
-      <c r="H413" s="5"/>
-      <c r="I413" s="5"/>
-      <c r="J413" s="5"/>
-      <c r="K413" s="5"/>
-      <c r="L413" s="5"/>
-      <c r="M413" s="6"/>
-      <c r="N413" s="3"/>
-      <c r="O413" s="3"/>
-      <c r="P413" s="3"/>
-      <c r="Q413" s="3"/>
-      <c r="R413" s="3"/>
-      <c r="S413" s="3"/>
-      <c r="T413" s="3"/>
-      <c r="U413" s="3"/>
-      <c r="V413" s="3"/>
-      <c r="W413" s="3"/>
-      <c r="X413" s="3"/>
-      <c r="Y413" s="3"/>
-      <c r="Z413" s="3"/>
-    </row>
+    <row r="405" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="406" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="407" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="408" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="409" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="410" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="411" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="412" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="413" spans="1:26" ht="15.75" customHeight="1"/>
     <row r="414" spans="1:26" ht="15.75" customHeight="1"/>
     <row r="415" spans="1:26" ht="15.75" customHeight="1"/>
     <row r="416" spans="1:26" ht="15.75" customHeight="1"/>
@@ -18830,15 +18421,6 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
     <row r="1001" ht="15.75" customHeight="1"/>
-    <row r="1002" ht="15.75" customHeight="1"/>
-    <row r="1003" ht="15.75" customHeight="1"/>
-    <row r="1004" ht="15.75" customHeight="1"/>
-    <row r="1005" ht="15.75" customHeight="1"/>
-    <row r="1006" ht="15.75" customHeight="1"/>
-    <row r="1007" ht="15.75" customHeight="1"/>
-    <row r="1008" ht="15.75" customHeight="1"/>
-    <row r="1009" ht="15.75" customHeight="1"/>
-    <row r="1010" ht="15.75" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="13"/>
   <hyperlinks>
@@ -18999,55 +18581,54 @@
     <hyperlink ref="D161" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
     <hyperlink ref="D162" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
     <hyperlink ref="D163" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
-    <hyperlink ref="D170" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
-    <hyperlink ref="D171" r:id="rId159" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
-    <hyperlink ref="D172" r:id="rId160" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
-    <hyperlink ref="D173" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
-    <hyperlink ref="D174" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
-    <hyperlink ref="D175" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
-    <hyperlink ref="D176" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
-    <hyperlink ref="D177" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
-    <hyperlink ref="D178" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
-    <hyperlink ref="D179" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
-    <hyperlink ref="D180" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
-    <hyperlink ref="D181" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
-    <hyperlink ref="D182" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
-    <hyperlink ref="D183" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
-    <hyperlink ref="D184" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
-    <hyperlink ref="D185" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
-    <hyperlink ref="D186" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
-    <hyperlink ref="D187" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
-    <hyperlink ref="D188" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
-    <hyperlink ref="D189" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
-    <hyperlink ref="D190" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
-    <hyperlink ref="D191" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
-    <hyperlink ref="D192" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
-    <hyperlink ref="D193" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
-    <hyperlink ref="D194" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
-    <hyperlink ref="D195" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
-    <hyperlink ref="D196" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
-    <hyperlink ref="D197" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
-    <hyperlink ref="D198" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
-    <hyperlink ref="D199" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
-    <hyperlink ref="D200" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
-    <hyperlink ref="D201" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
-    <hyperlink ref="D202" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
-    <hyperlink ref="D203" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
-    <hyperlink ref="D204" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
-    <hyperlink ref="D206" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
-    <hyperlink ref="D207" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
-    <hyperlink ref="D208" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
-    <hyperlink ref="D209" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
-    <hyperlink ref="D210" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
-    <hyperlink ref="D169" r:id="rId198" xr:uid="{0E1E66AB-E725-4DC2-A9E7-89AB9F93D44F}"/>
-    <hyperlink ref="D205" r:id="rId199" xr:uid="{FB5BD734-C92C-4DCB-AC83-E67BDA12DFF4}"/>
-    <hyperlink ref="D164" r:id="rId200" xr:uid="{E6F63535-7CB0-4B0A-8A9B-2FF45193FA31}"/>
-    <hyperlink ref="D165" r:id="rId201" xr:uid="{23618A7F-70F1-429D-A989-04E42D5219C5}"/>
-    <hyperlink ref="D167" r:id="rId202" xr:uid="{A61CFECD-5D13-489A-855F-076420E34CFD}"/>
-    <hyperlink ref="D168" r:id="rId203" xr:uid="{6EDE7FBD-C182-4315-93DC-5FE3983DF025}"/>
-    <hyperlink ref="D215" r:id="rId204" xr:uid="{F8CC161C-3698-4455-AE50-3DBD3D45797B}"/>
-    <hyperlink ref="D216" r:id="rId205" xr:uid="{F41BCF05-CC73-422D-8893-0B9A8DAAA427}"/>
-    <hyperlink ref="D217" r:id="rId206" xr:uid="{511CA28D-F4D7-4764-8143-3595BDCD915C}"/>
+    <hyperlink ref="D169" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
+    <hyperlink ref="D170" r:id="rId159" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
+    <hyperlink ref="D171" r:id="rId160" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
+    <hyperlink ref="D172" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
+    <hyperlink ref="D173" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
+    <hyperlink ref="D174" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
+    <hyperlink ref="D175" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
+    <hyperlink ref="D176" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
+    <hyperlink ref="D177" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
+    <hyperlink ref="D178" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
+    <hyperlink ref="D179" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
+    <hyperlink ref="D180" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
+    <hyperlink ref="D181" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
+    <hyperlink ref="D182" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
+    <hyperlink ref="D183" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
+    <hyperlink ref="D184" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
+    <hyperlink ref="D185" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
+    <hyperlink ref="D186" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
+    <hyperlink ref="D187" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
+    <hyperlink ref="D188" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
+    <hyperlink ref="D189" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
+    <hyperlink ref="D190" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
+    <hyperlink ref="D191" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
+    <hyperlink ref="D192" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
+    <hyperlink ref="D193" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
+    <hyperlink ref="D194" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
+    <hyperlink ref="D195" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
+    <hyperlink ref="D196" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
+    <hyperlink ref="D197" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
+    <hyperlink ref="D198" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
+    <hyperlink ref="D199" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
+    <hyperlink ref="D200" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
+    <hyperlink ref="D201" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
+    <hyperlink ref="D202" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
+    <hyperlink ref="D203" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
+    <hyperlink ref="D205" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
+    <hyperlink ref="D206" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
+    <hyperlink ref="D207" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
+    <hyperlink ref="D208" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
+    <hyperlink ref="D209" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
+    <hyperlink ref="D204" r:id="rId198" xr:uid="{FB5BD734-C92C-4DCB-AC83-E67BDA12DFF4}"/>
+    <hyperlink ref="D164" r:id="rId199" xr:uid="{E6F63535-7CB0-4B0A-8A9B-2FF45193FA31}"/>
+    <hyperlink ref="D165" r:id="rId200" xr:uid="{23618A7F-70F1-429D-A989-04E42D5219C5}"/>
+    <hyperlink ref="D167" r:id="rId201" xr:uid="{A61CFECD-5D13-489A-855F-076420E34CFD}"/>
+    <hyperlink ref="D168" r:id="rId202" xr:uid="{6EDE7FBD-C182-4315-93DC-5FE3983DF025}"/>
+    <hyperlink ref="D211" r:id="rId203" xr:uid="{511CA28D-F4D7-4764-8143-3595BDCD915C}"/>
+    <hyperlink ref="D214" r:id="rId204" xr:uid="{F41BCF05-CC73-422D-8893-0B9A8DAAA427}"/>
+    <hyperlink ref="D213" r:id="rId205" xr:uid="{F8CC161C-3698-4455-AE50-3DBD3D45797B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <headerFooter>

--- a/メニュー/メニュー.xlsx
+++ b/メニュー/メニュー.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\vm22flo01\DownloadFiles\DX推進課\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{747D3F46-EB56-4260-A6B7-E2E3F9775062}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62B9E5C1-5F5D-4A76-B7C6-DF30BE771C54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1103" uniqueCount="601">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1114" uniqueCount="606">
   <si>
     <t>大カテゴリー</t>
   </si>
@@ -32,12 +32,6 @@
   </si>
   <si>
     <t>データ参照先</t>
-  </si>
-  <si>
-    <t>fill</t>
-  </si>
-  <si>
-    <t>stroke</t>
   </si>
   <si>
     <t>stroke-width</t>
@@ -3688,6 +3682,45 @@
   </si>
   <si>
     <t>日帰り温泉・足湯</t>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>小泉八雲マップ（ばけばけ）</t>
+    <rPh sb="0" eb="4">
+      <t>コイズミヤクモ</t>
+    </rPh>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>小泉八雲ゆかりの地</t>
+    <rPh sb="0" eb="4">
+      <t>コイズミヤクモ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>チ</t>
+    </rPh>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>浜通り（八雲通り）</t>
+    <rPh sb="0" eb="7">
+      <t>ハマドオリ（ヤクモドオリ</t>
+    </rPh>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>https://yaizu-smartcity.jp/tiles/%E5%B0%8F%E6%B3%89%E5%85%AB%E9%9B%B2%E3%83%9E%E3%83%83%E3%83%97/tiles.json</t>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>https://yaizu-smartcity.jp/tiles/%E5%B0%8F%E6%B3%89%E5%85%AB%E9%9B%B2%E3%83%9E%E3%83%83%E3%83%97_%E6%B5%9C%E9%80%9A%E3%82%8A/tiles.json</t>
+  </si>
+  <si>
+    <t>stroke</t>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>fill</t>
     <phoneticPr fontId="13"/>
   </si>
 </sst>
@@ -3973,7 +4006,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4065,6 +4098,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="15" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="17" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -4284,13 +4318,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Z1001"/>
+  <dimension ref="A1:Z1003"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D153" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D179" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A169" sqref="A169:XFD169"/>
+      <selection pane="bottomRight" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -4320,31 +4354,31 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
@@ -4364,14 +4398,14 @@
       <c r="A2" s="4"/>
       <c r="B2" s="5"/>
       <c r="C2" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E2" s="8"/>
       <c r="F2" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G2" s="5"/>
       <c r="H2" s="8"/>
@@ -4396,23 +4430,23 @@
     </row>
     <row r="3" spans="1:26" ht="13.5" customHeight="1">
       <c r="A3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="D3" s="9" t="s">
         <v>17</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>19</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
       <c r="I3" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
@@ -4434,22 +4468,22 @@
     </row>
     <row r="4" spans="1:26" ht="13.5" customHeight="1">
       <c r="A4" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
@@ -4472,23 +4506,23 @@
     </row>
     <row r="5" spans="1:26" ht="13.5" customHeight="1">
       <c r="A5" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
@@ -4510,23 +4544,23 @@
     </row>
     <row r="6" spans="1:26" ht="13.5" customHeight="1">
       <c r="A6" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
@@ -4548,23 +4582,23 @@
     </row>
     <row r="7" spans="1:26" ht="13.5" customHeight="1">
       <c r="A7" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
@@ -4586,23 +4620,23 @@
     </row>
     <row r="8" spans="1:26" ht="13.5" customHeight="1">
       <c r="A8" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
@@ -4624,23 +4658,23 @@
     </row>
     <row r="9" spans="1:26" ht="13.5" customHeight="1">
       <c r="A9" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="I9" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
@@ -4662,23 +4696,23 @@
     </row>
     <row r="10" spans="1:26" ht="13.5" customHeight="1">
       <c r="A10" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
@@ -4700,23 +4734,23 @@
     </row>
     <row r="11" spans="1:26" ht="13.5" customHeight="1">
       <c r="A11" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
@@ -4738,23 +4772,23 @@
     </row>
     <row r="12" spans="1:26" ht="13.5" customHeight="1">
       <c r="A12" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
@@ -4776,23 +4810,23 @@
     </row>
     <row r="13" spans="1:26" ht="13.5" customHeight="1">
       <c r="A13" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
@@ -4814,23 +4848,23 @@
     </row>
     <row r="14" spans="1:26" ht="13.5" customHeight="1">
       <c r="A14" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
@@ -4852,20 +4886,20 @@
     </row>
     <row r="15" spans="1:26" ht="13.5" customHeight="1">
       <c r="A15" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B15" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="11" t="s">
         <v>54</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>56</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
@@ -4890,20 +4924,20 @@
     </row>
     <row r="16" spans="1:26" ht="13.5" customHeight="1">
       <c r="A16" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
@@ -4928,20 +4962,20 @@
     </row>
     <row r="17" spans="1:26" ht="13.5" customHeight="1">
       <c r="A17" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
@@ -4966,23 +5000,23 @@
     </row>
     <row r="18" spans="1:26" ht="13.5" customHeight="1">
       <c r="A18" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B18" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" s="11" t="s">
         <v>64</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>66</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
       <c r="I18" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
@@ -5004,23 +5038,23 @@
     </row>
     <row r="19" spans="1:26" ht="13.5" customHeight="1">
       <c r="A19" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
       <c r="I19" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
@@ -5042,24 +5076,24 @@
     </row>
     <row r="20" spans="1:26" ht="13.5" customHeight="1">
       <c r="A20" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B20" s="4"/>
       <c r="C20" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="E20" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="F20" s="6" t="s">
         <v>72</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>74</v>
       </c>
       <c r="G20" s="5"/>
       <c r="H20" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
@@ -5082,16 +5116,16 @@
     </row>
     <row r="21" spans="1:26" ht="13.5" customHeight="1">
       <c r="A21" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B21" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21" s="11" t="s">
         <v>75</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>77</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="5"/>
@@ -5118,16 +5152,16 @@
     </row>
     <row r="22" spans="1:26" ht="13.5" customHeight="1">
       <c r="A22" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="5"/>
@@ -5154,16 +5188,16 @@
     </row>
     <row r="23" spans="1:26" ht="13.5" customHeight="1">
       <c r="A23" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B23" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D23" s="13" t="s">
         <v>80</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>82</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
@@ -5190,24 +5224,24 @@
     </row>
     <row r="24" spans="1:26" ht="13.5" customHeight="1">
       <c r="A24" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B24" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="D24" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="E24" s="6" t="s">
         <v>84</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>86</v>
       </c>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
       <c r="H24" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
@@ -5230,24 +5264,24 @@
     </row>
     <row r="25" spans="1:26" ht="13.5" customHeight="1">
       <c r="A25" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C25" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="E25" s="6" t="s">
         <v>87</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>89</v>
       </c>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
@@ -5270,24 +5304,24 @@
     </row>
     <row r="26" spans="1:26" ht="13.5" customHeight="1">
       <c r="A26" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C26" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="E26" s="6" t="s">
         <v>90</v>
-      </c>
-      <c r="D26" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>92</v>
       </c>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
       <c r="H26" s="6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
@@ -5310,24 +5344,24 @@
     </row>
     <row r="27" spans="1:26" ht="13.5" customHeight="1">
       <c r="A27" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C27" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="E27" s="6" t="s">
         <v>93</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>95</v>
       </c>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
       <c r="H27" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I27" s="5"/>
       <c r="J27" s="5"/>
@@ -5350,24 +5384,24 @@
     </row>
     <row r="28" spans="1:26" ht="13.5" customHeight="1">
       <c r="A28" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C28" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="E28" s="6" t="s">
         <v>96</v>
-      </c>
-      <c r="D28" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>98</v>
       </c>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
       <c r="H28" s="6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
@@ -5390,16 +5424,16 @@
     </row>
     <row r="29" spans="1:26" ht="13.5" customHeight="1">
       <c r="A29" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B29" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D29" s="13" t="s">
         <v>99</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>101</v>
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
@@ -5426,16 +5460,16 @@
     </row>
     <row r="30" spans="1:26" ht="13.5" customHeight="1">
       <c r="A30" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
@@ -5462,16 +5496,16 @@
     </row>
     <row r="31" spans="1:26" ht="13.5" customHeight="1">
       <c r="A31" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
@@ -5498,16 +5532,16 @@
     </row>
     <row r="32" spans="1:26" ht="13.5" customHeight="1">
       <c r="A32" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
@@ -5534,16 +5568,16 @@
     </row>
     <row r="33" spans="1:26" ht="13.5" customHeight="1">
       <c r="A33" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
@@ -5570,16 +5604,16 @@
     </row>
     <row r="34" spans="1:26" ht="13.5" customHeight="1">
       <c r="A34" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
@@ -5606,16 +5640,16 @@
     </row>
     <row r="35" spans="1:26" ht="13.5" customHeight="1">
       <c r="A35" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
@@ -5642,16 +5676,16 @@
     </row>
     <row r="36" spans="1:26" ht="13.5" customHeight="1">
       <c r="A36" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
@@ -5678,16 +5712,16 @@
     </row>
     <row r="37" spans="1:26" ht="13.5" customHeight="1">
       <c r="A37" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
@@ -5714,16 +5748,16 @@
     </row>
     <row r="38" spans="1:26" ht="13.5" customHeight="1">
       <c r="A38" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
@@ -5750,16 +5784,16 @@
     </row>
     <row r="39" spans="1:26" ht="13.5" customHeight="1">
       <c r="A39" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
@@ -5786,16 +5820,16 @@
     </row>
     <row r="40" spans="1:26" ht="13.5" customHeight="1">
       <c r="A40" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
@@ -5822,16 +5856,16 @@
     </row>
     <row r="41" spans="1:26" ht="13.5" customHeight="1">
       <c r="A41" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
@@ -5858,16 +5892,16 @@
     </row>
     <row r="42" spans="1:26" ht="13.5" customHeight="1">
       <c r="A42" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
@@ -5894,16 +5928,16 @@
     </row>
     <row r="43" spans="1:26" ht="13.5" customHeight="1">
       <c r="A43" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
@@ -5930,16 +5964,16 @@
     </row>
     <row r="44" spans="1:26" ht="13.5" customHeight="1">
       <c r="A44" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
@@ -5966,16 +6000,16 @@
     </row>
     <row r="45" spans="1:26" ht="13.5" customHeight="1">
       <c r="A45" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D45" s="15" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
@@ -6002,16 +6036,16 @@
     </row>
     <row r="46" spans="1:26" ht="13.5" customHeight="1">
       <c r="A46" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D46" s="13" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
@@ -6038,16 +6072,16 @@
     </row>
     <row r="47" spans="1:26" ht="13.5" customHeight="1">
       <c r="A47" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B47" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D47" s="13" t="s">
         <v>134</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="D47" s="13" t="s">
-        <v>136</v>
       </c>
       <c r="E47" s="5"/>
       <c r="F47" s="5"/>
@@ -6074,16 +6108,16 @@
     </row>
     <row r="48" spans="1:26" ht="13.5" customHeight="1">
       <c r="A48" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D48" s="13" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
@@ -6110,16 +6144,16 @@
     </row>
     <row r="49" spans="1:26" ht="13.5" customHeight="1">
       <c r="A49" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D49" s="13" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
@@ -6146,16 +6180,16 @@
     </row>
     <row r="50" spans="1:26" ht="13.5" customHeight="1">
       <c r="A50" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D50" s="13" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
@@ -6182,16 +6216,16 @@
     </row>
     <row r="51" spans="1:26" ht="13.5" customHeight="1">
       <c r="A51" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D51" s="13" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E51" s="5"/>
       <c r="F51" s="5"/>
@@ -6218,16 +6252,16 @@
     </row>
     <row r="52" spans="1:26" ht="13.5" customHeight="1">
       <c r="A52" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D52" s="13" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E52" s="5"/>
       <c r="F52" s="5"/>
@@ -6254,16 +6288,16 @@
     </row>
     <row r="53" spans="1:26" ht="13.5" customHeight="1">
       <c r="A53" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D53" s="13" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E53" s="5"/>
       <c r="F53" s="5"/>
@@ -6290,16 +6324,16 @@
     </row>
     <row r="54" spans="1:26" ht="13.5" customHeight="1">
       <c r="A54" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B54" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D54" s="13" t="s">
         <v>142</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="D54" s="13" t="s">
-        <v>144</v>
       </c>
       <c r="E54" s="5"/>
       <c r="F54" s="5"/>
@@ -6326,16 +6360,16 @@
     </row>
     <row r="55" spans="1:26" ht="13.5" customHeight="1">
       <c r="A55" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D55" s="13" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E55" s="5"/>
       <c r="F55" s="5"/>
@@ -6362,16 +6396,16 @@
     </row>
     <row r="56" spans="1:26" ht="13.5" customHeight="1">
       <c r="A56" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D56" s="13" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E56" s="5"/>
       <c r="F56" s="5"/>
@@ -6398,16 +6432,16 @@
     </row>
     <row r="57" spans="1:26" ht="13.5" customHeight="1">
       <c r="A57" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D57" s="13" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E57" s="5"/>
       <c r="F57" s="5"/>
@@ -6434,16 +6468,16 @@
     </row>
     <row r="58" spans="1:26" ht="13.5" customHeight="1">
       <c r="A58" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D58" s="13" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E58" s="5"/>
       <c r="F58" s="5"/>
@@ -6470,16 +6504,16 @@
     </row>
     <row r="59" spans="1:26" ht="13.5" customHeight="1">
       <c r="A59" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D59" s="13" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E59" s="5"/>
       <c r="F59" s="5"/>
@@ -6506,16 +6540,16 @@
     </row>
     <row r="60" spans="1:26" ht="13.5" customHeight="1">
       <c r="A60" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D60" s="13" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E60" s="5"/>
       <c r="F60" s="5"/>
@@ -6542,16 +6576,16 @@
     </row>
     <row r="61" spans="1:26" ht="13.5" customHeight="1">
       <c r="A61" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D61" s="13" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E61" s="5"/>
       <c r="F61" s="5"/>
@@ -6578,24 +6612,24 @@
     </row>
     <row r="62" spans="1:26" ht="13.5" customHeight="1">
       <c r="A62" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B62" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D62" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="E62" s="6" t="s">
         <v>152</v>
-      </c>
-      <c r="C62" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="D62" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="E62" s="6" t="s">
-        <v>154</v>
       </c>
       <c r="F62" s="5"/>
       <c r="G62" s="5"/>
       <c r="H62" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="I62" s="5"/>
       <c r="J62" s="5"/>
@@ -6618,22 +6652,22 @@
     </row>
     <row r="63" spans="1:26" ht="13.5" customHeight="1">
       <c r="A63" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B63" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D63" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="E63" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="C63" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="D63" s="13" t="s">
+      <c r="F63" s="6" t="s">
         <v>156</v>
-      </c>
-      <c r="E63" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="F63" s="6" t="s">
-        <v>158</v>
       </c>
       <c r="G63" s="5"/>
       <c r="H63" s="5"/>
@@ -6658,22 +6692,22 @@
     </row>
     <row r="64" spans="1:26" ht="13.5" customHeight="1">
       <c r="A64" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B64" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D64" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="E64" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="C64" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="D64" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="E64" s="6" t="s">
-        <v>157</v>
-      </c>
       <c r="F64" s="6" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G64" s="5"/>
       <c r="H64" s="5"/>
@@ -6698,22 +6732,22 @@
     </row>
     <row r="65" spans="1:26" ht="13.5" customHeight="1">
       <c r="A65" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B65" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D65" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="E65" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="C65" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="D65" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="E65" s="6" t="s">
-        <v>157</v>
-      </c>
       <c r="F65" s="6" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G65" s="5"/>
       <c r="H65" s="5"/>
@@ -6738,22 +6772,22 @@
     </row>
     <row r="66" spans="1:26" ht="13.5" customHeight="1">
       <c r="A66" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B66" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D66" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="E66" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="C66" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="D66" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="E66" s="6" t="s">
-        <v>157</v>
-      </c>
       <c r="F66" s="6" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G66" s="5"/>
       <c r="H66" s="5"/>
@@ -6778,22 +6812,22 @@
     </row>
     <row r="67" spans="1:26" ht="13.5" customHeight="1">
       <c r="A67" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B67" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D67" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="E67" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="C67" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="D67" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="E67" s="6" t="s">
-        <v>157</v>
-      </c>
       <c r="F67" s="6" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G67" s="5"/>
       <c r="H67" s="5"/>
@@ -6818,22 +6852,22 @@
     </row>
     <row r="68" spans="1:26" ht="13.5" customHeight="1">
       <c r="A68" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B68" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D68" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="E68" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="C68" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="D68" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="E68" s="6" t="s">
-        <v>157</v>
-      </c>
       <c r="F68" s="6" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G68" s="5"/>
       <c r="H68" s="5"/>
@@ -6858,22 +6892,22 @@
     </row>
     <row r="69" spans="1:26" ht="13.5" customHeight="1">
       <c r="A69" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B69" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D69" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="E69" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="C69" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="D69" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="E69" s="6" t="s">
-        <v>157</v>
-      </c>
       <c r="F69" s="6" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G69" s="5"/>
       <c r="H69" s="5"/>
@@ -6898,22 +6932,22 @@
     </row>
     <row r="70" spans="1:26" ht="13.5" customHeight="1">
       <c r="A70" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B70" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D70" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="E70" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="C70" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="D70" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="E70" s="6" t="s">
-        <v>157</v>
-      </c>
       <c r="F70" s="6" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G70" s="5"/>
       <c r="H70" s="5"/>
@@ -6938,18 +6972,18 @@
     </row>
     <row r="71" spans="1:26" ht="14.25" customHeight="1">
       <c r="A71" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B71" s="5"/>
       <c r="C71" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D71" s="13" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E71" s="5"/>
       <c r="F71" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G71" s="5"/>
       <c r="H71" s="5"/>
@@ -6974,24 +7008,24 @@
     </row>
     <row r="72" spans="1:26" ht="13.5" customHeight="1">
       <c r="A72" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B72" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="D72" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="C72" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="D72" s="13" t="s">
-        <v>170</v>
-      </c>
       <c r="E72" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F72" s="5"/>
       <c r="G72" s="5"/>
       <c r="H72" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I72" s="5"/>
       <c r="J72" s="5"/>
@@ -7014,24 +7048,24 @@
     </row>
     <row r="73" spans="1:26" ht="13.5" customHeight="1">
       <c r="A73" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D73" s="13" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E73" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F73" s="5"/>
       <c r="G73" s="5"/>
       <c r="H73" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I73" s="5"/>
       <c r="J73" s="5"/>
@@ -7054,24 +7088,24 @@
     </row>
     <row r="74" spans="1:26" ht="13.5" customHeight="1">
       <c r="A74" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D74" s="13" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E74" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F74" s="5"/>
       <c r="G74" s="5"/>
       <c r="H74" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I74" s="5"/>
       <c r="J74" s="5"/>
@@ -7094,24 +7128,24 @@
     </row>
     <row r="75" spans="1:26" ht="13.5" customHeight="1">
       <c r="A75" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D75" s="13" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E75" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F75" s="5"/>
       <c r="G75" s="5"/>
       <c r="H75" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I75" s="5"/>
       <c r="J75" s="5"/>
@@ -7134,24 +7168,24 @@
     </row>
     <row r="76" spans="1:26" ht="13.5" customHeight="1">
       <c r="A76" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D76" s="13" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E76" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F76" s="5"/>
       <c r="G76" s="5"/>
       <c r="H76" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I76" s="5"/>
       <c r="J76" s="5"/>
@@ -7174,24 +7208,24 @@
     </row>
     <row r="77" spans="1:26" ht="13.5" customHeight="1">
       <c r="A77" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D77" s="13" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E77" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F77" s="16"/>
       <c r="G77" s="16"/>
       <c r="H77" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I77" s="16"/>
       <c r="J77" s="16"/>
@@ -7214,24 +7248,24 @@
     </row>
     <row r="78" spans="1:26" ht="13.5" customHeight="1">
       <c r="A78" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D78" s="13" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E78" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F78" s="5"/>
       <c r="G78" s="5"/>
       <c r="H78" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I78" s="5"/>
       <c r="J78" s="5"/>
@@ -7254,24 +7288,24 @@
     </row>
     <row r="79" spans="1:26" ht="13.5" customHeight="1">
       <c r="A79" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D79" s="13" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E79" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F79" s="5"/>
       <c r="G79" s="5"/>
       <c r="H79" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I79" s="5"/>
       <c r="J79" s="5"/>
@@ -7294,24 +7328,24 @@
     </row>
     <row r="80" spans="1:26" ht="13.5" customHeight="1">
       <c r="A80" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D80" s="13" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E80" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F80" s="5"/>
       <c r="G80" s="5"/>
       <c r="H80" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I80" s="5"/>
       <c r="J80" s="5"/>
@@ -7334,24 +7368,24 @@
     </row>
     <row r="81" spans="1:26" ht="13.5" customHeight="1">
       <c r="A81" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D81" s="13" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E81" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F81" s="5"/>
       <c r="G81" s="5"/>
       <c r="H81" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I81" s="5"/>
       <c r="J81" s="5"/>
@@ -7374,24 +7408,24 @@
     </row>
     <row r="82" spans="1:26" ht="13.5" customHeight="1">
       <c r="A82" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D82" s="13" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E82" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F82" s="5"/>
       <c r="G82" s="5"/>
       <c r="H82" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I82" s="5"/>
       <c r="J82" s="5"/>
@@ -7414,24 +7448,24 @@
     </row>
     <row r="83" spans="1:26" ht="13.5" customHeight="1">
       <c r="A83" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D83" s="13" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E83" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F83" s="5"/>
       <c r="G83" s="5"/>
       <c r="H83" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I83" s="5"/>
       <c r="J83" s="5"/>
@@ -7454,24 +7488,24 @@
     </row>
     <row r="84" spans="1:26" ht="13.5" customHeight="1">
       <c r="A84" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D84" s="13" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E84" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F84" s="5"/>
       <c r="G84" s="5"/>
       <c r="H84" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I84" s="5"/>
       <c r="J84" s="5"/>
@@ -7494,24 +7528,24 @@
     </row>
     <row r="85" spans="1:26" ht="13.5" customHeight="1">
       <c r="A85" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D85" s="13" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E85" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F85" s="5"/>
       <c r="G85" s="5"/>
       <c r="H85" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I85" s="5"/>
       <c r="J85" s="5"/>
@@ -7534,24 +7568,24 @@
     </row>
     <row r="86" spans="1:26" ht="13.5" customHeight="1">
       <c r="A86" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D86" s="13" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E86" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F86" s="5"/>
       <c r="G86" s="5"/>
       <c r="H86" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I86" s="5"/>
       <c r="J86" s="5"/>
@@ -7574,24 +7608,24 @@
     </row>
     <row r="87" spans="1:26" ht="13.5" customHeight="1">
       <c r="A87" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D87" s="13" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E87" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F87" s="5"/>
       <c r="G87" s="5"/>
       <c r="H87" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I87" s="5"/>
       <c r="J87" s="5"/>
@@ -7614,24 +7648,24 @@
     </row>
     <row r="88" spans="1:26" ht="13.5" customHeight="1">
       <c r="A88" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D88" s="13" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E88" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F88" s="5"/>
       <c r="G88" s="5"/>
       <c r="H88" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I88" s="5"/>
       <c r="J88" s="5"/>
@@ -7654,24 +7688,24 @@
     </row>
     <row r="89" spans="1:26" ht="13.5" customHeight="1">
       <c r="A89" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D89" s="13" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E89" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F89" s="16"/>
       <c r="G89" s="16"/>
       <c r="H89" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I89" s="16"/>
       <c r="J89" s="16"/>
@@ -7694,24 +7728,24 @@
     </row>
     <row r="90" spans="1:26" ht="13.5" customHeight="1">
       <c r="A90" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D90" s="13" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E90" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F90" s="5"/>
       <c r="G90" s="5"/>
       <c r="H90" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I90" s="5"/>
       <c r="J90" s="5"/>
@@ -7734,24 +7768,24 @@
     </row>
     <row r="91" spans="1:26" ht="13.5" customHeight="1">
       <c r="A91" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D91" s="13" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E91" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F91" s="16"/>
       <c r="G91" s="16"/>
       <c r="H91" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I91" s="5"/>
       <c r="J91" s="5"/>
@@ -7774,24 +7808,24 @@
     </row>
     <row r="92" spans="1:26" ht="13.5" customHeight="1">
       <c r="A92" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D92" s="13" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E92" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F92" s="5"/>
       <c r="G92" s="5"/>
       <c r="H92" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I92" s="5"/>
       <c r="J92" s="5"/>
@@ -7814,21 +7848,21 @@
     </row>
     <row r="93" spans="1:26" ht="13.5" customHeight="1">
       <c r="A93" s="8" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B93" s="5"/>
       <c r="C93" s="6" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D93" s="9" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E93" s="4"/>
       <c r="F93" s="16"/>
       <c r="G93" s="16"/>
       <c r="H93" s="4"/>
       <c r="I93" s="6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="J93" s="5"/>
       <c r="K93" s="5"/>
@@ -7850,23 +7884,23 @@
     </row>
     <row r="94" spans="1:26" ht="13.5" customHeight="1">
       <c r="A94" s="8" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B94" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="C94" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="D94" s="9" t="s">
         <v>215</v>
-      </c>
-      <c r="C94" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="D94" s="9" t="s">
-        <v>217</v>
       </c>
       <c r="E94" s="4"/>
       <c r="F94" s="16"/>
       <c r="G94" s="16"/>
       <c r="H94" s="4"/>
       <c r="I94" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="J94" s="5"/>
       <c r="K94" s="5"/>
@@ -7888,23 +7922,23 @@
     </row>
     <row r="95" spans="1:26" ht="13.5" customHeight="1">
       <c r="A95" s="8" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D95" s="9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E95" s="4"/>
       <c r="F95" s="5"/>
       <c r="G95" s="16"/>
       <c r="H95" s="4"/>
       <c r="I95" s="6" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="J95" s="5"/>
       <c r="K95" s="5"/>
@@ -7926,21 +7960,21 @@
     </row>
     <row r="96" spans="1:26" ht="13.5" customHeight="1">
       <c r="A96" s="8" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B96" s="4"/>
       <c r="C96" s="8" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D96" s="9" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E96" s="4"/>
       <c r="F96" s="16"/>
       <c r="G96" s="16"/>
       <c r="H96" s="4"/>
       <c r="I96" s="6" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="J96" s="5"/>
       <c r="K96" s="5"/>
@@ -7962,21 +7996,21 @@
     </row>
     <row r="97" spans="1:26" ht="13.5" customHeight="1">
       <c r="A97" s="8" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B97" s="4"/>
       <c r="C97" s="8" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D97" s="9" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E97" s="4"/>
       <c r="F97" s="16"/>
       <c r="G97" s="16"/>
       <c r="H97" s="4"/>
       <c r="I97" s="6" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="J97" s="5"/>
       <c r="K97" s="5"/>
@@ -7998,21 +8032,21 @@
     </row>
     <row r="98" spans="1:26" ht="13.5" customHeight="1">
       <c r="A98" s="8" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B98" s="4"/>
       <c r="C98" s="8" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D98" s="9" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E98" s="4"/>
       <c r="F98" s="16"/>
       <c r="G98" s="16"/>
       <c r="H98" s="4"/>
       <c r="I98" s="6" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="J98" s="5"/>
       <c r="K98" s="5"/>
@@ -8034,23 +8068,23 @@
     </row>
     <row r="99" spans="1:26" ht="13.5" customHeight="1">
       <c r="A99" s="8" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B99" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="C99" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="D99" s="9" t="s">
         <v>231</v>
-      </c>
-      <c r="C99" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="D99" s="9" t="s">
-        <v>233</v>
       </c>
       <c r="E99" s="4"/>
       <c r="F99" s="16"/>
       <c r="G99" s="16"/>
       <c r="H99" s="4"/>
       <c r="I99" s="8" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J99" s="5"/>
       <c r="K99" s="5"/>
@@ -8072,22 +8106,22 @@
     </row>
     <row r="100" spans="1:26" ht="15" customHeight="1">
       <c r="A100" s="8" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D100" s="9" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E100" s="4"/>
       <c r="F100" s="5"/>
       <c r="G100" s="5"/>
       <c r="H100" s="8" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="I100" s="5"/>
       <c r="J100" s="5"/>
@@ -8110,21 +8144,21 @@
     </row>
     <row r="101" spans="1:26" ht="13.5" customHeight="1">
       <c r="A101" s="8" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B101" s="5"/>
       <c r="C101" s="8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D101" s="9" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E101" s="4"/>
       <c r="F101" s="16"/>
       <c r="G101" s="16"/>
       <c r="H101" s="4"/>
       <c r="I101" s="6" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="J101" s="5"/>
       <c r="K101" s="5"/>
@@ -8146,20 +8180,20 @@
     </row>
     <row r="102" spans="1:26" ht="13.5" customHeight="1">
       <c r="A102" s="8" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B102" s="5"/>
       <c r="C102" s="8" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D102" s="9" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E102" s="4"/>
       <c r="F102" s="5"/>
       <c r="G102" s="5"/>
       <c r="H102" s="4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="I102" s="5"/>
       <c r="J102" s="5"/>
@@ -8182,20 +8216,20 @@
     </row>
     <row r="103" spans="1:26" ht="12.75" customHeight="1">
       <c r="A103" s="8" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B103" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="C103" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="D103" s="11" t="s">
         <v>244</v>
-      </c>
-      <c r="C103" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="D103" s="11" t="s">
-        <v>246</v>
       </c>
       <c r="E103" s="5"/>
       <c r="F103" s="6" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G103" s="5"/>
       <c r="H103" s="5"/>
@@ -8220,20 +8254,20 @@
     </row>
     <row r="104" spans="1:26" ht="12.75" customHeight="1">
       <c r="A104" s="8" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D104" s="11" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E104" s="5"/>
       <c r="F104" s="6" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G104" s="5"/>
       <c r="H104" s="5"/>
@@ -8258,20 +8292,20 @@
     </row>
     <row r="105" spans="1:26" ht="12.75" customHeight="1">
       <c r="A105" s="8" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D105" s="11" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E105" s="5"/>
       <c r="F105" s="6" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G105" s="5"/>
       <c r="H105" s="5"/>
@@ -8296,20 +8330,20 @@
     </row>
     <row r="106" spans="1:26" ht="12.75" customHeight="1">
       <c r="A106" s="8" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D106" s="11" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E106" s="5"/>
       <c r="F106" s="6" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G106" s="5"/>
       <c r="H106" s="5"/>
@@ -8334,20 +8368,20 @@
     </row>
     <row r="107" spans="1:26" ht="12.75" customHeight="1">
       <c r="A107" s="8" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C107" s="8" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D107" s="11" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E107" s="5"/>
       <c r="F107" s="6" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="G107" s="5"/>
       <c r="H107" s="5"/>
@@ -8372,20 +8406,20 @@
     </row>
     <row r="108" spans="1:26" ht="12.75" customHeight="1">
       <c r="A108" s="8" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C108" s="8" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D108" s="11" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E108" s="5"/>
       <c r="F108" s="6" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G108" s="5"/>
       <c r="H108" s="5"/>
@@ -8410,20 +8444,20 @@
     </row>
     <row r="109" spans="1:26" ht="12.75" customHeight="1">
       <c r="A109" s="8" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C109" s="8" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D109" s="11" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E109" s="5"/>
       <c r="F109" s="6" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="G109" s="5"/>
       <c r="H109" s="5"/>
@@ -8448,23 +8482,23 @@
     </row>
     <row r="110" spans="1:26" ht="13.5" customHeight="1">
       <c r="A110" s="8" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D110" s="11" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E110" s="5"/>
       <c r="F110" s="5"/>
       <c r="G110" s="5"/>
       <c r="H110" s="5"/>
       <c r="I110" s="6" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="J110" s="16"/>
       <c r="K110" s="5"/>
@@ -8486,23 +8520,23 @@
     </row>
     <row r="111" spans="1:26" ht="13.5" customHeight="1">
       <c r="A111" s="8" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D111" s="13" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E111" s="5"/>
       <c r="F111" s="5"/>
       <c r="G111" s="5"/>
       <c r="H111" s="5"/>
       <c r="I111" s="6" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="J111" s="16"/>
       <c r="K111" s="5"/>
@@ -8524,24 +8558,24 @@
     </row>
     <row r="112" spans="1:26" ht="13.5" customHeight="1">
       <c r="A112" s="8" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D112" s="13" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E112" s="5"/>
       <c r="F112" s="17" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G112" s="5"/>
       <c r="H112" s="17" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="I112" s="5"/>
       <c r="J112" s="5"/>
@@ -8564,14 +8598,14 @@
     </row>
     <row r="113" spans="1:26" ht="13.5" customHeight="1">
       <c r="A113" s="6" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B113" s="5"/>
       <c r="C113" s="6" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D113" s="13" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E113" s="5"/>
       <c r="F113" s="5"/>
@@ -8598,19 +8632,19 @@
     </row>
     <row r="114" spans="1:26" ht="13.5" customHeight="1">
       <c r="A114" s="8" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B114" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="C114" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="D114" s="13" t="s">
         <v>279</v>
       </c>
-      <c r="C114" s="6" t="s">
+      <c r="E114" s="8" t="s">
         <v>280</v>
-      </c>
-      <c r="D114" s="13" t="s">
-        <v>281</v>
-      </c>
-      <c r="E114" s="8" t="s">
-        <v>282</v>
       </c>
       <c r="F114" s="5"/>
       <c r="G114" s="5"/>
@@ -8636,19 +8670,19 @@
     </row>
     <row r="115" spans="1:26" ht="13.5" customHeight="1">
       <c r="A115" s="8" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C115" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="D115" s="13" t="s">
+        <v>282</v>
+      </c>
+      <c r="E115" s="8" t="s">
         <v>283</v>
-      </c>
-      <c r="D115" s="13" t="s">
-        <v>284</v>
-      </c>
-      <c r="E115" s="8" t="s">
-        <v>285</v>
       </c>
       <c r="F115" s="5"/>
       <c r="G115" s="5"/>
@@ -8674,19 +8708,19 @@
     </row>
     <row r="116" spans="1:26" ht="13.5" customHeight="1">
       <c r="A116" s="8" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C116" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="D116" s="13" t="s">
+        <v>285</v>
+      </c>
+      <c r="E116" s="8" t="s">
         <v>286</v>
-      </c>
-      <c r="D116" s="13" t="s">
-        <v>287</v>
-      </c>
-      <c r="E116" s="8" t="s">
-        <v>288</v>
       </c>
       <c r="F116" s="5"/>
       <c r="G116" s="5"/>
@@ -8712,19 +8746,19 @@
     </row>
     <row r="117" spans="1:26" ht="13.5" customHeight="1">
       <c r="A117" s="8" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C117" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="D117" s="13" t="s">
+        <v>288</v>
+      </c>
+      <c r="E117" s="8" t="s">
         <v>289</v>
-      </c>
-      <c r="D117" s="13" t="s">
-        <v>290</v>
-      </c>
-      <c r="E117" s="8" t="s">
-        <v>291</v>
       </c>
       <c r="F117" s="5"/>
       <c r="G117" s="5"/>
@@ -8750,19 +8784,19 @@
     </row>
     <row r="118" spans="1:26" ht="13.5" customHeight="1">
       <c r="A118" s="8" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C118" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="D118" s="13" t="s">
+        <v>291</v>
+      </c>
+      <c r="E118" s="6" t="s">
         <v>292</v>
-      </c>
-      <c r="D118" s="13" t="s">
-        <v>293</v>
-      </c>
-      <c r="E118" s="6" t="s">
-        <v>294</v>
       </c>
       <c r="F118" s="5"/>
       <c r="G118" s="5"/>
@@ -8788,19 +8822,19 @@
     </row>
     <row r="119" spans="1:26" ht="13.5" customHeight="1">
       <c r="A119" s="8" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C119" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="D119" s="13" t="s">
+        <v>294</v>
+      </c>
+      <c r="E119" s="8" t="s">
         <v>295</v>
-      </c>
-      <c r="D119" s="13" t="s">
-        <v>296</v>
-      </c>
-      <c r="E119" s="8" t="s">
-        <v>297</v>
       </c>
       <c r="F119" s="5"/>
       <c r="G119" s="5"/>
@@ -8826,19 +8860,19 @@
     </row>
     <row r="120" spans="1:26" ht="13.5" customHeight="1">
       <c r="A120" s="8" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C120" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="D120" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="E120" s="8" t="s">
         <v>298</v>
-      </c>
-      <c r="D120" s="13" t="s">
-        <v>299</v>
-      </c>
-      <c r="E120" s="8" t="s">
-        <v>300</v>
       </c>
       <c r="F120" s="5"/>
       <c r="G120" s="5"/>
@@ -8864,19 +8898,19 @@
     </row>
     <row r="121" spans="1:26" ht="13.5" customHeight="1">
       <c r="A121" s="8" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C121" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="D121" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="E121" s="8" t="s">
         <v>301</v>
-      </c>
-      <c r="D121" s="13" t="s">
-        <v>302</v>
-      </c>
-      <c r="E121" s="8" t="s">
-        <v>303</v>
       </c>
       <c r="F121" s="5"/>
       <c r="G121" s="5"/>
@@ -8902,19 +8936,19 @@
     </row>
     <row r="122" spans="1:26" ht="13.5" customHeight="1">
       <c r="A122" s="8" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C122" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="D122" s="13" t="s">
+        <v>303</v>
+      </c>
+      <c r="E122" s="6" t="s">
         <v>304</v>
-      </c>
-      <c r="D122" s="13" t="s">
-        <v>305</v>
-      </c>
-      <c r="E122" s="6" t="s">
-        <v>306</v>
       </c>
       <c r="F122" s="5"/>
       <c r="G122" s="5"/>
@@ -8940,19 +8974,19 @@
     </row>
     <row r="123" spans="1:26" ht="13.5" customHeight="1">
       <c r="A123" s="8" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D123" s="13" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E123" s="6" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F123" s="5"/>
       <c r="G123" s="5"/>
@@ -8978,19 +9012,19 @@
     </row>
     <row r="124" spans="1:26" ht="13.5" customHeight="1">
       <c r="A124" s="8" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C124" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="D124" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="E124" s="6" t="s">
         <v>309</v>
-      </c>
-      <c r="D124" s="13" t="s">
-        <v>310</v>
-      </c>
-      <c r="E124" s="6" t="s">
-        <v>311</v>
       </c>
       <c r="F124" s="5"/>
       <c r="G124" s="5"/>
@@ -9016,19 +9050,19 @@
     </row>
     <row r="125" spans="1:26" ht="13.5" customHeight="1">
       <c r="A125" s="8" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D125" s="13" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E125" s="6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F125" s="5"/>
       <c r="G125" s="5"/>
@@ -9054,22 +9088,22 @@
     </row>
     <row r="126" spans="1:26" ht="13.5" customHeight="1">
       <c r="A126" s="8" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B126" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="C126" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="D126" s="13" t="s">
         <v>314</v>
       </c>
-      <c r="C126" s="6" t="s">
+      <c r="E126" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="D126" s="13" t="s">
+      <c r="F126" s="6" t="s">
         <v>316</v>
-      </c>
-      <c r="E126" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="F126" s="6" t="s">
-        <v>318</v>
       </c>
       <c r="G126" s="5"/>
       <c r="H126" s="5"/>
@@ -9094,22 +9128,22 @@
     </row>
     <row r="127" spans="1:26" ht="13.5" customHeight="1">
       <c r="A127" s="8" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C127" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="D127" s="13" t="s">
+        <v>318</v>
+      </c>
+      <c r="E127" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="D127" s="13" t="s">
-        <v>320</v>
-      </c>
-      <c r="E127" s="6" t="s">
-        <v>321</v>
-      </c>
       <c r="F127" s="6" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G127" s="5"/>
       <c r="H127" s="5"/>
@@ -9134,22 +9168,22 @@
     </row>
     <row r="128" spans="1:26" ht="13.5" customHeight="1">
       <c r="A128" s="8" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C128" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="D128" s="13" t="s">
+        <v>321</v>
+      </c>
+      <c r="E128" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="D128" s="13" t="s">
-        <v>323</v>
-      </c>
-      <c r="E128" s="6" t="s">
-        <v>324</v>
-      </c>
       <c r="F128" s="6" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G128" s="5"/>
       <c r="H128" s="5"/>
@@ -9174,22 +9208,22 @@
     </row>
     <row r="129" spans="1:26" ht="13.5" customHeight="1">
       <c r="A129" s="8" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C129" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="D129" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="E129" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="D129" s="13" t="s">
-        <v>326</v>
-      </c>
-      <c r="E129" s="6" t="s">
-        <v>327</v>
-      </c>
       <c r="F129" s="6" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G129" s="5"/>
       <c r="H129" s="5"/>
@@ -9214,22 +9248,22 @@
     </row>
     <row r="130" spans="1:26" ht="13.5" customHeight="1">
       <c r="A130" s="8" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C130" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="D130" s="13" t="s">
+        <v>327</v>
+      </c>
+      <c r="E130" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="D130" s="13" t="s">
-        <v>329</v>
-      </c>
-      <c r="E130" s="6" t="s">
-        <v>330</v>
-      </c>
       <c r="F130" s="6" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G130" s="5"/>
       <c r="H130" s="5"/>
@@ -9254,22 +9288,22 @@
     </row>
     <row r="131" spans="1:26" ht="13.5" customHeight="1">
       <c r="A131" s="8" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C131" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="D131" s="13" t="s">
+        <v>330</v>
+      </c>
+      <c r="E131" s="6" t="s">
         <v>331</v>
       </c>
-      <c r="D131" s="13" t="s">
-        <v>332</v>
-      </c>
-      <c r="E131" s="6" t="s">
-        <v>333</v>
-      </c>
       <c r="F131" s="6" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G131" s="5"/>
       <c r="H131" s="5"/>
@@ -9294,22 +9328,22 @@
     </row>
     <row r="132" spans="1:26" ht="13.5" customHeight="1">
       <c r="A132" s="8" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C132" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="D132" s="13" t="s">
+        <v>333</v>
+      </c>
+      <c r="E132" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="D132" s="13" t="s">
+      <c r="F132" s="6" t="s">
         <v>335</v>
-      </c>
-      <c r="E132" s="6" t="s">
-        <v>336</v>
-      </c>
-      <c r="F132" s="6" t="s">
-        <v>337</v>
       </c>
       <c r="G132" s="5"/>
       <c r="H132" s="5"/>
@@ -9334,22 +9368,22 @@
     </row>
     <row r="133" spans="1:26" ht="13.5" customHeight="1">
       <c r="A133" s="8" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C133" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="D133" s="13" t="s">
+        <v>337</v>
+      </c>
+      <c r="E133" s="8" t="s">
         <v>338</v>
       </c>
-      <c r="D133" s="13" t="s">
-        <v>339</v>
-      </c>
-      <c r="E133" s="8" t="s">
-        <v>340</v>
-      </c>
       <c r="F133" s="6" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G133" s="5"/>
       <c r="H133" s="4"/>
@@ -9374,22 +9408,22 @@
     </row>
     <row r="134" spans="1:26" ht="13.5" customHeight="1">
       <c r="A134" s="8" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C134" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="D134" s="13" t="s">
+        <v>340</v>
+      </c>
+      <c r="E134" s="6" t="s">
         <v>341</v>
       </c>
-      <c r="D134" s="13" t="s">
-        <v>342</v>
-      </c>
-      <c r="E134" s="6" t="s">
-        <v>343</v>
-      </c>
       <c r="F134" s="6" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G134" s="5"/>
       <c r="H134" s="5"/>
@@ -9414,22 +9448,22 @@
     </row>
     <row r="135" spans="1:26" ht="13.5" customHeight="1">
       <c r="A135" s="8" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C135" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D135" s="13" t="s">
+        <v>343</v>
+      </c>
+      <c r="E135" s="6" t="s">
         <v>344</v>
       </c>
-      <c r="D135" s="13" t="s">
-        <v>345</v>
-      </c>
-      <c r="E135" s="6" t="s">
-        <v>346</v>
-      </c>
       <c r="F135" s="6" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G135" s="5"/>
       <c r="H135" s="5"/>
@@ -9454,22 +9488,22 @@
     </row>
     <row r="136" spans="1:26" ht="13.5" customHeight="1">
       <c r="A136" s="8" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C136" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="D136" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="E136" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="D136" s="13" t="s">
-        <v>348</v>
-      </c>
-      <c r="E136" s="6" t="s">
-        <v>349</v>
-      </c>
       <c r="F136" s="6" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G136" s="5"/>
       <c r="H136" s="5"/>
@@ -9494,22 +9528,22 @@
     </row>
     <row r="137" spans="1:26" ht="13.5" customHeight="1">
       <c r="A137" s="8" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B137" s="8" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C137" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="D137" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="E137" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="D137" s="13" t="s">
-        <v>351</v>
-      </c>
-      <c r="E137" s="6" t="s">
-        <v>352</v>
-      </c>
       <c r="F137" s="6" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G137" s="5"/>
       <c r="H137" s="5"/>
@@ -9534,22 +9568,22 @@
     </row>
     <row r="138" spans="1:26" ht="13.5" customHeight="1">
       <c r="A138" s="6" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B138" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="C138" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="D138" s="13" t="s">
         <v>353</v>
       </c>
-      <c r="C138" s="6" t="s">
+      <c r="E138" s="5" t="s">
         <v>354</v>
       </c>
-      <c r="D138" s="13" t="s">
-        <v>355</v>
-      </c>
-      <c r="E138" s="5" t="s">
-        <v>356</v>
-      </c>
       <c r="F138" s="5" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G138" s="5"/>
       <c r="H138" s="5"/>
@@ -9574,22 +9608,22 @@
     </row>
     <row r="139" spans="1:26" ht="13.5" customHeight="1">
       <c r="A139" s="6" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C139" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="D139" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="E139" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="D139" s="13" t="s">
-        <v>358</v>
-      </c>
-      <c r="E139" s="5" t="s">
-        <v>359</v>
-      </c>
       <c r="F139" s="5" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="G139" s="5"/>
       <c r="H139" s="5"/>
@@ -9614,21 +9648,21 @@
     </row>
     <row r="140" spans="1:26" ht="13.5" customHeight="1">
       <c r="A140" s="8" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B140" s="5"/>
       <c r="C140" s="6" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D140" s="13" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E140" s="5"/>
       <c r="F140" s="16"/>
       <c r="G140" s="16"/>
       <c r="H140" s="5"/>
       <c r="I140" s="17" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="J140" s="16"/>
       <c r="K140" s="5"/>
@@ -9650,21 +9684,21 @@
     </row>
     <row r="141" spans="1:26" ht="13.5" customHeight="1">
       <c r="A141" s="8" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B141" s="5"/>
       <c r="C141" s="6" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D141" s="13" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E141" s="5"/>
       <c r="F141" s="16"/>
       <c r="G141" s="16"/>
       <c r="H141" s="5"/>
       <c r="I141" s="17" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="J141" s="16"/>
       <c r="K141" s="5"/>
@@ -9686,22 +9720,22 @@
     </row>
     <row r="142" spans="1:26" ht="13.5" customHeight="1">
       <c r="A142" s="8" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B142" s="5"/>
       <c r="C142" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="D142" s="11" t="s">
+        <v>364</v>
+      </c>
+      <c r="E142" s="6" t="s">
         <v>365</v>
-      </c>
-      <c r="D142" s="11" t="s">
-        <v>366</v>
-      </c>
-      <c r="E142" s="6" t="s">
-        <v>367</v>
       </c>
       <c r="F142" s="5"/>
       <c r="G142" s="5"/>
       <c r="H142" s="6" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="I142" s="5"/>
       <c r="J142" s="5"/>
@@ -9724,22 +9758,22 @@
     </row>
     <row r="143" spans="1:26" ht="13.5" customHeight="1">
       <c r="A143" s="6" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B143" s="5"/>
       <c r="C143" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="D143" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="E143" s="6" t="s">
         <v>369</v>
-      </c>
-      <c r="D143" s="11" t="s">
-        <v>370</v>
-      </c>
-      <c r="E143" s="6" t="s">
-        <v>371</v>
       </c>
       <c r="F143" s="5"/>
       <c r="G143" s="5"/>
       <c r="H143" s="6" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I143" s="5"/>
       <c r="J143" s="5"/>
@@ -9762,22 +9796,22 @@
     </row>
     <row r="144" spans="1:26" ht="13.5" customHeight="1">
       <c r="A144" s="6" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B144" s="5"/>
       <c r="C144" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="D144" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="E144" s="6" t="s">
         <v>372</v>
-      </c>
-      <c r="D144" s="11" t="s">
-        <v>373</v>
-      </c>
-      <c r="E144" s="6" t="s">
-        <v>374</v>
       </c>
       <c r="F144" s="5"/>
       <c r="G144" s="5"/>
       <c r="H144" s="6" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="I144" s="5"/>
       <c r="J144" s="5"/>
@@ -9800,20 +9834,20 @@
     </row>
     <row r="145" spans="1:26" ht="13.5" customHeight="1">
       <c r="A145" s="6" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B145" s="5"/>
       <c r="C145" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="D145" s="11" t="s">
+        <v>374</v>
+      </c>
+      <c r="E145" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F145" s="6" t="s">
         <v>375</v>
-      </c>
-      <c r="D145" s="11" t="s">
-        <v>376</v>
-      </c>
-      <c r="E145" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="F145" s="6" t="s">
-        <v>377</v>
       </c>
       <c r="G145" s="5"/>
       <c r="H145" s="5"/>
@@ -9838,17 +9872,17 @@
     </row>
     <row r="146" spans="1:26" ht="13.5" customHeight="1">
       <c r="A146" s="6" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B146" s="6"/>
       <c r="C146" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="D146" s="11" t="s">
+        <v>378</v>
+      </c>
+      <c r="E146" s="6" t="s">
         <v>379</v>
-      </c>
-      <c r="D146" s="11" t="s">
-        <v>380</v>
-      </c>
-      <c r="E146" s="6" t="s">
-        <v>381</v>
       </c>
       <c r="F146" s="5"/>
       <c r="G146" s="5"/>
@@ -9874,22 +9908,22 @@
     </row>
     <row r="147" spans="1:26" ht="13.5" customHeight="1">
       <c r="A147" s="6" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B147" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="C147" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="D147" s="11" t="s">
         <v>382</v>
       </c>
-      <c r="C147" s="6" t="s">
+      <c r="E147" s="6" t="s">
         <v>383</v>
       </c>
-      <c r="D147" s="11" t="s">
-        <v>384</v>
-      </c>
-      <c r="E147" s="6" t="s">
-        <v>385</v>
-      </c>
       <c r="F147" s="6" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="G147" s="5"/>
       <c r="H147" s="5"/>
@@ -9898,7 +9932,7 @@
       <c r="K147" s="5"/>
       <c r="L147" s="5"/>
       <c r="M147" s="6" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="N147" s="3"/>
       <c r="O147" s="3"/>
@@ -9916,33 +9950,33 @@
     </row>
     <row r="148" spans="1:26" ht="13.5" customHeight="1">
       <c r="A148" s="6" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C148" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="D148" s="11" t="s">
+        <v>386</v>
+      </c>
+      <c r="E148" s="6" t="s">
         <v>387</v>
       </c>
-      <c r="D148" s="11" t="s">
-        <v>388</v>
-      </c>
-      <c r="E148" s="6" t="s">
-        <v>389</v>
-      </c>
       <c r="F148" s="6" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="G148" s="5"/>
       <c r="H148" s="6" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="I148" s="5"/>
       <c r="J148" s="5"/>
       <c r="K148" s="5"/>
       <c r="L148" s="5"/>
       <c r="M148" s="6" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="N148" s="3"/>
       <c r="O148" s="3"/>
@@ -9960,33 +9994,33 @@
     </row>
     <row r="149" spans="1:26" ht="13.5" customHeight="1">
       <c r="A149" s="6" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C149" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="D149" s="11" t="s">
+        <v>389</v>
+      </c>
+      <c r="E149" s="6" t="s">
         <v>390</v>
       </c>
-      <c r="D149" s="11" t="s">
-        <v>391</v>
-      </c>
-      <c r="E149" s="6" t="s">
-        <v>392</v>
-      </c>
       <c r="F149" s="6" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="G149" s="5"/>
       <c r="H149" s="6" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="I149" s="5"/>
       <c r="J149" s="5"/>
       <c r="K149" s="5"/>
       <c r="L149" s="5"/>
       <c r="M149" s="6" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="N149" s="3"/>
       <c r="O149" s="3"/>
@@ -10004,33 +10038,33 @@
     </row>
     <row r="150" spans="1:26" ht="13.5" customHeight="1">
       <c r="A150" s="6" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C150" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="D150" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="E150" s="6" t="s">
         <v>393</v>
       </c>
-      <c r="D150" s="11" t="s">
-        <v>394</v>
-      </c>
-      <c r="E150" s="6" t="s">
-        <v>395</v>
-      </c>
       <c r="F150" s="6" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="G150" s="5"/>
       <c r="H150" s="6" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="I150" s="5"/>
       <c r="J150" s="5"/>
       <c r="K150" s="5"/>
       <c r="L150" s="5"/>
       <c r="M150" s="6" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="N150" s="3"/>
       <c r="O150" s="3"/>
@@ -10048,23 +10082,23 @@
     </row>
     <row r="151" spans="1:26" ht="15" customHeight="1">
       <c r="A151" s="6" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B151" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="C151" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="D151" s="11" t="s">
         <v>396</v>
-      </c>
-      <c r="C151" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="D151" s="11" t="s">
-        <v>398</v>
       </c>
       <c r="E151" s="5"/>
       <c r="F151" s="5"/>
       <c r="G151" s="5"/>
       <c r="H151" s="5"/>
       <c r="I151" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="J151" s="5"/>
       <c r="K151" s="5"/>
@@ -10086,16 +10120,16 @@
     </row>
     <row r="152" spans="1:26" ht="13.5" customHeight="1">
       <c r="A152" s="6" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C152" s="6" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D152" s="11" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E152" s="5"/>
       <c r="F152" s="5"/>
@@ -10122,23 +10156,23 @@
     </row>
     <row r="153" spans="1:26" ht="13.5" customHeight="1">
       <c r="A153" s="6" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B153" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="C153" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="D153" s="11" t="s">
         <v>402</v>
-      </c>
-      <c r="C153" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="D153" s="11" t="s">
-        <v>404</v>
       </c>
       <c r="E153" s="5"/>
       <c r="F153" s="5"/>
       <c r="G153" s="5"/>
       <c r="H153" s="5"/>
       <c r="I153" s="6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="J153" s="5"/>
       <c r="K153" s="5"/>
@@ -10160,26 +10194,26 @@
     </row>
     <row r="154" spans="1:26" ht="13.5" customHeight="1">
       <c r="A154" s="6" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B154" s="8" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C154" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="D154" s="11" t="s">
+        <v>405</v>
+      </c>
+      <c r="E154" s="6" t="s">
         <v>406</v>
       </c>
-      <c r="D154" s="11" t="s">
-        <v>407</v>
-      </c>
-      <c r="E154" s="6" t="s">
-        <v>408</v>
-      </c>
       <c r="F154" s="6" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G154" s="5"/>
       <c r="H154" s="6" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="I154" s="5"/>
       <c r="J154" s="5"/>
@@ -10202,23 +10236,23 @@
     </row>
     <row r="155" spans="1:26" ht="13.5" customHeight="1">
       <c r="A155" s="6" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B155" s="8" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C155" s="6" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D155" s="11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E155" s="5"/>
       <c r="F155" s="5"/>
       <c r="G155" s="5"/>
       <c r="H155" s="5"/>
       <c r="I155" s="6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="J155" s="5"/>
       <c r="K155" s="5"/>
@@ -10240,23 +10274,23 @@
     </row>
     <row r="156" spans="1:26" ht="13.5" customHeight="1">
       <c r="A156" s="6" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B156" s="8" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C156" s="6" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D156" s="11" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="E156" s="5"/>
       <c r="F156" s="5"/>
       <c r="G156" s="5"/>
       <c r="H156" s="5"/>
       <c r="I156" s="8" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="J156" s="5"/>
       <c r="K156" s="5"/>
@@ -10278,23 +10312,23 @@
     </row>
     <row r="157" spans="1:26" ht="13.5" customHeight="1">
       <c r="A157" s="6" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B157" s="8" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C157" s="6" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D157" s="11" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E157" s="5"/>
       <c r="F157" s="5"/>
       <c r="G157" s="5"/>
       <c r="H157" s="5"/>
       <c r="I157" s="8" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="J157" s="5"/>
       <c r="K157" s="5"/>
@@ -10316,23 +10350,23 @@
     </row>
     <row r="158" spans="1:26" ht="13.5" customHeight="1">
       <c r="A158" s="6" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B158" s="8" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C158" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D158" s="11" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E158" s="5"/>
       <c r="F158" s="5"/>
       <c r="G158" s="5"/>
       <c r="H158" s="5"/>
       <c r="I158" s="8" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="J158" s="5"/>
       <c r="K158" s="5"/>
@@ -10354,26 +10388,26 @@
     </row>
     <row r="159" spans="1:26" ht="13.5" customHeight="1">
       <c r="A159" s="6" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B159" s="8" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C159" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="D159" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="E159" s="6" t="s">
         <v>419</v>
       </c>
-      <c r="D159" s="11" t="s">
-        <v>420</v>
-      </c>
-      <c r="E159" s="6" t="s">
-        <v>421</v>
-      </c>
       <c r="F159" s="6" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="G159" s="5"/>
       <c r="H159" s="6" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="I159" s="5"/>
       <c r="J159" s="5"/>
@@ -10396,24 +10430,24 @@
     </row>
     <row r="160" spans="1:26" ht="13.5" customHeight="1">
       <c r="A160" s="6" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B160" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="C160" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="D160" s="13" t="s">
         <v>422</v>
       </c>
-      <c r="C160" s="6" t="s">
+      <c r="E160" s="6" t="s">
         <v>423</v>
-      </c>
-      <c r="D160" s="13" t="s">
-        <v>424</v>
-      </c>
-      <c r="E160" s="6" t="s">
-        <v>425</v>
       </c>
       <c r="F160" s="5"/>
       <c r="G160" s="5"/>
       <c r="H160" s="6" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="I160" s="5"/>
       <c r="J160" s="5"/>
@@ -10436,24 +10470,24 @@
     </row>
     <row r="161" spans="1:26" ht="13.5" customHeight="1">
       <c r="A161" s="6" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C161" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="D161" s="13" t="s">
+        <v>425</v>
+      </c>
+      <c r="E161" s="6" t="s">
         <v>426</v>
-      </c>
-      <c r="D161" s="13" t="s">
-        <v>427</v>
-      </c>
-      <c r="E161" s="6" t="s">
-        <v>428</v>
       </c>
       <c r="F161" s="5"/>
       <c r="G161" s="5"/>
       <c r="H161" s="6" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="I161" s="5"/>
       <c r="J161" s="5"/>
@@ -10476,24 +10510,24 @@
     </row>
     <row r="162" spans="1:26" ht="13.5" customHeight="1">
       <c r="A162" s="6" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C162" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="D162" s="13" t="s">
+        <v>428</v>
+      </c>
+      <c r="E162" s="6" t="s">
         <v>429</v>
-      </c>
-      <c r="D162" s="13" t="s">
-        <v>430</v>
-      </c>
-      <c r="E162" s="6" t="s">
-        <v>431</v>
       </c>
       <c r="F162" s="5"/>
       <c r="G162" s="5"/>
       <c r="H162" s="6" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="I162" s="5"/>
       <c r="J162" s="5"/>
@@ -10516,24 +10550,24 @@
     </row>
     <row r="163" spans="1:26" ht="13.5" customHeight="1">
       <c r="A163" s="6" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C163" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="D163" s="13" t="s">
+        <v>431</v>
+      </c>
+      <c r="E163" s="6" t="s">
         <v>432</v>
-      </c>
-      <c r="D163" s="13" t="s">
-        <v>433</v>
-      </c>
-      <c r="E163" s="6" t="s">
-        <v>434</v>
       </c>
       <c r="F163" s="5"/>
       <c r="G163" s="5"/>
       <c r="H163" s="6" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="I163" s="5"/>
       <c r="J163" s="5"/>
@@ -10556,22 +10590,22 @@
     </row>
     <row r="164" spans="1:26" ht="13.5" customHeight="1">
       <c r="A164" s="6" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B164" s="26" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C164" s="26" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="D164" s="29" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="E164" s="6"/>
       <c r="F164" s="5"/>
       <c r="G164" s="5"/>
       <c r="H164" s="6" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="I164" s="5"/>
       <c r="J164" s="5"/>
@@ -10594,22 +10628,22 @@
     </row>
     <row r="165" spans="1:26" ht="13.5" customHeight="1">
       <c r="A165" s="6" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B165" s="26" t="s">
+        <v>567</v>
+      </c>
+      <c r="C165" s="26" t="s">
         <v>569</v>
       </c>
-      <c r="C165" s="26" t="s">
-        <v>571</v>
-      </c>
       <c r="D165" s="29" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="E165" s="6"/>
       <c r="F165" s="5"/>
       <c r="G165" s="5"/>
       <c r="H165" s="6" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="I165" s="5"/>
       <c r="J165" s="5"/>
@@ -10632,22 +10666,22 @@
     </row>
     <row r="166" spans="1:26" ht="13.5" customHeight="1">
       <c r="A166" s="6" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B166" s="26" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C166" s="26" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="D166" s="28" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="E166" s="6"/>
       <c r="F166" s="5"/>
       <c r="G166" s="5"/>
       <c r="H166" s="6" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="I166" s="5"/>
       <c r="J166" s="5"/>
@@ -10670,22 +10704,22 @@
     </row>
     <row r="167" spans="1:26" ht="13.5" customHeight="1">
       <c r="A167" s="6" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B167" s="26" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C167" s="26" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="D167" s="29" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="E167" s="6"/>
       <c r="F167" s="5"/>
       <c r="G167" s="5"/>
       <c r="H167" s="6" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="I167" s="5"/>
       <c r="J167" s="5"/>
@@ -10708,22 +10742,22 @@
     </row>
     <row r="168" spans="1:26" ht="13.5" customHeight="1">
       <c r="A168" s="6" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B168" s="26" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C168" s="26" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D168" s="29" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="E168" s="6"/>
       <c r="F168" s="5"/>
       <c r="G168" s="5"/>
       <c r="H168" s="6" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="I168" s="5"/>
       <c r="J168" s="5"/>
@@ -10746,22 +10780,22 @@
     </row>
     <row r="169" spans="1:26" ht="13.5" customHeight="1">
       <c r="A169" s="6" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B169" s="5"/>
       <c r="C169" s="6" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="D169" s="11" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E169" s="6" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F169" s="5"/>
       <c r="G169" s="5"/>
       <c r="H169" s="6" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="I169" s="5"/>
       <c r="J169" s="5"/>
@@ -10784,22 +10818,22 @@
     </row>
     <row r="170" spans="1:26" ht="13.5" customHeight="1">
       <c r="A170" s="8" t="s">
+        <v>436</v>
+      </c>
+      <c r="B170" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="C170" s="6" t="s">
         <v>438</v>
       </c>
-      <c r="B170" s="6" t="s">
+      <c r="D170" s="11" t="s">
         <v>439</v>
       </c>
-      <c r="C170" s="6" t="s">
+      <c r="E170" s="6" t="s">
         <v>440</v>
       </c>
-      <c r="D170" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="E170" s="6" t="s">
-        <v>442</v>
-      </c>
       <c r="F170" s="6" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G170" s="5"/>
       <c r="H170" s="5"/>
@@ -10824,22 +10858,22 @@
     </row>
     <row r="171" spans="1:26" ht="13.5" customHeight="1">
       <c r="A171" s="8" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C171" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="D171" s="11" t="s">
+        <v>442</v>
+      </c>
+      <c r="E171" s="6" t="s">
         <v>443</v>
       </c>
-      <c r="D171" s="11" t="s">
-        <v>444</v>
-      </c>
-      <c r="E171" s="6" t="s">
-        <v>445</v>
-      </c>
       <c r="F171" s="6" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G171" s="5"/>
       <c r="H171" s="5"/>
@@ -10864,24 +10898,24 @@
     </row>
     <row r="172" spans="1:26" ht="13.5" customHeight="1">
       <c r="A172" s="8" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C172" s="6" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D172" s="11" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="E172" s="5"/>
       <c r="F172" s="6" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="G172" s="5"/>
       <c r="H172" s="6" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="I172" s="5"/>
       <c r="J172" s="5"/>
@@ -10904,26 +10938,26 @@
     </row>
     <row r="173" spans="1:26" ht="13.5" customHeight="1">
       <c r="A173" s="8" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B173" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="C173" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="D173" s="11" t="s">
         <v>449</v>
       </c>
-      <c r="C173" s="6" t="s">
+      <c r="E173" s="6" t="s">
         <v>450</v>
       </c>
-      <c r="D173" s="11" t="s">
-        <v>451</v>
-      </c>
-      <c r="E173" s="6" t="s">
-        <v>452</v>
-      </c>
       <c r="F173" s="6" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="G173" s="5"/>
       <c r="H173" s="6" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="I173" s="5"/>
       <c r="J173" s="5"/>
@@ -10946,26 +10980,26 @@
     </row>
     <row r="174" spans="1:26" ht="13.5" customHeight="1">
       <c r="A174" s="8" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B174" s="6" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C174" s="6" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D174" s="11" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E174" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F174" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G174" s="5"/>
       <c r="H174" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I174" s="5"/>
       <c r="J174" s="5"/>
@@ -10988,21 +11022,21 @@
     </row>
     <row r="175" spans="1:26" ht="13.5" customHeight="1">
       <c r="A175" s="8" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B175" s="5"/>
       <c r="C175" s="6" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D175" s="11" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E175" s="5"/>
       <c r="F175" s="5"/>
       <c r="G175" s="5"/>
       <c r="H175" s="5"/>
       <c r="I175" s="6" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="J175" s="5"/>
       <c r="K175" s="5"/>
@@ -11024,23 +11058,23 @@
     </row>
     <row r="176" spans="1:26" ht="13.5" customHeight="1">
       <c r="A176" s="8" t="s">
+        <v>456</v>
+      </c>
+      <c r="B176" s="8" t="s">
+        <v>457</v>
+      </c>
+      <c r="C176" s="8" t="s">
         <v>458</v>
       </c>
-      <c r="B176" s="8" t="s">
+      <c r="D176" s="11" t="s">
         <v>459</v>
-      </c>
-      <c r="C176" s="8" t="s">
-        <v>460</v>
-      </c>
-      <c r="D176" s="11" t="s">
-        <v>461</v>
       </c>
       <c r="E176" s="5"/>
       <c r="F176" s="5"/>
       <c r="G176" s="5"/>
       <c r="H176" s="5"/>
       <c r="I176" s="8" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="J176" s="5"/>
       <c r="K176" s="5"/>
@@ -11062,24 +11096,24 @@
     </row>
     <row r="177" spans="1:26" ht="13.5" customHeight="1">
       <c r="A177" s="8" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B177" s="8" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C177" s="8" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D177" s="11" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="E177" s="6" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F177" s="5"/>
       <c r="G177" s="5"/>
       <c r="H177" s="6" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="I177" s="5"/>
       <c r="J177" s="5"/>
@@ -11102,23 +11136,23 @@
     </row>
     <row r="178" spans="1:26" ht="13.5" customHeight="1">
       <c r="A178" s="8" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B178" s="8" t="s">
+        <v>463</v>
+      </c>
+      <c r="C178" s="8" t="s">
+        <v>464</v>
+      </c>
+      <c r="D178" s="18" t="s">
         <v>465</v>
-      </c>
-      <c r="C178" s="8" t="s">
-        <v>466</v>
-      </c>
-      <c r="D178" s="18" t="s">
-        <v>467</v>
       </c>
       <c r="E178" s="19"/>
       <c r="F178" s="19"/>
       <c r="G178" s="19"/>
       <c r="H178" s="20"/>
       <c r="I178" s="8" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="J178" s="5"/>
       <c r="K178" s="5"/>
@@ -11140,24 +11174,24 @@
     </row>
     <row r="179" spans="1:26" ht="13.5" customHeight="1">
       <c r="A179" s="8" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B179" s="8" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C179" s="8" t="s">
+        <v>467</v>
+      </c>
+      <c r="D179" s="11" t="s">
+        <v>468</v>
+      </c>
+      <c r="E179" s="6" t="s">
         <v>469</v>
-      </c>
-      <c r="D179" s="11" t="s">
-        <v>470</v>
-      </c>
-      <c r="E179" s="6" t="s">
-        <v>471</v>
       </c>
       <c r="F179" s="5"/>
       <c r="G179" s="5"/>
       <c r="H179" s="6" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="I179" s="5"/>
       <c r="J179" s="5"/>
@@ -11180,20 +11214,20 @@
     </row>
     <row r="180" spans="1:26" ht="13.5" customHeight="1">
       <c r="A180" s="8" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B180" s="8" t="s">
+        <v>470</v>
+      </c>
+      <c r="C180" s="8" t="s">
+        <v>471</v>
+      </c>
+      <c r="D180" s="11" t="s">
         <v>472</v>
-      </c>
-      <c r="C180" s="8" t="s">
-        <v>473</v>
-      </c>
-      <c r="D180" s="11" t="s">
-        <v>474</v>
       </c>
       <c r="E180" s="5"/>
       <c r="F180" s="6" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="G180" s="5"/>
       <c r="H180" s="5"/>
@@ -11218,20 +11252,20 @@
     </row>
     <row r="181" spans="1:26" ht="13.5" customHeight="1">
       <c r="A181" s="8" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B181" s="8" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C181" s="8" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D181" s="11" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="E181" s="5"/>
       <c r="F181" s="6" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="G181" s="5"/>
       <c r="H181" s="5"/>
@@ -11256,20 +11290,20 @@
     </row>
     <row r="182" spans="1:26" ht="13.5" customHeight="1">
       <c r="A182" s="8" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B182" s="8" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C182" s="8" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="D182" s="11" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E182" s="5"/>
       <c r="F182" s="6" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="G182" s="5"/>
       <c r="H182" s="5"/>
@@ -11294,20 +11328,20 @@
     </row>
     <row r="183" spans="1:26" ht="13.5" customHeight="1">
       <c r="A183" s="8" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B183" s="8" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C183" s="8" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D183" s="11" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E183" s="5"/>
       <c r="F183" s="6" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="G183" s="5"/>
       <c r="H183" s="5"/>
@@ -11332,20 +11366,20 @@
     </row>
     <row r="184" spans="1:26" ht="13.5" customHeight="1">
       <c r="A184" s="8" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B184" s="8" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C184" s="8" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D184" s="11" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="E184" s="5"/>
       <c r="F184" s="6" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="G184" s="5"/>
       <c r="H184" s="5"/>
@@ -11370,20 +11404,20 @@
     </row>
     <row r="185" spans="1:26" ht="13.5" customHeight="1">
       <c r="A185" s="8" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B185" s="8" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C185" s="8" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="D185" s="11" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="E185" s="5"/>
       <c r="F185" s="6" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="G185" s="5"/>
       <c r="H185" s="5"/>
@@ -11408,20 +11442,20 @@
     </row>
     <row r="186" spans="1:26" ht="13.5" customHeight="1">
       <c r="A186" s="8" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B186" s="8" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C186" s="8" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D186" s="11" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="E186" s="5"/>
       <c r="F186" s="6" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="G186" s="5"/>
       <c r="H186" s="5"/>
@@ -11446,20 +11480,20 @@
     </row>
     <row r="187" spans="1:26" ht="13.5" customHeight="1">
       <c r="A187" s="8" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B187" s="8" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C187" s="8" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D187" s="11" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E187" s="5"/>
       <c r="F187" s="6" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G187" s="5"/>
       <c r="H187" s="5"/>
@@ -11484,20 +11518,20 @@
     </row>
     <row r="188" spans="1:26" ht="13.5" customHeight="1">
       <c r="A188" s="8" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B188" s="8" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C188" s="8" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D188" s="11" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E188" s="5"/>
       <c r="F188" s="6" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="G188" s="5"/>
       <c r="H188" s="5"/>
@@ -11522,20 +11556,20 @@
     </row>
     <row r="189" spans="1:26" ht="13.5" customHeight="1">
       <c r="A189" s="8" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B189" s="8" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C189" s="8" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D189" s="11" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="E189" s="5"/>
       <c r="F189" s="6" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="G189" s="5"/>
       <c r="H189" s="5"/>
@@ -11560,20 +11594,20 @@
     </row>
     <row r="190" spans="1:26" ht="13.5" customHeight="1">
       <c r="A190" s="8" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B190" s="8" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C190" s="8" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D190" s="11" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="E190" s="5"/>
       <c r="F190" s="6" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="G190" s="5"/>
       <c r="H190" s="5"/>
@@ -11598,20 +11632,20 @@
     </row>
     <row r="191" spans="1:26" ht="13.5" customHeight="1">
       <c r="A191" s="8" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B191" s="8" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C191" s="8" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D191" s="11" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="E191" s="5"/>
       <c r="F191" s="6" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="G191" s="5"/>
       <c r="H191" s="5"/>
@@ -11636,20 +11670,20 @@
     </row>
     <row r="192" spans="1:26" ht="13.5" customHeight="1">
       <c r="A192" s="8" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B192" s="8" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C192" s="8" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D192" s="11" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="E192" s="5"/>
       <c r="F192" s="6" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="G192" s="5"/>
       <c r="H192" s="5"/>
@@ -11674,22 +11708,22 @@
     </row>
     <row r="193" spans="1:26" ht="13.5" customHeight="1">
       <c r="A193" s="8" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B193" s="8" t="s">
+        <v>510</v>
+      </c>
+      <c r="C193" s="8" t="s">
+        <v>511</v>
+      </c>
+      <c r="D193" s="11" t="s">
         <v>512</v>
-      </c>
-      <c r="C193" s="8" t="s">
-        <v>513</v>
-      </c>
-      <c r="D193" s="11" t="s">
-        <v>514</v>
       </c>
       <c r="E193" s="5"/>
       <c r="F193" s="5"/>
       <c r="G193" s="5"/>
       <c r="H193" s="5" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="I193" s="5"/>
       <c r="J193" s="5"/>
@@ -11712,22 +11746,22 @@
     </row>
     <row r="194" spans="1:26" ht="13.5" customHeight="1">
       <c r="A194" s="8" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B194" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="C194" s="8" t="s">
+        <v>515</v>
+      </c>
+      <c r="D194" s="11" t="s">
         <v>516</v>
-      </c>
-      <c r="C194" s="8" t="s">
-        <v>517</v>
-      </c>
-      <c r="D194" s="11" t="s">
-        <v>518</v>
       </c>
       <c r="E194" s="5"/>
       <c r="F194" s="5"/>
       <c r="G194" s="5"/>
       <c r="H194" s="5" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="I194" s="5"/>
       <c r="J194" s="5"/>
@@ -11750,22 +11784,22 @@
     </row>
     <row r="195" spans="1:26" ht="13.5" customHeight="1">
       <c r="A195" s="8" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B195" s="8" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C195" s="8" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="D195" s="11" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="E195" s="5"/>
       <c r="F195" s="5"/>
       <c r="G195" s="5"/>
       <c r="H195" s="5" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="I195" s="5"/>
       <c r="J195" s="5"/>
@@ -11788,23 +11822,23 @@
     </row>
     <row r="196" spans="1:26" ht="13.5" customHeight="1">
       <c r="A196" s="8" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B196" s="8" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C196" s="8" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="D196" s="11" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="E196" s="5"/>
       <c r="F196" s="5"/>
       <c r="G196" s="5"/>
       <c r="H196" s="5"/>
       <c r="I196" s="6" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="J196" s="5"/>
       <c r="K196" s="5"/>
@@ -11826,21 +11860,21 @@
     </row>
     <row r="197" spans="1:26" ht="13.5" customHeight="1">
       <c r="A197" s="8" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B197" s="5"/>
       <c r="C197" s="8" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="D197" s="11" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="E197" s="5"/>
       <c r="F197" s="5"/>
       <c r="G197" s="5"/>
       <c r="H197" s="5"/>
       <c r="I197" s="6" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="J197" s="5"/>
       <c r="K197" s="5"/>
@@ -11862,20 +11896,20 @@
     </row>
     <row r="198" spans="1:26" ht="13.5" customHeight="1">
       <c r="A198" s="8" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B198" s="5"/>
       <c r="C198" s="8" t="s">
+        <v>528</v>
+      </c>
+      <c r="D198" s="11" t="s">
+        <v>529</v>
+      </c>
+      <c r="E198" s="5" t="s">
         <v>530</v>
       </c>
-      <c r="D198" s="11" t="s">
-        <v>531</v>
-      </c>
-      <c r="E198" s="5" t="s">
-        <v>532</v>
-      </c>
       <c r="F198" s="5" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="G198" s="5"/>
       <c r="H198" s="5"/>
@@ -11900,21 +11934,23 @@
     </row>
     <row r="199" spans="1:26" ht="13.5" customHeight="1">
       <c r="A199" s="6" t="s">
-        <v>533</v>
-      </c>
-      <c r="B199" s="5"/>
-      <c r="C199" s="6" t="s">
-        <v>534</v>
-      </c>
-      <c r="D199" s="11" t="s">
-        <v>535</v>
+        <v>531</v>
+      </c>
+      <c r="B199" s="33" t="s">
+        <v>599</v>
+      </c>
+      <c r="C199" s="39" t="s">
+        <v>600</v>
+      </c>
+      <c r="D199" s="27" t="s">
+        <v>602</v>
       </c>
       <c r="E199" s="5"/>
       <c r="F199" s="5"/>
       <c r="G199" s="5"/>
       <c r="H199" s="5"/>
-      <c r="I199" s="6" t="s">
-        <v>536</v>
+      <c r="I199" s="5" t="s">
+        <v>595</v>
       </c>
       <c r="J199" s="5"/>
       <c r="K199" s="5"/>
@@ -11936,22 +11972,26 @@
     </row>
     <row r="200" spans="1:26" ht="13.5" customHeight="1">
       <c r="A200" s="6" t="s">
-        <v>533</v>
-      </c>
-      <c r="B200" s="5"/>
-      <c r="C200" s="8" t="s">
-        <v>537</v>
+        <v>531</v>
+      </c>
+      <c r="B200" s="33" t="s">
+        <v>599</v>
+      </c>
+      <c r="C200" s="39" t="s">
+        <v>601</v>
       </c>
       <c r="D200" s="11" t="s">
-        <v>538</v>
-      </c>
-      <c r="E200" s="5"/>
-      <c r="F200" s="5"/>
+        <v>603</v>
+      </c>
+      <c r="E200" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="F200" s="5" t="s">
+        <v>235</v>
+      </c>
       <c r="G200" s="5"/>
       <c r="H200" s="5"/>
-      <c r="I200" s="8" t="s">
-        <v>539</v>
-      </c>
+      <c r="I200" s="5"/>
       <c r="J200" s="5"/>
       <c r="K200" s="5"/>
       <c r="L200" s="5"/>
@@ -11972,21 +12012,21 @@
     </row>
     <row r="201" spans="1:26" ht="13.5" customHeight="1">
       <c r="A201" s="6" t="s">
+        <v>531</v>
+      </c>
+      <c r="B201" s="5"/>
+      <c r="C201" s="6" t="s">
+        <v>532</v>
+      </c>
+      <c r="D201" s="11" t="s">
         <v>533</v>
-      </c>
-      <c r="B201" s="5"/>
-      <c r="C201" s="8" t="s">
-        <v>540</v>
-      </c>
-      <c r="D201" s="11" t="s">
-        <v>541</v>
       </c>
       <c r="E201" s="5"/>
       <c r="F201" s="5"/>
       <c r="G201" s="5"/>
       <c r="H201" s="5"/>
       <c r="I201" s="6" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="J201" s="5"/>
       <c r="K201" s="5"/>
@@ -12008,21 +12048,21 @@
     </row>
     <row r="202" spans="1:26" ht="13.5" customHeight="1">
       <c r="A202" s="6" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B202" s="5"/>
-      <c r="C202" s="6" t="s">
-        <v>543</v>
+      <c r="C202" s="8" t="s">
+        <v>535</v>
       </c>
       <c r="D202" s="11" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="E202" s="5"/>
       <c r="F202" s="5"/>
       <c r="G202" s="5"/>
       <c r="H202" s="5"/>
-      <c r="I202" s="6" t="s">
-        <v>545</v>
+      <c r="I202" s="8" t="s">
+        <v>537</v>
       </c>
       <c r="J202" s="5"/>
       <c r="K202" s="5"/>
@@ -12044,22 +12084,22 @@
     </row>
     <row r="203" spans="1:26" ht="13.5" customHeight="1">
       <c r="A203" s="6" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B203" s="5"/>
-      <c r="C203" s="6" t="s">
-        <v>546</v>
+      <c r="C203" s="8" t="s">
+        <v>538</v>
       </c>
       <c r="D203" s="11" t="s">
-        <v>547</v>
-      </c>
-      <c r="E203" s="6" t="s">
-        <v>548</v>
-      </c>
+        <v>539</v>
+      </c>
+      <c r="E203" s="5"/>
       <c r="F203" s="5"/>
       <c r="G203" s="5"/>
       <c r="H203" s="5"/>
-      <c r="I203" s="5"/>
+      <c r="I203" s="6" t="s">
+        <v>540</v>
+      </c>
       <c r="J203" s="5"/>
       <c r="K203" s="5"/>
       <c r="L203" s="5"/>
@@ -12079,22 +12119,22 @@
       <c r="Z203" s="3"/>
     </row>
     <row r="204" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A204" s="8" t="s">
-        <v>549</v>
+      <c r="A204" s="6" t="s">
+        <v>531</v>
       </c>
       <c r="B204" s="5"/>
-      <c r="C204" s="26" t="s">
-        <v>566</v>
-      </c>
-      <c r="D204" s="27" t="s">
-        <v>568</v>
-      </c>
-      <c r="E204" s="6"/>
+      <c r="C204" s="6" t="s">
+        <v>541</v>
+      </c>
+      <c r="D204" s="11" t="s">
+        <v>542</v>
+      </c>
+      <c r="E204" s="5"/>
       <c r="F204" s="5"/>
       <c r="G204" s="5"/>
       <c r="H204" s="5"/>
-      <c r="I204" s="5" t="s">
-        <v>567</v>
+      <c r="I204" s="6" t="s">
+        <v>543</v>
       </c>
       <c r="J204" s="5"/>
       <c r="K204" s="5"/>
@@ -12115,23 +12155,23 @@
       <c r="Z204" s="3"/>
     </row>
     <row r="205" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A205" s="8" t="s">
-        <v>549</v>
-      </c>
-      <c r="B205" s="4"/>
-      <c r="C205" s="21" t="s">
-        <v>550</v>
-      </c>
-      <c r="D205" s="22" t="s">
-        <v>551</v>
-      </c>
-      <c r="E205" s="4"/>
+      <c r="A205" s="6" t="s">
+        <v>531</v>
+      </c>
+      <c r="B205" s="5"/>
+      <c r="C205" s="6" t="s">
+        <v>544</v>
+      </c>
+      <c r="D205" s="11" t="s">
+        <v>545</v>
+      </c>
+      <c r="E205" s="6" t="s">
+        <v>546</v>
+      </c>
       <c r="F205" s="5"/>
       <c r="G205" s="5"/>
-      <c r="H205" s="4"/>
-      <c r="I205" s="6" t="s">
-        <v>552</v>
-      </c>
+      <c r="H205" s="5"/>
+      <c r="I205" s="5"/>
       <c r="J205" s="5"/>
       <c r="K205" s="5"/>
       <c r="L205" s="5"/>
@@ -12152,21 +12192,21 @@
     </row>
     <row r="206" spans="1:26" ht="13.5" customHeight="1">
       <c r="A206" s="8" t="s">
-        <v>549</v>
-      </c>
-      <c r="B206" s="4"/>
-      <c r="C206" s="8" t="s">
-        <v>553</v>
-      </c>
-      <c r="D206" s="9" t="s">
-        <v>554</v>
-      </c>
-      <c r="E206" s="4"/>
+        <v>547</v>
+      </c>
+      <c r="B206" s="5"/>
+      <c r="C206" s="26" t="s">
+        <v>564</v>
+      </c>
+      <c r="D206" s="27" t="s">
+        <v>566</v>
+      </c>
+      <c r="E206" s="6"/>
       <c r="F206" s="5"/>
       <c r="G206" s="5"/>
-      <c r="H206" s="4"/>
-      <c r="I206" s="6" t="s">
-        <v>555</v>
+      <c r="H206" s="5"/>
+      <c r="I206" s="5" t="s">
+        <v>565</v>
       </c>
       <c r="J206" s="5"/>
       <c r="K206" s="5"/>
@@ -12188,21 +12228,21 @@
     </row>
     <row r="207" spans="1:26" ht="13.5" customHeight="1">
       <c r="A207" s="8" t="s">
+        <v>547</v>
+      </c>
+      <c r="B207" s="4"/>
+      <c r="C207" s="21" t="s">
+        <v>548</v>
+      </c>
+      <c r="D207" s="22" t="s">
         <v>549</v>
-      </c>
-      <c r="B207" s="4"/>
-      <c r="C207" s="8" t="s">
-        <v>556</v>
-      </c>
-      <c r="D207" s="9" t="s">
-        <v>557</v>
       </c>
       <c r="E207" s="4"/>
       <c r="F207" s="5"/>
       <c r="G207" s="5"/>
       <c r="H207" s="4"/>
       <c r="I207" s="6" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="J207" s="5"/>
       <c r="K207" s="5"/>
@@ -12224,21 +12264,21 @@
     </row>
     <row r="208" spans="1:26" ht="13.5" customHeight="1">
       <c r="A208" s="8" t="s">
-        <v>559</v>
-      </c>
-      <c r="B208" s="5"/>
-      <c r="C208" s="6" t="s">
-        <v>560</v>
-      </c>
-      <c r="D208" s="11" t="s">
-        <v>561</v>
-      </c>
-      <c r="E208" s="5"/>
+        <v>547</v>
+      </c>
+      <c r="B208" s="4"/>
+      <c r="C208" s="8" t="s">
+        <v>551</v>
+      </c>
+      <c r="D208" s="9" t="s">
+        <v>552</v>
+      </c>
+      <c r="E208" s="4"/>
       <c r="F208" s="5"/>
       <c r="G208" s="5"/>
-      <c r="H208" s="5"/>
+      <c r="H208" s="4"/>
       <c r="I208" s="6" t="s">
-        <v>562</v>
+        <v>553</v>
       </c>
       <c r="J208" s="5"/>
       <c r="K208" s="5"/>
@@ -12260,21 +12300,21 @@
     </row>
     <row r="209" spans="1:26" ht="13.5" customHeight="1">
       <c r="A209" s="8" t="s">
-        <v>559</v>
-      </c>
-      <c r="B209" s="5"/>
-      <c r="C209" s="6" t="s">
-        <v>563</v>
-      </c>
-      <c r="D209" s="32" t="s">
-        <v>564</v>
-      </c>
-      <c r="E209" s="5"/>
+        <v>547</v>
+      </c>
+      <c r="B209" s="4"/>
+      <c r="C209" s="8" t="s">
+        <v>554</v>
+      </c>
+      <c r="D209" s="9" t="s">
+        <v>555</v>
+      </c>
+      <c r="E209" s="4"/>
       <c r="F209" s="5"/>
       <c r="G209" s="5"/>
-      <c r="H209" s="5"/>
+      <c r="H209" s="4"/>
       <c r="I209" s="6" t="s">
-        <v>565</v>
+        <v>556</v>
       </c>
       <c r="J209" s="5"/>
       <c r="K209" s="5"/>
@@ -12295,22 +12335,22 @@
       <c r="Z209" s="3"/>
     </row>
     <row r="210" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A210" s="23" t="s">
-        <v>599</v>
-      </c>
-      <c r="B210" s="30"/>
-      <c r="C210" s="36" t="s">
-        <v>589</v>
-      </c>
-      <c r="D210" s="37" t="s">
-        <v>592</v>
-      </c>
-      <c r="E210" s="31"/>
+      <c r="A210" s="8" t="s">
+        <v>557</v>
+      </c>
+      <c r="B210" s="5"/>
+      <c r="C210" s="6" t="s">
+        <v>558</v>
+      </c>
+      <c r="D210" s="11" t="s">
+        <v>559</v>
+      </c>
+      <c r="E210" s="5"/>
       <c r="F210" s="5"/>
       <c r="G210" s="5"/>
       <c r="H210" s="5"/>
       <c r="I210" s="6" t="s">
-        <v>585</v>
+        <v>560</v>
       </c>
       <c r="J210" s="5"/>
       <c r="K210" s="5"/>
@@ -12331,22 +12371,22 @@
       <c r="Z210" s="3"/>
     </row>
     <row r="211" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A211" s="23" t="s">
-        <v>599</v>
-      </c>
-      <c r="B211" s="33"/>
-      <c r="C211" s="38" t="s">
-        <v>600</v>
-      </c>
-      <c r="D211" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="E211" s="4"/>
-      <c r="F211" s="16"/>
-      <c r="G211" s="16"/>
-      <c r="H211" s="4"/>
+      <c r="A211" s="8" t="s">
+        <v>557</v>
+      </c>
+      <c r="B211" s="5"/>
+      <c r="C211" s="6" t="s">
+        <v>561</v>
+      </c>
+      <c r="D211" s="32" t="s">
+        <v>562</v>
+      </c>
+      <c r="E211" s="5"/>
+      <c r="F211" s="5"/>
+      <c r="G211" s="5"/>
+      <c r="H211" s="5"/>
       <c r="I211" s="6" t="s">
-        <v>227</v>
+        <v>563</v>
       </c>
       <c r="J211" s="5"/>
       <c r="K211" s="5"/>
@@ -12368,21 +12408,21 @@
     </row>
     <row r="212" spans="1:26" ht="13.5" customHeight="1">
       <c r="A212" s="23" t="s">
-        <v>599</v>
-      </c>
-      <c r="B212" s="33"/>
-      <c r="C212" s="25" t="s">
-        <v>586</v>
-      </c>
-      <c r="D212" s="24" t="s">
-        <v>595</v>
-      </c>
-      <c r="E212" s="5"/>
+        <v>597</v>
+      </c>
+      <c r="B212" s="30"/>
+      <c r="C212" s="36" t="s">
+        <v>587</v>
+      </c>
+      <c r="D212" s="37" t="s">
+        <v>590</v>
+      </c>
+      <c r="E212" s="31"/>
       <c r="F212" s="5"/>
       <c r="G212" s="5"/>
       <c r="H212" s="5"/>
-      <c r="I212" s="5" t="s">
-        <v>597</v>
+      <c r="I212" s="6" t="s">
+        <v>583</v>
       </c>
       <c r="J212" s="5"/>
       <c r="K212" s="5"/>
@@ -12404,21 +12444,21 @@
     </row>
     <row r="213" spans="1:26" ht="13.5" customHeight="1">
       <c r="A213" s="23" t="s">
-        <v>599</v>
-      </c>
-      <c r="B213" s="30"/>
-      <c r="C213" s="34" t="s">
-        <v>212</v>
-      </c>
-      <c r="D213" s="35" t="s">
-        <v>213</v>
+        <v>597</v>
+      </c>
+      <c r="B213" s="33"/>
+      <c r="C213" s="38" t="s">
+        <v>598</v>
+      </c>
+      <c r="D213" s="9" t="s">
+        <v>224</v>
       </c>
       <c r="E213" s="4"/>
       <c r="F213" s="16"/>
       <c r="G213" s="16"/>
       <c r="H213" s="4"/>
       <c r="I213" s="6" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="J213" s="5"/>
       <c r="K213" s="5"/>
@@ -12440,21 +12480,21 @@
     </row>
     <row r="214" spans="1:26" ht="13.5" customHeight="1">
       <c r="A214" s="23" t="s">
-        <v>599</v>
-      </c>
-      <c r="B214" s="30"/>
-      <c r="C214" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="D214" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="E214" s="4"/>
-      <c r="F214" s="16"/>
-      <c r="G214" s="16"/>
-      <c r="H214" s="4"/>
-      <c r="I214" s="6" t="s">
-        <v>218</v>
+        <v>597</v>
+      </c>
+      <c r="B214" s="33"/>
+      <c r="C214" s="25" t="s">
+        <v>584</v>
+      </c>
+      <c r="D214" s="24" t="s">
+        <v>593</v>
+      </c>
+      <c r="E214" s="5"/>
+      <c r="F214" s="5"/>
+      <c r="G214" s="5"/>
+      <c r="H214" s="5"/>
+      <c r="I214" s="5" t="s">
+        <v>595</v>
       </c>
       <c r="J214" s="5"/>
       <c r="K214" s="5"/>
@@ -12476,23 +12516,21 @@
     </row>
     <row r="215" spans="1:26" ht="13.5" customHeight="1">
       <c r="A215" s="23" t="s">
-        <v>599</v>
-      </c>
-      <c r="B215" s="30" t="s">
-        <v>590</v>
-      </c>
-      <c r="C215" s="25" t="s">
-        <v>587</v>
-      </c>
-      <c r="D215" s="24" t="s">
-        <v>594</v>
-      </c>
-      <c r="E215" s="5"/>
-      <c r="F215" s="5"/>
-      <c r="G215" s="5"/>
-      <c r="H215" s="5"/>
-      <c r="I215" s="5" t="s">
-        <v>268</v>
+        <v>597</v>
+      </c>
+      <c r="B215" s="30"/>
+      <c r="C215" s="34" t="s">
+        <v>210</v>
+      </c>
+      <c r="D215" s="35" t="s">
+        <v>211</v>
+      </c>
+      <c r="E215" s="4"/>
+      <c r="F215" s="16"/>
+      <c r="G215" s="16"/>
+      <c r="H215" s="4"/>
+      <c r="I215" s="6" t="s">
+        <v>212</v>
       </c>
       <c r="J215" s="5"/>
       <c r="K215" s="5"/>
@@ -12514,23 +12552,21 @@
     </row>
     <row r="216" spans="1:26" ht="13.5" customHeight="1">
       <c r="A216" s="23" t="s">
-        <v>599</v>
-      </c>
-      <c r="B216" s="30" t="s">
-        <v>590</v>
-      </c>
-      <c r="C216" s="25" t="s">
-        <v>588</v>
-      </c>
-      <c r="D216" s="24" t="s">
-        <v>596</v>
-      </c>
-      <c r="E216" s="5"/>
-      <c r="F216" s="5"/>
-      <c r="G216" s="5"/>
-      <c r="H216" s="5"/>
-      <c r="I216" s="5" t="s">
-        <v>35</v>
+        <v>597</v>
+      </c>
+      <c r="B216" s="30"/>
+      <c r="C216" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="D216" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="E216" s="4"/>
+      <c r="F216" s="16"/>
+      <c r="G216" s="16"/>
+      <c r="H216" s="4"/>
+      <c r="I216" s="6" t="s">
+        <v>216</v>
       </c>
       <c r="J216" s="5"/>
       <c r="K216" s="5"/>
@@ -12552,23 +12588,23 @@
     </row>
     <row r="217" spans="1:26" ht="13.5" customHeight="1">
       <c r="A217" s="23" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B217" s="30" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="C217" s="25" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="D217" s="24" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="E217" s="5"/>
       <c r="F217" s="5"/>
       <c r="G217" s="5"/>
       <c r="H217" s="5"/>
       <c r="I217" s="5" t="s">
-        <v>598</v>
+        <v>266</v>
       </c>
       <c r="J217" s="5"/>
       <c r="K217" s="5"/>
@@ -12589,15 +12625,25 @@
       <c r="Z217" s="3"/>
     </row>
     <row r="218" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A218" s="5"/>
-      <c r="B218" s="5"/>
-      <c r="C218" s="5"/>
-      <c r="D218" s="5"/>
+      <c r="A218" s="23" t="s">
+        <v>597</v>
+      </c>
+      <c r="B218" s="30" t="s">
+        <v>588</v>
+      </c>
+      <c r="C218" s="25" t="s">
+        <v>586</v>
+      </c>
+      <c r="D218" s="24" t="s">
+        <v>594</v>
+      </c>
       <c r="E218" s="5"/>
       <c r="F218" s="5"/>
       <c r="G218" s="5"/>
       <c r="H218" s="5"/>
-      <c r="I218" s="5"/>
+      <c r="I218" s="5" t="s">
+        <v>33</v>
+      </c>
       <c r="J218" s="5"/>
       <c r="K218" s="5"/>
       <c r="L218" s="5"/>
@@ -12617,15 +12663,25 @@
       <c r="Z218" s="3"/>
     </row>
     <row r="219" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A219" s="5"/>
-      <c r="B219" s="5"/>
-      <c r="C219" s="5"/>
-      <c r="D219" s="5"/>
+      <c r="A219" s="23" t="s">
+        <v>597</v>
+      </c>
+      <c r="B219" s="30" t="s">
+        <v>588</v>
+      </c>
+      <c r="C219" s="25" t="s">
+        <v>589</v>
+      </c>
+      <c r="D219" s="24" t="s">
+        <v>591</v>
+      </c>
       <c r="E219" s="5"/>
       <c r="F219" s="5"/>
       <c r="G219" s="5"/>
       <c r="H219" s="5"/>
-      <c r="I219" s="5"/>
+      <c r="I219" s="5" t="s">
+        <v>596</v>
+      </c>
       <c r="J219" s="5"/>
       <c r="K219" s="5"/>
       <c r="L219" s="5"/>
@@ -17824,8 +17880,62 @@
       <c r="Y404" s="3"/>
       <c r="Z404" s="3"/>
     </row>
-    <row r="405" spans="1:26" ht="15.75" customHeight="1"/>
-    <row r="406" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="405" spans="1:26" ht="13.5" customHeight="1">
+      <c r="A405" s="5"/>
+      <c r="B405" s="5"/>
+      <c r="C405" s="5"/>
+      <c r="D405" s="5"/>
+      <c r="E405" s="5"/>
+      <c r="F405" s="5"/>
+      <c r="G405" s="5"/>
+      <c r="H405" s="5"/>
+      <c r="I405" s="5"/>
+      <c r="J405" s="5"/>
+      <c r="K405" s="5"/>
+      <c r="L405" s="5"/>
+      <c r="M405" s="6"/>
+      <c r="N405" s="3"/>
+      <c r="O405" s="3"/>
+      <c r="P405" s="3"/>
+      <c r="Q405" s="3"/>
+      <c r="R405" s="3"/>
+      <c r="S405" s="3"/>
+      <c r="T405" s="3"/>
+      <c r="U405" s="3"/>
+      <c r="V405" s="3"/>
+      <c r="W405" s="3"/>
+      <c r="X405" s="3"/>
+      <c r="Y405" s="3"/>
+      <c r="Z405" s="3"/>
+    </row>
+    <row r="406" spans="1:26" ht="13.5" customHeight="1">
+      <c r="A406" s="5"/>
+      <c r="B406" s="5"/>
+      <c r="C406" s="5"/>
+      <c r="D406" s="5"/>
+      <c r="E406" s="5"/>
+      <c r="F406" s="5"/>
+      <c r="G406" s="5"/>
+      <c r="H406" s="5"/>
+      <c r="I406" s="5"/>
+      <c r="J406" s="5"/>
+      <c r="K406" s="5"/>
+      <c r="L406" s="5"/>
+      <c r="M406" s="6"/>
+      <c r="N406" s="3"/>
+      <c r="O406" s="3"/>
+      <c r="P406" s="3"/>
+      <c r="Q406" s="3"/>
+      <c r="R406" s="3"/>
+      <c r="S406" s="3"/>
+      <c r="T406" s="3"/>
+      <c r="U406" s="3"/>
+      <c r="V406" s="3"/>
+      <c r="W406" s="3"/>
+      <c r="X406" s="3"/>
+      <c r="Y406" s="3"/>
+      <c r="Z406" s="3"/>
+    </row>
     <row r="407" spans="1:26" ht="15.75" customHeight="1"/>
     <row r="408" spans="1:26" ht="15.75" customHeight="1"/>
     <row r="409" spans="1:26" ht="15.75" customHeight="1"/>
@@ -18421,6 +18531,8 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
     <row r="1001" ht="15.75" customHeight="1"/>
+    <row r="1002" ht="15.75" customHeight="1"/>
+    <row r="1003" ht="15.75" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="13"/>
   <hyperlinks>
@@ -18611,24 +18723,25 @@
     <hyperlink ref="D196" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
     <hyperlink ref="D197" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
     <hyperlink ref="D198" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
-    <hyperlink ref="D199" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
-    <hyperlink ref="D200" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
-    <hyperlink ref="D201" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
-    <hyperlink ref="D202" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
-    <hyperlink ref="D203" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
-    <hyperlink ref="D205" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
-    <hyperlink ref="D206" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
-    <hyperlink ref="D207" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
-    <hyperlink ref="D208" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
-    <hyperlink ref="D209" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
-    <hyperlink ref="D204" r:id="rId198" xr:uid="{FB5BD734-C92C-4DCB-AC83-E67BDA12DFF4}"/>
+    <hyperlink ref="D201" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
+    <hyperlink ref="D202" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
+    <hyperlink ref="D203" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
+    <hyperlink ref="D204" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
+    <hyperlink ref="D205" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
+    <hyperlink ref="D207" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
+    <hyperlink ref="D208" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
+    <hyperlink ref="D209" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
+    <hyperlink ref="D210" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
+    <hyperlink ref="D211" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
+    <hyperlink ref="D206" r:id="rId198" xr:uid="{FB5BD734-C92C-4DCB-AC83-E67BDA12DFF4}"/>
     <hyperlink ref="D164" r:id="rId199" xr:uid="{E6F63535-7CB0-4B0A-8A9B-2FF45193FA31}"/>
     <hyperlink ref="D165" r:id="rId200" xr:uid="{23618A7F-70F1-429D-A989-04E42D5219C5}"/>
     <hyperlink ref="D167" r:id="rId201" xr:uid="{A61CFECD-5D13-489A-855F-076420E34CFD}"/>
     <hyperlink ref="D168" r:id="rId202" xr:uid="{6EDE7FBD-C182-4315-93DC-5FE3983DF025}"/>
-    <hyperlink ref="D211" r:id="rId203" xr:uid="{511CA28D-F4D7-4764-8143-3595BDCD915C}"/>
-    <hyperlink ref="D214" r:id="rId204" xr:uid="{F41BCF05-CC73-422D-8893-0B9A8DAAA427}"/>
-    <hyperlink ref="D213" r:id="rId205" xr:uid="{F8CC161C-3698-4455-AE50-3DBD3D45797B}"/>
+    <hyperlink ref="D213" r:id="rId203" xr:uid="{511CA28D-F4D7-4764-8143-3595BDCD915C}"/>
+    <hyperlink ref="D216" r:id="rId204" xr:uid="{F41BCF05-CC73-422D-8893-0B9A8DAAA427}"/>
+    <hyperlink ref="D215" r:id="rId205" xr:uid="{F8CC161C-3698-4455-AE50-3DBD3D45797B}"/>
+    <hyperlink ref="D199" r:id="rId206" xr:uid="{A977DA69-CFBF-424F-9188-8963A505EF10}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <headerFooter>

--- a/メニュー/メニュー.xlsx
+++ b/メニュー/メニュー.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\vm22flo01\DownloadFiles\DX推進課\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62B9E5C1-5F5D-4A76-B7C6-DF30BE771C54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{255D3A01-484F-47C5-B20E-77AF40123751}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1114" uniqueCount="606">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1119" uniqueCount="608">
   <si>
     <t>大カテゴリー</t>
   </si>
@@ -3721,6 +3721,22 @@
   </si>
   <si>
     <t>fill</t>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>https://yaizu-smartcity.jp/tiles/%E7%81%BD%E5%AE%B3%E6%99%82%E5%8D%94%E5%8A%9B%E4%BA%95%E6%88%B8/tiles.json</t>
+  </si>
+  <si>
+    <t>災害時協力井戸</t>
+    <rPh sb="0" eb="3">
+      <t>サイガイジ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キョウリョク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イド</t>
+    </rPh>
     <phoneticPr fontId="13"/>
   </si>
 </sst>
@@ -4006,7 +4022,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4099,6 +4115,9 @@
     </xf>
     <xf numFmtId="49" fontId="15" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="17" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="17" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -4318,13 +4337,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Z1003"/>
+  <dimension ref="A1:Z1004"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D179" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomRight" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -4587,18 +4606,18 @@
       <c r="B7" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>28</v>
+      <c r="C7" s="40" t="s">
+        <v>607</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>29</v>
+        <v>606</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
@@ -4626,17 +4645,17 @@
         <v>15</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
@@ -4664,17 +4683,17 @@
         <v>15</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="I9" s="10" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
@@ -4702,17 +4721,17 @@
         <v>15</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
-      <c r="I10" s="6" t="s">
-        <v>39</v>
+      <c r="I10" s="10" t="s">
+        <v>36</v>
       </c>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
@@ -4739,18 +4758,18 @@
       <c r="B11" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>40</v>
+      <c r="C11" s="10" t="s">
+        <v>37</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
@@ -4778,17 +4797,17 @@
         <v>15</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
@@ -4816,17 +4835,17 @@
         <v>15</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
@@ -4854,17 +4873,17 @@
         <v>15</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
@@ -4889,21 +4908,21 @@
         <v>14</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
+        <v>49</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="6" t="s">
+        <v>51</v>
+      </c>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
@@ -4930,14 +4949,14 @@
         <v>52</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
@@ -4968,14 +4987,14 @@
         <v>52</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
@@ -5003,21 +5022,21 @@
         <v>14</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
+      <c r="F18" s="6" t="s">
+        <v>61</v>
+      </c>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
-      <c r="I18" s="6" t="s">
-        <v>65</v>
-      </c>
+      <c r="I18" s="5"/>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
@@ -5044,17 +5063,17 @@
         <v>62</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
       <c r="I19" s="6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
@@ -5078,24 +5097,22 @@
       <c r="A20" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="4"/>
+      <c r="B20" s="8" t="s">
+        <v>62</v>
+      </c>
       <c r="C20" s="8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>72</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
       <c r="G20" s="5"/>
-      <c r="H20" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="I20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="6" t="s">
+        <v>68</v>
+      </c>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
@@ -5118,19 +5135,23 @@
       <c r="A21" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>74</v>
+      <c r="B21" s="4"/>
+      <c r="C21" s="8" t="s">
+        <v>69</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="E21" s="4"/>
-      <c r="F21" s="5"/>
+        <v>70</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>72</v>
+      </c>
       <c r="G21" s="5"/>
-      <c r="H21" s="4"/>
+      <c r="H21" s="6" t="s">
+        <v>71</v>
+      </c>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
@@ -5158,10 +5179,10 @@
         <v>73</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="5"/>
@@ -5190,19 +5211,19 @@
       <c r="A23" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="E23" s="5"/>
+      <c r="B23" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E23" s="4"/>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
+      <c r="H23" s="4"/>
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
@@ -5227,22 +5248,18 @@
         <v>14</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>82</v>
+        <v>78</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>84</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="E24" s="5"/>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
-      <c r="H24" s="6" t="s">
-        <v>84</v>
-      </c>
+      <c r="H24" s="5"/>
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
@@ -5270,18 +5287,18 @@
         <v>81</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="6" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
@@ -5310,18 +5327,18 @@
         <v>81</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
       <c r="H26" s="6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
@@ -5350,18 +5367,18 @@
         <v>81</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
       <c r="H27" s="6" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="I27" s="5"/>
       <c r="J27" s="5"/>
@@ -5390,18 +5407,18 @@
         <v>81</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
       <c r="H28" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
@@ -5427,18 +5444,22 @@
         <v>14</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>98</v>
+        <v>81</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>94</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="E29" s="5"/>
+        <v>95</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>96</v>
+      </c>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
+      <c r="H29" s="6" t="s">
+        <v>96</v>
+      </c>
       <c r="I29" s="5"/>
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
@@ -5466,10 +5487,10 @@
         <v>97</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
@@ -5502,10 +5523,10 @@
         <v>97</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
@@ -5538,10 +5559,10 @@
         <v>97</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
@@ -5574,10 +5595,10 @@
         <v>97</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
@@ -5610,10 +5631,10 @@
         <v>97</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
@@ -5646,10 +5667,10 @@
         <v>97</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
@@ -5682,10 +5703,10 @@
         <v>97</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
@@ -5718,10 +5739,10 @@
         <v>97</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
@@ -5754,10 +5775,10 @@
         <v>97</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
@@ -5790,10 +5811,10 @@
         <v>97</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
@@ -5826,10 +5847,10 @@
         <v>97</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
@@ -5862,10 +5883,10 @@
         <v>97</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
@@ -5898,10 +5919,10 @@
         <v>97</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
@@ -5934,10 +5955,10 @@
         <v>97</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
@@ -5970,10 +5991,10 @@
         <v>97</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
@@ -6006,10 +6027,10 @@
         <v>97</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="D45" s="15" t="s">
-        <v>131</v>
+        <v>128</v>
+      </c>
+      <c r="D45" s="13" t="s">
+        <v>129</v>
       </c>
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
@@ -6039,13 +6060,13 @@
         <v>14</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>132</v>
+        <v>97</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="D46" s="13" t="s">
-        <v>133</v>
+        <v>130</v>
+      </c>
+      <c r="D46" s="15" t="s">
+        <v>131</v>
       </c>
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
@@ -6078,10 +6099,10 @@
         <v>132</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D47" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E47" s="5"/>
       <c r="F47" s="5"/>
@@ -6114,10 +6135,10 @@
         <v>132</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="D48" s="13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
@@ -6150,10 +6171,10 @@
         <v>132</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="D49" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
@@ -6186,10 +6207,10 @@
         <v>132</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D50" s="13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
@@ -6222,10 +6243,10 @@
         <v>132</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D51" s="13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E51" s="5"/>
       <c r="F51" s="5"/>
@@ -6258,10 +6279,10 @@
         <v>132</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D52" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E52" s="5"/>
       <c r="F52" s="5"/>
@@ -6291,13 +6312,13 @@
         <v>14</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>98</v>
+        <v>130</v>
       </c>
       <c r="D53" s="13" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E53" s="5"/>
       <c r="F53" s="5"/>
@@ -6330,10 +6351,10 @@
         <v>140</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D54" s="13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E54" s="5"/>
       <c r="F54" s="5"/>
@@ -6366,10 +6387,10 @@
         <v>140</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D55" s="13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E55" s="5"/>
       <c r="F55" s="5"/>
@@ -6402,10 +6423,10 @@
         <v>140</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D56" s="13" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E56" s="5"/>
       <c r="F56" s="5"/>
@@ -6438,10 +6459,10 @@
         <v>140</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D57" s="13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E57" s="5"/>
       <c r="F57" s="5"/>
@@ -6474,10 +6495,10 @@
         <v>140</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="D58" s="13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E58" s="5"/>
       <c r="F58" s="5"/>
@@ -6510,10 +6531,10 @@
         <v>140</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D59" s="13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E59" s="5"/>
       <c r="F59" s="5"/>
@@ -6546,10 +6567,10 @@
         <v>140</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D60" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E60" s="5"/>
       <c r="F60" s="5"/>
@@ -6582,10 +6603,10 @@
         <v>140</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D61" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E61" s="5"/>
       <c r="F61" s="5"/>
@@ -6615,22 +6636,18 @@
         <v>14</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="D62" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="E62" s="6" t="s">
-        <v>152</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="E62" s="5"/>
       <c r="F62" s="5"/>
       <c r="G62" s="5"/>
-      <c r="H62" s="6" t="s">
-        <v>152</v>
-      </c>
+      <c r="H62" s="5"/>
       <c r="I62" s="5"/>
       <c r="J62" s="5"/>
       <c r="K62" s="5"/>
@@ -6655,22 +6672,22 @@
         <v>14</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C63" s="6" t="s">
         <v>100</v>
       </c>
       <c r="D63" s="13" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="F63" s="6" t="s">
-        <v>156</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="F63" s="5"/>
       <c r="G63" s="5"/>
-      <c r="H63" s="5"/>
+      <c r="H63" s="6" t="s">
+        <v>152</v>
+      </c>
       <c r="I63" s="5"/>
       <c r="J63" s="5"/>
       <c r="K63" s="5"/>
@@ -6698,10 +6715,10 @@
         <v>153</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D64" s="13" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E64" s="6" t="s">
         <v>155</v>
@@ -6738,10 +6755,10 @@
         <v>153</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D65" s="13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E65" s="6" t="s">
         <v>155</v>
@@ -6778,10 +6795,10 @@
         <v>153</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D66" s="13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E66" s="6" t="s">
         <v>155</v>
@@ -6818,10 +6835,10 @@
         <v>153</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="D67" s="13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E67" s="6" t="s">
         <v>155</v>
@@ -6858,10 +6875,10 @@
         <v>153</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D68" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E68" s="6" t="s">
         <v>155</v>
@@ -6898,10 +6915,10 @@
         <v>153</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D69" s="13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E69" s="6" t="s">
         <v>155</v>
@@ -6938,10 +6955,10 @@
         <v>153</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D70" s="13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E70" s="6" t="s">
         <v>155</v>
@@ -6970,20 +6987,24 @@
       <c r="Y70" s="3"/>
       <c r="Z70" s="3"/>
     </row>
-    <row r="71" spans="1:26" ht="14.25" customHeight="1">
+    <row r="71" spans="1:26" ht="13.5" customHeight="1">
       <c r="A71" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B71" s="5"/>
+      <c r="B71" s="6" t="s">
+        <v>153</v>
+      </c>
       <c r="C71" s="6" t="s">
-        <v>164</v>
+        <v>130</v>
       </c>
       <c r="D71" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="E71" s="5"/>
+        <v>163</v>
+      </c>
+      <c r="E71" s="6" t="s">
+        <v>155</v>
+      </c>
       <c r="F71" s="6" t="s">
-        <v>71</v>
+        <v>156</v>
       </c>
       <c r="G71" s="5"/>
       <c r="H71" s="5"/>
@@ -7006,27 +7027,23 @@
       <c r="Y71" s="3"/>
       <c r="Z71" s="3"/>
     </row>
-    <row r="72" spans="1:26" ht="13.5" customHeight="1">
+    <row r="72" spans="1:26" ht="14.25" customHeight="1">
       <c r="A72" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B72" s="6" t="s">
-        <v>166</v>
-      </c>
+      <c r="B72" s="5"/>
       <c r="C72" s="6" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D72" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="E72" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F72" s="5"/>
+        <v>165</v>
+      </c>
+      <c r="E72" s="5"/>
+      <c r="F72" s="6" t="s">
+        <v>71</v>
+      </c>
       <c r="G72" s="5"/>
-      <c r="H72" s="8" t="s">
-        <v>13</v>
-      </c>
+      <c r="H72" s="5"/>
       <c r="I72" s="5"/>
       <c r="J72" s="5"/>
       <c r="K72" s="5"/>
@@ -7054,10 +7071,10 @@
         <v>166</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D73" s="13" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E73" s="8" t="s">
         <v>13</v>
@@ -7094,10 +7111,10 @@
         <v>166</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D74" s="13" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E74" s="8" t="s">
         <v>13</v>
@@ -7134,10 +7151,10 @@
         <v>166</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D75" s="13" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E75" s="8" t="s">
         <v>13</v>
@@ -7174,10 +7191,10 @@
         <v>166</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D76" s="13" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E76" s="8" t="s">
         <v>13</v>
@@ -7214,24 +7231,24 @@
         <v>166</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D77" s="13" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E77" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F77" s="16"/>
-      <c r="G77" s="16"/>
+      <c r="F77" s="5"/>
+      <c r="G77" s="5"/>
       <c r="H77" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="I77" s="16"/>
-      <c r="J77" s="16"/>
-      <c r="K77" s="16"/>
-      <c r="L77" s="16"/>
-      <c r="M77" s="17"/>
+      <c r="I77" s="5"/>
+      <c r="J77" s="5"/>
+      <c r="K77" s="5"/>
+      <c r="L77" s="5"/>
+      <c r="M77" s="6"/>
       <c r="N77" s="3"/>
       <c r="O77" s="3"/>
       <c r="P77" s="3"/>
@@ -7254,24 +7271,24 @@
         <v>166</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D78" s="13" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E78" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F78" s="5"/>
-      <c r="G78" s="5"/>
+      <c r="F78" s="16"/>
+      <c r="G78" s="16"/>
       <c r="H78" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="I78" s="5"/>
-      <c r="J78" s="5"/>
-      <c r="K78" s="5"/>
-      <c r="L78" s="5"/>
-      <c r="M78" s="6"/>
+      <c r="I78" s="16"/>
+      <c r="J78" s="16"/>
+      <c r="K78" s="16"/>
+      <c r="L78" s="16"/>
+      <c r="M78" s="17"/>
       <c r="N78" s="3"/>
       <c r="O78" s="3"/>
       <c r="P78" s="3"/>
@@ -7294,10 +7311,10 @@
         <v>166</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D79" s="13" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E79" s="8" t="s">
         <v>13</v>
@@ -7334,10 +7351,10 @@
         <v>166</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D80" s="13" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E80" s="8" t="s">
         <v>13</v>
@@ -7374,10 +7391,10 @@
         <v>166</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D81" s="13" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E81" s="8" t="s">
         <v>13</v>
@@ -7414,10 +7431,10 @@
         <v>166</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D82" s="13" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E82" s="8" t="s">
         <v>13</v>
@@ -7454,10 +7471,10 @@
         <v>166</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D83" s="13" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E83" s="8" t="s">
         <v>13</v>
@@ -7494,10 +7511,10 @@
         <v>166</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D84" s="13" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E84" s="8" t="s">
         <v>13</v>
@@ -7534,10 +7551,10 @@
         <v>166</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D85" s="13" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E85" s="8" t="s">
         <v>13</v>
@@ -7574,10 +7591,10 @@
         <v>166</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D86" s="13" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E86" s="8" t="s">
         <v>13</v>
@@ -7614,10 +7631,10 @@
         <v>166</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D87" s="13" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E87" s="8" t="s">
         <v>13</v>
@@ -7654,10 +7671,10 @@
         <v>166</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D88" s="13" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E88" s="8" t="s">
         <v>13</v>
@@ -7694,24 +7711,24 @@
         <v>166</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D89" s="13" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E89" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F89" s="16"/>
-      <c r="G89" s="16"/>
+      <c r="F89" s="5"/>
+      <c r="G89" s="5"/>
       <c r="H89" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="I89" s="16"/>
-      <c r="J89" s="16"/>
-      <c r="K89" s="16"/>
-      <c r="L89" s="16"/>
-      <c r="M89" s="17"/>
+      <c r="I89" s="5"/>
+      <c r="J89" s="5"/>
+      <c r="K89" s="5"/>
+      <c r="L89" s="5"/>
+      <c r="M89" s="6"/>
       <c r="N89" s="3"/>
       <c r="O89" s="3"/>
       <c r="P89" s="3"/>
@@ -7734,24 +7751,24 @@
         <v>166</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D90" s="13" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E90" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F90" s="5"/>
-      <c r="G90" s="5"/>
+      <c r="F90" s="16"/>
+      <c r="G90" s="16"/>
       <c r="H90" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="I90" s="5"/>
-      <c r="J90" s="5"/>
-      <c r="K90" s="5"/>
-      <c r="L90" s="5"/>
-      <c r="M90" s="6"/>
+      <c r="I90" s="16"/>
+      <c r="J90" s="16"/>
+      <c r="K90" s="16"/>
+      <c r="L90" s="16"/>
+      <c r="M90" s="17"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
@@ -7774,24 +7791,24 @@
         <v>166</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D91" s="13" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E91" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F91" s="16"/>
-      <c r="G91" s="16"/>
+      <c r="F91" s="5"/>
+      <c r="G91" s="5"/>
       <c r="H91" s="8" t="s">
         <v>13</v>
       </c>
       <c r="I91" s="5"/>
       <c r="J91" s="5"/>
-      <c r="K91" s="16"/>
-      <c r="L91" s="16"/>
-      <c r="M91" s="17"/>
+      <c r="K91" s="5"/>
+      <c r="L91" s="5"/>
+      <c r="M91" s="6"/>
       <c r="N91" s="3"/>
       <c r="O91" s="3"/>
       <c r="P91" s="3"/>
@@ -7814,24 +7831,24 @@
         <v>166</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D92" s="13" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E92" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F92" s="5"/>
-      <c r="G92" s="5"/>
+      <c r="F92" s="16"/>
+      <c r="G92" s="16"/>
       <c r="H92" s="8" t="s">
         <v>13</v>
       </c>
       <c r="I92" s="5"/>
       <c r="J92" s="5"/>
-      <c r="K92" s="5"/>
-      <c r="L92" s="5"/>
-      <c r="M92" s="6"/>
+      <c r="K92" s="16"/>
+      <c r="L92" s="16"/>
+      <c r="M92" s="17"/>
       <c r="N92" s="3"/>
       <c r="O92" s="3"/>
       <c r="P92" s="3"/>
@@ -7848,22 +7865,26 @@
     </row>
     <row r="93" spans="1:26" ht="13.5" customHeight="1">
       <c r="A93" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="B93" s="5"/>
+        <v>14</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>166</v>
+      </c>
       <c r="C93" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="D93" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="E93" s="4"/>
-      <c r="F93" s="16"/>
-      <c r="G93" s="16"/>
-      <c r="H93" s="4"/>
-      <c r="I93" s="6" t="s">
-        <v>212</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="D93" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="E93" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F93" s="5"/>
+      <c r="G93" s="5"/>
+      <c r="H93" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I93" s="5"/>
       <c r="J93" s="5"/>
       <c r="K93" s="5"/>
       <c r="L93" s="5"/>
@@ -7886,21 +7907,19 @@
       <c r="A94" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="B94" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="C94" s="8" t="s">
-        <v>214</v>
+      <c r="B94" s="5"/>
+      <c r="C94" s="6" t="s">
+        <v>210</v>
       </c>
       <c r="D94" s="9" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E94" s="4"/>
       <c r="F94" s="16"/>
       <c r="G94" s="16"/>
       <c r="H94" s="4"/>
       <c r="I94" s="6" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="J94" s="5"/>
       <c r="K94" s="5"/>
@@ -7928,17 +7947,17 @@
         <v>213</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D95" s="9" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E95" s="4"/>
-      <c r="F95" s="5"/>
+      <c r="F95" s="16"/>
       <c r="G95" s="16"/>
       <c r="H95" s="4"/>
       <c r="I95" s="6" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="J95" s="5"/>
       <c r="K95" s="5"/>
@@ -7962,19 +7981,21 @@
       <c r="A96" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="B96" s="4"/>
+      <c r="B96" s="6" t="s">
+        <v>213</v>
+      </c>
       <c r="C96" s="8" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D96" s="9" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E96" s="4"/>
-      <c r="F96" s="16"/>
+      <c r="F96" s="5"/>
       <c r="G96" s="16"/>
       <c r="H96" s="4"/>
       <c r="I96" s="6" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="J96" s="5"/>
       <c r="K96" s="5"/>
@@ -8000,17 +8021,17 @@
       </c>
       <c r="B97" s="4"/>
       <c r="C97" s="8" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D97" s="9" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E97" s="4"/>
       <c r="F97" s="16"/>
       <c r="G97" s="16"/>
       <c r="H97" s="4"/>
       <c r="I97" s="6" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="J97" s="5"/>
       <c r="K97" s="5"/>
@@ -8036,17 +8057,17 @@
       </c>
       <c r="B98" s="4"/>
       <c r="C98" s="8" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D98" s="9" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E98" s="4"/>
       <c r="F98" s="16"/>
       <c r="G98" s="16"/>
       <c r="H98" s="4"/>
       <c r="I98" s="6" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="J98" s="5"/>
       <c r="K98" s="5"/>
@@ -8070,21 +8091,19 @@
       <c r="A99" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="B99" s="6" t="s">
-        <v>229</v>
-      </c>
+      <c r="B99" s="4"/>
       <c r="C99" s="8" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D99" s="9" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="E99" s="4"/>
       <c r="F99" s="16"/>
       <c r="G99" s="16"/>
       <c r="H99" s="4"/>
-      <c r="I99" s="8" t="s">
-        <v>232</v>
+      <c r="I99" s="6" t="s">
+        <v>228</v>
       </c>
       <c r="J99" s="5"/>
       <c r="K99" s="5"/>
@@ -8104,7 +8123,7 @@
       <c r="Y99" s="3"/>
       <c r="Z99" s="3"/>
     </row>
-    <row r="100" spans="1:26" ht="15" customHeight="1">
+    <row r="100" spans="1:26" ht="13.5" customHeight="1">
       <c r="A100" s="8" t="s">
         <v>209</v>
       </c>
@@ -8112,18 +8131,18 @@
         <v>229</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D100" s="9" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E100" s="4"/>
-      <c r="F100" s="5"/>
-      <c r="G100" s="5"/>
-      <c r="H100" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="I100" s="5"/>
+      <c r="F100" s="16"/>
+      <c r="G100" s="16"/>
+      <c r="H100" s="4"/>
+      <c r="I100" s="8" t="s">
+        <v>232</v>
+      </c>
       <c r="J100" s="5"/>
       <c r="K100" s="5"/>
       <c r="L100" s="5"/>
@@ -8142,24 +8161,26 @@
       <c r="Y100" s="3"/>
       <c r="Z100" s="3"/>
     </row>
-    <row r="101" spans="1:26" ht="13.5" customHeight="1">
+    <row r="101" spans="1:26" ht="15" customHeight="1">
       <c r="A101" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="B101" s="5"/>
+      <c r="B101" s="6" t="s">
+        <v>229</v>
+      </c>
       <c r="C101" s="8" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D101" s="9" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E101" s="4"/>
-      <c r="F101" s="16"/>
-      <c r="G101" s="16"/>
-      <c r="H101" s="4"/>
-      <c r="I101" s="6" t="s">
-        <v>238</v>
-      </c>
+      <c r="F101" s="5"/>
+      <c r="G101" s="5"/>
+      <c r="H101" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="I101" s="5"/>
       <c r="J101" s="5"/>
       <c r="K101" s="5"/>
       <c r="L101" s="5"/>
@@ -8184,18 +8205,18 @@
       </c>
       <c r="B102" s="5"/>
       <c r="C102" s="8" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D102" s="9" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E102" s="4"/>
-      <c r="F102" s="5"/>
-      <c r="G102" s="5"/>
-      <c r="H102" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="I102" s="5"/>
+      <c r="F102" s="16"/>
+      <c r="G102" s="16"/>
+      <c r="H102" s="4"/>
+      <c r="I102" s="6" t="s">
+        <v>238</v>
+      </c>
       <c r="J102" s="5"/>
       <c r="K102" s="5"/>
       <c r="L102" s="5"/>
@@ -8214,25 +8235,23 @@
       <c r="Y102" s="3"/>
       <c r="Z102" s="3"/>
     </row>
-    <row r="103" spans="1:26" ht="12.75" customHeight="1">
+    <row r="103" spans="1:26" ht="13.5" customHeight="1">
       <c r="A103" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="B103" s="8" t="s">
-        <v>242</v>
-      </c>
+      <c r="B103" s="5"/>
       <c r="C103" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="D103" s="11" t="s">
-        <v>244</v>
-      </c>
-      <c r="E103" s="5"/>
-      <c r="F103" s="6" t="s">
-        <v>245</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="D103" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="E103" s="4"/>
+      <c r="F103" s="5"/>
       <c r="G103" s="5"/>
-      <c r="H103" s="5"/>
+      <c r="H103" s="4" t="s">
+        <v>241</v>
+      </c>
       <c r="I103" s="5"/>
       <c r="J103" s="5"/>
       <c r="K103" s="5"/>
@@ -8260,14 +8279,14 @@
         <v>242</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D104" s="11" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="E104" s="5"/>
       <c r="F104" s="6" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G104" s="5"/>
       <c r="H104" s="5"/>
@@ -8298,14 +8317,14 @@
         <v>242</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D105" s="11" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E105" s="5"/>
       <c r="F105" s="6" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="G105" s="5"/>
       <c r="H105" s="5"/>
@@ -8336,14 +8355,14 @@
         <v>242</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D106" s="11" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="E106" s="5"/>
       <c r="F106" s="6" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G106" s="5"/>
       <c r="H106" s="5"/>
@@ -8374,14 +8393,14 @@
         <v>242</v>
       </c>
       <c r="C107" s="8" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D107" s="11" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E107" s="5"/>
       <c r="F107" s="6" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="G107" s="5"/>
       <c r="H107" s="5"/>
@@ -8412,14 +8431,14 @@
         <v>242</v>
       </c>
       <c r="C108" s="8" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D108" s="11" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="E108" s="5"/>
       <c r="F108" s="6" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G108" s="5"/>
       <c r="H108" s="5"/>
@@ -8450,14 +8469,14 @@
         <v>242</v>
       </c>
       <c r="C109" s="8" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D109" s="11" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E109" s="5"/>
       <c r="F109" s="6" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="G109" s="5"/>
       <c r="H109" s="5"/>
@@ -8480,7 +8499,7 @@
       <c r="Y109" s="3"/>
       <c r="Z109" s="3"/>
     </row>
-    <row r="110" spans="1:26" ht="13.5" customHeight="1">
+    <row r="110" spans="1:26" ht="12.75" customHeight="1">
       <c r="A110" s="8" t="s">
         <v>209</v>
       </c>
@@ -8488,19 +8507,19 @@
         <v>242</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D110" s="11" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E110" s="5"/>
-      <c r="F110" s="5"/>
+      <c r="F110" s="6" t="s">
+        <v>263</v>
+      </c>
       <c r="G110" s="5"/>
       <c r="H110" s="5"/>
-      <c r="I110" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="J110" s="16"/>
+      <c r="I110" s="5"/>
+      <c r="J110" s="5"/>
       <c r="K110" s="5"/>
       <c r="L110" s="5"/>
       <c r="M110" s="6"/>
@@ -8526,17 +8545,17 @@
         <v>242</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="D111" s="13" t="s">
-        <v>268</v>
+        <v>264</v>
+      </c>
+      <c r="D111" s="11" t="s">
+        <v>265</v>
       </c>
       <c r="E111" s="5"/>
       <c r="F111" s="5"/>
       <c r="G111" s="5"/>
       <c r="H111" s="5"/>
       <c r="I111" s="6" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="J111" s="16"/>
       <c r="K111" s="5"/>
@@ -8563,22 +8582,20 @@
       <c r="B112" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="C112" s="6" t="s">
-        <v>270</v>
+      <c r="C112" s="8" t="s">
+        <v>267</v>
       </c>
       <c r="D112" s="13" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E112" s="5"/>
-      <c r="F112" s="17" t="s">
-        <v>272</v>
-      </c>
+      <c r="F112" s="5"/>
       <c r="G112" s="5"/>
-      <c r="H112" s="17" t="s">
-        <v>273</v>
-      </c>
-      <c r="I112" s="5"/>
-      <c r="J112" s="5"/>
+      <c r="H112" s="5"/>
+      <c r="I112" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="J112" s="16"/>
       <c r="K112" s="5"/>
       <c r="L112" s="5"/>
       <c r="M112" s="6"/>
@@ -8597,20 +8614,26 @@
       <c r="Z112" s="3"/>
     </row>
     <row r="113" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A113" s="6" t="s">
-        <v>274</v>
-      </c>
-      <c r="B113" s="5"/>
+      <c r="A113" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="B113" s="8" t="s">
+        <v>242</v>
+      </c>
       <c r="C113" s="6" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="D113" s="13" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="E113" s="5"/>
-      <c r="F113" s="5"/>
+      <c r="F113" s="17" t="s">
+        <v>272</v>
+      </c>
       <c r="G113" s="5"/>
-      <c r="H113" s="5"/>
+      <c r="H113" s="17" t="s">
+        <v>273</v>
+      </c>
       <c r="I113" s="5"/>
       <c r="J113" s="5"/>
       <c r="K113" s="5"/>
@@ -8631,24 +8654,20 @@
       <c r="Z113" s="3"/>
     </row>
     <row r="114" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A114" s="8" t="s">
+      <c r="A114" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="B114" s="6" t="s">
-        <v>277</v>
-      </c>
+      <c r="B114" s="5"/>
       <c r="C114" s="6" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D114" s="13" t="s">
-        <v>279</v>
-      </c>
-      <c r="E114" s="8" t="s">
-        <v>280</v>
-      </c>
+        <v>276</v>
+      </c>
+      <c r="E114" s="5"/>
       <c r="F114" s="5"/>
       <c r="G114" s="5"/>
-      <c r="H114" s="4"/>
+      <c r="H114" s="5"/>
       <c r="I114" s="5"/>
       <c r="J114" s="5"/>
       <c r="K114" s="5"/>
@@ -8676,13 +8695,13 @@
         <v>277</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D115" s="13" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="E115" s="8" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F115" s="5"/>
       <c r="G115" s="5"/>
@@ -8714,13 +8733,13 @@
         <v>277</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D116" s="13" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="E116" s="8" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="F116" s="5"/>
       <c r="G116" s="5"/>
@@ -8752,13 +8771,13 @@
         <v>277</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D117" s="13" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="E117" s="8" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F117" s="5"/>
       <c r="G117" s="5"/>
@@ -8790,17 +8809,17 @@
         <v>277</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D118" s="13" t="s">
-        <v>291</v>
-      </c>
-      <c r="E118" s="6" t="s">
-        <v>292</v>
+        <v>288</v>
+      </c>
+      <c r="E118" s="8" t="s">
+        <v>289</v>
       </c>
       <c r="F118" s="5"/>
       <c r="G118" s="5"/>
-      <c r="H118" s="5"/>
+      <c r="H118" s="4"/>
       <c r="I118" s="5"/>
       <c r="J118" s="5"/>
       <c r="K118" s="5"/>
@@ -8828,17 +8847,17 @@
         <v>277</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D119" s="13" t="s">
-        <v>294</v>
-      </c>
-      <c r="E119" s="8" t="s">
-        <v>295</v>
+        <v>291</v>
+      </c>
+      <c r="E119" s="6" t="s">
+        <v>292</v>
       </c>
       <c r="F119" s="5"/>
       <c r="G119" s="5"/>
-      <c r="H119" s="4"/>
+      <c r="H119" s="5"/>
       <c r="I119" s="5"/>
       <c r="J119" s="5"/>
       <c r="K119" s="5"/>
@@ -8866,13 +8885,13 @@
         <v>277</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D120" s="13" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="E120" s="8" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="F120" s="5"/>
       <c r="G120" s="5"/>
@@ -8904,13 +8923,13 @@
         <v>277</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D121" s="13" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="E121" s="8" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F121" s="5"/>
       <c r="G121" s="5"/>
@@ -8942,17 +8961,17 @@
         <v>277</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D122" s="13" t="s">
-        <v>303</v>
-      </c>
-      <c r="E122" s="6" t="s">
-        <v>304</v>
+        <v>300</v>
+      </c>
+      <c r="E122" s="8" t="s">
+        <v>301</v>
       </c>
       <c r="F122" s="5"/>
       <c r="G122" s="5"/>
-      <c r="H122" s="5"/>
+      <c r="H122" s="4"/>
       <c r="I122" s="5"/>
       <c r="J122" s="5"/>
       <c r="K122" s="5"/>
@@ -8980,10 +8999,10 @@
         <v>277</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D123" s="13" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E123" s="6" t="s">
         <v>304</v>
@@ -9018,13 +9037,13 @@
         <v>277</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D124" s="13" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E124" s="6" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="F124" s="5"/>
       <c r="G124" s="5"/>
@@ -9056,13 +9075,13 @@
         <v>277</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D125" s="13" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="E125" s="6" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="F125" s="5"/>
       <c r="G125" s="5"/>
@@ -9091,20 +9110,18 @@
         <v>274</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>312</v>
+        <v>277</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D126" s="13" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="E126" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="F126" s="6" t="s">
-        <v>316</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="F126" s="5"/>
       <c r="G126" s="5"/>
       <c r="H126" s="5"/>
       <c r="I126" s="5"/>
@@ -9134,13 +9151,13 @@
         <v>312</v>
       </c>
       <c r="C127" s="6" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D127" s="13" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="E127" s="6" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="F127" s="6" t="s">
         <v>316</v>
@@ -9174,13 +9191,13 @@
         <v>312</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D128" s="13" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E128" s="6" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="F128" s="6" t="s">
         <v>316</v>
@@ -9214,13 +9231,13 @@
         <v>312</v>
       </c>
       <c r="C129" s="6" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="D129" s="13" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="E129" s="6" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F129" s="6" t="s">
         <v>316</v>
@@ -9254,13 +9271,13 @@
         <v>312</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D130" s="13" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="E130" s="6" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="F130" s="6" t="s">
         <v>316</v>
@@ -9294,13 +9311,13 @@
         <v>312</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D131" s="13" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="E131" s="6" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F131" s="6" t="s">
         <v>316</v>
@@ -9334,16 +9351,16 @@
         <v>312</v>
       </c>
       <c r="C132" s="6" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D132" s="13" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="E132" s="6" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="F132" s="6" t="s">
-        <v>335</v>
+        <v>316</v>
       </c>
       <c r="G132" s="5"/>
       <c r="H132" s="5"/>
@@ -9374,19 +9391,19 @@
         <v>312</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="D133" s="13" t="s">
-        <v>337</v>
-      </c>
-      <c r="E133" s="8" t="s">
-        <v>338</v>
+        <v>333</v>
+      </c>
+      <c r="E133" s="6" t="s">
+        <v>334</v>
       </c>
       <c r="F133" s="6" t="s">
         <v>335</v>
       </c>
       <c r="G133" s="5"/>
-      <c r="H133" s="4"/>
+      <c r="H133" s="5"/>
       <c r="I133" s="5"/>
       <c r="J133" s="5"/>
       <c r="K133" s="5"/>
@@ -9414,19 +9431,19 @@
         <v>312</v>
       </c>
       <c r="C134" s="6" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="D134" s="13" t="s">
-        <v>340</v>
-      </c>
-      <c r="E134" s="6" t="s">
-        <v>341</v>
+        <v>337</v>
+      </c>
+      <c r="E134" s="8" t="s">
+        <v>338</v>
       </c>
       <c r="F134" s="6" t="s">
         <v>335</v>
       </c>
       <c r="G134" s="5"/>
-      <c r="H134" s="5"/>
+      <c r="H134" s="4"/>
       <c r="I134" s="5"/>
       <c r="J134" s="5"/>
       <c r="K134" s="5"/>
@@ -9454,13 +9471,13 @@
         <v>312</v>
       </c>
       <c r="C135" s="6" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D135" s="13" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="E135" s="6" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="F135" s="6" t="s">
         <v>335</v>
@@ -9494,13 +9511,13 @@
         <v>312</v>
       </c>
       <c r="C136" s="6" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D136" s="13" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="E136" s="6" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="F136" s="6" t="s">
         <v>335</v>
@@ -9530,17 +9547,17 @@
       <c r="A137" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="B137" s="8" t="s">
+      <c r="B137" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="C137" s="8" t="s">
-        <v>348</v>
+      <c r="C137" s="6" t="s">
+        <v>345</v>
       </c>
       <c r="D137" s="13" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="E137" s="6" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="F137" s="6" t="s">
         <v>335</v>
@@ -9548,7 +9565,7 @@
       <c r="G137" s="5"/>
       <c r="H137" s="5"/>
       <c r="I137" s="5"/>
-      <c r="J137" s="6"/>
+      <c r="J137" s="5"/>
       <c r="K137" s="5"/>
       <c r="L137" s="5"/>
       <c r="M137" s="6"/>
@@ -9567,28 +9584,28 @@
       <c r="Z137" s="3"/>
     </row>
     <row r="138" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A138" s="6" t="s">
+      <c r="A138" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="B138" s="6" t="s">
-        <v>351</v>
-      </c>
-      <c r="C138" s="6" t="s">
-        <v>352</v>
+      <c r="B138" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="C138" s="8" t="s">
+        <v>348</v>
       </c>
       <c r="D138" s="13" t="s">
-        <v>353</v>
-      </c>
-      <c r="E138" s="5" t="s">
-        <v>354</v>
-      </c>
-      <c r="F138" s="5" t="s">
-        <v>354</v>
+        <v>349</v>
+      </c>
+      <c r="E138" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="F138" s="6" t="s">
+        <v>335</v>
       </c>
       <c r="G138" s="5"/>
       <c r="H138" s="5"/>
       <c r="I138" s="5"/>
-      <c r="J138" s="5"/>
+      <c r="J138" s="6"/>
       <c r="K138" s="5"/>
       <c r="L138" s="5"/>
       <c r="M138" s="6"/>
@@ -9614,16 +9631,16 @@
         <v>351</v>
       </c>
       <c r="C139" s="6" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="D139" s="13" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="E139" s="5" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="F139" s="5" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="G139" s="5"/>
       <c r="H139" s="5"/>
@@ -9647,24 +9664,28 @@
       <c r="Z139" s="3"/>
     </row>
     <row r="140" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A140" s="8" t="s">
+      <c r="A140" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="B140" s="5"/>
+      <c r="B140" s="6" t="s">
+        <v>351</v>
+      </c>
       <c r="C140" s="6" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D140" s="13" t="s">
-        <v>359</v>
-      </c>
-      <c r="E140" s="5"/>
-      <c r="F140" s="16"/>
-      <c r="G140" s="16"/>
+        <v>356</v>
+      </c>
+      <c r="E140" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="F140" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="G140" s="5"/>
       <c r="H140" s="5"/>
-      <c r="I140" s="17" t="s">
-        <v>269</v>
-      </c>
-      <c r="J140" s="16"/>
+      <c r="I140" s="5"/>
+      <c r="J140" s="5"/>
       <c r="K140" s="5"/>
       <c r="L140" s="5"/>
       <c r="M140" s="6"/>
@@ -9688,17 +9709,17 @@
       </c>
       <c r="B141" s="5"/>
       <c r="C141" s="6" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D141" s="13" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E141" s="5"/>
       <c r="F141" s="16"/>
       <c r="G141" s="16"/>
       <c r="H141" s="5"/>
       <c r="I141" s="17" t="s">
-        <v>362</v>
+        <v>269</v>
       </c>
       <c r="J141" s="16"/>
       <c r="K141" s="5"/>
@@ -9724,21 +9745,19 @@
       </c>
       <c r="B142" s="5"/>
       <c r="C142" s="6" t="s">
-        <v>363</v>
-      </c>
-      <c r="D142" s="11" t="s">
-        <v>364</v>
-      </c>
-      <c r="E142" s="6" t="s">
-        <v>365</v>
-      </c>
-      <c r="F142" s="5"/>
-      <c r="G142" s="5"/>
-      <c r="H142" s="6" t="s">
-        <v>365</v>
-      </c>
-      <c r="I142" s="5"/>
-      <c r="J142" s="5"/>
+        <v>360</v>
+      </c>
+      <c r="D142" s="13" t="s">
+        <v>361</v>
+      </c>
+      <c r="E142" s="5"/>
+      <c r="F142" s="16"/>
+      <c r="G142" s="16"/>
+      <c r="H142" s="5"/>
+      <c r="I142" s="17" t="s">
+        <v>362</v>
+      </c>
+      <c r="J142" s="16"/>
       <c r="K142" s="5"/>
       <c r="L142" s="5"/>
       <c r="M142" s="6"/>
@@ -9757,23 +9776,23 @@
       <c r="Z142" s="3"/>
     </row>
     <row r="143" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A143" s="6" t="s">
-        <v>366</v>
+      <c r="A143" s="8" t="s">
+        <v>274</v>
       </c>
       <c r="B143" s="5"/>
       <c r="C143" s="6" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="D143" s="11" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="E143" s="6" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="F143" s="5"/>
       <c r="G143" s="5"/>
       <c r="H143" s="6" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="I143" s="5"/>
       <c r="J143" s="5"/>
@@ -9800,18 +9819,18 @@
       </c>
       <c r="B144" s="5"/>
       <c r="C144" s="6" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D144" s="11" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="E144" s="6" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="F144" s="5"/>
       <c r="G144" s="5"/>
       <c r="H144" s="6" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="I144" s="5"/>
       <c r="J144" s="5"/>
@@ -9838,19 +9857,19 @@
       </c>
       <c r="B145" s="5"/>
       <c r="C145" s="6" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D145" s="11" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="E145" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="F145" s="6" t="s">
-        <v>375</v>
-      </c>
+        <v>372</v>
+      </c>
+      <c r="F145" s="5"/>
       <c r="G145" s="5"/>
-      <c r="H145" s="5"/>
+      <c r="H145" s="6" t="s">
+        <v>372</v>
+      </c>
       <c r="I145" s="5"/>
       <c r="J145" s="5"/>
       <c r="K145" s="5"/>
@@ -9872,19 +9891,21 @@
     </row>
     <row r="146" spans="1:26" ht="13.5" customHeight="1">
       <c r="A146" s="6" t="s">
-        <v>376</v>
-      </c>
-      <c r="B146" s="6"/>
+        <v>366</v>
+      </c>
+      <c r="B146" s="5"/>
       <c r="C146" s="6" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="D146" s="11" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="E146" s="6" t="s">
-        <v>379</v>
-      </c>
-      <c r="F146" s="5"/>
+        <v>71</v>
+      </c>
+      <c r="F146" s="6" t="s">
+        <v>375</v>
+      </c>
       <c r="G146" s="5"/>
       <c r="H146" s="5"/>
       <c r="I146" s="5"/>
@@ -9910,30 +9931,24 @@
       <c r="A147" s="6" t="s">
         <v>376</v>
       </c>
-      <c r="B147" s="6" t="s">
-        <v>380</v>
-      </c>
+      <c r="B147" s="6"/>
       <c r="C147" s="6" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="D147" s="11" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="E147" s="6" t="s">
-        <v>383</v>
-      </c>
-      <c r="F147" s="6" t="s">
-        <v>383</v>
-      </c>
+        <v>379</v>
+      </c>
+      <c r="F147" s="5"/>
       <c r="G147" s="5"/>
       <c r="H147" s="5"/>
       <c r="I147" s="5"/>
       <c r="J147" s="5"/>
       <c r="K147" s="5"/>
       <c r="L147" s="5"/>
-      <c r="M147" s="6" t="s">
-        <v>384</v>
-      </c>
+      <c r="M147" s="6"/>
       <c r="N147" s="3"/>
       <c r="O147" s="3"/>
       <c r="P147" s="3"/>
@@ -9956,21 +9971,19 @@
         <v>380</v>
       </c>
       <c r="C148" s="6" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="D148" s="11" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="E148" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F148" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="G148" s="5"/>
-      <c r="H148" s="6" t="s">
-        <v>387</v>
-      </c>
+      <c r="H148" s="5"/>
       <c r="I148" s="5"/>
       <c r="J148" s="5"/>
       <c r="K148" s="5"/>
@@ -10000,20 +10013,20 @@
         <v>380</v>
       </c>
       <c r="C149" s="6" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="D149" s="11" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="E149" s="6" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="F149" s="6" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="G149" s="5"/>
       <c r="H149" s="6" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="I149" s="5"/>
       <c r="J149" s="5"/>
@@ -10044,20 +10057,20 @@
         <v>380</v>
       </c>
       <c r="C150" s="6" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="D150" s="11" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="E150" s="6" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="F150" s="6" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="G150" s="5"/>
       <c r="H150" s="6" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="I150" s="5"/>
       <c r="J150" s="5"/>
@@ -10080,30 +10093,36 @@
       <c r="Y150" s="3"/>
       <c r="Z150" s="3"/>
     </row>
-    <row r="151" spans="1:26" ht="15" customHeight="1">
+    <row r="151" spans="1:26" ht="13.5" customHeight="1">
       <c r="A151" s="6" t="s">
         <v>376</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>394</v>
+        <v>380</v>
       </c>
       <c r="C151" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="D151" s="11" t="s">
-        <v>396</v>
-      </c>
-      <c r="E151" s="5"/>
-      <c r="F151" s="5"/>
+        <v>392</v>
+      </c>
+      <c r="E151" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="F151" s="6" t="s">
+        <v>393</v>
+      </c>
       <c r="G151" s="5"/>
-      <c r="H151" s="5"/>
-      <c r="I151" s="6" t="s">
-        <v>397</v>
-      </c>
+      <c r="H151" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="I151" s="5"/>
       <c r="J151" s="5"/>
       <c r="K151" s="5"/>
       <c r="L151" s="5"/>
-      <c r="M151" s="6"/>
+      <c r="M151" s="6" t="s">
+        <v>384</v>
+      </c>
       <c r="N151" s="3"/>
       <c r="O151" s="3"/>
       <c r="P151" s="3"/>
@@ -10118,7 +10137,7 @@
       <c r="Y151" s="3"/>
       <c r="Z151" s="3"/>
     </row>
-    <row r="152" spans="1:26" ht="13.5" customHeight="1">
+    <row r="152" spans="1:26" ht="15" customHeight="1">
       <c r="A152" s="6" t="s">
         <v>376</v>
       </c>
@@ -10126,16 +10145,18 @@
         <v>394</v>
       </c>
       <c r="C152" s="6" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="D152" s="11" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="E152" s="5"/>
       <c r="F152" s="5"/>
       <c r="G152" s="5"/>
       <c r="H152" s="5"/>
-      <c r="I152" s="5"/>
+      <c r="I152" s="6" t="s">
+        <v>397</v>
+      </c>
       <c r="J152" s="5"/>
       <c r="K152" s="5"/>
       <c r="L152" s="5"/>
@@ -10158,22 +10179,20 @@
       <c r="A153" s="6" t="s">
         <v>376</v>
       </c>
-      <c r="B153" s="8" t="s">
-        <v>400</v>
+      <c r="B153" s="6" t="s">
+        <v>394</v>
       </c>
       <c r="C153" s="6" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="D153" s="11" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="E153" s="5"/>
       <c r="F153" s="5"/>
       <c r="G153" s="5"/>
       <c r="H153" s="5"/>
-      <c r="I153" s="6" t="s">
-        <v>403</v>
-      </c>
+      <c r="I153" s="5"/>
       <c r="J153" s="5"/>
       <c r="K153" s="5"/>
       <c r="L153" s="5"/>
@@ -10200,22 +10219,18 @@
         <v>400</v>
       </c>
       <c r="C154" s="6" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="D154" s="11" t="s">
-        <v>405</v>
-      </c>
-      <c r="E154" s="6" t="s">
-        <v>406</v>
-      </c>
-      <c r="F154" s="6" t="s">
-        <v>406</v>
-      </c>
+        <v>402</v>
+      </c>
+      <c r="E154" s="5"/>
+      <c r="F154" s="5"/>
       <c r="G154" s="5"/>
-      <c r="H154" s="6" t="s">
-        <v>406</v>
-      </c>
-      <c r="I154" s="5"/>
+      <c r="H154" s="5"/>
+      <c r="I154" s="6" t="s">
+        <v>403</v>
+      </c>
       <c r="J154" s="5"/>
       <c r="K154" s="5"/>
       <c r="L154" s="5"/>
@@ -10242,18 +10257,22 @@
         <v>400</v>
       </c>
       <c r="C155" s="6" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="D155" s="11" t="s">
-        <v>408</v>
-      </c>
-      <c r="E155" s="5"/>
-      <c r="F155" s="5"/>
+        <v>405</v>
+      </c>
+      <c r="E155" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="F155" s="6" t="s">
+        <v>406</v>
+      </c>
       <c r="G155" s="5"/>
-      <c r="H155" s="5"/>
-      <c r="I155" s="6" t="s">
-        <v>403</v>
-      </c>
+      <c r="H155" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="I155" s="5"/>
       <c r="J155" s="5"/>
       <c r="K155" s="5"/>
       <c r="L155" s="5"/>
@@ -10280,17 +10299,17 @@
         <v>400</v>
       </c>
       <c r="C156" s="6" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D156" s="11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E156" s="5"/>
       <c r="F156" s="5"/>
       <c r="G156" s="5"/>
       <c r="H156" s="5"/>
-      <c r="I156" s="8" t="s">
-        <v>411</v>
+      <c r="I156" s="6" t="s">
+        <v>403</v>
       </c>
       <c r="J156" s="5"/>
       <c r="K156" s="5"/>
@@ -10318,10 +10337,10 @@
         <v>400</v>
       </c>
       <c r="C157" s="6" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="D157" s="11" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="E157" s="5"/>
       <c r="F157" s="5"/>
@@ -10356,17 +10375,17 @@
         <v>400</v>
       </c>
       <c r="C158" s="6" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D158" s="11" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E158" s="5"/>
       <c r="F158" s="5"/>
       <c r="G158" s="5"/>
       <c r="H158" s="5"/>
       <c r="I158" s="8" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="J158" s="5"/>
       <c r="K158" s="5"/>
@@ -10394,22 +10413,18 @@
         <v>400</v>
       </c>
       <c r="C159" s="6" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="D159" s="11" t="s">
-        <v>418</v>
-      </c>
-      <c r="E159" s="6" t="s">
-        <v>419</v>
-      </c>
-      <c r="F159" s="6" t="s">
-        <v>419</v>
-      </c>
+        <v>415</v>
+      </c>
+      <c r="E159" s="5"/>
+      <c r="F159" s="5"/>
       <c r="G159" s="5"/>
-      <c r="H159" s="6" t="s">
-        <v>419</v>
-      </c>
-      <c r="I159" s="5"/>
+      <c r="H159" s="5"/>
+      <c r="I159" s="8" t="s">
+        <v>416</v>
+      </c>
       <c r="J159" s="5"/>
       <c r="K159" s="5"/>
       <c r="L159" s="5"/>
@@ -10432,22 +10447,24 @@
       <c r="A160" s="6" t="s">
         <v>376</v>
       </c>
-      <c r="B160" s="6" t="s">
-        <v>420</v>
+      <c r="B160" s="8" t="s">
+        <v>400</v>
       </c>
       <c r="C160" s="6" t="s">
-        <v>421</v>
-      </c>
-      <c r="D160" s="13" t="s">
-        <v>422</v>
+        <v>417</v>
+      </c>
+      <c r="D160" s="11" t="s">
+        <v>418</v>
       </c>
       <c r="E160" s="6" t="s">
-        <v>423</v>
-      </c>
-      <c r="F160" s="5"/>
+        <v>419</v>
+      </c>
+      <c r="F160" s="6" t="s">
+        <v>419</v>
+      </c>
       <c r="G160" s="5"/>
       <c r="H160" s="6" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="I160" s="5"/>
       <c r="J160" s="5"/>
@@ -10476,18 +10493,18 @@
         <v>420</v>
       </c>
       <c r="C161" s="6" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="D161" s="13" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="E161" s="6" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="F161" s="5"/>
       <c r="G161" s="5"/>
       <c r="H161" s="6" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="I161" s="5"/>
       <c r="J161" s="5"/>
@@ -10516,18 +10533,18 @@
         <v>420</v>
       </c>
       <c r="C162" s="6" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="D162" s="13" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="E162" s="6" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="F162" s="5"/>
       <c r="G162" s="5"/>
       <c r="H162" s="6" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="I162" s="5"/>
       <c r="J162" s="5"/>
@@ -10556,18 +10573,18 @@
         <v>420</v>
       </c>
       <c r="C163" s="6" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="D163" s="13" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="E163" s="6" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="F163" s="5"/>
       <c r="G163" s="5"/>
       <c r="H163" s="6" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="I163" s="5"/>
       <c r="J163" s="5"/>
@@ -10592,20 +10609,22 @@
       <c r="A164" s="6" t="s">
         <v>376</v>
       </c>
-      <c r="B164" s="26" t="s">
-        <v>567</v>
-      </c>
-      <c r="C164" s="26" t="s">
-        <v>568</v>
-      </c>
-      <c r="D164" s="29" t="s">
-        <v>573</v>
-      </c>
-      <c r="E164" s="6"/>
+      <c r="B164" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="C164" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="D164" s="13" t="s">
+        <v>431</v>
+      </c>
+      <c r="E164" s="6" t="s">
+        <v>432</v>
+      </c>
       <c r="F164" s="5"/>
       <c r="G164" s="5"/>
       <c r="H164" s="6" t="s">
-        <v>578</v>
+        <v>432</v>
       </c>
       <c r="I164" s="5"/>
       <c r="J164" s="5"/>
@@ -10634,16 +10653,16 @@
         <v>567</v>
       </c>
       <c r="C165" s="26" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D165" s="29" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E165" s="6"/>
       <c r="F165" s="5"/>
       <c r="G165" s="5"/>
       <c r="H165" s="6" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="I165" s="5"/>
       <c r="J165" s="5"/>
@@ -10672,16 +10691,16 @@
         <v>567</v>
       </c>
       <c r="C166" s="26" t="s">
-        <v>570</v>
-      </c>
-      <c r="D166" s="28" t="s">
-        <v>575</v>
+        <v>569</v>
+      </c>
+      <c r="D166" s="29" t="s">
+        <v>574</v>
       </c>
       <c r="E166" s="6"/>
       <c r="F166" s="5"/>
       <c r="G166" s="5"/>
       <c r="H166" s="6" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="I166" s="5"/>
       <c r="J166" s="5"/>
@@ -10710,16 +10729,16 @@
         <v>567</v>
       </c>
       <c r="C167" s="26" t="s">
-        <v>571</v>
-      </c>
-      <c r="D167" s="29" t="s">
-        <v>576</v>
+        <v>570</v>
+      </c>
+      <c r="D167" s="28" t="s">
+        <v>575</v>
       </c>
       <c r="E167" s="6"/>
       <c r="F167" s="5"/>
       <c r="G167" s="5"/>
       <c r="H167" s="6" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="I167" s="5"/>
       <c r="J167" s="5"/>
@@ -10748,16 +10767,16 @@
         <v>567</v>
       </c>
       <c r="C168" s="26" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D168" s="29" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E168" s="6"/>
       <c r="F168" s="5"/>
       <c r="G168" s="5"/>
       <c r="H168" s="6" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="I168" s="5"/>
       <c r="J168" s="5"/>
@@ -10780,22 +10799,22 @@
     </row>
     <row r="169" spans="1:26" ht="13.5" customHeight="1">
       <c r="A169" s="6" t="s">
-        <v>433</v>
-      </c>
-      <c r="B169" s="5"/>
-      <c r="C169" s="6" t="s">
-        <v>434</v>
-      </c>
-      <c r="D169" s="11" t="s">
-        <v>435</v>
-      </c>
-      <c r="E169" s="6" t="s">
-        <v>289</v>
-      </c>
+        <v>376</v>
+      </c>
+      <c r="B169" s="26" t="s">
+        <v>567</v>
+      </c>
+      <c r="C169" s="26" t="s">
+        <v>572</v>
+      </c>
+      <c r="D169" s="29" t="s">
+        <v>577</v>
+      </c>
+      <c r="E169" s="6"/>
       <c r="F169" s="5"/>
       <c r="G169" s="5"/>
       <c r="H169" s="6" t="s">
-        <v>289</v>
+        <v>582</v>
       </c>
       <c r="I169" s="5"/>
       <c r="J169" s="5"/>
@@ -10817,26 +10836,24 @@
       <c r="Z169" s="3"/>
     </row>
     <row r="170" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A170" s="8" t="s">
-        <v>436</v>
-      </c>
-      <c r="B170" s="6" t="s">
-        <v>437</v>
-      </c>
+      <c r="A170" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="B170" s="5"/>
       <c r="C170" s="6" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="D170" s="11" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="E170" s="6" t="s">
-        <v>440</v>
-      </c>
-      <c r="F170" s="6" t="s">
-        <v>292</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="F170" s="5"/>
       <c r="G170" s="5"/>
-      <c r="H170" s="5"/>
+      <c r="H170" s="6" t="s">
+        <v>289</v>
+      </c>
       <c r="I170" s="5"/>
       <c r="J170" s="5"/>
       <c r="K170" s="5"/>
@@ -10864,13 +10881,13 @@
         <v>437</v>
       </c>
       <c r="C171" s="6" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="D171" s="11" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="E171" s="6" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="F171" s="6" t="s">
         <v>292</v>
@@ -10901,22 +10918,22 @@
         <v>436</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="C172" s="6" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="D172" s="11" t="s">
-        <v>445</v>
-      </c>
-      <c r="E172" s="5"/>
+        <v>442</v>
+      </c>
+      <c r="E172" s="6" t="s">
+        <v>443</v>
+      </c>
       <c r="F172" s="6" t="s">
-        <v>446</v>
+        <v>292</v>
       </c>
       <c r="G172" s="5"/>
-      <c r="H172" s="6" t="s">
-        <v>446</v>
-      </c>
+      <c r="H172" s="5"/>
       <c r="I172" s="5"/>
       <c r="J172" s="5"/>
       <c r="K172" s="5"/>
@@ -10941,23 +10958,21 @@
         <v>436</v>
       </c>
       <c r="B173" s="6" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="C173" s="6" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="D173" s="11" t="s">
-        <v>449</v>
-      </c>
-      <c r="E173" s="6" t="s">
-        <v>450</v>
-      </c>
+        <v>445</v>
+      </c>
+      <c r="E173" s="5"/>
       <c r="F173" s="6" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="G173" s="5"/>
       <c r="H173" s="6" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="I173" s="5"/>
       <c r="J173" s="5"/>
@@ -10986,20 +11001,20 @@
         <v>447</v>
       </c>
       <c r="C174" s="6" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="D174" s="11" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="E174" s="6" t="s">
-        <v>21</v>
+        <v>450</v>
       </c>
       <c r="F174" s="6" t="s">
-        <v>21</v>
+        <v>450</v>
       </c>
       <c r="G174" s="5"/>
       <c r="H174" s="6" t="s">
-        <v>21</v>
+        <v>450</v>
       </c>
       <c r="I174" s="5"/>
       <c r="J174" s="5"/>
@@ -11024,20 +11039,26 @@
       <c r="A175" s="8" t="s">
         <v>436</v>
       </c>
-      <c r="B175" s="5"/>
+      <c r="B175" s="6" t="s">
+        <v>447</v>
+      </c>
       <c r="C175" s="6" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D175" s="11" t="s">
-        <v>454</v>
-      </c>
-      <c r="E175" s="5"/>
-      <c r="F175" s="5"/>
+        <v>452</v>
+      </c>
+      <c r="E175" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F175" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="G175" s="5"/>
-      <c r="H175" s="5"/>
-      <c r="I175" s="6" t="s">
-        <v>455</v>
-      </c>
+      <c r="H175" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I175" s="5"/>
       <c r="J175" s="5"/>
       <c r="K175" s="5"/>
       <c r="L175" s="5"/>
@@ -11058,23 +11079,21 @@
     </row>
     <row r="176" spans="1:26" ht="13.5" customHeight="1">
       <c r="A176" s="8" t="s">
-        <v>456</v>
-      </c>
-      <c r="B176" s="8" t="s">
-        <v>457</v>
-      </c>
-      <c r="C176" s="8" t="s">
-        <v>458</v>
+        <v>436</v>
+      </c>
+      <c r="B176" s="5"/>
+      <c r="C176" s="6" t="s">
+        <v>453</v>
       </c>
       <c r="D176" s="11" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="E176" s="5"/>
       <c r="F176" s="5"/>
       <c r="G176" s="5"/>
       <c r="H176" s="5"/>
-      <c r="I176" s="8" t="s">
-        <v>460</v>
+      <c r="I176" s="6" t="s">
+        <v>455</v>
       </c>
       <c r="J176" s="5"/>
       <c r="K176" s="5"/>
@@ -11102,20 +11121,18 @@
         <v>457</v>
       </c>
       <c r="C177" s="8" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="D177" s="11" t="s">
-        <v>462</v>
-      </c>
-      <c r="E177" s="6" t="s">
-        <v>289</v>
-      </c>
+        <v>459</v>
+      </c>
+      <c r="E177" s="5"/>
       <c r="F177" s="5"/>
       <c r="G177" s="5"/>
-      <c r="H177" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="I177" s="5"/>
+      <c r="H177" s="5"/>
+      <c r="I177" s="8" t="s">
+        <v>460</v>
+      </c>
       <c r="J177" s="5"/>
       <c r="K177" s="5"/>
       <c r="L177" s="5"/>
@@ -11139,21 +11156,23 @@
         <v>456</v>
       </c>
       <c r="B178" s="8" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="C178" s="8" t="s">
-        <v>464</v>
-      </c>
-      <c r="D178" s="18" t="s">
-        <v>465</v>
-      </c>
-      <c r="E178" s="19"/>
-      <c r="F178" s="19"/>
-      <c r="G178" s="19"/>
-      <c r="H178" s="20"/>
-      <c r="I178" s="8" t="s">
-        <v>466</v>
-      </c>
+        <v>461</v>
+      </c>
+      <c r="D178" s="11" t="s">
+        <v>462</v>
+      </c>
+      <c r="E178" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="F178" s="5"/>
+      <c r="G178" s="5"/>
+      <c r="H178" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="I178" s="5"/>
       <c r="J178" s="5"/>
       <c r="K178" s="5"/>
       <c r="L178" s="5"/>
@@ -11180,20 +11199,18 @@
         <v>463</v>
       </c>
       <c r="C179" s="8" t="s">
-        <v>467</v>
-      </c>
-      <c r="D179" s="11" t="s">
-        <v>468</v>
-      </c>
-      <c r="E179" s="6" t="s">
-        <v>469</v>
-      </c>
-      <c r="F179" s="5"/>
-      <c r="G179" s="5"/>
-      <c r="H179" s="6" t="s">
-        <v>469</v>
-      </c>
-      <c r="I179" s="5"/>
+        <v>464</v>
+      </c>
+      <c r="D179" s="18" t="s">
+        <v>465</v>
+      </c>
+      <c r="E179" s="19"/>
+      <c r="F179" s="19"/>
+      <c r="G179" s="19"/>
+      <c r="H179" s="20"/>
+      <c r="I179" s="8" t="s">
+        <v>466</v>
+      </c>
       <c r="J179" s="5"/>
       <c r="K179" s="5"/>
       <c r="L179" s="5"/>
@@ -11217,20 +11234,22 @@
         <v>456</v>
       </c>
       <c r="B180" s="8" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="C180" s="8" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="D180" s="11" t="s">
-        <v>472</v>
-      </c>
-      <c r="E180" s="5"/>
-      <c r="F180" s="6" t="s">
-        <v>473</v>
-      </c>
+        <v>468</v>
+      </c>
+      <c r="E180" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="F180" s="5"/>
       <c r="G180" s="5"/>
-      <c r="H180" s="5"/>
+      <c r="H180" s="6" t="s">
+        <v>469</v>
+      </c>
       <c r="I180" s="5"/>
       <c r="J180" s="5"/>
       <c r="K180" s="5"/>
@@ -11258,14 +11277,14 @@
         <v>470</v>
       </c>
       <c r="C181" s="8" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="D181" s="11" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="E181" s="5"/>
       <c r="F181" s="6" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="G181" s="5"/>
       <c r="H181" s="5"/>
@@ -11296,14 +11315,14 @@
         <v>470</v>
       </c>
       <c r="C182" s="8" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D182" s="11" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="E182" s="5"/>
       <c r="F182" s="6" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="G182" s="5"/>
       <c r="H182" s="5"/>
@@ -11334,14 +11353,14 @@
         <v>470</v>
       </c>
       <c r="C183" s="8" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="D183" s="11" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="E183" s="5"/>
       <c r="F183" s="6" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="G183" s="5"/>
       <c r="H183" s="5"/>
@@ -11372,14 +11391,14 @@
         <v>470</v>
       </c>
       <c r="C184" s="8" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D184" s="11" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="E184" s="5"/>
       <c r="F184" s="6" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="G184" s="5"/>
       <c r="H184" s="5"/>
@@ -11410,14 +11429,14 @@
         <v>470</v>
       </c>
       <c r="C185" s="8" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="D185" s="11" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="E185" s="5"/>
       <c r="F185" s="6" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="G185" s="5"/>
       <c r="H185" s="5"/>
@@ -11448,14 +11467,14 @@
         <v>470</v>
       </c>
       <c r="C186" s="8" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="D186" s="11" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="E186" s="5"/>
       <c r="F186" s="6" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="G186" s="5"/>
       <c r="H186" s="5"/>
@@ -11486,14 +11505,14 @@
         <v>470</v>
       </c>
       <c r="C187" s="8" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="D187" s="11" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="E187" s="5"/>
       <c r="F187" s="6" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="G187" s="5"/>
       <c r="H187" s="5"/>
@@ -11524,14 +11543,14 @@
         <v>470</v>
       </c>
       <c r="C188" s="8" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="D188" s="11" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="E188" s="5"/>
       <c r="F188" s="6" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="G188" s="5"/>
       <c r="H188" s="5"/>
@@ -11562,14 +11581,14 @@
         <v>470</v>
       </c>
       <c r="C189" s="8" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="D189" s="11" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="E189" s="5"/>
       <c r="F189" s="6" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="G189" s="5"/>
       <c r="H189" s="5"/>
@@ -11600,14 +11619,14 @@
         <v>470</v>
       </c>
       <c r="C190" s="8" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="D190" s="11" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="E190" s="5"/>
       <c r="F190" s="6" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="G190" s="5"/>
       <c r="H190" s="5"/>
@@ -11638,14 +11657,14 @@
         <v>470</v>
       </c>
       <c r="C191" s="8" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="D191" s="11" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="E191" s="5"/>
       <c r="F191" s="6" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="G191" s="5"/>
       <c r="H191" s="5"/>
@@ -11676,14 +11695,14 @@
         <v>470</v>
       </c>
       <c r="C192" s="8" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="D192" s="11" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="E192" s="5"/>
       <c r="F192" s="6" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="G192" s="5"/>
       <c r="H192" s="5"/>
@@ -11711,20 +11730,20 @@
         <v>456</v>
       </c>
       <c r="B193" s="8" t="s">
-        <v>510</v>
+        <v>470</v>
       </c>
       <c r="C193" s="8" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="D193" s="11" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="E193" s="5"/>
-      <c r="F193" s="5"/>
+      <c r="F193" s="6" t="s">
+        <v>509</v>
+      </c>
       <c r="G193" s="5"/>
-      <c r="H193" s="5" t="s">
-        <v>513</v>
-      </c>
+      <c r="H193" s="5"/>
       <c r="I193" s="5"/>
       <c r="J193" s="5"/>
       <c r="K193" s="5"/>
@@ -11749,19 +11768,19 @@
         <v>456</v>
       </c>
       <c r="B194" s="8" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="C194" s="8" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="D194" s="11" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="E194" s="5"/>
       <c r="F194" s="5"/>
       <c r="G194" s="5"/>
       <c r="H194" s="5" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="I194" s="5"/>
       <c r="J194" s="5"/>
@@ -11790,16 +11809,16 @@
         <v>514</v>
       </c>
       <c r="C195" s="8" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="D195" s="11" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="E195" s="5"/>
       <c r="F195" s="5"/>
       <c r="G195" s="5"/>
       <c r="H195" s="5" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I195" s="5"/>
       <c r="J195" s="5"/>
@@ -11828,18 +11847,18 @@
         <v>514</v>
       </c>
       <c r="C196" s="8" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="D196" s="11" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="E196" s="5"/>
       <c r="F196" s="5"/>
       <c r="G196" s="5"/>
-      <c r="H196" s="5"/>
-      <c r="I196" s="6" t="s">
-        <v>523</v>
-      </c>
+      <c r="H196" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="I196" s="5"/>
       <c r="J196" s="5"/>
       <c r="K196" s="5"/>
       <c r="L196" s="5"/>
@@ -11860,21 +11879,23 @@
     </row>
     <row r="197" spans="1:26" ht="13.5" customHeight="1">
       <c r="A197" s="8" t="s">
-        <v>524</v>
-      </c>
-      <c r="B197" s="5"/>
+        <v>456</v>
+      </c>
+      <c r="B197" s="8" t="s">
+        <v>514</v>
+      </c>
       <c r="C197" s="8" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="D197" s="11" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="E197" s="5"/>
       <c r="F197" s="5"/>
       <c r="G197" s="5"/>
       <c r="H197" s="5"/>
       <c r="I197" s="6" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="J197" s="5"/>
       <c r="K197" s="5"/>
@@ -11900,20 +11921,18 @@
       </c>
       <c r="B198" s="5"/>
       <c r="C198" s="8" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="D198" s="11" t="s">
-        <v>529</v>
-      </c>
-      <c r="E198" s="5" t="s">
-        <v>530</v>
-      </c>
-      <c r="F198" s="5" t="s">
-        <v>530</v>
-      </c>
+        <v>526</v>
+      </c>
+      <c r="E198" s="5"/>
+      <c r="F198" s="5"/>
       <c r="G198" s="5"/>
       <c r="H198" s="5"/>
-      <c r="I198" s="5"/>
+      <c r="I198" s="6" t="s">
+        <v>527</v>
+      </c>
       <c r="J198" s="5"/>
       <c r="K198" s="5"/>
       <c r="L198" s="5"/>
@@ -11933,25 +11952,25 @@
       <c r="Z198" s="3"/>
     </row>
     <row r="199" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A199" s="6" t="s">
-        <v>531</v>
-      </c>
-      <c r="B199" s="33" t="s">
-        <v>599</v>
-      </c>
-      <c r="C199" s="39" t="s">
-        <v>600</v>
-      </c>
-      <c r="D199" s="27" t="s">
-        <v>602</v>
-      </c>
-      <c r="E199" s="5"/>
-      <c r="F199" s="5"/>
+      <c r="A199" s="8" t="s">
+        <v>524</v>
+      </c>
+      <c r="B199" s="5"/>
+      <c r="C199" s="8" t="s">
+        <v>528</v>
+      </c>
+      <c r="D199" s="11" t="s">
+        <v>529</v>
+      </c>
+      <c r="E199" s="5" t="s">
+        <v>530</v>
+      </c>
+      <c r="F199" s="5" t="s">
+        <v>530</v>
+      </c>
       <c r="G199" s="5"/>
       <c r="H199" s="5"/>
-      <c r="I199" s="5" t="s">
-        <v>595</v>
-      </c>
+      <c r="I199" s="5"/>
       <c r="J199" s="5"/>
       <c r="K199" s="5"/>
       <c r="L199" s="5"/>
@@ -11978,20 +11997,18 @@
         <v>599</v>
       </c>
       <c r="C200" s="39" t="s">
-        <v>601</v>
-      </c>
-      <c r="D200" s="11" t="s">
-        <v>603</v>
-      </c>
-      <c r="E200" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="F200" s="5" t="s">
-        <v>235</v>
-      </c>
+        <v>600</v>
+      </c>
+      <c r="D200" s="27" t="s">
+        <v>602</v>
+      </c>
+      <c r="E200" s="5"/>
+      <c r="F200" s="5"/>
       <c r="G200" s="5"/>
       <c r="H200" s="5"/>
-      <c r="I200" s="5"/>
+      <c r="I200" s="5" t="s">
+        <v>595</v>
+      </c>
       <c r="J200" s="5"/>
       <c r="K200" s="5"/>
       <c r="L200" s="5"/>
@@ -12014,20 +12031,24 @@
       <c r="A201" s="6" t="s">
         <v>531</v>
       </c>
-      <c r="B201" s="5"/>
-      <c r="C201" s="6" t="s">
-        <v>532</v>
+      <c r="B201" s="33" t="s">
+        <v>599</v>
+      </c>
+      <c r="C201" s="39" t="s">
+        <v>601</v>
       </c>
       <c r="D201" s="11" t="s">
-        <v>533</v>
-      </c>
-      <c r="E201" s="5"/>
-      <c r="F201" s="5"/>
+        <v>603</v>
+      </c>
+      <c r="E201" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="F201" s="5" t="s">
+        <v>235</v>
+      </c>
       <c r="G201" s="5"/>
       <c r="H201" s="5"/>
-      <c r="I201" s="6" t="s">
-        <v>534</v>
-      </c>
+      <c r="I201" s="5"/>
       <c r="J201" s="5"/>
       <c r="K201" s="5"/>
       <c r="L201" s="5"/>
@@ -12051,18 +12072,18 @@
         <v>531</v>
       </c>
       <c r="B202" s="5"/>
-      <c r="C202" s="8" t="s">
-        <v>535</v>
+      <c r="C202" s="6" t="s">
+        <v>532</v>
       </c>
       <c r="D202" s="11" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="E202" s="5"/>
       <c r="F202" s="5"/>
       <c r="G202" s="5"/>
       <c r="H202" s="5"/>
-      <c r="I202" s="8" t="s">
-        <v>537</v>
+      <c r="I202" s="6" t="s">
+        <v>534</v>
       </c>
       <c r="J202" s="5"/>
       <c r="K202" s="5"/>
@@ -12088,17 +12109,17 @@
       </c>
       <c r="B203" s="5"/>
       <c r="C203" s="8" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="D203" s="11" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="E203" s="5"/>
       <c r="F203" s="5"/>
       <c r="G203" s="5"/>
       <c r="H203" s="5"/>
-      <c r="I203" s="6" t="s">
-        <v>540</v>
+      <c r="I203" s="8" t="s">
+        <v>537</v>
       </c>
       <c r="J203" s="5"/>
       <c r="K203" s="5"/>
@@ -12123,18 +12144,18 @@
         <v>531</v>
       </c>
       <c r="B204" s="5"/>
-      <c r="C204" s="6" t="s">
-        <v>541</v>
+      <c r="C204" s="8" t="s">
+        <v>538</v>
       </c>
       <c r="D204" s="11" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="E204" s="5"/>
       <c r="F204" s="5"/>
       <c r="G204" s="5"/>
       <c r="H204" s="5"/>
       <c r="I204" s="6" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="J204" s="5"/>
       <c r="K204" s="5"/>
@@ -12160,18 +12181,18 @@
       </c>
       <c r="B205" s="5"/>
       <c r="C205" s="6" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="D205" s="11" t="s">
-        <v>545</v>
-      </c>
-      <c r="E205" s="6" t="s">
-        <v>546</v>
-      </c>
+        <v>542</v>
+      </c>
+      <c r="E205" s="5"/>
       <c r="F205" s="5"/>
       <c r="G205" s="5"/>
       <c r="H205" s="5"/>
-      <c r="I205" s="5"/>
+      <c r="I205" s="6" t="s">
+        <v>543</v>
+      </c>
       <c r="J205" s="5"/>
       <c r="K205" s="5"/>
       <c r="L205" s="5"/>
@@ -12191,23 +12212,23 @@
       <c r="Z205" s="3"/>
     </row>
     <row r="206" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A206" s="8" t="s">
-        <v>547</v>
+      <c r="A206" s="6" t="s">
+        <v>531</v>
       </c>
       <c r="B206" s="5"/>
-      <c r="C206" s="26" t="s">
-        <v>564</v>
-      </c>
-      <c r="D206" s="27" t="s">
-        <v>566</v>
-      </c>
-      <c r="E206" s="6"/>
+      <c r="C206" s="6" t="s">
+        <v>544</v>
+      </c>
+      <c r="D206" s="11" t="s">
+        <v>545</v>
+      </c>
+      <c r="E206" s="6" t="s">
+        <v>546</v>
+      </c>
       <c r="F206" s="5"/>
       <c r="G206" s="5"/>
       <c r="H206" s="5"/>
-      <c r="I206" s="5" t="s">
-        <v>565</v>
-      </c>
+      <c r="I206" s="5"/>
       <c r="J206" s="5"/>
       <c r="K206" s="5"/>
       <c r="L206" s="5"/>
@@ -12230,19 +12251,19 @@
       <c r="A207" s="8" t="s">
         <v>547</v>
       </c>
-      <c r="B207" s="4"/>
-      <c r="C207" s="21" t="s">
-        <v>548</v>
-      </c>
-      <c r="D207" s="22" t="s">
-        <v>549</v>
-      </c>
-      <c r="E207" s="4"/>
+      <c r="B207" s="5"/>
+      <c r="C207" s="26" t="s">
+        <v>564</v>
+      </c>
+      <c r="D207" s="27" t="s">
+        <v>566</v>
+      </c>
+      <c r="E207" s="6"/>
       <c r="F207" s="5"/>
       <c r="G207" s="5"/>
-      <c r="H207" s="4"/>
-      <c r="I207" s="6" t="s">
-        <v>550</v>
+      <c r="H207" s="5"/>
+      <c r="I207" s="5" t="s">
+        <v>565</v>
       </c>
       <c r="J207" s="5"/>
       <c r="K207" s="5"/>
@@ -12267,18 +12288,18 @@
         <v>547</v>
       </c>
       <c r="B208" s="4"/>
-      <c r="C208" s="8" t="s">
-        <v>551</v>
-      </c>
-      <c r="D208" s="9" t="s">
-        <v>552</v>
+      <c r="C208" s="21" t="s">
+        <v>548</v>
+      </c>
+      <c r="D208" s="22" t="s">
+        <v>549</v>
       </c>
       <c r="E208" s="4"/>
       <c r="F208" s="5"/>
       <c r="G208" s="5"/>
       <c r="H208" s="4"/>
       <c r="I208" s="6" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="J208" s="5"/>
       <c r="K208" s="5"/>
@@ -12304,17 +12325,17 @@
       </c>
       <c r="B209" s="4"/>
       <c r="C209" s="8" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="D209" s="9" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="E209" s="4"/>
       <c r="F209" s="5"/>
       <c r="G209" s="5"/>
       <c r="H209" s="4"/>
       <c r="I209" s="6" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="J209" s="5"/>
       <c r="K209" s="5"/>
@@ -12336,21 +12357,21 @@
     </row>
     <row r="210" spans="1:26" ht="13.5" customHeight="1">
       <c r="A210" s="8" t="s">
-        <v>557</v>
-      </c>
-      <c r="B210" s="5"/>
-      <c r="C210" s="6" t="s">
-        <v>558</v>
-      </c>
-      <c r="D210" s="11" t="s">
-        <v>559</v>
-      </c>
-      <c r="E210" s="5"/>
+        <v>547</v>
+      </c>
+      <c r="B210" s="4"/>
+      <c r="C210" s="8" t="s">
+        <v>554</v>
+      </c>
+      <c r="D210" s="9" t="s">
+        <v>555</v>
+      </c>
+      <c r="E210" s="4"/>
       <c r="F210" s="5"/>
       <c r="G210" s="5"/>
-      <c r="H210" s="5"/>
+      <c r="H210" s="4"/>
       <c r="I210" s="6" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="J210" s="5"/>
       <c r="K210" s="5"/>
@@ -12376,17 +12397,17 @@
       </c>
       <c r="B211" s="5"/>
       <c r="C211" s="6" t="s">
-        <v>561</v>
-      </c>
-      <c r="D211" s="32" t="s">
-        <v>562</v>
+        <v>558</v>
+      </c>
+      <c r="D211" s="11" t="s">
+        <v>559</v>
       </c>
       <c r="E211" s="5"/>
       <c r="F211" s="5"/>
       <c r="G211" s="5"/>
       <c r="H211" s="5"/>
       <c r="I211" s="6" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="J211" s="5"/>
       <c r="K211" s="5"/>
@@ -12407,22 +12428,22 @@
       <c r="Z211" s="3"/>
     </row>
     <row r="212" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A212" s="23" t="s">
-        <v>597</v>
-      </c>
-      <c r="B212" s="30"/>
-      <c r="C212" s="36" t="s">
-        <v>587</v>
-      </c>
-      <c r="D212" s="37" t="s">
-        <v>590</v>
-      </c>
-      <c r="E212" s="31"/>
+      <c r="A212" s="8" t="s">
+        <v>557</v>
+      </c>
+      <c r="B212" s="5"/>
+      <c r="C212" s="6" t="s">
+        <v>561</v>
+      </c>
+      <c r="D212" s="32" t="s">
+        <v>562</v>
+      </c>
+      <c r="E212" s="5"/>
       <c r="F212" s="5"/>
       <c r="G212" s="5"/>
       <c r="H212" s="5"/>
       <c r="I212" s="6" t="s">
-        <v>583</v>
+        <v>563</v>
       </c>
       <c r="J212" s="5"/>
       <c r="K212" s="5"/>
@@ -12446,19 +12467,19 @@
       <c r="A213" s="23" t="s">
         <v>597</v>
       </c>
-      <c r="B213" s="33"/>
-      <c r="C213" s="38" t="s">
-        <v>598</v>
-      </c>
-      <c r="D213" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="E213" s="4"/>
-      <c r="F213" s="16"/>
-      <c r="G213" s="16"/>
-      <c r="H213" s="4"/>
+      <c r="B213" s="30"/>
+      <c r="C213" s="36" t="s">
+        <v>587</v>
+      </c>
+      <c r="D213" s="37" t="s">
+        <v>590</v>
+      </c>
+      <c r="E213" s="31"/>
+      <c r="F213" s="5"/>
+      <c r="G213" s="5"/>
+      <c r="H213" s="5"/>
       <c r="I213" s="6" t="s">
-        <v>225</v>
+        <v>583</v>
       </c>
       <c r="J213" s="5"/>
       <c r="K213" s="5"/>
@@ -12483,18 +12504,18 @@
         <v>597</v>
       </c>
       <c r="B214" s="33"/>
-      <c r="C214" s="25" t="s">
-        <v>584</v>
-      </c>
-      <c r="D214" s="24" t="s">
-        <v>593</v>
-      </c>
-      <c r="E214" s="5"/>
-      <c r="F214" s="5"/>
-      <c r="G214" s="5"/>
-      <c r="H214" s="5"/>
-      <c r="I214" s="5" t="s">
-        <v>595</v>
+      <c r="C214" s="38" t="s">
+        <v>598</v>
+      </c>
+      <c r="D214" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="E214" s="4"/>
+      <c r="F214" s="16"/>
+      <c r="G214" s="16"/>
+      <c r="H214" s="4"/>
+      <c r="I214" s="6" t="s">
+        <v>225</v>
       </c>
       <c r="J214" s="5"/>
       <c r="K214" s="5"/>
@@ -12518,19 +12539,19 @@
       <c r="A215" s="23" t="s">
         <v>597</v>
       </c>
-      <c r="B215" s="30"/>
-      <c r="C215" s="34" t="s">
-        <v>210</v>
-      </c>
-      <c r="D215" s="35" t="s">
-        <v>211</v>
-      </c>
-      <c r="E215" s="4"/>
-      <c r="F215" s="16"/>
-      <c r="G215" s="16"/>
-      <c r="H215" s="4"/>
-      <c r="I215" s="6" t="s">
-        <v>212</v>
+      <c r="B215" s="33"/>
+      <c r="C215" s="25" t="s">
+        <v>584</v>
+      </c>
+      <c r="D215" s="24" t="s">
+        <v>593</v>
+      </c>
+      <c r="E215" s="5"/>
+      <c r="F215" s="5"/>
+      <c r="G215" s="5"/>
+      <c r="H215" s="5"/>
+      <c r="I215" s="5" t="s">
+        <v>595</v>
       </c>
       <c r="J215" s="5"/>
       <c r="K215" s="5"/>
@@ -12555,18 +12576,18 @@
         <v>597</v>
       </c>
       <c r="B216" s="30"/>
-      <c r="C216" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="D216" s="9" t="s">
-        <v>215</v>
+      <c r="C216" s="34" t="s">
+        <v>210</v>
+      </c>
+      <c r="D216" s="35" t="s">
+        <v>211</v>
       </c>
       <c r="E216" s="4"/>
       <c r="F216" s="16"/>
       <c r="G216" s="16"/>
       <c r="H216" s="4"/>
       <c r="I216" s="6" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="J216" s="5"/>
       <c r="K216" s="5"/>
@@ -12590,21 +12611,19 @@
       <c r="A217" s="23" t="s">
         <v>597</v>
       </c>
-      <c r="B217" s="30" t="s">
-        <v>588</v>
-      </c>
-      <c r="C217" s="25" t="s">
-        <v>585</v>
-      </c>
-      <c r="D217" s="24" t="s">
-        <v>592</v>
-      </c>
-      <c r="E217" s="5"/>
-      <c r="F217" s="5"/>
-      <c r="G217" s="5"/>
-      <c r="H217" s="5"/>
-      <c r="I217" s="5" t="s">
-        <v>266</v>
+      <c r="B217" s="30"/>
+      <c r="C217" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="D217" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="E217" s="4"/>
+      <c r="F217" s="16"/>
+      <c r="G217" s="16"/>
+      <c r="H217" s="4"/>
+      <c r="I217" s="6" t="s">
+        <v>216</v>
       </c>
       <c r="J217" s="5"/>
       <c r="K217" s="5"/>
@@ -12632,17 +12651,17 @@
         <v>588</v>
       </c>
       <c r="C218" s="25" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D218" s="24" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="E218" s="5"/>
       <c r="F218" s="5"/>
       <c r="G218" s="5"/>
       <c r="H218" s="5"/>
       <c r="I218" s="5" t="s">
-        <v>33</v>
+        <v>266</v>
       </c>
       <c r="J218" s="5"/>
       <c r="K218" s="5"/>
@@ -12670,17 +12689,17 @@
         <v>588</v>
       </c>
       <c r="C219" s="25" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="D219" s="24" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="E219" s="5"/>
       <c r="F219" s="5"/>
       <c r="G219" s="5"/>
       <c r="H219" s="5"/>
       <c r="I219" s="5" t="s">
-        <v>596</v>
+        <v>33</v>
       </c>
       <c r="J219" s="5"/>
       <c r="K219" s="5"/>
@@ -12701,15 +12720,25 @@
       <c r="Z219" s="3"/>
     </row>
     <row r="220" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A220" s="5"/>
-      <c r="B220" s="5"/>
-      <c r="C220" s="5"/>
-      <c r="D220" s="5"/>
+      <c r="A220" s="23" t="s">
+        <v>597</v>
+      </c>
+      <c r="B220" s="30" t="s">
+        <v>588</v>
+      </c>
+      <c r="C220" s="25" t="s">
+        <v>589</v>
+      </c>
+      <c r="D220" s="24" t="s">
+        <v>591</v>
+      </c>
       <c r="E220" s="5"/>
       <c r="F220" s="5"/>
       <c r="G220" s="5"/>
       <c r="H220" s="5"/>
-      <c r="I220" s="5"/>
+      <c r="I220" s="5" t="s">
+        <v>596</v>
+      </c>
       <c r="J220" s="5"/>
       <c r="K220" s="5"/>
       <c r="L220" s="5"/>
@@ -17936,7 +17965,34 @@
       <c r="Y406" s="3"/>
       <c r="Z406" s="3"/>
     </row>
-    <row r="407" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="407" spans="1:26" ht="13.5" customHeight="1">
+      <c r="A407" s="5"/>
+      <c r="B407" s="5"/>
+      <c r="C407" s="5"/>
+      <c r="D407" s="5"/>
+      <c r="E407" s="5"/>
+      <c r="F407" s="5"/>
+      <c r="G407" s="5"/>
+      <c r="H407" s="5"/>
+      <c r="I407" s="5"/>
+      <c r="J407" s="5"/>
+      <c r="K407" s="5"/>
+      <c r="L407" s="5"/>
+      <c r="M407" s="6"/>
+      <c r="N407" s="3"/>
+      <c r="O407" s="3"/>
+      <c r="P407" s="3"/>
+      <c r="Q407" s="3"/>
+      <c r="R407" s="3"/>
+      <c r="S407" s="3"/>
+      <c r="T407" s="3"/>
+      <c r="U407" s="3"/>
+      <c r="V407" s="3"/>
+      <c r="W407" s="3"/>
+      <c r="X407" s="3"/>
+      <c r="Y407" s="3"/>
+      <c r="Z407" s="3"/>
+    </row>
     <row r="408" spans="1:26" ht="15.75" customHeight="1"/>
     <row r="409" spans="1:26" ht="15.75" customHeight="1"/>
     <row r="410" spans="1:26" ht="15.75" customHeight="1"/>
@@ -18533,6 +18589,7 @@
     <row r="1001" ht="15.75" customHeight="1"/>
     <row r="1002" ht="15.75" customHeight="1"/>
     <row r="1003" ht="15.75" customHeight="1"/>
+    <row r="1004" ht="15.75" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="13"/>
   <hyperlinks>
@@ -18541,207 +18598,207 @@
     <hyperlink ref="D4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
     <hyperlink ref="D5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
     <hyperlink ref="D6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="D7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="D8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="D9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="D10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="D11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="D12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="D13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="D14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="D15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="D16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="D17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="D18" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="D19" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="D20" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="D21" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="D22" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="D23" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="D24" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="D25" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="D26" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="D27" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="D28" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="D29" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="D30" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="D31" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="D32" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="D33" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="D34" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="D35" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="D36" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="D37" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="D38" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="D39" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="D40" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="D41" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="D42" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="D43" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="D44" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="D45" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="D46" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="D47" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="D48" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="D49" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="D50" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="D51" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="D52" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="D53" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="D54" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="D55" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="D56" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="D57" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="D58" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="D59" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="D60" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="D61" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="D62" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="D63" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="D64" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="D65" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="D66" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="D67" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="D68" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="D69" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="D70" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="D71" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="D72" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="D73" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="D74" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="D75" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="D76" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="D77" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="D78" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="D79" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="D80" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="D81" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="D82" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="D83" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="D84" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="D85" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="D86" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="D87" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="D88" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="D89" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="D90" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="D91" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="D92" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="D93" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="D94" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="D95" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="D96" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="D97" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="D98" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="D99" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="D100" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="D101" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="D102" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="D103" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
-    <hyperlink ref="D104" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
-    <hyperlink ref="D105" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="D106" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
-    <hyperlink ref="D107" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="D108" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
-    <hyperlink ref="D109" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
-    <hyperlink ref="D110" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
-    <hyperlink ref="D111" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="D112" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
-    <hyperlink ref="D113" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
-    <hyperlink ref="D114" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
-    <hyperlink ref="D115" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-    <hyperlink ref="D116" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
-    <hyperlink ref="D117" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
-    <hyperlink ref="D118" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
-    <hyperlink ref="D119" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
-    <hyperlink ref="D120" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
-    <hyperlink ref="D121" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
-    <hyperlink ref="D122" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
-    <hyperlink ref="D123" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
-    <hyperlink ref="D124" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
-    <hyperlink ref="D125" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
-    <hyperlink ref="D126" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
-    <hyperlink ref="D127" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
-    <hyperlink ref="D128" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
-    <hyperlink ref="D129" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
-    <hyperlink ref="D130" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
-    <hyperlink ref="D131" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
-    <hyperlink ref="D132" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
-    <hyperlink ref="D133" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
-    <hyperlink ref="D134" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
-    <hyperlink ref="D135" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
-    <hyperlink ref="D136" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
-    <hyperlink ref="D137" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
-    <hyperlink ref="D138" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
-    <hyperlink ref="D139" r:id="rId138" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
-    <hyperlink ref="D140" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
-    <hyperlink ref="D141" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
-    <hyperlink ref="D142" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
-    <hyperlink ref="D143" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
-    <hyperlink ref="D144" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
-    <hyperlink ref="D145" r:id="rId144" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
-    <hyperlink ref="D151" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
-    <hyperlink ref="D152" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
-    <hyperlink ref="D153" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
-    <hyperlink ref="D154" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
-    <hyperlink ref="D155" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
-    <hyperlink ref="D156" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
-    <hyperlink ref="D157" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
-    <hyperlink ref="D158" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
-    <hyperlink ref="D159" r:id="rId153" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
-    <hyperlink ref="D160" r:id="rId154" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
-    <hyperlink ref="D161" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
-    <hyperlink ref="D162" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
-    <hyperlink ref="D163" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
-    <hyperlink ref="D169" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
-    <hyperlink ref="D170" r:id="rId159" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
-    <hyperlink ref="D171" r:id="rId160" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
-    <hyperlink ref="D172" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
-    <hyperlink ref="D173" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
-    <hyperlink ref="D174" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
-    <hyperlink ref="D175" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
-    <hyperlink ref="D176" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
-    <hyperlink ref="D177" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
-    <hyperlink ref="D178" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
-    <hyperlink ref="D179" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
-    <hyperlink ref="D180" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
-    <hyperlink ref="D181" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
-    <hyperlink ref="D182" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
-    <hyperlink ref="D183" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
-    <hyperlink ref="D184" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
-    <hyperlink ref="D185" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
-    <hyperlink ref="D186" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
-    <hyperlink ref="D187" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
-    <hyperlink ref="D188" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
-    <hyperlink ref="D189" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
-    <hyperlink ref="D190" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
-    <hyperlink ref="D191" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
-    <hyperlink ref="D192" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
-    <hyperlink ref="D193" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
-    <hyperlink ref="D194" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
-    <hyperlink ref="D195" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
-    <hyperlink ref="D196" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
-    <hyperlink ref="D197" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
-    <hyperlink ref="D198" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
-    <hyperlink ref="D201" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
-    <hyperlink ref="D202" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
-    <hyperlink ref="D203" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
-    <hyperlink ref="D204" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
-    <hyperlink ref="D205" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
-    <hyperlink ref="D207" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
-    <hyperlink ref="D208" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
-    <hyperlink ref="D209" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
-    <hyperlink ref="D210" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
-    <hyperlink ref="D211" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
-    <hyperlink ref="D206" r:id="rId198" xr:uid="{FB5BD734-C92C-4DCB-AC83-E67BDA12DFF4}"/>
-    <hyperlink ref="D164" r:id="rId199" xr:uid="{E6F63535-7CB0-4B0A-8A9B-2FF45193FA31}"/>
-    <hyperlink ref="D165" r:id="rId200" xr:uid="{23618A7F-70F1-429D-A989-04E42D5219C5}"/>
-    <hyperlink ref="D167" r:id="rId201" xr:uid="{A61CFECD-5D13-489A-855F-076420E34CFD}"/>
-    <hyperlink ref="D168" r:id="rId202" xr:uid="{6EDE7FBD-C182-4315-93DC-5FE3983DF025}"/>
-    <hyperlink ref="D213" r:id="rId203" xr:uid="{511CA28D-F4D7-4764-8143-3595BDCD915C}"/>
-    <hyperlink ref="D216" r:id="rId204" xr:uid="{F41BCF05-CC73-422D-8893-0B9A8DAAA427}"/>
-    <hyperlink ref="D215" r:id="rId205" xr:uid="{F8CC161C-3698-4455-AE50-3DBD3D45797B}"/>
-    <hyperlink ref="D199" r:id="rId206" xr:uid="{A977DA69-CFBF-424F-9188-8963A505EF10}"/>
+    <hyperlink ref="D8" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="D9" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="D10" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="D11" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="D12" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="D13" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="D14" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="D15" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="D16" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="D17" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="D18" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="D19" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="D20" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="D21" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="D22" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="D23" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="D24" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="D25" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="D26" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="D27" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="D28" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="D29" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="D30" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="D31" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="D32" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="D33" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="D34" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="D35" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="D36" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="D37" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="D38" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="D39" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="D40" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="D41" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="D42" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="D43" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="D44" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="D45" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="D46" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="D47" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="D48" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="D49" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="D50" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="D51" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="D52" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="D53" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="D54" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="D55" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="D56" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="D57" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="D58" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="D59" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="D60" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="D61" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="D62" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="D63" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="D64" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="D65" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="D66" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="D67" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="D68" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="D69" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="D70" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="D71" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="D72" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="D73" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="D74" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="D75" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="D76" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="D77" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="D78" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="D79" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="D80" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="D81" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="D82" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="D83" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="D84" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="D85" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="D86" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="D87" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="D88" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="D89" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="D90" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="D91" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="D92" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="D93" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="D94" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="D95" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="D96" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="D97" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="D98" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="D99" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="D100" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="D101" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="D102" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="D103" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="D104" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="D105" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="D106" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="D107" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="D108" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="D109" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="D110" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="D111" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="D112" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="D113" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="D114" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="D115" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="D116" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="D117" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="D118" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="D119" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="D120" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="D121" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="D122" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="D123" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="D124" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="D125" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="D126" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="D127" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="D128" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="D129" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="D130" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="D131" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="D132" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="D133" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="D134" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="D135" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="D136" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
+    <hyperlink ref="D137" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="D138" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="D139" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="D140" r:id="rId138" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="D141" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="D142" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="D143" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="D144" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="D145" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="D146" r:id="rId144" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="D152" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="D153" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="D154" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="D155" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="D156" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="D157" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="D158" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="D159" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
+    <hyperlink ref="D160" r:id="rId153" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
+    <hyperlink ref="D161" r:id="rId154" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
+    <hyperlink ref="D162" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
+    <hyperlink ref="D163" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
+    <hyperlink ref="D164" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
+    <hyperlink ref="D170" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
+    <hyperlink ref="D171" r:id="rId159" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
+    <hyperlink ref="D172" r:id="rId160" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
+    <hyperlink ref="D173" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
+    <hyperlink ref="D174" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
+    <hyperlink ref="D175" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
+    <hyperlink ref="D176" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
+    <hyperlink ref="D177" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
+    <hyperlink ref="D178" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
+    <hyperlink ref="D179" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
+    <hyperlink ref="D180" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
+    <hyperlink ref="D181" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
+    <hyperlink ref="D182" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
+    <hyperlink ref="D183" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
+    <hyperlink ref="D184" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
+    <hyperlink ref="D185" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
+    <hyperlink ref="D186" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
+    <hyperlink ref="D187" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
+    <hyperlink ref="D188" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
+    <hyperlink ref="D189" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
+    <hyperlink ref="D190" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
+    <hyperlink ref="D191" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
+    <hyperlink ref="D192" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
+    <hyperlink ref="D193" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
+    <hyperlink ref="D194" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
+    <hyperlink ref="D195" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
+    <hyperlink ref="D196" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
+    <hyperlink ref="D197" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
+    <hyperlink ref="D198" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
+    <hyperlink ref="D199" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
+    <hyperlink ref="D202" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
+    <hyperlink ref="D203" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
+    <hyperlink ref="D204" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
+    <hyperlink ref="D205" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
+    <hyperlink ref="D206" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
+    <hyperlink ref="D208" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
+    <hyperlink ref="D209" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
+    <hyperlink ref="D210" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
+    <hyperlink ref="D211" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
+    <hyperlink ref="D212" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
+    <hyperlink ref="D207" r:id="rId198" xr:uid="{FB5BD734-C92C-4DCB-AC83-E67BDA12DFF4}"/>
+    <hyperlink ref="D165" r:id="rId199" xr:uid="{E6F63535-7CB0-4B0A-8A9B-2FF45193FA31}"/>
+    <hyperlink ref="D166" r:id="rId200" xr:uid="{23618A7F-70F1-429D-A989-04E42D5219C5}"/>
+    <hyperlink ref="D168" r:id="rId201" xr:uid="{A61CFECD-5D13-489A-855F-076420E34CFD}"/>
+    <hyperlink ref="D169" r:id="rId202" xr:uid="{6EDE7FBD-C182-4315-93DC-5FE3983DF025}"/>
+    <hyperlink ref="D214" r:id="rId203" xr:uid="{511CA28D-F4D7-4764-8143-3595BDCD915C}"/>
+    <hyperlink ref="D217" r:id="rId204" xr:uid="{F41BCF05-CC73-422D-8893-0B9A8DAAA427}"/>
+    <hyperlink ref="D216" r:id="rId205" xr:uid="{F8CC161C-3698-4455-AE50-3DBD3D45797B}"/>
+    <hyperlink ref="D200" r:id="rId206" xr:uid="{A977DA69-CFBF-424F-9188-8963A505EF10}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <headerFooter>

--- a/メニュー/メニュー.xlsx
+++ b/メニュー/メニュー.xlsx
@@ -5,22 +5,35 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\vm22flo01\DownloadFiles\DX推進課\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\06607\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{255D3A01-484F-47C5-B20E-77AF40123751}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C3E420F-7359-4E0F-BBDE-0BD19D361ED7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="メニュー構造" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1119" uniqueCount="608">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1139" uniqueCount="620">
   <si>
     <t>大カテゴリー</t>
   </si>
@@ -3685,13 +3698,6 @@
     <phoneticPr fontId="13"/>
   </si>
   <si>
-    <t>小泉八雲マップ（ばけばけ）</t>
-    <rPh sb="0" eb="4">
-      <t>コイズミヤクモ</t>
-    </rPh>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
     <t>小泉八雲ゆかりの地</t>
     <rPh sb="0" eb="4">
       <t>コイズミヤクモ</t>
@@ -3738,6 +3744,52 @@
       <t>イド</t>
     </rPh>
     <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>ミナミマグロ</t>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>サクラエビ</t>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>シラス</t>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>サバ</t>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>カツオ</t>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>fish</t>
+  </si>
+  <si>
+    <t>https://yaizu-smartcity.jp/tiles/%E7%84%BC%E6%B4%A5%E6%B5%B7%E3%81%AE%E5%B9%B8%E3%82%B0%E3%83%AB%E3%83%A1%E3%83%9E%E3%83%83%E3%83%97_%E3%82%AB%E3%83%84%E3%82%AA/tiles.json</t>
+  </si>
+  <si>
+    <t>https://yaizu-smartcity.jp/tiles/%E7%84%BC%E6%B4%A5%E6%B5%B7%E3%81%AE%E5%B9%B8%E3%82%B0%E3%83%AB%E3%83%A1%E3%83%9E%E3%83%83%E3%83%97_%E3%82%B5%E3%82%AF%E3%83%A9%E3%82%A8%E3%83%93/tiles.json</t>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>https://yaizu-smartcity.jp/tiles/%E7%84%BC%E6%B4%A5%E6%B5%B7%E3%81%AE%E5%B9%B8%E3%82%B0%E3%83%AB%E3%83%A1%E3%83%9E%E3%83%83%E3%83%97_%E3%82%B5%E3%83%90/tiles.json</t>
+  </si>
+  <si>
+    <t>https://yaizu-smartcity.jp/tiles/%E7%84%BC%E6%B4%A5%E6%B5%B7%E3%81%AE%E5%B9%B8%E3%82%B0%E3%83%AB%E3%83%A1%E3%83%9E%E3%83%83%E3%83%97_%E3%82%B7%E3%83%A9%E3%82%B9/tiles.json</t>
+  </si>
+  <si>
+    <t>https://yaizu-smartcity.jp/tiles/%E7%84%BC%E6%B4%A5%E6%B5%B7%E3%81%AE%E5%B9%B8%E3%82%B0%E3%83%AB%E3%83%A1%E3%83%9E%E3%83%83%E3%83%97_%E3%83%9F%E3%83%8A%E3%83%9F%E3%83%9E%E3%82%B0%E3%83%AD/tiles.json</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	#1E90FF</t>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>小泉八雲ゆかりの地</t>
   </si>
 </sst>
 </file>
@@ -4022,7 +4074,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4118,6 +4170,7 @@
     <xf numFmtId="49" fontId="17" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="14" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -4337,13 +4390,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Z1004"/>
+  <dimension ref="A1:Z1009"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="F192" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomRight" activeCell="C205" sqref="C205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -4373,10 +4426,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>4</v>
@@ -4607,18 +4660,18 @@
         <v>15</v>
       </c>
       <c r="C7" s="40" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="10" t="s">
-        <v>27</v>
-      </c>
+      <c r="H7" s="4" t="s">
+        <v>618</v>
+      </c>
+      <c r="I7" s="10"/>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
@@ -7943,21 +7996,19 @@
       <c r="A95" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="B95" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="C95" s="8" t="s">
-        <v>214</v>
+      <c r="B95" s="5"/>
+      <c r="C95" s="26" t="s">
+        <v>607</v>
       </c>
       <c r="D95" s="9" t="s">
-        <v>215</v>
+        <v>617</v>
       </c>
       <c r="E95" s="4"/>
       <c r="F95" s="16"/>
       <c r="G95" s="16"/>
       <c r="H95" s="4"/>
       <c r="I95" s="6" t="s">
-        <v>216</v>
+        <v>612</v>
       </c>
       <c r="J95" s="5"/>
       <c r="K95" s="5"/>
@@ -7981,21 +8032,19 @@
       <c r="A96" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="B96" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="C96" s="8" t="s">
-        <v>217</v>
+      <c r="B96" s="5"/>
+      <c r="C96" s="26" t="s">
+        <v>611</v>
       </c>
       <c r="D96" s="9" t="s">
-        <v>218</v>
+        <v>613</v>
       </c>
       <c r="E96" s="4"/>
-      <c r="F96" s="5"/>
+      <c r="F96" s="16"/>
       <c r="G96" s="16"/>
       <c r="H96" s="4"/>
       <c r="I96" s="6" t="s">
-        <v>219</v>
+        <v>612</v>
       </c>
       <c r="J96" s="5"/>
       <c r="K96" s="5"/>
@@ -8019,19 +8068,19 @@
       <c r="A97" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="B97" s="4"/>
-      <c r="C97" s="8" t="s">
-        <v>220</v>
+      <c r="B97" s="5"/>
+      <c r="C97" s="26" t="s">
+        <v>610</v>
       </c>
       <c r="D97" s="9" t="s">
-        <v>221</v>
+        <v>615</v>
       </c>
       <c r="E97" s="4"/>
       <c r="F97" s="16"/>
       <c r="G97" s="16"/>
       <c r="H97" s="4"/>
       <c r="I97" s="6" t="s">
-        <v>222</v>
+        <v>612</v>
       </c>
       <c r="J97" s="5"/>
       <c r="K97" s="5"/>
@@ -8055,19 +8104,19 @@
       <c r="A98" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="B98" s="4"/>
-      <c r="C98" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="D98" s="9" t="s">
-        <v>224</v>
+      <c r="B98" s="5"/>
+      <c r="C98" s="26" t="s">
+        <v>608</v>
+      </c>
+      <c r="D98" s="41" t="s">
+        <v>614</v>
       </c>
       <c r="E98" s="4"/>
       <c r="F98" s="16"/>
       <c r="G98" s="16"/>
       <c r="H98" s="4"/>
       <c r="I98" s="6" t="s">
-        <v>225</v>
+        <v>612</v>
       </c>
       <c r="J98" s="5"/>
       <c r="K98" s="5"/>
@@ -8091,19 +8140,19 @@
       <c r="A99" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="B99" s="4"/>
-      <c r="C99" s="8" t="s">
-        <v>226</v>
+      <c r="B99" s="5"/>
+      <c r="C99" s="26" t="s">
+        <v>609</v>
       </c>
       <c r="D99" s="9" t="s">
-        <v>227</v>
+        <v>616</v>
       </c>
       <c r="E99" s="4"/>
       <c r="F99" s="16"/>
       <c r="G99" s="16"/>
       <c r="H99" s="4"/>
       <c r="I99" s="6" t="s">
-        <v>228</v>
+        <v>612</v>
       </c>
       <c r="J99" s="5"/>
       <c r="K99" s="5"/>
@@ -8128,20 +8177,20 @@
         <v>209</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="D100" s="9" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
       <c r="E100" s="4"/>
       <c r="F100" s="16"/>
       <c r="G100" s="16"/>
       <c r="H100" s="4"/>
-      <c r="I100" s="8" t="s">
-        <v>232</v>
+      <c r="I100" s="6" t="s">
+        <v>216</v>
       </c>
       <c r="J100" s="5"/>
       <c r="K100" s="5"/>
@@ -8161,26 +8210,26 @@
       <c r="Y100" s="3"/>
       <c r="Z100" s="3"/>
     </row>
-    <row r="101" spans="1:26" ht="15" customHeight="1">
+    <row r="101" spans="1:26" ht="13.5" customHeight="1">
       <c r="A101" s="8" t="s">
         <v>209</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="D101" s="9" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="E101" s="4"/>
       <c r="F101" s="5"/>
-      <c r="G101" s="5"/>
-      <c r="H101" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="I101" s="5"/>
+      <c r="G101" s="16"/>
+      <c r="H101" s="4"/>
+      <c r="I101" s="6" t="s">
+        <v>219</v>
+      </c>
       <c r="J101" s="5"/>
       <c r="K101" s="5"/>
       <c r="L101" s="5"/>
@@ -8203,19 +8252,19 @@
       <c r="A102" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="B102" s="5"/>
+      <c r="B102" s="4"/>
       <c r="C102" s="8" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
       <c r="D102" s="9" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c r="E102" s="4"/>
       <c r="F102" s="16"/>
       <c r="G102" s="16"/>
       <c r="H102" s="4"/>
       <c r="I102" s="6" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="J102" s="5"/>
       <c r="K102" s="5"/>
@@ -8239,20 +8288,20 @@
       <c r="A103" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="B103" s="5"/>
+      <c r="B103" s="4"/>
       <c r="C103" s="8" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="D103" s="9" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="E103" s="4"/>
-      <c r="F103" s="5"/>
-      <c r="G103" s="5"/>
-      <c r="H103" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="I103" s="5"/>
+      <c r="F103" s="16"/>
+      <c r="G103" s="16"/>
+      <c r="H103" s="4"/>
+      <c r="I103" s="6" t="s">
+        <v>225</v>
+      </c>
       <c r="J103" s="5"/>
       <c r="K103" s="5"/>
       <c r="L103" s="5"/>
@@ -8271,26 +8320,24 @@
       <c r="Y103" s="3"/>
       <c r="Z103" s="3"/>
     </row>
-    <row r="104" spans="1:26" ht="12.75" customHeight="1">
+    <row r="104" spans="1:26" ht="13.5" customHeight="1">
       <c r="A104" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="B104" s="8" t="s">
-        <v>242</v>
-      </c>
+      <c r="B104" s="4"/>
       <c r="C104" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="D104" s="11" t="s">
-        <v>244</v>
-      </c>
-      <c r="E104" s="5"/>
-      <c r="F104" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="G104" s="5"/>
-      <c r="H104" s="5"/>
-      <c r="I104" s="5"/>
+        <v>226</v>
+      </c>
+      <c r="D104" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="E104" s="4"/>
+      <c r="F104" s="16"/>
+      <c r="G104" s="16"/>
+      <c r="H104" s="4"/>
+      <c r="I104" s="6" t="s">
+        <v>228</v>
+      </c>
       <c r="J104" s="5"/>
       <c r="K104" s="5"/>
       <c r="L104" s="5"/>
@@ -8309,26 +8356,26 @@
       <c r="Y104" s="3"/>
       <c r="Z104" s="3"/>
     </row>
-    <row r="105" spans="1:26" ht="12.75" customHeight="1">
+    <row r="105" spans="1:26" ht="13.5" customHeight="1">
       <c r="A105" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="B105" s="8" t="s">
-        <v>242</v>
+      <c r="B105" s="6" t="s">
+        <v>229</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="D105" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="E105" s="5"/>
-      <c r="F105" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="G105" s="5"/>
-      <c r="H105" s="5"/>
-      <c r="I105" s="5"/>
+        <v>230</v>
+      </c>
+      <c r="D105" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="E105" s="4"/>
+      <c r="F105" s="16"/>
+      <c r="G105" s="16"/>
+      <c r="H105" s="4"/>
+      <c r="I105" s="8" t="s">
+        <v>232</v>
+      </c>
       <c r="J105" s="5"/>
       <c r="K105" s="5"/>
       <c r="L105" s="5"/>
@@ -8347,25 +8394,25 @@
       <c r="Y105" s="3"/>
       <c r="Z105" s="3"/>
     </row>
-    <row r="106" spans="1:26" ht="12.75" customHeight="1">
+    <row r="106" spans="1:26" ht="15" customHeight="1">
       <c r="A106" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="B106" s="8" t="s">
-        <v>242</v>
+      <c r="B106" s="6" t="s">
+        <v>229</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="D106" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="E106" s="5"/>
-      <c r="F106" s="6" t="s">
-        <v>251</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="D106" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="E106" s="4"/>
+      <c r="F106" s="5"/>
       <c r="G106" s="5"/>
-      <c r="H106" s="5"/>
+      <c r="H106" s="8" t="s">
+        <v>235</v>
+      </c>
       <c r="I106" s="5"/>
       <c r="J106" s="5"/>
       <c r="K106" s="5"/>
@@ -8385,26 +8432,24 @@
       <c r="Y106" s="3"/>
       <c r="Z106" s="3"/>
     </row>
-    <row r="107" spans="1:26" ht="12.75" customHeight="1">
+    <row r="107" spans="1:26" ht="13.5" customHeight="1">
       <c r="A107" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="B107" s="8" t="s">
-        <v>242</v>
-      </c>
+      <c r="B107" s="5"/>
       <c r="C107" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="D107" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="E107" s="5"/>
-      <c r="F107" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="G107" s="5"/>
-      <c r="H107" s="5"/>
-      <c r="I107" s="5"/>
+        <v>236</v>
+      </c>
+      <c r="D107" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="E107" s="4"/>
+      <c r="F107" s="16"/>
+      <c r="G107" s="16"/>
+      <c r="H107" s="4"/>
+      <c r="I107" s="6" t="s">
+        <v>238</v>
+      </c>
       <c r="J107" s="5"/>
       <c r="K107" s="5"/>
       <c r="L107" s="5"/>
@@ -8423,25 +8468,23 @@
       <c r="Y107" s="3"/>
       <c r="Z107" s="3"/>
     </row>
-    <row r="108" spans="1:26" ht="12.75" customHeight="1">
+    <row r="108" spans="1:26" ht="13.5" customHeight="1">
       <c r="A108" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="B108" s="8" t="s">
-        <v>242</v>
-      </c>
+      <c r="B108" s="5"/>
       <c r="C108" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="D108" s="11" t="s">
-        <v>256</v>
-      </c>
-      <c r="E108" s="5"/>
-      <c r="F108" s="6" t="s">
-        <v>257</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="D108" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="E108" s="4"/>
+      <c r="F108" s="5"/>
       <c r="G108" s="5"/>
-      <c r="H108" s="5"/>
+      <c r="H108" s="4" t="s">
+        <v>241</v>
+      </c>
       <c r="I108" s="5"/>
       <c r="J108" s="5"/>
       <c r="K108" s="5"/>
@@ -8469,14 +8512,14 @@
         <v>242</v>
       </c>
       <c r="C109" s="8" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="D109" s="11" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="E109" s="5"/>
       <c r="F109" s="6" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="G109" s="5"/>
       <c r="H109" s="5"/>
@@ -8507,14 +8550,14 @@
         <v>242</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="D110" s="11" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="E110" s="5"/>
       <c r="F110" s="6" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="G110" s="5"/>
       <c r="H110" s="5"/>
@@ -8537,7 +8580,7 @@
       <c r="Y110" s="3"/>
       <c r="Z110" s="3"/>
     </row>
-    <row r="111" spans="1:26" ht="13.5" customHeight="1">
+    <row r="111" spans="1:26" ht="12.75" customHeight="1">
       <c r="A111" s="8" t="s">
         <v>209</v>
       </c>
@@ -8545,19 +8588,19 @@
         <v>242</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="D111" s="11" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="E111" s="5"/>
-      <c r="F111" s="5"/>
+      <c r="F111" s="6" t="s">
+        <v>251</v>
+      </c>
       <c r="G111" s="5"/>
       <c r="H111" s="5"/>
-      <c r="I111" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="J111" s="16"/>
+      <c r="I111" s="5"/>
+      <c r="J111" s="5"/>
       <c r="K111" s="5"/>
       <c r="L111" s="5"/>
       <c r="M111" s="6"/>
@@ -8575,7 +8618,7 @@
       <c r="Y111" s="3"/>
       <c r="Z111" s="3"/>
     </row>
-    <row r="112" spans="1:26" ht="13.5" customHeight="1">
+    <row r="112" spans="1:26" ht="12.75" customHeight="1">
       <c r="A112" s="8" t="s">
         <v>209</v>
       </c>
@@ -8583,19 +8626,19 @@
         <v>242</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="D112" s="13" t="s">
-        <v>268</v>
+        <v>252</v>
+      </c>
+      <c r="D112" s="11" t="s">
+        <v>253</v>
       </c>
       <c r="E112" s="5"/>
-      <c r="F112" s="5"/>
+      <c r="F112" s="6" t="s">
+        <v>254</v>
+      </c>
       <c r="G112" s="5"/>
       <c r="H112" s="5"/>
-      <c r="I112" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="J112" s="16"/>
+      <c r="I112" s="5"/>
+      <c r="J112" s="5"/>
       <c r="K112" s="5"/>
       <c r="L112" s="5"/>
       <c r="M112" s="6"/>
@@ -8613,27 +8656,25 @@
       <c r="Y112" s="3"/>
       <c r="Z112" s="3"/>
     </row>
-    <row r="113" spans="1:26" ht="13.5" customHeight="1">
+    <row r="113" spans="1:26" ht="12.75" customHeight="1">
       <c r="A113" s="8" t="s">
         <v>209</v>
       </c>
       <c r="B113" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="C113" s="6" t="s">
-        <v>270</v>
-      </c>
-      <c r="D113" s="13" t="s">
-        <v>271</v>
+      <c r="C113" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="D113" s="11" t="s">
+        <v>256</v>
       </c>
       <c r="E113" s="5"/>
-      <c r="F113" s="17" t="s">
-        <v>272</v>
+      <c r="F113" s="6" t="s">
+        <v>257</v>
       </c>
       <c r="G113" s="5"/>
-      <c r="H113" s="17" t="s">
-        <v>273</v>
-      </c>
+      <c r="H113" s="5"/>
       <c r="I113" s="5"/>
       <c r="J113" s="5"/>
       <c r="K113" s="5"/>
@@ -8653,19 +8694,23 @@
       <c r="Y113" s="3"/>
       <c r="Z113" s="3"/>
     </row>
-    <row r="114" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A114" s="6" t="s">
-        <v>274</v>
-      </c>
-      <c r="B114" s="5"/>
-      <c r="C114" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="D114" s="13" t="s">
-        <v>276</v>
+    <row r="114" spans="1:26" ht="12.75" customHeight="1">
+      <c r="A114" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="B114" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="C114" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="D114" s="11" t="s">
+        <v>259</v>
       </c>
       <c r="E114" s="5"/>
-      <c r="F114" s="5"/>
+      <c r="F114" s="6" t="s">
+        <v>260</v>
+      </c>
       <c r="G114" s="5"/>
       <c r="H114" s="5"/>
       <c r="I114" s="5"/>
@@ -8687,25 +8732,25 @@
       <c r="Y114" s="3"/>
       <c r="Z114" s="3"/>
     </row>
-    <row r="115" spans="1:26" ht="13.5" customHeight="1">
+    <row r="115" spans="1:26" ht="12.75" customHeight="1">
       <c r="A115" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="B115" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="C115" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="D115" s="13" t="s">
-        <v>279</v>
-      </c>
-      <c r="E115" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="F115" s="5"/>
+        <v>209</v>
+      </c>
+      <c r="B115" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="C115" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="D115" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="E115" s="5"/>
+      <c r="F115" s="6" t="s">
+        <v>263</v>
+      </c>
       <c r="G115" s="5"/>
-      <c r="H115" s="4"/>
+      <c r="H115" s="5"/>
       <c r="I115" s="5"/>
       <c r="J115" s="5"/>
       <c r="K115" s="5"/>
@@ -8727,25 +8772,25 @@
     </row>
     <row r="116" spans="1:26" ht="13.5" customHeight="1">
       <c r="A116" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="B116" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="C116" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="D116" s="13" t="s">
-        <v>282</v>
-      </c>
-      <c r="E116" s="8" t="s">
-        <v>283</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="B116" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="C116" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="D116" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="E116" s="5"/>
       <c r="F116" s="5"/>
       <c r="G116" s="5"/>
-      <c r="H116" s="4"/>
-      <c r="I116" s="5"/>
-      <c r="J116" s="5"/>
+      <c r="H116" s="5"/>
+      <c r="I116" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="J116" s="16"/>
       <c r="K116" s="5"/>
       <c r="L116" s="5"/>
       <c r="M116" s="6"/>
@@ -8765,25 +8810,25 @@
     </row>
     <row r="117" spans="1:26" ht="13.5" customHeight="1">
       <c r="A117" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="B117" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="C117" s="6" t="s">
-        <v>284</v>
+        <v>209</v>
+      </c>
+      <c r="B117" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="C117" s="8" t="s">
+        <v>267</v>
       </c>
       <c r="D117" s="13" t="s">
-        <v>285</v>
-      </c>
-      <c r="E117" s="8" t="s">
-        <v>286</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="E117" s="5"/>
       <c r="F117" s="5"/>
       <c r="G117" s="5"/>
-      <c r="H117" s="4"/>
-      <c r="I117" s="5"/>
-      <c r="J117" s="5"/>
+      <c r="H117" s="5"/>
+      <c r="I117" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="J117" s="16"/>
       <c r="K117" s="5"/>
       <c r="L117" s="5"/>
       <c r="M117" s="6"/>
@@ -8803,23 +8848,25 @@
     </row>
     <row r="118" spans="1:26" ht="13.5" customHeight="1">
       <c r="A118" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="B118" s="6" t="s">
-        <v>277</v>
+        <v>209</v>
+      </c>
+      <c r="B118" s="8" t="s">
+        <v>242</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
       <c r="D118" s="13" t="s">
-        <v>288</v>
-      </c>
-      <c r="E118" s="8" t="s">
-        <v>289</v>
-      </c>
-      <c r="F118" s="5"/>
+        <v>271</v>
+      </c>
+      <c r="E118" s="5"/>
+      <c r="F118" s="17" t="s">
+        <v>272</v>
+      </c>
       <c r="G118" s="5"/>
-      <c r="H118" s="4"/>
+      <c r="H118" s="17" t="s">
+        <v>273</v>
+      </c>
       <c r="I118" s="5"/>
       <c r="J118" s="5"/>
       <c r="K118" s="5"/>
@@ -8840,21 +8887,17 @@
       <c r="Z118" s="3"/>
     </row>
     <row r="119" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A119" s="8" t="s">
+      <c r="A119" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="B119" s="6" t="s">
-        <v>277</v>
-      </c>
+      <c r="B119" s="5"/>
       <c r="C119" s="6" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="D119" s="13" t="s">
-        <v>291</v>
-      </c>
-      <c r="E119" s="6" t="s">
-        <v>292</v>
-      </c>
+        <v>276</v>
+      </c>
+      <c r="E119" s="5"/>
       <c r="F119" s="5"/>
       <c r="G119" s="5"/>
       <c r="H119" s="5"/>
@@ -8885,13 +8928,13 @@
         <v>277</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="D120" s="13" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="E120" s="8" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
       <c r="F120" s="5"/>
       <c r="G120" s="5"/>
@@ -8923,13 +8966,13 @@
         <v>277</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
       <c r="D121" s="13" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="E121" s="8" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="F121" s="5"/>
       <c r="G121" s="5"/>
@@ -8961,13 +9004,13 @@
         <v>277</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="D122" s="13" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="E122" s="8" t="s">
-        <v>301</v>
+        <v>286</v>
       </c>
       <c r="F122" s="5"/>
       <c r="G122" s="5"/>
@@ -8999,17 +9042,17 @@
         <v>277</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>302</v>
+        <v>287</v>
       </c>
       <c r="D123" s="13" t="s">
-        <v>303</v>
-      </c>
-      <c r="E123" s="6" t="s">
-        <v>304</v>
+        <v>288</v>
+      </c>
+      <c r="E123" s="8" t="s">
+        <v>289</v>
       </c>
       <c r="F123" s="5"/>
       <c r="G123" s="5"/>
-      <c r="H123" s="5"/>
+      <c r="H123" s="4"/>
       <c r="I123" s="5"/>
       <c r="J123" s="5"/>
       <c r="K123" s="5"/>
@@ -9037,13 +9080,13 @@
         <v>277</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="D124" s="13" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="E124" s="6" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="F124" s="5"/>
       <c r="G124" s="5"/>
@@ -9075,17 +9118,17 @@
         <v>277</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
       <c r="D125" s="13" t="s">
-        <v>308</v>
-      </c>
-      <c r="E125" s="6" t="s">
-        <v>309</v>
+        <v>294</v>
+      </c>
+      <c r="E125" s="8" t="s">
+        <v>295</v>
       </c>
       <c r="F125" s="5"/>
       <c r="G125" s="5"/>
-      <c r="H125" s="5"/>
+      <c r="H125" s="4"/>
       <c r="I125" s="5"/>
       <c r="J125" s="5"/>
       <c r="K125" s="5"/>
@@ -9113,17 +9156,17 @@
         <v>277</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
       <c r="D126" s="13" t="s">
-        <v>311</v>
-      </c>
-      <c r="E126" s="6" t="s">
-        <v>301</v>
+        <v>297</v>
+      </c>
+      <c r="E126" s="8" t="s">
+        <v>298</v>
       </c>
       <c r="F126" s="5"/>
       <c r="G126" s="5"/>
-      <c r="H126" s="5"/>
+      <c r="H126" s="4"/>
       <c r="I126" s="5"/>
       <c r="J126" s="5"/>
       <c r="K126" s="5"/>
@@ -9148,22 +9191,20 @@
         <v>274</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>312</v>
+        <v>277</v>
       </c>
       <c r="C127" s="6" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c r="D127" s="13" t="s">
-        <v>314</v>
-      </c>
-      <c r="E127" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="F127" s="6" t="s">
-        <v>316</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="E127" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="F127" s="5"/>
       <c r="G127" s="5"/>
-      <c r="H127" s="5"/>
+      <c r="H127" s="4"/>
       <c r="I127" s="5"/>
       <c r="J127" s="5"/>
       <c r="K127" s="5"/>
@@ -9188,20 +9229,18 @@
         <v>274</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>312</v>
+        <v>277</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
       <c r="D128" s="13" t="s">
-        <v>318</v>
+        <v>303</v>
       </c>
       <c r="E128" s="6" t="s">
-        <v>319</v>
-      </c>
-      <c r="F128" s="6" t="s">
-        <v>316</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="F128" s="5"/>
       <c r="G128" s="5"/>
       <c r="H128" s="5"/>
       <c r="I128" s="5"/>
@@ -9228,20 +9267,18 @@
         <v>274</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>312</v>
+        <v>277</v>
       </c>
       <c r="C129" s="6" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="D129" s="13" t="s">
-        <v>321</v>
+        <v>306</v>
       </c>
       <c r="E129" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="F129" s="6" t="s">
-        <v>316</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="F129" s="5"/>
       <c r="G129" s="5"/>
       <c r="H129" s="5"/>
       <c r="I129" s="5"/>
@@ -9268,20 +9305,18 @@
         <v>274</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>312</v>
+        <v>277</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>323</v>
+        <v>307</v>
       </c>
       <c r="D130" s="13" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
       <c r="E130" s="6" t="s">
-        <v>325</v>
-      </c>
-      <c r="F130" s="6" t="s">
-        <v>316</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="F130" s="5"/>
       <c r="G130" s="5"/>
       <c r="H130" s="5"/>
       <c r="I130" s="5"/>
@@ -9308,20 +9343,18 @@
         <v>274</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>312</v>
+        <v>277</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>326</v>
+        <v>310</v>
       </c>
       <c r="D131" s="13" t="s">
-        <v>327</v>
+        <v>311</v>
       </c>
       <c r="E131" s="6" t="s">
-        <v>328</v>
-      </c>
-      <c r="F131" s="6" t="s">
-        <v>316</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="F131" s="5"/>
       <c r="G131" s="5"/>
       <c r="H131" s="5"/>
       <c r="I131" s="5"/>
@@ -9351,13 +9384,13 @@
         <v>312</v>
       </c>
       <c r="C132" s="6" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
       <c r="D132" s="13" t="s">
-        <v>330</v>
+        <v>314</v>
       </c>
       <c r="E132" s="6" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
       <c r="F132" s="6" t="s">
         <v>316</v>
@@ -9391,16 +9424,16 @@
         <v>312</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>332</v>
+        <v>317</v>
       </c>
       <c r="D133" s="13" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
       <c r="E133" s="6" t="s">
-        <v>334</v>
+        <v>319</v>
       </c>
       <c r="F133" s="6" t="s">
-        <v>335</v>
+        <v>316</v>
       </c>
       <c r="G133" s="5"/>
       <c r="H133" s="5"/>
@@ -9431,19 +9464,19 @@
         <v>312</v>
       </c>
       <c r="C134" s="6" t="s">
-        <v>336</v>
+        <v>320</v>
       </c>
       <c r="D134" s="13" t="s">
-        <v>337</v>
-      </c>
-      <c r="E134" s="8" t="s">
-        <v>338</v>
+        <v>321</v>
+      </c>
+      <c r="E134" s="6" t="s">
+        <v>322</v>
       </c>
       <c r="F134" s="6" t="s">
-        <v>335</v>
+        <v>316</v>
       </c>
       <c r="G134" s="5"/>
-      <c r="H134" s="4"/>
+      <c r="H134" s="5"/>
       <c r="I134" s="5"/>
       <c r="J134" s="5"/>
       <c r="K134" s="5"/>
@@ -9471,16 +9504,16 @@
         <v>312</v>
       </c>
       <c r="C135" s="6" t="s">
-        <v>339</v>
+        <v>323</v>
       </c>
       <c r="D135" s="13" t="s">
-        <v>340</v>
+        <v>324</v>
       </c>
       <c r="E135" s="6" t="s">
-        <v>341</v>
+        <v>325</v>
       </c>
       <c r="F135" s="6" t="s">
-        <v>335</v>
+        <v>316</v>
       </c>
       <c r="G135" s="5"/>
       <c r="H135" s="5"/>
@@ -9511,16 +9544,16 @@
         <v>312</v>
       </c>
       <c r="C136" s="6" t="s">
-        <v>342</v>
+        <v>326</v>
       </c>
       <c r="D136" s="13" t="s">
-        <v>343</v>
+        <v>327</v>
       </c>
       <c r="E136" s="6" t="s">
-        <v>344</v>
+        <v>328</v>
       </c>
       <c r="F136" s="6" t="s">
-        <v>335</v>
+        <v>316</v>
       </c>
       <c r="G136" s="5"/>
       <c r="H136" s="5"/>
@@ -9551,16 +9584,16 @@
         <v>312</v>
       </c>
       <c r="C137" s="6" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="D137" s="13" t="s">
-        <v>346</v>
+        <v>330</v>
       </c>
       <c r="E137" s="6" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
       <c r="F137" s="6" t="s">
-        <v>335</v>
+        <v>316</v>
       </c>
       <c r="G137" s="5"/>
       <c r="H137" s="5"/>
@@ -9587,17 +9620,17 @@
       <c r="A138" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="B138" s="8" t="s">
+      <c r="B138" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="C138" s="8" t="s">
-        <v>348</v>
+      <c r="C138" s="6" t="s">
+        <v>332</v>
       </c>
       <c r="D138" s="13" t="s">
-        <v>349</v>
+        <v>333</v>
       </c>
       <c r="E138" s="6" t="s">
-        <v>350</v>
+        <v>334</v>
       </c>
       <c r="F138" s="6" t="s">
         <v>335</v>
@@ -9605,7 +9638,7 @@
       <c r="G138" s="5"/>
       <c r="H138" s="5"/>
       <c r="I138" s="5"/>
-      <c r="J138" s="6"/>
+      <c r="J138" s="5"/>
       <c r="K138" s="5"/>
       <c r="L138" s="5"/>
       <c r="M138" s="6"/>
@@ -9624,26 +9657,26 @@
       <c r="Z138" s="3"/>
     </row>
     <row r="139" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A139" s="6" t="s">
+      <c r="A139" s="8" t="s">
         <v>274</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>351</v>
+        <v>312</v>
       </c>
       <c r="C139" s="6" t="s">
-        <v>352</v>
+        <v>336</v>
       </c>
       <c r="D139" s="13" t="s">
-        <v>353</v>
-      </c>
-      <c r="E139" s="5" t="s">
-        <v>354</v>
-      </c>
-      <c r="F139" s="5" t="s">
-        <v>354</v>
+        <v>337</v>
+      </c>
+      <c r="E139" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="F139" s="6" t="s">
+        <v>335</v>
       </c>
       <c r="G139" s="5"/>
-      <c r="H139" s="5"/>
+      <c r="H139" s="4"/>
       <c r="I139" s="5"/>
       <c r="J139" s="5"/>
       <c r="K139" s="5"/>
@@ -9664,23 +9697,23 @@
       <c r="Z139" s="3"/>
     </row>
     <row r="140" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A140" s="6" t="s">
+      <c r="A140" s="8" t="s">
         <v>274</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>351</v>
+        <v>312</v>
       </c>
       <c r="C140" s="6" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="D140" s="13" t="s">
-        <v>356</v>
-      </c>
-      <c r="E140" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="F140" s="5" t="s">
-        <v>357</v>
+        <v>340</v>
+      </c>
+      <c r="E140" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="F140" s="6" t="s">
+        <v>335</v>
       </c>
       <c r="G140" s="5"/>
       <c r="H140" s="5"/>
@@ -9707,21 +9740,25 @@
       <c r="A141" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="B141" s="5"/>
+      <c r="B141" s="6" t="s">
+        <v>312</v>
+      </c>
       <c r="C141" s="6" t="s">
-        <v>358</v>
+        <v>342</v>
       </c>
       <c r="D141" s="13" t="s">
-        <v>359</v>
-      </c>
-      <c r="E141" s="5"/>
-      <c r="F141" s="16"/>
-      <c r="G141" s="16"/>
+        <v>343</v>
+      </c>
+      <c r="E141" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="F141" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="G141" s="5"/>
       <c r="H141" s="5"/>
-      <c r="I141" s="17" t="s">
-        <v>269</v>
-      </c>
-      <c r="J141" s="16"/>
+      <c r="I141" s="5"/>
+      <c r="J141" s="5"/>
       <c r="K141" s="5"/>
       <c r="L141" s="5"/>
       <c r="M141" s="6"/>
@@ -9743,21 +9780,25 @@
       <c r="A142" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="B142" s="5"/>
+      <c r="B142" s="6" t="s">
+        <v>312</v>
+      </c>
       <c r="C142" s="6" t="s">
-        <v>360</v>
+        <v>345</v>
       </c>
       <c r="D142" s="13" t="s">
-        <v>361</v>
-      </c>
-      <c r="E142" s="5"/>
-      <c r="F142" s="16"/>
-      <c r="G142" s="16"/>
+        <v>346</v>
+      </c>
+      <c r="E142" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="F142" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="G142" s="5"/>
       <c r="H142" s="5"/>
-      <c r="I142" s="17" t="s">
-        <v>362</v>
-      </c>
-      <c r="J142" s="16"/>
+      <c r="I142" s="5"/>
+      <c r="J142" s="5"/>
       <c r="K142" s="5"/>
       <c r="L142" s="5"/>
       <c r="M142" s="6"/>
@@ -9779,23 +9820,25 @@
       <c r="A143" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="B143" s="5"/>
-      <c r="C143" s="6" t="s">
-        <v>363</v>
-      </c>
-      <c r="D143" s="11" t="s">
-        <v>364</v>
+      <c r="B143" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="C143" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="D143" s="13" t="s">
+        <v>349</v>
       </c>
       <c r="E143" s="6" t="s">
-        <v>365</v>
-      </c>
-      <c r="F143" s="5"/>
+        <v>350</v>
+      </c>
+      <c r="F143" s="6" t="s">
+        <v>335</v>
+      </c>
       <c r="G143" s="5"/>
-      <c r="H143" s="6" t="s">
-        <v>365</v>
-      </c>
+      <c r="H143" s="5"/>
       <c r="I143" s="5"/>
-      <c r="J143" s="5"/>
+      <c r="J143" s="6"/>
       <c r="K143" s="5"/>
       <c r="L143" s="5"/>
       <c r="M143" s="6"/>
@@ -9815,23 +9858,25 @@
     </row>
     <row r="144" spans="1:26" ht="13.5" customHeight="1">
       <c r="A144" s="6" t="s">
-        <v>366</v>
-      </c>
-      <c r="B144" s="5"/>
+        <v>274</v>
+      </c>
+      <c r="B144" s="6" t="s">
+        <v>351</v>
+      </c>
       <c r="C144" s="6" t="s">
-        <v>367</v>
-      </c>
-      <c r="D144" s="11" t="s">
-        <v>368</v>
-      </c>
-      <c r="E144" s="6" t="s">
-        <v>369</v>
-      </c>
-      <c r="F144" s="5"/>
+        <v>352</v>
+      </c>
+      <c r="D144" s="13" t="s">
+        <v>353</v>
+      </c>
+      <c r="E144" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="F144" s="5" t="s">
+        <v>354</v>
+      </c>
       <c r="G144" s="5"/>
-      <c r="H144" s="6" t="s">
-        <v>369</v>
-      </c>
+      <c r="H144" s="5"/>
       <c r="I144" s="5"/>
       <c r="J144" s="5"/>
       <c r="K144" s="5"/>
@@ -9853,23 +9898,25 @@
     </row>
     <row r="145" spans="1:26" ht="13.5" customHeight="1">
       <c r="A145" s="6" t="s">
-        <v>366</v>
-      </c>
-      <c r="B145" s="5"/>
+        <v>274</v>
+      </c>
+      <c r="B145" s="6" t="s">
+        <v>351</v>
+      </c>
       <c r="C145" s="6" t="s">
-        <v>370</v>
-      </c>
-      <c r="D145" s="11" t="s">
-        <v>371</v>
-      </c>
-      <c r="E145" s="6" t="s">
-        <v>372</v>
-      </c>
-      <c r="F145" s="5"/>
+        <v>355</v>
+      </c>
+      <c r="D145" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="E145" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="F145" s="5" t="s">
+        <v>357</v>
+      </c>
       <c r="G145" s="5"/>
-      <c r="H145" s="6" t="s">
-        <v>372</v>
-      </c>
+      <c r="H145" s="5"/>
       <c r="I145" s="5"/>
       <c r="J145" s="5"/>
       <c r="K145" s="5"/>
@@ -9890,26 +9937,24 @@
       <c r="Z145" s="3"/>
     </row>
     <row r="146" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A146" s="6" t="s">
-        <v>366</v>
+      <c r="A146" s="8" t="s">
+        <v>274</v>
       </c>
       <c r="B146" s="5"/>
       <c r="C146" s="6" t="s">
-        <v>373</v>
-      </c>
-      <c r="D146" s="11" t="s">
-        <v>374</v>
-      </c>
-      <c r="E146" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="F146" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="G146" s="5"/>
+        <v>358</v>
+      </c>
+      <c r="D146" s="13" t="s">
+        <v>359</v>
+      </c>
+      <c r="E146" s="5"/>
+      <c r="F146" s="16"/>
+      <c r="G146" s="16"/>
       <c r="H146" s="5"/>
-      <c r="I146" s="5"/>
-      <c r="J146" s="5"/>
+      <c r="I146" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="J146" s="16"/>
       <c r="K146" s="5"/>
       <c r="L146" s="5"/>
       <c r="M146" s="6"/>
@@ -9928,24 +9973,24 @@
       <c r="Z146" s="3"/>
     </row>
     <row r="147" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A147" s="6" t="s">
-        <v>376</v>
-      </c>
-      <c r="B147" s="6"/>
+      <c r="A147" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="B147" s="5"/>
       <c r="C147" s="6" t="s">
-        <v>377</v>
-      </c>
-      <c r="D147" s="11" t="s">
-        <v>378</v>
-      </c>
-      <c r="E147" s="6" t="s">
-        <v>379</v>
-      </c>
-      <c r="F147" s="5"/>
-      <c r="G147" s="5"/>
+        <v>360</v>
+      </c>
+      <c r="D147" s="13" t="s">
+        <v>361</v>
+      </c>
+      <c r="E147" s="5"/>
+      <c r="F147" s="16"/>
+      <c r="G147" s="16"/>
       <c r="H147" s="5"/>
-      <c r="I147" s="5"/>
-      <c r="J147" s="5"/>
+      <c r="I147" s="17" t="s">
+        <v>362</v>
+      </c>
+      <c r="J147" s="16"/>
       <c r="K147" s="5"/>
       <c r="L147" s="5"/>
       <c r="M147" s="6"/>
@@ -9964,33 +10009,29 @@
       <c r="Z147" s="3"/>
     </row>
     <row r="148" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A148" s="6" t="s">
-        <v>376</v>
-      </c>
-      <c r="B148" s="6" t="s">
-        <v>380</v>
-      </c>
+      <c r="A148" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="B148" s="5"/>
       <c r="C148" s="6" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="D148" s="11" t="s">
-        <v>382</v>
+        <v>364</v>
       </c>
       <c r="E148" s="6" t="s">
-        <v>383</v>
-      </c>
-      <c r="F148" s="6" t="s">
-        <v>383</v>
-      </c>
+        <v>365</v>
+      </c>
+      <c r="F148" s="5"/>
       <c r="G148" s="5"/>
-      <c r="H148" s="5"/>
+      <c r="H148" s="6" t="s">
+        <v>365</v>
+      </c>
       <c r="I148" s="5"/>
       <c r="J148" s="5"/>
       <c r="K148" s="5"/>
       <c r="L148" s="5"/>
-      <c r="M148" s="6" t="s">
-        <v>384</v>
-      </c>
+      <c r="M148" s="6"/>
       <c r="N148" s="3"/>
       <c r="O148" s="3"/>
       <c r="P148" s="3"/>
@@ -10007,34 +10048,28 @@
     </row>
     <row r="149" spans="1:26" ht="13.5" customHeight="1">
       <c r="A149" s="6" t="s">
-        <v>376</v>
-      </c>
-      <c r="B149" s="6" t="s">
-        <v>380</v>
-      </c>
+        <v>366</v>
+      </c>
+      <c r="B149" s="5"/>
       <c r="C149" s="6" t="s">
-        <v>385</v>
+        <v>367</v>
       </c>
       <c r="D149" s="11" t="s">
-        <v>386</v>
+        <v>368</v>
       </c>
       <c r="E149" s="6" t="s">
-        <v>387</v>
-      </c>
-      <c r="F149" s="6" t="s">
-        <v>387</v>
-      </c>
+        <v>369</v>
+      </c>
+      <c r="F149" s="5"/>
       <c r="G149" s="5"/>
       <c r="H149" s="6" t="s">
-        <v>387</v>
+        <v>369</v>
       </c>
       <c r="I149" s="5"/>
       <c r="J149" s="5"/>
       <c r="K149" s="5"/>
       <c r="L149" s="5"/>
-      <c r="M149" s="6" t="s">
-        <v>384</v>
-      </c>
+      <c r="M149" s="6"/>
       <c r="N149" s="3"/>
       <c r="O149" s="3"/>
       <c r="P149" s="3"/>
@@ -10051,34 +10086,28 @@
     </row>
     <row r="150" spans="1:26" ht="13.5" customHeight="1">
       <c r="A150" s="6" t="s">
-        <v>376</v>
-      </c>
-      <c r="B150" s="6" t="s">
-        <v>380</v>
-      </c>
+        <v>366</v>
+      </c>
+      <c r="B150" s="5"/>
       <c r="C150" s="6" t="s">
-        <v>388</v>
+        <v>370</v>
       </c>
       <c r="D150" s="11" t="s">
-        <v>389</v>
+        <v>371</v>
       </c>
       <c r="E150" s="6" t="s">
-        <v>390</v>
-      </c>
-      <c r="F150" s="6" t="s">
-        <v>390</v>
-      </c>
+        <v>372</v>
+      </c>
+      <c r="F150" s="5"/>
       <c r="G150" s="5"/>
       <c r="H150" s="6" t="s">
-        <v>390</v>
+        <v>372</v>
       </c>
       <c r="I150" s="5"/>
       <c r="J150" s="5"/>
       <c r="K150" s="5"/>
       <c r="L150" s="5"/>
-      <c r="M150" s="6" t="s">
-        <v>384</v>
-      </c>
+      <c r="M150" s="6"/>
       <c r="N150" s="3"/>
       <c r="O150" s="3"/>
       <c r="P150" s="3"/>
@@ -10095,34 +10124,28 @@
     </row>
     <row r="151" spans="1:26" ht="13.5" customHeight="1">
       <c r="A151" s="6" t="s">
-        <v>376</v>
-      </c>
-      <c r="B151" s="6" t="s">
-        <v>380</v>
-      </c>
+        <v>366</v>
+      </c>
+      <c r="B151" s="5"/>
       <c r="C151" s="6" t="s">
-        <v>391</v>
+        <v>373</v>
       </c>
       <c r="D151" s="11" t="s">
-        <v>392</v>
+        <v>374</v>
       </c>
       <c r="E151" s="6" t="s">
-        <v>393</v>
+        <v>71</v>
       </c>
       <c r="F151" s="6" t="s">
-        <v>393</v>
+        <v>375</v>
       </c>
       <c r="G151" s="5"/>
-      <c r="H151" s="6" t="s">
-        <v>393</v>
-      </c>
+      <c r="H151" s="5"/>
       <c r="I151" s="5"/>
       <c r="J151" s="5"/>
       <c r="K151" s="5"/>
       <c r="L151" s="5"/>
-      <c r="M151" s="6" t="s">
-        <v>384</v>
-      </c>
+      <c r="M151" s="6"/>
       <c r="N151" s="3"/>
       <c r="O151" s="3"/>
       <c r="P151" s="3"/>
@@ -10137,26 +10160,24 @@
       <c r="Y151" s="3"/>
       <c r="Z151" s="3"/>
     </row>
-    <row r="152" spans="1:26" ht="15" customHeight="1">
+    <row r="152" spans="1:26" ht="13.5" customHeight="1">
       <c r="A152" s="6" t="s">
         <v>376</v>
       </c>
-      <c r="B152" s="6" t="s">
-        <v>394</v>
-      </c>
+      <c r="B152" s="6"/>
       <c r="C152" s="6" t="s">
-        <v>395</v>
+        <v>377</v>
       </c>
       <c r="D152" s="11" t="s">
-        <v>396</v>
-      </c>
-      <c r="E152" s="5"/>
+        <v>378</v>
+      </c>
+      <c r="E152" s="6" t="s">
+        <v>379</v>
+      </c>
       <c r="F152" s="5"/>
       <c r="G152" s="5"/>
       <c r="H152" s="5"/>
-      <c r="I152" s="6" t="s">
-        <v>397</v>
-      </c>
+      <c r="I152" s="5"/>
       <c r="J152" s="5"/>
       <c r="K152" s="5"/>
       <c r="L152" s="5"/>
@@ -10180,23 +10201,29 @@
         <v>376</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>394</v>
+        <v>380</v>
       </c>
       <c r="C153" s="6" t="s">
-        <v>398</v>
+        <v>381</v>
       </c>
       <c r="D153" s="11" t="s">
-        <v>399</v>
-      </c>
-      <c r="E153" s="5"/>
-      <c r="F153" s="5"/>
+        <v>382</v>
+      </c>
+      <c r="E153" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="F153" s="6" t="s">
+        <v>383</v>
+      </c>
       <c r="G153" s="5"/>
       <c r="H153" s="5"/>
       <c r="I153" s="5"/>
       <c r="J153" s="5"/>
       <c r="K153" s="5"/>
       <c r="L153" s="5"/>
-      <c r="M153" s="6"/>
+      <c r="M153" s="6" t="s">
+        <v>384</v>
+      </c>
       <c r="N153" s="3"/>
       <c r="O153" s="3"/>
       <c r="P153" s="3"/>
@@ -10215,26 +10242,32 @@
       <c r="A154" s="6" t="s">
         <v>376</v>
       </c>
-      <c r="B154" s="8" t="s">
-        <v>400</v>
+      <c r="B154" s="6" t="s">
+        <v>380</v>
       </c>
       <c r="C154" s="6" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D154" s="11" t="s">
-        <v>402</v>
-      </c>
-      <c r="E154" s="5"/>
-      <c r="F154" s="5"/>
+        <v>386</v>
+      </c>
+      <c r="E154" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="F154" s="6" t="s">
+        <v>387</v>
+      </c>
       <c r="G154" s="5"/>
-      <c r="H154" s="5"/>
-      <c r="I154" s="6" t="s">
-        <v>403</v>
-      </c>
+      <c r="H154" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="I154" s="5"/>
       <c r="J154" s="5"/>
       <c r="K154" s="5"/>
       <c r="L154" s="5"/>
-      <c r="M154" s="6"/>
+      <c r="M154" s="6" t="s">
+        <v>384</v>
+      </c>
       <c r="N154" s="3"/>
       <c r="O154" s="3"/>
       <c r="P154" s="3"/>
@@ -10253,30 +10286,32 @@
       <c r="A155" s="6" t="s">
         <v>376</v>
       </c>
-      <c r="B155" s="8" t="s">
-        <v>400</v>
+      <c r="B155" s="6" t="s">
+        <v>380</v>
       </c>
       <c r="C155" s="6" t="s">
-        <v>404</v>
+        <v>388</v>
       </c>
       <c r="D155" s="11" t="s">
-        <v>405</v>
+        <v>389</v>
       </c>
       <c r="E155" s="6" t="s">
-        <v>406</v>
+        <v>390</v>
       </c>
       <c r="F155" s="6" t="s">
-        <v>406</v>
+        <v>390</v>
       </c>
       <c r="G155" s="5"/>
       <c r="H155" s="6" t="s">
-        <v>406</v>
+        <v>390</v>
       </c>
       <c r="I155" s="5"/>
       <c r="J155" s="5"/>
       <c r="K155" s="5"/>
       <c r="L155" s="5"/>
-      <c r="M155" s="6"/>
+      <c r="M155" s="6" t="s">
+        <v>384</v>
+      </c>
       <c r="N155" s="3"/>
       <c r="O155" s="3"/>
       <c r="P155" s="3"/>
@@ -10295,26 +10330,32 @@
       <c r="A156" s="6" t="s">
         <v>376</v>
       </c>
-      <c r="B156" s="8" t="s">
-        <v>400</v>
+      <c r="B156" s="6" t="s">
+        <v>380</v>
       </c>
       <c r="C156" s="6" t="s">
-        <v>407</v>
+        <v>391</v>
       </c>
       <c r="D156" s="11" t="s">
-        <v>408</v>
-      </c>
-      <c r="E156" s="5"/>
-      <c r="F156" s="5"/>
+        <v>392</v>
+      </c>
+      <c r="E156" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="F156" s="6" t="s">
+        <v>393</v>
+      </c>
       <c r="G156" s="5"/>
-      <c r="H156" s="5"/>
-      <c r="I156" s="6" t="s">
-        <v>403</v>
-      </c>
+      <c r="H156" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="I156" s="5"/>
       <c r="J156" s="5"/>
       <c r="K156" s="5"/>
       <c r="L156" s="5"/>
-      <c r="M156" s="6"/>
+      <c r="M156" s="6" t="s">
+        <v>384</v>
+      </c>
       <c r="N156" s="3"/>
       <c r="O156" s="3"/>
       <c r="P156" s="3"/>
@@ -10329,25 +10370,25 @@
       <c r="Y156" s="3"/>
       <c r="Z156" s="3"/>
     </row>
-    <row r="157" spans="1:26" ht="13.5" customHeight="1">
+    <row r="157" spans="1:26" ht="15" customHeight="1">
       <c r="A157" s="6" t="s">
         <v>376</v>
       </c>
-      <c r="B157" s="8" t="s">
-        <v>400</v>
+      <c r="B157" s="6" t="s">
+        <v>394</v>
       </c>
       <c r="C157" s="6" t="s">
-        <v>409</v>
+        <v>395</v>
       </c>
       <c r="D157" s="11" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="E157" s="5"/>
       <c r="F157" s="5"/>
       <c r="G157" s="5"/>
       <c r="H157" s="5"/>
-      <c r="I157" s="8" t="s">
-        <v>411</v>
+      <c r="I157" s="6" t="s">
+        <v>397</v>
       </c>
       <c r="J157" s="5"/>
       <c r="K157" s="5"/>
@@ -10371,22 +10412,20 @@
       <c r="A158" s="6" t="s">
         <v>376</v>
       </c>
-      <c r="B158" s="8" t="s">
-        <v>400</v>
+      <c r="B158" s="6" t="s">
+        <v>394</v>
       </c>
       <c r="C158" s="6" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="D158" s="11" t="s">
-        <v>413</v>
+        <v>399</v>
       </c>
       <c r="E158" s="5"/>
       <c r="F158" s="5"/>
       <c r="G158" s="5"/>
       <c r="H158" s="5"/>
-      <c r="I158" s="8" t="s">
-        <v>411</v>
-      </c>
+      <c r="I158" s="5"/>
       <c r="J158" s="5"/>
       <c r="K158" s="5"/>
       <c r="L158" s="5"/>
@@ -10413,17 +10452,17 @@
         <v>400</v>
       </c>
       <c r="C159" s="6" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="D159" s="11" t="s">
-        <v>415</v>
+        <v>402</v>
       </c>
       <c r="E159" s="5"/>
       <c r="F159" s="5"/>
       <c r="G159" s="5"/>
       <c r="H159" s="5"/>
-      <c r="I159" s="8" t="s">
-        <v>416</v>
+      <c r="I159" s="6" t="s">
+        <v>403</v>
       </c>
       <c r="J159" s="5"/>
       <c r="K159" s="5"/>
@@ -10451,20 +10490,20 @@
         <v>400</v>
       </c>
       <c r="C160" s="6" t="s">
-        <v>417</v>
+        <v>404</v>
       </c>
       <c r="D160" s="11" t="s">
-        <v>418</v>
+        <v>405</v>
       </c>
       <c r="E160" s="6" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="F160" s="6" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="G160" s="5"/>
       <c r="H160" s="6" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="I160" s="5"/>
       <c r="J160" s="5"/>
@@ -10489,24 +10528,22 @@
       <c r="A161" s="6" t="s">
         <v>376</v>
       </c>
-      <c r="B161" s="6" t="s">
-        <v>420</v>
+      <c r="B161" s="8" t="s">
+        <v>400</v>
       </c>
       <c r="C161" s="6" t="s">
-        <v>421</v>
-      </c>
-      <c r="D161" s="13" t="s">
-        <v>422</v>
-      </c>
-      <c r="E161" s="6" t="s">
-        <v>423</v>
-      </c>
+        <v>407</v>
+      </c>
+      <c r="D161" s="11" t="s">
+        <v>408</v>
+      </c>
+      <c r="E161" s="5"/>
       <c r="F161" s="5"/>
       <c r="G161" s="5"/>
-      <c r="H161" s="6" t="s">
-        <v>423</v>
-      </c>
-      <c r="I161" s="5"/>
+      <c r="H161" s="5"/>
+      <c r="I161" s="6" t="s">
+        <v>403</v>
+      </c>
       <c r="J161" s="5"/>
       <c r="K161" s="5"/>
       <c r="L161" s="5"/>
@@ -10529,24 +10566,22 @@
       <c r="A162" s="6" t="s">
         <v>376</v>
       </c>
-      <c r="B162" s="6" t="s">
-        <v>420</v>
+      <c r="B162" s="8" t="s">
+        <v>400</v>
       </c>
       <c r="C162" s="6" t="s">
-        <v>424</v>
-      </c>
-      <c r="D162" s="13" t="s">
-        <v>425</v>
-      </c>
-      <c r="E162" s="6" t="s">
-        <v>426</v>
-      </c>
+        <v>409</v>
+      </c>
+      <c r="D162" s="11" t="s">
+        <v>410</v>
+      </c>
+      <c r="E162" s="5"/>
       <c r="F162" s="5"/>
       <c r="G162" s="5"/>
-      <c r="H162" s="6" t="s">
-        <v>426</v>
-      </c>
-      <c r="I162" s="5"/>
+      <c r="H162" s="5"/>
+      <c r="I162" s="8" t="s">
+        <v>411</v>
+      </c>
       <c r="J162" s="5"/>
       <c r="K162" s="5"/>
       <c r="L162" s="5"/>
@@ -10569,24 +10604,22 @@
       <c r="A163" s="6" t="s">
         <v>376</v>
       </c>
-      <c r="B163" s="6" t="s">
-        <v>420</v>
+      <c r="B163" s="8" t="s">
+        <v>400</v>
       </c>
       <c r="C163" s="6" t="s">
-        <v>427</v>
-      </c>
-      <c r="D163" s="13" t="s">
-        <v>428</v>
-      </c>
-      <c r="E163" s="6" t="s">
-        <v>429</v>
-      </c>
+        <v>412</v>
+      </c>
+      <c r="D163" s="11" t="s">
+        <v>413</v>
+      </c>
+      <c r="E163" s="5"/>
       <c r="F163" s="5"/>
       <c r="G163" s="5"/>
-      <c r="H163" s="6" t="s">
-        <v>429</v>
-      </c>
-      <c r="I163" s="5"/>
+      <c r="H163" s="5"/>
+      <c r="I163" s="8" t="s">
+        <v>411</v>
+      </c>
       <c r="J163" s="5"/>
       <c r="K163" s="5"/>
       <c r="L163" s="5"/>
@@ -10609,24 +10642,22 @@
       <c r="A164" s="6" t="s">
         <v>376</v>
       </c>
-      <c r="B164" s="6" t="s">
-        <v>420</v>
+      <c r="B164" s="8" t="s">
+        <v>400</v>
       </c>
       <c r="C164" s="6" t="s">
-        <v>430</v>
-      </c>
-      <c r="D164" s="13" t="s">
-        <v>431</v>
-      </c>
-      <c r="E164" s="6" t="s">
-        <v>432</v>
-      </c>
+        <v>414</v>
+      </c>
+      <c r="D164" s="11" t="s">
+        <v>415</v>
+      </c>
+      <c r="E164" s="5"/>
       <c r="F164" s="5"/>
       <c r="G164" s="5"/>
-      <c r="H164" s="6" t="s">
-        <v>432</v>
-      </c>
-      <c r="I164" s="5"/>
+      <c r="H164" s="5"/>
+      <c r="I164" s="8" t="s">
+        <v>416</v>
+      </c>
       <c r="J164" s="5"/>
       <c r="K164" s="5"/>
       <c r="L164" s="5"/>
@@ -10649,20 +10680,24 @@
       <c r="A165" s="6" t="s">
         <v>376</v>
       </c>
-      <c r="B165" s="26" t="s">
-        <v>567</v>
-      </c>
-      <c r="C165" s="26" t="s">
-        <v>568</v>
-      </c>
-      <c r="D165" s="29" t="s">
-        <v>573</v>
-      </c>
-      <c r="E165" s="6"/>
-      <c r="F165" s="5"/>
+      <c r="B165" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="C165" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="D165" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="E165" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="F165" s="6" t="s">
+        <v>419</v>
+      </c>
       <c r="G165" s="5"/>
       <c r="H165" s="6" t="s">
-        <v>578</v>
+        <v>419</v>
       </c>
       <c r="I165" s="5"/>
       <c r="J165" s="5"/>
@@ -10687,20 +10722,22 @@
       <c r="A166" s="6" t="s">
         <v>376</v>
       </c>
-      <c r="B166" s="26" t="s">
-        <v>567</v>
-      </c>
-      <c r="C166" s="26" t="s">
-        <v>569</v>
-      </c>
-      <c r="D166" s="29" t="s">
-        <v>574</v>
-      </c>
-      <c r="E166" s="6"/>
+      <c r="B166" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="C166" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="D166" s="13" t="s">
+        <v>422</v>
+      </c>
+      <c r="E166" s="6" t="s">
+        <v>423</v>
+      </c>
       <c r="F166" s="5"/>
       <c r="G166" s="5"/>
       <c r="H166" s="6" t="s">
-        <v>579</v>
+        <v>423</v>
       </c>
       <c r="I166" s="5"/>
       <c r="J166" s="5"/>
@@ -10725,20 +10762,22 @@
       <c r="A167" s="6" t="s">
         <v>376</v>
       </c>
-      <c r="B167" s="26" t="s">
-        <v>567</v>
-      </c>
-      <c r="C167" s="26" t="s">
-        <v>570</v>
-      </c>
-      <c r="D167" s="28" t="s">
-        <v>575</v>
-      </c>
-      <c r="E167" s="6"/>
+      <c r="B167" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="C167" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="D167" s="13" t="s">
+        <v>425</v>
+      </c>
+      <c r="E167" s="6" t="s">
+        <v>426</v>
+      </c>
       <c r="F167" s="5"/>
       <c r="G167" s="5"/>
       <c r="H167" s="6" t="s">
-        <v>580</v>
+        <v>426</v>
       </c>
       <c r="I167" s="5"/>
       <c r="J167" s="5"/>
@@ -10763,20 +10802,22 @@
       <c r="A168" s="6" t="s">
         <v>376</v>
       </c>
-      <c r="B168" s="26" t="s">
-        <v>567</v>
-      </c>
-      <c r="C168" s="26" t="s">
-        <v>571</v>
-      </c>
-      <c r="D168" s="29" t="s">
-        <v>576</v>
-      </c>
-      <c r="E168" s="6"/>
+      <c r="B168" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="C168" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="D168" s="13" t="s">
+        <v>428</v>
+      </c>
+      <c r="E168" s="6" t="s">
+        <v>429</v>
+      </c>
       <c r="F168" s="5"/>
       <c r="G168" s="5"/>
       <c r="H168" s="6" t="s">
-        <v>581</v>
+        <v>429</v>
       </c>
       <c r="I168" s="5"/>
       <c r="J168" s="5"/>
@@ -10801,20 +10842,22 @@
       <c r="A169" s="6" t="s">
         <v>376</v>
       </c>
-      <c r="B169" s="26" t="s">
-        <v>567</v>
-      </c>
-      <c r="C169" s="26" t="s">
-        <v>572</v>
-      </c>
-      <c r="D169" s="29" t="s">
-        <v>577</v>
-      </c>
-      <c r="E169" s="6"/>
+      <c r="B169" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="C169" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="D169" s="13" t="s">
+        <v>431</v>
+      </c>
+      <c r="E169" s="6" t="s">
+        <v>432</v>
+      </c>
       <c r="F169" s="5"/>
       <c r="G169" s="5"/>
       <c r="H169" s="6" t="s">
-        <v>582</v>
+        <v>432</v>
       </c>
       <c r="I169" s="5"/>
       <c r="J169" s="5"/>
@@ -10837,22 +10880,22 @@
     </row>
     <row r="170" spans="1:26" ht="13.5" customHeight="1">
       <c r="A170" s="6" t="s">
-        <v>433</v>
-      </c>
-      <c r="B170" s="5"/>
-      <c r="C170" s="6" t="s">
-        <v>434</v>
-      </c>
-      <c r="D170" s="11" t="s">
-        <v>435</v>
-      </c>
-      <c r="E170" s="6" t="s">
-        <v>289</v>
-      </c>
+        <v>376</v>
+      </c>
+      <c r="B170" s="26" t="s">
+        <v>567</v>
+      </c>
+      <c r="C170" s="26" t="s">
+        <v>568</v>
+      </c>
+      <c r="D170" s="29" t="s">
+        <v>573</v>
+      </c>
+      <c r="E170" s="6"/>
       <c r="F170" s="5"/>
       <c r="G170" s="5"/>
       <c r="H170" s="6" t="s">
-        <v>289</v>
+        <v>578</v>
       </c>
       <c r="I170" s="5"/>
       <c r="J170" s="5"/>
@@ -10874,26 +10917,24 @@
       <c r="Z170" s="3"/>
     </row>
     <row r="171" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A171" s="8" t="s">
-        <v>436</v>
-      </c>
-      <c r="B171" s="6" t="s">
-        <v>437</v>
-      </c>
-      <c r="C171" s="6" t="s">
-        <v>438</v>
-      </c>
-      <c r="D171" s="11" t="s">
-        <v>439</v>
-      </c>
-      <c r="E171" s="6" t="s">
-        <v>440</v>
-      </c>
-      <c r="F171" s="6" t="s">
-        <v>292</v>
-      </c>
+      <c r="A171" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="B171" s="26" t="s">
+        <v>567</v>
+      </c>
+      <c r="C171" s="26" t="s">
+        <v>569</v>
+      </c>
+      <c r="D171" s="29" t="s">
+        <v>574</v>
+      </c>
+      <c r="E171" s="6"/>
+      <c r="F171" s="5"/>
       <c r="G171" s="5"/>
-      <c r="H171" s="5"/>
+      <c r="H171" s="6" t="s">
+        <v>579</v>
+      </c>
       <c r="I171" s="5"/>
       <c r="J171" s="5"/>
       <c r="K171" s="5"/>
@@ -10914,26 +10955,24 @@
       <c r="Z171" s="3"/>
     </row>
     <row r="172" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A172" s="8" t="s">
-        <v>436</v>
-      </c>
-      <c r="B172" s="6" t="s">
-        <v>437</v>
-      </c>
-      <c r="C172" s="6" t="s">
-        <v>441</v>
-      </c>
-      <c r="D172" s="11" t="s">
-        <v>442</v>
-      </c>
-      <c r="E172" s="6" t="s">
-        <v>443</v>
-      </c>
-      <c r="F172" s="6" t="s">
-        <v>292</v>
-      </c>
+      <c r="A172" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="B172" s="26" t="s">
+        <v>567</v>
+      </c>
+      <c r="C172" s="26" t="s">
+        <v>570</v>
+      </c>
+      <c r="D172" s="28" t="s">
+        <v>575</v>
+      </c>
+      <c r="E172" s="6"/>
+      <c r="F172" s="5"/>
       <c r="G172" s="5"/>
-      <c r="H172" s="5"/>
+      <c r="H172" s="6" t="s">
+        <v>580</v>
+      </c>
       <c r="I172" s="5"/>
       <c r="J172" s="5"/>
       <c r="K172" s="5"/>
@@ -10954,25 +10993,23 @@
       <c r="Z172" s="3"/>
     </row>
     <row r="173" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A173" s="8" t="s">
-        <v>436</v>
-      </c>
-      <c r="B173" s="6" t="s">
-        <v>444</v>
-      </c>
-      <c r="C173" s="6" t="s">
-        <v>444</v>
-      </c>
-      <c r="D173" s="11" t="s">
-        <v>445</v>
-      </c>
-      <c r="E173" s="5"/>
-      <c r="F173" s="6" t="s">
-        <v>446</v>
-      </c>
+      <c r="A173" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="B173" s="26" t="s">
+        <v>567</v>
+      </c>
+      <c r="C173" s="26" t="s">
+        <v>571</v>
+      </c>
+      <c r="D173" s="29" t="s">
+        <v>576</v>
+      </c>
+      <c r="E173" s="6"/>
+      <c r="F173" s="5"/>
       <c r="G173" s="5"/>
       <c r="H173" s="6" t="s">
-        <v>446</v>
+        <v>581</v>
       </c>
       <c r="I173" s="5"/>
       <c r="J173" s="5"/>
@@ -10994,27 +11031,23 @@
       <c r="Z173" s="3"/>
     </row>
     <row r="174" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A174" s="8" t="s">
-        <v>436</v>
-      </c>
-      <c r="B174" s="6" t="s">
-        <v>447</v>
-      </c>
-      <c r="C174" s="6" t="s">
-        <v>448</v>
-      </c>
-      <c r="D174" s="11" t="s">
-        <v>449</v>
-      </c>
-      <c r="E174" s="6" t="s">
-        <v>450</v>
-      </c>
-      <c r="F174" s="6" t="s">
-        <v>450</v>
-      </c>
+      <c r="A174" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="B174" s="26" t="s">
+        <v>567</v>
+      </c>
+      <c r="C174" s="26" t="s">
+        <v>572</v>
+      </c>
+      <c r="D174" s="29" t="s">
+        <v>577</v>
+      </c>
+      <c r="E174" s="6"/>
+      <c r="F174" s="5"/>
       <c r="G174" s="5"/>
       <c r="H174" s="6" t="s">
-        <v>450</v>
+        <v>582</v>
       </c>
       <c r="I174" s="5"/>
       <c r="J174" s="5"/>
@@ -11036,27 +11069,23 @@
       <c r="Z174" s="3"/>
     </row>
     <row r="175" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A175" s="8" t="s">
-        <v>436</v>
-      </c>
-      <c r="B175" s="6" t="s">
-        <v>447</v>
-      </c>
+      <c r="A175" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="B175" s="5"/>
       <c r="C175" s="6" t="s">
-        <v>451</v>
+        <v>434</v>
       </c>
       <c r="D175" s="11" t="s">
-        <v>452</v>
+        <v>435</v>
       </c>
       <c r="E175" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F175" s="6" t="s">
-        <v>21</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="F175" s="5"/>
       <c r="G175" s="5"/>
       <c r="H175" s="6" t="s">
-        <v>21</v>
+        <v>289</v>
       </c>
       <c r="I175" s="5"/>
       <c r="J175" s="5"/>
@@ -11081,20 +11110,24 @@
       <c r="A176" s="8" t="s">
         <v>436</v>
       </c>
-      <c r="B176" s="5"/>
+      <c r="B176" s="6" t="s">
+        <v>437</v>
+      </c>
       <c r="C176" s="6" t="s">
-        <v>453</v>
+        <v>438</v>
       </c>
       <c r="D176" s="11" t="s">
-        <v>454</v>
-      </c>
-      <c r="E176" s="5"/>
-      <c r="F176" s="5"/>
+        <v>439</v>
+      </c>
+      <c r="E176" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="F176" s="6" t="s">
+        <v>292</v>
+      </c>
       <c r="G176" s="5"/>
       <c r="H176" s="5"/>
-      <c r="I176" s="6" t="s">
-        <v>455</v>
-      </c>
+      <c r="I176" s="5"/>
       <c r="J176" s="5"/>
       <c r="K176" s="5"/>
       <c r="L176" s="5"/>
@@ -11115,24 +11148,26 @@
     </row>
     <row r="177" spans="1:26" ht="13.5" customHeight="1">
       <c r="A177" s="8" t="s">
-        <v>456</v>
-      </c>
-      <c r="B177" s="8" t="s">
-        <v>457</v>
-      </c>
-      <c r="C177" s="8" t="s">
-        <v>458</v>
+        <v>436</v>
+      </c>
+      <c r="B177" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="C177" s="6" t="s">
+        <v>441</v>
       </c>
       <c r="D177" s="11" t="s">
-        <v>459</v>
-      </c>
-      <c r="E177" s="5"/>
-      <c r="F177" s="5"/>
+        <v>442</v>
+      </c>
+      <c r="E177" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="F177" s="6" t="s">
+        <v>292</v>
+      </c>
       <c r="G177" s="5"/>
       <c r="H177" s="5"/>
-      <c r="I177" s="8" t="s">
-        <v>460</v>
-      </c>
+      <c r="I177" s="5"/>
       <c r="J177" s="5"/>
       <c r="K177" s="5"/>
       <c r="L177" s="5"/>
@@ -11153,24 +11188,24 @@
     </row>
     <row r="178" spans="1:26" ht="13.5" customHeight="1">
       <c r="A178" s="8" t="s">
-        <v>456</v>
-      </c>
-      <c r="B178" s="8" t="s">
-        <v>457</v>
-      </c>
-      <c r="C178" s="8" t="s">
-        <v>461</v>
+        <v>436</v>
+      </c>
+      <c r="B178" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="C178" s="6" t="s">
+        <v>444</v>
       </c>
       <c r="D178" s="11" t="s">
-        <v>462</v>
-      </c>
-      <c r="E178" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="F178" s="5"/>
+        <v>445</v>
+      </c>
+      <c r="E178" s="5"/>
+      <c r="F178" s="6" t="s">
+        <v>446</v>
+      </c>
       <c r="G178" s="5"/>
       <c r="H178" s="6" t="s">
-        <v>289</v>
+        <v>446</v>
       </c>
       <c r="I178" s="5"/>
       <c r="J178" s="5"/>
@@ -11193,24 +11228,28 @@
     </row>
     <row r="179" spans="1:26" ht="13.5" customHeight="1">
       <c r="A179" s="8" t="s">
-        <v>456</v>
-      </c>
-      <c r="B179" s="8" t="s">
-        <v>463</v>
-      </c>
-      <c r="C179" s="8" t="s">
-        <v>464</v>
-      </c>
-      <c r="D179" s="18" t="s">
-        <v>465</v>
-      </c>
-      <c r="E179" s="19"/>
-      <c r="F179" s="19"/>
-      <c r="G179" s="19"/>
-      <c r="H179" s="20"/>
-      <c r="I179" s="8" t="s">
-        <v>466</v>
-      </c>
+        <v>436</v>
+      </c>
+      <c r="B179" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="C179" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="D179" s="11" t="s">
+        <v>449</v>
+      </c>
+      <c r="E179" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="F179" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="G179" s="5"/>
+      <c r="H179" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="I179" s="5"/>
       <c r="J179" s="5"/>
       <c r="K179" s="5"/>
       <c r="L179" s="5"/>
@@ -11231,24 +11270,26 @@
     </row>
     <row r="180" spans="1:26" ht="13.5" customHeight="1">
       <c r="A180" s="8" t="s">
-        <v>456</v>
-      </c>
-      <c r="B180" s="8" t="s">
-        <v>463</v>
-      </c>
-      <c r="C180" s="8" t="s">
-        <v>467</v>
+        <v>436</v>
+      </c>
+      <c r="B180" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="C180" s="6" t="s">
+        <v>451</v>
       </c>
       <c r="D180" s="11" t="s">
-        <v>468</v>
+        <v>452</v>
       </c>
       <c r="E180" s="6" t="s">
-        <v>469</v>
-      </c>
-      <c r="F180" s="5"/>
+        <v>21</v>
+      </c>
+      <c r="F180" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="G180" s="5"/>
       <c r="H180" s="6" t="s">
-        <v>469</v>
+        <v>21</v>
       </c>
       <c r="I180" s="5"/>
       <c r="J180" s="5"/>
@@ -11271,24 +11312,22 @@
     </row>
     <row r="181" spans="1:26" ht="13.5" customHeight="1">
       <c r="A181" s="8" t="s">
-        <v>456</v>
-      </c>
-      <c r="B181" s="8" t="s">
-        <v>470</v>
-      </c>
-      <c r="C181" s="8" t="s">
-        <v>471</v>
+        <v>436</v>
+      </c>
+      <c r="B181" s="5"/>
+      <c r="C181" s="6" t="s">
+        <v>453</v>
       </c>
       <c r="D181" s="11" t="s">
-        <v>472</v>
+        <v>454</v>
       </c>
       <c r="E181" s="5"/>
-      <c r="F181" s="6" t="s">
-        <v>473</v>
-      </c>
+      <c r="F181" s="5"/>
       <c r="G181" s="5"/>
       <c r="H181" s="5"/>
-      <c r="I181" s="5"/>
+      <c r="I181" s="6" t="s">
+        <v>455</v>
+      </c>
       <c r="J181" s="5"/>
       <c r="K181" s="5"/>
       <c r="L181" s="5"/>
@@ -11312,21 +11351,21 @@
         <v>456</v>
       </c>
       <c r="B182" s="8" t="s">
-        <v>470</v>
+        <v>457</v>
       </c>
       <c r="C182" s="8" t="s">
-        <v>474</v>
+        <v>458</v>
       </c>
       <c r="D182" s="11" t="s">
-        <v>475</v>
+        <v>459</v>
       </c>
       <c r="E182" s="5"/>
-      <c r="F182" s="6" t="s">
-        <v>476</v>
-      </c>
+      <c r="F182" s="5"/>
       <c r="G182" s="5"/>
       <c r="H182" s="5"/>
-      <c r="I182" s="5"/>
+      <c r="I182" s="8" t="s">
+        <v>460</v>
+      </c>
       <c r="J182" s="5"/>
       <c r="K182" s="5"/>
       <c r="L182" s="5"/>
@@ -11350,20 +11389,22 @@
         <v>456</v>
       </c>
       <c r="B183" s="8" t="s">
-        <v>470</v>
+        <v>457</v>
       </c>
       <c r="C183" s="8" t="s">
-        <v>477</v>
+        <v>461</v>
       </c>
       <c r="D183" s="11" t="s">
-        <v>478</v>
-      </c>
-      <c r="E183" s="5"/>
-      <c r="F183" s="6" t="s">
-        <v>479</v>
-      </c>
+        <v>462</v>
+      </c>
+      <c r="E183" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="F183" s="5"/>
       <c r="G183" s="5"/>
-      <c r="H183" s="5"/>
+      <c r="H183" s="6" t="s">
+        <v>289</v>
+      </c>
       <c r="I183" s="5"/>
       <c r="J183" s="5"/>
       <c r="K183" s="5"/>
@@ -11388,21 +11429,21 @@
         <v>456</v>
       </c>
       <c r="B184" s="8" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="C184" s="8" t="s">
-        <v>480</v>
-      </c>
-      <c r="D184" s="11" t="s">
-        <v>481</v>
-      </c>
-      <c r="E184" s="5"/>
-      <c r="F184" s="6" t="s">
-        <v>482</v>
-      </c>
-      <c r="G184" s="5"/>
-      <c r="H184" s="5"/>
-      <c r="I184" s="5"/>
+        <v>464</v>
+      </c>
+      <c r="D184" s="18" t="s">
+        <v>465</v>
+      </c>
+      <c r="E184" s="19"/>
+      <c r="F184" s="19"/>
+      <c r="G184" s="19"/>
+      <c r="H184" s="20"/>
+      <c r="I184" s="8" t="s">
+        <v>466</v>
+      </c>
       <c r="J184" s="5"/>
       <c r="K184" s="5"/>
       <c r="L184" s="5"/>
@@ -11426,20 +11467,22 @@
         <v>456</v>
       </c>
       <c r="B185" s="8" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="C185" s="8" t="s">
-        <v>483</v>
+        <v>467</v>
       </c>
       <c r="D185" s="11" t="s">
-        <v>484</v>
-      </c>
-      <c r="E185" s="5"/>
-      <c r="F185" s="6" t="s">
-        <v>485</v>
-      </c>
+        <v>468</v>
+      </c>
+      <c r="E185" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="F185" s="5"/>
       <c r="G185" s="5"/>
-      <c r="H185" s="5"/>
+      <c r="H185" s="6" t="s">
+        <v>469</v>
+      </c>
       <c r="I185" s="5"/>
       <c r="J185" s="5"/>
       <c r="K185" s="5"/>
@@ -11467,14 +11510,14 @@
         <v>470</v>
       </c>
       <c r="C186" s="8" t="s">
-        <v>486</v>
+        <v>471</v>
       </c>
       <c r="D186" s="11" t="s">
-        <v>487</v>
+        <v>472</v>
       </c>
       <c r="E186" s="5"/>
       <c r="F186" s="6" t="s">
-        <v>488</v>
+        <v>473</v>
       </c>
       <c r="G186" s="5"/>
       <c r="H186" s="5"/>
@@ -11505,14 +11548,14 @@
         <v>470</v>
       </c>
       <c r="C187" s="8" t="s">
-        <v>489</v>
+        <v>474</v>
       </c>
       <c r="D187" s="11" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="E187" s="5"/>
       <c r="F187" s="6" t="s">
-        <v>491</v>
+        <v>476</v>
       </c>
       <c r="G187" s="5"/>
       <c r="H187" s="5"/>
@@ -11543,14 +11586,14 @@
         <v>470</v>
       </c>
       <c r="C188" s="8" t="s">
-        <v>492</v>
+        <v>477</v>
       </c>
       <c r="D188" s="11" t="s">
-        <v>493</v>
+        <v>478</v>
       </c>
       <c r="E188" s="5"/>
       <c r="F188" s="6" t="s">
-        <v>494</v>
+        <v>479</v>
       </c>
       <c r="G188" s="5"/>
       <c r="H188" s="5"/>
@@ -11581,14 +11624,14 @@
         <v>470</v>
       </c>
       <c r="C189" s="8" t="s">
-        <v>495</v>
+        <v>480</v>
       </c>
       <c r="D189" s="11" t="s">
-        <v>496</v>
+        <v>481</v>
       </c>
       <c r="E189" s="5"/>
       <c r="F189" s="6" t="s">
-        <v>497</v>
+        <v>482</v>
       </c>
       <c r="G189" s="5"/>
       <c r="H189" s="5"/>
@@ -11619,14 +11662,14 @@
         <v>470</v>
       </c>
       <c r="C190" s="8" t="s">
-        <v>498</v>
+        <v>483</v>
       </c>
       <c r="D190" s="11" t="s">
-        <v>499</v>
+        <v>484</v>
       </c>
       <c r="E190" s="5"/>
       <c r="F190" s="6" t="s">
-        <v>500</v>
+        <v>485</v>
       </c>
       <c r="G190" s="5"/>
       <c r="H190" s="5"/>
@@ -11657,14 +11700,14 @@
         <v>470</v>
       </c>
       <c r="C191" s="8" t="s">
-        <v>501</v>
+        <v>486</v>
       </c>
       <c r="D191" s="11" t="s">
-        <v>502</v>
+        <v>487</v>
       </c>
       <c r="E191" s="5"/>
       <c r="F191" s="6" t="s">
-        <v>503</v>
+        <v>488</v>
       </c>
       <c r="G191" s="5"/>
       <c r="H191" s="5"/>
@@ -11695,14 +11738,14 @@
         <v>470</v>
       </c>
       <c r="C192" s="8" t="s">
-        <v>504</v>
+        <v>489</v>
       </c>
       <c r="D192" s="11" t="s">
-        <v>505</v>
+        <v>490</v>
       </c>
       <c r="E192" s="5"/>
       <c r="F192" s="6" t="s">
-        <v>506</v>
+        <v>491</v>
       </c>
       <c r="G192" s="5"/>
       <c r="H192" s="5"/>
@@ -11733,14 +11776,14 @@
         <v>470</v>
       </c>
       <c r="C193" s="8" t="s">
-        <v>507</v>
+        <v>492</v>
       </c>
       <c r="D193" s="11" t="s">
-        <v>508</v>
+        <v>493</v>
       </c>
       <c r="E193" s="5"/>
       <c r="F193" s="6" t="s">
-        <v>509</v>
+        <v>494</v>
       </c>
       <c r="G193" s="5"/>
       <c r="H193" s="5"/>
@@ -11768,20 +11811,20 @@
         <v>456</v>
       </c>
       <c r="B194" s="8" t="s">
-        <v>510</v>
+        <v>470</v>
       </c>
       <c r="C194" s="8" t="s">
-        <v>511</v>
+        <v>495</v>
       </c>
       <c r="D194" s="11" t="s">
-        <v>512</v>
+        <v>496</v>
       </c>
       <c r="E194" s="5"/>
-      <c r="F194" s="5"/>
+      <c r="F194" s="6" t="s">
+        <v>497</v>
+      </c>
       <c r="G194" s="5"/>
-      <c r="H194" s="5" t="s">
-        <v>513</v>
-      </c>
+      <c r="H194" s="5"/>
       <c r="I194" s="5"/>
       <c r="J194" s="5"/>
       <c r="K194" s="5"/>
@@ -11806,20 +11849,20 @@
         <v>456</v>
       </c>
       <c r="B195" s="8" t="s">
-        <v>514</v>
+        <v>470</v>
       </c>
       <c r="C195" s="8" t="s">
-        <v>515</v>
+        <v>498</v>
       </c>
       <c r="D195" s="11" t="s">
-        <v>516</v>
+        <v>499</v>
       </c>
       <c r="E195" s="5"/>
-      <c r="F195" s="5"/>
+      <c r="F195" s="6" t="s">
+        <v>500</v>
+      </c>
       <c r="G195" s="5"/>
-      <c r="H195" s="5" t="s">
-        <v>517</v>
-      </c>
+      <c r="H195" s="5"/>
       <c r="I195" s="5"/>
       <c r="J195" s="5"/>
       <c r="K195" s="5"/>
@@ -11844,20 +11887,20 @@
         <v>456</v>
       </c>
       <c r="B196" s="8" t="s">
-        <v>514</v>
+        <v>470</v>
       </c>
       <c r="C196" s="8" t="s">
-        <v>518</v>
+        <v>501</v>
       </c>
       <c r="D196" s="11" t="s">
-        <v>519</v>
+        <v>502</v>
       </c>
       <c r="E196" s="5"/>
-      <c r="F196" s="5"/>
+      <c r="F196" s="6" t="s">
+        <v>503</v>
+      </c>
       <c r="G196" s="5"/>
-      <c r="H196" s="5" t="s">
-        <v>520</v>
-      </c>
+      <c r="H196" s="5"/>
       <c r="I196" s="5"/>
       <c r="J196" s="5"/>
       <c r="K196" s="5"/>
@@ -11882,21 +11925,21 @@
         <v>456</v>
       </c>
       <c r="B197" s="8" t="s">
-        <v>514</v>
+        <v>470</v>
       </c>
       <c r="C197" s="8" t="s">
-        <v>521</v>
+        <v>504</v>
       </c>
       <c r="D197" s="11" t="s">
-        <v>522</v>
+        <v>505</v>
       </c>
       <c r="E197" s="5"/>
-      <c r="F197" s="5"/>
+      <c r="F197" s="6" t="s">
+        <v>506</v>
+      </c>
       <c r="G197" s="5"/>
       <c r="H197" s="5"/>
-      <c r="I197" s="6" t="s">
-        <v>523</v>
-      </c>
+      <c r="I197" s="5"/>
       <c r="J197" s="5"/>
       <c r="K197" s="5"/>
       <c r="L197" s="5"/>
@@ -11917,22 +11960,24 @@
     </row>
     <row r="198" spans="1:26" ht="13.5" customHeight="1">
       <c r="A198" s="8" t="s">
-        <v>524</v>
-      </c>
-      <c r="B198" s="5"/>
+        <v>456</v>
+      </c>
+      <c r="B198" s="8" t="s">
+        <v>470</v>
+      </c>
       <c r="C198" s="8" t="s">
-        <v>525</v>
+        <v>507</v>
       </c>
       <c r="D198" s="11" t="s">
-        <v>526</v>
+        <v>508</v>
       </c>
       <c r="E198" s="5"/>
-      <c r="F198" s="5"/>
+      <c r="F198" s="6" t="s">
+        <v>509</v>
+      </c>
       <c r="G198" s="5"/>
       <c r="H198" s="5"/>
-      <c r="I198" s="6" t="s">
-        <v>527</v>
-      </c>
+      <c r="I198" s="5"/>
       <c r="J198" s="5"/>
       <c r="K198" s="5"/>
       <c r="L198" s="5"/>
@@ -11953,23 +11998,23 @@
     </row>
     <row r="199" spans="1:26" ht="13.5" customHeight="1">
       <c r="A199" s="8" t="s">
-        <v>524</v>
-      </c>
-      <c r="B199" s="5"/>
+        <v>456</v>
+      </c>
+      <c r="B199" s="8" t="s">
+        <v>510</v>
+      </c>
       <c r="C199" s="8" t="s">
-        <v>528</v>
+        <v>511</v>
       </c>
       <c r="D199" s="11" t="s">
-        <v>529</v>
-      </c>
-      <c r="E199" s="5" t="s">
-        <v>530</v>
-      </c>
-      <c r="F199" s="5" t="s">
-        <v>530</v>
-      </c>
+        <v>512</v>
+      </c>
+      <c r="E199" s="5"/>
+      <c r="F199" s="5"/>
       <c r="G199" s="5"/>
-      <c r="H199" s="5"/>
+      <c r="H199" s="5" t="s">
+        <v>513</v>
+      </c>
       <c r="I199" s="5"/>
       <c r="J199" s="5"/>
       <c r="K199" s="5"/>
@@ -11990,25 +12035,25 @@
       <c r="Z199" s="3"/>
     </row>
     <row r="200" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A200" s="6" t="s">
-        <v>531</v>
-      </c>
-      <c r="B200" s="33" t="s">
-        <v>599</v>
-      </c>
-      <c r="C200" s="39" t="s">
-        <v>600</v>
-      </c>
-      <c r="D200" s="27" t="s">
-        <v>602</v>
+      <c r="A200" s="8" t="s">
+        <v>456</v>
+      </c>
+      <c r="B200" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="C200" s="8" t="s">
+        <v>515</v>
+      </c>
+      <c r="D200" s="11" t="s">
+        <v>516</v>
       </c>
       <c r="E200" s="5"/>
       <c r="F200" s="5"/>
       <c r="G200" s="5"/>
-      <c r="H200" s="5"/>
-      <c r="I200" s="5" t="s">
-        <v>595</v>
-      </c>
+      <c r="H200" s="5" t="s">
+        <v>517</v>
+      </c>
+      <c r="I200" s="5"/>
       <c r="J200" s="5"/>
       <c r="K200" s="5"/>
       <c r="L200" s="5"/>
@@ -12028,26 +12073,24 @@
       <c r="Z200" s="3"/>
     </row>
     <row r="201" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A201" s="6" t="s">
-        <v>531</v>
-      </c>
-      <c r="B201" s="33" t="s">
-        <v>599</v>
-      </c>
-      <c r="C201" s="39" t="s">
-        <v>601</v>
+      <c r="A201" s="8" t="s">
+        <v>456</v>
+      </c>
+      <c r="B201" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="C201" s="8" t="s">
+        <v>518</v>
       </c>
       <c r="D201" s="11" t="s">
-        <v>603</v>
-      </c>
-      <c r="E201" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="F201" s="5" t="s">
-        <v>235</v>
-      </c>
+        <v>519</v>
+      </c>
+      <c r="E201" s="5"/>
+      <c r="F201" s="5"/>
       <c r="G201" s="5"/>
-      <c r="H201" s="5"/>
+      <c r="H201" s="5" t="s">
+        <v>520</v>
+      </c>
       <c r="I201" s="5"/>
       <c r="J201" s="5"/>
       <c r="K201" s="5"/>
@@ -12068,22 +12111,24 @@
       <c r="Z201" s="3"/>
     </row>
     <row r="202" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A202" s="6" t="s">
-        <v>531</v>
-      </c>
-      <c r="B202" s="5"/>
-      <c r="C202" s="6" t="s">
-        <v>532</v>
+      <c r="A202" s="8" t="s">
+        <v>456</v>
+      </c>
+      <c r="B202" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="C202" s="8" t="s">
+        <v>521</v>
       </c>
       <c r="D202" s="11" t="s">
-        <v>533</v>
+        <v>522</v>
       </c>
       <c r="E202" s="5"/>
       <c r="F202" s="5"/>
       <c r="G202" s="5"/>
       <c r="H202" s="5"/>
       <c r="I202" s="6" t="s">
-        <v>534</v>
+        <v>523</v>
       </c>
       <c r="J202" s="5"/>
       <c r="K202" s="5"/>
@@ -12104,22 +12149,22 @@
       <c r="Z202" s="3"/>
     </row>
     <row r="203" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A203" s="6" t="s">
-        <v>531</v>
+      <c r="A203" s="8" t="s">
+        <v>524</v>
       </c>
       <c r="B203" s="5"/>
       <c r="C203" s="8" t="s">
-        <v>535</v>
+        <v>525</v>
       </c>
       <c r="D203" s="11" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="E203" s="5"/>
       <c r="F203" s="5"/>
       <c r="G203" s="5"/>
       <c r="H203" s="5"/>
-      <c r="I203" s="8" t="s">
-        <v>537</v>
+      <c r="I203" s="6" t="s">
+        <v>527</v>
       </c>
       <c r="J203" s="5"/>
       <c r="K203" s="5"/>
@@ -12140,23 +12185,25 @@
       <c r="Z203" s="3"/>
     </row>
     <row r="204" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A204" s="6" t="s">
-        <v>531</v>
+      <c r="A204" s="8" t="s">
+        <v>524</v>
       </c>
       <c r="B204" s="5"/>
       <c r="C204" s="8" t="s">
-        <v>538</v>
+        <v>528</v>
       </c>
       <c r="D204" s="11" t="s">
-        <v>539</v>
-      </c>
-      <c r="E204" s="5"/>
-      <c r="F204" s="5"/>
+        <v>529</v>
+      </c>
+      <c r="E204" s="5" t="s">
+        <v>530</v>
+      </c>
+      <c r="F204" s="5" t="s">
+        <v>530</v>
+      </c>
       <c r="G204" s="5"/>
       <c r="H204" s="5"/>
-      <c r="I204" s="6" t="s">
-        <v>540</v>
-      </c>
+      <c r="I204" s="5"/>
       <c r="J204" s="5"/>
       <c r="K204" s="5"/>
       <c r="L204" s="5"/>
@@ -12179,19 +12226,21 @@
       <c r="A205" s="6" t="s">
         <v>531</v>
       </c>
-      <c r="B205" s="5"/>
-      <c r="C205" s="6" t="s">
-        <v>541</v>
-      </c>
-      <c r="D205" s="11" t="s">
-        <v>542</v>
+      <c r="B205" s="33" t="s">
+        <v>619</v>
+      </c>
+      <c r="C205" s="39" t="s">
+        <v>599</v>
+      </c>
+      <c r="D205" s="27" t="s">
+        <v>601</v>
       </c>
       <c r="E205" s="5"/>
       <c r="F205" s="5"/>
       <c r="G205" s="5"/>
       <c r="H205" s="5"/>
-      <c r="I205" s="6" t="s">
-        <v>543</v>
+      <c r="I205" s="5" t="s">
+        <v>595</v>
       </c>
       <c r="J205" s="5"/>
       <c r="K205" s="5"/>
@@ -12215,17 +12264,21 @@
       <c r="A206" s="6" t="s">
         <v>531</v>
       </c>
-      <c r="B206" s="5"/>
-      <c r="C206" s="6" t="s">
-        <v>544</v>
+      <c r="B206" s="33" t="s">
+        <v>619</v>
+      </c>
+      <c r="C206" s="39" t="s">
+        <v>600</v>
       </c>
       <c r="D206" s="11" t="s">
-        <v>545</v>
-      </c>
-      <c r="E206" s="6" t="s">
-        <v>546</v>
-      </c>
-      <c r="F206" s="5"/>
+        <v>602</v>
+      </c>
+      <c r="E206" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="F206" s="5" t="s">
+        <v>235</v>
+      </c>
       <c r="G206" s="5"/>
       <c r="H206" s="5"/>
       <c r="I206" s="5"/>
@@ -12248,22 +12301,22 @@
       <c r="Z206" s="3"/>
     </row>
     <row r="207" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A207" s="8" t="s">
-        <v>547</v>
+      <c r="A207" s="6" t="s">
+        <v>531</v>
       </c>
       <c r="B207" s="5"/>
-      <c r="C207" s="26" t="s">
-        <v>564</v>
-      </c>
-      <c r="D207" s="27" t="s">
-        <v>566</v>
-      </c>
-      <c r="E207" s="6"/>
+      <c r="C207" s="6" t="s">
+        <v>532</v>
+      </c>
+      <c r="D207" s="11" t="s">
+        <v>533</v>
+      </c>
+      <c r="E207" s="5"/>
       <c r="F207" s="5"/>
       <c r="G207" s="5"/>
       <c r="H207" s="5"/>
-      <c r="I207" s="5" t="s">
-        <v>565</v>
+      <c r="I207" s="6" t="s">
+        <v>534</v>
       </c>
       <c r="J207" s="5"/>
       <c r="K207" s="5"/>
@@ -12284,22 +12337,22 @@
       <c r="Z207" s="3"/>
     </row>
     <row r="208" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A208" s="8" t="s">
-        <v>547</v>
-      </c>
-      <c r="B208" s="4"/>
-      <c r="C208" s="21" t="s">
-        <v>548</v>
-      </c>
-      <c r="D208" s="22" t="s">
-        <v>549</v>
-      </c>
-      <c r="E208" s="4"/>
+      <c r="A208" s="6" t="s">
+        <v>531</v>
+      </c>
+      <c r="B208" s="5"/>
+      <c r="C208" s="8" t="s">
+        <v>535</v>
+      </c>
+      <c r="D208" s="11" t="s">
+        <v>536</v>
+      </c>
+      <c r="E208" s="5"/>
       <c r="F208" s="5"/>
       <c r="G208" s="5"/>
-      <c r="H208" s="4"/>
-      <c r="I208" s="6" t="s">
-        <v>550</v>
+      <c r="H208" s="5"/>
+      <c r="I208" s="8" t="s">
+        <v>537</v>
       </c>
       <c r="J208" s="5"/>
       <c r="K208" s="5"/>
@@ -12320,22 +12373,22 @@
       <c r="Z208" s="3"/>
     </row>
     <row r="209" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A209" s="8" t="s">
-        <v>547</v>
-      </c>
-      <c r="B209" s="4"/>
+      <c r="A209" s="6" t="s">
+        <v>531</v>
+      </c>
+      <c r="B209" s="5"/>
       <c r="C209" s="8" t="s">
-        <v>551</v>
-      </c>
-      <c r="D209" s="9" t="s">
-        <v>552</v>
-      </c>
-      <c r="E209" s="4"/>
+        <v>538</v>
+      </c>
+      <c r="D209" s="11" t="s">
+        <v>539</v>
+      </c>
+      <c r="E209" s="5"/>
       <c r="F209" s="5"/>
       <c r="G209" s="5"/>
-      <c r="H209" s="4"/>
+      <c r="H209" s="5"/>
       <c r="I209" s="6" t="s">
-        <v>553</v>
+        <v>540</v>
       </c>
       <c r="J209" s="5"/>
       <c r="K209" s="5"/>
@@ -12356,22 +12409,22 @@
       <c r="Z209" s="3"/>
     </row>
     <row r="210" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A210" s="8" t="s">
-        <v>547</v>
-      </c>
-      <c r="B210" s="4"/>
-      <c r="C210" s="8" t="s">
-        <v>554</v>
-      </c>
-      <c r="D210" s="9" t="s">
-        <v>555</v>
-      </c>
-      <c r="E210" s="4"/>
+      <c r="A210" s="6" t="s">
+        <v>531</v>
+      </c>
+      <c r="B210" s="5"/>
+      <c r="C210" s="6" t="s">
+        <v>541</v>
+      </c>
+      <c r="D210" s="11" t="s">
+        <v>542</v>
+      </c>
+      <c r="E210" s="5"/>
       <c r="F210" s="5"/>
       <c r="G210" s="5"/>
-      <c r="H210" s="4"/>
+      <c r="H210" s="5"/>
       <c r="I210" s="6" t="s">
-        <v>556</v>
+        <v>543</v>
       </c>
       <c r="J210" s="5"/>
       <c r="K210" s="5"/>
@@ -12392,23 +12445,23 @@
       <c r="Z210" s="3"/>
     </row>
     <row r="211" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A211" s="8" t="s">
-        <v>557</v>
+      <c r="A211" s="6" t="s">
+        <v>531</v>
       </c>
       <c r="B211" s="5"/>
       <c r="C211" s="6" t="s">
-        <v>558</v>
+        <v>544</v>
       </c>
       <c r="D211" s="11" t="s">
-        <v>559</v>
-      </c>
-      <c r="E211" s="5"/>
+        <v>545</v>
+      </c>
+      <c r="E211" s="6" t="s">
+        <v>546</v>
+      </c>
       <c r="F211" s="5"/>
       <c r="G211" s="5"/>
       <c r="H211" s="5"/>
-      <c r="I211" s="6" t="s">
-        <v>560</v>
-      </c>
+      <c r="I211" s="5"/>
       <c r="J211" s="5"/>
       <c r="K211" s="5"/>
       <c r="L211" s="5"/>
@@ -12429,21 +12482,21 @@
     </row>
     <row r="212" spans="1:26" ht="13.5" customHeight="1">
       <c r="A212" s="8" t="s">
-        <v>557</v>
+        <v>547</v>
       </c>
       <c r="B212" s="5"/>
-      <c r="C212" s="6" t="s">
-        <v>561</v>
-      </c>
-      <c r="D212" s="32" t="s">
-        <v>562</v>
-      </c>
-      <c r="E212" s="5"/>
+      <c r="C212" s="26" t="s">
+        <v>564</v>
+      </c>
+      <c r="D212" s="27" t="s">
+        <v>566</v>
+      </c>
+      <c r="E212" s="6"/>
       <c r="F212" s="5"/>
       <c r="G212" s="5"/>
       <c r="H212" s="5"/>
-      <c r="I212" s="6" t="s">
-        <v>563</v>
+      <c r="I212" s="5" t="s">
+        <v>565</v>
       </c>
       <c r="J212" s="5"/>
       <c r="K212" s="5"/>
@@ -12464,22 +12517,22 @@
       <c r="Z212" s="3"/>
     </row>
     <row r="213" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A213" s="23" t="s">
-        <v>597</v>
-      </c>
-      <c r="B213" s="30"/>
-      <c r="C213" s="36" t="s">
-        <v>587</v>
-      </c>
-      <c r="D213" s="37" t="s">
-        <v>590</v>
-      </c>
-      <c r="E213" s="31"/>
+      <c r="A213" s="8" t="s">
+        <v>547</v>
+      </c>
+      <c r="B213" s="4"/>
+      <c r="C213" s="21" t="s">
+        <v>548</v>
+      </c>
+      <c r="D213" s="22" t="s">
+        <v>549</v>
+      </c>
+      <c r="E213" s="4"/>
       <c r="F213" s="5"/>
       <c r="G213" s="5"/>
-      <c r="H213" s="5"/>
+      <c r="H213" s="4"/>
       <c r="I213" s="6" t="s">
-        <v>583</v>
+        <v>550</v>
       </c>
       <c r="J213" s="5"/>
       <c r="K213" s="5"/>
@@ -12500,22 +12553,22 @@
       <c r="Z213" s="3"/>
     </row>
     <row r="214" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A214" s="23" t="s">
-        <v>597</v>
-      </c>
-      <c r="B214" s="33"/>
-      <c r="C214" s="38" t="s">
-        <v>598</v>
+      <c r="A214" s="8" t="s">
+        <v>547</v>
+      </c>
+      <c r="B214" s="4"/>
+      <c r="C214" s="8" t="s">
+        <v>551</v>
       </c>
       <c r="D214" s="9" t="s">
-        <v>224</v>
+        <v>552</v>
       </c>
       <c r="E214" s="4"/>
-      <c r="F214" s="16"/>
-      <c r="G214" s="16"/>
+      <c r="F214" s="5"/>
+      <c r="G214" s="5"/>
       <c r="H214" s="4"/>
       <c r="I214" s="6" t="s">
-        <v>225</v>
+        <v>553</v>
       </c>
       <c r="J214" s="5"/>
       <c r="K214" s="5"/>
@@ -12536,22 +12589,22 @@
       <c r="Z214" s="3"/>
     </row>
     <row r="215" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A215" s="23" t="s">
-        <v>597</v>
-      </c>
-      <c r="B215" s="33"/>
-      <c r="C215" s="25" t="s">
-        <v>584</v>
-      </c>
-      <c r="D215" s="24" t="s">
-        <v>593</v>
-      </c>
-      <c r="E215" s="5"/>
+      <c r="A215" s="8" t="s">
+        <v>547</v>
+      </c>
+      <c r="B215" s="4"/>
+      <c r="C215" s="8" t="s">
+        <v>554</v>
+      </c>
+      <c r="D215" s="9" t="s">
+        <v>555</v>
+      </c>
+      <c r="E215" s="4"/>
       <c r="F215" s="5"/>
       <c r="G215" s="5"/>
-      <c r="H215" s="5"/>
-      <c r="I215" s="5" t="s">
-        <v>595</v>
+      <c r="H215" s="4"/>
+      <c r="I215" s="6" t="s">
+        <v>556</v>
       </c>
       <c r="J215" s="5"/>
       <c r="K215" s="5"/>
@@ -12572,22 +12625,22 @@
       <c r="Z215" s="3"/>
     </row>
     <row r="216" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A216" s="23" t="s">
-        <v>597</v>
-      </c>
-      <c r="B216" s="30"/>
-      <c r="C216" s="34" t="s">
-        <v>210</v>
-      </c>
-      <c r="D216" s="35" t="s">
-        <v>211</v>
-      </c>
-      <c r="E216" s="4"/>
-      <c r="F216" s="16"/>
-      <c r="G216" s="16"/>
-      <c r="H216" s="4"/>
+      <c r="A216" s="8" t="s">
+        <v>557</v>
+      </c>
+      <c r="B216" s="5"/>
+      <c r="C216" s="6" t="s">
+        <v>558</v>
+      </c>
+      <c r="D216" s="11" t="s">
+        <v>559</v>
+      </c>
+      <c r="E216" s="5"/>
+      <c r="F216" s="5"/>
+      <c r="G216" s="5"/>
+      <c r="H216" s="5"/>
       <c r="I216" s="6" t="s">
-        <v>212</v>
+        <v>560</v>
       </c>
       <c r="J216" s="5"/>
       <c r="K216" s="5"/>
@@ -12608,22 +12661,22 @@
       <c r="Z216" s="3"/>
     </row>
     <row r="217" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A217" s="23" t="s">
-        <v>597</v>
-      </c>
-      <c r="B217" s="30"/>
+      <c r="A217" s="8" t="s">
+        <v>557</v>
+      </c>
+      <c r="B217" s="5"/>
       <c r="C217" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="D217" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="E217" s="4"/>
-      <c r="F217" s="16"/>
-      <c r="G217" s="16"/>
-      <c r="H217" s="4"/>
+        <v>561</v>
+      </c>
+      <c r="D217" s="32" t="s">
+        <v>562</v>
+      </c>
+      <c r="E217" s="5"/>
+      <c r="F217" s="5"/>
+      <c r="G217" s="5"/>
+      <c r="H217" s="5"/>
       <c r="I217" s="6" t="s">
-        <v>216</v>
+        <v>563</v>
       </c>
       <c r="J217" s="5"/>
       <c r="K217" s="5"/>
@@ -12647,21 +12700,19 @@
       <c r="A218" s="23" t="s">
         <v>597</v>
       </c>
-      <c r="B218" s="30" t="s">
-        <v>588</v>
-      </c>
-      <c r="C218" s="25" t="s">
-        <v>585</v>
-      </c>
-      <c r="D218" s="24" t="s">
-        <v>592</v>
-      </c>
-      <c r="E218" s="5"/>
+      <c r="B218" s="30"/>
+      <c r="C218" s="36" t="s">
+        <v>587</v>
+      </c>
+      <c r="D218" s="37" t="s">
+        <v>590</v>
+      </c>
+      <c r="E218" s="31"/>
       <c r="F218" s="5"/>
       <c r="G218" s="5"/>
       <c r="H218" s="5"/>
-      <c r="I218" s="5" t="s">
-        <v>266</v>
+      <c r="I218" s="6" t="s">
+        <v>583</v>
       </c>
       <c r="J218" s="5"/>
       <c r="K218" s="5"/>
@@ -12685,21 +12736,19 @@
       <c r="A219" s="23" t="s">
         <v>597</v>
       </c>
-      <c r="B219" s="30" t="s">
-        <v>588</v>
-      </c>
-      <c r="C219" s="25" t="s">
-        <v>586</v>
-      </c>
-      <c r="D219" s="24" t="s">
-        <v>594</v>
-      </c>
-      <c r="E219" s="5"/>
-      <c r="F219" s="5"/>
-      <c r="G219" s="5"/>
-      <c r="H219" s="5"/>
-      <c r="I219" s="5" t="s">
-        <v>33</v>
+      <c r="B219" s="33"/>
+      <c r="C219" s="38" t="s">
+        <v>598</v>
+      </c>
+      <c r="D219" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="E219" s="4"/>
+      <c r="F219" s="16"/>
+      <c r="G219" s="16"/>
+      <c r="H219" s="4"/>
+      <c r="I219" s="6" t="s">
+        <v>225</v>
       </c>
       <c r="J219" s="5"/>
       <c r="K219" s="5"/>
@@ -12723,21 +12772,19 @@
       <c r="A220" s="23" t="s">
         <v>597</v>
       </c>
-      <c r="B220" s="30" t="s">
-        <v>588</v>
-      </c>
+      <c r="B220" s="33"/>
       <c r="C220" s="25" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="D220" s="24" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="E220" s="5"/>
       <c r="F220" s="5"/>
       <c r="G220" s="5"/>
       <c r="H220" s="5"/>
       <c r="I220" s="5" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="J220" s="5"/>
       <c r="K220" s="5"/>
@@ -12758,15 +12805,23 @@
       <c r="Z220" s="3"/>
     </row>
     <row r="221" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A221" s="5"/>
-      <c r="B221" s="5"/>
-      <c r="C221" s="5"/>
-      <c r="D221" s="5"/>
-      <c r="E221" s="5"/>
-      <c r="F221" s="5"/>
-      <c r="G221" s="5"/>
-      <c r="H221" s="5"/>
-      <c r="I221" s="5"/>
+      <c r="A221" s="23" t="s">
+        <v>597</v>
+      </c>
+      <c r="B221" s="30"/>
+      <c r="C221" s="34" t="s">
+        <v>210</v>
+      </c>
+      <c r="D221" s="35" t="s">
+        <v>211</v>
+      </c>
+      <c r="E221" s="4"/>
+      <c r="F221" s="16"/>
+      <c r="G221" s="16"/>
+      <c r="H221" s="4"/>
+      <c r="I221" s="6" t="s">
+        <v>212</v>
+      </c>
       <c r="J221" s="5"/>
       <c r="K221" s="5"/>
       <c r="L221" s="5"/>
@@ -12786,15 +12841,23 @@
       <c r="Z221" s="3"/>
     </row>
     <row r="222" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A222" s="5"/>
-      <c r="B222" s="5"/>
-      <c r="C222" s="5"/>
-      <c r="D222" s="5"/>
-      <c r="E222" s="5"/>
-      <c r="F222" s="5"/>
-      <c r="G222" s="5"/>
-      <c r="H222" s="5"/>
-      <c r="I222" s="5"/>
+      <c r="A222" s="23" t="s">
+        <v>597</v>
+      </c>
+      <c r="B222" s="30"/>
+      <c r="C222" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="D222" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="E222" s="4"/>
+      <c r="F222" s="16"/>
+      <c r="G222" s="16"/>
+      <c r="H222" s="4"/>
+      <c r="I222" s="6" t="s">
+        <v>216</v>
+      </c>
       <c r="J222" s="5"/>
       <c r="K222" s="5"/>
       <c r="L222" s="5"/>
@@ -12814,15 +12877,25 @@
       <c r="Z222" s="3"/>
     </row>
     <row r="223" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A223" s="5"/>
-      <c r="B223" s="5"/>
-      <c r="C223" s="5"/>
-      <c r="D223" s="5"/>
+      <c r="A223" s="23" t="s">
+        <v>597</v>
+      </c>
+      <c r="B223" s="30" t="s">
+        <v>588</v>
+      </c>
+      <c r="C223" s="25" t="s">
+        <v>585</v>
+      </c>
+      <c r="D223" s="24" t="s">
+        <v>592</v>
+      </c>
       <c r="E223" s="5"/>
       <c r="F223" s="5"/>
       <c r="G223" s="5"/>
       <c r="H223" s="5"/>
-      <c r="I223" s="5"/>
+      <c r="I223" s="5" t="s">
+        <v>266</v>
+      </c>
       <c r="J223" s="5"/>
       <c r="K223" s="5"/>
       <c r="L223" s="5"/>
@@ -12842,15 +12915,25 @@
       <c r="Z223" s="3"/>
     </row>
     <row r="224" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A224" s="5"/>
-      <c r="B224" s="5"/>
-      <c r="C224" s="5"/>
-      <c r="D224" s="5"/>
+      <c r="A224" s="23" t="s">
+        <v>597</v>
+      </c>
+      <c r="B224" s="30" t="s">
+        <v>588</v>
+      </c>
+      <c r="C224" s="25" t="s">
+        <v>586</v>
+      </c>
+      <c r="D224" s="24" t="s">
+        <v>594</v>
+      </c>
       <c r="E224" s="5"/>
       <c r="F224" s="5"/>
       <c r="G224" s="5"/>
       <c r="H224" s="5"/>
-      <c r="I224" s="5"/>
+      <c r="I224" s="5" t="s">
+        <v>33</v>
+      </c>
       <c r="J224" s="5"/>
       <c r="K224" s="5"/>
       <c r="L224" s="5"/>
@@ -12870,15 +12953,25 @@
       <c r="Z224" s="3"/>
     </row>
     <row r="225" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A225" s="5"/>
-      <c r="B225" s="5"/>
-      <c r="C225" s="5"/>
-      <c r="D225" s="5"/>
+      <c r="A225" s="23" t="s">
+        <v>597</v>
+      </c>
+      <c r="B225" s="30" t="s">
+        <v>588</v>
+      </c>
+      <c r="C225" s="25" t="s">
+        <v>589</v>
+      </c>
+      <c r="D225" s="24" t="s">
+        <v>591</v>
+      </c>
       <c r="E225" s="5"/>
       <c r="F225" s="5"/>
       <c r="G225" s="5"/>
       <c r="H225" s="5"/>
-      <c r="I225" s="5"/>
+      <c r="I225" s="5" t="s">
+        <v>596</v>
+      </c>
       <c r="J225" s="5"/>
       <c r="K225" s="5"/>
       <c r="L225" s="5"/>
@@ -17993,11 +18086,146 @@
       <c r="Y407" s="3"/>
       <c r="Z407" s="3"/>
     </row>
-    <row r="408" spans="1:26" ht="15.75" customHeight="1"/>
-    <row r="409" spans="1:26" ht="15.75" customHeight="1"/>
-    <row r="410" spans="1:26" ht="15.75" customHeight="1"/>
-    <row r="411" spans="1:26" ht="15.75" customHeight="1"/>
-    <row r="412" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="408" spans="1:26" ht="13.5" customHeight="1">
+      <c r="A408" s="5"/>
+      <c r="B408" s="5"/>
+      <c r="C408" s="5"/>
+      <c r="D408" s="5"/>
+      <c r="E408" s="5"/>
+      <c r="F408" s="5"/>
+      <c r="G408" s="5"/>
+      <c r="H408" s="5"/>
+      <c r="I408" s="5"/>
+      <c r="J408" s="5"/>
+      <c r="K408" s="5"/>
+      <c r="L408" s="5"/>
+      <c r="M408" s="6"/>
+      <c r="N408" s="3"/>
+      <c r="O408" s="3"/>
+      <c r="P408" s="3"/>
+      <c r="Q408" s="3"/>
+      <c r="R408" s="3"/>
+      <c r="S408" s="3"/>
+      <c r="T408" s="3"/>
+      <c r="U408" s="3"/>
+      <c r="V408" s="3"/>
+      <c r="W408" s="3"/>
+      <c r="X408" s="3"/>
+      <c r="Y408" s="3"/>
+      <c r="Z408" s="3"/>
+    </row>
+    <row r="409" spans="1:26" ht="13.5" customHeight="1">
+      <c r="A409" s="5"/>
+      <c r="B409" s="5"/>
+      <c r="C409" s="5"/>
+      <c r="D409" s="5"/>
+      <c r="E409" s="5"/>
+      <c r="F409" s="5"/>
+      <c r="G409" s="5"/>
+      <c r="H409" s="5"/>
+      <c r="I409" s="5"/>
+      <c r="J409" s="5"/>
+      <c r="K409" s="5"/>
+      <c r="L409" s="5"/>
+      <c r="M409" s="6"/>
+      <c r="N409" s="3"/>
+      <c r="O409" s="3"/>
+      <c r="P409" s="3"/>
+      <c r="Q409" s="3"/>
+      <c r="R409" s="3"/>
+      <c r="S409" s="3"/>
+      <c r="T409" s="3"/>
+      <c r="U409" s="3"/>
+      <c r="V409" s="3"/>
+      <c r="W409" s="3"/>
+      <c r="X409" s="3"/>
+      <c r="Y409" s="3"/>
+      <c r="Z409" s="3"/>
+    </row>
+    <row r="410" spans="1:26" ht="13.5" customHeight="1">
+      <c r="A410" s="5"/>
+      <c r="B410" s="5"/>
+      <c r="C410" s="5"/>
+      <c r="D410" s="5"/>
+      <c r="E410" s="5"/>
+      <c r="F410" s="5"/>
+      <c r="G410" s="5"/>
+      <c r="H410" s="5"/>
+      <c r="I410" s="5"/>
+      <c r="J410" s="5"/>
+      <c r="K410" s="5"/>
+      <c r="L410" s="5"/>
+      <c r="M410" s="6"/>
+      <c r="N410" s="3"/>
+      <c r="O410" s="3"/>
+      <c r="P410" s="3"/>
+      <c r="Q410" s="3"/>
+      <c r="R410" s="3"/>
+      <c r="S410" s="3"/>
+      <c r="T410" s="3"/>
+      <c r="U410" s="3"/>
+      <c r="V410" s="3"/>
+      <c r="W410" s="3"/>
+      <c r="X410" s="3"/>
+      <c r="Y410" s="3"/>
+      <c r="Z410" s="3"/>
+    </row>
+    <row r="411" spans="1:26" ht="13.5" customHeight="1">
+      <c r="A411" s="5"/>
+      <c r="B411" s="5"/>
+      <c r="C411" s="5"/>
+      <c r="D411" s="5"/>
+      <c r="E411" s="5"/>
+      <c r="F411" s="5"/>
+      <c r="G411" s="5"/>
+      <c r="H411" s="5"/>
+      <c r="I411" s="5"/>
+      <c r="J411" s="5"/>
+      <c r="K411" s="5"/>
+      <c r="L411" s="5"/>
+      <c r="M411" s="6"/>
+      <c r="N411" s="3"/>
+      <c r="O411" s="3"/>
+      <c r="P411" s="3"/>
+      <c r="Q411" s="3"/>
+      <c r="R411" s="3"/>
+      <c r="S411" s="3"/>
+      <c r="T411" s="3"/>
+      <c r="U411" s="3"/>
+      <c r="V411" s="3"/>
+      <c r="W411" s="3"/>
+      <c r="X411" s="3"/>
+      <c r="Y411" s="3"/>
+      <c r="Z411" s="3"/>
+    </row>
+    <row r="412" spans="1:26" ht="13.5" customHeight="1">
+      <c r="A412" s="5"/>
+      <c r="B412" s="5"/>
+      <c r="C412" s="5"/>
+      <c r="D412" s="5"/>
+      <c r="E412" s="5"/>
+      <c r="F412" s="5"/>
+      <c r="G412" s="5"/>
+      <c r="H412" s="5"/>
+      <c r="I412" s="5"/>
+      <c r="J412" s="5"/>
+      <c r="K412" s="5"/>
+      <c r="L412" s="5"/>
+      <c r="M412" s="6"/>
+      <c r="N412" s="3"/>
+      <c r="O412" s="3"/>
+      <c r="P412" s="3"/>
+      <c r="Q412" s="3"/>
+      <c r="R412" s="3"/>
+      <c r="S412" s="3"/>
+      <c r="T412" s="3"/>
+      <c r="U412" s="3"/>
+      <c r="V412" s="3"/>
+      <c r="W412" s="3"/>
+      <c r="X412" s="3"/>
+      <c r="Y412" s="3"/>
+      <c r="Z412" s="3"/>
+    </row>
     <row r="413" spans="1:26" ht="15.75" customHeight="1"/>
     <row r="414" spans="1:26" ht="15.75" customHeight="1"/>
     <row r="415" spans="1:26" ht="15.75" customHeight="1"/>
@@ -18590,6 +18818,11 @@
     <row r="1002" ht="15.75" customHeight="1"/>
     <row r="1003" ht="15.75" customHeight="1"/>
     <row r="1004" ht="15.75" customHeight="1"/>
+    <row r="1005" ht="15.75" customHeight="1"/>
+    <row r="1006" ht="15.75" customHeight="1"/>
+    <row r="1007" ht="15.75" customHeight="1"/>
+    <row r="1008" ht="15.75" customHeight="1"/>
+    <row r="1009" ht="15.75" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="13"/>
   <hyperlinks>
@@ -18685,120 +18918,121 @@
     <hyperlink ref="D92" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
     <hyperlink ref="D93" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
     <hyperlink ref="D94" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="D95" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="D96" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="D97" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="D98" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="D99" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="D100" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="D101" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="D102" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="D103" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="D104" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
-    <hyperlink ref="D105" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
-    <hyperlink ref="D106" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="D107" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
-    <hyperlink ref="D108" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="D109" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
-    <hyperlink ref="D110" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
-    <hyperlink ref="D111" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
-    <hyperlink ref="D112" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="D113" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
-    <hyperlink ref="D114" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
-    <hyperlink ref="D115" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
-    <hyperlink ref="D116" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-    <hyperlink ref="D117" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
-    <hyperlink ref="D118" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
-    <hyperlink ref="D119" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
-    <hyperlink ref="D120" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
-    <hyperlink ref="D121" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
-    <hyperlink ref="D122" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
-    <hyperlink ref="D123" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
-    <hyperlink ref="D124" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
-    <hyperlink ref="D125" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
-    <hyperlink ref="D126" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
-    <hyperlink ref="D127" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
-    <hyperlink ref="D128" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
-    <hyperlink ref="D129" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
-    <hyperlink ref="D130" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
-    <hyperlink ref="D131" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
-    <hyperlink ref="D132" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
-    <hyperlink ref="D133" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
-    <hyperlink ref="D134" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
-    <hyperlink ref="D135" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
-    <hyperlink ref="D136" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
-    <hyperlink ref="D137" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
-    <hyperlink ref="D138" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
-    <hyperlink ref="D139" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
-    <hyperlink ref="D140" r:id="rId138" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
-    <hyperlink ref="D141" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
-    <hyperlink ref="D142" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
-    <hyperlink ref="D143" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
-    <hyperlink ref="D144" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
-    <hyperlink ref="D145" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
-    <hyperlink ref="D146" r:id="rId144" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
-    <hyperlink ref="D152" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
-    <hyperlink ref="D153" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
-    <hyperlink ref="D154" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
-    <hyperlink ref="D155" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
-    <hyperlink ref="D156" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
-    <hyperlink ref="D157" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
-    <hyperlink ref="D158" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
-    <hyperlink ref="D159" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
-    <hyperlink ref="D160" r:id="rId153" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
-    <hyperlink ref="D161" r:id="rId154" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
-    <hyperlink ref="D162" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
-    <hyperlink ref="D163" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
-    <hyperlink ref="D164" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
-    <hyperlink ref="D170" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
-    <hyperlink ref="D171" r:id="rId159" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
-    <hyperlink ref="D172" r:id="rId160" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
-    <hyperlink ref="D173" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
-    <hyperlink ref="D174" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
-    <hyperlink ref="D175" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
-    <hyperlink ref="D176" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
-    <hyperlink ref="D177" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
-    <hyperlink ref="D178" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
-    <hyperlink ref="D179" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
-    <hyperlink ref="D180" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
-    <hyperlink ref="D181" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
-    <hyperlink ref="D182" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
-    <hyperlink ref="D183" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
-    <hyperlink ref="D184" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
-    <hyperlink ref="D185" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
-    <hyperlink ref="D186" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
-    <hyperlink ref="D187" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
-    <hyperlink ref="D188" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
-    <hyperlink ref="D189" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
-    <hyperlink ref="D190" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
-    <hyperlink ref="D191" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
-    <hyperlink ref="D192" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
-    <hyperlink ref="D193" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
-    <hyperlink ref="D194" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
-    <hyperlink ref="D195" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
-    <hyperlink ref="D196" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
-    <hyperlink ref="D197" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
-    <hyperlink ref="D198" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
-    <hyperlink ref="D199" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
-    <hyperlink ref="D202" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
-    <hyperlink ref="D203" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
-    <hyperlink ref="D204" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
-    <hyperlink ref="D205" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
-    <hyperlink ref="D206" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
-    <hyperlink ref="D208" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
-    <hyperlink ref="D209" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
-    <hyperlink ref="D210" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
-    <hyperlink ref="D211" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
-    <hyperlink ref="D212" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
-    <hyperlink ref="D207" r:id="rId198" xr:uid="{FB5BD734-C92C-4DCB-AC83-E67BDA12DFF4}"/>
-    <hyperlink ref="D165" r:id="rId199" xr:uid="{E6F63535-7CB0-4B0A-8A9B-2FF45193FA31}"/>
-    <hyperlink ref="D166" r:id="rId200" xr:uid="{23618A7F-70F1-429D-A989-04E42D5219C5}"/>
-    <hyperlink ref="D168" r:id="rId201" xr:uid="{A61CFECD-5D13-489A-855F-076420E34CFD}"/>
-    <hyperlink ref="D169" r:id="rId202" xr:uid="{6EDE7FBD-C182-4315-93DC-5FE3983DF025}"/>
-    <hyperlink ref="D214" r:id="rId203" xr:uid="{511CA28D-F4D7-4764-8143-3595BDCD915C}"/>
-    <hyperlink ref="D217" r:id="rId204" xr:uid="{F41BCF05-CC73-422D-8893-0B9A8DAAA427}"/>
-    <hyperlink ref="D216" r:id="rId205" xr:uid="{F8CC161C-3698-4455-AE50-3DBD3D45797B}"/>
-    <hyperlink ref="D200" r:id="rId206" xr:uid="{A977DA69-CFBF-424F-9188-8963A505EF10}"/>
+    <hyperlink ref="D100" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="D101" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="D102" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="D103" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="D104" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="D105" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="D106" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="D107" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="D108" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="D109" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="D110" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="D111" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="D112" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="D113" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="D114" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="D115" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="D116" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="D117" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="D118" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="D119" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="D120" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="D121" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="D122" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="D123" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="D124" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="D125" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="D126" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="D127" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="D128" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="D129" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="D130" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="D131" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="D132" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="D133" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="D134" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="D135" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="D136" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="D137" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="D138" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="D139" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="D140" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="D141" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
+    <hyperlink ref="D142" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="D143" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="D144" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="D145" r:id="rId138" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="D146" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="D147" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="D148" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="D149" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="D150" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="D151" r:id="rId144" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="D157" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="D158" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="D159" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="D160" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="D161" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="D162" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="D163" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="D164" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
+    <hyperlink ref="D165" r:id="rId153" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
+    <hyperlink ref="D166" r:id="rId154" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
+    <hyperlink ref="D167" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
+    <hyperlink ref="D168" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
+    <hyperlink ref="D169" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
+    <hyperlink ref="D175" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
+    <hyperlink ref="D176" r:id="rId159" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
+    <hyperlink ref="D177" r:id="rId160" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
+    <hyperlink ref="D178" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
+    <hyperlink ref="D179" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
+    <hyperlink ref="D180" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
+    <hyperlink ref="D181" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
+    <hyperlink ref="D182" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
+    <hyperlink ref="D183" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
+    <hyperlink ref="D184" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
+    <hyperlink ref="D185" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
+    <hyperlink ref="D186" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
+    <hyperlink ref="D187" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
+    <hyperlink ref="D188" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
+    <hyperlink ref="D189" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
+    <hyperlink ref="D190" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
+    <hyperlink ref="D191" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
+    <hyperlink ref="D192" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
+    <hyperlink ref="D193" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
+    <hyperlink ref="D194" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
+    <hyperlink ref="D195" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
+    <hyperlink ref="D196" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
+    <hyperlink ref="D197" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
+    <hyperlink ref="D198" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
+    <hyperlink ref="D199" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
+    <hyperlink ref="D200" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
+    <hyperlink ref="D201" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
+    <hyperlink ref="D202" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
+    <hyperlink ref="D203" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
+    <hyperlink ref="D204" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
+    <hyperlink ref="D207" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
+    <hyperlink ref="D208" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
+    <hyperlink ref="D209" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
+    <hyperlink ref="D210" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
+    <hyperlink ref="D211" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
+    <hyperlink ref="D213" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
+    <hyperlink ref="D214" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
+    <hyperlink ref="D215" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
+    <hyperlink ref="D216" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
+    <hyperlink ref="D217" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
+    <hyperlink ref="D212" r:id="rId198" xr:uid="{FB5BD734-C92C-4DCB-AC83-E67BDA12DFF4}"/>
+    <hyperlink ref="D170" r:id="rId199" xr:uid="{E6F63535-7CB0-4B0A-8A9B-2FF45193FA31}"/>
+    <hyperlink ref="D171" r:id="rId200" xr:uid="{23618A7F-70F1-429D-A989-04E42D5219C5}"/>
+    <hyperlink ref="D173" r:id="rId201" xr:uid="{A61CFECD-5D13-489A-855F-076420E34CFD}"/>
+    <hyperlink ref="D174" r:id="rId202" xr:uid="{6EDE7FBD-C182-4315-93DC-5FE3983DF025}"/>
+    <hyperlink ref="D219" r:id="rId203" xr:uid="{511CA28D-F4D7-4764-8143-3595BDCD915C}"/>
+    <hyperlink ref="D222" r:id="rId204" xr:uid="{F41BCF05-CC73-422D-8893-0B9A8DAAA427}"/>
+    <hyperlink ref="D221" r:id="rId205" xr:uid="{F8CC161C-3698-4455-AE50-3DBD3D45797B}"/>
+    <hyperlink ref="D205" r:id="rId206" xr:uid="{A977DA69-CFBF-424F-9188-8963A505EF10}"/>
+    <hyperlink ref="D98" r:id="rId207" xr:uid="{04BAFA5A-3C49-4DD7-819C-B9131C25E622}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <headerFooter>

--- a/メニュー/メニュー.xlsx
+++ b/メニュー/メニュー.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\06607\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C3E420F-7359-4E0F-BBDE-0BD19D361ED7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0100DAF3-8AA4-44FE-9DD2-9D866ACAD2CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1139" uniqueCount="620">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1144" uniqueCount="621">
   <si>
     <t>大カテゴリー</t>
   </si>
@@ -3772,10 +3772,6 @@
     <t>https://yaizu-smartcity.jp/tiles/%E7%84%BC%E6%B4%A5%E6%B5%B7%E3%81%AE%E5%B9%B8%E3%82%B0%E3%83%AB%E3%83%A1%E3%83%9E%E3%83%83%E3%83%97_%E3%82%AB%E3%83%84%E3%82%AA/tiles.json</t>
   </si>
   <si>
-    <t>https://yaizu-smartcity.jp/tiles/%E7%84%BC%E6%B4%A5%E6%B5%B7%E3%81%AE%E5%B9%B8%E3%82%B0%E3%83%AB%E3%83%A1%E3%83%9E%E3%83%83%E3%83%97_%E3%82%B5%E3%82%AF%E3%83%A9%E3%82%A8%E3%83%93/tiles.json</t>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
     <t>https://yaizu-smartcity.jp/tiles/%E7%84%BC%E6%B4%A5%E6%B5%B7%E3%81%AE%E5%B9%B8%E3%82%B0%E3%83%AB%E3%83%A1%E3%83%9E%E3%83%83%E3%83%97_%E3%82%B5%E3%83%90/tiles.json</t>
   </si>
   <si>
@@ -3790,6 +3786,19 @@
   </si>
   <si>
     <t>小泉八雲ゆかりの地</t>
+  </si>
+  <si>
+    <t>海の幸グルメマップ</t>
+    <rPh sb="0" eb="1">
+      <t>ウミ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>サチ</t>
+    </rPh>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>https://yaizu-smartcity.jp/tiles/%E7%84%BC%E6%B4%A5%E6%B5%B7%E3%81%AE%E5%B9%B8%E3%82%B0%E3%83%AB%E3%83%A1%E3%83%9E%E3%83%83%E3%83%97_%E3%82%B5%E3%82%AF%E3%83%A9%E3%82%A8%E3%83%93/tiles.json</t>
   </si>
 </sst>
 </file>
@@ -4393,10 +4402,10 @@
   <dimension ref="A1:Z1009"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="F192" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D89" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C205" sqref="C205"/>
+      <selection pane="bottomRight" activeCell="D95" sqref="D95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -4669,7 +4678,7 @@
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I7" s="10"/>
       <c r="J7" s="5"/>
@@ -7996,12 +8005,14 @@
       <c r="A95" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="B95" s="5"/>
+      <c r="B95" s="33" t="s">
+        <v>619</v>
+      </c>
       <c r="C95" s="26" t="s">
         <v>607</v>
       </c>
       <c r="D95" s="9" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E95" s="4"/>
       <c r="F95" s="16"/>
@@ -8032,7 +8043,9 @@
       <c r="A96" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="B96" s="5"/>
+      <c r="B96" s="33" t="s">
+        <v>619</v>
+      </c>
       <c r="C96" s="26" t="s">
         <v>611</v>
       </c>
@@ -8068,12 +8081,14 @@
       <c r="A97" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="B97" s="5"/>
+      <c r="B97" s="33" t="s">
+        <v>619</v>
+      </c>
       <c r="C97" s="26" t="s">
         <v>610</v>
       </c>
       <c r="D97" s="9" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E97" s="4"/>
       <c r="F97" s="16"/>
@@ -8104,12 +8119,14 @@
       <c r="A98" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="B98" s="5"/>
+      <c r="B98" s="33" t="s">
+        <v>619</v>
+      </c>
       <c r="C98" s="26" t="s">
         <v>608</v>
       </c>
       <c r="D98" s="41" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
       <c r="E98" s="4"/>
       <c r="F98" s="16"/>
@@ -8140,12 +8157,14 @@
       <c r="A99" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="B99" s="5"/>
+      <c r="B99" s="33" t="s">
+        <v>619</v>
+      </c>
       <c r="C99" s="26" t="s">
         <v>609</v>
       </c>
       <c r="D99" s="9" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E99" s="4"/>
       <c r="F99" s="16"/>
@@ -12227,7 +12246,7 @@
         <v>531</v>
       </c>
       <c r="B205" s="33" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C205" s="39" t="s">
         <v>599</v>
@@ -12265,7 +12284,7 @@
         <v>531</v>
       </c>
       <c r="B206" s="33" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C206" s="39" t="s">
         <v>600</v>
@@ -19032,7 +19051,6 @@
     <hyperlink ref="D222" r:id="rId204" xr:uid="{F41BCF05-CC73-422D-8893-0B9A8DAAA427}"/>
     <hyperlink ref="D221" r:id="rId205" xr:uid="{F8CC161C-3698-4455-AE50-3DBD3D45797B}"/>
     <hyperlink ref="D205" r:id="rId206" xr:uid="{A977DA69-CFBF-424F-9188-8963A505EF10}"/>
-    <hyperlink ref="D98" r:id="rId207" xr:uid="{04BAFA5A-3C49-4DD7-819C-B9131C25E622}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <headerFooter>

--- a/メニュー/メニュー.xlsx
+++ b/メニュー/メニュー.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\06607\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0100DAF3-8AA4-44FE-9DD2-9D866ACAD2CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88FF51AC-3C58-4863-BBC2-C5712D4EADE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1144" uniqueCount="621">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1133" uniqueCount="616">
   <si>
     <t>大カテゴリー</t>
   </si>
@@ -3698,30 +3698,6 @@
     <phoneticPr fontId="13"/>
   </si>
   <si>
-    <t>小泉八雲ゆかりの地</t>
-    <rPh sb="0" eb="4">
-      <t>コイズミヤクモ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>チ</t>
-    </rPh>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
-    <t>浜通り（八雲通り）</t>
-    <rPh sb="0" eb="7">
-      <t>ハマドオリ（ヤクモドオリ</t>
-    </rPh>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
-    <t>https://yaizu-smartcity.jp/tiles/%E5%B0%8F%E6%B3%89%E5%85%AB%E9%9B%B2%E3%83%9E%E3%83%83%E3%83%97/tiles.json</t>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
-    <t>https://yaizu-smartcity.jp/tiles/%E5%B0%8F%E6%B3%89%E5%85%AB%E9%9B%B2%E3%83%9E%E3%83%83%E3%83%97_%E6%B5%9C%E9%80%9A%E3%82%8A/tiles.json</t>
-  </si>
-  <si>
     <t>stroke</t>
     <phoneticPr fontId="13"/>
   </si>
@@ -3783,9 +3759,6 @@
   <si>
     <t xml:space="preserve">	#1E90FF</t>
     <phoneticPr fontId="13"/>
-  </si>
-  <si>
-    <t>小泉八雲ゆかりの地</t>
   </si>
   <si>
     <t>海の幸グルメマップ</t>
@@ -4083,7 +4056,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4175,7 +4148,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="15" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="17" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="17" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -4399,13 +4371,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Z1009"/>
+  <dimension ref="A1:Z1007"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D89" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D191" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D95" sqref="D95"/>
+      <selection pane="bottomRight" activeCell="A205" sqref="A205:XFD206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -4435,10 +4407,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>4</v>
@@ -4668,17 +4640,17 @@
       <c r="B7" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="40" t="s">
-        <v>606</v>
+      <c r="C7" s="39" t="s">
+        <v>602</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="I7" s="10"/>
       <c r="J7" s="5"/>
@@ -8006,20 +7978,20 @@
         <v>209</v>
       </c>
       <c r="B95" s="33" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="C95" s="26" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="D95" s="9" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="E95" s="4"/>
       <c r="F95" s="16"/>
       <c r="G95" s="16"/>
       <c r="H95" s="4"/>
       <c r="I95" s="6" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="J95" s="5"/>
       <c r="K95" s="5"/>
@@ -8044,20 +8016,20 @@
         <v>209</v>
       </c>
       <c r="B96" s="33" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="C96" s="26" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="D96" s="9" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="E96" s="4"/>
       <c r="F96" s="16"/>
       <c r="G96" s="16"/>
       <c r="H96" s="4"/>
       <c r="I96" s="6" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="J96" s="5"/>
       <c r="K96" s="5"/>
@@ -8082,20 +8054,20 @@
         <v>209</v>
       </c>
       <c r="B97" s="33" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="C97" s="26" t="s">
+        <v>606</v>
+      </c>
+      <c r="D97" s="9" t="s">
         <v>610</v>
-      </c>
-      <c r="D97" s="9" t="s">
-        <v>614</v>
       </c>
       <c r="E97" s="4"/>
       <c r="F97" s="16"/>
       <c r="G97" s="16"/>
       <c r="H97" s="4"/>
       <c r="I97" s="6" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="J97" s="5"/>
       <c r="K97" s="5"/>
@@ -8120,20 +8092,20 @@
         <v>209</v>
       </c>
       <c r="B98" s="33" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="C98" s="26" t="s">
-        <v>608</v>
-      </c>
-      <c r="D98" s="41" t="s">
-        <v>620</v>
+        <v>604</v>
+      </c>
+      <c r="D98" s="40" t="s">
+        <v>615</v>
       </c>
       <c r="E98" s="4"/>
       <c r="F98" s="16"/>
       <c r="G98" s="16"/>
       <c r="H98" s="4"/>
       <c r="I98" s="6" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="J98" s="5"/>
       <c r="K98" s="5"/>
@@ -8158,20 +8130,20 @@
         <v>209</v>
       </c>
       <c r="B99" s="33" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="C99" s="26" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="D99" s="9" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="E99" s="4"/>
       <c r="F99" s="16"/>
       <c r="G99" s="16"/>
       <c r="H99" s="4"/>
       <c r="I99" s="6" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="J99" s="5"/>
       <c r="K99" s="5"/>
@@ -12245,21 +12217,19 @@
       <c r="A205" s="6" t="s">
         <v>531</v>
       </c>
-      <c r="B205" s="33" t="s">
-        <v>618</v>
-      </c>
-      <c r="C205" s="39" t="s">
-        <v>599</v>
-      </c>
-      <c r="D205" s="27" t="s">
-        <v>601</v>
+      <c r="B205" s="5"/>
+      <c r="C205" s="6" t="s">
+        <v>532</v>
+      </c>
+      <c r="D205" s="11" t="s">
+        <v>533</v>
       </c>
       <c r="E205" s="5"/>
       <c r="F205" s="5"/>
       <c r="G205" s="5"/>
       <c r="H205" s="5"/>
-      <c r="I205" s="5" t="s">
-        <v>595</v>
+      <c r="I205" s="6" t="s">
+        <v>534</v>
       </c>
       <c r="J205" s="5"/>
       <c r="K205" s="5"/>
@@ -12283,24 +12253,20 @@
       <c r="A206" s="6" t="s">
         <v>531</v>
       </c>
-      <c r="B206" s="33" t="s">
-        <v>618</v>
-      </c>
-      <c r="C206" s="39" t="s">
-        <v>600</v>
+      <c r="B206" s="5"/>
+      <c r="C206" s="8" t="s">
+        <v>535</v>
       </c>
       <c r="D206" s="11" t="s">
-        <v>602</v>
-      </c>
-      <c r="E206" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="F206" s="5" t="s">
-        <v>235</v>
-      </c>
+        <v>536</v>
+      </c>
+      <c r="E206" s="5"/>
+      <c r="F206" s="5"/>
       <c r="G206" s="5"/>
       <c r="H206" s="5"/>
-      <c r="I206" s="5"/>
+      <c r="I206" s="8" t="s">
+        <v>537</v>
+      </c>
       <c r="J206" s="5"/>
       <c r="K206" s="5"/>
       <c r="L206" s="5"/>
@@ -12324,18 +12290,18 @@
         <v>531</v>
       </c>
       <c r="B207" s="5"/>
-      <c r="C207" s="6" t="s">
-        <v>532</v>
+      <c r="C207" s="8" t="s">
+        <v>538</v>
       </c>
       <c r="D207" s="11" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="E207" s="5"/>
       <c r="F207" s="5"/>
       <c r="G207" s="5"/>
       <c r="H207" s="5"/>
       <c r="I207" s="6" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="J207" s="5"/>
       <c r="K207" s="5"/>
@@ -12360,18 +12326,18 @@
         <v>531</v>
       </c>
       <c r="B208" s="5"/>
-      <c r="C208" s="8" t="s">
-        <v>535</v>
+      <c r="C208" s="6" t="s">
+        <v>541</v>
       </c>
       <c r="D208" s="11" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="E208" s="5"/>
       <c r="F208" s="5"/>
       <c r="G208" s="5"/>
       <c r="H208" s="5"/>
-      <c r="I208" s="8" t="s">
-        <v>537</v>
+      <c r="I208" s="6" t="s">
+        <v>543</v>
       </c>
       <c r="J208" s="5"/>
       <c r="K208" s="5"/>
@@ -12396,19 +12362,19 @@
         <v>531</v>
       </c>
       <c r="B209" s="5"/>
-      <c r="C209" s="8" t="s">
-        <v>538</v>
+      <c r="C209" s="6" t="s">
+        <v>544</v>
       </c>
       <c r="D209" s="11" t="s">
-        <v>539</v>
-      </c>
-      <c r="E209" s="5"/>
+        <v>545</v>
+      </c>
+      <c r="E209" s="6" t="s">
+        <v>546</v>
+      </c>
       <c r="F209" s="5"/>
       <c r="G209" s="5"/>
       <c r="H209" s="5"/>
-      <c r="I209" s="6" t="s">
-        <v>540</v>
-      </c>
+      <c r="I209" s="5"/>
       <c r="J209" s="5"/>
       <c r="K209" s="5"/>
       <c r="L209" s="5"/>
@@ -12428,22 +12394,22 @@
       <c r="Z209" s="3"/>
     </row>
     <row r="210" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A210" s="6" t="s">
-        <v>531</v>
+      <c r="A210" s="8" t="s">
+        <v>547</v>
       </c>
       <c r="B210" s="5"/>
-      <c r="C210" s="6" t="s">
-        <v>541</v>
-      </c>
-      <c r="D210" s="11" t="s">
-        <v>542</v>
-      </c>
-      <c r="E210" s="5"/>
+      <c r="C210" s="26" t="s">
+        <v>564</v>
+      </c>
+      <c r="D210" s="27" t="s">
+        <v>566</v>
+      </c>
+      <c r="E210" s="6"/>
       <c r="F210" s="5"/>
       <c r="G210" s="5"/>
       <c r="H210" s="5"/>
-      <c r="I210" s="6" t="s">
-        <v>543</v>
+      <c r="I210" s="5" t="s">
+        <v>565</v>
       </c>
       <c r="J210" s="5"/>
       <c r="K210" s="5"/>
@@ -12464,23 +12430,23 @@
       <c r="Z210" s="3"/>
     </row>
     <row r="211" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A211" s="6" t="s">
-        <v>531</v>
-      </c>
-      <c r="B211" s="5"/>
-      <c r="C211" s="6" t="s">
-        <v>544</v>
-      </c>
-      <c r="D211" s="11" t="s">
-        <v>545</v>
-      </c>
-      <c r="E211" s="6" t="s">
-        <v>546</v>
-      </c>
+      <c r="A211" s="8" t="s">
+        <v>547</v>
+      </c>
+      <c r="B211" s="4"/>
+      <c r="C211" s="21" t="s">
+        <v>548</v>
+      </c>
+      <c r="D211" s="22" t="s">
+        <v>549</v>
+      </c>
+      <c r="E211" s="4"/>
       <c r="F211" s="5"/>
       <c r="G211" s="5"/>
-      <c r="H211" s="5"/>
-      <c r="I211" s="5"/>
+      <c r="H211" s="4"/>
+      <c r="I211" s="6" t="s">
+        <v>550</v>
+      </c>
       <c r="J211" s="5"/>
       <c r="K211" s="5"/>
       <c r="L211" s="5"/>
@@ -12503,19 +12469,19 @@
       <c r="A212" s="8" t="s">
         <v>547</v>
       </c>
-      <c r="B212" s="5"/>
-      <c r="C212" s="26" t="s">
-        <v>564</v>
-      </c>
-      <c r="D212" s="27" t="s">
-        <v>566</v>
-      </c>
-      <c r="E212" s="6"/>
+      <c r="B212" s="4"/>
+      <c r="C212" s="8" t="s">
+        <v>551</v>
+      </c>
+      <c r="D212" s="9" t="s">
+        <v>552</v>
+      </c>
+      <c r="E212" s="4"/>
       <c r="F212" s="5"/>
       <c r="G212" s="5"/>
-      <c r="H212" s="5"/>
-      <c r="I212" s="5" t="s">
-        <v>565</v>
+      <c r="H212" s="4"/>
+      <c r="I212" s="6" t="s">
+        <v>553</v>
       </c>
       <c r="J212" s="5"/>
       <c r="K212" s="5"/>
@@ -12540,18 +12506,18 @@
         <v>547</v>
       </c>
       <c r="B213" s="4"/>
-      <c r="C213" s="21" t="s">
-        <v>548</v>
-      </c>
-      <c r="D213" s="22" t="s">
-        <v>549</v>
+      <c r="C213" s="8" t="s">
+        <v>554</v>
+      </c>
+      <c r="D213" s="9" t="s">
+        <v>555</v>
       </c>
       <c r="E213" s="4"/>
       <c r="F213" s="5"/>
       <c r="G213" s="5"/>
       <c r="H213" s="4"/>
       <c r="I213" s="6" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="J213" s="5"/>
       <c r="K213" s="5"/>
@@ -12573,21 +12539,21 @@
     </row>
     <row r="214" spans="1:26" ht="13.5" customHeight="1">
       <c r="A214" s="8" t="s">
-        <v>547</v>
-      </c>
-      <c r="B214" s="4"/>
-      <c r="C214" s="8" t="s">
-        <v>551</v>
-      </c>
-      <c r="D214" s="9" t="s">
-        <v>552</v>
-      </c>
-      <c r="E214" s="4"/>
+        <v>557</v>
+      </c>
+      <c r="B214" s="5"/>
+      <c r="C214" s="6" t="s">
+        <v>558</v>
+      </c>
+      <c r="D214" s="11" t="s">
+        <v>559</v>
+      </c>
+      <c r="E214" s="5"/>
       <c r="F214" s="5"/>
       <c r="G214" s="5"/>
-      <c r="H214" s="4"/>
+      <c r="H214" s="5"/>
       <c r="I214" s="6" t="s">
-        <v>553</v>
+        <v>560</v>
       </c>
       <c r="J214" s="5"/>
       <c r="K214" s="5"/>
@@ -12609,21 +12575,21 @@
     </row>
     <row r="215" spans="1:26" ht="13.5" customHeight="1">
       <c r="A215" s="8" t="s">
-        <v>547</v>
-      </c>
-      <c r="B215" s="4"/>
-      <c r="C215" s="8" t="s">
-        <v>554</v>
-      </c>
-      <c r="D215" s="9" t="s">
-        <v>555</v>
-      </c>
-      <c r="E215" s="4"/>
+        <v>557</v>
+      </c>
+      <c r="B215" s="5"/>
+      <c r="C215" s="6" t="s">
+        <v>561</v>
+      </c>
+      <c r="D215" s="32" t="s">
+        <v>562</v>
+      </c>
+      <c r="E215" s="5"/>
       <c r="F215" s="5"/>
       <c r="G215" s="5"/>
-      <c r="H215" s="4"/>
+      <c r="H215" s="5"/>
       <c r="I215" s="6" t="s">
-        <v>556</v>
+        <v>563</v>
       </c>
       <c r="J215" s="5"/>
       <c r="K215" s="5"/>
@@ -12644,22 +12610,22 @@
       <c r="Z215" s="3"/>
     </row>
     <row r="216" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A216" s="8" t="s">
-        <v>557</v>
-      </c>
-      <c r="B216" s="5"/>
-      <c r="C216" s="6" t="s">
-        <v>558</v>
-      </c>
-      <c r="D216" s="11" t="s">
-        <v>559</v>
-      </c>
-      <c r="E216" s="5"/>
+      <c r="A216" s="23" t="s">
+        <v>597</v>
+      </c>
+      <c r="B216" s="30"/>
+      <c r="C216" s="36" t="s">
+        <v>587</v>
+      </c>
+      <c r="D216" s="37" t="s">
+        <v>590</v>
+      </c>
+      <c r="E216" s="31"/>
       <c r="F216" s="5"/>
       <c r="G216" s="5"/>
       <c r="H216" s="5"/>
       <c r="I216" s="6" t="s">
-        <v>560</v>
+        <v>583</v>
       </c>
       <c r="J216" s="5"/>
       <c r="K216" s="5"/>
@@ -12680,22 +12646,22 @@
       <c r="Z216" s="3"/>
     </row>
     <row r="217" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A217" s="8" t="s">
-        <v>557</v>
-      </c>
-      <c r="B217" s="5"/>
-      <c r="C217" s="6" t="s">
-        <v>561</v>
-      </c>
-      <c r="D217" s="32" t="s">
-        <v>562</v>
-      </c>
-      <c r="E217" s="5"/>
-      <c r="F217" s="5"/>
-      <c r="G217" s="5"/>
-      <c r="H217" s="5"/>
+      <c r="A217" s="23" t="s">
+        <v>597</v>
+      </c>
+      <c r="B217" s="33"/>
+      <c r="C217" s="38" t="s">
+        <v>598</v>
+      </c>
+      <c r="D217" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="E217" s="4"/>
+      <c r="F217" s="16"/>
+      <c r="G217" s="16"/>
+      <c r="H217" s="4"/>
       <c r="I217" s="6" t="s">
-        <v>563</v>
+        <v>225</v>
       </c>
       <c r="J217" s="5"/>
       <c r="K217" s="5"/>
@@ -12719,19 +12685,19 @@
       <c r="A218" s="23" t="s">
         <v>597</v>
       </c>
-      <c r="B218" s="30"/>
-      <c r="C218" s="36" t="s">
-        <v>587</v>
-      </c>
-      <c r="D218" s="37" t="s">
-        <v>590</v>
-      </c>
-      <c r="E218" s="31"/>
+      <c r="B218" s="33"/>
+      <c r="C218" s="25" t="s">
+        <v>584</v>
+      </c>
+      <c r="D218" s="24" t="s">
+        <v>593</v>
+      </c>
+      <c r="E218" s="5"/>
       <c r="F218" s="5"/>
       <c r="G218" s="5"/>
       <c r="H218" s="5"/>
-      <c r="I218" s="6" t="s">
-        <v>583</v>
+      <c r="I218" s="5" t="s">
+        <v>595</v>
       </c>
       <c r="J218" s="5"/>
       <c r="K218" s="5"/>
@@ -12755,19 +12721,19 @@
       <c r="A219" s="23" t="s">
         <v>597</v>
       </c>
-      <c r="B219" s="33"/>
-      <c r="C219" s="38" t="s">
-        <v>598</v>
-      </c>
-      <c r="D219" s="9" t="s">
-        <v>224</v>
+      <c r="B219" s="30"/>
+      <c r="C219" s="34" t="s">
+        <v>210</v>
+      </c>
+      <c r="D219" s="35" t="s">
+        <v>211</v>
       </c>
       <c r="E219" s="4"/>
       <c r="F219" s="16"/>
       <c r="G219" s="16"/>
       <c r="H219" s="4"/>
       <c r="I219" s="6" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="J219" s="5"/>
       <c r="K219" s="5"/>
@@ -12791,19 +12757,19 @@
       <c r="A220" s="23" t="s">
         <v>597</v>
       </c>
-      <c r="B220" s="33"/>
-      <c r="C220" s="25" t="s">
-        <v>584</v>
-      </c>
-      <c r="D220" s="24" t="s">
-        <v>593</v>
-      </c>
-      <c r="E220" s="5"/>
-      <c r="F220" s="5"/>
-      <c r="G220" s="5"/>
-      <c r="H220" s="5"/>
-      <c r="I220" s="5" t="s">
-        <v>595</v>
+      <c r="B220" s="30"/>
+      <c r="C220" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="D220" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="E220" s="4"/>
+      <c r="F220" s="16"/>
+      <c r="G220" s="16"/>
+      <c r="H220" s="4"/>
+      <c r="I220" s="6" t="s">
+        <v>216</v>
       </c>
       <c r="J220" s="5"/>
       <c r="K220" s="5"/>
@@ -12827,19 +12793,21 @@
       <c r="A221" s="23" t="s">
         <v>597</v>
       </c>
-      <c r="B221" s="30"/>
-      <c r="C221" s="34" t="s">
-        <v>210</v>
-      </c>
-      <c r="D221" s="35" t="s">
-        <v>211</v>
-      </c>
-      <c r="E221" s="4"/>
-      <c r="F221" s="16"/>
-      <c r="G221" s="16"/>
-      <c r="H221" s="4"/>
-      <c r="I221" s="6" t="s">
-        <v>212</v>
+      <c r="B221" s="30" t="s">
+        <v>588</v>
+      </c>
+      <c r="C221" s="25" t="s">
+        <v>585</v>
+      </c>
+      <c r="D221" s="24" t="s">
+        <v>592</v>
+      </c>
+      <c r="E221" s="5"/>
+      <c r="F221" s="5"/>
+      <c r="G221" s="5"/>
+      <c r="H221" s="5"/>
+      <c r="I221" s="5" t="s">
+        <v>266</v>
       </c>
       <c r="J221" s="5"/>
       <c r="K221" s="5"/>
@@ -12863,19 +12831,21 @@
       <c r="A222" s="23" t="s">
         <v>597</v>
       </c>
-      <c r="B222" s="30"/>
-      <c r="C222" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="D222" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="E222" s="4"/>
-      <c r="F222" s="16"/>
-      <c r="G222" s="16"/>
-      <c r="H222" s="4"/>
-      <c r="I222" s="6" t="s">
-        <v>216</v>
+      <c r="B222" s="30" t="s">
+        <v>588</v>
+      </c>
+      <c r="C222" s="25" t="s">
+        <v>586</v>
+      </c>
+      <c r="D222" s="24" t="s">
+        <v>594</v>
+      </c>
+      <c r="E222" s="5"/>
+      <c r="F222" s="5"/>
+      <c r="G222" s="5"/>
+      <c r="H222" s="5"/>
+      <c r="I222" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="J222" s="5"/>
       <c r="K222" s="5"/>
@@ -12903,17 +12873,17 @@
         <v>588</v>
       </c>
       <c r="C223" s="25" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="D223" s="24" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E223" s="5"/>
       <c r="F223" s="5"/>
       <c r="G223" s="5"/>
       <c r="H223" s="5"/>
       <c r="I223" s="5" t="s">
-        <v>266</v>
+        <v>596</v>
       </c>
       <c r="J223" s="5"/>
       <c r="K223" s="5"/>
@@ -12934,25 +12904,15 @@
       <c r="Z223" s="3"/>
     </row>
     <row r="224" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A224" s="23" t="s">
-        <v>597</v>
-      </c>
-      <c r="B224" s="30" t="s">
-        <v>588</v>
-      </c>
-      <c r="C224" s="25" t="s">
-        <v>586</v>
-      </c>
-      <c r="D224" s="24" t="s">
-        <v>594</v>
-      </c>
+      <c r="A224" s="5"/>
+      <c r="B224" s="5"/>
+      <c r="C224" s="5"/>
+      <c r="D224" s="5"/>
       <c r="E224" s="5"/>
       <c r="F224" s="5"/>
       <c r="G224" s="5"/>
       <c r="H224" s="5"/>
-      <c r="I224" s="5" t="s">
-        <v>33</v>
-      </c>
+      <c r="I224" s="5"/>
       <c r="J224" s="5"/>
       <c r="K224" s="5"/>
       <c r="L224" s="5"/>
@@ -12972,25 +12932,15 @@
       <c r="Z224" s="3"/>
     </row>
     <row r="225" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A225" s="23" t="s">
-        <v>597</v>
-      </c>
-      <c r="B225" s="30" t="s">
-        <v>588</v>
-      </c>
-      <c r="C225" s="25" t="s">
-        <v>589</v>
-      </c>
-      <c r="D225" s="24" t="s">
-        <v>591</v>
-      </c>
+      <c r="A225" s="5"/>
+      <c r="B225" s="5"/>
+      <c r="C225" s="5"/>
+      <c r="D225" s="5"/>
       <c r="E225" s="5"/>
       <c r="F225" s="5"/>
       <c r="G225" s="5"/>
       <c r="H225" s="5"/>
-      <c r="I225" s="5" t="s">
-        <v>596</v>
-      </c>
+      <c r="I225" s="5"/>
       <c r="J225" s="5"/>
       <c r="K225" s="5"/>
       <c r="L225" s="5"/>
@@ -18189,62 +18139,8 @@
       <c r="Y410" s="3"/>
       <c r="Z410" s="3"/>
     </row>
-    <row r="411" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A411" s="5"/>
-      <c r="B411" s="5"/>
-      <c r="C411" s="5"/>
-      <c r="D411" s="5"/>
-      <c r="E411" s="5"/>
-      <c r="F411" s="5"/>
-      <c r="G411" s="5"/>
-      <c r="H411" s="5"/>
-      <c r="I411" s="5"/>
-      <c r="J411" s="5"/>
-      <c r="K411" s="5"/>
-      <c r="L411" s="5"/>
-      <c r="M411" s="6"/>
-      <c r="N411" s="3"/>
-      <c r="O411" s="3"/>
-      <c r="P411" s="3"/>
-      <c r="Q411" s="3"/>
-      <c r="R411" s="3"/>
-      <c r="S411" s="3"/>
-      <c r="T411" s="3"/>
-      <c r="U411" s="3"/>
-      <c r="V411" s="3"/>
-      <c r="W411" s="3"/>
-      <c r="X411" s="3"/>
-      <c r="Y411" s="3"/>
-      <c r="Z411" s="3"/>
-    </row>
-    <row r="412" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A412" s="5"/>
-      <c r="B412" s="5"/>
-      <c r="C412" s="5"/>
-      <c r="D412" s="5"/>
-      <c r="E412" s="5"/>
-      <c r="F412" s="5"/>
-      <c r="G412" s="5"/>
-      <c r="H412" s="5"/>
-      <c r="I412" s="5"/>
-      <c r="J412" s="5"/>
-      <c r="K412" s="5"/>
-      <c r="L412" s="5"/>
-      <c r="M412" s="6"/>
-      <c r="N412" s="3"/>
-      <c r="O412" s="3"/>
-      <c r="P412" s="3"/>
-      <c r="Q412" s="3"/>
-      <c r="R412" s="3"/>
-      <c r="S412" s="3"/>
-      <c r="T412" s="3"/>
-      <c r="U412" s="3"/>
-      <c r="V412" s="3"/>
-      <c r="W412" s="3"/>
-      <c r="X412" s="3"/>
-      <c r="Y412" s="3"/>
-      <c r="Z412" s="3"/>
-    </row>
+    <row r="411" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="412" spans="1:26" ht="15.75" customHeight="1"/>
     <row r="413" spans="1:26" ht="15.75" customHeight="1"/>
     <row r="414" spans="1:26" ht="15.75" customHeight="1"/>
     <row r="415" spans="1:26" ht="15.75" customHeight="1"/>
@@ -18840,8 +18736,6 @@
     <row r="1005" ht="15.75" customHeight="1"/>
     <row r="1006" ht="15.75" customHeight="1"/>
     <row r="1007" ht="15.75" customHeight="1"/>
-    <row r="1008" ht="15.75" customHeight="1"/>
-    <row r="1009" ht="15.75" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="13"/>
   <hyperlinks>
@@ -19032,25 +18926,24 @@
     <hyperlink ref="D202" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
     <hyperlink ref="D203" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
     <hyperlink ref="D204" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
-    <hyperlink ref="D207" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
-    <hyperlink ref="D208" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
-    <hyperlink ref="D209" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
-    <hyperlink ref="D210" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
-    <hyperlink ref="D211" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
-    <hyperlink ref="D213" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
-    <hyperlink ref="D214" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
-    <hyperlink ref="D215" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
-    <hyperlink ref="D216" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
-    <hyperlink ref="D217" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
-    <hyperlink ref="D212" r:id="rId198" xr:uid="{FB5BD734-C92C-4DCB-AC83-E67BDA12DFF4}"/>
+    <hyperlink ref="D205" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
+    <hyperlink ref="D206" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
+    <hyperlink ref="D207" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
+    <hyperlink ref="D208" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
+    <hyperlink ref="D209" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
+    <hyperlink ref="D211" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
+    <hyperlink ref="D212" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
+    <hyperlink ref="D213" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
+    <hyperlink ref="D214" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
+    <hyperlink ref="D215" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
+    <hyperlink ref="D210" r:id="rId198" xr:uid="{FB5BD734-C92C-4DCB-AC83-E67BDA12DFF4}"/>
     <hyperlink ref="D170" r:id="rId199" xr:uid="{E6F63535-7CB0-4B0A-8A9B-2FF45193FA31}"/>
     <hyperlink ref="D171" r:id="rId200" xr:uid="{23618A7F-70F1-429D-A989-04E42D5219C5}"/>
     <hyperlink ref="D173" r:id="rId201" xr:uid="{A61CFECD-5D13-489A-855F-076420E34CFD}"/>
     <hyperlink ref="D174" r:id="rId202" xr:uid="{6EDE7FBD-C182-4315-93DC-5FE3983DF025}"/>
-    <hyperlink ref="D219" r:id="rId203" xr:uid="{511CA28D-F4D7-4764-8143-3595BDCD915C}"/>
-    <hyperlink ref="D222" r:id="rId204" xr:uid="{F41BCF05-CC73-422D-8893-0B9A8DAAA427}"/>
-    <hyperlink ref="D221" r:id="rId205" xr:uid="{F8CC161C-3698-4455-AE50-3DBD3D45797B}"/>
-    <hyperlink ref="D205" r:id="rId206" xr:uid="{A977DA69-CFBF-424F-9188-8963A505EF10}"/>
+    <hyperlink ref="D217" r:id="rId203" xr:uid="{511CA28D-F4D7-4764-8143-3595BDCD915C}"/>
+    <hyperlink ref="D220" r:id="rId204" xr:uid="{F41BCF05-CC73-422D-8893-0B9A8DAAA427}"/>
+    <hyperlink ref="D219" r:id="rId205" xr:uid="{F8CC161C-3698-4455-AE50-3DBD3D45797B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <headerFooter>

--- a/メニュー/メニュー.xlsx
+++ b/メニュー/メニュー.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\06607\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\vm22flo01\DownloadFiles\DX推進課\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88FF51AC-3C58-4863-BBC2-C5712D4EADE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F6B8085-E36C-4EAD-A6CF-4928D180043F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1133" uniqueCount="616">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1137" uniqueCount="620">
   <si>
     <t>大カテゴリー</t>
   </si>
@@ -3772,6 +3772,25 @@
   </si>
   <si>
     <t>https://yaizu-smartcity.jp/tiles/%E7%84%BC%E6%B4%A5%E6%B5%B7%E3%81%AE%E5%B9%B8%E3%82%B0%E3%83%AB%E3%83%A1%E3%83%9E%E3%83%83%E3%83%97_%E3%82%B5%E3%82%AF%E3%83%A9%E3%82%A8%E3%83%93/tiles.json</t>
+  </si>
+  <si>
+    <t>デジタルクーポン対象店舗</t>
+    <rPh sb="8" eb="10">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>テンポ</t>
+    </rPh>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>https://yaizu-smartcity.jp/tiles/%E7%84%BC%E6%B4%A5%E5%B8%82%E3%83%87%E3%82%B8%E3%82%BF%E3%83%AB%E3%82%AF%E3%83%BC%E3%83%9D%E3%83%B3%E5%AF%BE%E8%B1%A1%E5%BA%97%E8%88%97/tiles.json</t>
+  </si>
+  <si>
+    <t>vending-machine</t>
+  </si>
+  <si>
+    <t>marker-ultramarine</t>
   </si>
 </sst>
 </file>
@@ -4371,13 +4390,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Z1007"/>
+  <dimension ref="A1:Z1008"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D191" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="H82" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A205" sqref="A205:XFD206"/>
+      <selection pane="bottomRight" activeCell="C94" sqref="C94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -7941,19 +7960,19 @@
       <c r="A94" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="B94" s="5"/>
-      <c r="C94" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="D94" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="E94" s="4"/>
-      <c r="F94" s="16"/>
-      <c r="G94" s="16"/>
-      <c r="H94" s="4"/>
-      <c r="I94" s="6" t="s">
-        <v>212</v>
+      <c r="B94" s="6"/>
+      <c r="C94" s="26" t="s">
+        <v>616</v>
+      </c>
+      <c r="D94" s="13" t="s">
+        <v>617</v>
+      </c>
+      <c r="E94" s="8"/>
+      <c r="F94" s="5"/>
+      <c r="G94" s="5"/>
+      <c r="H94" s="8"/>
+      <c r="I94" s="5" t="s">
+        <v>596</v>
       </c>
       <c r="J94" s="5"/>
       <c r="K94" s="5"/>
@@ -7977,21 +7996,19 @@
       <c r="A95" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="B95" s="33" t="s">
-        <v>614</v>
-      </c>
-      <c r="C95" s="26" t="s">
-        <v>603</v>
+      <c r="B95" s="5"/>
+      <c r="C95" s="6" t="s">
+        <v>210</v>
       </c>
       <c r="D95" s="9" t="s">
-        <v>612</v>
+        <v>211</v>
       </c>
       <c r="E95" s="4"/>
       <c r="F95" s="16"/>
       <c r="G95" s="16"/>
       <c r="H95" s="4"/>
       <c r="I95" s="6" t="s">
-        <v>608</v>
+        <v>212</v>
       </c>
       <c r="J95" s="5"/>
       <c r="K95" s="5"/>
@@ -8019,10 +8036,10 @@
         <v>614</v>
       </c>
       <c r="C96" s="26" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="D96" s="9" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="E96" s="4"/>
       <c r="F96" s="16"/>
@@ -8057,10 +8074,10 @@
         <v>614</v>
       </c>
       <c r="C97" s="26" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="D97" s="9" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="E97" s="4"/>
       <c r="F97" s="16"/>
@@ -8095,10 +8112,10 @@
         <v>614</v>
       </c>
       <c r="C98" s="26" t="s">
-        <v>604</v>
-      </c>
-      <c r="D98" s="40" t="s">
-        <v>615</v>
+        <v>606</v>
+      </c>
+      <c r="D98" s="9" t="s">
+        <v>610</v>
       </c>
       <c r="E98" s="4"/>
       <c r="F98" s="16"/>
@@ -8133,10 +8150,10 @@
         <v>614</v>
       </c>
       <c r="C99" s="26" t="s">
-        <v>605</v>
-      </c>
-      <c r="D99" s="9" t="s">
-        <v>611</v>
+        <v>604</v>
+      </c>
+      <c r="D99" s="40" t="s">
+        <v>615</v>
       </c>
       <c r="E99" s="4"/>
       <c r="F99" s="16"/>
@@ -8167,21 +8184,21 @@
       <c r="A100" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="B100" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="C100" s="8" t="s">
-        <v>214</v>
+      <c r="B100" s="33" t="s">
+        <v>614</v>
+      </c>
+      <c r="C100" s="26" t="s">
+        <v>605</v>
       </c>
       <c r="D100" s="9" t="s">
-        <v>215</v>
+        <v>611</v>
       </c>
       <c r="E100" s="4"/>
       <c r="F100" s="16"/>
       <c r="G100" s="16"/>
       <c r="H100" s="4"/>
       <c r="I100" s="6" t="s">
-        <v>216</v>
+        <v>608</v>
       </c>
       <c r="J100" s="5"/>
       <c r="K100" s="5"/>
@@ -8209,17 +8226,17 @@
         <v>213</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D101" s="9" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E101" s="4"/>
-      <c r="F101" s="5"/>
+      <c r="F101" s="16"/>
       <c r="G101" s="16"/>
       <c r="H101" s="4"/>
       <c r="I101" s="6" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="J101" s="5"/>
       <c r="K101" s="5"/>
@@ -8243,19 +8260,21 @@
       <c r="A102" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="B102" s="4"/>
+      <c r="B102" s="6" t="s">
+        <v>213</v>
+      </c>
       <c r="C102" s="8" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D102" s="9" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E102" s="4"/>
-      <c r="F102" s="16"/>
+      <c r="F102" s="5"/>
       <c r="G102" s="16"/>
       <c r="H102" s="4"/>
       <c r="I102" s="6" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="J102" s="5"/>
       <c r="K102" s="5"/>
@@ -8281,17 +8300,17 @@
       </c>
       <c r="B103" s="4"/>
       <c r="C103" s="8" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D103" s="9" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E103" s="4"/>
       <c r="F103" s="16"/>
       <c r="G103" s="16"/>
       <c r="H103" s="4"/>
       <c r="I103" s="6" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="J103" s="5"/>
       <c r="K103" s="5"/>
@@ -8317,17 +8336,17 @@
       </c>
       <c r="B104" s="4"/>
       <c r="C104" s="8" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D104" s="9" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E104" s="4"/>
       <c r="F104" s="16"/>
       <c r="G104" s="16"/>
       <c r="H104" s="4"/>
       <c r="I104" s="6" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="J104" s="5"/>
       <c r="K104" s="5"/>
@@ -8351,21 +8370,19 @@
       <c r="A105" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="B105" s="6" t="s">
-        <v>229</v>
-      </c>
+      <c r="B105" s="4"/>
       <c r="C105" s="8" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D105" s="9" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="E105" s="4"/>
       <c r="F105" s="16"/>
       <c r="G105" s="16"/>
       <c r="H105" s="4"/>
-      <c r="I105" s="8" t="s">
-        <v>232</v>
+      <c r="I105" s="6" t="s">
+        <v>228</v>
       </c>
       <c r="J105" s="5"/>
       <c r="K105" s="5"/>
@@ -8385,7 +8402,7 @@
       <c r="Y105" s="3"/>
       <c r="Z105" s="3"/>
     </row>
-    <row r="106" spans="1:26" ht="15" customHeight="1">
+    <row r="106" spans="1:26" ht="13.5" customHeight="1">
       <c r="A106" s="8" t="s">
         <v>209</v>
       </c>
@@ -8393,18 +8410,18 @@
         <v>229</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D106" s="9" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E106" s="4"/>
-      <c r="F106" s="5"/>
-      <c r="G106" s="5"/>
-      <c r="H106" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="I106" s="5"/>
+      <c r="F106" s="16"/>
+      <c r="G106" s="16"/>
+      <c r="H106" s="4"/>
+      <c r="I106" s="8" t="s">
+        <v>232</v>
+      </c>
       <c r="J106" s="5"/>
       <c r="K106" s="5"/>
       <c r="L106" s="5"/>
@@ -8423,24 +8440,26 @@
       <c r="Y106" s="3"/>
       <c r="Z106" s="3"/>
     </row>
-    <row r="107" spans="1:26" ht="13.5" customHeight="1">
+    <row r="107" spans="1:26" ht="15" customHeight="1">
       <c r="A107" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="B107" s="5"/>
+      <c r="B107" s="6" t="s">
+        <v>229</v>
+      </c>
       <c r="C107" s="8" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D107" s="9" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E107" s="4"/>
-      <c r="F107" s="16"/>
-      <c r="G107" s="16"/>
-      <c r="H107" s="4"/>
-      <c r="I107" s="6" t="s">
-        <v>238</v>
-      </c>
+      <c r="F107" s="5"/>
+      <c r="G107" s="5"/>
+      <c r="H107" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="I107" s="5"/>
       <c r="J107" s="5"/>
       <c r="K107" s="5"/>
       <c r="L107" s="5"/>
@@ -8465,18 +8484,18 @@
       </c>
       <c r="B108" s="5"/>
       <c r="C108" s="8" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D108" s="9" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E108" s="4"/>
-      <c r="F108" s="5"/>
-      <c r="G108" s="5"/>
-      <c r="H108" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="I108" s="5"/>
+      <c r="F108" s="16"/>
+      <c r="G108" s="16"/>
+      <c r="H108" s="4"/>
+      <c r="I108" s="6" t="s">
+        <v>238</v>
+      </c>
       <c r="J108" s="5"/>
       <c r="K108" s="5"/>
       <c r="L108" s="5"/>
@@ -8495,25 +8514,23 @@
       <c r="Y108" s="3"/>
       <c r="Z108" s="3"/>
     </row>
-    <row r="109" spans="1:26" ht="12.75" customHeight="1">
+    <row r="109" spans="1:26" ht="13.5" customHeight="1">
       <c r="A109" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="B109" s="8" t="s">
-        <v>242</v>
-      </c>
+      <c r="B109" s="5"/>
       <c r="C109" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="D109" s="11" t="s">
-        <v>244</v>
-      </c>
-      <c r="E109" s="5"/>
-      <c r="F109" s="6" t="s">
-        <v>245</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="D109" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="E109" s="4"/>
+      <c r="F109" s="5"/>
       <c r="G109" s="5"/>
-      <c r="H109" s="5"/>
+      <c r="H109" s="4" t="s">
+        <v>241</v>
+      </c>
       <c r="I109" s="5"/>
       <c r="J109" s="5"/>
       <c r="K109" s="5"/>
@@ -8541,14 +8558,14 @@
         <v>242</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D110" s="11" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="E110" s="5"/>
       <c r="F110" s="6" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G110" s="5"/>
       <c r="H110" s="5"/>
@@ -8579,14 +8596,14 @@
         <v>242</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D111" s="11" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E111" s="5"/>
       <c r="F111" s="6" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="G111" s="5"/>
       <c r="H111" s="5"/>
@@ -8617,14 +8634,14 @@
         <v>242</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D112" s="11" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="E112" s="5"/>
       <c r="F112" s="6" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G112" s="5"/>
       <c r="H112" s="5"/>
@@ -8655,14 +8672,14 @@
         <v>242</v>
       </c>
       <c r="C113" s="8" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D113" s="11" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E113" s="5"/>
       <c r="F113" s="6" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="G113" s="5"/>
       <c r="H113" s="5"/>
@@ -8693,14 +8710,14 @@
         <v>242</v>
       </c>
       <c r="C114" s="8" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D114" s="11" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="E114" s="5"/>
       <c r="F114" s="6" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G114" s="5"/>
       <c r="H114" s="5"/>
@@ -8731,14 +8748,14 @@
         <v>242</v>
       </c>
       <c r="C115" s="8" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D115" s="11" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E115" s="5"/>
       <c r="F115" s="6" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="G115" s="5"/>
       <c r="H115" s="5"/>
@@ -8761,7 +8778,7 @@
       <c r="Y115" s="3"/>
       <c r="Z115" s="3"/>
     </row>
-    <row r="116" spans="1:26" ht="13.5" customHeight="1">
+    <row r="116" spans="1:26" ht="12.75" customHeight="1">
       <c r="A116" s="8" t="s">
         <v>209</v>
       </c>
@@ -8769,19 +8786,19 @@
         <v>242</v>
       </c>
       <c r="C116" s="8" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D116" s="11" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E116" s="5"/>
-      <c r="F116" s="5"/>
+      <c r="F116" s="6" t="s">
+        <v>263</v>
+      </c>
       <c r="G116" s="5"/>
       <c r="H116" s="5"/>
-      <c r="I116" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="J116" s="16"/>
+      <c r="I116" s="5"/>
+      <c r="J116" s="5"/>
       <c r="K116" s="5"/>
       <c r="L116" s="5"/>
       <c r="M116" s="6"/>
@@ -8807,17 +8824,17 @@
         <v>242</v>
       </c>
       <c r="C117" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="D117" s="13" t="s">
-        <v>268</v>
+        <v>264</v>
+      </c>
+      <c r="D117" s="11" t="s">
+        <v>265</v>
       </c>
       <c r="E117" s="5"/>
       <c r="F117" s="5"/>
       <c r="G117" s="5"/>
       <c r="H117" s="5"/>
       <c r="I117" s="6" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="J117" s="16"/>
       <c r="K117" s="5"/>
@@ -8844,22 +8861,20 @@
       <c r="B118" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="C118" s="6" t="s">
-        <v>270</v>
+      <c r="C118" s="8" t="s">
+        <v>267</v>
       </c>
       <c r="D118" s="13" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E118" s="5"/>
-      <c r="F118" s="17" t="s">
-        <v>272</v>
-      </c>
+      <c r="F118" s="5"/>
       <c r="G118" s="5"/>
-      <c r="H118" s="17" t="s">
-        <v>273</v>
-      </c>
-      <c r="I118" s="5"/>
-      <c r="J118" s="5"/>
+      <c r="H118" s="5"/>
+      <c r="I118" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="J118" s="16"/>
       <c r="K118" s="5"/>
       <c r="L118" s="5"/>
       <c r="M118" s="6"/>
@@ -8878,20 +8893,26 @@
       <c r="Z118" s="3"/>
     </row>
     <row r="119" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A119" s="6" t="s">
-        <v>274</v>
-      </c>
-      <c r="B119" s="5"/>
+      <c r="A119" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="B119" s="8" t="s">
+        <v>242</v>
+      </c>
       <c r="C119" s="6" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="D119" s="13" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="E119" s="5"/>
-      <c r="F119" s="5"/>
+      <c r="F119" s="17" t="s">
+        <v>272</v>
+      </c>
       <c r="G119" s="5"/>
-      <c r="H119" s="5"/>
+      <c r="H119" s="17" t="s">
+        <v>273</v>
+      </c>
       <c r="I119" s="5"/>
       <c r="J119" s="5"/>
       <c r="K119" s="5"/>
@@ -8912,24 +8933,20 @@
       <c r="Z119" s="3"/>
     </row>
     <row r="120" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A120" s="8" t="s">
+      <c r="A120" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="B120" s="6" t="s">
-        <v>277</v>
-      </c>
+      <c r="B120" s="5"/>
       <c r="C120" s="6" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D120" s="13" t="s">
-        <v>279</v>
-      </c>
-      <c r="E120" s="8" t="s">
-        <v>280</v>
-      </c>
+        <v>276</v>
+      </c>
+      <c r="E120" s="5"/>
       <c r="F120" s="5"/>
       <c r="G120" s="5"/>
-      <c r="H120" s="4"/>
+      <c r="H120" s="5"/>
       <c r="I120" s="5"/>
       <c r="J120" s="5"/>
       <c r="K120" s="5"/>
@@ -8957,13 +8974,13 @@
         <v>277</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D121" s="13" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="E121" s="8" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F121" s="5"/>
       <c r="G121" s="5"/>
@@ -8995,13 +9012,13 @@
         <v>277</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D122" s="13" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="E122" s="8" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="F122" s="5"/>
       <c r="G122" s="5"/>
@@ -9033,13 +9050,13 @@
         <v>277</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D123" s="13" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="E123" s="8" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F123" s="5"/>
       <c r="G123" s="5"/>
@@ -9071,17 +9088,17 @@
         <v>277</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D124" s="13" t="s">
-        <v>291</v>
-      </c>
-      <c r="E124" s="6" t="s">
-        <v>292</v>
+        <v>288</v>
+      </c>
+      <c r="E124" s="8" t="s">
+        <v>289</v>
       </c>
       <c r="F124" s="5"/>
       <c r="G124" s="5"/>
-      <c r="H124" s="5"/>
+      <c r="H124" s="4"/>
       <c r="I124" s="5"/>
       <c r="J124" s="5"/>
       <c r="K124" s="5"/>
@@ -9109,17 +9126,17 @@
         <v>277</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D125" s="13" t="s">
-        <v>294</v>
-      </c>
-      <c r="E125" s="8" t="s">
-        <v>295</v>
+        <v>291</v>
+      </c>
+      <c r="E125" s="6" t="s">
+        <v>292</v>
       </c>
       <c r="F125" s="5"/>
       <c r="G125" s="5"/>
-      <c r="H125" s="4"/>
+      <c r="H125" s="5"/>
       <c r="I125" s="5"/>
       <c r="J125" s="5"/>
       <c r="K125" s="5"/>
@@ -9147,13 +9164,13 @@
         <v>277</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D126" s="13" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="E126" s="8" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="F126" s="5"/>
       <c r="G126" s="5"/>
@@ -9185,13 +9202,13 @@
         <v>277</v>
       </c>
       <c r="C127" s="6" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D127" s="13" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="E127" s="8" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F127" s="5"/>
       <c r="G127" s="5"/>
@@ -9223,17 +9240,17 @@
         <v>277</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D128" s="13" t="s">
-        <v>303</v>
-      </c>
-      <c r="E128" s="6" t="s">
-        <v>304</v>
+        <v>300</v>
+      </c>
+      <c r="E128" s="8" t="s">
+        <v>301</v>
       </c>
       <c r="F128" s="5"/>
       <c r="G128" s="5"/>
-      <c r="H128" s="5"/>
+      <c r="H128" s="4"/>
       <c r="I128" s="5"/>
       <c r="J128" s="5"/>
       <c r="K128" s="5"/>
@@ -9261,10 +9278,10 @@
         <v>277</v>
       </c>
       <c r="C129" s="6" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D129" s="13" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E129" s="6" t="s">
         <v>304</v>
@@ -9299,13 +9316,13 @@
         <v>277</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D130" s="13" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E130" s="6" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="F130" s="5"/>
       <c r="G130" s="5"/>
@@ -9337,13 +9354,13 @@
         <v>277</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D131" s="13" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="E131" s="6" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="F131" s="5"/>
       <c r="G131" s="5"/>
@@ -9372,20 +9389,18 @@
         <v>274</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>312</v>
+        <v>277</v>
       </c>
       <c r="C132" s="6" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D132" s="13" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="E132" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="F132" s="6" t="s">
-        <v>316</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="F132" s="5"/>
       <c r="G132" s="5"/>
       <c r="H132" s="5"/>
       <c r="I132" s="5"/>
@@ -9415,13 +9430,13 @@
         <v>312</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D133" s="13" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="E133" s="6" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="F133" s="6" t="s">
         <v>316</v>
@@ -9455,13 +9470,13 @@
         <v>312</v>
       </c>
       <c r="C134" s="6" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D134" s="13" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E134" s="6" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="F134" s="6" t="s">
         <v>316</v>
@@ -9495,13 +9510,13 @@
         <v>312</v>
       </c>
       <c r="C135" s="6" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="D135" s="13" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="E135" s="6" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F135" s="6" t="s">
         <v>316</v>
@@ -9535,13 +9550,13 @@
         <v>312</v>
       </c>
       <c r="C136" s="6" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D136" s="13" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="E136" s="6" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="F136" s="6" t="s">
         <v>316</v>
@@ -9575,13 +9590,13 @@
         <v>312</v>
       </c>
       <c r="C137" s="6" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D137" s="13" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="E137" s="6" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F137" s="6" t="s">
         <v>316</v>
@@ -9615,16 +9630,16 @@
         <v>312</v>
       </c>
       <c r="C138" s="6" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D138" s="13" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="E138" s="6" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="F138" s="6" t="s">
-        <v>335</v>
+        <v>316</v>
       </c>
       <c r="G138" s="5"/>
       <c r="H138" s="5"/>
@@ -9655,19 +9670,19 @@
         <v>312</v>
       </c>
       <c r="C139" s="6" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="D139" s="13" t="s">
-        <v>337</v>
-      </c>
-      <c r="E139" s="8" t="s">
-        <v>338</v>
+        <v>333</v>
+      </c>
+      <c r="E139" s="6" t="s">
+        <v>334</v>
       </c>
       <c r="F139" s="6" t="s">
         <v>335</v>
       </c>
       <c r="G139" s="5"/>
-      <c r="H139" s="4"/>
+      <c r="H139" s="5"/>
       <c r="I139" s="5"/>
       <c r="J139" s="5"/>
       <c r="K139" s="5"/>
@@ -9695,19 +9710,19 @@
         <v>312</v>
       </c>
       <c r="C140" s="6" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="D140" s="13" t="s">
-        <v>340</v>
-      </c>
-      <c r="E140" s="6" t="s">
-        <v>341</v>
+        <v>337</v>
+      </c>
+      <c r="E140" s="8" t="s">
+        <v>338</v>
       </c>
       <c r="F140" s="6" t="s">
         <v>335</v>
       </c>
       <c r="G140" s="5"/>
-      <c r="H140" s="5"/>
+      <c r="H140" s="4"/>
       <c r="I140" s="5"/>
       <c r="J140" s="5"/>
       <c r="K140" s="5"/>
@@ -9735,13 +9750,13 @@
         <v>312</v>
       </c>
       <c r="C141" s="6" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D141" s="13" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="E141" s="6" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="F141" s="6" t="s">
         <v>335</v>
@@ -9775,13 +9790,13 @@
         <v>312</v>
       </c>
       <c r="C142" s="6" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D142" s="13" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="E142" s="6" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="F142" s="6" t="s">
         <v>335</v>
@@ -9811,17 +9826,17 @@
       <c r="A143" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="B143" s="8" t="s">
+      <c r="B143" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="C143" s="8" t="s">
-        <v>348</v>
+      <c r="C143" s="6" t="s">
+        <v>345</v>
       </c>
       <c r="D143" s="13" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="E143" s="6" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="F143" s="6" t="s">
         <v>335</v>
@@ -9829,7 +9844,7 @@
       <c r="G143" s="5"/>
       <c r="H143" s="5"/>
       <c r="I143" s="5"/>
-      <c r="J143" s="6"/>
+      <c r="J143" s="5"/>
       <c r="K143" s="5"/>
       <c r="L143" s="5"/>
       <c r="M143" s="6"/>
@@ -9848,28 +9863,28 @@
       <c r="Z143" s="3"/>
     </row>
     <row r="144" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A144" s="6" t="s">
+      <c r="A144" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="B144" s="6" t="s">
-        <v>351</v>
-      </c>
-      <c r="C144" s="6" t="s">
-        <v>352</v>
+      <c r="B144" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="C144" s="8" t="s">
+        <v>348</v>
       </c>
       <c r="D144" s="13" t="s">
-        <v>353</v>
-      </c>
-      <c r="E144" s="5" t="s">
-        <v>354</v>
-      </c>
-      <c r="F144" s="5" t="s">
-        <v>354</v>
+        <v>349</v>
+      </c>
+      <c r="E144" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="F144" s="6" t="s">
+        <v>335</v>
       </c>
       <c r="G144" s="5"/>
       <c r="H144" s="5"/>
       <c r="I144" s="5"/>
-      <c r="J144" s="5"/>
+      <c r="J144" s="6"/>
       <c r="K144" s="5"/>
       <c r="L144" s="5"/>
       <c r="M144" s="6"/>
@@ -9895,16 +9910,16 @@
         <v>351</v>
       </c>
       <c r="C145" s="6" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="D145" s="13" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="E145" s="5" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="F145" s="5" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="G145" s="5"/>
       <c r="H145" s="5"/>
@@ -9928,24 +9943,28 @@
       <c r="Z145" s="3"/>
     </row>
     <row r="146" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A146" s="8" t="s">
+      <c r="A146" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="B146" s="5"/>
+      <c r="B146" s="6" t="s">
+        <v>351</v>
+      </c>
       <c r="C146" s="6" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D146" s="13" t="s">
-        <v>359</v>
-      </c>
-      <c r="E146" s="5"/>
-      <c r="F146" s="16"/>
-      <c r="G146" s="16"/>
+        <v>356</v>
+      </c>
+      <c r="E146" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="F146" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="G146" s="5"/>
       <c r="H146" s="5"/>
-      <c r="I146" s="17" t="s">
-        <v>269</v>
-      </c>
-      <c r="J146" s="16"/>
+      <c r="I146" s="5"/>
+      <c r="J146" s="5"/>
       <c r="K146" s="5"/>
       <c r="L146" s="5"/>
       <c r="M146" s="6"/>
@@ -9969,17 +9988,17 @@
       </c>
       <c r="B147" s="5"/>
       <c r="C147" s="6" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D147" s="13" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E147" s="5"/>
       <c r="F147" s="16"/>
       <c r="G147" s="16"/>
       <c r="H147" s="5"/>
       <c r="I147" s="17" t="s">
-        <v>362</v>
+        <v>269</v>
       </c>
       <c r="J147" s="16"/>
       <c r="K147" s="5"/>
@@ -10005,21 +10024,19 @@
       </c>
       <c r="B148" s="5"/>
       <c r="C148" s="6" t="s">
-        <v>363</v>
-      </c>
-      <c r="D148" s="11" t="s">
-        <v>364</v>
-      </c>
-      <c r="E148" s="6" t="s">
-        <v>365</v>
-      </c>
-      <c r="F148" s="5"/>
-      <c r="G148" s="5"/>
-      <c r="H148" s="6" t="s">
-        <v>365</v>
-      </c>
-      <c r="I148" s="5"/>
-      <c r="J148" s="5"/>
+        <v>360</v>
+      </c>
+      <c r="D148" s="13" t="s">
+        <v>361</v>
+      </c>
+      <c r="E148" s="5"/>
+      <c r="F148" s="16"/>
+      <c r="G148" s="16"/>
+      <c r="H148" s="5"/>
+      <c r="I148" s="17" t="s">
+        <v>362</v>
+      </c>
+      <c r="J148" s="16"/>
       <c r="K148" s="5"/>
       <c r="L148" s="5"/>
       <c r="M148" s="6"/>
@@ -10038,23 +10055,23 @@
       <c r="Z148" s="3"/>
     </row>
     <row r="149" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A149" s="6" t="s">
-        <v>366</v>
+      <c r="A149" s="8" t="s">
+        <v>274</v>
       </c>
       <c r="B149" s="5"/>
       <c r="C149" s="6" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="D149" s="11" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="E149" s="6" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="F149" s="5"/>
       <c r="G149" s="5"/>
       <c r="H149" s="6" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="I149" s="5"/>
       <c r="J149" s="5"/>
@@ -10081,18 +10098,18 @@
       </c>
       <c r="B150" s="5"/>
       <c r="C150" s="6" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D150" s="11" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="E150" s="6" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="F150" s="5"/>
       <c r="G150" s="5"/>
       <c r="H150" s="6" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="I150" s="5"/>
       <c r="J150" s="5"/>
@@ -10119,19 +10136,19 @@
       </c>
       <c r="B151" s="5"/>
       <c r="C151" s="6" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D151" s="11" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="E151" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="F151" s="6" t="s">
-        <v>375</v>
-      </c>
+        <v>372</v>
+      </c>
+      <c r="F151" s="5"/>
       <c r="G151" s="5"/>
-      <c r="H151" s="5"/>
+      <c r="H151" s="6" t="s">
+        <v>372</v>
+      </c>
       <c r="I151" s="5"/>
       <c r="J151" s="5"/>
       <c r="K151" s="5"/>
@@ -10153,19 +10170,21 @@
     </row>
     <row r="152" spans="1:26" ht="13.5" customHeight="1">
       <c r="A152" s="6" t="s">
-        <v>376</v>
-      </c>
-      <c r="B152" s="6"/>
+        <v>366</v>
+      </c>
+      <c r="B152" s="5"/>
       <c r="C152" s="6" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="D152" s="11" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="E152" s="6" t="s">
-        <v>379</v>
-      </c>
-      <c r="F152" s="5"/>
+        <v>71</v>
+      </c>
+      <c r="F152" s="6" t="s">
+        <v>375</v>
+      </c>
       <c r="G152" s="5"/>
       <c r="H152" s="5"/>
       <c r="I152" s="5"/>
@@ -10191,30 +10210,24 @@
       <c r="A153" s="6" t="s">
         <v>376</v>
       </c>
-      <c r="B153" s="6" t="s">
-        <v>380</v>
-      </c>
+      <c r="B153" s="6"/>
       <c r="C153" s="6" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="D153" s="11" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="E153" s="6" t="s">
-        <v>383</v>
-      </c>
-      <c r="F153" s="6" t="s">
-        <v>383</v>
-      </c>
+        <v>379</v>
+      </c>
+      <c r="F153" s="5"/>
       <c r="G153" s="5"/>
       <c r="H153" s="5"/>
       <c r="I153" s="5"/>
       <c r="J153" s="5"/>
       <c r="K153" s="5"/>
       <c r="L153" s="5"/>
-      <c r="M153" s="6" t="s">
-        <v>384</v>
-      </c>
+      <c r="M153" s="6"/>
       <c r="N153" s="3"/>
       <c r="O153" s="3"/>
       <c r="P153" s="3"/>
@@ -10237,21 +10250,19 @@
         <v>380</v>
       </c>
       <c r="C154" s="6" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="D154" s="11" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="E154" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F154" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="G154" s="5"/>
-      <c r="H154" s="6" t="s">
-        <v>387</v>
-      </c>
+      <c r="H154" s="5"/>
       <c r="I154" s="5"/>
       <c r="J154" s="5"/>
       <c r="K154" s="5"/>
@@ -10281,20 +10292,20 @@
         <v>380</v>
       </c>
       <c r="C155" s="6" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="D155" s="11" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="E155" s="6" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="F155" s="6" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="G155" s="5"/>
       <c r="H155" s="6" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="I155" s="5"/>
       <c r="J155" s="5"/>
@@ -10325,20 +10336,20 @@
         <v>380</v>
       </c>
       <c r="C156" s="6" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="D156" s="11" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="E156" s="6" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="F156" s="6" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="G156" s="5"/>
       <c r="H156" s="6" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="I156" s="5"/>
       <c r="J156" s="5"/>
@@ -10361,30 +10372,36 @@
       <c r="Y156" s="3"/>
       <c r="Z156" s="3"/>
     </row>
-    <row r="157" spans="1:26" ht="15" customHeight="1">
+    <row r="157" spans="1:26" ht="13.5" customHeight="1">
       <c r="A157" s="6" t="s">
         <v>376</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>394</v>
+        <v>380</v>
       </c>
       <c r="C157" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="D157" s="11" t="s">
-        <v>396</v>
-      </c>
-      <c r="E157" s="5"/>
-      <c r="F157" s="5"/>
+        <v>392</v>
+      </c>
+      <c r="E157" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="F157" s="6" t="s">
+        <v>393</v>
+      </c>
       <c r="G157" s="5"/>
-      <c r="H157" s="5"/>
-      <c r="I157" s="6" t="s">
-        <v>397</v>
-      </c>
+      <c r="H157" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="I157" s="5"/>
       <c r="J157" s="5"/>
       <c r="K157" s="5"/>
       <c r="L157" s="5"/>
-      <c r="M157" s="6"/>
+      <c r="M157" s="6" t="s">
+        <v>384</v>
+      </c>
       <c r="N157" s="3"/>
       <c r="O157" s="3"/>
       <c r="P157" s="3"/>
@@ -10399,7 +10416,7 @@
       <c r="Y157" s="3"/>
       <c r="Z157" s="3"/>
     </row>
-    <row r="158" spans="1:26" ht="13.5" customHeight="1">
+    <row r="158" spans="1:26" ht="15" customHeight="1">
       <c r="A158" s="6" t="s">
         <v>376</v>
       </c>
@@ -10407,16 +10424,18 @@
         <v>394</v>
       </c>
       <c r="C158" s="6" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="D158" s="11" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="E158" s="5"/>
       <c r="F158" s="5"/>
       <c r="G158" s="5"/>
       <c r="H158" s="5"/>
-      <c r="I158" s="5"/>
+      <c r="I158" s="6" t="s">
+        <v>397</v>
+      </c>
       <c r="J158" s="5"/>
       <c r="K158" s="5"/>
       <c r="L158" s="5"/>
@@ -10439,22 +10458,20 @@
       <c r="A159" s="6" t="s">
         <v>376</v>
       </c>
-      <c r="B159" s="8" t="s">
-        <v>400</v>
+      <c r="B159" s="6" t="s">
+        <v>394</v>
       </c>
       <c r="C159" s="6" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="D159" s="11" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="E159" s="5"/>
       <c r="F159" s="5"/>
       <c r="G159" s="5"/>
       <c r="H159" s="5"/>
-      <c r="I159" s="6" t="s">
-        <v>403</v>
-      </c>
+      <c r="I159" s="5"/>
       <c r="J159" s="5"/>
       <c r="K159" s="5"/>
       <c r="L159" s="5"/>
@@ -10481,22 +10498,18 @@
         <v>400</v>
       </c>
       <c r="C160" s="6" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="D160" s="11" t="s">
-        <v>405</v>
-      </c>
-      <c r="E160" s="6" t="s">
-        <v>406</v>
-      </c>
-      <c r="F160" s="6" t="s">
-        <v>406</v>
-      </c>
+        <v>402</v>
+      </c>
+      <c r="E160" s="5"/>
+      <c r="F160" s="5"/>
       <c r="G160" s="5"/>
-      <c r="H160" s="6" t="s">
-        <v>406</v>
-      </c>
-      <c r="I160" s="5"/>
+      <c r="H160" s="5"/>
+      <c r="I160" s="6" t="s">
+        <v>403</v>
+      </c>
       <c r="J160" s="5"/>
       <c r="K160" s="5"/>
       <c r="L160" s="5"/>
@@ -10523,18 +10536,22 @@
         <v>400</v>
       </c>
       <c r="C161" s="6" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="D161" s="11" t="s">
-        <v>408</v>
-      </c>
-      <c r="E161" s="5"/>
-      <c r="F161" s="5"/>
+        <v>405</v>
+      </c>
+      <c r="E161" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="F161" s="6" t="s">
+        <v>406</v>
+      </c>
       <c r="G161" s="5"/>
-      <c r="H161" s="5"/>
-      <c r="I161" s="6" t="s">
-        <v>403</v>
-      </c>
+      <c r="H161" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="I161" s="5"/>
       <c r="J161" s="5"/>
       <c r="K161" s="5"/>
       <c r="L161" s="5"/>
@@ -10561,17 +10578,17 @@
         <v>400</v>
       </c>
       <c r="C162" s="6" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D162" s="11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E162" s="5"/>
       <c r="F162" s="5"/>
       <c r="G162" s="5"/>
       <c r="H162" s="5"/>
-      <c r="I162" s="8" t="s">
-        <v>411</v>
+      <c r="I162" s="6" t="s">
+        <v>403</v>
       </c>
       <c r="J162" s="5"/>
       <c r="K162" s="5"/>
@@ -10599,10 +10616,10 @@
         <v>400</v>
       </c>
       <c r="C163" s="6" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="D163" s="11" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="E163" s="5"/>
       <c r="F163" s="5"/>
@@ -10637,17 +10654,17 @@
         <v>400</v>
       </c>
       <c r="C164" s="6" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D164" s="11" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E164" s="5"/>
       <c r="F164" s="5"/>
       <c r="G164" s="5"/>
       <c r="H164" s="5"/>
       <c r="I164" s="8" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="J164" s="5"/>
       <c r="K164" s="5"/>
@@ -10675,22 +10692,18 @@
         <v>400</v>
       </c>
       <c r="C165" s="6" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="D165" s="11" t="s">
-        <v>418</v>
-      </c>
-      <c r="E165" s="6" t="s">
-        <v>419</v>
-      </c>
-      <c r="F165" s="6" t="s">
-        <v>419</v>
-      </c>
+        <v>415</v>
+      </c>
+      <c r="E165" s="5"/>
+      <c r="F165" s="5"/>
       <c r="G165" s="5"/>
-      <c r="H165" s="6" t="s">
-        <v>419</v>
-      </c>
-      <c r="I165" s="5"/>
+      <c r="H165" s="5"/>
+      <c r="I165" s="8" t="s">
+        <v>416</v>
+      </c>
       <c r="J165" s="5"/>
       <c r="K165" s="5"/>
       <c r="L165" s="5"/>
@@ -10713,22 +10726,24 @@
       <c r="A166" s="6" t="s">
         <v>376</v>
       </c>
-      <c r="B166" s="6" t="s">
-        <v>420</v>
+      <c r="B166" s="8" t="s">
+        <v>400</v>
       </c>
       <c r="C166" s="6" t="s">
-        <v>421</v>
-      </c>
-      <c r="D166" s="13" t="s">
-        <v>422</v>
+        <v>417</v>
+      </c>
+      <c r="D166" s="11" t="s">
+        <v>418</v>
       </c>
       <c r="E166" s="6" t="s">
-        <v>423</v>
-      </c>
-      <c r="F166" s="5"/>
+        <v>419</v>
+      </c>
+      <c r="F166" s="6" t="s">
+        <v>419</v>
+      </c>
       <c r="G166" s="5"/>
       <c r="H166" s="6" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="I166" s="5"/>
       <c r="J166" s="5"/>
@@ -10757,18 +10772,18 @@
         <v>420</v>
       </c>
       <c r="C167" s="6" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="D167" s="13" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="E167" s="6" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="F167" s="5"/>
       <c r="G167" s="5"/>
       <c r="H167" s="6" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="I167" s="5"/>
       <c r="J167" s="5"/>
@@ -10797,18 +10812,18 @@
         <v>420</v>
       </c>
       <c r="C168" s="6" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="D168" s="13" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="E168" s="6" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="F168" s="5"/>
       <c r="G168" s="5"/>
       <c r="H168" s="6" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="I168" s="5"/>
       <c r="J168" s="5"/>
@@ -10837,18 +10852,18 @@
         <v>420</v>
       </c>
       <c r="C169" s="6" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="D169" s="13" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="E169" s="6" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="F169" s="5"/>
       <c r="G169" s="5"/>
       <c r="H169" s="6" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="I169" s="5"/>
       <c r="J169" s="5"/>
@@ -10873,20 +10888,22 @@
       <c r="A170" s="6" t="s">
         <v>376</v>
       </c>
-      <c r="B170" s="26" t="s">
-        <v>567</v>
-      </c>
-      <c r="C170" s="26" t="s">
-        <v>568</v>
-      </c>
-      <c r="D170" s="29" t="s">
-        <v>573</v>
-      </c>
-      <c r="E170" s="6"/>
+      <c r="B170" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="C170" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="D170" s="13" t="s">
+        <v>431</v>
+      </c>
+      <c r="E170" s="6" t="s">
+        <v>432</v>
+      </c>
       <c r="F170" s="5"/>
       <c r="G170" s="5"/>
       <c r="H170" s="6" t="s">
-        <v>578</v>
+        <v>432</v>
       </c>
       <c r="I170" s="5"/>
       <c r="J170" s="5"/>
@@ -10915,16 +10932,16 @@
         <v>567</v>
       </c>
       <c r="C171" s="26" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D171" s="29" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E171" s="6"/>
       <c r="F171" s="5"/>
       <c r="G171" s="5"/>
       <c r="H171" s="6" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="I171" s="5"/>
       <c r="J171" s="5"/>
@@ -10953,16 +10970,16 @@
         <v>567</v>
       </c>
       <c r="C172" s="26" t="s">
-        <v>570</v>
-      </c>
-      <c r="D172" s="28" t="s">
-        <v>575</v>
+        <v>569</v>
+      </c>
+      <c r="D172" s="29" t="s">
+        <v>574</v>
       </c>
       <c r="E172" s="6"/>
       <c r="F172" s="5"/>
       <c r="G172" s="5"/>
       <c r="H172" s="6" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="I172" s="5"/>
       <c r="J172" s="5"/>
@@ -10991,16 +11008,16 @@
         <v>567</v>
       </c>
       <c r="C173" s="26" t="s">
-        <v>571</v>
-      </c>
-      <c r="D173" s="29" t="s">
-        <v>576</v>
+        <v>570</v>
+      </c>
+      <c r="D173" s="28" t="s">
+        <v>575</v>
       </c>
       <c r="E173" s="6"/>
       <c r="F173" s="5"/>
       <c r="G173" s="5"/>
       <c r="H173" s="6" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="I173" s="5"/>
       <c r="J173" s="5"/>
@@ -11029,16 +11046,16 @@
         <v>567</v>
       </c>
       <c r="C174" s="26" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D174" s="29" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E174" s="6"/>
       <c r="F174" s="5"/>
       <c r="G174" s="5"/>
       <c r="H174" s="6" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="I174" s="5"/>
       <c r="J174" s="5"/>
@@ -11061,22 +11078,22 @@
     </row>
     <row r="175" spans="1:26" ht="13.5" customHeight="1">
       <c r="A175" s="6" t="s">
-        <v>433</v>
-      </c>
-      <c r="B175" s="5"/>
-      <c r="C175" s="6" t="s">
-        <v>434</v>
-      </c>
-      <c r="D175" s="11" t="s">
-        <v>435</v>
-      </c>
-      <c r="E175" s="6" t="s">
-        <v>289</v>
-      </c>
+        <v>376</v>
+      </c>
+      <c r="B175" s="26" t="s">
+        <v>567</v>
+      </c>
+      <c r="C175" s="26" t="s">
+        <v>572</v>
+      </c>
+      <c r="D175" s="29" t="s">
+        <v>577</v>
+      </c>
+      <c r="E175" s="6"/>
       <c r="F175" s="5"/>
       <c r="G175" s="5"/>
       <c r="H175" s="6" t="s">
-        <v>289</v>
+        <v>582</v>
       </c>
       <c r="I175" s="5"/>
       <c r="J175" s="5"/>
@@ -11098,26 +11115,24 @@
       <c r="Z175" s="3"/>
     </row>
     <row r="176" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A176" s="8" t="s">
-        <v>436</v>
-      </c>
-      <c r="B176" s="6" t="s">
-        <v>437</v>
-      </c>
+      <c r="A176" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="B176" s="5"/>
       <c r="C176" s="6" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="D176" s="11" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="E176" s="6" t="s">
-        <v>440</v>
-      </c>
-      <c r="F176" s="6" t="s">
-        <v>292</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="F176" s="5"/>
       <c r="G176" s="5"/>
-      <c r="H176" s="5"/>
+      <c r="H176" s="6" t="s">
+        <v>289</v>
+      </c>
       <c r="I176" s="5"/>
       <c r="J176" s="5"/>
       <c r="K176" s="5"/>
@@ -11145,13 +11160,13 @@
         <v>437</v>
       </c>
       <c r="C177" s="6" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="D177" s="11" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="E177" s="6" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="F177" s="6" t="s">
         <v>292</v>
@@ -11182,22 +11197,22 @@
         <v>436</v>
       </c>
       <c r="B178" s="6" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="C178" s="6" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="D178" s="11" t="s">
-        <v>445</v>
-      </c>
-      <c r="E178" s="5"/>
+        <v>442</v>
+      </c>
+      <c r="E178" s="6" t="s">
+        <v>443</v>
+      </c>
       <c r="F178" s="6" t="s">
-        <v>446</v>
+        <v>292</v>
       </c>
       <c r="G178" s="5"/>
-      <c r="H178" s="6" t="s">
-        <v>446</v>
-      </c>
+      <c r="H178" s="5"/>
       <c r="I178" s="5"/>
       <c r="J178" s="5"/>
       <c r="K178" s="5"/>
@@ -11222,23 +11237,21 @@
         <v>436</v>
       </c>
       <c r="B179" s="6" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="C179" s="6" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="D179" s="11" t="s">
-        <v>449</v>
-      </c>
-      <c r="E179" s="6" t="s">
-        <v>450</v>
-      </c>
+        <v>445</v>
+      </c>
+      <c r="E179" s="5"/>
       <c r="F179" s="6" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="G179" s="5"/>
       <c r="H179" s="6" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="I179" s="5"/>
       <c r="J179" s="5"/>
@@ -11267,20 +11280,20 @@
         <v>447</v>
       </c>
       <c r="C180" s="6" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="D180" s="11" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="E180" s="6" t="s">
-        <v>21</v>
+        <v>450</v>
       </c>
       <c r="F180" s="6" t="s">
-        <v>21</v>
+        <v>450</v>
       </c>
       <c r="G180" s="5"/>
       <c r="H180" s="6" t="s">
-        <v>21</v>
+        <v>450</v>
       </c>
       <c r="I180" s="5"/>
       <c r="J180" s="5"/>
@@ -11305,20 +11318,26 @@
       <c r="A181" s="8" t="s">
         <v>436</v>
       </c>
-      <c r="B181" s="5"/>
+      <c r="B181" s="6" t="s">
+        <v>447</v>
+      </c>
       <c r="C181" s="6" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D181" s="11" t="s">
-        <v>454</v>
-      </c>
-      <c r="E181" s="5"/>
-      <c r="F181" s="5"/>
+        <v>452</v>
+      </c>
+      <c r="E181" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F181" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="G181" s="5"/>
-      <c r="H181" s="5"/>
-      <c r="I181" s="6" t="s">
-        <v>455</v>
-      </c>
+      <c r="H181" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I181" s="5"/>
       <c r="J181" s="5"/>
       <c r="K181" s="5"/>
       <c r="L181" s="5"/>
@@ -11339,23 +11358,21 @@
     </row>
     <row r="182" spans="1:26" ht="13.5" customHeight="1">
       <c r="A182" s="8" t="s">
-        <v>456</v>
-      </c>
-      <c r="B182" s="8" t="s">
-        <v>457</v>
-      </c>
-      <c r="C182" s="8" t="s">
-        <v>458</v>
+        <v>436</v>
+      </c>
+      <c r="B182" s="5"/>
+      <c r="C182" s="6" t="s">
+        <v>453</v>
       </c>
       <c r="D182" s="11" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="E182" s="5"/>
       <c r="F182" s="5"/>
       <c r="G182" s="5"/>
       <c r="H182" s="5"/>
-      <c r="I182" s="8" t="s">
-        <v>460</v>
+      <c r="I182" s="6" t="s">
+        <v>455</v>
       </c>
       <c r="J182" s="5"/>
       <c r="K182" s="5"/>
@@ -11383,20 +11400,18 @@
         <v>457</v>
       </c>
       <c r="C183" s="8" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="D183" s="11" t="s">
-        <v>462</v>
-      </c>
-      <c r="E183" s="6" t="s">
-        <v>289</v>
-      </c>
+        <v>459</v>
+      </c>
+      <c r="E183" s="5"/>
       <c r="F183" s="5"/>
       <c r="G183" s="5"/>
-      <c r="H183" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="I183" s="5"/>
+      <c r="H183" s="5"/>
+      <c r="I183" s="8" t="s">
+        <v>460</v>
+      </c>
       <c r="J183" s="5"/>
       <c r="K183" s="5"/>
       <c r="L183" s="5"/>
@@ -11420,21 +11435,23 @@
         <v>456</v>
       </c>
       <c r="B184" s="8" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="C184" s="8" t="s">
-        <v>464</v>
-      </c>
-      <c r="D184" s="18" t="s">
-        <v>465</v>
-      </c>
-      <c r="E184" s="19"/>
-      <c r="F184" s="19"/>
-      <c r="G184" s="19"/>
-      <c r="H184" s="20"/>
-      <c r="I184" s="8" t="s">
-        <v>466</v>
-      </c>
+        <v>461</v>
+      </c>
+      <c r="D184" s="11" t="s">
+        <v>462</v>
+      </c>
+      <c r="E184" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="F184" s="5"/>
+      <c r="G184" s="5"/>
+      <c r="H184" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="I184" s="5"/>
       <c r="J184" s="5"/>
       <c r="K184" s="5"/>
       <c r="L184" s="5"/>
@@ -11461,20 +11478,18 @@
         <v>463</v>
       </c>
       <c r="C185" s="8" t="s">
-        <v>467</v>
-      </c>
-      <c r="D185" s="11" t="s">
-        <v>468</v>
-      </c>
-      <c r="E185" s="6" t="s">
-        <v>469</v>
-      </c>
-      <c r="F185" s="5"/>
-      <c r="G185" s="5"/>
-      <c r="H185" s="6" t="s">
-        <v>469</v>
-      </c>
-      <c r="I185" s="5"/>
+        <v>464</v>
+      </c>
+      <c r="D185" s="18" t="s">
+        <v>465</v>
+      </c>
+      <c r="E185" s="19"/>
+      <c r="F185" s="19"/>
+      <c r="G185" s="19"/>
+      <c r="H185" s="20"/>
+      <c r="I185" s="8" t="s">
+        <v>466</v>
+      </c>
       <c r="J185" s="5"/>
       <c r="K185" s="5"/>
       <c r="L185" s="5"/>
@@ -11498,20 +11513,22 @@
         <v>456</v>
       </c>
       <c r="B186" s="8" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="C186" s="8" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="D186" s="11" t="s">
-        <v>472</v>
-      </c>
-      <c r="E186" s="5"/>
-      <c r="F186" s="6" t="s">
-        <v>473</v>
-      </c>
+        <v>468</v>
+      </c>
+      <c r="E186" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="F186" s="5"/>
       <c r="G186" s="5"/>
-      <c r="H186" s="5"/>
+      <c r="H186" s="6" t="s">
+        <v>469</v>
+      </c>
       <c r="I186" s="5"/>
       <c r="J186" s="5"/>
       <c r="K186" s="5"/>
@@ -11539,14 +11556,14 @@
         <v>470</v>
       </c>
       <c r="C187" s="8" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="D187" s="11" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="E187" s="5"/>
       <c r="F187" s="6" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="G187" s="5"/>
       <c r="H187" s="5"/>
@@ -11577,14 +11594,14 @@
         <v>470</v>
       </c>
       <c r="C188" s="8" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D188" s="11" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="E188" s="5"/>
       <c r="F188" s="6" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="G188" s="5"/>
       <c r="H188" s="5"/>
@@ -11615,14 +11632,14 @@
         <v>470</v>
       </c>
       <c r="C189" s="8" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="D189" s="11" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="E189" s="5"/>
       <c r="F189" s="6" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="G189" s="5"/>
       <c r="H189" s="5"/>
@@ -11653,14 +11670,14 @@
         <v>470</v>
       </c>
       <c r="C190" s="8" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D190" s="11" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="E190" s="5"/>
       <c r="F190" s="6" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="G190" s="5"/>
       <c r="H190" s="5"/>
@@ -11691,14 +11708,14 @@
         <v>470</v>
       </c>
       <c r="C191" s="8" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="D191" s="11" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="E191" s="5"/>
       <c r="F191" s="6" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="G191" s="5"/>
       <c r="H191" s="5"/>
@@ -11729,14 +11746,14 @@
         <v>470</v>
       </c>
       <c r="C192" s="8" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="D192" s="11" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="E192" s="5"/>
       <c r="F192" s="6" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="G192" s="5"/>
       <c r="H192" s="5"/>
@@ -11767,14 +11784,14 @@
         <v>470</v>
       </c>
       <c r="C193" s="8" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="D193" s="11" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="E193" s="5"/>
       <c r="F193" s="6" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="G193" s="5"/>
       <c r="H193" s="5"/>
@@ -11805,14 +11822,14 @@
         <v>470</v>
       </c>
       <c r="C194" s="8" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="D194" s="11" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="E194" s="5"/>
       <c r="F194" s="6" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="G194" s="5"/>
       <c r="H194" s="5"/>
@@ -11843,14 +11860,14 @@
         <v>470</v>
       </c>
       <c r="C195" s="8" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="D195" s="11" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="E195" s="5"/>
       <c r="F195" s="6" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="G195" s="5"/>
       <c r="H195" s="5"/>
@@ -11881,14 +11898,14 @@
         <v>470</v>
       </c>
       <c r="C196" s="8" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="D196" s="11" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="E196" s="5"/>
       <c r="F196" s="6" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="G196" s="5"/>
       <c r="H196" s="5"/>
@@ -11919,14 +11936,14 @@
         <v>470</v>
       </c>
       <c r="C197" s="8" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="D197" s="11" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="E197" s="5"/>
       <c r="F197" s="6" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="G197" s="5"/>
       <c r="H197" s="5"/>
@@ -11957,14 +11974,14 @@
         <v>470</v>
       </c>
       <c r="C198" s="8" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="D198" s="11" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="E198" s="5"/>
       <c r="F198" s="6" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="G198" s="5"/>
       <c r="H198" s="5"/>
@@ -11992,20 +12009,20 @@
         <v>456</v>
       </c>
       <c r="B199" s="8" t="s">
-        <v>510</v>
+        <v>470</v>
       </c>
       <c r="C199" s="8" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="D199" s="11" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="E199" s="5"/>
-      <c r="F199" s="5"/>
+      <c r="F199" s="6" t="s">
+        <v>509</v>
+      </c>
       <c r="G199" s="5"/>
-      <c r="H199" s="5" t="s">
-        <v>513</v>
-      </c>
+      <c r="H199" s="5"/>
       <c r="I199" s="5"/>
       <c r="J199" s="5"/>
       <c r="K199" s="5"/>
@@ -12030,19 +12047,19 @@
         <v>456</v>
       </c>
       <c r="B200" s="8" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="C200" s="8" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="D200" s="11" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="E200" s="5"/>
       <c r="F200" s="5"/>
       <c r="G200" s="5"/>
       <c r="H200" s="5" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="I200" s="5"/>
       <c r="J200" s="5"/>
@@ -12071,16 +12088,16 @@
         <v>514</v>
       </c>
       <c r="C201" s="8" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="D201" s="11" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="E201" s="5"/>
       <c r="F201" s="5"/>
       <c r="G201" s="5"/>
       <c r="H201" s="5" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I201" s="5"/>
       <c r="J201" s="5"/>
@@ -12109,18 +12126,18 @@
         <v>514</v>
       </c>
       <c r="C202" s="8" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="D202" s="11" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="E202" s="5"/>
       <c r="F202" s="5"/>
       <c r="G202" s="5"/>
-      <c r="H202" s="5"/>
-      <c r="I202" s="6" t="s">
-        <v>523</v>
-      </c>
+      <c r="H202" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="I202" s="5"/>
       <c r="J202" s="5"/>
       <c r="K202" s="5"/>
       <c r="L202" s="5"/>
@@ -12141,21 +12158,23 @@
     </row>
     <row r="203" spans="1:26" ht="13.5" customHeight="1">
       <c r="A203" s="8" t="s">
-        <v>524</v>
-      </c>
-      <c r="B203" s="5"/>
+        <v>456</v>
+      </c>
+      <c r="B203" s="8" t="s">
+        <v>514</v>
+      </c>
       <c r="C203" s="8" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="D203" s="11" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="E203" s="5"/>
       <c r="F203" s="5"/>
       <c r="G203" s="5"/>
       <c r="H203" s="5"/>
       <c r="I203" s="6" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="J203" s="5"/>
       <c r="K203" s="5"/>
@@ -12181,20 +12200,18 @@
       </c>
       <c r="B204" s="5"/>
       <c r="C204" s="8" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="D204" s="11" t="s">
-        <v>529</v>
-      </c>
-      <c r="E204" s="5" t="s">
-        <v>530</v>
-      </c>
-      <c r="F204" s="5" t="s">
-        <v>530</v>
-      </c>
+        <v>526</v>
+      </c>
+      <c r="E204" s="5"/>
+      <c r="F204" s="5"/>
       <c r="G204" s="5"/>
       <c r="H204" s="5"/>
-      <c r="I204" s="5"/>
+      <c r="I204" s="6" t="s">
+        <v>527</v>
+      </c>
       <c r="J204" s="5"/>
       <c r="K204" s="5"/>
       <c r="L204" s="5"/>
@@ -12214,23 +12231,25 @@
       <c r="Z204" s="3"/>
     </row>
     <row r="205" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A205" s="6" t="s">
-        <v>531</v>
+      <c r="A205" s="8" t="s">
+        <v>524</v>
       </c>
       <c r="B205" s="5"/>
-      <c r="C205" s="6" t="s">
-        <v>532</v>
+      <c r="C205" s="8" t="s">
+        <v>528</v>
       </c>
       <c r="D205" s="11" t="s">
-        <v>533</v>
-      </c>
-      <c r="E205" s="5"/>
-      <c r="F205" s="5"/>
+        <v>529</v>
+      </c>
+      <c r="E205" s="5" t="s">
+        <v>530</v>
+      </c>
+      <c r="F205" s="5" t="s">
+        <v>530</v>
+      </c>
       <c r="G205" s="5"/>
       <c r="H205" s="5"/>
-      <c r="I205" s="6" t="s">
-        <v>534</v>
-      </c>
+      <c r="I205" s="5"/>
       <c r="J205" s="5"/>
       <c r="K205" s="5"/>
       <c r="L205" s="5"/>
@@ -12254,18 +12273,18 @@
         <v>531</v>
       </c>
       <c r="B206" s="5"/>
-      <c r="C206" s="8" t="s">
-        <v>535</v>
+      <c r="C206" s="6" t="s">
+        <v>532</v>
       </c>
       <c r="D206" s="11" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="E206" s="5"/>
       <c r="F206" s="5"/>
       <c r="G206" s="5"/>
       <c r="H206" s="5"/>
-      <c r="I206" s="8" t="s">
-        <v>537</v>
+      <c r="I206" s="6" t="s">
+        <v>534</v>
       </c>
       <c r="J206" s="5"/>
       <c r="K206" s="5"/>
@@ -12291,17 +12310,17 @@
       </c>
       <c r="B207" s="5"/>
       <c r="C207" s="8" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="D207" s="11" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="E207" s="5"/>
       <c r="F207" s="5"/>
       <c r="G207" s="5"/>
       <c r="H207" s="5"/>
-      <c r="I207" s="6" t="s">
-        <v>540</v>
+      <c r="I207" s="8" t="s">
+        <v>537</v>
       </c>
       <c r="J207" s="5"/>
       <c r="K207" s="5"/>
@@ -12326,18 +12345,18 @@
         <v>531</v>
       </c>
       <c r="B208" s="5"/>
-      <c r="C208" s="6" t="s">
-        <v>541</v>
+      <c r="C208" s="8" t="s">
+        <v>538</v>
       </c>
       <c r="D208" s="11" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="E208" s="5"/>
       <c r="F208" s="5"/>
       <c r="G208" s="5"/>
       <c r="H208" s="5"/>
       <c r="I208" s="6" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="J208" s="5"/>
       <c r="K208" s="5"/>
@@ -12363,18 +12382,18 @@
       </c>
       <c r="B209" s="5"/>
       <c r="C209" s="6" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="D209" s="11" t="s">
-        <v>545</v>
-      </c>
-      <c r="E209" s="6" t="s">
-        <v>546</v>
-      </c>
+        <v>542</v>
+      </c>
+      <c r="E209" s="5"/>
       <c r="F209" s="5"/>
       <c r="G209" s="5"/>
       <c r="H209" s="5"/>
-      <c r="I209" s="5"/>
+      <c r="I209" s="6" t="s">
+        <v>543</v>
+      </c>
       <c r="J209" s="5"/>
       <c r="K209" s="5"/>
       <c r="L209" s="5"/>
@@ -12394,23 +12413,23 @@
       <c r="Z209" s="3"/>
     </row>
     <row r="210" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A210" s="8" t="s">
-        <v>547</v>
+      <c r="A210" s="6" t="s">
+        <v>531</v>
       </c>
       <c r="B210" s="5"/>
-      <c r="C210" s="26" t="s">
-        <v>564</v>
-      </c>
-      <c r="D210" s="27" t="s">
-        <v>566</v>
-      </c>
-      <c r="E210" s="6"/>
+      <c r="C210" s="6" t="s">
+        <v>544</v>
+      </c>
+      <c r="D210" s="11" t="s">
+        <v>545</v>
+      </c>
+      <c r="E210" s="6" t="s">
+        <v>546</v>
+      </c>
       <c r="F210" s="5"/>
       <c r="G210" s="5"/>
       <c r="H210" s="5"/>
-      <c r="I210" s="5" t="s">
-        <v>565</v>
-      </c>
+      <c r="I210" s="5"/>
       <c r="J210" s="5"/>
       <c r="K210" s="5"/>
       <c r="L210" s="5"/>
@@ -12433,19 +12452,19 @@
       <c r="A211" s="8" t="s">
         <v>547</v>
       </c>
-      <c r="B211" s="4"/>
-      <c r="C211" s="21" t="s">
-        <v>548</v>
-      </c>
-      <c r="D211" s="22" t="s">
-        <v>549</v>
-      </c>
-      <c r="E211" s="4"/>
+      <c r="B211" s="5"/>
+      <c r="C211" s="26" t="s">
+        <v>564</v>
+      </c>
+      <c r="D211" s="27" t="s">
+        <v>566</v>
+      </c>
+      <c r="E211" s="6"/>
       <c r="F211" s="5"/>
       <c r="G211" s="5"/>
-      <c r="H211" s="4"/>
-      <c r="I211" s="6" t="s">
-        <v>550</v>
+      <c r="H211" s="5"/>
+      <c r="I211" s="5" t="s">
+        <v>565</v>
       </c>
       <c r="J211" s="5"/>
       <c r="K211" s="5"/>
@@ -12470,18 +12489,18 @@
         <v>547</v>
       </c>
       <c r="B212" s="4"/>
-      <c r="C212" s="8" t="s">
-        <v>551</v>
-      </c>
-      <c r="D212" s="9" t="s">
-        <v>552</v>
+      <c r="C212" s="21" t="s">
+        <v>548</v>
+      </c>
+      <c r="D212" s="22" t="s">
+        <v>549</v>
       </c>
       <c r="E212" s="4"/>
       <c r="F212" s="5"/>
       <c r="G212" s="5"/>
       <c r="H212" s="4"/>
       <c r="I212" s="6" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="J212" s="5"/>
       <c r="K212" s="5"/>
@@ -12507,17 +12526,17 @@
       </c>
       <c r="B213" s="4"/>
       <c r="C213" s="8" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="D213" s="9" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="E213" s="4"/>
       <c r="F213" s="5"/>
       <c r="G213" s="5"/>
       <c r="H213" s="4"/>
       <c r="I213" s="6" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="J213" s="5"/>
       <c r="K213" s="5"/>
@@ -12539,21 +12558,21 @@
     </row>
     <row r="214" spans="1:26" ht="13.5" customHeight="1">
       <c r="A214" s="8" t="s">
-        <v>557</v>
-      </c>
-      <c r="B214" s="5"/>
-      <c r="C214" s="6" t="s">
-        <v>558</v>
-      </c>
-      <c r="D214" s="11" t="s">
-        <v>559</v>
-      </c>
-      <c r="E214" s="5"/>
+        <v>547</v>
+      </c>
+      <c r="B214" s="4"/>
+      <c r="C214" s="8" t="s">
+        <v>554</v>
+      </c>
+      <c r="D214" s="9" t="s">
+        <v>555</v>
+      </c>
+      <c r="E214" s="4"/>
       <c r="F214" s="5"/>
       <c r="G214" s="5"/>
-      <c r="H214" s="5"/>
+      <c r="H214" s="4"/>
       <c r="I214" s="6" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="J214" s="5"/>
       <c r="K214" s="5"/>
@@ -12579,17 +12598,17 @@
       </c>
       <c r="B215" s="5"/>
       <c r="C215" s="6" t="s">
-        <v>561</v>
-      </c>
-      <c r="D215" s="32" t="s">
-        <v>562</v>
+        <v>558</v>
+      </c>
+      <c r="D215" s="11" t="s">
+        <v>559</v>
       </c>
       <c r="E215" s="5"/>
       <c r="F215" s="5"/>
       <c r="G215" s="5"/>
       <c r="H215" s="5"/>
       <c r="I215" s="6" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="J215" s="5"/>
       <c r="K215" s="5"/>
@@ -12610,22 +12629,22 @@
       <c r="Z215" s="3"/>
     </row>
     <row r="216" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A216" s="23" t="s">
-        <v>597</v>
-      </c>
-      <c r="B216" s="30"/>
-      <c r="C216" s="36" t="s">
-        <v>587</v>
-      </c>
-      <c r="D216" s="37" t="s">
-        <v>590</v>
-      </c>
-      <c r="E216" s="31"/>
+      <c r="A216" s="8" t="s">
+        <v>557</v>
+      </c>
+      <c r="B216" s="5"/>
+      <c r="C216" s="6" t="s">
+        <v>561</v>
+      </c>
+      <c r="D216" s="32" t="s">
+        <v>562</v>
+      </c>
+      <c r="E216" s="5"/>
       <c r="F216" s="5"/>
       <c r="G216" s="5"/>
       <c r="H216" s="5"/>
       <c r="I216" s="6" t="s">
-        <v>583</v>
+        <v>563</v>
       </c>
       <c r="J216" s="5"/>
       <c r="K216" s="5"/>
@@ -12649,19 +12668,19 @@
       <c r="A217" s="23" t="s">
         <v>597</v>
       </c>
-      <c r="B217" s="33"/>
-      <c r="C217" s="38" t="s">
-        <v>598</v>
-      </c>
-      <c r="D217" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="E217" s="4"/>
-      <c r="F217" s="16"/>
-      <c r="G217" s="16"/>
-      <c r="H217" s="4"/>
+      <c r="B217" s="30"/>
+      <c r="C217" s="36" t="s">
+        <v>587</v>
+      </c>
+      <c r="D217" s="37" t="s">
+        <v>590</v>
+      </c>
+      <c r="E217" s="31"/>
+      <c r="F217" s="5"/>
+      <c r="G217" s="5"/>
+      <c r="H217" s="5"/>
       <c r="I217" s="6" t="s">
-        <v>225</v>
+        <v>583</v>
       </c>
       <c r="J217" s="5"/>
       <c r="K217" s="5"/>
@@ -12686,18 +12705,18 @@
         <v>597</v>
       </c>
       <c r="B218" s="33"/>
-      <c r="C218" s="25" t="s">
-        <v>584</v>
-      </c>
-      <c r="D218" s="24" t="s">
-        <v>593</v>
-      </c>
-      <c r="E218" s="5"/>
-      <c r="F218" s="5"/>
-      <c r="G218" s="5"/>
-      <c r="H218" s="5"/>
-      <c r="I218" s="5" t="s">
-        <v>595</v>
+      <c r="C218" s="38" t="s">
+        <v>598</v>
+      </c>
+      <c r="D218" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="E218" s="4"/>
+      <c r="F218" s="16"/>
+      <c r="G218" s="16"/>
+      <c r="H218" s="4"/>
+      <c r="I218" s="6" t="s">
+        <v>225</v>
       </c>
       <c r="J218" s="5"/>
       <c r="K218" s="5"/>
@@ -12721,19 +12740,19 @@
       <c r="A219" s="23" t="s">
         <v>597</v>
       </c>
-      <c r="B219" s="30"/>
-      <c r="C219" s="34" t="s">
-        <v>210</v>
-      </c>
-      <c r="D219" s="35" t="s">
-        <v>211</v>
-      </c>
-      <c r="E219" s="4"/>
-      <c r="F219" s="16"/>
-      <c r="G219" s="16"/>
-      <c r="H219" s="4"/>
-      <c r="I219" s="6" t="s">
-        <v>212</v>
+      <c r="B219" s="33"/>
+      <c r="C219" s="25" t="s">
+        <v>584</v>
+      </c>
+      <c r="D219" s="24" t="s">
+        <v>593</v>
+      </c>
+      <c r="E219" s="5"/>
+      <c r="F219" s="5"/>
+      <c r="G219" s="5"/>
+      <c r="H219" s="5"/>
+      <c r="I219" s="5" t="s">
+        <v>595</v>
       </c>
       <c r="J219" s="5"/>
       <c r="K219" s="5"/>
@@ -12758,18 +12777,18 @@
         <v>597</v>
       </c>
       <c r="B220" s="30"/>
-      <c r="C220" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="D220" s="9" t="s">
-        <v>215</v>
+      <c r="C220" s="34" t="s">
+        <v>210</v>
+      </c>
+      <c r="D220" s="35" t="s">
+        <v>211</v>
       </c>
       <c r="E220" s="4"/>
       <c r="F220" s="16"/>
       <c r="G220" s="16"/>
       <c r="H220" s="4"/>
       <c r="I220" s="6" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="J220" s="5"/>
       <c r="K220" s="5"/>
@@ -12793,21 +12812,19 @@
       <c r="A221" s="23" t="s">
         <v>597</v>
       </c>
-      <c r="B221" s="30" t="s">
-        <v>588</v>
-      </c>
-      <c r="C221" s="25" t="s">
-        <v>585</v>
-      </c>
-      <c r="D221" s="24" t="s">
-        <v>592</v>
-      </c>
-      <c r="E221" s="5"/>
-      <c r="F221" s="5"/>
-      <c r="G221" s="5"/>
-      <c r="H221" s="5"/>
-      <c r="I221" s="5" t="s">
-        <v>266</v>
+      <c r="B221" s="30"/>
+      <c r="C221" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="D221" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="E221" s="4"/>
+      <c r="F221" s="16"/>
+      <c r="G221" s="16"/>
+      <c r="H221" s="4"/>
+      <c r="I221" s="6" t="s">
+        <v>216</v>
       </c>
       <c r="J221" s="5"/>
       <c r="K221" s="5"/>
@@ -12835,17 +12852,17 @@
         <v>588</v>
       </c>
       <c r="C222" s="25" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D222" s="24" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="E222" s="5"/>
       <c r="F222" s="5"/>
       <c r="G222" s="5"/>
       <c r="H222" s="5"/>
       <c r="I222" s="5" t="s">
-        <v>33</v>
+        <v>266</v>
       </c>
       <c r="J222" s="5"/>
       <c r="K222" s="5"/>
@@ -12873,17 +12890,17 @@
         <v>588</v>
       </c>
       <c r="C223" s="25" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="D223" s="24" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="E223" s="5"/>
       <c r="F223" s="5"/>
       <c r="G223" s="5"/>
       <c r="H223" s="5"/>
       <c r="I223" s="5" t="s">
-        <v>596</v>
+        <v>618</v>
       </c>
       <c r="J223" s="5"/>
       <c r="K223" s="5"/>
@@ -12904,15 +12921,25 @@
       <c r="Z223" s="3"/>
     </row>
     <row r="224" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A224" s="5"/>
-      <c r="B224" s="5"/>
-      <c r="C224" s="5"/>
-      <c r="D224" s="5"/>
+      <c r="A224" s="23" t="s">
+        <v>597</v>
+      </c>
+      <c r="B224" s="30" t="s">
+        <v>588</v>
+      </c>
+      <c r="C224" s="25" t="s">
+        <v>589</v>
+      </c>
+      <c r="D224" s="24" t="s">
+        <v>591</v>
+      </c>
       <c r="E224" s="5"/>
       <c r="F224" s="5"/>
       <c r="G224" s="5"/>
       <c r="H224" s="5"/>
-      <c r="I224" s="5"/>
+      <c r="I224" s="5" t="s">
+        <v>619</v>
+      </c>
       <c r="J224" s="5"/>
       <c r="K224" s="5"/>
       <c r="L224" s="5"/>
@@ -18139,7 +18166,34 @@
       <c r="Y410" s="3"/>
       <c r="Z410" s="3"/>
     </row>
-    <row r="411" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="411" spans="1:26" ht="13.5" customHeight="1">
+      <c r="A411" s="5"/>
+      <c r="B411" s="5"/>
+      <c r="C411" s="5"/>
+      <c r="D411" s="5"/>
+      <c r="E411" s="5"/>
+      <c r="F411" s="5"/>
+      <c r="G411" s="5"/>
+      <c r="H411" s="5"/>
+      <c r="I411" s="5"/>
+      <c r="J411" s="5"/>
+      <c r="K411" s="5"/>
+      <c r="L411" s="5"/>
+      <c r="M411" s="6"/>
+      <c r="N411" s="3"/>
+      <c r="O411" s="3"/>
+      <c r="P411" s="3"/>
+      <c r="Q411" s="3"/>
+      <c r="R411" s="3"/>
+      <c r="S411" s="3"/>
+      <c r="T411" s="3"/>
+      <c r="U411" s="3"/>
+      <c r="V411" s="3"/>
+      <c r="W411" s="3"/>
+      <c r="X411" s="3"/>
+      <c r="Y411" s="3"/>
+      <c r="Z411" s="3"/>
+    </row>
     <row r="412" spans="1:26" ht="15.75" customHeight="1"/>
     <row r="413" spans="1:26" ht="15.75" customHeight="1"/>
     <row r="414" spans="1:26" ht="15.75" customHeight="1"/>
@@ -18736,6 +18790,7 @@
     <row r="1005" ht="15.75" customHeight="1"/>
     <row r="1006" ht="15.75" customHeight="1"/>
     <row r="1007" ht="15.75" customHeight="1"/>
+    <row r="1008" ht="15.75" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="13"/>
   <hyperlinks>
@@ -18830,120 +18885,120 @@
     <hyperlink ref="D91" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
     <hyperlink ref="D92" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
     <hyperlink ref="D93" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="D94" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="D100" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="D101" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="D102" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="D103" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="D104" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="D105" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="D106" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="D107" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="D108" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="D109" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
-    <hyperlink ref="D110" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
-    <hyperlink ref="D111" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="D112" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
-    <hyperlink ref="D113" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="D114" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
-    <hyperlink ref="D115" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
-    <hyperlink ref="D116" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
-    <hyperlink ref="D117" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="D118" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
-    <hyperlink ref="D119" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
-    <hyperlink ref="D120" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
-    <hyperlink ref="D121" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-    <hyperlink ref="D122" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
-    <hyperlink ref="D123" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
-    <hyperlink ref="D124" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
-    <hyperlink ref="D125" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
-    <hyperlink ref="D126" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
-    <hyperlink ref="D127" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
-    <hyperlink ref="D128" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
-    <hyperlink ref="D129" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
-    <hyperlink ref="D130" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
-    <hyperlink ref="D131" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
-    <hyperlink ref="D132" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
-    <hyperlink ref="D133" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
-    <hyperlink ref="D134" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
-    <hyperlink ref="D135" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
-    <hyperlink ref="D136" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
-    <hyperlink ref="D137" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
-    <hyperlink ref="D138" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
-    <hyperlink ref="D139" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
-    <hyperlink ref="D140" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
-    <hyperlink ref="D141" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
-    <hyperlink ref="D142" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
-    <hyperlink ref="D143" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
-    <hyperlink ref="D144" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
-    <hyperlink ref="D145" r:id="rId138" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
-    <hyperlink ref="D146" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
-    <hyperlink ref="D147" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
-    <hyperlink ref="D148" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
-    <hyperlink ref="D149" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
-    <hyperlink ref="D150" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
-    <hyperlink ref="D151" r:id="rId144" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
-    <hyperlink ref="D157" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
-    <hyperlink ref="D158" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
-    <hyperlink ref="D159" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
-    <hyperlink ref="D160" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
-    <hyperlink ref="D161" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
-    <hyperlink ref="D162" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
-    <hyperlink ref="D163" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
-    <hyperlink ref="D164" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
-    <hyperlink ref="D165" r:id="rId153" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
-    <hyperlink ref="D166" r:id="rId154" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
-    <hyperlink ref="D167" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
-    <hyperlink ref="D168" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
-    <hyperlink ref="D169" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
-    <hyperlink ref="D175" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
-    <hyperlink ref="D176" r:id="rId159" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
-    <hyperlink ref="D177" r:id="rId160" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
-    <hyperlink ref="D178" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
-    <hyperlink ref="D179" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
-    <hyperlink ref="D180" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
-    <hyperlink ref="D181" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
-    <hyperlink ref="D182" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
-    <hyperlink ref="D183" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
-    <hyperlink ref="D184" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
-    <hyperlink ref="D185" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
-    <hyperlink ref="D186" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
-    <hyperlink ref="D187" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
-    <hyperlink ref="D188" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
-    <hyperlink ref="D189" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
-    <hyperlink ref="D190" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
-    <hyperlink ref="D191" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
-    <hyperlink ref="D192" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
-    <hyperlink ref="D193" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
-    <hyperlink ref="D194" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
-    <hyperlink ref="D195" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
-    <hyperlink ref="D196" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
-    <hyperlink ref="D197" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
-    <hyperlink ref="D198" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
-    <hyperlink ref="D199" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
-    <hyperlink ref="D200" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
-    <hyperlink ref="D201" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
-    <hyperlink ref="D202" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
-    <hyperlink ref="D203" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
-    <hyperlink ref="D204" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
-    <hyperlink ref="D205" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
-    <hyperlink ref="D206" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
-    <hyperlink ref="D207" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
-    <hyperlink ref="D208" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
-    <hyperlink ref="D209" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
-    <hyperlink ref="D211" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
-    <hyperlink ref="D212" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
-    <hyperlink ref="D213" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
-    <hyperlink ref="D214" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
-    <hyperlink ref="D215" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
-    <hyperlink ref="D210" r:id="rId198" xr:uid="{FB5BD734-C92C-4DCB-AC83-E67BDA12DFF4}"/>
-    <hyperlink ref="D170" r:id="rId199" xr:uid="{E6F63535-7CB0-4B0A-8A9B-2FF45193FA31}"/>
-    <hyperlink ref="D171" r:id="rId200" xr:uid="{23618A7F-70F1-429D-A989-04E42D5219C5}"/>
-    <hyperlink ref="D173" r:id="rId201" xr:uid="{A61CFECD-5D13-489A-855F-076420E34CFD}"/>
-    <hyperlink ref="D174" r:id="rId202" xr:uid="{6EDE7FBD-C182-4315-93DC-5FE3983DF025}"/>
-    <hyperlink ref="D217" r:id="rId203" xr:uid="{511CA28D-F4D7-4764-8143-3595BDCD915C}"/>
-    <hyperlink ref="D220" r:id="rId204" xr:uid="{F41BCF05-CC73-422D-8893-0B9A8DAAA427}"/>
-    <hyperlink ref="D219" r:id="rId205" xr:uid="{F8CC161C-3698-4455-AE50-3DBD3D45797B}"/>
+    <hyperlink ref="D95" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="D101" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="D102" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="D103" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="D104" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="D105" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="D106" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="D107" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="D108" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="D109" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="D110" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="D111" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="D112" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="D113" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="D114" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="D115" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="D116" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="D117" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="D118" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="D119" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="D120" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="D121" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="D122" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="D123" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="D124" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="D125" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="D126" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="D127" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="D128" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="D129" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="D130" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="D131" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="D132" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="D133" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="D134" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="D135" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="D136" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="D137" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="D138" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="D139" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="D140" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="D141" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="D142" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
+    <hyperlink ref="D143" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="D144" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="D145" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="D146" r:id="rId138" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="D147" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="D148" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="D149" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="D150" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="D151" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="D152" r:id="rId144" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="D158" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="D159" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="D160" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="D161" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="D162" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="D163" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="D164" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="D165" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
+    <hyperlink ref="D166" r:id="rId153" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
+    <hyperlink ref="D167" r:id="rId154" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
+    <hyperlink ref="D168" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
+    <hyperlink ref="D169" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
+    <hyperlink ref="D170" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
+    <hyperlink ref="D176" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
+    <hyperlink ref="D177" r:id="rId159" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
+    <hyperlink ref="D178" r:id="rId160" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
+    <hyperlink ref="D179" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
+    <hyperlink ref="D180" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
+    <hyperlink ref="D181" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
+    <hyperlink ref="D182" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
+    <hyperlink ref="D183" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
+    <hyperlink ref="D184" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
+    <hyperlink ref="D185" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
+    <hyperlink ref="D186" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
+    <hyperlink ref="D187" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
+    <hyperlink ref="D188" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
+    <hyperlink ref="D189" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
+    <hyperlink ref="D190" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
+    <hyperlink ref="D191" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
+    <hyperlink ref="D192" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
+    <hyperlink ref="D193" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
+    <hyperlink ref="D194" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
+    <hyperlink ref="D195" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
+    <hyperlink ref="D196" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
+    <hyperlink ref="D197" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
+    <hyperlink ref="D198" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
+    <hyperlink ref="D199" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
+    <hyperlink ref="D200" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
+    <hyperlink ref="D201" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
+    <hyperlink ref="D202" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
+    <hyperlink ref="D203" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
+    <hyperlink ref="D204" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
+    <hyperlink ref="D205" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
+    <hyperlink ref="D206" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
+    <hyperlink ref="D207" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
+    <hyperlink ref="D208" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
+    <hyperlink ref="D209" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
+    <hyperlink ref="D210" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
+    <hyperlink ref="D212" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
+    <hyperlink ref="D213" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
+    <hyperlink ref="D214" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
+    <hyperlink ref="D215" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
+    <hyperlink ref="D216" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
+    <hyperlink ref="D211" r:id="rId198" xr:uid="{FB5BD734-C92C-4DCB-AC83-E67BDA12DFF4}"/>
+    <hyperlink ref="D171" r:id="rId199" xr:uid="{E6F63535-7CB0-4B0A-8A9B-2FF45193FA31}"/>
+    <hyperlink ref="D172" r:id="rId200" xr:uid="{23618A7F-70F1-429D-A989-04E42D5219C5}"/>
+    <hyperlink ref="D174" r:id="rId201" xr:uid="{A61CFECD-5D13-489A-855F-076420E34CFD}"/>
+    <hyperlink ref="D175" r:id="rId202" xr:uid="{6EDE7FBD-C182-4315-93DC-5FE3983DF025}"/>
+    <hyperlink ref="D218" r:id="rId203" xr:uid="{511CA28D-F4D7-4764-8143-3595BDCD915C}"/>
+    <hyperlink ref="D221" r:id="rId204" xr:uid="{F41BCF05-CC73-422D-8893-0B9A8DAAA427}"/>
+    <hyperlink ref="D220" r:id="rId205" xr:uid="{F8CC161C-3698-4455-AE50-3DBD3D45797B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <headerFooter>

--- a/メニュー/メニュー.xlsx
+++ b/メニュー/メニュー.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\vm22flo01\DownloadFiles\DX推進課\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F6B8085-E36C-4EAD-A6CF-4928D180043F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CFECE15-F4D3-46B5-9182-8C125FE15E43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1137" uniqueCount="620">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1144" uniqueCount="622">
   <si>
     <t>大カテゴリー</t>
   </si>
@@ -3673,9 +3673,6 @@
   </si>
   <si>
     <t>historical-folk-facilities</t>
-  </si>
-  <si>
-    <t>star</t>
   </si>
   <si>
     <t>焼津駅前を歩こう！</t>
@@ -3774,23 +3771,37 @@
     <t>https://yaizu-smartcity.jp/tiles/%E7%84%BC%E6%B4%A5%E6%B5%B7%E3%81%AE%E5%B9%B8%E3%82%B0%E3%83%AB%E3%83%A1%E3%83%9E%E3%83%83%E3%83%97_%E3%82%B5%E3%82%AF%E3%83%A9%E3%82%A8%E3%83%93/tiles.json</t>
   </si>
   <si>
-    <t>デジタルクーポン対象店舗</t>
-    <rPh sb="8" eb="10">
-      <t>タイショウ</t>
+    <t>vending-machine</t>
+  </si>
+  <si>
+    <t>marker-ultramarine</t>
+  </si>
+  <si>
+    <t>小泉八雲ゆかりの地</t>
+  </si>
+  <si>
+    <t>小泉八雲ゆかりの地</t>
+    <rPh sb="0" eb="4">
+      <t>コイズミヤクモ</t>
     </rPh>
-    <rPh sb="10" eb="12">
-      <t>テンポ</t>
+    <rPh sb="8" eb="9">
+      <t>チ</t>
     </rPh>
     <phoneticPr fontId="13"/>
   </si>
   <si>
-    <t>https://yaizu-smartcity.jp/tiles/%E7%84%BC%E6%B4%A5%E5%B8%82%E3%83%87%E3%82%B8%E3%82%BF%E3%83%AB%E3%82%AF%E3%83%BC%E3%83%9D%E3%83%B3%E5%AF%BE%E8%B1%A1%E5%BA%97%E8%88%97/tiles.json</t>
-  </si>
-  <si>
-    <t>vending-machine</t>
-  </si>
-  <si>
-    <t>marker-ultramarine</t>
+    <t>https://yaizu-smartcity.jp/tiles/%E5%B0%8F%E6%B3%89%E5%85%AB%E9%9B%B2%E3%83%9E%E3%83%83%E3%83%97/tiles.json</t>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>浜通り（八雲通り）</t>
+    <rPh sb="0" eb="7">
+      <t>ハマドオリ（ヤクモドオリ</t>
+    </rPh>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>https://yaizu-smartcity.jp/tiles/%E5%B0%8F%E6%B3%89%E5%85%AB%E9%9B%B2%E3%83%9E%E3%83%83%E3%83%97_%E6%B5%9C%E9%80%9A%E3%82%8A/tiles.json</t>
   </si>
 </sst>
 </file>
@@ -4075,7 +4086,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4171,6 +4182,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="14" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="17" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -4390,13 +4405,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Z1008"/>
+  <dimension ref="A1:Z1009"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="H82" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D85" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C94" sqref="C94"/>
+      <selection pane="bottomRight" activeCell="A94" sqref="A94:XFD94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -4426,10 +4441,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>4</v>
@@ -4660,16 +4675,16 @@
         <v>15</v>
       </c>
       <c r="C7" s="39" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="I7" s="10"/>
       <c r="J7" s="5"/>
@@ -7960,19 +7975,19 @@
       <c r="A94" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="B94" s="6"/>
-      <c r="C94" s="26" t="s">
-        <v>616</v>
-      </c>
-      <c r="D94" s="13" t="s">
-        <v>617</v>
-      </c>
-      <c r="E94" s="8"/>
-      <c r="F94" s="5"/>
-      <c r="G94" s="5"/>
-      <c r="H94" s="8"/>
-      <c r="I94" s="5" t="s">
-        <v>596</v>
+      <c r="B94" s="5"/>
+      <c r="C94" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="D94" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="E94" s="4"/>
+      <c r="F94" s="16"/>
+      <c r="G94" s="16"/>
+      <c r="H94" s="4"/>
+      <c r="I94" s="6" t="s">
+        <v>212</v>
       </c>
       <c r="J94" s="5"/>
       <c r="K94" s="5"/>
@@ -7996,19 +8011,21 @@
       <c r="A95" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="B95" s="5"/>
-      <c r="C95" s="6" t="s">
-        <v>210</v>
+      <c r="B95" s="33" t="s">
+        <v>613</v>
+      </c>
+      <c r="C95" s="26" t="s">
+        <v>602</v>
       </c>
       <c r="D95" s="9" t="s">
-        <v>211</v>
+        <v>611</v>
       </c>
       <c r="E95" s="4"/>
       <c r="F95" s="16"/>
       <c r="G95" s="16"/>
       <c r="H95" s="4"/>
       <c r="I95" s="6" t="s">
-        <v>212</v>
+        <v>607</v>
       </c>
       <c r="J95" s="5"/>
       <c r="K95" s="5"/>
@@ -8033,20 +8050,20 @@
         <v>209</v>
       </c>
       <c r="B96" s="33" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C96" s="26" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="D96" s="9" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="E96" s="4"/>
       <c r="F96" s="16"/>
       <c r="G96" s="16"/>
       <c r="H96" s="4"/>
       <c r="I96" s="6" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="J96" s="5"/>
       <c r="K96" s="5"/>
@@ -8071,10 +8088,10 @@
         <v>209</v>
       </c>
       <c r="B97" s="33" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C97" s="26" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="D97" s="9" t="s">
         <v>609</v>
@@ -8084,7 +8101,7 @@
       <c r="G97" s="16"/>
       <c r="H97" s="4"/>
       <c r="I97" s="6" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="J97" s="5"/>
       <c r="K97" s="5"/>
@@ -8109,20 +8126,20 @@
         <v>209</v>
       </c>
       <c r="B98" s="33" t="s">
+        <v>613</v>
+      </c>
+      <c r="C98" s="26" t="s">
+        <v>603</v>
+      </c>
+      <c r="D98" s="40" t="s">
         <v>614</v>
-      </c>
-      <c r="C98" s="26" t="s">
-        <v>606</v>
-      </c>
-      <c r="D98" s="9" t="s">
-        <v>610</v>
       </c>
       <c r="E98" s="4"/>
       <c r="F98" s="16"/>
       <c r="G98" s="16"/>
       <c r="H98" s="4"/>
       <c r="I98" s="6" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="J98" s="5"/>
       <c r="K98" s="5"/>
@@ -8147,20 +8164,20 @@
         <v>209</v>
       </c>
       <c r="B99" s="33" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C99" s="26" t="s">
         <v>604</v>
       </c>
-      <c r="D99" s="40" t="s">
-        <v>615</v>
+      <c r="D99" s="9" t="s">
+        <v>610</v>
       </c>
       <c r="E99" s="4"/>
       <c r="F99" s="16"/>
       <c r="G99" s="16"/>
       <c r="H99" s="4"/>
       <c r="I99" s="6" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="J99" s="5"/>
       <c r="K99" s="5"/>
@@ -8184,21 +8201,21 @@
       <c r="A100" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="B100" s="33" t="s">
-        <v>614</v>
-      </c>
-      <c r="C100" s="26" t="s">
-        <v>605</v>
+      <c r="B100" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="C100" s="8" t="s">
+        <v>214</v>
       </c>
       <c r="D100" s="9" t="s">
-        <v>611</v>
+        <v>215</v>
       </c>
       <c r="E100" s="4"/>
       <c r="F100" s="16"/>
       <c r="G100" s="16"/>
       <c r="H100" s="4"/>
       <c r="I100" s="6" t="s">
-        <v>608</v>
+        <v>216</v>
       </c>
       <c r="J100" s="5"/>
       <c r="K100" s="5"/>
@@ -8226,17 +8243,17 @@
         <v>213</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="D101" s="9" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="E101" s="4"/>
-      <c r="F101" s="16"/>
+      <c r="F101" s="5"/>
       <c r="G101" s="16"/>
       <c r="H101" s="4"/>
       <c r="I101" s="6" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="J101" s="5"/>
       <c r="K101" s="5"/>
@@ -8260,21 +8277,19 @@
       <c r="A102" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="B102" s="6" t="s">
-        <v>213</v>
-      </c>
+      <c r="B102" s="4"/>
       <c r="C102" s="8" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D102" s="9" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="E102" s="4"/>
-      <c r="F102" s="5"/>
+      <c r="F102" s="16"/>
       <c r="G102" s="16"/>
       <c r="H102" s="4"/>
       <c r="I102" s="6" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="J102" s="5"/>
       <c r="K102" s="5"/>
@@ -8300,17 +8315,17 @@
       </c>
       <c r="B103" s="4"/>
       <c r="C103" s="8" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D103" s="9" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="E103" s="4"/>
       <c r="F103" s="16"/>
       <c r="G103" s="16"/>
       <c r="H103" s="4"/>
       <c r="I103" s="6" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="J103" s="5"/>
       <c r="K103" s="5"/>
@@ -8336,17 +8351,17 @@
       </c>
       <c r="B104" s="4"/>
       <c r="C104" s="8" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="D104" s="9" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="E104" s="4"/>
       <c r="F104" s="16"/>
       <c r="G104" s="16"/>
       <c r="H104" s="4"/>
       <c r="I104" s="6" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="J104" s="5"/>
       <c r="K104" s="5"/>
@@ -8370,19 +8385,21 @@
       <c r="A105" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="B105" s="4"/>
+      <c r="B105" s="6" t="s">
+        <v>229</v>
+      </c>
       <c r="C105" s="8" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="D105" s="9" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="E105" s="4"/>
       <c r="F105" s="16"/>
       <c r="G105" s="16"/>
       <c r="H105" s="4"/>
-      <c r="I105" s="6" t="s">
-        <v>228</v>
+      <c r="I105" s="8" t="s">
+        <v>232</v>
       </c>
       <c r="J105" s="5"/>
       <c r="K105" s="5"/>
@@ -8402,7 +8419,7 @@
       <c r="Y105" s="3"/>
       <c r="Z105" s="3"/>
     </row>
-    <row r="106" spans="1:26" ht="13.5" customHeight="1">
+    <row r="106" spans="1:26" ht="15" customHeight="1">
       <c r="A106" s="8" t="s">
         <v>209</v>
       </c>
@@ -8410,18 +8427,18 @@
         <v>229</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D106" s="9" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="E106" s="4"/>
-      <c r="F106" s="16"/>
-      <c r="G106" s="16"/>
-      <c r="H106" s="4"/>
-      <c r="I106" s="8" t="s">
-        <v>232</v>
-      </c>
+      <c r="F106" s="5"/>
+      <c r="G106" s="5"/>
+      <c r="H106" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="I106" s="5"/>
       <c r="J106" s="5"/>
       <c r="K106" s="5"/>
       <c r="L106" s="5"/>
@@ -8440,26 +8457,24 @@
       <c r="Y106" s="3"/>
       <c r="Z106" s="3"/>
     </row>
-    <row r="107" spans="1:26" ht="15" customHeight="1">
+    <row r="107" spans="1:26" ht="13.5" customHeight="1">
       <c r="A107" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="B107" s="6" t="s">
-        <v>229</v>
-      </c>
+      <c r="B107" s="5"/>
       <c r="C107" s="8" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="D107" s="9" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="E107" s="4"/>
-      <c r="F107" s="5"/>
-      <c r="G107" s="5"/>
-      <c r="H107" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="I107" s="5"/>
+      <c r="F107" s="16"/>
+      <c r="G107" s="16"/>
+      <c r="H107" s="4"/>
+      <c r="I107" s="6" t="s">
+        <v>238</v>
+      </c>
       <c r="J107" s="5"/>
       <c r="K107" s="5"/>
       <c r="L107" s="5"/>
@@ -8484,18 +8499,18 @@
       </c>
       <c r="B108" s="5"/>
       <c r="C108" s="8" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="D108" s="9" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E108" s="4"/>
-      <c r="F108" s="16"/>
-      <c r="G108" s="16"/>
-      <c r="H108" s="4"/>
-      <c r="I108" s="6" t="s">
-        <v>238</v>
-      </c>
+      <c r="F108" s="5"/>
+      <c r="G108" s="5"/>
+      <c r="H108" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="I108" s="5"/>
       <c r="J108" s="5"/>
       <c r="K108" s="5"/>
       <c r="L108" s="5"/>
@@ -8514,23 +8529,25 @@
       <c r="Y108" s="3"/>
       <c r="Z108" s="3"/>
     </row>
-    <row r="109" spans="1:26" ht="13.5" customHeight="1">
+    <row r="109" spans="1:26" ht="12.75" customHeight="1">
       <c r="A109" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="B109" s="5"/>
+      <c r="B109" s="8" t="s">
+        <v>242</v>
+      </c>
       <c r="C109" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="D109" s="9" t="s">
-        <v>240</v>
-      </c>
-      <c r="E109" s="4"/>
-      <c r="F109" s="5"/>
+        <v>243</v>
+      </c>
+      <c r="D109" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="E109" s="5"/>
+      <c r="F109" s="6" t="s">
+        <v>245</v>
+      </c>
       <c r="G109" s="5"/>
-      <c r="H109" s="4" t="s">
-        <v>241</v>
-      </c>
+      <c r="H109" s="5"/>
       <c r="I109" s="5"/>
       <c r="J109" s="5"/>
       <c r="K109" s="5"/>
@@ -8558,14 +8575,14 @@
         <v>242</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="D110" s="11" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="E110" s="5"/>
       <c r="F110" s="6" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="G110" s="5"/>
       <c r="H110" s="5"/>
@@ -8596,14 +8613,14 @@
         <v>242</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="D111" s="11" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="E111" s="5"/>
       <c r="F111" s="6" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="G111" s="5"/>
       <c r="H111" s="5"/>
@@ -8634,14 +8651,14 @@
         <v>242</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="D112" s="11" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="E112" s="5"/>
       <c r="F112" s="6" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="G112" s="5"/>
       <c r="H112" s="5"/>
@@ -8672,14 +8689,14 @@
         <v>242</v>
       </c>
       <c r="C113" s="8" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="D113" s="11" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="E113" s="5"/>
       <c r="F113" s="6" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="G113" s="5"/>
       <c r="H113" s="5"/>
@@ -8710,14 +8727,14 @@
         <v>242</v>
       </c>
       <c r="C114" s="8" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="D114" s="11" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="E114" s="5"/>
       <c r="F114" s="6" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="G114" s="5"/>
       <c r="H114" s="5"/>
@@ -8748,14 +8765,14 @@
         <v>242</v>
       </c>
       <c r="C115" s="8" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="D115" s="11" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="E115" s="5"/>
       <c r="F115" s="6" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="G115" s="5"/>
       <c r="H115" s="5"/>
@@ -8778,7 +8795,7 @@
       <c r="Y115" s="3"/>
       <c r="Z115" s="3"/>
     </row>
-    <row r="116" spans="1:26" ht="12.75" customHeight="1">
+    <row r="116" spans="1:26" ht="13.5" customHeight="1">
       <c r="A116" s="8" t="s">
         <v>209</v>
       </c>
@@ -8786,19 +8803,19 @@
         <v>242</v>
       </c>
       <c r="C116" s="8" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="D116" s="11" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="E116" s="5"/>
-      <c r="F116" s="6" t="s">
-        <v>263</v>
-      </c>
+      <c r="F116" s="5"/>
       <c r="G116" s="5"/>
       <c r="H116" s="5"/>
-      <c r="I116" s="5"/>
-      <c r="J116" s="5"/>
+      <c r="I116" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="J116" s="16"/>
       <c r="K116" s="5"/>
       <c r="L116" s="5"/>
       <c r="M116" s="6"/>
@@ -8824,17 +8841,17 @@
         <v>242</v>
       </c>
       <c r="C117" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="D117" s="11" t="s">
-        <v>265</v>
+        <v>267</v>
+      </c>
+      <c r="D117" s="13" t="s">
+        <v>268</v>
       </c>
       <c r="E117" s="5"/>
       <c r="F117" s="5"/>
       <c r="G117" s="5"/>
       <c r="H117" s="5"/>
       <c r="I117" s="6" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="J117" s="16"/>
       <c r="K117" s="5"/>
@@ -8861,20 +8878,22 @@
       <c r="B118" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="C118" s="8" t="s">
-        <v>267</v>
+      <c r="C118" s="6" t="s">
+        <v>270</v>
       </c>
       <c r="D118" s="13" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="E118" s="5"/>
-      <c r="F118" s="5"/>
+      <c r="F118" s="17" t="s">
+        <v>272</v>
+      </c>
       <c r="G118" s="5"/>
-      <c r="H118" s="5"/>
-      <c r="I118" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="J118" s="16"/>
+      <c r="H118" s="17" t="s">
+        <v>273</v>
+      </c>
+      <c r="I118" s="5"/>
+      <c r="J118" s="5"/>
       <c r="K118" s="5"/>
       <c r="L118" s="5"/>
       <c r="M118" s="6"/>
@@ -8893,26 +8912,20 @@
       <c r="Z118" s="3"/>
     </row>
     <row r="119" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A119" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="B119" s="8" t="s">
-        <v>242</v>
-      </c>
+      <c r="A119" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="B119" s="5"/>
       <c r="C119" s="6" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="D119" s="13" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="E119" s="5"/>
-      <c r="F119" s="17" t="s">
-        <v>272</v>
-      </c>
+      <c r="F119" s="5"/>
       <c r="G119" s="5"/>
-      <c r="H119" s="17" t="s">
-        <v>273</v>
-      </c>
+      <c r="H119" s="5"/>
       <c r="I119" s="5"/>
       <c r="J119" s="5"/>
       <c r="K119" s="5"/>
@@ -8933,20 +8946,24 @@
       <c r="Z119" s="3"/>
     </row>
     <row r="120" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A120" s="6" t="s">
+      <c r="A120" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="B120" s="5"/>
+      <c r="B120" s="6" t="s">
+        <v>277</v>
+      </c>
       <c r="C120" s="6" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="D120" s="13" t="s">
-        <v>276</v>
-      </c>
-      <c r="E120" s="5"/>
+        <v>279</v>
+      </c>
+      <c r="E120" s="8" t="s">
+        <v>280</v>
+      </c>
       <c r="F120" s="5"/>
       <c r="G120" s="5"/>
-      <c r="H120" s="5"/>
+      <c r="H120" s="4"/>
       <c r="I120" s="5"/>
       <c r="J120" s="5"/>
       <c r="K120" s="5"/>
@@ -8974,13 +8991,13 @@
         <v>277</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="D121" s="13" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="E121" s="8" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="F121" s="5"/>
       <c r="G121" s="5"/>
@@ -9012,13 +9029,13 @@
         <v>277</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="D122" s="13" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="E122" s="8" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="F122" s="5"/>
       <c r="G122" s="5"/>
@@ -9050,13 +9067,13 @@
         <v>277</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="D123" s="13" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="E123" s="8" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="F123" s="5"/>
       <c r="G123" s="5"/>
@@ -9088,17 +9105,17 @@
         <v>277</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="D124" s="13" t="s">
-        <v>288</v>
-      </c>
-      <c r="E124" s="8" t="s">
-        <v>289</v>
+        <v>291</v>
+      </c>
+      <c r="E124" s="6" t="s">
+        <v>292</v>
       </c>
       <c r="F124" s="5"/>
       <c r="G124" s="5"/>
-      <c r="H124" s="4"/>
+      <c r="H124" s="5"/>
       <c r="I124" s="5"/>
       <c r="J124" s="5"/>
       <c r="K124" s="5"/>
@@ -9126,17 +9143,17 @@
         <v>277</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="D125" s="13" t="s">
-        <v>291</v>
-      </c>
-      <c r="E125" s="6" t="s">
-        <v>292</v>
+        <v>294</v>
+      </c>
+      <c r="E125" s="8" t="s">
+        <v>295</v>
       </c>
       <c r="F125" s="5"/>
       <c r="G125" s="5"/>
-      <c r="H125" s="5"/>
+      <c r="H125" s="4"/>
       <c r="I125" s="5"/>
       <c r="J125" s="5"/>
       <c r="K125" s="5"/>
@@ -9164,13 +9181,13 @@
         <v>277</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="D126" s="13" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="E126" s="8" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="F126" s="5"/>
       <c r="G126" s="5"/>
@@ -9202,13 +9219,13 @@
         <v>277</v>
       </c>
       <c r="C127" s="6" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="D127" s="13" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="E127" s="8" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="F127" s="5"/>
       <c r="G127" s="5"/>
@@ -9240,17 +9257,17 @@
         <v>277</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="D128" s="13" t="s">
-        <v>300</v>
-      </c>
-      <c r="E128" s="8" t="s">
-        <v>301</v>
+        <v>303</v>
+      </c>
+      <c r="E128" s="6" t="s">
+        <v>304</v>
       </c>
       <c r="F128" s="5"/>
       <c r="G128" s="5"/>
-      <c r="H128" s="4"/>
+      <c r="H128" s="5"/>
       <c r="I128" s="5"/>
       <c r="J128" s="5"/>
       <c r="K128" s="5"/>
@@ -9278,10 +9295,10 @@
         <v>277</v>
       </c>
       <c r="C129" s="6" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="D129" s="13" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="E129" s="6" t="s">
         <v>304</v>
@@ -9316,13 +9333,13 @@
         <v>277</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D130" s="13" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="E130" s="6" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="F130" s="5"/>
       <c r="G130" s="5"/>
@@ -9354,13 +9371,13 @@
         <v>277</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="D131" s="13" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="E131" s="6" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="F131" s="5"/>
       <c r="G131" s="5"/>
@@ -9389,18 +9406,20 @@
         <v>274</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>277</v>
+        <v>312</v>
       </c>
       <c r="C132" s="6" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="D132" s="13" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="E132" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="F132" s="5"/>
+        <v>315</v>
+      </c>
+      <c r="F132" s="6" t="s">
+        <v>316</v>
+      </c>
       <c r="G132" s="5"/>
       <c r="H132" s="5"/>
       <c r="I132" s="5"/>
@@ -9430,13 +9449,13 @@
         <v>312</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="D133" s="13" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="E133" s="6" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="F133" s="6" t="s">
         <v>316</v>
@@ -9470,13 +9489,13 @@
         <v>312</v>
       </c>
       <c r="C134" s="6" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="D134" s="13" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="E134" s="6" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="F134" s="6" t="s">
         <v>316</v>
@@ -9510,13 +9529,13 @@
         <v>312</v>
       </c>
       <c r="C135" s="6" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="D135" s="13" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="E135" s="6" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="F135" s="6" t="s">
         <v>316</v>
@@ -9550,13 +9569,13 @@
         <v>312</v>
       </c>
       <c r="C136" s="6" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="D136" s="13" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="E136" s="6" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="F136" s="6" t="s">
         <v>316</v>
@@ -9590,13 +9609,13 @@
         <v>312</v>
       </c>
       <c r="C137" s="6" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="D137" s="13" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="E137" s="6" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="F137" s="6" t="s">
         <v>316</v>
@@ -9630,16 +9649,16 @@
         <v>312</v>
       </c>
       <c r="C138" s="6" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="D138" s="13" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="E138" s="6" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="F138" s="6" t="s">
-        <v>316</v>
+        <v>335</v>
       </c>
       <c r="G138" s="5"/>
       <c r="H138" s="5"/>
@@ -9670,19 +9689,19 @@
         <v>312</v>
       </c>
       <c r="C139" s="6" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="D139" s="13" t="s">
-        <v>333</v>
-      </c>
-      <c r="E139" s="6" t="s">
-        <v>334</v>
+        <v>337</v>
+      </c>
+      <c r="E139" s="8" t="s">
+        <v>338</v>
       </c>
       <c r="F139" s="6" t="s">
         <v>335</v>
       </c>
       <c r="G139" s="5"/>
-      <c r="H139" s="5"/>
+      <c r="H139" s="4"/>
       <c r="I139" s="5"/>
       <c r="J139" s="5"/>
       <c r="K139" s="5"/>
@@ -9710,19 +9729,19 @@
         <v>312</v>
       </c>
       <c r="C140" s="6" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D140" s="13" t="s">
-        <v>337</v>
-      </c>
-      <c r="E140" s="8" t="s">
-        <v>338</v>
+        <v>340</v>
+      </c>
+      <c r="E140" s="6" t="s">
+        <v>341</v>
       </c>
       <c r="F140" s="6" t="s">
         <v>335</v>
       </c>
       <c r="G140" s="5"/>
-      <c r="H140" s="4"/>
+      <c r="H140" s="5"/>
       <c r="I140" s="5"/>
       <c r="J140" s="5"/>
       <c r="K140" s="5"/>
@@ -9750,13 +9769,13 @@
         <v>312</v>
       </c>
       <c r="C141" s="6" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="D141" s="13" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="E141" s="6" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="F141" s="6" t="s">
         <v>335</v>
@@ -9790,13 +9809,13 @@
         <v>312</v>
       </c>
       <c r="C142" s="6" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="D142" s="13" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="E142" s="6" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="F142" s="6" t="s">
         <v>335</v>
@@ -9826,17 +9845,17 @@
       <c r="A143" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="B143" s="6" t="s">
+      <c r="B143" s="8" t="s">
         <v>312</v>
       </c>
-      <c r="C143" s="6" t="s">
-        <v>345</v>
+      <c r="C143" s="8" t="s">
+        <v>348</v>
       </c>
       <c r="D143" s="13" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="E143" s="6" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="F143" s="6" t="s">
         <v>335</v>
@@ -9844,7 +9863,7 @@
       <c r="G143" s="5"/>
       <c r="H143" s="5"/>
       <c r="I143" s="5"/>
-      <c r="J143" s="5"/>
+      <c r="J143" s="6"/>
       <c r="K143" s="5"/>
       <c r="L143" s="5"/>
       <c r="M143" s="6"/>
@@ -9863,28 +9882,28 @@
       <c r="Z143" s="3"/>
     </row>
     <row r="144" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A144" s="8" t="s">
+      <c r="A144" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="B144" s="8" t="s">
-        <v>312</v>
-      </c>
-      <c r="C144" s="8" t="s">
-        <v>348</v>
+      <c r="B144" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="C144" s="6" t="s">
+        <v>352</v>
       </c>
       <c r="D144" s="13" t="s">
-        <v>349</v>
-      </c>
-      <c r="E144" s="6" t="s">
-        <v>350</v>
-      </c>
-      <c r="F144" s="6" t="s">
-        <v>335</v>
+        <v>353</v>
+      </c>
+      <c r="E144" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="F144" s="5" t="s">
+        <v>354</v>
       </c>
       <c r="G144" s="5"/>
       <c r="H144" s="5"/>
       <c r="I144" s="5"/>
-      <c r="J144" s="6"/>
+      <c r="J144" s="5"/>
       <c r="K144" s="5"/>
       <c r="L144" s="5"/>
       <c r="M144" s="6"/>
@@ -9910,16 +9929,16 @@
         <v>351</v>
       </c>
       <c r="C145" s="6" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="D145" s="13" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="E145" s="5" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="F145" s="5" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="G145" s="5"/>
       <c r="H145" s="5"/>
@@ -9943,28 +9962,24 @@
       <c r="Z145" s="3"/>
     </row>
     <row r="146" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A146" s="6" t="s">
+      <c r="A146" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="B146" s="6" t="s">
-        <v>351</v>
-      </c>
+      <c r="B146" s="5"/>
       <c r="C146" s="6" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D146" s="13" t="s">
-        <v>356</v>
-      </c>
-      <c r="E146" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="F146" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="G146" s="5"/>
+        <v>359</v>
+      </c>
+      <c r="E146" s="5"/>
+      <c r="F146" s="16"/>
+      <c r="G146" s="16"/>
       <c r="H146" s="5"/>
-      <c r="I146" s="5"/>
-      <c r="J146" s="5"/>
+      <c r="I146" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="J146" s="16"/>
       <c r="K146" s="5"/>
       <c r="L146" s="5"/>
       <c r="M146" s="6"/>
@@ -9988,17 +10003,17 @@
       </c>
       <c r="B147" s="5"/>
       <c r="C147" s="6" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D147" s="13" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="E147" s="5"/>
       <c r="F147" s="16"/>
       <c r="G147" s="16"/>
       <c r="H147" s="5"/>
       <c r="I147" s="17" t="s">
-        <v>269</v>
+        <v>362</v>
       </c>
       <c r="J147" s="16"/>
       <c r="K147" s="5"/>
@@ -10024,19 +10039,21 @@
       </c>
       <c r="B148" s="5"/>
       <c r="C148" s="6" t="s">
-        <v>360</v>
-      </c>
-      <c r="D148" s="13" t="s">
-        <v>361</v>
-      </c>
-      <c r="E148" s="5"/>
-      <c r="F148" s="16"/>
-      <c r="G148" s="16"/>
-      <c r="H148" s="5"/>
-      <c r="I148" s="17" t="s">
-        <v>362</v>
-      </c>
-      <c r="J148" s="16"/>
+        <v>363</v>
+      </c>
+      <c r="D148" s="11" t="s">
+        <v>364</v>
+      </c>
+      <c r="E148" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="F148" s="5"/>
+      <c r="G148" s="5"/>
+      <c r="H148" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="I148" s="5"/>
+      <c r="J148" s="5"/>
       <c r="K148" s="5"/>
       <c r="L148" s="5"/>
       <c r="M148" s="6"/>
@@ -10055,23 +10072,23 @@
       <c r="Z148" s="3"/>
     </row>
     <row r="149" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A149" s="8" t="s">
-        <v>274</v>
+      <c r="A149" s="6" t="s">
+        <v>366</v>
       </c>
       <c r="B149" s="5"/>
       <c r="C149" s="6" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="D149" s="11" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="E149" s="6" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="F149" s="5"/>
       <c r="G149" s="5"/>
       <c r="H149" s="6" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="I149" s="5"/>
       <c r="J149" s="5"/>
@@ -10098,18 +10115,18 @@
       </c>
       <c r="B150" s="5"/>
       <c r="C150" s="6" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="D150" s="11" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="E150" s="6" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="F150" s="5"/>
       <c r="G150" s="5"/>
       <c r="H150" s="6" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="I150" s="5"/>
       <c r="J150" s="5"/>
@@ -10136,19 +10153,19 @@
       </c>
       <c r="B151" s="5"/>
       <c r="C151" s="6" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="D151" s="11" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="E151" s="6" t="s">
-        <v>372</v>
-      </c>
-      <c r="F151" s="5"/>
+        <v>71</v>
+      </c>
+      <c r="F151" s="6" t="s">
+        <v>375</v>
+      </c>
       <c r="G151" s="5"/>
-      <c r="H151" s="6" t="s">
-        <v>372</v>
-      </c>
+      <c r="H151" s="5"/>
       <c r="I151" s="5"/>
       <c r="J151" s="5"/>
       <c r="K151" s="5"/>
@@ -10170,21 +10187,19 @@
     </row>
     <row r="152" spans="1:26" ht="13.5" customHeight="1">
       <c r="A152" s="6" t="s">
-        <v>366</v>
-      </c>
-      <c r="B152" s="5"/>
+        <v>376</v>
+      </c>
+      <c r="B152" s="6"/>
       <c r="C152" s="6" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="D152" s="11" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="E152" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="F152" s="6" t="s">
-        <v>375</v>
-      </c>
+        <v>379</v>
+      </c>
+      <c r="F152" s="5"/>
       <c r="G152" s="5"/>
       <c r="H152" s="5"/>
       <c r="I152" s="5"/>
@@ -10210,24 +10225,30 @@
       <c r="A153" s="6" t="s">
         <v>376</v>
       </c>
-      <c r="B153" s="6"/>
+      <c r="B153" s="6" t="s">
+        <v>380</v>
+      </c>
       <c r="C153" s="6" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="D153" s="11" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="E153" s="6" t="s">
-        <v>379</v>
-      </c>
-      <c r="F153" s="5"/>
+        <v>383</v>
+      </c>
+      <c r="F153" s="6" t="s">
+        <v>383</v>
+      </c>
       <c r="G153" s="5"/>
       <c r="H153" s="5"/>
       <c r="I153" s="5"/>
       <c r="J153" s="5"/>
       <c r="K153" s="5"/>
       <c r="L153" s="5"/>
-      <c r="M153" s="6"/>
+      <c r="M153" s="6" t="s">
+        <v>384</v>
+      </c>
       <c r="N153" s="3"/>
       <c r="O153" s="3"/>
       <c r="P153" s="3"/>
@@ -10250,19 +10271,21 @@
         <v>380</v>
       </c>
       <c r="C154" s="6" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="D154" s="11" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="E154" s="6" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="F154" s="6" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="G154" s="5"/>
-      <c r="H154" s="5"/>
+      <c r="H154" s="6" t="s">
+        <v>387</v>
+      </c>
       <c r="I154" s="5"/>
       <c r="J154" s="5"/>
       <c r="K154" s="5"/>
@@ -10292,20 +10315,20 @@
         <v>380</v>
       </c>
       <c r="C155" s="6" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="D155" s="11" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="E155" s="6" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="F155" s="6" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="G155" s="5"/>
       <c r="H155" s="6" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="I155" s="5"/>
       <c r="J155" s="5"/>
@@ -10336,20 +10359,20 @@
         <v>380</v>
       </c>
       <c r="C156" s="6" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="D156" s="11" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="E156" s="6" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="F156" s="6" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="G156" s="5"/>
       <c r="H156" s="6" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="I156" s="5"/>
       <c r="J156" s="5"/>
@@ -10372,36 +10395,30 @@
       <c r="Y156" s="3"/>
       <c r="Z156" s="3"/>
     </row>
-    <row r="157" spans="1:26" ht="13.5" customHeight="1">
+    <row r="157" spans="1:26" ht="15" customHeight="1">
       <c r="A157" s="6" t="s">
         <v>376</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>380</v>
+        <v>394</v>
       </c>
       <c r="C157" s="6" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="D157" s="11" t="s">
-        <v>392</v>
-      </c>
-      <c r="E157" s="6" t="s">
-        <v>393</v>
-      </c>
-      <c r="F157" s="6" t="s">
-        <v>393</v>
-      </c>
+        <v>396</v>
+      </c>
+      <c r="E157" s="5"/>
+      <c r="F157" s="5"/>
       <c r="G157" s="5"/>
-      <c r="H157" s="6" t="s">
-        <v>393</v>
-      </c>
-      <c r="I157" s="5"/>
+      <c r="H157" s="5"/>
+      <c r="I157" s="6" t="s">
+        <v>397</v>
+      </c>
       <c r="J157" s="5"/>
       <c r="K157" s="5"/>
       <c r="L157" s="5"/>
-      <c r="M157" s="6" t="s">
-        <v>384</v>
-      </c>
+      <c r="M157" s="6"/>
       <c r="N157" s="3"/>
       <c r="O157" s="3"/>
       <c r="P157" s="3"/>
@@ -10416,7 +10433,7 @@
       <c r="Y157" s="3"/>
       <c r="Z157" s="3"/>
     </row>
-    <row r="158" spans="1:26" ht="15" customHeight="1">
+    <row r="158" spans="1:26" ht="13.5" customHeight="1">
       <c r="A158" s="6" t="s">
         <v>376</v>
       </c>
@@ -10424,18 +10441,16 @@
         <v>394</v>
       </c>
       <c r="C158" s="6" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="D158" s="11" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="E158" s="5"/>
       <c r="F158" s="5"/>
       <c r="G158" s="5"/>
       <c r="H158" s="5"/>
-      <c r="I158" s="6" t="s">
-        <v>397</v>
-      </c>
+      <c r="I158" s="5"/>
       <c r="J158" s="5"/>
       <c r="K158" s="5"/>
       <c r="L158" s="5"/>
@@ -10458,20 +10473,22 @@
       <c r="A159" s="6" t="s">
         <v>376</v>
       </c>
-      <c r="B159" s="6" t="s">
-        <v>394</v>
+      <c r="B159" s="8" t="s">
+        <v>400</v>
       </c>
       <c r="C159" s="6" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="D159" s="11" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="E159" s="5"/>
       <c r="F159" s="5"/>
       <c r="G159" s="5"/>
       <c r="H159" s="5"/>
-      <c r="I159" s="5"/>
+      <c r="I159" s="6" t="s">
+        <v>403</v>
+      </c>
       <c r="J159" s="5"/>
       <c r="K159" s="5"/>
       <c r="L159" s="5"/>
@@ -10498,18 +10515,22 @@
         <v>400</v>
       </c>
       <c r="C160" s="6" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="D160" s="11" t="s">
-        <v>402</v>
-      </c>
-      <c r="E160" s="5"/>
-      <c r="F160" s="5"/>
+        <v>405</v>
+      </c>
+      <c r="E160" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="F160" s="6" t="s">
+        <v>406</v>
+      </c>
       <c r="G160" s="5"/>
-      <c r="H160" s="5"/>
-      <c r="I160" s="6" t="s">
-        <v>403</v>
-      </c>
+      <c r="H160" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="I160" s="5"/>
       <c r="J160" s="5"/>
       <c r="K160" s="5"/>
       <c r="L160" s="5"/>
@@ -10536,22 +10557,18 @@
         <v>400</v>
       </c>
       <c r="C161" s="6" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="D161" s="11" t="s">
-        <v>405</v>
-      </c>
-      <c r="E161" s="6" t="s">
-        <v>406</v>
-      </c>
-      <c r="F161" s="6" t="s">
-        <v>406</v>
-      </c>
+        <v>408</v>
+      </c>
+      <c r="E161" s="5"/>
+      <c r="F161" s="5"/>
       <c r="G161" s="5"/>
-      <c r="H161" s="6" t="s">
-        <v>406</v>
-      </c>
-      <c r="I161" s="5"/>
+      <c r="H161" s="5"/>
+      <c r="I161" s="6" t="s">
+        <v>403</v>
+      </c>
       <c r="J161" s="5"/>
       <c r="K161" s="5"/>
       <c r="L161" s="5"/>
@@ -10578,17 +10595,17 @@
         <v>400</v>
       </c>
       <c r="C162" s="6" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="D162" s="11" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="E162" s="5"/>
       <c r="F162" s="5"/>
       <c r="G162" s="5"/>
       <c r="H162" s="5"/>
-      <c r="I162" s="6" t="s">
-        <v>403</v>
+      <c r="I162" s="8" t="s">
+        <v>411</v>
       </c>
       <c r="J162" s="5"/>
       <c r="K162" s="5"/>
@@ -10616,10 +10633,10 @@
         <v>400</v>
       </c>
       <c r="C163" s="6" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="D163" s="11" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="E163" s="5"/>
       <c r="F163" s="5"/>
@@ -10654,17 +10671,17 @@
         <v>400</v>
       </c>
       <c r="C164" s="6" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="D164" s="11" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="E164" s="5"/>
       <c r="F164" s="5"/>
       <c r="G164" s="5"/>
       <c r="H164" s="5"/>
       <c r="I164" s="8" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="J164" s="5"/>
       <c r="K164" s="5"/>
@@ -10692,18 +10709,22 @@
         <v>400</v>
       </c>
       <c r="C165" s="6" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="D165" s="11" t="s">
-        <v>415</v>
-      </c>
-      <c r="E165" s="5"/>
-      <c r="F165" s="5"/>
+        <v>418</v>
+      </c>
+      <c r="E165" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="F165" s="6" t="s">
+        <v>419</v>
+      </c>
       <c r="G165" s="5"/>
-      <c r="H165" s="5"/>
-      <c r="I165" s="8" t="s">
-        <v>416</v>
-      </c>
+      <c r="H165" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="I165" s="5"/>
       <c r="J165" s="5"/>
       <c r="K165" s="5"/>
       <c r="L165" s="5"/>
@@ -10726,24 +10747,22 @@
       <c r="A166" s="6" t="s">
         <v>376</v>
       </c>
-      <c r="B166" s="8" t="s">
-        <v>400</v>
+      <c r="B166" s="6" t="s">
+        <v>420</v>
       </c>
       <c r="C166" s="6" t="s">
-        <v>417</v>
-      </c>
-      <c r="D166" s="11" t="s">
-        <v>418</v>
+        <v>421</v>
+      </c>
+      <c r="D166" s="13" t="s">
+        <v>422</v>
       </c>
       <c r="E166" s="6" t="s">
-        <v>419</v>
-      </c>
-      <c r="F166" s="6" t="s">
-        <v>419</v>
-      </c>
+        <v>423</v>
+      </c>
+      <c r="F166" s="5"/>
       <c r="G166" s="5"/>
       <c r="H166" s="6" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="I166" s="5"/>
       <c r="J166" s="5"/>
@@ -10772,18 +10791,18 @@
         <v>420</v>
       </c>
       <c r="C167" s="6" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="D167" s="13" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="E167" s="6" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="F167" s="5"/>
       <c r="G167" s="5"/>
       <c r="H167" s="6" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="I167" s="5"/>
       <c r="J167" s="5"/>
@@ -10812,18 +10831,18 @@
         <v>420</v>
       </c>
       <c r="C168" s="6" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="D168" s="13" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="E168" s="6" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="F168" s="5"/>
       <c r="G168" s="5"/>
       <c r="H168" s="6" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="I168" s="5"/>
       <c r="J168" s="5"/>
@@ -10852,18 +10871,18 @@
         <v>420</v>
       </c>
       <c r="C169" s="6" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="D169" s="13" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="E169" s="6" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="F169" s="5"/>
       <c r="G169" s="5"/>
       <c r="H169" s="6" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="I169" s="5"/>
       <c r="J169" s="5"/>
@@ -10888,22 +10907,20 @@
       <c r="A170" s="6" t="s">
         <v>376</v>
       </c>
-      <c r="B170" s="6" t="s">
-        <v>420</v>
-      </c>
-      <c r="C170" s="6" t="s">
-        <v>430</v>
-      </c>
-      <c r="D170" s="13" t="s">
-        <v>431</v>
-      </c>
-      <c r="E170" s="6" t="s">
-        <v>432</v>
-      </c>
+      <c r="B170" s="26" t="s">
+        <v>567</v>
+      </c>
+      <c r="C170" s="26" t="s">
+        <v>568</v>
+      </c>
+      <c r="D170" s="29" t="s">
+        <v>573</v>
+      </c>
+      <c r="E170" s="6"/>
       <c r="F170" s="5"/>
       <c r="G170" s="5"/>
       <c r="H170" s="6" t="s">
-        <v>432</v>
+        <v>578</v>
       </c>
       <c r="I170" s="5"/>
       <c r="J170" s="5"/>
@@ -10932,16 +10949,16 @@
         <v>567</v>
       </c>
       <c r="C171" s="26" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="D171" s="29" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="E171" s="6"/>
       <c r="F171" s="5"/>
       <c r="G171" s="5"/>
       <c r="H171" s="6" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="I171" s="5"/>
       <c r="J171" s="5"/>
@@ -10970,16 +10987,16 @@
         <v>567</v>
       </c>
       <c r="C172" s="26" t="s">
-        <v>569</v>
-      </c>
-      <c r="D172" s="29" t="s">
-        <v>574</v>
+        <v>570</v>
+      </c>
+      <c r="D172" s="28" t="s">
+        <v>575</v>
       </c>
       <c r="E172" s="6"/>
       <c r="F172" s="5"/>
       <c r="G172" s="5"/>
       <c r="H172" s="6" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="I172" s="5"/>
       <c r="J172" s="5"/>
@@ -11008,16 +11025,16 @@
         <v>567</v>
       </c>
       <c r="C173" s="26" t="s">
-        <v>570</v>
-      </c>
-      <c r="D173" s="28" t="s">
-        <v>575</v>
+        <v>571</v>
+      </c>
+      <c r="D173" s="29" t="s">
+        <v>576</v>
       </c>
       <c r="E173" s="6"/>
       <c r="F173" s="5"/>
       <c r="G173" s="5"/>
       <c r="H173" s="6" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="I173" s="5"/>
       <c r="J173" s="5"/>
@@ -11046,16 +11063,16 @@
         <v>567</v>
       </c>
       <c r="C174" s="26" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="D174" s="29" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="E174" s="6"/>
       <c r="F174" s="5"/>
       <c r="G174" s="5"/>
       <c r="H174" s="6" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="I174" s="5"/>
       <c r="J174" s="5"/>
@@ -11078,22 +11095,22 @@
     </row>
     <row r="175" spans="1:26" ht="13.5" customHeight="1">
       <c r="A175" s="6" t="s">
-        <v>376</v>
-      </c>
-      <c r="B175" s="26" t="s">
-        <v>567</v>
-      </c>
-      <c r="C175" s="26" t="s">
-        <v>572</v>
-      </c>
-      <c r="D175" s="29" t="s">
-        <v>577</v>
-      </c>
-      <c r="E175" s="6"/>
+        <v>433</v>
+      </c>
+      <c r="B175" s="5"/>
+      <c r="C175" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="D175" s="11" t="s">
+        <v>435</v>
+      </c>
+      <c r="E175" s="6" t="s">
+        <v>289</v>
+      </c>
       <c r="F175" s="5"/>
       <c r="G175" s="5"/>
       <c r="H175" s="6" t="s">
-        <v>582</v>
+        <v>289</v>
       </c>
       <c r="I175" s="5"/>
       <c r="J175" s="5"/>
@@ -11115,24 +11132,26 @@
       <c r="Z175" s="3"/>
     </row>
     <row r="176" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A176" s="6" t="s">
-        <v>433</v>
-      </c>
-      <c r="B176" s="5"/>
+      <c r="A176" s="8" t="s">
+        <v>436</v>
+      </c>
+      <c r="B176" s="6" t="s">
+        <v>437</v>
+      </c>
       <c r="C176" s="6" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="D176" s="11" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="E176" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="F176" s="5"/>
+        <v>440</v>
+      </c>
+      <c r="F176" s="6" t="s">
+        <v>292</v>
+      </c>
       <c r="G176" s="5"/>
-      <c r="H176" s="6" t="s">
-        <v>289</v>
-      </c>
+      <c r="H176" s="5"/>
       <c r="I176" s="5"/>
       <c r="J176" s="5"/>
       <c r="K176" s="5"/>
@@ -11160,13 +11179,13 @@
         <v>437</v>
       </c>
       <c r="C177" s="6" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="D177" s="11" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="E177" s="6" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="F177" s="6" t="s">
         <v>292</v>
@@ -11197,22 +11216,22 @@
         <v>436</v>
       </c>
       <c r="B178" s="6" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="C178" s="6" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="D178" s="11" t="s">
-        <v>442</v>
-      </c>
-      <c r="E178" s="6" t="s">
-        <v>443</v>
-      </c>
+        <v>445</v>
+      </c>
+      <c r="E178" s="5"/>
       <c r="F178" s="6" t="s">
-        <v>292</v>
+        <v>446</v>
       </c>
       <c r="G178" s="5"/>
-      <c r="H178" s="5"/>
+      <c r="H178" s="6" t="s">
+        <v>446</v>
+      </c>
       <c r="I178" s="5"/>
       <c r="J178" s="5"/>
       <c r="K178" s="5"/>
@@ -11237,21 +11256,23 @@
         <v>436</v>
       </c>
       <c r="B179" s="6" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="C179" s="6" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="D179" s="11" t="s">
-        <v>445</v>
-      </c>
-      <c r="E179" s="5"/>
+        <v>449</v>
+      </c>
+      <c r="E179" s="6" t="s">
+        <v>450</v>
+      </c>
       <c r="F179" s="6" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="G179" s="5"/>
       <c r="H179" s="6" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="I179" s="5"/>
       <c r="J179" s="5"/>
@@ -11280,20 +11301,20 @@
         <v>447</v>
       </c>
       <c r="C180" s="6" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="D180" s="11" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="E180" s="6" t="s">
-        <v>450</v>
+        <v>21</v>
       </c>
       <c r="F180" s="6" t="s">
-        <v>450</v>
+        <v>21</v>
       </c>
       <c r="G180" s="5"/>
       <c r="H180" s="6" t="s">
-        <v>450</v>
+        <v>21</v>
       </c>
       <c r="I180" s="5"/>
       <c r="J180" s="5"/>
@@ -11318,26 +11339,20 @@
       <c r="A181" s="8" t="s">
         <v>436</v>
       </c>
-      <c r="B181" s="6" t="s">
-        <v>447</v>
-      </c>
+      <c r="B181" s="5"/>
       <c r="C181" s="6" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="D181" s="11" t="s">
-        <v>452</v>
-      </c>
-      <c r="E181" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F181" s="6" t="s">
-        <v>21</v>
-      </c>
+        <v>454</v>
+      </c>
+      <c r="E181" s="5"/>
+      <c r="F181" s="5"/>
       <c r="G181" s="5"/>
-      <c r="H181" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="I181" s="5"/>
+      <c r="H181" s="5"/>
+      <c r="I181" s="6" t="s">
+        <v>455</v>
+      </c>
       <c r="J181" s="5"/>
       <c r="K181" s="5"/>
       <c r="L181" s="5"/>
@@ -11358,21 +11373,23 @@
     </row>
     <row r="182" spans="1:26" ht="13.5" customHeight="1">
       <c r="A182" s="8" t="s">
-        <v>436</v>
-      </c>
-      <c r="B182" s="5"/>
-      <c r="C182" s="6" t="s">
-        <v>453</v>
+        <v>456</v>
+      </c>
+      <c r="B182" s="8" t="s">
+        <v>457</v>
+      </c>
+      <c r="C182" s="8" t="s">
+        <v>458</v>
       </c>
       <c r="D182" s="11" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="E182" s="5"/>
       <c r="F182" s="5"/>
       <c r="G182" s="5"/>
       <c r="H182" s="5"/>
-      <c r="I182" s="6" t="s">
-        <v>455</v>
+      <c r="I182" s="8" t="s">
+        <v>460</v>
       </c>
       <c r="J182" s="5"/>
       <c r="K182" s="5"/>
@@ -11400,18 +11417,20 @@
         <v>457</v>
       </c>
       <c r="C183" s="8" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="D183" s="11" t="s">
-        <v>459</v>
-      </c>
-      <c r="E183" s="5"/>
+        <v>462</v>
+      </c>
+      <c r="E183" s="6" t="s">
+        <v>289</v>
+      </c>
       <c r="F183" s="5"/>
       <c r="G183" s="5"/>
-      <c r="H183" s="5"/>
-      <c r="I183" s="8" t="s">
-        <v>460</v>
-      </c>
+      <c r="H183" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="I183" s="5"/>
       <c r="J183" s="5"/>
       <c r="K183" s="5"/>
       <c r="L183" s="5"/>
@@ -11435,23 +11454,21 @@
         <v>456</v>
       </c>
       <c r="B184" s="8" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="C184" s="8" t="s">
-        <v>461</v>
-      </c>
-      <c r="D184" s="11" t="s">
-        <v>462</v>
-      </c>
-      <c r="E184" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="F184" s="5"/>
-      <c r="G184" s="5"/>
-      <c r="H184" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="I184" s="5"/>
+        <v>464</v>
+      </c>
+      <c r="D184" s="18" t="s">
+        <v>465</v>
+      </c>
+      <c r="E184" s="19"/>
+      <c r="F184" s="19"/>
+      <c r="G184" s="19"/>
+      <c r="H184" s="20"/>
+      <c r="I184" s="8" t="s">
+        <v>466</v>
+      </c>
       <c r="J184" s="5"/>
       <c r="K184" s="5"/>
       <c r="L184" s="5"/>
@@ -11478,18 +11495,20 @@
         <v>463</v>
       </c>
       <c r="C185" s="8" t="s">
-        <v>464</v>
-      </c>
-      <c r="D185" s="18" t="s">
-        <v>465</v>
-      </c>
-      <c r="E185" s="19"/>
-      <c r="F185" s="19"/>
-      <c r="G185" s="19"/>
-      <c r="H185" s="20"/>
-      <c r="I185" s="8" t="s">
-        <v>466</v>
-      </c>
+        <v>467</v>
+      </c>
+      <c r="D185" s="11" t="s">
+        <v>468</v>
+      </c>
+      <c r="E185" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="F185" s="5"/>
+      <c r="G185" s="5"/>
+      <c r="H185" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="I185" s="5"/>
       <c r="J185" s="5"/>
       <c r="K185" s="5"/>
       <c r="L185" s="5"/>
@@ -11513,22 +11532,20 @@
         <v>456</v>
       </c>
       <c r="B186" s="8" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="C186" s="8" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="D186" s="11" t="s">
-        <v>468</v>
-      </c>
-      <c r="E186" s="6" t="s">
-        <v>469</v>
-      </c>
-      <c r="F186" s="5"/>
+        <v>472</v>
+      </c>
+      <c r="E186" s="5"/>
+      <c r="F186" s="6" t="s">
+        <v>473</v>
+      </c>
       <c r="G186" s="5"/>
-      <c r="H186" s="6" t="s">
-        <v>469</v>
-      </c>
+      <c r="H186" s="5"/>
       <c r="I186" s="5"/>
       <c r="J186" s="5"/>
       <c r="K186" s="5"/>
@@ -11556,14 +11573,14 @@
         <v>470</v>
       </c>
       <c r="C187" s="8" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="D187" s="11" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="E187" s="5"/>
       <c r="F187" s="6" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="G187" s="5"/>
       <c r="H187" s="5"/>
@@ -11594,14 +11611,14 @@
         <v>470</v>
       </c>
       <c r="C188" s="8" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="D188" s="11" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="E188" s="5"/>
       <c r="F188" s="6" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="G188" s="5"/>
       <c r="H188" s="5"/>
@@ -11632,14 +11649,14 @@
         <v>470</v>
       </c>
       <c r="C189" s="8" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="D189" s="11" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="E189" s="5"/>
       <c r="F189" s="6" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="G189" s="5"/>
       <c r="H189" s="5"/>
@@ -11670,14 +11687,14 @@
         <v>470</v>
       </c>
       <c r="C190" s="8" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="D190" s="11" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="E190" s="5"/>
       <c r="F190" s="6" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="G190" s="5"/>
       <c r="H190" s="5"/>
@@ -11708,14 +11725,14 @@
         <v>470</v>
       </c>
       <c r="C191" s="8" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="D191" s="11" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="E191" s="5"/>
       <c r="F191" s="6" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="G191" s="5"/>
       <c r="H191" s="5"/>
@@ -11746,14 +11763,14 @@
         <v>470</v>
       </c>
       <c r="C192" s="8" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="D192" s="11" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="E192" s="5"/>
       <c r="F192" s="6" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="G192" s="5"/>
       <c r="H192" s="5"/>
@@ -11784,14 +11801,14 @@
         <v>470</v>
       </c>
       <c r="C193" s="8" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="D193" s="11" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="E193" s="5"/>
       <c r="F193" s="6" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="G193" s="5"/>
       <c r="H193" s="5"/>
@@ -11822,14 +11839,14 @@
         <v>470</v>
       </c>
       <c r="C194" s="8" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="D194" s="11" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="E194" s="5"/>
       <c r="F194" s="6" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="G194" s="5"/>
       <c r="H194" s="5"/>
@@ -11860,14 +11877,14 @@
         <v>470</v>
       </c>
       <c r="C195" s="8" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="D195" s="11" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="E195" s="5"/>
       <c r="F195" s="6" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="G195" s="5"/>
       <c r="H195" s="5"/>
@@ -11898,14 +11915,14 @@
         <v>470</v>
       </c>
       <c r="C196" s="8" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="D196" s="11" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="E196" s="5"/>
       <c r="F196" s="6" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="G196" s="5"/>
       <c r="H196" s="5"/>
@@ -11936,14 +11953,14 @@
         <v>470</v>
       </c>
       <c r="C197" s="8" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="D197" s="11" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="E197" s="5"/>
       <c r="F197" s="6" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="G197" s="5"/>
       <c r="H197" s="5"/>
@@ -11974,14 +11991,14 @@
         <v>470</v>
       </c>
       <c r="C198" s="8" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="D198" s="11" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="E198" s="5"/>
       <c r="F198" s="6" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="G198" s="5"/>
       <c r="H198" s="5"/>
@@ -12009,20 +12026,20 @@
         <v>456</v>
       </c>
       <c r="B199" s="8" t="s">
-        <v>470</v>
+        <v>510</v>
       </c>
       <c r="C199" s="8" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="D199" s="11" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="E199" s="5"/>
-      <c r="F199" s="6" t="s">
-        <v>509</v>
-      </c>
+      <c r="F199" s="5"/>
       <c r="G199" s="5"/>
-      <c r="H199" s="5"/>
+      <c r="H199" s="5" t="s">
+        <v>513</v>
+      </c>
       <c r="I199" s="5"/>
       <c r="J199" s="5"/>
       <c r="K199" s="5"/>
@@ -12047,19 +12064,19 @@
         <v>456</v>
       </c>
       <c r="B200" s="8" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="C200" s="8" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="D200" s="11" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="E200" s="5"/>
       <c r="F200" s="5"/>
       <c r="G200" s="5"/>
       <c r="H200" s="5" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="I200" s="5"/>
       <c r="J200" s="5"/>
@@ -12088,16 +12105,16 @@
         <v>514</v>
       </c>
       <c r="C201" s="8" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="D201" s="11" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="E201" s="5"/>
       <c r="F201" s="5"/>
       <c r="G201" s="5"/>
       <c r="H201" s="5" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="I201" s="5"/>
       <c r="J201" s="5"/>
@@ -12126,18 +12143,18 @@
         <v>514</v>
       </c>
       <c r="C202" s="8" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="D202" s="11" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="E202" s="5"/>
       <c r="F202" s="5"/>
       <c r="G202" s="5"/>
-      <c r="H202" s="5" t="s">
-        <v>520</v>
-      </c>
-      <c r="I202" s="5"/>
+      <c r="H202" s="5"/>
+      <c r="I202" s="6" t="s">
+        <v>523</v>
+      </c>
       <c r="J202" s="5"/>
       <c r="K202" s="5"/>
       <c r="L202" s="5"/>
@@ -12158,23 +12175,21 @@
     </row>
     <row r="203" spans="1:26" ht="13.5" customHeight="1">
       <c r="A203" s="8" t="s">
-        <v>456</v>
-      </c>
-      <c r="B203" s="8" t="s">
-        <v>514</v>
-      </c>
+        <v>524</v>
+      </c>
+      <c r="B203" s="5"/>
       <c r="C203" s="8" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="D203" s="11" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="E203" s="5"/>
       <c r="F203" s="5"/>
       <c r="G203" s="5"/>
       <c r="H203" s="5"/>
       <c r="I203" s="6" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="J203" s="5"/>
       <c r="K203" s="5"/>
@@ -12200,18 +12215,20 @@
       </c>
       <c r="B204" s="5"/>
       <c r="C204" s="8" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="D204" s="11" t="s">
-        <v>526</v>
-      </c>
-      <c r="E204" s="5"/>
-      <c r="F204" s="5"/>
+        <v>529</v>
+      </c>
+      <c r="E204" s="5" t="s">
+        <v>530</v>
+      </c>
+      <c r="F204" s="5" t="s">
+        <v>530</v>
+      </c>
       <c r="G204" s="5"/>
       <c r="H204" s="5"/>
-      <c r="I204" s="6" t="s">
-        <v>527</v>
-      </c>
+      <c r="I204" s="5"/>
       <c r="J204" s="5"/>
       <c r="K204" s="5"/>
       <c r="L204" s="5"/>
@@ -12231,25 +12248,25 @@
       <c r="Z204" s="3"/>
     </row>
     <row r="205" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A205" s="8" t="s">
-        <v>524</v>
-      </c>
-      <c r="B205" s="5"/>
-      <c r="C205" s="8" t="s">
-        <v>528</v>
-      </c>
-      <c r="D205" s="11" t="s">
-        <v>529</v>
-      </c>
-      <c r="E205" s="5" t="s">
-        <v>530</v>
-      </c>
-      <c r="F205" s="5" t="s">
-        <v>530</v>
-      </c>
+      <c r="A205" s="6" t="s">
+        <v>531</v>
+      </c>
+      <c r="B205" s="33" t="s">
+        <v>617</v>
+      </c>
+      <c r="C205" s="41" t="s">
+        <v>618</v>
+      </c>
+      <c r="D205" s="27" t="s">
+        <v>619</v>
+      </c>
+      <c r="E205" s="5"/>
+      <c r="F205" s="5"/>
       <c r="G205" s="5"/>
       <c r="H205" s="5"/>
-      <c r="I205" s="5"/>
+      <c r="I205" s="5" t="s">
+        <v>595</v>
+      </c>
       <c r="J205" s="5"/>
       <c r="K205" s="5"/>
       <c r="L205" s="5"/>
@@ -12272,20 +12289,24 @@
       <c r="A206" s="6" t="s">
         <v>531</v>
       </c>
-      <c r="B206" s="5"/>
-      <c r="C206" s="6" t="s">
-        <v>532</v>
-      </c>
-      <c r="D206" s="11" t="s">
-        <v>533</v>
-      </c>
-      <c r="E206" s="5"/>
-      <c r="F206" s="5"/>
+      <c r="B206" s="33" t="s">
+        <v>617</v>
+      </c>
+      <c r="C206" s="41" t="s">
+        <v>620</v>
+      </c>
+      <c r="D206" s="42" t="s">
+        <v>621</v>
+      </c>
+      <c r="E206" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="F206" s="5" t="s">
+        <v>235</v>
+      </c>
       <c r="G206" s="5"/>
       <c r="H206" s="5"/>
-      <c r="I206" s="6" t="s">
-        <v>534</v>
-      </c>
+      <c r="I206" s="5"/>
       <c r="J206" s="5"/>
       <c r="K206" s="5"/>
       <c r="L206" s="5"/>
@@ -12309,18 +12330,18 @@
         <v>531</v>
       </c>
       <c r="B207" s="5"/>
-      <c r="C207" s="8" t="s">
-        <v>535</v>
+      <c r="C207" s="6" t="s">
+        <v>532</v>
       </c>
       <c r="D207" s="11" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="E207" s="5"/>
       <c r="F207" s="5"/>
       <c r="G207" s="5"/>
       <c r="H207" s="5"/>
-      <c r="I207" s="8" t="s">
-        <v>537</v>
+      <c r="I207" s="6" t="s">
+        <v>534</v>
       </c>
       <c r="J207" s="5"/>
       <c r="K207" s="5"/>
@@ -12346,17 +12367,17 @@
       </c>
       <c r="B208" s="5"/>
       <c r="C208" s="8" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="D208" s="11" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="E208" s="5"/>
       <c r="F208" s="5"/>
       <c r="G208" s="5"/>
       <c r="H208" s="5"/>
-      <c r="I208" s="6" t="s">
-        <v>540</v>
+      <c r="I208" s="8" t="s">
+        <v>537</v>
       </c>
       <c r="J208" s="5"/>
       <c r="K208" s="5"/>
@@ -12381,18 +12402,18 @@
         <v>531</v>
       </c>
       <c r="B209" s="5"/>
-      <c r="C209" s="6" t="s">
-        <v>541</v>
+      <c r="C209" s="8" t="s">
+        <v>538</v>
       </c>
       <c r="D209" s="11" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="E209" s="5"/>
       <c r="F209" s="5"/>
       <c r="G209" s="5"/>
       <c r="H209" s="5"/>
       <c r="I209" s="6" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="J209" s="5"/>
       <c r="K209" s="5"/>
@@ -12418,18 +12439,18 @@
       </c>
       <c r="B210" s="5"/>
       <c r="C210" s="6" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="D210" s="11" t="s">
-        <v>545</v>
-      </c>
-      <c r="E210" s="6" t="s">
-        <v>546</v>
-      </c>
+        <v>542</v>
+      </c>
+      <c r="E210" s="5"/>
       <c r="F210" s="5"/>
       <c r="G210" s="5"/>
       <c r="H210" s="5"/>
-      <c r="I210" s="5"/>
+      <c r="I210" s="6" t="s">
+        <v>543</v>
+      </c>
       <c r="J210" s="5"/>
       <c r="K210" s="5"/>
       <c r="L210" s="5"/>
@@ -12449,23 +12470,23 @@
       <c r="Z210" s="3"/>
     </row>
     <row r="211" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A211" s="8" t="s">
-        <v>547</v>
+      <c r="A211" s="6" t="s">
+        <v>531</v>
       </c>
       <c r="B211" s="5"/>
-      <c r="C211" s="26" t="s">
-        <v>564</v>
-      </c>
-      <c r="D211" s="27" t="s">
-        <v>566</v>
-      </c>
-      <c r="E211" s="6"/>
+      <c r="C211" s="6" t="s">
+        <v>544</v>
+      </c>
+      <c r="D211" s="11" t="s">
+        <v>545</v>
+      </c>
+      <c r="E211" s="6" t="s">
+        <v>546</v>
+      </c>
       <c r="F211" s="5"/>
       <c r="G211" s="5"/>
       <c r="H211" s="5"/>
-      <c r="I211" s="5" t="s">
-        <v>565</v>
-      </c>
+      <c r="I211" s="5"/>
       <c r="J211" s="5"/>
       <c r="K211" s="5"/>
       <c r="L211" s="5"/>
@@ -12488,19 +12509,19 @@
       <c r="A212" s="8" t="s">
         <v>547</v>
       </c>
-      <c r="B212" s="4"/>
-      <c r="C212" s="21" t="s">
-        <v>548</v>
-      </c>
-      <c r="D212" s="22" t="s">
-        <v>549</v>
-      </c>
-      <c r="E212" s="4"/>
+      <c r="B212" s="5"/>
+      <c r="C212" s="26" t="s">
+        <v>564</v>
+      </c>
+      <c r="D212" s="27" t="s">
+        <v>566</v>
+      </c>
+      <c r="E212" s="6"/>
       <c r="F212" s="5"/>
       <c r="G212" s="5"/>
-      <c r="H212" s="4"/>
-      <c r="I212" s="6" t="s">
-        <v>550</v>
+      <c r="H212" s="5"/>
+      <c r="I212" s="5" t="s">
+        <v>565</v>
       </c>
       <c r="J212" s="5"/>
       <c r="K212" s="5"/>
@@ -12525,18 +12546,18 @@
         <v>547</v>
       </c>
       <c r="B213" s="4"/>
-      <c r="C213" s="8" t="s">
-        <v>551</v>
-      </c>
-      <c r="D213" s="9" t="s">
-        <v>552</v>
+      <c r="C213" s="21" t="s">
+        <v>548</v>
+      </c>
+      <c r="D213" s="22" t="s">
+        <v>549</v>
       </c>
       <c r="E213" s="4"/>
       <c r="F213" s="5"/>
       <c r="G213" s="5"/>
       <c r="H213" s="4"/>
       <c r="I213" s="6" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="J213" s="5"/>
       <c r="K213" s="5"/>
@@ -12562,17 +12583,17 @@
       </c>
       <c r="B214" s="4"/>
       <c r="C214" s="8" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="D214" s="9" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="E214" s="4"/>
       <c r="F214" s="5"/>
       <c r="G214" s="5"/>
       <c r="H214" s="4"/>
       <c r="I214" s="6" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="J214" s="5"/>
       <c r="K214" s="5"/>
@@ -12594,21 +12615,21 @@
     </row>
     <row r="215" spans="1:26" ht="13.5" customHeight="1">
       <c r="A215" s="8" t="s">
-        <v>557</v>
-      </c>
-      <c r="B215" s="5"/>
-      <c r="C215" s="6" t="s">
-        <v>558</v>
-      </c>
-      <c r="D215" s="11" t="s">
-        <v>559</v>
-      </c>
-      <c r="E215" s="5"/>
+        <v>547</v>
+      </c>
+      <c r="B215" s="4"/>
+      <c r="C215" s="8" t="s">
+        <v>554</v>
+      </c>
+      <c r="D215" s="9" t="s">
+        <v>555</v>
+      </c>
+      <c r="E215" s="4"/>
       <c r="F215" s="5"/>
       <c r="G215" s="5"/>
-      <c r="H215" s="5"/>
+      <c r="H215" s="4"/>
       <c r="I215" s="6" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="J215" s="5"/>
       <c r="K215" s="5"/>
@@ -12634,17 +12655,17 @@
       </c>
       <c r="B216" s="5"/>
       <c r="C216" s="6" t="s">
-        <v>561</v>
-      </c>
-      <c r="D216" s="32" t="s">
-        <v>562</v>
+        <v>558</v>
+      </c>
+      <c r="D216" s="11" t="s">
+        <v>559</v>
       </c>
       <c r="E216" s="5"/>
       <c r="F216" s="5"/>
       <c r="G216" s="5"/>
       <c r="H216" s="5"/>
       <c r="I216" s="6" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="J216" s="5"/>
       <c r="K216" s="5"/>
@@ -12665,22 +12686,22 @@
       <c r="Z216" s="3"/>
     </row>
     <row r="217" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A217" s="23" t="s">
-        <v>597</v>
-      </c>
-      <c r="B217" s="30"/>
-      <c r="C217" s="36" t="s">
-        <v>587</v>
-      </c>
-      <c r="D217" s="37" t="s">
-        <v>590</v>
-      </c>
-      <c r="E217" s="31"/>
+      <c r="A217" s="8" t="s">
+        <v>557</v>
+      </c>
+      <c r="B217" s="5"/>
+      <c r="C217" s="6" t="s">
+        <v>561</v>
+      </c>
+      <c r="D217" s="32" t="s">
+        <v>562</v>
+      </c>
+      <c r="E217" s="5"/>
       <c r="F217" s="5"/>
       <c r="G217" s="5"/>
       <c r="H217" s="5"/>
       <c r="I217" s="6" t="s">
-        <v>583</v>
+        <v>563</v>
       </c>
       <c r="J217" s="5"/>
       <c r="K217" s="5"/>
@@ -12702,21 +12723,21 @@
     </row>
     <row r="218" spans="1:26" ht="13.5" customHeight="1">
       <c r="A218" s="23" t="s">
-        <v>597</v>
-      </c>
-      <c r="B218" s="33"/>
-      <c r="C218" s="38" t="s">
-        <v>598</v>
-      </c>
-      <c r="D218" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="E218" s="4"/>
-      <c r="F218" s="16"/>
-      <c r="G218" s="16"/>
-      <c r="H218" s="4"/>
+        <v>596</v>
+      </c>
+      <c r="B218" s="30"/>
+      <c r="C218" s="36" t="s">
+        <v>587</v>
+      </c>
+      <c r="D218" s="37" t="s">
+        <v>590</v>
+      </c>
+      <c r="E218" s="31"/>
+      <c r="F218" s="5"/>
+      <c r="G218" s="5"/>
+      <c r="H218" s="5"/>
       <c r="I218" s="6" t="s">
-        <v>225</v>
+        <v>583</v>
       </c>
       <c r="J218" s="5"/>
       <c r="K218" s="5"/>
@@ -12738,21 +12759,21 @@
     </row>
     <row r="219" spans="1:26" ht="13.5" customHeight="1">
       <c r="A219" s="23" t="s">
+        <v>596</v>
+      </c>
+      <c r="B219" s="33"/>
+      <c r="C219" s="38" t="s">
         <v>597</v>
       </c>
-      <c r="B219" s="33"/>
-      <c r="C219" s="25" t="s">
-        <v>584</v>
-      </c>
-      <c r="D219" s="24" t="s">
-        <v>593</v>
-      </c>
-      <c r="E219" s="5"/>
-      <c r="F219" s="5"/>
-      <c r="G219" s="5"/>
-      <c r="H219" s="5"/>
-      <c r="I219" s="5" t="s">
-        <v>595</v>
+      <c r="D219" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="E219" s="4"/>
+      <c r="F219" s="16"/>
+      <c r="G219" s="16"/>
+      <c r="H219" s="4"/>
+      <c r="I219" s="6" t="s">
+        <v>225</v>
       </c>
       <c r="J219" s="5"/>
       <c r="K219" s="5"/>
@@ -12774,21 +12795,21 @@
     </row>
     <row r="220" spans="1:26" ht="13.5" customHeight="1">
       <c r="A220" s="23" t="s">
-        <v>597</v>
-      </c>
-      <c r="B220" s="30"/>
-      <c r="C220" s="34" t="s">
-        <v>210</v>
-      </c>
-      <c r="D220" s="35" t="s">
-        <v>211</v>
-      </c>
-      <c r="E220" s="4"/>
-      <c r="F220" s="16"/>
-      <c r="G220" s="16"/>
-      <c r="H220" s="4"/>
-      <c r="I220" s="6" t="s">
-        <v>212</v>
+        <v>596</v>
+      </c>
+      <c r="B220" s="33"/>
+      <c r="C220" s="25" t="s">
+        <v>584</v>
+      </c>
+      <c r="D220" s="24" t="s">
+        <v>593</v>
+      </c>
+      <c r="E220" s="5"/>
+      <c r="F220" s="5"/>
+      <c r="G220" s="5"/>
+      <c r="H220" s="5"/>
+      <c r="I220" s="5" t="s">
+        <v>595</v>
       </c>
       <c r="J220" s="5"/>
       <c r="K220" s="5"/>
@@ -12810,21 +12831,21 @@
     </row>
     <row r="221" spans="1:26" ht="13.5" customHeight="1">
       <c r="A221" s="23" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B221" s="30"/>
-      <c r="C221" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="D221" s="9" t="s">
-        <v>215</v>
+      <c r="C221" s="34" t="s">
+        <v>210</v>
+      </c>
+      <c r="D221" s="35" t="s">
+        <v>211</v>
       </c>
       <c r="E221" s="4"/>
       <c r="F221" s="16"/>
       <c r="G221" s="16"/>
       <c r="H221" s="4"/>
       <c r="I221" s="6" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="J221" s="5"/>
       <c r="K221" s="5"/>
@@ -12846,23 +12867,21 @@
     </row>
     <row r="222" spans="1:26" ht="13.5" customHeight="1">
       <c r="A222" s="23" t="s">
-        <v>597</v>
-      </c>
-      <c r="B222" s="30" t="s">
-        <v>588</v>
-      </c>
-      <c r="C222" s="25" t="s">
-        <v>585</v>
-      </c>
-      <c r="D222" s="24" t="s">
-        <v>592</v>
-      </c>
-      <c r="E222" s="5"/>
-      <c r="F222" s="5"/>
-      <c r="G222" s="5"/>
-      <c r="H222" s="5"/>
-      <c r="I222" s="5" t="s">
-        <v>266</v>
+        <v>596</v>
+      </c>
+      <c r="B222" s="30"/>
+      <c r="C222" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="D222" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="E222" s="4"/>
+      <c r="F222" s="16"/>
+      <c r="G222" s="16"/>
+      <c r="H222" s="4"/>
+      <c r="I222" s="6" t="s">
+        <v>216</v>
       </c>
       <c r="J222" s="5"/>
       <c r="K222" s="5"/>
@@ -12884,23 +12903,23 @@
     </row>
     <row r="223" spans="1:26" ht="13.5" customHeight="1">
       <c r="A223" s="23" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B223" s="30" t="s">
         <v>588</v>
       </c>
       <c r="C223" s="25" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D223" s="24" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="E223" s="5"/>
       <c r="F223" s="5"/>
       <c r="G223" s="5"/>
       <c r="H223" s="5"/>
       <c r="I223" s="5" t="s">
-        <v>618</v>
+        <v>266</v>
       </c>
       <c r="J223" s="5"/>
       <c r="K223" s="5"/>
@@ -12922,23 +12941,23 @@
     </row>
     <row r="224" spans="1:26" ht="13.5" customHeight="1">
       <c r="A224" s="23" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B224" s="30" t="s">
         <v>588</v>
       </c>
       <c r="C224" s="25" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="D224" s="24" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="E224" s="5"/>
       <c r="F224" s="5"/>
       <c r="G224" s="5"/>
       <c r="H224" s="5"/>
       <c r="I224" s="5" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="J224" s="5"/>
       <c r="K224" s="5"/>
@@ -12959,15 +12978,25 @@
       <c r="Z224" s="3"/>
     </row>
     <row r="225" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A225" s="5"/>
-      <c r="B225" s="5"/>
-      <c r="C225" s="5"/>
-      <c r="D225" s="5"/>
+      <c r="A225" s="23" t="s">
+        <v>596</v>
+      </c>
+      <c r="B225" s="30" t="s">
+        <v>588</v>
+      </c>
+      <c r="C225" s="25" t="s">
+        <v>589</v>
+      </c>
+      <c r="D225" s="24" t="s">
+        <v>591</v>
+      </c>
       <c r="E225" s="5"/>
       <c r="F225" s="5"/>
       <c r="G225" s="5"/>
       <c r="H225" s="5"/>
-      <c r="I225" s="5"/>
+      <c r="I225" s="5" t="s">
+        <v>616</v>
+      </c>
       <c r="J225" s="5"/>
       <c r="K225" s="5"/>
       <c r="L225" s="5"/>
@@ -18194,7 +18223,34 @@
       <c r="Y411" s="3"/>
       <c r="Z411" s="3"/>
     </row>
-    <row r="412" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="412" spans="1:26" ht="13.5" customHeight="1">
+      <c r="A412" s="5"/>
+      <c r="B412" s="5"/>
+      <c r="C412" s="5"/>
+      <c r="D412" s="5"/>
+      <c r="E412" s="5"/>
+      <c r="F412" s="5"/>
+      <c r="G412" s="5"/>
+      <c r="H412" s="5"/>
+      <c r="I412" s="5"/>
+      <c r="J412" s="5"/>
+      <c r="K412" s="5"/>
+      <c r="L412" s="5"/>
+      <c r="M412" s="6"/>
+      <c r="N412" s="3"/>
+      <c r="O412" s="3"/>
+      <c r="P412" s="3"/>
+      <c r="Q412" s="3"/>
+      <c r="R412" s="3"/>
+      <c r="S412" s="3"/>
+      <c r="T412" s="3"/>
+      <c r="U412" s="3"/>
+      <c r="V412" s="3"/>
+      <c r="W412" s="3"/>
+      <c r="X412" s="3"/>
+      <c r="Y412" s="3"/>
+      <c r="Z412" s="3"/>
+    </row>
     <row r="413" spans="1:26" ht="15.75" customHeight="1"/>
     <row r="414" spans="1:26" ht="15.75" customHeight="1"/>
     <row r="415" spans="1:26" ht="15.75" customHeight="1"/>
@@ -18791,6 +18847,7 @@
     <row r="1006" ht="15.75" customHeight="1"/>
     <row r="1007" ht="15.75" customHeight="1"/>
     <row r="1008" ht="15.75" customHeight="1"/>
+    <row r="1009" ht="15.75" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="13"/>
   <hyperlinks>
@@ -18885,120 +18942,121 @@
     <hyperlink ref="D91" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
     <hyperlink ref="D92" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
     <hyperlink ref="D93" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="D95" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="D101" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="D102" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="D103" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="D104" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="D105" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="D106" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="D107" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="D108" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="D109" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="D110" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
-    <hyperlink ref="D111" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
-    <hyperlink ref="D112" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="D113" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
-    <hyperlink ref="D114" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="D115" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
-    <hyperlink ref="D116" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
-    <hyperlink ref="D117" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
-    <hyperlink ref="D118" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="D119" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
-    <hyperlink ref="D120" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
-    <hyperlink ref="D121" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
-    <hyperlink ref="D122" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-    <hyperlink ref="D123" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
-    <hyperlink ref="D124" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
-    <hyperlink ref="D125" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
-    <hyperlink ref="D126" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
-    <hyperlink ref="D127" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
-    <hyperlink ref="D128" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
-    <hyperlink ref="D129" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
-    <hyperlink ref="D130" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
-    <hyperlink ref="D131" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
-    <hyperlink ref="D132" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
-    <hyperlink ref="D133" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
-    <hyperlink ref="D134" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
-    <hyperlink ref="D135" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
-    <hyperlink ref="D136" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
-    <hyperlink ref="D137" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
-    <hyperlink ref="D138" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
-    <hyperlink ref="D139" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
-    <hyperlink ref="D140" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
-    <hyperlink ref="D141" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
-    <hyperlink ref="D142" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
-    <hyperlink ref="D143" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
-    <hyperlink ref="D144" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
-    <hyperlink ref="D145" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
-    <hyperlink ref="D146" r:id="rId138" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
-    <hyperlink ref="D147" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
-    <hyperlink ref="D148" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
-    <hyperlink ref="D149" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
-    <hyperlink ref="D150" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
-    <hyperlink ref="D151" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
-    <hyperlink ref="D152" r:id="rId144" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
-    <hyperlink ref="D158" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
-    <hyperlink ref="D159" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
-    <hyperlink ref="D160" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
-    <hyperlink ref="D161" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
-    <hyperlink ref="D162" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
-    <hyperlink ref="D163" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
-    <hyperlink ref="D164" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
-    <hyperlink ref="D165" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
-    <hyperlink ref="D166" r:id="rId153" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
-    <hyperlink ref="D167" r:id="rId154" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
-    <hyperlink ref="D168" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
-    <hyperlink ref="D169" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
-    <hyperlink ref="D170" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
-    <hyperlink ref="D176" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
-    <hyperlink ref="D177" r:id="rId159" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
-    <hyperlink ref="D178" r:id="rId160" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
-    <hyperlink ref="D179" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
-    <hyperlink ref="D180" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
-    <hyperlink ref="D181" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
-    <hyperlink ref="D182" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
-    <hyperlink ref="D183" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
-    <hyperlink ref="D184" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
-    <hyperlink ref="D185" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
-    <hyperlink ref="D186" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
-    <hyperlink ref="D187" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
-    <hyperlink ref="D188" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
-    <hyperlink ref="D189" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
-    <hyperlink ref="D190" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
-    <hyperlink ref="D191" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
-    <hyperlink ref="D192" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
-    <hyperlink ref="D193" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
-    <hyperlink ref="D194" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
-    <hyperlink ref="D195" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
-    <hyperlink ref="D196" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
-    <hyperlink ref="D197" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
-    <hyperlink ref="D198" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
-    <hyperlink ref="D199" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
-    <hyperlink ref="D200" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
-    <hyperlink ref="D201" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
-    <hyperlink ref="D202" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
-    <hyperlink ref="D203" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
-    <hyperlink ref="D204" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
-    <hyperlink ref="D205" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
-    <hyperlink ref="D206" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
-    <hyperlink ref="D207" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
-    <hyperlink ref="D208" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
-    <hyperlink ref="D209" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
-    <hyperlink ref="D210" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
-    <hyperlink ref="D212" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
-    <hyperlink ref="D213" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
-    <hyperlink ref="D214" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
-    <hyperlink ref="D215" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
-    <hyperlink ref="D216" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
-    <hyperlink ref="D211" r:id="rId198" xr:uid="{FB5BD734-C92C-4DCB-AC83-E67BDA12DFF4}"/>
-    <hyperlink ref="D171" r:id="rId199" xr:uid="{E6F63535-7CB0-4B0A-8A9B-2FF45193FA31}"/>
-    <hyperlink ref="D172" r:id="rId200" xr:uid="{23618A7F-70F1-429D-A989-04E42D5219C5}"/>
-    <hyperlink ref="D174" r:id="rId201" xr:uid="{A61CFECD-5D13-489A-855F-076420E34CFD}"/>
-    <hyperlink ref="D175" r:id="rId202" xr:uid="{6EDE7FBD-C182-4315-93DC-5FE3983DF025}"/>
-    <hyperlink ref="D218" r:id="rId203" xr:uid="{511CA28D-F4D7-4764-8143-3595BDCD915C}"/>
-    <hyperlink ref="D221" r:id="rId204" xr:uid="{F41BCF05-CC73-422D-8893-0B9A8DAAA427}"/>
-    <hyperlink ref="D220" r:id="rId205" xr:uid="{F8CC161C-3698-4455-AE50-3DBD3D45797B}"/>
+    <hyperlink ref="D94" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="D100" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="D101" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="D102" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="D103" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="D104" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="D105" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="D106" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="D107" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="D108" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="D109" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="D110" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="D111" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="D112" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="D113" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="D114" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="D115" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="D116" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="D117" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="D118" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="D119" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="D120" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="D121" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="D122" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="D123" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="D124" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="D125" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="D126" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="D127" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="D128" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="D129" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="D130" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="D131" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="D132" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="D133" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="D134" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="D135" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="D136" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="D137" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="D138" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="D139" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="D140" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="D141" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
+    <hyperlink ref="D142" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="D143" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="D144" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="D145" r:id="rId138" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="D146" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="D147" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="D148" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="D149" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="D150" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="D151" r:id="rId144" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="D157" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="D158" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="D159" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="D160" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="D161" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="D162" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="D163" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="D164" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
+    <hyperlink ref="D165" r:id="rId153" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
+    <hyperlink ref="D166" r:id="rId154" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
+    <hyperlink ref="D167" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
+    <hyperlink ref="D168" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
+    <hyperlink ref="D169" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
+    <hyperlink ref="D175" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
+    <hyperlink ref="D176" r:id="rId159" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
+    <hyperlink ref="D177" r:id="rId160" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
+    <hyperlink ref="D178" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
+    <hyperlink ref="D179" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
+    <hyperlink ref="D180" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
+    <hyperlink ref="D181" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
+    <hyperlink ref="D182" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
+    <hyperlink ref="D183" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
+    <hyperlink ref="D184" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
+    <hyperlink ref="D185" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
+    <hyperlink ref="D186" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
+    <hyperlink ref="D187" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
+    <hyperlink ref="D188" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
+    <hyperlink ref="D189" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
+    <hyperlink ref="D190" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
+    <hyperlink ref="D191" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
+    <hyperlink ref="D192" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
+    <hyperlink ref="D193" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
+    <hyperlink ref="D194" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
+    <hyperlink ref="D195" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
+    <hyperlink ref="D196" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
+    <hyperlink ref="D197" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
+    <hyperlink ref="D198" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
+    <hyperlink ref="D199" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
+    <hyperlink ref="D200" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
+    <hyperlink ref="D201" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
+    <hyperlink ref="D202" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
+    <hyperlink ref="D203" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
+    <hyperlink ref="D204" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
+    <hyperlink ref="D207" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
+    <hyperlink ref="D208" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
+    <hyperlink ref="D209" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
+    <hyperlink ref="D210" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
+    <hyperlink ref="D211" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
+    <hyperlink ref="D213" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
+    <hyperlink ref="D214" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
+    <hyperlink ref="D215" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
+    <hyperlink ref="D216" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
+    <hyperlink ref="D217" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
+    <hyperlink ref="D212" r:id="rId198" xr:uid="{FB5BD734-C92C-4DCB-AC83-E67BDA12DFF4}"/>
+    <hyperlink ref="D170" r:id="rId199" xr:uid="{E6F63535-7CB0-4B0A-8A9B-2FF45193FA31}"/>
+    <hyperlink ref="D171" r:id="rId200" xr:uid="{23618A7F-70F1-429D-A989-04E42D5219C5}"/>
+    <hyperlink ref="D173" r:id="rId201" xr:uid="{A61CFECD-5D13-489A-855F-076420E34CFD}"/>
+    <hyperlink ref="D174" r:id="rId202" xr:uid="{6EDE7FBD-C182-4315-93DC-5FE3983DF025}"/>
+    <hyperlink ref="D219" r:id="rId203" xr:uid="{511CA28D-F4D7-4764-8143-3595BDCD915C}"/>
+    <hyperlink ref="D222" r:id="rId204" xr:uid="{F41BCF05-CC73-422D-8893-0B9A8DAAA427}"/>
+    <hyperlink ref="D221" r:id="rId205" xr:uid="{F8CC161C-3698-4455-AE50-3DBD3D45797B}"/>
+    <hyperlink ref="D205" r:id="rId206" xr:uid="{A0788907-6004-4492-830F-55A09B035597}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <headerFooter>
